--- a/noticias_dap.xlsx
+++ b/noticias_dap.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\DAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\DAP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A00ABF0E-2584-47ED-9D01-44A5D926F8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E229D4E-B592-4A5D-A33B-780F8C393EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19C68159-5166-45DD-BAFC-25160BD78539}"/>
   </bookViews>
   <sheets>
     <sheet name="noticias_dap" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_dap!$A$1:$E$204</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="459">
   <si>
     <t>fecha</t>
   </si>
@@ -509,6 +512,894 @@
   </si>
   <si>
     <t>agenda nacional</t>
+  </si>
+  <si>
+    <t>¿Cómo cambiarán los medicamentos para perder peso a la industria alimentaria? Aquí te contamos</t>
+  </si>
+  <si>
+    <t>industria alimentaria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNM2NES2dsU1JZUHhnSExyd1NLZ29GNExiUVo4UVpjdnEtbi1VQnN2c09WQ0lmbndwWGVDNDZZTWIzTmIzaXY4cTk0cHJwZzJQYzFNdHNJUkxnTlhmVzVuNVFscVZLQ0d3TUdhS0t2UGpQeEpYMUFndDhONUhJRGN6ZU5mZU9nemQ1RDZJZl9iNkwxYTd6eGo1eUFQdkQ2cGtDczNNbWtwZmRPaHkxajFzb3N2aEZ5Zw?oc=5</t>
+  </si>
+  <si>
+    <t>Cuba se queda sin gas LP: Jamaica se ‘rehúsa’ a venderle petróleo por ‘terror’ a aranceles de Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxQZVpRT2lacVdVWFpPODF2VHIxR0pjT01HZFdhS0FGWUxiSG9wTlgxZXFBVGg5dmpUcEU0eXFNb2pYZUN1eEFfVWtnVmp0V2xHcTRaeVhqbXpsUFQzczc1bGpXbDh0c2FfYW0zQmtCdW9zQkh1VUM3dWZmS3VMUTZCQWtTUkJwWVRxbEM3SDdMYmVPSFhFVXU2R2p5Z2tMVmljNENCSW54a0dBeEV4cHgyZWV3Q2RTREhVaFRwRXJfQ29xVk9MNl9uUU5HYjdxMEJCdFN5aFJfdXV2dnVo?oc=5</t>
+  </si>
+  <si>
+    <t>El Financiero</t>
+  </si>
+  <si>
+    <t>Venezuela exporta por primera vez gas licuado de petróleo, PDVSA marca un hito energético</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxNajBfVjE4Zkc4MGZZT1dtbGROX1BoRXFBNUM3Y2t3aW0yeU9TRWRmQkZsclpKVXRUOE8yWi1pdE5ERmpTYmVIN05PSnFpVmVZcGd5ZWxjQnpPNzlHZ3ZNVW1HYzJtbW44b0ZVYmppcmphWlJ2a09SWnJhS2JLTW9UZHB3SDNVUXg3LXJnNDRmaUJtemQwR2dNY2NfLWU2aUNBbnQ5aVBGZGZyT2R4TGlsWFFBNVVQVE9pV0M2eHB2Vkl5NTdu0gHYAUFVX3lxTE41ZmtieS0tVEVYdlMxUVhyNXhMOWxkRUpkbE9XaExnV0RYbjZBZndQRklKV1ZhajhiMk9OUXFMUHJQaU9xeTVUR3J1X1E1MXNjMEhuQlNvM050UFFYVWdWWWFJUjhyWEdqd21NRUxaMFJUcG1ONXlzRzJSek1fUkl4aWIzZW9JLXhYOURCM1QyVVFoMjBJSW9GaXppejloY3dLdmJvSWNRT2txM1ItNk5ULVgzRGMwQzFrRWh5Q0hMb0JNNTdoSGhHM1B5RkFTLXhzNG45anE5Tw?oc=5</t>
+  </si>
+  <si>
+    <t>Tres fugas de gas en cinco meses en Coacalco</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxPUU9laHZEb3o3X2huQ1VYbk96RkZhdmRNV3pUV3YzbnlGaS1PVE9VR2tVdndkdW1zWmgtVUdSYkpJNGxwU0xGdTdqeWFCZUstTzFQNVh3eVFmZ0diWDhWLVBYNHlxamxwM08xVnkwT0M4SF9RTWNpRE9nRkZvT25GZWNRNk5zREU3dTJMM2h1NmVBcnREbjRZUk55UFhxSVVjeWgtN3hpc202RzVYaTF6aW5hbTI0SnFjYnVzUdIB0AFBVV95cUxQdXFSOFV0Y2hDZks3VGF0NnlpU0E5T2ltVHNqWTdyT0lwb3JqUkVKX09oSzJBZVRqSHdNMC03UVc0bTJiOWtKcGFtLUM5T3dXYi1XNDRiSll1MVFkTFhHT0JORnJteFhpZk1fUk10Q1hWNzZGMkU4MWlqZ3NIdGpScTdsWG5LSkJ0VXJzSUZQcDdjc0VWaVYxLVNibVI0bHpmeTdGTkxIbnJrN1JsTUE1RDJCN2hDUUl3eVhReml5NmRzOHpkdUlMV2dJcmNfS0dX?oc=5</t>
+  </si>
+  <si>
+    <t>Gas Natural y TMEC</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggFBVV95cUxQWnpHSTItMmdPcEpFdDYzN1A0aDdoNFN4MXFoZzJHMWlkVFFNME9ZN1FtcFFzZGNCUkZ4aGo5VW9yQktxMFlCTFdIcEdROUZGcVFoQmJSaENQYVFrdDRZb3hGblhrS0pwbWVhQndyZDMzNTl2RGpyUjdldDFzcGREVTZB0gGHAUFVX3lxTE5ic3VBYUxyRGtyUGg2RnNLV2MwS3NLY2tRQjBDRTBSQ005RWxGRmhHQnV5aDFrT0NlLVN0Mi1BbnhmZHUxRFVvY1ItTmNUd2tvZ2dkanJVeWhwMzRQa3V1SmRQb3JldjEzZVhSVmFRNndLT0wxRFJQV0xONVdQT0haV2VJdEJHOA?oc=5</t>
+  </si>
+  <si>
+    <t>Explota una casa en la colonia Axotla en Álvaro Obregón por acumulación de gas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxONmFlYW1tNDNMUHJaWWR3YnVsVGdUU1d5LXEzRVRsbEc0OHBhTWs0a1BzY05LY29nSUlnMjI1YzFuWVhMZHlzaV81TUhTcFdKM3dtWE9VekxlYTJraTltd2VxZmJwT3dXdkx2OU01dk9rTXBuajhZdU9HTDJaMWxqbW5US0tVbUNnZ0pkME9wdTFBYU83ZE1ESldvZWRJSk5ZcF9oQjRQRGdGMVF6N3ZNMTJQTGJvZjN0VkZMR243MzRZeko5NEJXdmhyUTQxOEh0YmNUem42ekJINjDSAdsBQVVfeXFMTjZhZWFtbTQzTFByWllkd2J1bFRnVFNXeS1xM0VUbGxHNDhwYU1rNGtQc2NOS2NvZ0lJZzIyNWMxbllYTGR5c2lfNU1IU3BXSjN3bVhPVXpMZWEya2k5bXdlcWZicE93V3ZMdjlNNXZPa01wbmo4WXVPR0wyWjFsam1uVEtLVW1DZ2dKZDBPcHUxQWFPN2RNREpXb2VkSUpOWXBfaEI0UERnRjFRejd2TTEyUExib2YzdFZGTEduNzM0WXpKOTRCV3ZoclE0MThIdGJjVHpuNnpCSDYw?oc=5</t>
+  </si>
+  <si>
+    <t>Graban momento exacto en que ocurre explosión por acumulación de gas en colonia Axotla | VIDEO FUERTE</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9wFBVV95cUxNMWdsek1nUm5YQUpDa045S1diaVpxV3YyV2pINTQ3NlJfN0xURFRMZUlnLXRBRHVVZWtoYjNXQ1RDR05yR2d3LUFiQjdCdU1xWVFKMUhteTRYeDB0MGQ4TXNvRkhmY0dOMmRCSnJDV2t3SVJMMExKdWUzRG9CQ2xHWnNkZ1o5dmFsWTBwZkpDTk5uMXBvdWlmNFU1WmxHMXNBYVdyU2xJakZnZEFKeW9LaTlzQVlnRDkyVUk5R3NNVUFuRnBVMjlHMW16cHdqUkVoNm1lNDhNSV95T2FJd0doY1FUSHdIbUVVbDFxbW9pcGZubjhrR2tR0gH3AUFVX3lxTE0xZ2x6TWdSblhBSkNrTjlLV2JpWnFXdjJXakg1NDc2Ul83TFREVExlSWctdEFEdVVla2hiM1dDVENHTnJHZ3ctQWJCN0J1TXFZUUoxSG15NFh4MHQwZDhNc29GSGZjR04yZEJKckNXa3dJUkwwTEp1ZTNEb0JDbEdac2RnWjl2YWxZMHBmSkNOTm4xcG91aWY0VTVabEcxc0FhV3JTbElqRmdkQUp5b0tpOXNBWWdEOTJVSTlHc01VQW5GcFUyOUcxbXpwd2pSRWg2bWU0OE1JX3lPYUl3R2hjUVRId0htRVVsMXFtb2lwZm5uOGtHa1E?oc=5</t>
+  </si>
+  <si>
+    <t>¿Dónde cargar gasolina más barata HOY? Precios de este lunes 2 de febrero 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxQaXVxZEcwTk9QM3hvaUZfeGQ0eVAyODl1dHVTVVRYRzR0WWphMHZFN1I2akROd0M1UGtvVkg0QnBEUERqZTBQeFRNVzZNcHlsZU9nekFzVjB1MHBBRUhSTDhHQWJmSmlLUnpMZ2FndXRySVFnWEFjZEx2STEtdk1NZTIyb1dfVEZQay01bWE3UlgtTzBpamw2amtPR3dGb1diYzZ0YUdEQXhKT2JtUHVISFo0N21iOXplRGhGc1NFRFpyZXJuQ1A0ZGdGS2RvQVBs0gHWAUFVX3lxTE1GV1FQSUR0Z2FsYW4tcjRlYzB2aUg4cW5MbWF0MGExNk9PQ0pHMEJpTThxN1UyQzVHUGJUd0QwMlZlN1NYMGp3a2pEYUVIYXNQOWNJUWMtZlgwZUJlLS1jaVZNU2E1ek1VTEJrOTVxWF8ySDJRcnRCMDNXRTVLNlBHb2xoZDZYeVFrb3ZsV3RUWE1JMDB1S0hjSnpZWm93RzU3bFpJbDFLNzlabWRHVGF5c1UtMzdWQzB0TlVEbDduRmNTdHBjc2FQdE9TQ2o1a1hrZXNpcVE?oc=5</t>
+  </si>
+  <si>
+    <t>Las tortugas han reconstruido las Galápagos: las grandes ingenieras ambientales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxOT3ptdmJyeEQ5UHlOYjZFRzFrMkJkVkIyVWlLeEZtMjFrTEJnSlJwSFJGNk1NZVJaaHAtTXdwNXUweWpJTkZmdVV2VndaTTB5NkRyQTJhQ0U5WWhqc3hxTjVCb1lsbWFDNWYzR3FMdFJnZkxjVXMtLWp5eUFYbHo0SkZyOEpnd0hSLW5sUFZTbXcyTkl4RWJBNkF0eGthT1B5Z014Q2ZZTGF6c1ZJZS1BcEhZdFF5UFpOamVNRWhjRUJKZkRtTFRjU25kRVpMWVdj?oc=5</t>
+  </si>
+  <si>
+    <t>Animal Politico</t>
+  </si>
+  <si>
+    <t>Zarpa el primer buque de gas licuado de petróleo de Venezuela</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxOb2g2Y1NWREZ0Q3hlZTlGdy1CamtYWk9KdlYzWm1yejFHVlFsVTNkUWdob21LTmNQRzFaLThXcDNmdXZpR1JUdHYtQnFGZlNTTWhMaFFYRnlDNnVyRTJYZEMzN0p3OW04Q1VKNENMYzdKNl9wajBwaVhwU2l0YjFKUWhabEpuN1k1dDVMaGVrcGJfU2lMTkZqNTVZbk1QWDVzbkIxWXN5cm1TMFXSAasBQVVfeXFMTm9oNmNTVkRGdEN4ZWU5RnctQmprWFpPSnZWM1ptcnoxR1ZRbFUzZFFnaG9tS05jUEcxWi04V3AzZnV2aUdSVHR2LUJxRmZTU01oTGhRWEZ5QzZ1ckUyWGRDMzdKdzltOENVSjRDTGM3SjZfcGowcGlYcFNpdGIxSlFoWmxKbjdZNXQ1TGhla3BiX1NpTE5GajU1WW5NUFg1c25CMVlzeXJtUzBV?oc=5</t>
+  </si>
+  <si>
+    <t>Se registra desabasto de gas LP en Centla tras operativo contra distribuidora por irregularidades</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxNZVEzb2tJNW1PR0hoTDg4dzlFWTZNMUdIUjlmTExUTWh6UFlWaW44aGw5LV91RW9EbGg0LWMyMlFRRzVvbnNtS3FCYmc1VHV2aEttdE1jZGl5MEh1N0dGa3NLT210TVpzN2g0V0x6M1BnSFpIYVRDcU1rOFBzQ3l5RWtHZS1ZYnNweDlBVjA2S3FSZC11WXV0ckJGSFVsNVRFZmhMQ0UtUlVsb2pSRnFoTm9HV01BY29IdjZ4TndKa0VFZ19TMkN6UjlsbEN3UWd5QnE5eHowX1FBYW5s0gHcAUFVX3lxTE1lUTNva0k1bU9HSGhMODh3OUVZNk0xR0hSOWZMTFRNaHpQWVZpbjhobDktX3VFb0RsaDQtYzIyUVFHNW9uc21LcUJiZzVUdXZoS210TWNkaXkwSHU3R0Zrc0tPbXRNWnM3aDRXTHozUGdIWkhhVENxTWs4UHNDeXlFa0dlLVlic3B4OUFWMDZLcVJkLXVZdXRyQkZIVWw1VEVmaExDRS1SVWxvalJGcWhOb0dXTUFjb0h2NnhOd0prRUVnX1MyQ3pSOWxsQ3dRZ3lCcTl4ejBfUUFhbmw?oc=5</t>
+  </si>
+  <si>
+    <t>El gas natural, la crisis por venir a México en 2028</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilgFBVV95cUxQMnhxMW5OOGxjcC1GU0w3Sm96cGQ2NG43d09vYlhqMDBaWVg5TVhjN2Z2Mkp1NFZjR1BWSjNLTVZnTUZSOTRtUWVlSDgtLTNKOEUyUlFKSFZlTEs3Nlhaa0NxUHdlaGE3NmcxZFE2NE5EbHJHSjFZcVM5OUM3QXNKWmUwaDkzTFkxMWJUaG5abHI5QURZNmfSAaMBQVVfeXFMTllWOTRlMi1CSE02eTFldXc4TDlQLUhJckpXUnZidVd1SGRUWC1OSmxTR0c5R215RmJhVGstTWUzd1dfLUtnZnd4U3A3NW40SDZrVlkxLUYzZHp4RkRBeTNEaG5yLVNJbE96UUE4NGdOYUNZWlFxcVNpZGxGMngydkd6NTg0cHZEalNxa09JSEhtc3NKNmxTU21vSFEzU29maTlfdw?oc=5</t>
+  </si>
+  <si>
+    <t>Explosión de Tanque de Gas durante Feria Patronal en Puebla Provoca Fuerte Incendio</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxQa2ZkOXFpRGFUam9RMzJCdkQwODBnUjByb2xKTi1tdjVqamkwcTBUaDYzRnBvSElfT2hialhrZTZUUlQtYmF6ZVJUWWk0UktFbXE0MFRZdGxJSG03Vmg5OHNfRWxmbWZZMmNJYnJPS0lNX29HTDk0LVhTUVk3bTN2LWdBVU9STlBWLThoMHc3dmFta29sN2FQNVljRG1odEYtV3U0WmljSmQ0NnNJeS1xUEdLSzRjaE5pMDlETmVKeFB2VGZaSklndktOWHJEZUN3WFE?oc=5</t>
+  </si>
+  <si>
+    <t>Venezuela Exportó su Primer Cargamento de Gas Licuado de Petróleo, Anunció Delcy Rodríguez</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxNVG45TjV4WFpOc2FqSWRTaVhVeTI2ekY5SGVpbFpqLXk4SWdMX1BjUG41NHc3blB5ZXVvUjBXakQ1YkZ6aVpIMXM3Rk9SZUNSMENEM3RSalRnbnIxLXg0ZS13a1ZrQjNUUkQtOE9pWHJCYklYcU9XRzlUUU52UU9YZ1p1ZjI5dkxnQmw2QXp5OUlnRVRPbzBva21RMmhkVnJPRDMzYU1iN1FQeXU0WEYxWWVRMHRHTzB1S2dLOWZ2eW5yVVFlcWpOaU5acHRVelUwNkgtUjMzeUx3QmRJbEVfb2NR?oc=5</t>
+  </si>
+  <si>
+    <t>Video: Momento Exacto de la Explosión de una Casa por Acumulación de Gas en Álvaro Obregón</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxNYTFXMVE1bWQ5djVPZHd1Y29HUVI0NmFnUV92UTZhY2dqLWMyM1B3cFBoaDNIMVpwd0F1aDd2R1k0MXh0M1lfRExEN1VEWXZPdFZLNHNIZVgyN0ZlaFhZbDRiQ2UzbWlWeUVqZ1lNTzBaakp5TDVsY3AxSU5ieGh4NEt2Y2x6eHFyU2szM3d2eDkwZkxYd1V6cTdJcDlJTEtVZzMtWnJDMEpGMkZFLTMzSFVaZ2l4dGxoR1RVbXJRLWM5ZWQ2aDl4aU5tY3ZVVnBZYWhKNzJYUDlNQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Desalojan Edificios por Choque que Provocó Fuga de Gas y Agua en Monterrey</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxOQzJNcXpLZ0RGV2Jmb1RSYzFnc0tYcHQteWphcllRVF8yZGE4dlBQdmJLTVk1UzROYmRYczdTdVpuM1hPd0E1NUQ3NHcwVVQ5dDJQMlVlM1Z0aktYaEdFQWZUZklhbEpXOC1leFllQ0FsR25KUmRpV1ktX0hpYXZ5TkhraWRhR2xvNXkxdXgwN3o0MmZQRmdRMEdOMkdKNUFERnlTUjRsa1NxZGxlNHJNU1B3UVROZm9IUXJPTnBnSXdyMEJTWGpPeFFVaW05NE1fRnpZZg?oc=5</t>
+  </si>
+  <si>
+    <t>Explota Tanque de Gas durante Feria Patronal en Puebla</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxQZ2lPV3phTkV5aUo1SEFUVUktU00taW9WbzRWc0dhUWVUeFZvcGRqR3Yzb3A3SFMyejdiM01pT3BBQl9admVhVUpvV2xBNTVzSmR6WTRRUUl1TzkweVg4NTljaG5zOXJlMVZWaWhxSENnNkJVYUxQdV9sVHNqM2thbEJTTmJNZVNmWUFkLWxIRU1lRk5zU2E0ODI1LU5lck04enFMLWlRTVc0RG5LRWs4MVg3UUFjcDFjZ1lqcF9WSnBiRDJpelNEcDFCQ2dibE00NzZtZA?oc=5</t>
+  </si>
+  <si>
+    <t>Fuga de Gas en Vivienda de la Col. Doctores, CDMX, deja un Muerto</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxNa1ZMZVFFNlIwWXl1XzF6MW5mSVVwTEVyaUV1ai1qRTlJQXdaRHpncEdNelRJLUxHS0hVbUlhVE0wbVExQnRxcHhCaTdLalVTaFJ3cm1ycVVxQWZhdHpJdUtMRzA4a3BjdUVMWGN2dzJpYXBiZl9mVlhKa3ExOC1hWUtucGZSWFN4dXFLRjh4eGtCcF81UWhOZ0RnUTBiZFJocFlfQVBuczdDME1UWGZPMHJLVHhsUXM?oc=5</t>
+  </si>
+  <si>
+    <t>Adulta Mayor Narra Cómo Chocó contra Tuberías que Provocó Fuga de Gas y Agua en Monterrey</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7gFBVV95cUxOMV80N1A2aWZ1bzktVW04cDdfaTI4eXN4WGczbHh1Mkdqc25WNUNTQTZLZDg0OFFRRGJLR2ZlbloyUXVScHRIQzJ6MVR2dXNPRlQ2anU2cnljTHpIdFk4WE9XYWctZnR3cGlBTXVTQlBVNm1iMXkyUlpXc0czUWNjSXQ2MW1jbkFlX3lSMGtOZUJSbGdycTcwQmJjVzNrQWZmUkludWM5WmdyY25jQ2g0ZTl6TW55S1IzSXFxYVh0UnRXRGMtTU1naFJUOC1jM05acncyUTFNVGZVUEhORlluN3g1a0Q0Mk51ZlBVdUxn?oc=5</t>
+  </si>
+  <si>
+    <t>Explota casa en Álvaro Obregón por acumulación de gas; autoridades de CDMX dan reporte (VIDEO)</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxQVDNHV2tWSkhYWEpSSlJ5MGRNM080RlBmRkwzYkdBeGxnQjhsUHZqSVdqVXFHUGJPT18tTHA4WThweDV1VTVwYXhmZHlGUmItd1Z5Z05pZkI2YnRwSVNUMEV6SXNreWgwTEU1VXFfM0pVVV96Q2ZaT3gxYzVxWEIxTEtBLVBONmdVX0dCTzEwQmhoeGRxN3ZTUElzemstWnpVTVdUZG9mRzdvY3drXzVTX0NnWENIQzBpRTVHWkdkc0wyOVdhbWpmVkRSbC1XZFBqemk1X2pMQmFJVmVobFk0WTc4NnIxUdIB5gFBVV95cUxQVDNHV2tWSkhYWEpSSlJ5MGRNM080RlBmRkwzYkdBeGxnQjhsUHZqSVdqVXFHUGJPT18tTHA4WThweDV1VTVwYXhmZHlGUmItd1Z5Z05pZkI2YnRwSVNUMEV6SXNreWgwTEU1VXFfM0pVVV96Q2ZaT3gxYzVxWEIxTEtBLVBONmdVX0dCTzEwQmhoeGRxN3ZTUElzemstWnpVTVdUZG9mRzdvY3drXzVTX0NnWENIQzBpRTVHWkdkc0wyOVdhbWpmVkRSbC1XZFBqemk1X2pMQmFJVmVobFk0WTc4NnIxUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Explota tanque de gas cerca del Hospital López Mateos, en CDMX</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxPN2g4NnNYcFVtdVdRWUJMQ1BrTHpKRS1PenV2YVJxb1ZBRnRDWFFfLXF3d1ZlMnQtWE9JSEU5NGltVEt4akR5TkoyUHk1Nk1WNDduLVVJY2pfYlFVSlNTeXpSQUtHSVdMYnRSeloybFMzTlZuVDZxZzBiYi1YZ3p0MGN5QWhmaHpTSTBLV19kR0pHMWdKaU14bFE0Z0lhbk1jV1VZTA?oc=5</t>
+  </si>
+  <si>
+    <t>¿A cuánto está el tanque? Precio el Gas LP en México para la semana del 1 al 7 de febrero 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxPUVd3dHkwTFpRcTd6UXhlc0NYalR4MW96dHQ0V0dWTm1kRE5DbVMxNlJPc1I4U0J0X3d1N0JLMkRPQXd6cnhzY2tNekpKdWRtMUJPMHZaY3FKZDlPbmlqNG1QeFdmTzJ2NnNEYmV2SkQxYlpCRnNUZm0xVW9kclpPTmJGMDd5bDNkcTlUUlFqMnpYYXc1eDBzNnU3YnJUVTdvamN5MlZzdFVqNXVuTHVJZGhtcUZOeDBOS0pKMzNHd2lNX1U?oc=5</t>
+  </si>
+  <si>
+    <t>Plan de viaje: Así amanece el precio de la gasolina este lunes 2 de febrero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxOVXJfOWpzSkM2NHZXcmNmZl9UaGRfVWJlRHRJejlLa0c2MmtXVU0tU29JY0F2bzFrUVFDcGZrTkQ5YlU2NFhJVDRhTmEzejJkMGE4WkFzNzcxSlBFVFA0Q0Ficlp0S19jdVZ4d212RUF3ZVdkQ2NDcllISG8zRUs1Q1dqVExSWU1yazNUbF94THBISnZaZVNpZkV3M0hpX0xHalhCRWRTdG9GYnRVRWg2aG1vdTBITmVDSzdLUFhFYjNMQjViTkE?oc=5</t>
+  </si>
+  <si>
+    <t>¿Sube el litro de combustible? Así queda el precio de la gasolina en México para febrero 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxPY2pnUnhXWThuOWhXZ19ZNFVPc3U3MzhlOTN3TVE1amEtdkU2NUJTVzFoZUNiVkpWZjI4NEdHVmh6MlZtZjc3V0VPMnNsQ1VubU40UFhxZndkZkJtOUJjU1ZuSDV2TW9lckhMd0tUbTN4R08yM055b0dYTndZTlJSZEMwZVpxNThnZEdtdzZwT0M0c1ZTUnI4dFFVU0tfQXUtVEpnN0dERWtiSng3OVVuam00TmhEZS02ejRNNm1PRHRZQjU4ZDdtREJMTGZqd2hMRG44R0pEMkwyMlhPX2c?oc=5</t>
+  </si>
+  <si>
+    <t>VIDEO: Captan momento exacto de la explosión por gas en vivienda de Álvaro Obregón</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxNRExtdU1jWk53cGRVTU1MZnlXRUZ2LVVLUThNZ3ZUcVprNExQQ1BzOVVyTk9FSWVVSi1WTHItdU1xYlhmYm5LTHUxS043WFhHSmo3TXhoY2E2X2lxdGdfZEhRX0xYZEtPaXExenRiN0d0QTUzTkNBVUc1Skg4MGVMWmJ1NFI0d0YtdTdib2JfLW1ISzk5UGFwampRMHZBWUpCLWppZVRJTU1aV2JxMzZhWFY1VQ?oc=5</t>
+  </si>
+  <si>
+    <t>Emergencia en CDMX: Fuerte explosión por acumulación de gas en vivienda de Álvaro Obregón</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxON2cxSmpidFJ5UmtMTEFXcmRWVVhxRVdvZmEyQU1CdS1YcW54a1Y3SXNPLVBLS0ptMVducVc1cEwzLWFFNUhXbjVQNzFsdGNoRER2QUxvNTNKRmY3UHlQZE9yanhlX216TExZelIxck5CR00zbHZ3cEpLT09ESTVvNTlKQkdibHpOdV9iMDhhc0o0QWt6RDZxYjA3dHRSZTVIUDU2WGwyYVFXeVdKeWVmVkdB?oc=5</t>
+  </si>
+  <si>
+    <t>Sin precisar el destino ni el comprador, Delcy Rodríguez informó la salida del primer buque con gas licuado desde Venezuela</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_AFBVV95cUxOZ1VRXzBLOTdDaFhIODI5UHJ3OURzcGhQczNjTFlFS2FsS2hjdDhmblVkaXdNWjZ6bE00MHk0WHd0aVF4U2ZRWmpkU2VUbUI4Y3BGakdybkpjVk1ET2ZBeVJTc3FIU1VISXpRS1ZjVUZza1A3cktTLURxV1VtS1BWVnp1aWFGTGlfNDlKU1BydG5RbFdRY2NCRTZYNWtUZ0JpRkRSNnNQMEtVQXRwX05oVU1pUndhX3pqTnMzMFBTMmxVLTgyU2xmWXJwdTBoSTItQV9WOTR0ZDN0UzUtSjhlaldHdTVtWE02RW5IRzdWSFAyYjJSNmxSNklUQ3nSAZcCQVVfeXFMTXRfZVViTWRDSFFZa0FrZUdCUHNrVXV5a0tVS2lONkRQNS1xWFlSaHdRMmJJRnpmSVdYQXdrbXJJSUNxZFFVV1VITGZyUTlHcHFMR3ZfR0M4VUs3djZERzY1T3ZGcUtlREhmOE41QjEyU2xsZGJSSkg4cThDc29RVWtPMk15akxRaGd5NmdlalNKSUFYclN2YTcwVm84ZnJwYi1OendOZThYZFMydVU0cHFMa290OHIwQUhYQkNERVZveXlLM2FHTjQ5akdLSDBsSWk3NGJrcExEWERfNFlhdkJMcWtxejlhQlFhbUhUdEhJZW40SHdfVENvdUJlZVgtUVA4LTQ2NTBadXRKaElMYmR0ODN0TDU4?oc=5</t>
+  </si>
+  <si>
+    <t>Fugas de gas y sobrecargas eléctricas: principales causas de explosiones e incendios</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxNcjh2QnpOOTNxVDIxY2c5cHFENndibEZwY0ZCN25CUng1b2syWHlUcEhOdDVBY2JGNVBKSlNWcWE4ZTNJTldsdEdlaEw1UjBsdF83SEQ3TGF4VUxZT2FaV0ZGMDhqQ09BUExseTdWeXR5OWZBczAyWHRMRjNQaU40UHo4alItalFUdUhhVldTOUJTQjlNVEFaamRSTTF5MTBmM1B6bTVVMEhGNWZqUExxaWwzcHM5bFV0M0JoZzk3ZDBpZzh0N1J3RS1qQXVqUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Desalojan instalaciones de la FEM en Chihuahua por fuga de gas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxOdUpGNTZFbWY3bWxZVzhoRm1yN2RpMXZhVmR4SEY4am0ycTlLRG9BdTBfX29rTThVdm5naGJnanlPN3VOWVVDdVVXVkdnZ19rbGhQWnc4UWRRTEhXYUJGQkNnNm1YRDRXRGUzYjZoZE9jSk1OREJlM2h1WWRxd0tvSVpnbkljaTBrZ3AzMDl5Y1lleERzVEJVSEl3djkxRzVPUk5SM2xiakdVdW5mekxIM1JYa0d5RlcyS0dzcHVn?oc=5</t>
+  </si>
+  <si>
+    <t>Rescatan a perrito tras explosión por acumulación de gas en Axotla, Álvaro Obregón</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxQR2E1RG5GWEMwSU85d2FDbnlfNE10aTROZjJtdG42MERBc01ORm41bnd5WEx6OHA1OHR4bWgxSkxOLXpBYi0zU3JiODFQU3NXcExxYlhEZUh5WnpXMTA0V1BoQ0dNSkNpT0lTemhveTZzWmlSVEVCeWl3NzlrdnhaNjF0NU9TQnNscVBhbmFTM1RpSVFKU2NlMUVnb3VKNzAyb2JRS3hxSWJvdFZqQjl2RGQxeHNNamFHSkZLemJKVENhcTl5QTE0Tw?oc=5</t>
+  </si>
+  <si>
+    <t>Explosión por acumulación de gas en Álvaro Obregón activa a servicios de emergencia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxPa29rNjl6Mkp4S3pSUkQzdURnb2hZcVlEQTdaUTB6R3BVeXlCYlJYWi1OZXBVLWFLYVFrQUtDbFlfR3BuZF8wX1RoMWxLX1lRTnRQRTlfOTJHcEI4WHBVaGtiMENiNTVKd045RWhpRHdzc2pfV3lDV2thOGRYSDlrQUE3eGI3T09PN0cwdnFBR0dsY0liSFRnQ25aU2djaUJnZFlOXzIybGdXYndkQkJDc0xaSXRJdUxGMWx1OXBCZHFoaDA?oc=5</t>
+  </si>
+  <si>
+    <t>SDPnoticias.com</t>
+  </si>
+  <si>
+    <t>Gobierno de Sheinbaum anuncia gasoducto y planta de licuefacción en Guaymas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxNU25FVm5Mdmpnd2xRT3hwTEZvdGxOdkxSSUQzS2RFOTNyV053cU1FM1lwU0pNYy1ORThudmMyWGV6WmoxRU5BZUszRS02em5uYUZKSHVESU95aEJ5TWZyZzFWNHZGbm15UjhzTE80dzZCN3FJSWhralRoUC1oXzRFa29KaG1oa1AteXA4SHkwOHFpYlNOQXBmaW5TTnpXRXA2aUdYLUxtUmNTeko5WE5Lc21Ic09YZE9OT2hBUnJqcVZLR0HSAcMBQVVfeXFMTVNuRVZuTHZqZ3dsUU94cExGb3RsTnZMUklEM0tkRTkzcldOd3FNRTNZcFNKTWMtTkU4bnZjMlhlelpqMUVOQWVLM0UtNnpubmFGSkh1RElPeWhCeU1mcmcxVjR2Rm5teVI4c0xPNHc2QjdxSUloa2pUaFAtaF80RWtvSmhtaGtQLXlwOEh5MDhxaWJTTkFwZmluU056V0VwNmlHWC1MbVJjU3pKOVhOS3NtSHNPWGRPTk9oQVJyanFWS0dB?oc=5</t>
+  </si>
+  <si>
+    <t>La Silla Rota</t>
+  </si>
+  <si>
+    <t>Precio máximo del gas LP en cada municipio de Veracruz del del 1 al 7 de febrero; los más caros y los más baratos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxNQmNuSjBQc0RjREJramF2X0xnSnc5dXoyNHdnSE5zRUU4LUpUcjlwOFV0NGdubDFoVnVHLUlveUYxOFZHSnA4V0U0eVBzcjA5LXFlRThZYmFlVF9IVmtpeVZ5VDJmMkthSFBaT0drcmhUcklJcDZOVko3VzFGMVVPQS1xWXhZOUpSMEJIX2xmT3NicU93SkYtRnd6M0VEVktZX3BuMUV3RDZOWEoyb3lhZUhPVHFkdjNhbWZ0SFF0TDZ0ek1QUWcwZDUzV3FVNDNnZ1c2dHhZaG83MXpKZG9ZbHQyMXlkNm5XYjV30gHrAUFVX3lxTE1CY25KMFBzRGNEQmtqYXZfTGdKdzl1ejI0d2dITnNFRTgtSlRyOXA4VXQ0Z25sMWhWdUctSW95RjE4VkdKcDhXRTR5UHNyMDktcWVFOFliYWVUX0hWa2l5VnlUMmYyS2FIUFpPR2tyaFRySUlwNk5WSjdXMUYxVU9BLXFZeFk5SlIwQkhfbGZPc2JxT3dKRi1Gd3ozRURWS1lfcG4xRXdENk5YSjJveWFlSE9UcWR2M2FtZnRIUXRMNnR6TVBRZzBkNTNXcVU0M2dnVzZ0eFlobzcxekpkb1lsdDIxeWQ2bldiNXc?oc=5</t>
+  </si>
+  <si>
+    <t>Sener anuncia proyectos de gas para Guaymas, Sonora</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxQVG9XbFk1aS1BbWFzOTY1dDFza2dTby1xYl9aMzVaMEs4dmtsbTVRNm5kbXp0MnYxWm00R09BdlNXVG52ODB6YWxqS2gwdXRCVlM3Q1I3WEFSRUVIQjlHWldkckJxNFJqTndnLW9YcGxxcUpianhCbHpVWnhiQUlnS3VvMHpZblptblZIaHV30gGTAUFVX3lxTE9FTEFKb2VPYXpJYm9nWExyQl9TUUlrZU9Za2ppdUJsQ0pUZkhZdk5XaTZPRGk0UnlibFVRSnREQW1WYkJHZDJQOEhzNFJIUHVQZ1ZwYnBwdlFBYVRjNTU5QXhoRXRjbzZncVZobkFoVW8xSEg3LW5qSFBva2cwcVpMTWwwMFFlZ1ZOYkVrNktka1JOVQ?oc=5</t>
+  </si>
+  <si>
+    <t>Excélsior</t>
+  </si>
+  <si>
+    <t>Captan momento de explosión por acumulación de gas LP en la CDMX</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOaG1TTkVVS1g5UDFSUmhweU1QU1Q4VjB5VnpVQi1kTTZIVFZxWEtvNXpzYW5OYUJpUHl0YV93Tk4xcndyd3RodVZwWUFkUXZMUmQwakVGcVZhYWQtdnZxUHY0VHprSkc0NEdmX25hSkZuRlAtSVVjYkZEd3NmcUJnWk8xTlo3X0c2Tk16bm9nTHJ4VGJwTEEwMVlMZllRZllTa3pPUUNfZFBlQlFEWkHSAbMBQVVfeXFMT0piUEVWMW16LXhrSzVXV20tTEk2Z1o0WGpJOUg0UjlUakh4Y2pvNDhkRnJ6UjVod0pFR3VxeEtRV19reGJwWklzaFZDcTFQZzkwbU9SVFFfVVprSFV4R05iRDhNYm5xN3Q3NzBCZ2dHbWZrajJkTEFXcUZZTXpHTjA3NmxSNk9uZ3RFS29lLVRzSXhoR0tzbUFpVmttbzZzbUs2VUFnTTZIalQ0TlhINDN0UjA?oc=5</t>
+  </si>
+  <si>
+    <t>Explosión de tanque de gas calcina dos motos y una camioneta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwFBVV95cUxNN0tUa0JJcmNSY3puVFM1UnEtSXNRVFpuOUM4UGgxN2UtMkh6bEFQZTc0aVZoWExCRnBzY3dwcUFNbEhoN0QxN2xyZ0hMalZQaXBHNC1wdUJqRW11NnQ0SHBySDBzVEE4dlZ5Vl8wYTM3dVk0MnMxbFJScXk5SEVVQ3FJendQVlY3ckJsODNmUdIBlAFBVV95cUxQVjEyZDNVUlJod1lSUUY1bmdOVURKN1pYUXdVWUtTdEY1dGtUZF9lb190RGVWc013R3FyN21iMnY0RkFUTlJROTVicW9sa2xXREtoRDVYcHJkY25abm4zUXFMSW42NERnLTNsVlZPNktYdUt6OE1URnk1bHduUjRDOW1NLXpLSUppQks4S3hvSGlIa0xJ?oc=5</t>
+  </si>
+  <si>
+    <t>Camioneta choca con tubería de gas y provoca evacuación de dos edificios en Monterrey</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxOYWZ3UVZjNHp2ZDFUTHVHUUNQS2s2YkV0NDZ5cEY4X1pVVG1CRUxzVGlhS3BkTUtKdk5QQjBfMmRNalZwQmY2UE4xdzR4LXJRTnhZU3I4UjliVnplMnBtVEJhOTd4SkdRYTJ6UVRIeXdtMk4tTzN2dFJGSUJEeFdzb09ULWZENy1nMEIxblBDTjJBUlJvZC1ReEx1VzFRSU9kUHpoemR3bXJIdnYwekdqQkFMTEhHOVh1NzlhaGhZb3lFVTI2SzJPbl9nTXd3T2czU1ktckJR0gHWAUFVX3lxTE5hZndRVmM0enZkMVRMdUdRQ1BLazZiRXQ0NnlwRjhfWlVUbUJFTHNUaWFLcGRNS0p2TlBCMF8yZE1qVnBCZjZQTjF3NHgtclFOeFlTcjhSOWJWemUycG1UQmE5N3hKR1FhMnpRVEh5d20yTi1PM3Z0UkZJQkR4V3NvT1QtZkQ3LWcwQjFuUENOMkFSUm9kLVF4THVXMVFJT2RQemh6ZHdtckh2djB6R2pCQUxMSEc5WHU3OWFoaFlveUVVMjZLMk9uX2dNd3dPZzNTWS1yQlE?oc=5</t>
+  </si>
+  <si>
+    <t>Explota tanque de gas y provoca daños en vivienda de la colonia Axotla</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxPMWhrc1dfVFppOHcxd0szS0FnUkZXQ2dQcjlZdzdZWnlZdXZCM3c2WVFkcHU1RFpQbTFJbzJHZmp5MnE3T3g3NVhlYll0MHJ3QnhrSGtMX3JUZmVRMVNkX1Bjd3RBaGljX3JNSVdvWURKVEVwYUROejNqSUdrVFFOTHlSWkNtTDNFTEM5WmVuZk9iLXJUa3lERXl6VjJFSUtUcnF3eWQzYkd4MHJfNzV1S3BhR1VtU1ZNQzN2bDBNT0c3dw?oc=5</t>
+  </si>
+  <si>
+    <t>Delcy Rodríguez anuncia primera exportación de gas de Venezuela</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxQNkpDS1NXck9UOG5VQzFBdFFGdktMQTBHSl9EMTNYaThjYXp4ZUNmRkZpRWFDb3BsTVAwZzMxWW85VEZfWWJZMkpZZGVCQ0tWUXVJWXlYTWhuMnNFYnZtOUZyZWxRXzk5NEQ0em5PY0VEMW8xZjU3T1lxSnU1d3Q3OWJGN0otYWw0cEJXM3V0eHNLZEFBMV9NYkI1QkZ6WWQtTjJ3MjZFMS1nTEhad3FzSXl3TU9qenUxV1E?oc=5</t>
+  </si>
+  <si>
+    <t>Delcy Rodríguez anuncia la exportación de su primer cargamento de gas licuado de petróleo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxObkRad2JCY3RCcjZlMUJpTUJocHBxalJJekVhcjZCNU9ZUXdnSTdHNU5lTGI0UHdmNWNxS2t1WXpqdE8xQVFrSFhKWF9ETG1ISHluYUk1YUN6YzluN3h3R0hwMnNhNnVONERzTnBqTDNUWEZCWlFOY1dEQTA1ZTVoUzg0cm1CMDd4aENfX1p3VTZvZzZ6NzFadmdOVDdyaEV6Wjk3ZEQwX3FGQ0wzLUZXeUhqeGRaeG1Fcm44?oc=5</t>
+  </si>
+  <si>
+    <t>Triunfo comercial en Venezuela: Delcy Rodríguez anuncia la primera exportación de gas licuado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxOTU9kTjdPaU1CbjVIdVZMSVhNdEtKU3ExVmw3SHBPX2VxVThwV3dhLTdWNTJSZGp1LWZKQi1mNkJhWnlKMjdPS2RiVWJuWDJVX0p1Wml4cnUxdTgwc0Rqa0lNVGFLOVo1ZkstNllHQjEwcUNHZENGU2xINEVidXNTaXVNR2JDVkdpUFVZNzVYTEh1cXo5dlRyQUIzU1FNT0JfOFZLV2hiM1NaMjVSX1VTRGEzWjVnUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Explota casa en Álvaro Obregón por fuga y acumulación de gas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxOOEp4Vmdkb3d5QW1OY0RiYlJEYXlmd3RjX0pzbm12QmRVQUk2RDJ6S0U5RWJBX05sMUhaVGwyemJ6VmRtcUFHdXZNRlY5Rk12RWdnR1hTWmJMR21iME83OVFVM0xFdEtNdzFZdXdHNTVyMHB4eE1Dd3UzX3Ytd2FnWGt5WEp6Vy1jZGoyYXhNY3BYZGtSTjdEbw?oc=5</t>
+  </si>
+  <si>
+    <t>Quadratín México</t>
+  </si>
+  <si>
+    <t>En 2028, la crisis anunciada del gas natural en México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxONFRYNlNIYTAxbDEwWGM4Q29MdkRtVEoyUWRYWi1kMGVXSHVkd0haUWdVaXVsVlFMTGM3Q1VRLXNKTjZRS0FJdDBKR1lDaUpMbnBXVkVMZkd0d2ZIbW9qeVpPc1ZfRHY0Wm5BMmdSa2NzUlFvb2VheFlfa0U5amtKeWExbGRwWno4MGtQeVAzejRZM0xkblZ3cF8yR0pQdWtjODlDU2o1a9IBpwFBVV95cUxNN041T1FmR2xET1Z4WlFkVnFjeWJwNFhEamdNNzBwZWY5d0pJVWM4QWNxSzlCZmVad3RJbkkwNmtpT3k0aGxRZm9OaDBlYmhHSmhzUUgxQWZ0R2p1WUg1dWEzUGR1UkZySzFTZGx3a3MyU1BvSGpCS3dkTmQ1WGFneWV0TE5RM2lySG83QVhla1hVcWhXMERSWlF3cHQyZTVybGpfNXlWRQ?oc=5</t>
+  </si>
+  <si>
+    <t>Urge mejorar operación en crudo y gas: McKinsey</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMif0FVX3lxTFBsZGlEY3hIdzFMTElsS1I5elVpQjQ5V1BMdURuRm92bzhfU3p0NE1NR2NfdXRocDZfdmh2MEZWYnF3TFpEQm9RQWtoMnBva0daRkFpR3pTNVRGQ3NQSlBIZVVZOFBZUFlfOU9wQ0k0eE5zeDdhdElpeFJaS01tWEnSAX9BVV95cUxORzhkQUtVMTg2Q0Q4eEVOMHdZalJQZkx6aEdmTTNzOXFILVVYY3pUeXBlYVdhQnJBRkIxd1VRNkFsWnNJUXoyczFxQUlCQmt5LWszU2NHd0MzR1o0WGFxRmV4anBtbWE3X2FjQnRWYmE3WE9CUGdiMjNqcjNTMjg4?oc=5</t>
+  </si>
+  <si>
+    <t>¿Cuánto subió el Gas LP en CdMx y Edomex? Éste será el precio durante la semana hasta el 7 de febrero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxNbDNpcERWN3k2bDlDZ09CRnNSbGw2N2FRVXpWc2I2cVBLWDBtYTJiSTk5dEF5a2N5ZGRrWkkyYkF4SDVBa2NFbm5OZDNvYlpwN01HUHFqNlJJTUZIMFNIYmI2TEFMd1lIVzhKRjFiXzF0bS15d1cwb1ZhbFVOYWl2TnYyMUNDdWxwZi11ZUR3UG1ibmk0WG5sS3JyTi1WUHBLdlJv0gGjAUFVX3lxTE9zdWZVNDNwTVoyTHQtbWdhNUExa3ZJWGJpcmZmS0QzX0UzVk5hU0FJMWlUbFZXMlNVU0pFYXZqdXBKcTk0ZUM2ak9vNFc5TTBmRDVMMXNkUzM4SHU1QXZJSzZSUGtaUTU1M0RidTZWQ1ZsZ0JLUFpEQUt2UkdZdTR0Yk5wZkxFWWhNdFRoTVBGNms0UG16bFUweTd5OUhqbEp2QU0?oc=5</t>
+  </si>
+  <si>
+    <t>Desalojan a 90 personas de dos edificios por fuga de gas tras choque en Monterrey</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxQVlZwN2hWam9rclkwbXlhOFpKLVplVXpCaGI5MENrSGpCNkw1WFI3OFJEbEk3bjVWaGY2c1NMdlc0WF9jUXpvZElLLUJVaTBjb00zUkJkcWNZOHh5VHZfSElDWl9GbHkzdU1nZWNud0VjMG5od05HWGwxeC1zbWl6VmwzUm5oRVVhbE8xQ9IBjAFBVV95cUxNTTh1U19pN1hyR2swa3hKT2FaQWxUS2VJclM3MWItWm1DRlg0VzJZWVItNHphRGx6WWhPX3BpakEwY3dwRkc0TFJXSDNVTXRuTTcyLXM0VnIyRTdVbHlJY0kzM1ZIWU5VM2dYYXBVTTQ2TjRpa1l4SmJsMUNISzRXVS1WeTlpNV9CbUhIcw?oc=5</t>
+  </si>
+  <si>
+    <t>¿Cuánto costará el tanque de Gas LP en Coahuila y Durango esta semana?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggFBVV95cUxNaW5kYTB0RFFKYlJmWTlIeGloRjZvTTFxQmpQUDFSM0pTRldFMG1RaG45aU5rZHRadkVsM3FESFRKaUVFUzBaQ1hvUE5XSzFQc2hBZU5PcjlscTdiY3VmUEpZVHJYX1VLRl9jMjZDdUdhdExaczhUWTgwZDQ4bTU2YmNB0gGCAUFVX3lxTE1KWUhSXzI1amdFaHdwaFZ6RWc1MTJfNFlzMDFldUwwSFR6Zm9lbmMtd21HcGU4bGQteG9rZEpUV1lJeGRRMGhBYkVoanZTM3hieTBVcGpPMFZXZjItMzktZ1pfd3lRblN2bWp5emxXdGMzMUlBd1ZRdEJmQXFNLU9lRVE?oc=5</t>
+  </si>
+  <si>
+    <t>Inversión puerto de Guaymas gas natural licuado SSA México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxOdHlpUW9yRDg3NGJRQ01TQm5OUWlnWGdIZmNQU19WRE1jWTVaZklBZGQ3WFdnUWlfOFlVdkdrd1hvU1FhRHI4czdJbkhkZjU2Mi1BVWs4TXFQbU1jYzFUcjdOZDZiUTl2QkRRRzQ1TmVSaWJDc1hMUFpzY3VWN3VrSnktR0duN1FrNXZLZXE2emp1dGd2R2dLeUZQWGNER0Q1dkVkNXZ4WdIBpwFBVV95cUxOdnBiR3hSLVZMWkFlazhrdFFoVXU3eWZZVjROVkUtTmI4aExwNFNPcjIwMGtvZE0yUXljTkFDbmpBSkJpUjlwb212NWRTQS05UEFYdkdQZVFzcWZ4NS1RRW8zbVJGUm1tMWJkOUdHN2pJdkQ1eEFSQ0xkcjFaWE1mWE51eEJDRklReWJPa0NNWmRZNng5aFozZ3pUUWxLekpfd0hOWDd0Yw?oc=5</t>
+  </si>
+  <si>
+    <t>Explosión por fuga de gas provoca incendio en vivienda de Hidalgo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxPVERCZGUzY0NycUlseUJXZzVUMWFFM2xtTUU5aF93Rk5kanFXaXJKb3REYVd0UHBkaTFLbzlCVy1LUlFLdXcyTDVDYUdqTHlnSmQxY3VuN1FONmFZNjlyRmpGbUF6d1ZZX3JacVg5V2hUYXJSTXVWd1Rmc0drUUhkZ1hFbmVMTnhQV0w0T1BUZkVZMzjSAZMBQVVfeXFMUHlWZFd1VHQ5cVFsLWF5X2NEREJYVDQweTlGN19wMksxdGpIeGJFWkV3bldsU1lYYmFwcEdCMksxWVFlZDVUcFpRUUlLQkd6LXFqY09adkpBdEtLSV84MENXWmdTeUMxWTRGS2xiT19FM0RaUGU5eDZXeWpRZG0zR3JHaUdyTFJkOTNEdjN0ckhySE9Z?oc=5</t>
+  </si>
+  <si>
+    <t>Fuga de gas origina explosión en inmueble de Álvaro Obregón, CdMx</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihgFBVV95cUxOQWNST0xmUkVmbXdDQ2R0M0lOX3NvU3hnbi0yeThhVGViSXU1RnVSTXB4U1R3NmswRFRZbFdKSTJQc3Y3R3I5VjBRNmVnM2dUcHBhd0tQdXA4WXhrRTVqcFRfb3pMMFRuUGltMkhwSnBuMjJHN0psV3drQVNtTEtzekhZc2ZYQdIBhgFBVV95cUxNUGktQnVVelc2TVNXcXI0VHQ0SWM2aFM5MGJOY3FsVmppLUdNNV9ON3BxZThHWjNVOWtHVGFPNXgwNVUtNE1QNEY3WHpzWnBrdG9UdzFtbzRJbnhweVU5QktkcWRXWElQc3NadlotbVduX05Vekpsc1k5QnZqRmhWQkdTUzRfZw?oc=5</t>
+  </si>
+  <si>
+    <t>Por baja de retenciones y de impuestos, la recaudación tributaria cayó en enero por sexto mes consecutivo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxPZGxMdHY0TXVWb3E5ME1UZUVDaXpOS1hKOFpZRDNyb2s4Z3BJVmdFTl81aFN2V296VWJDQllRZ3phTG1NZVdZeFMybmN6OTcwMll0UW1wa3ZwNldoV1ZoeFJwYVBQaE55bmd4MnNtTnYwWFlvdktDTlZHZTc4RE91OE9lYWhzeV81OE1xUUJ2Z2R0MERmZl94Y1FfeTg3eDltclAzbGphT0l3ckVKM0xJTWtlODU0OE1iWlYwdWlGdjdjOWgxbVZSTUhXVzcxSkFYTDJRb241dzMya2tIQTdXblV1Y9IB_gFBVV95cUxNVm5VSWZBRE1WdFNXT3lOUms0X1gxdDdWOE5PSmVHeHlteWRXNW9fSFVZeHU4a0RDS2h2U0dHdEhscW52V25ma24ySUdaVWJ6V1N1N0oyZV9VNzNkYk1BNHUzanZUOFlvSVR6Zmt1M1gwa2ZBSVZ0XzJkU3cwTVh3NjBSZWxGQm83ZE1ORE1RYXRXamMxQWI2dlFKQjdwQVF4TGNDS0VSVzE1RExoLThtNmtzSUpueVZkeEdaQVZEVzNWRlQ1a1ZaOTZpNU9ST1IwVkNCOWo2UlZUakR1V3VFQm4tcFR4T2JuVC1GR0IzMGlDbG9WQ3FVMUFOR3FhQQ?oc=5</t>
+  </si>
+  <si>
+    <t>De la histórica victoria a la cuenta final: cómo los impuestos afectan al premio de Carlos Alcaraz tras ganar el Open de Australia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxPQzdpaFZXRFpieXAwVVdFbnY1YUE2cW55TzlCaTctWHdpcHJzSFR2T25UbEU4MEpsSklRR3BzaVNwdndBWWxDa29NbVg5cDdqUS1CY0RSLU9nOUtmT2FyZnBHbFFjcHBnRnRPTng2M2JaZEpqN0toRVpwaEY2S0hSdTdwZDlEbDZxTnAzajltYmlqWE1TZ0R5U1BrcnlnOEhMaGF3TlpjTldhaG9SYXAtZXdEVjdDQVFMN1VZaTY0Y1JpZEN3NWQwMXBoS29Qc0Q4NHp0NUtNX2FpZEJ3OFlTcXVhcVducXE5NGw2dmJWcEUtMnRHSkJxcnRlaEpPbE84TEHSAZwCQVVfeXFMTlFzVHZyRkQwZzBZdnVpUFVndEhfaE12aGJMZWU0TmNfekhDMmVDM0FEMTZDczN0SGVudmI2Q1I5VEhRWUFpenRsWm9OU29Fa1FLZXJhZVBlMVlWYWJacVY0R2pXOU5NYXI0aTVfbE5SOGp4anhiVGtTWXR4M2s2UTVZWkRjUVpPb2pUZ3Z4bzZESDN5Y0pwT1FFenp0REdPSHFHcHJROXc3c21PWkZBTi1qbXJnYXNSRWNqOVpDajNESzBxUVBWVWJsVHRzMWktMENsTGQ4WXo5LWJpakpTem9GOWhWTWswNFR1S1FXWmx4R0FLMmVaOWJ6cmhvRXdESmtQMXIxR2U0WS0tS1IzS1VTcGRETnpvODI0TlM?oc=5</t>
+  </si>
+  <si>
+    <t>Gobierno Petro tiene embolatados $23.000 millones por mala gestión de la Dian y otros ministerios con el impuesto al turismo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxNam4tMlZYeGN6MEJVRW5HclpacU5fRWFQS1I4VFU4RXpYNzN5VVlaM3RtSjZPVng2M2QwWkZVRTg4Rm1FSnA2LUJyenZqYjBzdDlpb1pKVGJiZXNyRU50em5NRDN5UkJiLXhZOXlONGhjY1ZMMnZ2SFM0Q09RTlZXU1FBOEdsSjFQVkZWOENTR0JJMzNfM0llOER5VU1xR1VNcXVndFR0dHllb0FiYjh0U3VGUFUtVzNjTkJLcjhmNW1OV2FfbVZkdzlYLTNLLWpVYTJoSGYwSGtKS2R4VkxINkx3V3VhZGRwa21ZRm9lMEJCUzYyQlFrRXR2QdIBlgJBVV95cUxQeU51R2hKd3psTnB5S3BzVmQ2a2RxWi1fRlVoZFNIdGZhVVE2YkZLNjdnRFlGX3N4ZjdoY2dJTWtCUkFvdjVYSFBDQzdMalVnNUZYOHE3anFreDVxd25sSThCcHIzWmtUdkVJamZ0WXczTG1PZmlyOVRxTkVPeXZ3Smd0U0lsdnNVVGdxWE16WFlBUUNqcVRXdTYtejJGZEkwTFpBSmZnbFZqNGRNOUw4Rl9SeGxINUJwcUtJaVVyYVRkU1RidjlvdEk5NktFN05nOEJuTU5KcWJSRDNEUFNneGx6S0IzbENGVUw5bVhEemxJTnNGOWNSa3hSVThkVnhLVGtOZjhITmxydEJsYmZqRDZZWHp5Zw?oc=5</t>
+  </si>
+  <si>
+    <t>¿Eres persona moral y te toca presentar tu declaración de impuestos? Checa los requisitos, el simulador y la fecha límite</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_wFBVV95cUxNV3lUbUZjazdrQlU1cVk0WFZtbXRUT09iQUJxMGJCVFdZRGEtWlJHZGF3OElJOW42bTZ3UEtKd0EzSWZfMkhFZ01NYU5sTk03NVZkMzdsd2JOd256SG1TNUp2R1BGY1JvcnczY2VmSnNiVDNhbEUxQXVoeVZRc1NiS3k1SHlsWmZOSmZyZzhSMDc2QklGQXZfOHprRF9YZWJRZnRZYVNuQ19pTGJPMFNCcVFvRWozYmlPMGxEMTlfZlNMaEtFazgxLWFDaDdGVFhheWR0ZXlLaTI5endfS3hWZW13dkdTTFhSWVNsQlVNRzZFQWNlYWo2RUgtWTNadnc?oc=5</t>
+  </si>
+  <si>
+    <t>Proteccionismo comercial dejó a México más de 173 mil mdp por impuestos a la importación</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxONk04cVUtb0N1d1cyMmpmVXFodTJfc2tDNFdLOU1OWjZaaGRTWEVvSDVZd00yNzhRSVNCZDM5NVN5N2txY3NmWnlYVzh1UXRDRmRpVlVGQnplZUZnR01uSVUxNzNHaEs0aGdoQzJoZGlxdVhBcVlRTllIcUhmVlViYlQ4VXRRQXV1VkpDbENSR2JxdzBCRi1YdWNGNDZGcDVKVjRwc1BLdFBOTXlzREthVmMxRFE2bWVZeWR2TmJ4bUx0ZlpvWXc?oc=5</t>
+  </si>
+  <si>
+    <t>Galerías de arte cierran sus puertas hasta el 7 de febrero para protestar sobre un IVA reducido</t>
+  </si>
+  <si>
+    <t>iva</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxOb2o3Ty1YTVM2ajk0bk1oQ1o4Vll5Q25zUWV4aWJQZTQ3b25sWU4yMlI0Y3U4RGRnQTF6SjI4UlNDQ0hobmNtS0t5dk5pdlVGazlabng3MXhBSnFGRUREaHJSUWUwaHpMYm0wN1Q2dHIzclRTcVpuNFkzUU4xUE5tZFpKR3FjUHhYa0NwRjF3TzZfWDJ5aUJONWREaU9rSVV6Nk42aDlpNUppbnNtWjZoYzFKT050WFhCN0hzYlJBNGFnQ0VBUTJJQUxkNTY5djVKanNHZVJ0VXVsZWtuTHotMC130gH8AUFVX3lxTE5LRHBBVlBxNng4SWw4U1dUYUduSFZaUnZ4LXdadFY4YjVkQUw1SzJxbU1NQm54dUVRVzc2eW9Rb1RFdXA4U0I2UTVsWnNNcDhESzgwQ2Z5bjlIak5PWVRidmQ0MkRwcGNjRV9tWkJhVkhkUjc4RUZtaTVnV0hEMU01Y2kyc0o0NWU2QkZEOExCVnZULXE5d0JDcUtMci0wOTFkUmNud0k4UlNXcW1HRmt6SE9YYXR3cU1UR21TMmRpaTRacEFxSXI4NzVVZmREQ04tZTZtdUVvZW5ST0gzeWEybUhWTjgxcEJIdEdMZENpRlNsbVJNNjZUdjJBVg?oc=5</t>
+  </si>
+  <si>
+    <t>El Prado reivindica como obras de arte las fotografías que cuentan su memoria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxPV0ZpOGFYaEthU0Y2UEVINVJiZHk5Nkt2TjVmd0RTZElNRC1vSUN2X2lEaWQtVHgya1NOV3R5dlpjMDk4czVNM2ZnSF90SHR0enVzX1VldDg2cHBIYW9mTG0ydVk4ZjdZQXpJYkhRX052a29LUXlxVEhTNmc2Z0xvb2pmM3B5alpZcktzMzdxaG8zMXZkajI0Unp6aDU3Z1V3bHZSSFlaVDRQUGNvckFrcUt4ay1jZlF1UU0xRtIB0AFBVV95cUxQanpvY3lMQnZ5VktPMFVmTWdTWE9yMU5IV21wLWphYnFfTlRnQkFpZEJfb04tNjh3eG1zaXphN29IMTZvb2xIR3laNWtGYkg0LVZacnB5ak0xWUF2QVJmNmFZT2dOaERxcEVhemQzd3JEYjVFOVM1YU94Y1F1cUJEWmwtSXFMRXdQUXFRVzZMTVNWeGROVzNRTk1HOGRlMWhQM0ZoVEtSS3RydVJrWVNfOXR1RS1XYWRXVjRfNl9waFJQamxHSEVFWXNUS3FXMDhO?oc=5</t>
+  </si>
+  <si>
+    <t>La batalla del arte contra el IVA: “No trabajamos en igualdad de condiciones”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxOVERjbzBaNzhBMllfakxuVTFlenZWSGY0VjVKQ3hhYmdSTHBFX0ZHMTJ4MDVHMXoyRFRJZUdPaGh2WWl0MzhQOU5VWVNkdlZCS3puOVgwR1o0eWpwTUdlOWxXZmwtMVotRkNidzhOR3dHeUpwRXpqdkk0bW93Ui1hdWZnb2RhV2lGcmthTHZDaVFSSDBNeXpRNF9BQmZURzRuQnNVTlRCR2paMlpzc1k3TElpSjZPZUJt0gHMAUFVX3lxTFB3MnpyeFV6ZW90bndHdzMycElIbGh4aHA0WF8wZDdWVVpINWtCODFDQWlta2RpWkpoY1hRYjRDbVpHQmw3Mm03M0J6NXNjay1yVnNmWkt1UzlKZG5ZQVpuSnNUdXBXcnFsaHpLUUtoRlFNTGpoQ2hJbnFfMDVBbWl3RW5ubGlXSXRTdWZXWlkxS2lmSWNUT3JvOG9jV3A4eGJYeXRFM2JVUmQ4cFZaVnNxVUsybFh4aUV5NnpObzhOZU0zd2dBMUxGbXdQcg?oc=5</t>
+  </si>
+  <si>
+    <t>Aseguradoras analizan absorber parte del IVA en caso de siniestros</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQVUlBM1VlQzZRYUp5OFNkbW9Gd0s2b0VpQzNiTzMwRExYZ0hxSWp0bmZPQjhDQjBUN082QWhlUU0xQjdzUjY4WlY3dGc2M3pTdU1YU3pqeURpUDhnV0J1a3BUeUtYUDNicjVHMTFfZ3k1YUF2RXk3VGhlTi1BY00tYURjQkt3WkhCNk84RzdXSkxmYTRXRjhwQzAxZlRjNEEwMmJqSVFKMHptNmtLTDFxdTRWYmZITmxaNlh3ZWlB?oc=5</t>
+  </si>
+  <si>
+    <t>Tren Interurbano México-Toluca: ¿puedo viajar con mi Tarjeta de Movilidad Integrada?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxOeTRzZ2RmbUphaFdtZ01DbldIVWl3c0Y5RnFHaVVVU3pvTjNXSWZLeTdoaVA0alJfZUV2R2VwM3phZi1XaGFFWHp0OWVaZjROV2VNa3RBSTMwQWVDOFlqMzlZUUFmRmZJT2tvUE5rUmNKMHlsalA2ZDZ6WUs4ck5IREFJUGN1R2dUU0Zia25vZzRyVXUzNzIxS0dBYWhoLUt1aGsyUTAwMFBTTHB0WXdoVThad1VpT2JzdWtXeENhaWItdnFKMVpITkVoZVVzSldtWXJmWnpkRVFNUdIB3wFBVV95cUxPOVpteGNRSWdFLU1tOVdzU0ZPTk1lZVl1TTRLdGxqLVp3OWZlVWx5VHJaZGNyU3h6R1JCSmVwRVNQZTlvS05uUWpvZXFxUkZLWEFteFR5QktIQXBkMWp1LU40QnRKbG11em1TOENmWlptV1lWYWVKWks5WHlVZnhlS19BRzAxdmItWmh1cHRZVGhvMTY5dmd2NzFwd1VRNEdhU1I2QkZVc0trM1dpc2JiSG5Pa0l1SlAxVjNpVGtiVDR0bnZXYjlOT1BycHZLVGtkeFVqWUdLYk9JTEhqZ2hN?oc=5</t>
+  </si>
+  <si>
+    <t>Con el Tren “El Insurgente” en Edomex se hace historia en movilidad y calidad de vida para el Valle de México, Toluca y sur del Estado: Gobernadora Delfina Gómez</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugJBVV95cUxPblNMT3RYUnpsN08yT1k2X0NWbkxKZ1Q5cW8xRWN2Nk5SYnNvTjZKTnRSQTJlQUQ1MnVJSlNtYnFBQ3FwRDlOT1MwNnlCbVY4ZXRrWVFsMmZ6TVdBRFJTNzNyVEplZncyUjJYNmx3N1M1ejVZN2tQcVctY2RfYTFSSm4xZkRmM2M1Z2VjcXdUQW1IVmRCY3lxVndUNjdtckx6LVhHbjRjbmp3UGZXaVRVc2dlSnkycldpLTBjLWozTThoUnJUTEdPLTg0a3paekZ5Z1AwdHk5ZElBcE5lUmdqdF9xdFhVSGhuczBZaUFRaXpaUlEtRXhtTzdIUUxxLXphbGIwZG9MZk9MbE9VWHh1ajVId05Bd0ROeERfQ09aYll1czgydEUtMXdGOU5Bd0dHTXR2S0lSX3Z0Z9IBvwJBVV95cUxOelY2N2ZYa0U0OEdlQXhnSWRyNzVTaThwQWVnc29GRUlRZ3kzb2JCTTdGSkRUakhOdWI4N3pqbmdXa2VockxlSGJwY2lvWGxTOHg5dmhKOEphY3h5ckI5dkxhRUdIRWh3VjJKZkVmWEdjUUh0MG1ORHMtRzVSVzBPb1hnNy1oUEdXb0t3Uy12c2lDNUI3ZlVqem9kV05SYldFckd5V1lLSjFTNTIxZkVyb2tPRXJXdk9wX0tUR0pRRWhVemtHQXZRT2VicE56cGx0eFd0WTZBWHcxNkxIQi1ZTndPVzZBUW5sVGNuMkhXMEg4ZjZQU2lPME9Ya1hpdHRGeEt2RDlQX01uRExzdlVpZ1lLcHVFVi03ZkRrR1ZReGJVcE9IOUZPdG14N2JuOXdKaVV3Z1lHNUVsdWxtdmRN?oc=5</t>
+  </si>
+  <si>
+    <t>Brugada y Delfina Gómez destacan que con Tren Insurgente se ofrecerá una movilidad digna y mejorara vida de las personas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAJBVV95cUxPMkdDUjU4NWlIUHFlQWgwYlIzMVp0VDF1VkNfVlZueHgzLXJVSHU1S2Y0YUVsWjd5b3JwTHUzamlRMHJZWDF6MjN6NDlCNTlqVG9JUTk2WXZkaGRaWE42MVh4bFgyeUcyTEw4VDBUU2w5RXNaMjNmWnZUVk5TNmRQOHJDbDBvT1JvRWJjclhpN1BMLUx5N2x0OTJ5c0d2NXdKb25nTTZGQWlsTFhSbDhHeUlfNTNkb2lZWFp2SEx1NWMxbzZLdmhBb1JXdjB4dFZWTElid1EtLThuNnNNUW84eERrSFlqOTdzRnRJMjBzdUhvVXdlOUVfMkZHRVNHaU1PamVSMWNGeFbSAY4CQVVfeXFMT1l3aU9JWk9YR0t0Vlp4dFhzVjZhQ09TT0ViSldYYmNwSnZfZFNHWHdVR0RZd05FYWxQS0FMZi1MZk1uQURxelFweUd1VlFfZzIxMmh0VU9jOUZkUVprY192eld2SWx6MFRlN1BwZjhHRTMtRzVKaUcwRmYxZlFBWTRyYmNJSWJqd1ZMNG9sUkN1NGR4TEk4TzlBbWRpQzh3WUZnNFc5VFhGSm5kTGlxQzVYdEc2QlAydDZmT2VsSVZQRWNfR3NXX19xenZVcDRwZHZDSjJxYlUwMlBkYUphMTEtaUNmTmxrUG1UUWZJbkxtbzROaXZ5THk1UU1TWTk2UXU2RFBmYWlObGZ2X09n?oc=5</t>
+  </si>
+  <si>
+    <t>Morena prioriza la Ley de Cuidados, Movilidad y Plan General de la Ciudad en Nuevo Periodo Legislativo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxQTjdZaWx5elRGSExFUGJ2SFZzbjVld2t1UXk3cWt2Xy0yTTNiMGhMSVZXQnBNY09GbFh5VmNReG1ieVJGZ3g0a2IyZk5Fb094RXRJR19QX0pwTDhmWThTXzZQUmI5VmFOQmVnejlCbDF4cUFObFZ3ZV9YdWN1eWNCZ3gxT0wyQVdNVjhSYUIyUFJrdi1mTmh5TnVrRzc2UTFQVXZYRV84VXY5TjhIWDlEYWMtTk9oNlp0QmNGcmFBZ3VrSWNJbnQtVkNqR1BNWS1adFRWRG9sR0VRRnVBSVVmbEREdnBlVWF6TGcwMFFHRmlDd9IB9wFBVV95cUxNSzZoelFYc19LTjl3UDVfSVdVS1ZkeTRlSGI5bVhtTmJyYnFBd1NQM0dsT2lJWE4wV3lqZDZLU1pWTndZUUF5MEwzcF94N0U3bVkwQjgyLWgzVjlic0FQWHR4bFVpTTBNUHlFU1RTR2xDY2t3YXZKVDl3X3I3TEFPWWh0TFVMdUFzY1o3dmlRNXowXzZ0Z3lqUXY2NVRpazVHdFV4UUhXajVHMC1yQm54ejR6QVpjTy1ZdWF3U0llM250TlUtTldfRjhxUzlHdzRTeGpRcnBsaHdQZFp2c2d2SldCeElwTXZRRzlpbkNDYkVVOTZETFZ3?oc=5</t>
+  </si>
+  <si>
+    <t>Sheinbaum quiere mejorar la movilidad en la CdMx; apenas "lleva las bases", dicen expertos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOeGYwU1h5eHU4UVk4TUpYc1RwWTRMUGdLb19mVXAyNFhGcjhZcUprMDlNamRXdURVMVloVUdINkJHeEt4bVVJVjE3WmdyRnNNWVJwdU05aEV0bk9EanVKbW1TSXlmZGVEREtxcDkxNUxWanJvX3VTYUZUbXFxWVl4ZFpvSVJxY3dwb1lONzRRU0ZfNW5Vei1pbktyLUFjMGlObTJYMWZ2blF0MHlCYzZvU1V3WERtMXZvaElfbHBXX3Q0eHZCTklORnJhYw?oc=5</t>
+  </si>
+  <si>
+    <t>SinEmbargo</t>
+  </si>
+  <si>
+    <t>Tren 'El Insurgente' hace historia en movilidad del Valle de México y Toluca, destaca Delfina Gómez</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxQZkxobmhQV1RIUDNPLUwzdE83QTh3UHF5cG10VGx4LUxkNTE2N0lzeWlmT1pSZC1sMXZUYTlsQm1OanRyeXFGdkx1Q1ZNMFVLNGZveGlBNXl4NG8xeDVRQ256YVo2OTl0RXF1QlJfcXQ2bjV4eDd1MXVjbDVnSUtFMTZTazg0dmlibGRqVnhTQ2stdVUtalctR3VURmt4NlNneldnU1Qzek1XV1F3ZU9OcmY1V1RETzJpdno3NWMtZmI2c1pCaDRwOHlqQTRLTFFtREVhcm5ZTk54NGZMdDd0OHlIU0RrR0EzamtfWdIB8gFBVV95cUxPdnp4LWttNlhqN2pNUV8wa2R3SEZla1UyY2RlQjNGNDJkeHVhSW9SRHdTRmZsVnlhNGhDa3psVVJpS2U5dXdNalVPZ09LamFJc1hfVldZZ0dpUVlaQzA2SmhxQ29EUnY4NkdfN29IY0pnNE1HVldndHAyZXJLZ25YeERxX2U5YXFNQmIwbE52QVJINGVCTV9xbndZaGdJRkdaeWNrUVhqOFBnZFFtOFJYbV9MWWxhVnhST1BBc2lEQl80a0FSeG5jWkxfZENhQzZjNEVvN0dUdTFSa2lnM0xBWXVnbnYzT2pUUnQtb3hlT0dCZw?oc=5</t>
+  </si>
+  <si>
+    <t>'Movilidad de primer mundo para el pueblo': Sheinbaum estrena el Tren Toluca-CDMX</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxPZjdydVg0alBRb2ZiNDdWOW8xbzk4TDE1OGV1b0FZTHYxYkF1eFNCM0oydlJEa0pkWWJnRGU1VkYzSWRjOVZDa0FGbnVYek9IXzJISXdXcklCamRLc0Y1X2V0bnVWRjRaWC1DaU1HamFaVWxOc1VtTk50SU13czhpWDhRQ1BvRGZMQWR0VzJ6Sl94Z1N3alJMVVNVODEyaWtGSVVlclcxUnU2dHNDMm44RkNKSWM1V1pGVjdtcXIwWnVkTXVfVEZveVBQU0l5TTJLTFljQtIB2gFBVV95cUxNNlVLUEFQNXJkYW1nT3pRSWNxbC1vZVYtWFhhck9yR3BUc09GWUx6OWdnZUt1QzJxSXctb2RFYkdWSEFtZjA1MU44bGplcnRVdGRkMlNSbGg2cFJZMzdWUm5iYXpVd1k5aW0xcEpicXVVZzMxTEM2cE93SExUR1g3cUZwLXlKOHpKMWFZRVdtdmI1c0ptVGJTajBvQU1LWkozUmZ2MWZBTjVOUU5IZXpTMGRMcEdocEZEaExKd3ZOQTg0NFBqQS02MzVRMmc1Vm5ObGtSUjFiRlh3UQ?oc=5</t>
+  </si>
+  <si>
+    <t>Sheinbaum concluye el Tren El Insurgente y salda deuda histórica de movilidad: 'La 4T sí cumple' (VIDEO)</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9gFBVV95cUxNdm0tQ3U4bkRzUWV5RDh0SUxXQmpzLW1xX0ZJbzU4STlnOXkwZHcySUUwR3VlZS0zWWpiZmx1T3NBQ1Z5dU5IMU00TVBiQ3lCTDJTcERkcnZmRmtSNVR0MUxpV3drY1pTVDF3Mjk3QWx1TDVhdDM2UW5OMExvQlNqSVUzV25VVXNNV085UW83cE9lS2ZCcWlvVHZNY1JwSTJmZ2ZJLXMzM3VycGs3cm1LMkZMaGFINHctdDNNU1dGaW9GdEZZcUk0YU1TaGF3T3dhWDZiTS1LOFdkQ0FLNXlfVUxkTFFVaHhER0h5OEdERmZxdVJ2ZWfSAfYBQVVfeXFMTXZtLUN1OG5Ec1FleUQ4dElMV0Jqcy1tcV9GSW81OEk5Zzl5MGR3MklFMEd1ZWUtM1lqYmZsdU9zQUNWeXVOSDFNNE1QYkN5QkwyU3BEZHJ2ZkZrUjVUdDFMaVd3a2NaU1QxdzI5N0FsdUw1YXQzNlFuTjBMb0JTaklVM1duVVVzTVdPOVFvN3BPZUtmQnFpb1R2TWNScEkyZmdmSS1zMzN1cnBrN3JtSzJGTGhhSDR3LXQzTVNXRmlvRnRGWXFJNGFNU2hhd093YVg2Yk0tSzhXZENBSzV5X1VMZExRVWh4REdIeThHREZmcXVSdmVn?oc=5</t>
+  </si>
+  <si>
+    <t>Taxistas afectan la movilidad en Bogotá: bloquean ingreso al aeropuerto El Dorado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxNWVhqWnI0RnoyaGV3QWxSTlVOWHQzdUZkS3JZZmFHVG9xMmFNNHNNVVVUZTNRYjFoTjFYcURYSk5GdFJQZVpkb3Y1aU5ZSnhQcXdLM1N3S1hidEtoYi15VUhFYjRxQWJ2ZERPN0puLXZrdndreEJTTk9MeUg1Tlp5YllaZ1d4NjIwYVdvNGFBTVk4QmFkQXB6RXRnOEdKOU85N0hfRUxQYlpBY0o1blpwZFJSajVwS05HMGhPS3BYWkxNZHAwRkJMcnZ1bjhvQdIB6AFBVV95cUxORmZKd216YVo2c0pzX0RoQlYtWi1xbGtxSXBHb3RBTnpJaFFSaGhaTEJHNUhCQ3p5cndDRUtOUU9yNndYcEk1bkNCcWpyX3hrcktma1I0ZVhEQXFCbXlvQWJLTTNYV3VObVlLYWxtTFVxeEwyZXoxbmRVcGNJandPa3cwbGxTSkpacV8xbEJoZHU2cnBxZTdOU2hNX2QydVRQUG9oN1RpeHRleFlWeXVOUWI1YXlJMHRpMzItd1E2VkM3b2N5cW84V3VaYzZVT1c3ODlRMDRxYXlnbUZ3UEtyaU5YeGRiWTFi?oc=5</t>
+  </si>
+  <si>
+    <t>Lluvias afectan la movilidad en Bogotá: suspenden temporalmente el TransMiCable por condiciones climáticas adversas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8AFBVV95cUxOa2dVN3MxU29uenhWSVY4Y0F0RjVXN0ZndVNXSWUzeVZpRmlJU2ZpLURjMkhQUDZWNE5hQkVWX3l1RERMc0NzdkxQc0xKclpIUDZ6YmJzT25sRkZueFdFZjl6N1RkVlJuZ3JPWEFjOTktVk1tS0NiQ2duekFieW5qLTZ4QkIyWFBBU3FiMXBSVTBsdGF0a3R2ZkIxRDFrdmJDdkk3alhUX2piQmI4c2NoajNiMHBuZl96cncwRjctU2RxQmxhaVJLMWVxZC02SEFmN2EzTjM1cDdIV3lCQnNITlYxdEJKRkhHRzQ0bGdfM03SAYsCQVVfeXFMT25XMWdkSDYxVGxHREQ2X1hFN25ld2dLaF8wd2pEVDBQbXd2ODZENmRLOUdqMzdTSXJFZk1KVXhnTVdfbVIxcWJnNF9YblZhb2JBUm1VLTkyUnQ1S002bVhyYjB6VGp5SEFqaUIzSWtaRU1vN0FQRDdOYUhCVFdZZ0tKY2UxdHBBb2R5QmNSdVU2NWRDR1JLb0NnNWgtVlFzaGJiU1U1U2drb0I4bVlLOTZ3SVFIdVFyWUE2MHdPWGpEdkh4eG1FZVJTLVhKQW84UVZaUm1mWkZFMzdXSlpybXZOLWtzeG1aQWhaR3NKV0ZMQnBfRDFvZkp4Q3d4dDA2WDQ0dkV0REh4dVFB?oc=5</t>
+  </si>
+  <si>
+    <t>Sin prórrogas ni concesiones: Movilidad aprieta el canje de placas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxQLUlRNXFNOHZvS3U0QW9hZDU1aGtKQXlUSjQ1VVpQdXVtWHF5RlZxWlNsZl9vdktiT0N0Skp3bjM4NmRvTVVDZVRNUTIzckRQLUtOb2pXSXdnM2dnOVFjczFjWGJxMGd4VkRpU0tJSTBSamljMWVVWnlZQ2VFcWRtaVk0dEFlY3JNV2lPczJPVHAtM0FzY01uM0lhMlBrWTc5VVZXbTNNME4yUU1HdHlLSFVrbno3M2d5U3c?oc=5</t>
+  </si>
+  <si>
+    <t>Movilidad Segura en Edomex 2026: así funcionará la nueva plataforma contra el acoso sexual</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxOSnREdmlhYjJDRzRFcW90ZS1Mb0ItZnZ5WjdmWUcxQ29EWFNSUF9kUTJQV2JkVTFrMEVfdHZsRlY4c2JMVHBoc09wQlBOTEUyN05SdGhXOWFsRnpfajdqNFplQTVQM25DTTFZeGkzV3BWWEtQbFhwcGprYWhrRWp5TWNVeTliRTRvRFlVajRPRnlQeXdRcjlwMUlZV2t6VGVSODctMk94U29YSy1BSE00LVFNQ2dMVEZBTktGRUIycVNjdVQ5dnNNSGFTVndpTTJNc3Vj?oc=5</t>
+  </si>
+  <si>
+    <t>El Programa Permanente de Bacheo tiene el objetivo de mejorar la movilidad urbana</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxQWk5abGxmaUVEUXVBWVhYZmsyalVXOW1KYXBfdUU2eWNvLUlDZjlHZ2I3bzRLczhGT0laVWUzNmxvQWVvSGZwSkc4U016bUg0aHZhV1UxcldRYnY1RWhtOVJybGxkaVRTZlg2YkpqOFh4VGtzZ2VBVVdkVXJVZGliQzJYOWFUcnllcklyY3V6dWJkMVZWN0stcG8tV3NpS0pTdjhEN1JMVXRYR0Z5NFRiX1ZIWHkyLVdCb2tPY1ZEYUtiTFlDNGFzUEJDal8?oc=5</t>
+  </si>
+  <si>
+    <t>El Sol de Tampico | Noticias Locales, Policiacas, sobre México, Tamaulipas y el Mundo - El Sol de México</t>
+  </si>
+  <si>
+    <t>Delfina Gómez reconoce avance histórico en movilidad con el Tren Insurgente</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxOaWo4QnBHUFlvOUo2cGZjS0tveUpOUmpHalNyV3VDSEdzSkZrUjFibzBWMVY0OEQtZ0lMV0JEVG4xNFNoNXFKZnRwQjFCeGtLYkZNWEM5Sk5XekVWbzJmTTlId3lqRG5yc2dkU1k1LVV6OUcxbnJQQU5jVXdvcnFqdUVJMXl5UExTU1N0OU1yLXl4QTNQMUQtRVJjSnU1Zk1oaFVMdnUtRVVKemFONDdaVzdiNzU1d0lNSnU0?oc=5</t>
+  </si>
+  <si>
+    <t>Tren Insurgente hace historia en movilidad del Valle de México: Delfina Gómez</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxPTFlsSlRIbGRQbGlBcmRHaUc4cGI1VHpqSlV2R3Fsc2tKbnJvSTN0WUxMaGU0Y3dlakNIY2g3Tkdfd05KNC1YWlg0eU1qUXdXS0oweHIxd2Z6emRTWVZkQWVOSHBIVzk0OG1hVjdsZlJidGZwOHhDbmUxa1lkV21LUmt4Unl1N0RHdDB0R09PZVpydWM1cU9KLUdEQngwTHN1bjl0ZDQxbU1NSGpacm5Ucnhn0gG3AUFVX3lxTE8wWEpaWmw2UWQ1QWo2ZTB1TGdvbnVHcTlPcHlRRkROMjh4bDVjYmVUZW1UX1VrOGExaTBqMkRaeXJjYnJubFYwM0RENWQ3RTlRNWVHc3dNQTB2TDBEWnBpQjRoTWtHcl9MTFpCai1xTjdwaG93ZEQzX2VoVkRLaEh1SFA0azBlRTNHQXlmUkdhWEJnVnhRNlpzRFlsai1PZ09nbS05aFpDaTZtdThmUUdZMDZaWDFLZw?oc=5</t>
+  </si>
+  <si>
+    <t>Un hombre con movilidad reducida fallece en un incendio en Tarragona</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxOMXdQTzk2d3N4T0ZubGVHblZvWkVnSk9VVGtWbHB4a1JoSVZ1X0pUa2ZGYVp2YmdjcmtFelVmM2VZOVhxejlFdW95UkZCRHZ1MlI4T2Q0MEp4OFdDdkx6RnJxRDhNUzR5ZjV2MWxPYm5ORjJBa2hWb3lNWWs1YnAtc2xwcHBoMUdGQjdubEV4RzUyUU1JeFBWcFV1RVNBbmpjTVNwUElfc0NMdi1MRW9ha2phMEYzOHlNLVRzTjhGM0JMdThHX2N5cWVkQU16V3Ut0gHQAUFVX3lxTE4xd1BPOTZ3c3hPRm5sZUduVm9aRWdKT1VUa1ZscHhrUmhJVnVfSlRrZkZhWnZiZ2Nya0V6VWYzZVk5WHF6OUV1b3lSRkJEdnUyUjhPZDQwSng4V0N2THpGcnFEOE1TNHlmNXYxbE9ibk5GMkFraFZveU1ZazVicC1zbHBwcGgxR0ZCN25sRXhHNTJRTUl4UFZwVXVFU0FuamNNU3BQSV9zQ0x2LUxFb2FramEwRjM4eU0tVHNOOEYzQkx1OEdfY3lxZWRBTXpXdS0?oc=5</t>
+  </si>
+  <si>
+    <t>Con el Tren El Insurgente se hace historia en movilidad y calidad de vida para Edomex: Delfina Gómez</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNZThPcm9uWGtZeFJfdGxWeDRic0V0SHpvdkJHLVlaanZGOU5WcjBISzhvUWJwV2N1YktrM3d4WXlZc01iaDF4UWRnWlNKakYxcVdHQWhodE9UMGNfWThoYkNvWGczZVhrUngtVzMtS2pWbVVEWkgzcWhhdy1LSWlXTmd2bE9KZ2FxSXhMSFktSUk0YzV4OGgxZzJTQm9tTktPUWlkOdIBpAFBVV95cUxNZThPcm9uWGtZeFJfdGxWeDRic0V0SHpvdkJHLVlaanZGOU5WcjBISzhvUWJwV2N1YktrM3d4WXlZc01iaDF4UWRnWlNKakYxcVdHQWhodE9UMGNfWThoYkNvWGczZVhrUngtVzMtS2pWbVVEWkgzcWhhdy1LSWlXTmd2bE9KZ2FxSXhMSFktSUk0YzV4OGgxZzJTQm9tTktPUWlkOQ?oc=5</t>
+  </si>
+  <si>
+    <t>Avances y desafíos de la electromovilidad en México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxNNkJZcENkN0ZudVJuVDNRbUpmUlBjZUlaYUNub1VqaW9IZ0lPVDhVYzhQMkFhNUhJczAtajNZRjVFbGZVdjJGOFpXQXAtWWlwRm51Vjk3bUl3cEM3TWtLZ2UzaXdiU0NrR0xmVHNINVllNVk3NGJiQnBVa0htay10aW9GNllqc0lrRzg1MlBB0gGOAUFVX3lxTFAyOVNaTTlybVBlMGlNMlNURU4yRThsNWxHVFdYc3ZKX2xqYVB5M08tX2V4NHd1dlZ5Y0FCMmtLbXE0c3NYYkltbTFCZERGcXJ0T0JqQ1BPY1pST1E1NGR4YVlOSlBCQ0hGNVNSdXpZQU84LXdTNlpZbjgwTFpOTHV2bTFybW52ZzdjYkVQZEE?oc=5</t>
+  </si>
+  <si>
+    <t>La movilidad aérea urbana podría sumar hasta 100,000 aeronaves eVTOL</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxOLTJfTy1uLUxzcUZ6WnJXZ0JnQUN1em5paDJEdHNvd05ZQ3hFNnZpdFM1V1R4by1WUVVqbEx1MnJGeGRhdGtqRFRuSlMyVWxCM21UUlNvV1hLbVRwZkxxNE9laTRSU2xOamZpYkFGQ3JhdWI2b1RJSm5POGZqel9talVSazkzcVJHMjM0cFo1Wll6VVRGSUFyTjVkZWJuUDJhdFpoNGNRc2hHT3dwa0dkaTVWd3dlLVZOUnZj?oc=5</t>
+  </si>
+  <si>
+    <t>Real Estate Market &amp; Lifestyle</t>
+  </si>
+  <si>
+    <t>Benito Juárez defiende espectáculos masivos garantizan seguridad en Plaza de Toros y Estadio</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxQR3RHekZyZklJZWlwVkJjdk1ta2dQbERrV0JMVVVhRkI5ZDlZME1aeXFBdEg3VUZMSGhkbTQ3bmdaV3NzcTlwMVA0UkZlSXFZUkhESFBXVUMyVkNVLV9WZ3M4elJMRXMyLTdKQjhWVjFSTUxfVlRDcWZ5U1YteTVlYWp5Zkl0VjQtWmZhbHhzUk56SGlvdmN2TTh2cHZFVHBMZFFrX2tyR2xaTUNuOExpaVdQQnRlTk8yWkRUSVh3TTZSTlNDR3VibDA2UGI2LWwzTk1QUTcyRW8tTHVUbTBYOXR3aVhPZHRfbEFaWVg1cWJldWxfZW9jY3dzMGV1X0VOZnfSAZYCQVVfeXFMTzNNQnd3UV9hcTV5WTd1MmNIVlNfWXIxVXIzOWVJSGtweVJVd205dkdDQ213alkyLXBtX0ZiRmsyWVZXZ1NhX210UjRDYUNaQUJZMlpseVYxcVl6TlhhWkFUZ0hrVlhGNXhxY3M1TjBEb25kQWxfWlVQWkp0TGF6aC1uUzdfd1lnWlV3LWFBTUZKS3NpUmZmQ1o4WmtLMmNWZmd2N1Iya21Xdlc0SE5BMGNXVWhjZVc1YnYxeG9KNmRuOHVBaktpRE9CdkRkTmdnMmFSUlhoaGRvdk0zTU92TDFtRmR3dnhab29HdDY1dDRNbHpaVndYaHRnaUJraDRGdHcya2xlaENyVC1DVmMxdEl5UmJEenc?oc=5</t>
+  </si>
+  <si>
+    <t>Seis adolescentes escapan de Casa Cuna en La Paz DIF activa búsqueda y refuerza seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxPcnFEdHZZZlB5LWJmT1RTZzhIdkdNcnBNN0pvRVdCNW5SM2E4T29YRGdGbHdtV0d5Qjh6b2NSMDk2Sk9NMXlEVWNfdTlzN2YzdkJUcGpTV1Rqak9tekc0allXMEZkTlhVbUp4TDJWdDlkMWZpSkNRYkRZWkFXOWFMREhDZUw5bFhpaGh0SHEtM1RvYl9HN2x4X0Nkb05TeklKdWJFTnFQVXItWkxRMTU5R2FYdmtUaW0tT3llR2IwQ2xpaVlQMW50WtIB3AFBVV95cUxNRjl1MHoyQ0RFNUExTUFLNGdJd0ltUGpEcWdDSlpNLXZyMV9fUDdkZHhXNHZTS19aSktBS2YyWFQ4OFVXczhDYnJBYlYwRUNPTVg0QkRRMU1aZlc5clhHUFRjQ2xnTHRRdVo0MzNvTFVqUHdzLUJpS2NCdndhX0NfRXIzc0pTYjFEUXJDQk5XRVpBb2p0TjRlcDY0bDVxM0ptRk9rVk5qYWVidldBdk1UM2E0LWVVUnhtbnFSLXVxbTJtb0xwZGxtVldCTmk0eGEwQ2tDSnVFcWpmc3JZ?oc=5</t>
+  </si>
+  <si>
+    <t>Admite Morena en SLP que la inseguridad sigue siendo el gran reto de la 4T</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxOSW5RU0h4WkVHYUR1OXRBY3lwLThlYkcxbTNKb2hfMnNkck0zNE9hclFUV0tWZmJDVTRha2Y5TGliT0VEekFLNzktSloyNmVBQXhZSWJwZ1FTeEF6V2U5dExTd2FUUEdqOS1RY1RJODdJLWgxUWFHNkpTLU9zMjdnU2owVElSN0ZwWkFVUTlCU1gzd2FjTnd4ZXdvUVZXa05RN1l1akRMeWNjTTZfQUtkM19KNGh5dkhoTndv0gHPAUFVX3lxTE9kQ25PbHpQU2NGc0lfZVdlVE9NSGlVQWNsOXo2eHBzdnpXcF9NLWhWUnh2RElaXzFlT0NZWHBldTNiMEpKOUQ3eE9oRnJ2TFFCcWZuajdwZWRjVG1ZWU1XQkNSV2g0THBaT1QzcWVyMWtqaWxHZnlONHVKSXltVTVxS0JnajdhVVZ5THVUbjMwRFNTSHg2OG0wd043NmQ3VWNRV2xCUEVGUWFacE9ENjZWR09EVVJtNUZmQ3lVTXl3d00zdzY0UHZNQWd4NW5hTQ?oc=5</t>
+  </si>
+  <si>
+    <t>El Universal San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Cerrar el paso al dinero del crimen, el gran reto de la seguridad nacional de Sheinbaum</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxPaEMycy1POXpMZTdkWmxENEZGSFV6VWRHdXA2VWVMdmh5dXlqT3g4eHNkcG5WU0VpRU9iMG9QN1NSVy1rbFNUNG9GR2RDNXJpQnBlUG95b3ZpMC1JNENQX0t4S0d4R3JWNUR0c3B6eDgxRVF1ci0xLUM1NUhvRXhTNWk2RlBsQkdUSDdMZ21JeUZpLUNtQkYyQ3RabHJPR3NjY1VfNUNvNnptdGNZbFRYeW5PWEpwbHNIZUFiWU0yVS11Y0R4V0E1aVE1TTE1aW5LLWRHSXgwWlhXMURvd1B30gHkAUFVX3lxTE1yakV5eWIxQlY4NklISlN2SFRlLXEtS01oY2txc0hvODlHY01kNWIxbVB6WWFaVTJ3cFcwblA0b05UMURHMFdSbjB6cEFCN0pTQ3huVFUydl9ycmtmZ3NHaGlsUTVBZjgxLWZ4Z1h6MjVFMFhnbEV1RFhoMDlTUVBLM01RQk1NWllSZlFJdW82TUQwQ2NfVkFmWFpGNHFFRGctR0s1UXBVS0Y3aWppVEVUeFJKX0ZPQVllNElMYjRWMldydk1oWU13SzBjRzBmQjlIX3BGUnVwbDlMSTY2TDAtZ2M4Xw?oc=5</t>
+  </si>
+  <si>
+    <t>Registro Nacional Penitenciario: obligaciones biométricas y desafíos en seguridad de datos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxOdnhoX1BZclNGNWZUQWRvOEUyVFpxaTBqSDNNTDQ5VENicmthX3VhdmJ1ZmNiRlVhekt5ZHpqcXBJSjRoQmdSN0k4OXF0STdKU2Fxb3dhUEpLTWtBSXFISFdtSEZScGZWUXVlTUtuRE1TZV9xNXV6YUhDYlJrZlBySkZfQURRMS1YRERVaDRQMUJ1TVp1U2JKX1h0aUZzTENKYmNRU2o0TTBCaW11LXpYVFFla1Y0ZXBKcEF6bjRta0wxYU1fZ3lQY0dsYlByczZqRFk5NG5SbFdWaW04d2tDU9IB5gFBVV95cUxNWDktLU4tcnByX1VtWDZhOW1jRTZlVThpenFaa3ZCYTdKUlVhMWtnSFh1NGJBZkM3SVIzZkhtVXpmZjBTWDZydHBqZ1BPY2xwUlpNZFgxaWJ2VERJbXZrb1gyRUhaX0tPdjBFMmZBNlFHZWtPLWo1TjZ3NzZ4SWU2YkdnRG5BYVVMM2xZbWJvUW50Qy1VTzVRT0h5ZjhfYnlfa1hxWWRTbUNGcDZzLTYyTHk2bm1aenpZNXBzOWluMWk1U3NHNWZYSnBwZDdMb0JtME4wWFBNNEZJU0xYV3BMbkdIMDhfUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Diplomacia de seguridad, cooperación México–EU</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxQLWRXZkp3U1phamhEQkpZZXRIWUd0V19ZMGxqZF9zQ3kzRHBYc3NpY0RnSTRmLS1FQmZSTFJWellSVnNuWGx1WFozdTJQYmtwZHJaNWZ3SkJoNXR6UUQtaEV1bzJHY0Q2WXh5MWQ3Z19yNUtlS045WGdUM0YwVFdNeHNQdDV5YmJmbFl2V2t3bHc0TTdYRDNIUzhReWxyNi1FRll0N0NXa9IBrAFBVV95cUxOSmpGUkx2SE1fRG5ndjdSSE9TSGl2eFZCVmRQUjd0dWlqS3ZvWnhGbTJWZnhGNGt6Y2JsemRLb0ZzR1lDYmRxZTRqUl9KZEFDSDE5YW1ZcDF3dW9hdVlFRk1nSGNqRUd0bE1YWFRsTnNETGdaODBmUUdqbHFMQ2lrZnpUbEktdzl1TlAxaUdmNHkyYUxjYVpXVVczd1ZIa2c3bTlDZC0xZzR5R2RO?oc=5</t>
+  </si>
+  <si>
+    <t>Mando Unificado Oriente duplica fuerza de seguridad en Valle de Chalco</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxOX0ZJZElOdk1waFJPNWlTRHhKMy1yNVFXZkpPS0JNR05WTVltV1JvWHFtbU9kbGp4NF9nd1pzbkQ5cVNSZWg2Z2VoTUh2dEdHMVQ0LTlnbjRyQ0VJWmNyQjZSR25aU3RHdlgwVDhmLW1VSXBhdFBYbTA0dVlvcUFBN0tONG5LWDNXM2JtU21Ddy1OSk5lZVNyeGh6YVl2Z3A5aktXU0FCb3JJVWZoZDg3Z0hlem1yRFJBOFIzWnZVbWJsLWZGMGVKNl9seUZhd2c1R0FPTzhPbE5QMXBXdGVZ0gHfAUFVX3lxTE5fRklkSU52TXBoUk81aVNEeEozLXI1UVdmSk9LQk1HTlZNWW1XUm9YcW1tT2Rsang0X2d3WnNuRDlxU1JlaDZnZWhNSHZ0R0cxVDQtOWduNHJDRUlaY3JCNlJHblpTdEd2WDBUOGYtbVVJcGF0UFhtMDR1WW9xQUE3S040bktYM1czYm1TbUN3LU5KTmVlU3J4aHphWXZncDlqS1dTQUJvcklVZmhkODdnSGV6bXJEUkE4UjNadlVtYmwtZkYwZUo2X2x5RmF3ZzVHQU9POE9sTlAxcFd0ZVk?oc=5</t>
+  </si>
+  <si>
+    <t>estadodemexico.heraldodemexico.com.mx</t>
+  </si>
+  <si>
+    <t>Crece la percepción de inseguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNZjNZaHhkUWRCQ3N3RGpOU3dZeEw5QWVsbjR6NDdMQWlZRlVCMGRxbEFZN1dic2kxS1dpOVQtMDN0cmlmdWw4S25GeHpmSy1GSC1Rd1FTSnlOOVpNaEdydW1MSDdyVEJHNmlpQUhnQjJqUFJUem5fOURvQjVMWndTbk5GaGRlMV9ZR1N5dGpqa3NueHlaOXVIckQ5UE4ybGRTcmJxRtIBqgFBVV95cUxNNmhaN1NtMzBLdUJneVdaVVRfbEZlZUE1M0xnVVhVckp0R0phbk9mc014ajZXcXU0d2lFdGMtR0dZNEFKcVM4OE16TDlxVUxJMXYxR3V4c29pUGFrQlhHcXh0Z0h1SHdsLTB6N2xDQi1OdkdZaTZ2b1pYWjNJRXFqSjAzZjdPNWNBUG1ia2tYYkxmbWNQal9Ia2FjMUl6N0lfbGZRQlZwTjhEUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Extorsión, trata de personas y crimen organizado: los retos de seguridad en las sedes del Mundial en México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6AFBVV95cUxPMFp4bVY2LXFVNzNnek1kV1hFLVBnSEdCcjNIT3BGVEVSOHRLZEdqeHFCTHYwdDdwYjNzTkhqMmthMzBHakFVcmIyaThUS2kyMVpZMXJySG9UOUllaDZYVWk4aFdJZDlBMEUtc3VVbksyV09heFlCYlc3UWNmeGVTOUdjVlN5dWd0SGE2UlpMZ01mTXF4N20zTlNfSWpxdUdEY2VjVEExNGxIZ3FMV3pLZ1VGUnlDNnlJeVlmb0RyWXhlbVU5MFFFdXl4MGM3b3dVWHMwOFFpSXJYZTFIQTNKdEhQSEU0T0dJ0gH2AUFVX3lxTE9KS0xoVFBXTTA1dE0yYndnR3lxWm51UXpkR3p5RGl2T3Nwc0xSMTloSWRSRFFhU3dHVFRVMWhTbHJqMTF3SU1BeTYxbFV1WmRMVEZoUjFOSElLM3B4S01Dd1g0RUdqbXhWX0VNQWhwTUY3d3VVSExKNW55ZTVIQlhIRTk3TnExRXNDRnpoWXh4Y1Ria2tXLVdaQjg2OF9pclV2Z1pGMm4zMllNcENOVHFnOTMteG5aZ3lZTG9WZnpXNVAyMkQ0dmVuNWFzejQ5dkg4Qm1aV3R0dDdvZDdiRW9Mai1zU0pKU1pVLVBpTlRHSGpDMl9YQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Expansión Política</t>
+  </si>
+  <si>
+    <t>Detienen a Tres Personas por Robo a Tienda en Monterrey; Participó Guardia de Seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxQOG5YS3dFUmRZQlB0MG9VWE1lZFRFbEtuOGtxQUxRWjdtc3h6dm5WZmNHSkNMM2I3eUNhcTl5MjF0WkxPQnBJbVhkMHQteng4X0JKNUR2QnJmbThXVWpNdjJaSGpaRTdCT1cySGZyMFY4Q3A1UEpDZlhid0UzZW9yYnBFUGxDblhpcEtHcUQ1aC1ZMmhCbGh0ZENfT3ExUHRoMnRZWmpmN2dscVU1SVZXbVBPYnA4am1oaS0yT1Axa2dtMVhPbmxqZFRhQUtLUFI3dkRNTTFtNE41ZllYRFhwUFdR?oc=5</t>
+  </si>
+  <si>
+    <t>Así se Encuentra Pueblo Quieto Tras Operativo de Seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxNZkl6VGhTb3pSQUpZdWFtcmRudEE1SUxISE1zbjY0LWYyUzFFSGp2OW52QjVOUklOeTNfT3Qtd0loYzhNVGRqNngtTVY3d3B4VmJrcEE3bHNLOVJtblZBNExOdHJsYkZUejdkWHlZcTBEa2lwbkFZNDFUcktOSzJoV19QeHVBUDhXQ2FMTHdFQkVMeERsUmp2eEN0SVZxNGFoQ0VkemUxZnVYNUpSZWlJdGlhRGNiaXhsaUN0MXlGN3lpaU40RGxQZlFWa1phdw?oc=5</t>
+  </si>
+  <si>
+    <t>Seguridad en Guanajuato: enero de 2026 registra la cifra más baja de homicidios dolosos en 8 años</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxORExOQVg1aExUb3d3ZG1KbllHT0k1RW44UDJfZEUwLXZKLWlGZUEwUmRVRXZtOHpPMnhfUjJqSU0zem45cmo4UTZuNHVKZjdya1FmMFVHUlkyeDQ3LWxvRlVJb0ZIdzZQa0xmZ2oxRHJvNFlzcE1aSmJQZ0s5MDNMd1NjaXpULUdfQ0w1LVF0TkIyU2hoWndnWlNuMnhzWTRzM25hSVpRRVpKYmdRNDVFYllaMUpFOVBSWlBuaWVrdEJKY3lXZ3BIME4zTXBtc2RaTjgwbVBnMGRKWXlzZkFDbHRLYWszSEhVRElKZtIB8gFBVV95cUxQUXI0Vk9KTVIxTjBDdEFJNXJqSzVsTHFPZDJNZEVwYmthXzdCSkNqaUw4TndGQVFTZEFUYUNzMTJOY1NiaUg4blIzTDB0RGozVzNZdEZWeVJCamVWZ2laMGxPYS1sWmpZWDBUZ25hR1VfX19JVHBDNlpneDhfTUFpZTJFdmlXNl9YNEhlQ1hPeU4yOVI3c0dnaXNkMU9ZVGlsVG51cUp1V3ZuU0s2b0M4bE0xMU5ROGNIc2tvVGJSYzcyX2l0bURPbVlQeXFmbGM3R21fYlZpSl80WkpBNHF5R0RlaHRRaFNxcnN1ZEY3UVQ2dw?oc=5</t>
+  </si>
+  <si>
+    <t>Muere el obispo de BCS, Miguel Ángel Alba Díaz, una voz crítica en la seguridad y con las desapariciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8AFBVV95cUxNTjdZRTBtSU02cGhCcEk0cTZydGxWWU5FOEctSmxZQnd3MTdINU9vWEI4Zk4yaDlvSGJlR1dIdU5EUEpNVVZWaWYtaW5wSllzWGRPcTFDM3JsOXFHN2VmbXBWSXlWYl9yWGNtVzMxY0p2NmhFWm10MUlzRzNsSGtaQ1ZBTjczUUdwRXd4NXlnUnNCVDlDZks0clRaSU9hTTVPdUdOWGNrNHJ3LWwybWVDLXNiWGNoTzdrWGJFbzJyRnV1TmtkbDZzVmFFZTlMRkE5MkRNei1lRkpiVFl5REw5dlZWeEhSeV84a3dwV0hPY03SAfYBQVVfeXFMUEVnV3JpdThMRU9uNTV2Yk1OTGU1ei1kZlVpTFVmQjVtMnVrYktjRlNOblAtai1WM1Y5NXAwWVJIMWFpZXVuX2ZqNGt5NUlMVW5PM0VqWFJnenI3THF3QWJQQWtqN3NVMUFZQWZBREc2WWZITkdXbjQ5OVV1R0p4WWNxdUZCajlEUnh5S1FHaXF5ME40d1dqdWhRSjV3VjdDeC1abUlmcUU4cEZiZDU4QXhXS2JjRWVGeklWTTV0eWN1OVZfVkEzdGRrR014N05nbERCSjlkbDlpMnZ4UkxpaDR2UVdHQ05PcnpPbXhrS3dNTkI5NHVB?oc=5</t>
+  </si>
+  <si>
+    <t>Últimas noticias de Seguridad y justicia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE96eUpCaTRfSkNVcEh5cEU4bWpTTEpBTmpJU21jS1Q3VERoc01ibDV1Qzd2NzRkNFJ3WW1nZlBHcllYREpUYWpHMzFIczZHUmZMY015QUxsZnEzYW5OSHJnTUJWQnFJSFo5MGlfRzZ3QThzY0k?oc=5</t>
+  </si>
+  <si>
+    <t>En 2026 cambian las monedas de 10 pesos: nuevos metales y mayor seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxQSFZlTGJyVnd5R0RpdVg4U0ozLUlkVVFydl9sOHk1N1RsaktOLTBRdWRBNExkVXh3QnoxUmRVaE1ZOEVYWFRJQUt0UmR1Yy1iNjJ0VnF6VThrajIzc2dmbWhIRWRZVktwLTFnUWhrZTZabmYzcWhlQmpsODFya2FKRVZjdlRGNW1LTFUxVXhfN3hCT3hXRFVJLUFxNFhIeTNXZGZJZUlnZw?oc=5</t>
+  </si>
+  <si>
+    <t>Qué hacer en la noche para cuidar la seguridad del celular: apagarlo o dejarlo bloqueado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxPN3hFbjZBMTBicVBvdHUtMHVJcFAzbVFGRG9iejMzYWdMVlZKb2ZjNGIzUnQ4Q3NtVFNMR0xsRkhJSzRFSDdtZTgwTzQyVmhtMlczY0tfQUNSZHlOTkRVYXhDeVpWT3hPVU5OSGlIMkdzcDh6Szl0YXF4dGhCeEMwVDVDLWxuT3djQ2hYRjBvVTJ6RzRvaThtLS1rTG9jeTlReFM0UnBRZXJmQ3FZZ3V2b3FoTG9qa0VFWno4UmRCNC10ZWhGeWhhVNIB4wFBVV95cUxPUV9YS1RtcUl2ZlJjUUkxUmQ4N1lMc0JZcnAtMVA2aFJvT1JXRHBnM2lUNm5FX3lzS1RCVFBZemNJN1NhbjN0WjAtbFl1WEV0Mm80TlFHdVJvaVlNY3ZhWkFjSEk1QTRFdUlnQzVPN01BSUUxeHVST0VLNG5qTFhrcHBNR0daTmVfdTI3NlJSN0NjeFdvNDJ1RGlzejdiR3JMRFlQM214M1ZPX3c3Q1dCdWU0THp6dlBQM04xWmNSUFNFU1J1QW9sTWUwWlhnS2k4aHJxMlB6S0wtUVpTRXFmMzZGNA?oc=5</t>
+  </si>
+  <si>
+    <t>El presidente Bukele anuncia próxima visita a Chile para cooperación en seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxNRHNZdHV1dVZKYmZ6a1NEd2x2T09hYm05WFVpLVo5eW5OS2N2RkQ2Sk42WllFYXRXTkhKNm0tMmhZN1NBRWwwbS1NcEZzRXVLb3NUZDRZN1ZzczBHZ0FGN2NkU2QzSHFFRzJuTzBOcFpKaUl1M2ptcEhwZVRUYlpEamJxZGNBY2hObURLQ19vTVJzLVAxYjVTWjlCcU96SlNLanZ2alhxVFIwZGwzTkxTTHhOdWxTS0FLdjl4c0dEV3U4RjdtMFFRM9IB4wFBVV95cUxQZHJXZHdiYkdEYURtTndWZmFBdklBeXo4YmhtZTRWYWdaMXhkc2lJS1QxUnZFeHQ5ZUNQeFJRN0lmRVFhQ0NNVHdUZmIyYmZycVhoNWZOVldzZ1RCNk1FYXpkUUk1THp4VnFKajJTWS1mTm5VVmMyVnpoQ2tpMnZ6SHVhSHMyc0xVdEtNVk1qbmo1YUZpcVYtdWNQdnVFdnQxRERSQVhScEo1a1UwZXJtOFpYVUI0Q0tWWVNETkZSbWhybXAzTkdqc2Y5aGRySGMxeGQ0SnpoUlhzeEJ1R2tZRGxpUQ?oc=5</t>
+  </si>
+  <si>
+    <t>La Policía Nacional Civil de Guatemala refuerza seguridad en centros educativos con el inicio del ciclo escolar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7gFBVV95cUxQejlLSHlpUW5ZM2lEUm1BcjFYQWN4OTVoWnNyRUNlVGltVjYwODdSQUU2Q05TUHNFakxyTnFYSUJBc0t0OGdORjZNMXBZQ1U3QTJydzJubUc0LVNqdm9zR1Q4X01TQ3NINkdwVlpZUkdORlg2bjZrdkRPZlFGa3JvQURFWmdtYzktS24zNmF0d1dRd0RYc2FaUHpQTldnVE0yV2pBcDFNa1dpc1FNQ3VfTzcyUlhrS2VYaWVxM3BDcmxQbEZkejJ1YjB6UGVFM2g4YjRIOVZGSTl5cWU5eWxOcldPNG9sR2pqcWkzMWJB0gGIAkFVX3lxTFBJbm9Ydl94VS05cWJnOFcwWHhLYTBTMGhING4zN3dwYmdIMWhXQkF6XzdzVzRGYzN5c1EwVWpxYTdhMklVVW1xQmRIcmZVM2hWOTFxRXJBQkFGT0pKaElOMi0taGwwME9lc0N3MlZ3dV9aT2paRkdJSEw0ZkZQREpZVEpmblJnODVsdDdXUG11bE5LeTd2dFZzMlI0UFRnaTdEbk1UeXhYV0dFdXowY2FVbmpfV0pteGNKbHVaRkZ6YkFZVFE2eXYyWVZpbnFNajh2NlFNOFhySWI4YzJVc0J1MTRXQWRPb3dPVkJhNTVFemFKbzVXUDRyUUljR1lkQWZJTVB6X3JkTw?oc=5</t>
+  </si>
+  <si>
+    <t>Bajo fuerte esquema de seguridad, fue extraditado a Estados Unidos ‘Pipe Tuluá’, líder de uno de los grupos de narcos más fuertes de Colombia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxNTEZ2aVRfYzNMeTVQWFpaVkRvTlItYzVULWFnOVM2UTMwWER3QmY4ZWtRem9aaThpMjMzcVhEeTY2ZmttVjNmWEJtRnhUWVNSN2VQd2l5R2xRVW1FSGY5UFVLT2xCVEw5Y3FFV0F4NVBOT3hMY2JxcExtT2JKQTR5QUVxeGhwZXIwYTZlZDk3cmlzNHNrNTRrZjBXYjVQdXp4MXVKYWVQcWtyMEtOVnRQWGZhM0VHUnE4dkZUV0ZoS3ZkSHdtT05JNkdHc3ZYUmY3ZGNCX3RrUjdjRWNtOUx5TWQzeHplbXhxMzN6VtIBhwJBVV95cUxOZ1JQZkVaRkg3N0RpNnkzRjlqZFlZd2VvQV9HdnAxZGV6V19FUWZURlJvajJwSmVrTGJjV0g5UnhxRnNoZnBVR2VieC1XZTlGZy1iNnc1amlYdHA2UUw0THhjWTF2bWJKaXZOMFRnZlA3WUR1VEhDdkdKM2dqcEQ5M2tla1ZiQmRaTjM2T0JUbloyZmhUWnVMYTREUk1FcGE2dHpFNnJWWGZ5SnZxYUt1QkVOREtQd0ptS1RwWFFGb3JxUUZqTU8wRGhKTG5semFjbklLSm9ubjhDazZSSkltOUpWaFJmZ3FwNC1rdk93dmx5aHMxeHNOOWhZWjQ4WmxFdWtZX2stZw?oc=5</t>
+  </si>
+  <si>
+    <t>Mal enero para los trabajadores: la Seguridad Social pierde 270.782 afiliados y el paro suma 30.392 desempleados</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5wFBVV95cUxPcUwxd0dPbVYyS2lrd1pwUHh6bVZvMkFlam12ZWZJc1Z1R1M3cDJ1YmZyZ0RtQ0RzTkpHbVNrRUxwUGh6bnJaWmY5dVl0RFJXdFdEWnJNSVpzbGZyU0h3OEY3SmJXckJzcXhScUMwZHNkWUFFQjZheklXWG9YOEhoUDJMYm5jZWpUaXJLa1JIZ19MMFRMOVdCTzhtLUtjX3pVa18xODg4eWJadlJlOEJnMW9wOFBVNmkxMTlUbG1RdmxyNGE4QW5sSEwtWlVnM3FxM2NmME9EZGE4dVFVWU00eWVSd1E3T3fSAYICQVVfeXFMT3lIaDJYdEJyZWYyYXFXMDlOXzExWnRDSGNZQ2tCYlFyTVhzYzJUaThOZUVjd3JIak1ZT3ZtTlJfeUl2emg1M0xLc2lfcDlMeE9WamtzQVptUVQxMklCWDZJMVJmQmhWX09YOEtpSEQ4OHZ1cFRpd3BZYlA1TU5GaHRfVGJxR1NBamZWQlYwTVdUaEo5eW5vbUszdmVycjRhRVprbnBab0xWTHNhSTc0VHNXcHdVdS14bzBya0U1WHJnX1R6MUhQMDBmMGlwR2ZyX2pJUkV4UUpTRWZuSmVUMHBjb0F1czJSMGhXVENGYl90amhxTW5SblhZdFJFRF9faW9R?oc=5</t>
+  </si>
+  <si>
+    <t>Australia refuerza las medidas de seguridad ante la visita del presidente de Israel</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxPR1I5VlgteE83dHVldEo4R3l6UlRZTVpfNWNSaWZ1NGMyQjZ5ZW9VSjF2TVNUUXNVUmFybmlVTXg1Z1dDeEw4TmhlVTIzN1N4TGp6bFRYY1JFdE91OG9Lck1kakk3TkRfVldWMUl4ZTZyTi1yWndoYVVlVmJVMGZQTGsxYWdxZ3hINllBR2FaMWJmWmJZNTQzZ1ZzNWI0dDJSU056MWV0TUI3MmttdWJUX3hJVmVtaWFoV0R1SGJoU1E1aVIwWEp5M2ZhVDB4OE45MkHSAewBQVVfeXFMTVl0QTZYbnpNdjR5MU9BbGcxTHE5Nzg3ZURMX3hIdGlwdWdDdDkwWkJYbjZvUHFxQUoyVDBpRHdWMGpaRjlyQjNPQ1BxRHdPc1NyUk9tYmlnRHo5SGcyYkV0MnJCMTNKTXhOaUQ5SWRpeDd5QkV5Umw0dTVZUDhxbGV3eFBzQmZOb0E1SjU3aTI3cnFuVGdTRzNUZC1vT3ctNWw4bE01bDRxZVV3VUIzbC1YSWZSMGszMWtmcWZfR1Q5cmw4Y2tWMU9Wc01GRnBYT2hndzJyV2h4TGJzZGFHYzYyMHNrNGNpWFhrbFU?oc=5</t>
+  </si>
+  <si>
+    <t>Seguridad en Irapuato: Balean a hombre motociclista en el Centro Histórico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxPZnphR18wUV9yR090Q3dPRFVpeWNyckdhR05XaDJweWtMeGw2Ynh3aXYwdlU1UmVmX0x2aUNoOE9heUVURGNRTzAycUNtVWZQTGkzbG9pUGNYR0tMWlZTMWNhbDBoNW80cE9tS3ROQno0ZG84MUFTeW84UWt2cjYtZVdzbnNsN1BoMlpmcWNtWmNfMW1tQ1VxWElXQmlHeEZuLUdlYzkyMUY0SGpuOFJRWmtRQXFqN2dtaFAzZy13WTY0aVRocnc?oc=5</t>
+  </si>
+  <si>
+    <t>¿Policías solo con secundaria? Diputada alerta riesgos y pide mayor preparación para quienes cuidan tu seguridad en Aguascalientes</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAJBVV95cUxQa3E0cG5qekhzMy1GR1FpMjRGRWdBMjYtWldrc3oxeDgydjlIQTh4cW81ZV9KNDNBRFp6djVQeWVZN0puSFpYMUQySkRjZ1VGTmtFVVF3dmRaa0pfaUlUdEdKNi1fVWVFN0FnWjNXaWtOVFR0d3hkWlJrTHZOTGNfeks4R3Z4T3M4a2czOU1VQV9PcGRDNUoyVnFLbnlFQWpkWV9MMVdHYkI1QzNabTA1UTZpZGs5bTJST2RLMUVTNjcycHV3SUt4eXNieHVWcTZ4elRRYTRTS0hQY2hfTmQ4OTJicVpfcFJZRGY1RWM4OTYxODg0RHNBNHZhVk5PMkFYZWl0WjEwb1A?oc=5</t>
+  </si>
+  <si>
+    <t>Tras denuncias ciudadanas, refuerzan recorridos de seguridad en Pantelhó</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxPM0lIdTBRN25feG1PbzZYZnhjMnQ4NURNY2JtWVNleG1KYjNxSDd6SWZhdWJKZXF4X1VpUHFFTUw3S3kyd2ZTWm5sRFRHemgzbUwzV1dWSXBGa0JIUU9SbmpxWVUySWpyYnFqemlmeWUzc2h5c0VJSU0zdU8temZoV09Pdlp1MktBTDNzemJsREhiTGgtdTVUcjdTeFJqMlpHUTR4cmloa1lkbHhoZndqc3U4RDdZejU0SnRBOGhZTUVBdw?oc=5</t>
+  </si>
+  <si>
+    <t>Fortalecer seguridad en campos de fútbol llanero debe discutirse entre autoridades y líderes de ligas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxOOVdxTjVRckQ5aF9oaThubTgxZ1hNa3RDNEVtbzVmMmNhSTE3VTNOeDZLTnlzYkRzWFkzNWpKUlU0TmNnc3lHX212RTRZczVKRWpLcmw4WE1nSDcyNUZRLTJOaHJrZ0l5MXg5RkVkUldVeWZkeDg0NTQ0cFNlVEZoaWNCM2FRU0E1VVFMNnZuTjRlWUFaV0F5cGMtWklSekxFeDJvZkVfQmI4d1h2cEdxczBVWUVtaUdKZmZKM3JuZlZkUlU?oc=5</t>
+  </si>
+  <si>
+    <t>Penales de Veracruz tienen sobrepoblación del 25%, Secretaría de Seguridad realizará Registro Nacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxNcjNTeGFNZ0Y5NlFUeVRqNUo3bXU5Y19JMFh0WmMzbTlfdkg2STdEVEZfbDdBU0xlRUk0Y01jRmJiS2hDR010VWpVeXVFYndEUHpCd19jN2tsX1lJcE5qY3FJLUxtTWNRYXVUcXJBVjZYWVNHRG1VY2I5QXVKYXFYbTNqZXlzeVVZdXdTek1Vejl3MmZzSDNveXEydXhaSXVCem5VU0VWbzczT0dfaHlKTkpRWUlxclFScHIxMjNwXzhmVXZlc0pkek9aaG1rRVJUMTFHTlBSeTF4amc?oc=5</t>
+  </si>
+  <si>
+    <t>Locatarios de Tulancingo exigen más seguridad ante robos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxNS01qdGNaN3lzT0hJN2dFQVdzem9rSEFNV2JRbE1QLU1NS1lSTVdlNHJpbC1aY2RsSUNuVU9JalpjUndBNG9Wb0NRRWlQRU9JVEhYSk43UFR5bVI5cnBaSy1GQ0FqNG5uak40YzJ4YlA1THdDN3QyUUxBanBKWklBTG5OTWduR3IwS2hzQ05ncGtvVlp5TGJZcHhnZ0dBTUtBSkpEQlhuemdMM2xo?oc=5</t>
+  </si>
+  <si>
+    <t>Kristi Noem anuncia que todos los agentes de Seguridad Interior en Minneapolis usarán cámaras corporales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8AFBVV95cUxQalhaYkszc3FCUXBSdG1pVm05Tk41Wi1fT0cta2c1QnMzZ21YaGRCM1BpaldoOVFsM1Fia1p1SjNtdzZNcGhWTHpnZmJMV0wzTlI3QzY4OXI1REVqbVpwdDhsRndjZXJmYXZnSG85QkF2Z2xvc1FoMk9sRjBfRnVuVWdXbTYyNGlXcUhoaVVoZnNuSmI1aWJsbWVqenNqZUpSRDM5TzVhcDNLbmJGVExGWjQtWHdNZjJnd2RDVnVHOUIwaG1oSFJqOG8zU21zYWJtamhySUNuNEtaWkJJbDVoZDAwcGpaUk9UMDdlRzVTWjLSAfABQVVfeXFMUGpYWmJLM3NxQlFwUnRtaVZtOU5ONVotX09HLWtnNUJzM2dtWGhkQjNQaWpXaDlRbDNRYmtadUozbXc2TXBoVkx6Z2ZiTFdMM05SN0M2ODlyNURFam1acHQ4bEZ3Y2VyZmF2Z0hvOUJBdmdsb3NRaDJPbEYwX0Z1blVnV202MjRpV3FIaGlVaGZzbkpiNWlibG1lanpzamVKUkQzOU81YXAzS25iRlRMRlo0LVh3TWYyZ3dkQ1Z1RzlCMGhtaEhSajhvM1Ntc2FibWpocklDbjRLWlpCSWw1aGQwMHBqWlJPVDA3ZUc1U1oy?oc=5</t>
+  </si>
+  <si>
+    <t>Mundial de Futbol en México: el reto de la ciberseguridad y la protección de datos personales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxQZ0tQWGRyTWlsMThET1hrdFlTeVBIMGZXaGpUc19nLUNVYTdCOTAzR3ZzakNua25BM0VkY2xBanNUMHJvU3hEaE9ldWVpZHdFZXRtaUpSWUVhNVA4ZWtaY1dvUUtHNGQzd2cxMjRDQ1lIMGx2aUpRdGk1TlhhcWN5cTluc2g1ak15NTgtS2Jtd200WERDOHJPMGVNcy1YUFVEMURzczB5enE1OFk1UGpXcHFwb3pSMFVyV3lYNGpyVVF2Z0dEX1VKZm1aR1Y2MjQzdHB3V2FDdkhWczNVQ1FxMNIB4AFBVV95cUxQZ0tQWGRyTWlsMThET1hrdFlTeVBIMGZXaGpUc19nLUNVYTdCOTAzR3ZzakNua25BM0VkY2xBanNUMHJvU3hEaE9ldWVpZHdFZXRtaUpSWUVhNVA4ZWtaY1dvUUtHNGQzd2cxMjRDQ1lIMGx2aUpRdGk1TlhhcWN5cTluc2g1ak15NTgtS2Jtd200WERDOHJPMGVNcy1YUFVEMURzczB5enE1OFk1UGpXcHFwb3pSMFVyV3lYNGpyVVF2Z0dEX1VKZm1aR1Y2MjQzdHB3V2FDdkhWczNVQ1FxMA?oc=5</t>
+  </si>
+  <si>
+    <t>Capacitación, promoción y seguridad, así se prepara hoteleros de Hidalgo rumbo al Mundial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxPVmV2SnhiWTJFS28tajJ6Z0l4QjVfYlpnbGtYZmY3RHl3ZE1MeldiNW5UaVMxcE5Kd0QzR1lHZGVkME1VSkxySnp0NXpweEtjeUVQSmktQVlKMXRfdjktYkltTVZsdXp5SG9nWUkwOFgwZ0dMT3FPTUhUTHUzT0I4Tk9tbWF1eHpFT3Y3dnd0c0phT2ZGaTNjanAtZm9RN29DQ05JVU54TmNpWi0ycXJsNW5ISWpsS1NrZnJFRUoyVlR4Umk5bjNXS3l3YU95ZWF2SW5CdzFpNDU3Ql9wanfSAd4BQVVfeXFMT1Zldkp4YlkyRUtvLWoyemdJeEI1X2JaZ2xrWGZmN0R5d2RNTHpXYjVuVGlTMXBOSndEM0dZR2RlZDBNVUpMckp6dDV6cHhLY3lFUEppLUFZSjF0X3Y5LWJJbU1WbHV6eUhvZ1lJMDhYMGdHTE9xT01IVEx1M09COE5PbW1hdXh6RU92N3Z3dHNKYU9mRmkzY2pwLWZvUTdvQ0NOSVVOeE5jaVotMnFybDVuSElqbEtTa2ZyRUVKMlZUeFJpOW4zV0t5d2FPeWVhdkluQncxaTQ1N0JfcGp3?oc=5</t>
+  </si>
+  <si>
+    <t>Tulancingo se quedó sin clínica de especialidades por baja seguridad social, revela alcaldesa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5wFBVV95cUxNMmQySHQ0RmF5dm1yTlFxMWRMajJVYlNtN1BBVjBxVk50SXJFUHpqVUFseF85LUF3N2E4ZlJVZTJrSjRGa3lDdF9zelhwaGR1MXpQR2lDQU9KQTRFTEx1eElVUVFiUnpkZ25FYmdGeHdTaXc1SXM1Qk1EcXdYTHJ2RnNPNnNjdkx4NWc5dnpSbU96R0hua1dnc2ZXWUc2ck1zQVhJVDd5a1ZReFJVUG9TeG1rLXMzdVdEWkkyQTY1LUlnTWxhbGdabzhFQXd1NGRPaHRzcEl4aTJyNi14UnFNQXZVMmFuZkXSAecBQVVfeXFMTTJkMkh0NEZheXZtck5RcTFkTGoyVWJTbTdQQVYwcVZOdElyRVB6alVBbHhfOS1BdzdhOGZSVWUya0o0Rmt5Q3Rfc3pYcGhkdTF6UEdpQ0FPSkE0RUxMdXhJVVFRYlJ6ZGduRWJnRnh3U2l3NUlzNUJNRHF3WExydkZzTzZzY3ZMeDVnOXZ6Um1PekdIbmtXZ3NmV1lHNnJNc0FYSVQ3eWtWUXhSVVBvU3htay1zM3VXRFpJMkE2NS1JZ01sYWxnWm84RUF3dTRkT2h0c3BJeGkycjYteFJxTUF2VTJhbmZF?oc=5</t>
+  </si>
+  <si>
+    <t>Puebla: alerta por inseguridad en ciclopista de San Andrés Cholula</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxNaWFtUzJmaUEtR1F2R19iNXdGS0pFRTBabTZmSU9zMzlVWERNR3BFQ1F3RGkycHhhRUM4aDZablhaZUVpQWJBakp0NUNKbkhaeE9vV1p3MFFXV25SMVdKc0tfaXpTNDVvMHlCNkZnNWstZ2cySlk5UHdtS1VRZmxPRlUwVzFfQWdhZVBQYXhoUFl3UER3Wnd1dTZVZk83Q053OE9HT3ZxanBzU3k4VmNIcnE4TkdRclp6d3fSAboBQVVfeXFMTWlhbVMyZmlBLUdRdkdfYjV3RktKRUUwWm02ZklPczM5VVhETUdwRUNRd0RpMnB4YUVDOGg2Wm5YWmVFaUFiQWpKdDVDSm5IWnhPb1dadzBRV1duUjFXSnNLX2l6UzQ1bzB5QjZGZzVrLWdnMkpZOVB3bUtVUWZsT0ZVMFcxX0FnYWVQUGF4aFBZd1BEd1p3dXU2VWZPN0NOdzhPR092cWpwc1N5OFZjSHJxOE5HUXJaend3?oc=5</t>
+  </si>
+  <si>
+    <t>Peludos alivian salud emocional en el AIFA; aportan seguridad y calma en la terminal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxQalZYYnYzNktIc1RVZkcxRi00QTk5UjZLcUhlUV80VHdNYmhXZ2tid04wVkJjNE9hQ0xuWGgxWG1qQ0NmcnlJQjgxb0VORExORHRuY3R3OE9BTFZKWEE4eWRaZUQ0U1V3aTJFOVU1MFRtZVhTcjVsQVQzMVUxNExORWNyTi1wOTlQUWFCemNGekFyU2FQU3JZVGNqQmt2YWhhb2Z2U3FkdHhycknSAbABQVVfeXFMUHZ0M3hVTVhXV0RNSHRDNkowMlFpYkpDYzMwa2RVTDRhYnNsWm9fSENRQlNpOHhRMTAwWDE2eGdWeVZQY0xDeGx3ajc2Q1BaQnVMWTlTQm5Nb3JUT1BmZjlHTTdya2J6R3hVclBneXltS1FZemtVcFN0NG8yOGpnZkk4eVdDRHlNWlZqQTQzTGllcHdYQmZWMHU4TFdmMjN2NXU4ZHlTc3R0Nk5HcGhuQkE?oc=5</t>
+  </si>
+  <si>
+    <t>El impuesto invisible de la inseguridad en la economía formal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxPeUdwLUlzaUlOWTlFdmVLMlQ0NGo3LWs3aUo1blZhSHZQXzgtc1pMb2p6dG5CWEVsdDd3S3dsaEdDNEkyR1hTU2VSZXF1YUt2OWRKalVDQkNna1lraFkwYl8yTzZJSXNCUG9GY3VLYi1wZlpGeGVQNDVqX2s5VjB1N2JwYTZnMGN5b243LdIBkgFBVV95cUxPXzZ0djNSMDRJYTBFdkROY0ZWdzVQaHpoVlRmdDlIdUxBTWVpcTBFSHVzM1haY1BZeTZ2YU5jM2QzUW1WaG5EQkNxelFDTkl0N3hIVmtLQmd6WENrWXdvVDRtYi0wU0l4d2ZlalJtRUVrT2ZDS2IwbXFxSEU2aGxES1Y5THp0b0QwN3ZJUXE3OTl4QQ?oc=5</t>
+  </si>
+  <si>
+    <t>Guardia de seguridad asalta la tienda que le toca vigilar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxPRkRwa0thcFhsalVaNDloM2plUEtqN3pSLWExRzc4RTRHWGk2b0N0R2U1RTJacjAzMEdmTjZzeXAxTlhqTEZGZ3BLZjZlTXFlNzh2OVg1N0ZfVk4xSXpDUE5ORXlQU3ZkRWg0MlhNaHIzR2FPTmZLZXJjRDNCUjVMMUZncW1Ha25aY1Z0bm1XSFJocjDSAZgBQVVfeXFMT1BXY2hrY1FRb2FVQl8zU0NkU1FaNDJOTkVyNHRGcklZUW5jSmYtd29jVDJLbDA1SXM2NTBybWdNd0h0QTNPUTdHTWUybXpnbVhPM01VUE5iZlJueF9YMFdZV09yVm4tQW9RanQtMVRkS01uTkJUZUNEdGo4RE5aZEhJNHQxclBaRGpEbmgybktFdVgxYk1HLVo?oc=5</t>
+  </si>
+  <si>
+    <t>Regreso a clases con nueva seguridad en el CCH Sur: Todo lo que cambió tras la tragedia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxORGZhVS1wRWRoQ216Q1gtU0h2OWo1bjBNaFJ2V1FkY3JQUlB2ZTM1aUJqWE9IVFM4NlBFdVA4VWNXZmpjNE44YUI3MGlVTXpGZ182c1g2X25rNTBKbVVURlRRMzRqMllOQmZMS2pFY2VKdVJpVXNZVlpPcEdUNjEzSHdGQUUySFE4bU1WbkFJZjZCcm5HYnF4YUNCaVEwenNJU3JtSVg3SU9yNjNSRzlGYWtleTZsSmRlcm1LdURYSkJfNndBVHNiWlN4VTh5czItd1VSYy1VR3PSAdgBQVVfeXFMTkRmYVUtcEVkaENtekNYLVNIdjlqNW4wTWhSdldRZGNyUFJQdmUzNWlCalhPSFRTODZQRXVQOFVjV2ZqYzROOGFCNzBpVU16RmdfNnNYNl9uazUwSm1VVEZUUTM0ajJZTkJmTEtqRWNlSnVSaVVzWVZaT3BHVDYxM0h3RkFFMkhROG1NVm5BSWY2QnJuR2JxeGFDQmlRMHpzSVNybUlYN0lPcjYzUkc5RmFrZXk2bEpkZXJtS3VEWEpCXzZ3QVRzYlpTeFU4eXMyLXdVUmMtVUdz?oc=5</t>
+  </si>
+  <si>
+    <t>Caen tres por robo en supermercado del Centro de Monterrey; uno era guardia de seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxQX3dLaUZFNFNJTTBpVzNPamhmRWJYYjRKajQ0V2d4Y3pqZENiXzFiRXRyVmd6UnUyQzNXZ1dTb1NROUFFS2lCdkk3dzJscUh3UUhPcmlCNVJxYzJnRDVBZEFGa2M2MkxFX2pFTGJJU1djRVdFSXhuSEJWdEZweGZ1MGloMTdJMkpad3cyUTZSbmVUemF5WFhmdkFIbjFVcFBjREJOUF9UdFUtdFdfX1draklDcjNfNEs5dDFkMk91NlRDcHJHRG5PaUhQZEwxalRQYVZsZ0c1WFN5RTjSAdsBQVVfeXFMUF93S2lGRTRTSU0waVczT2poZkViWGI0Smo0NFdneGN6amRDYl8xYkV0clZnelJ1MkMzV2dXU29TUTlBRUtpQnZJN3cybHFId1FIT3JpQjVScWMyZ0Q1QWRBRmtjNjJMRV9qRUxiSVNXY0VXRUl4bkhCVnRGcHhmdTBpaDE3STJKWnd3MlE2Um5lVHpheVhYZnZBSG4xVXBQY0RCTlBfVHRVLXRXX19Xa2pJQ3IzXzRLOXQxZDJPdTZUQ3ByR0RuT2lIUGRMMWpUUGFWbGdHNVhTeUU4?oc=5</t>
+  </si>
+  <si>
+    <t>Revisa Cuautitlán Izcalli mecanismos de seguridad en plazas comerciales y tiendas departamentales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxPYzJYRm45QkZCMFU1UU8tQnBiYTl0UVhSeG9SajRiV25mXzltdXpsSFVIZnc5OG96THlqdlk3R2dLWHlXZjF2VkpiZkpyZy1iVE5KamRyWkJYUU9IaUxfTm5NNWhmRW0wSHAyTUFWTTlkNENNWnFCdTN2bnRaRHNCX0JjaXowdFZTWkRGTGd0dHhSc2RsQXkyU0hEclJKSjFCYU5nMVRQNms2NU92UTZ2M3E4QkRqa2JlY1dSeUotNW5JdFlJelJUX285OHJxY3dBR3VzUk5rSHpuTmF1bE5uOXNMWGJIUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Empresarios piden ampliar plazo para generar Dictamen de Seguridad Estructural, tras sismo de enero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxNcUgtZzNGd0czM1gtS21ybnlNaDZuYVJXUHRGblJCREtWMkJuVzZQaWp2ZXBMRGpKOHJSNUlJTnZWVDhQR2E0a0dIUDAxU3FQNk9jaENTcHowWXZZRXJCeVBZV0JPOC1TaGl6QUtBbEdKdXdxWkpmTVI4OFZjd3lBZ2RkV0FNdTgtNkJyTnZxeHNycmJNM3lkTVlMYnA1OVdPTHJSZHF5NGFYNEdFQkduU0IxU0huSEZwQTZsakJFN295aTUzYXRHaW9zaEc?oc=5</t>
+  </si>
+  <si>
+    <t>La UNAM planea unificar protocolos de seguridad en sus 14 planteles de bachillerato</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxNVU5nM3RZemh3Y0FINUgzbkFkUmxxd3RseUdIQVNBdVVIUGJJSkdNZS1wVS1YeGM2TFJhX2ZZaW9US1VfcHFJelVlbGx3dEU3aE1ScEhSWUpZZk95UEkyMk1zc1lhZ0drVXhRWW5Lem9NUF9yRXBxT09CSlY3U2MyRlNLTVoyUjBERm4tSEM3SGxKWlNiVU5sWVhfZDktVjNiQkdUY1RSaXJwVGZHQkllNFA4eV9sRVN0dUFBbjN3SlVFQlpHZHFMX3lPcU12ci0zQXhsaA?oc=5</t>
+  </si>
+  <si>
+    <t>Departamento de Seguridad de EU ordena el cierre de instalaciones de ICE en Texas por brote de sarampión</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxOaU80a3Rwc1JxenRKN1dTb0ItNU96NWdBMU0tMFFKQ3U1UFVHOG5mM2RtVk9TYnRtU2dvTWNOS3FKdXZfTDZKdGt5WTAzUW9yejgwWHloRmR3TE5WXzl5ZnRHc0hvelVUVXB5ekNmLUowQ0hXclJfUXNmRmtIalBKUG5FMTNSelBuX3ZWSl9wNVNoY25XTHNfWE16S2FZdloyQldqYkZiQ0JmSDBWTFJjN09xN3E4LV94Um5wTnJ2dFpwNVBMdXVaRWdYcUxVbnpJU1JpVHN2eDhON29vMzZUdl92RUE0bVRXdFNBSEV5Z3A1UQ?oc=5</t>
+  </si>
+  <si>
+    <t>Israel reabre el cruce de Rafah bajo estrictas medidas de seguridad y control militar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxOZl9TWno2M2k4LUMxM2tRT3ZYVDBGSGkyVTdia1l0U19zOG4yajNCa2dMYkVWRVgtVThxYnZ2ZUI2cnVISE9faExqVHR3OWladzJmbUoxcDdmTUJ1VDVCdGJjQjkwZmxJS1RvZXNHVnBHWFVCNk42R09HVTJ6M29OaDdOSDVVY1NOcXdDMnF1bUt1U0k0V19SSXNjeUtuOF92b1JvRHJYVmphcDhXYnl0N0ppNW1OdU5KazVzZG8tcTJycVJIQVlMRGJXZ2ZCWmJ6X1pn?oc=5</t>
+  </si>
+  <si>
+    <t>Condenan a 40 años de prisión a ex comisionado de seguridad de Nicolás Romero por homicidio</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxNUkRQNUU4V0ZKalhfZjZIUEFaTDRzcjJ6RWstd21uVDNfZFAzRm1oeTFXcDB1VDk5MjV1emlFbTlLX2dEMUVUWVB3dlpiLVFWck11NGlqRWdLQkN6T0J2Q2VUV0xOeXY2R2FIVUJ1TW1nX013U21Lak8zb1dzY0FMdG9iMURPUll4SzVxdm8xMUhVWjZRWW9QLXRiaUp6c3FySWhaSzBuMDU0Mjc1em53anFsNTNPQ0ZqazlkWjFXVWR2VjNqdkNvTDVnWQ?oc=5</t>
+  </si>
+  <si>
+    <t>Agentes de Seguridad Nacional en Minneapolis portarán cámaras corporales, dice Noem</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxOQlZpZFBPc1JxOS1CMGRBZUMwcEVyQnh4TVZFREVSRFBHNkZ3ajJtTU5wS2phRHZwc0xEWlpCX1YwSjFjem41THJ0N1h2ZEdHbFJwRnUyWVdfR1ZGMXFHclZtS0V1dzUzUW5OWW82cTFWbThZVVFjejB6QU02T2ZSaGtINC1CQTNUVFFZSVU0UmFaV3MyOXhTXw?oc=5</t>
+  </si>
+  <si>
+    <t>Residente e invitados dan brutal golpiza a guardias de seguridad en Angelópolis, Puebla</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxQNGtQcGpqLWI0ZURRZDJPUzVZTWQwNmI0NUZ5MWVvTTBUYVZHYW81S0hVRFdXaUxVZUZDQTRzazIxcVhBMUg3Z1UwYXEtbUUxUnFpdlFrb1dfZUw4cjJqNUF5RmRWa0xPUHR4ZGh1RFRCV29feHFCcEw1SE9HUEN0YVRYaUZTRDFBLVd2VXF30gGOAUFVX3lxTE1CcnhRbnNDekt4TU5RQkNjZ2RoWjN1UENndFdWb0JJaloyWnFHNHFkQzJMTkhBMnZmR0hLM0pfaWJsU3JoN0dqUk1DRmVmZnpLVUc4b1RqeTJKOXlubkc1bzAtY0FPdUVQN1o5eW11aTRyZGowM0xQYUJOeUl6NmlOR01QT3piWUltYWUzc0E?oc=5</t>
+  </si>
+  <si>
+    <t>Guía del Tren Interurbano: Estaciones, conexiones y seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxNQV9YTlctVEs3dllUamFVV0dOV1huRUdhcGRwX3Njc0NRT2F3Wm8xRV9kcjFwOE9tZ2wzTjdET0d2N2ZnQnFPakEyaUZmZ29BZ1lyTnA5QlFpVE1CTC1xekpBMnpGTDUyT2tyX0JTaGFEc2V2OG0tdTR0Szc4ZTVQNzE1RFJWY3YxdmhWbXlXbUV6MTZpMlJUWWxyYlRaZktFdVp1aWgtWGhOTjJXWUHSAa4BQVVfeXFMUElmM1JnR0xkdW5KNTMwaUdFaEh5ZUNuVno0Rzlzc2lwTlVBWm9DOTI3bFQ2dUVvVkppcnA1d2k3cTVkTmRWSWdXQ0tIaHZVaVhBcTd6Nm9oM0lVUDBkaHU2T1R1WTB1MjRabTFjN1Yyd3dyVTNoa05heXFUYTE3MDJiNGRlVlZ4amRxWnhjNHYxMWoydEM4THo4Z25DWnFGdW9oUVdIc2JwTG1TSUtR?oc=5</t>
+  </si>
+  <si>
+    <t>Seguridad: Fortalecen búsqueda de los mineros secuestrados en Concordia, Sinaloa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxOSlhmYzhna192ZlJ4cmFjcWJWdzN0Z1FPSkR1Ym9tX0QyNlExUTBITmRrdm13T3FiblFGNUJ1RjhOeWVHOTlvZ1RfTWd1Q3U0RVZWaEVXMlJVNzN3dnBmT1dFQjdoS1JVazV1ajlVdUZ2RmpfU1dSOXVaNjdjYW16TTJBellpZDdfZ1lYNG1wekljR3Z6ZDh2SGRVRzN2TVdBMWhOZzRiUVhlT2FVdE02ZUtrTGpId9IBuwFBVV95cUxNVnIzcG5PdzZsWW1FSDdYaXByTWdLdm9xM3Ywa0xPLW9uQi1TOFA3MGNpMlJkQXV5OG00QUZqQkJjZHdOcUVTWElCR0dCaGo0bDRyM1VfUXdrV0NkUXN6WGZuYU9hcDFjdFkxVE5rTHM5cVlXRE95ZnVfbTV6NTVjOHNoVkcteGtrNjllWGxqQWNjUGVrNklJaDNZWmViSDFIVVh4ZllFVGMzdlp2TG9OVjhlaUQ4WVUzNjg0?oc=5</t>
+  </si>
+  <si>
+    <t>Presidenta Claudia Sheinbaum inaugura tramo Santa Fe-Observatorio del Tren “El Insurgente”; se conecta Toluca con la Ciudad de México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_AFBVV95cUxPN2R0Q2dhVHJLQTJFdXhJT1I0Z0JZRXJIak42RUpTaURzeDNWNFAtU1BrSWd1b2dfcUlSaFY5eGNuUEx1akZBblkzbjIxa1ZGOWxaZkx3OFhXRElEZWtBbGl6RWl1WEZGczk2MmRsaW9fQVdydFVHQlFkTlJOYXBuWXRfdlctMHpTaGxmRVp1d2I5Z2xTc2g2cm9uWGdvTmtoQmFrbllJQ3NCTmNpcHV0M3BrUi1SWXhoMUFXdTM3eVc4cEU3WFJsdDljbUd3U1lxeXVxWTBYbEtJdVJvclhsVEJ5M0h5M0N1RTRHekF1OVpwS05KZDItVVQwMjk?oc=5</t>
+  </si>
+  <si>
+    <t>Gob MX</t>
+  </si>
+  <si>
+    <t>¿Cómo llegan Petro y Trump a la reunión en la Casa Blanca? Del choque al diálogo: un encuentro clave para Colombia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOZXM0c2h2aGR6RW5DSWV1dlVjdG9nMzlpR0MydnJDV2dWX2duNjJTN1ZteUFmS29KZFlFMVM1ZVY3aFdRNGM5Z25DRllVSHlMZ21wanlMUi1obmtkRlEtVVpmUnFZandXdmQ5UW43Nm94U1ZwMGFNMUs0TEUxc3JxRkx0NGlzTnR1ZzNES1pKc19sZllHUG14amZ3aXZwQ3ZHdDhn?oc=5</t>
+  </si>
+  <si>
+    <t>Trump advierte que México dejará de enviar petróleo a Cuba pese a que Sheinbaum quiere ayudar a la isla</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6AFBVV95cUxQNzIzT0RyeFIybVZIRE1YQmZTOGN0aDBiZU1Db1dqVVljWThab3VWWk1DT19ZbFNtLUViU1dxTnhQM2wzQjR5dDUzaEZELWVmbXl4bFNWaWxKcnV0a01vakZpSFBfSVRNenBLUzRFSjJLMEpDYkR6Qi0zRS1FWmJWRWVOYmJ6NDFjeGFkVlFvZWtJcmkwTGlqN25BWlJ5b1ZMbVJGTEczMTZVeFVuV1RVNlNlTVhpTnBLZ2ZUa29MLUxzeWtON09FdlBoZ0Z6Vll0dnJxY3VPUU5CcDVlaW12cEFBdy1VMFE2?oc=5</t>
+  </si>
+  <si>
+    <t>La reunión entre Gustavo Petro y Donald Trump, en vivo | Trump dice que Petro “se volvió muy amable” tras la operación en Venezuela</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxQMWUwdHlPSllOREs0U0g5ZTdwRnV1ZkQtODVDekJHV05URHJBLUwxOWRzRU9NdG85LWs1S2F4LWhUeVdTcjNTbzdsTlNkblJYSDMxVU1teWN0NkphYlBfSmk4TDFXelhCSk41aFlYZGxhNDhVM25kTTg5MGpRNUVMMHY1VHpIOUIxQ1lBaUZkclIzUzRYRVVmd1l0c2N5QTBPQ2tUR0EtMkPSAbwBQVVfeXFMT1BhYkEyWUFGRWs1bDBkczg2dmlXdjNacWE5Tm1aMU1vcFA3MkgzTXhZbFJILWkzRXAtSnZtX2FGWXBXNmVhb2lzc3ktS0JlRnQxUm9ESnpySmxyQXpaZ0lzSDM3T3lBMUVPMWp6OHV5VUlqb0tHbFhUYVdYRzUyWlRfbUxhUmR3T3h5WVVUTFdrRW80ODhRNlFUbkRmYXBBNlNnLS1PVGZLeWpvUl9vZkRLS0ZkYmp0LVdjNlM?oc=5</t>
+  </si>
+  <si>
+    <t>Así es como Trump aparece en los archivos Epstein</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxOMUQ4eklYWnpPc0FkRklxQlpIQVI2UURKY2kwU2ZVMVgtSV9UZzVTX3FwaXBhRTNzSV9PbHhzcTRKaUdzZTIwWWl3a0VYMXgtOEF2TkxEMjBoT3dkbE1vaEp1S2xVODlicFQxRWdvVk5ESUE4WURLX1hSUVNNVnZDQ1dEVXIxNmxnZVI2alAyTGE4QQ?oc=5</t>
+  </si>
+  <si>
+    <t>Estrellas de la música protestan contra la política migratoria de Trump en los Grammy</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6AFBVV95cUxNRTkxZ2E0NW9qVGhiNEU5RE5XU216NWlVNDgySjN4eVlGNTg2Zk9RWks2eHl4UFY3RjBuRXFpWG9QbjFYTkxjZE5fbkRvcVZ3UkI1d01aVk5VRl90ajViTHY1b2lNZ3NfNkhkbUp5OGtuemJ6WnlyR0Y5cUwwVzNOLXJhR3U3YndpNC13ek1QeV93bEw5LU9ncFNCM3M5cVN1cXVfNlJYU1Y3Nk9POGxheG5sN0ZxbjVVRUo4WXdyTWhNNlpYMUlXOUpQSDJ0Smc4YkJmN1dpQTZzSUxHYnJoWWlEWlpNNy1T?oc=5</t>
+  </si>
+  <si>
+    <t>Trump anuncia un acuerdo comercial con India y afirma que Modi aceptó dejar de comprar petróleo ruso</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxQWkJhazJFRzE4SF93ZG9OVjljS1pkVmRocXJzRnZxdkR4ak05aE5relVsbUlfa3VZaGY1UWZ4RU5pNlcxeWFQcFZtV0IxaURNSk1uWWlqQlFFNk02SFdSUUh3Z2EtN1FIQzZwVXVnamhHQldsTkNhQWNmQ0xlSGx1WC1fT1dJZlFybEtkSXJERkZ2aGFVT1JHU1hpX3FLakxpYmNVMDRPeVR4c2tIRThIZlZGWDc4T1Q3RC1zcGZEQWNwMzc1MnFfRkg4RTlnYjJfSUlOTzl2YVdKZ3M5Y0N1Mm1iZnY5NEdJTjI4eXdCME9tVm1KS09DbUxiMA?oc=5</t>
+  </si>
+  <si>
+    <t>France 24</t>
+  </si>
+  <si>
+    <t>Corea del Sur responde a Sheinbaum por conciertos de BTS mientras Profeco inicia proceso contra Ticketmaster</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxNaDFIZ2RaZzg2bExKbzgzd3g0c1QtNFg5Vm5MYUN0emU2ZWlraWJBZHhhb0RxWHFfV29CZzN3Wkw5S1pHVWtwSzlKYWgwNk1VeXNWdzE3Smcxa1NkMGc4RE4tb1VIX19ISXRpdWtqYjRabW5QaGVHYjFxTmYtZVhjd0xKdkJqOGxmSXJXQ2hTbmhfOXJ0OGVJazhSMTl6SExtRXNZZTNGQ2JNbVFUTVRqS2hDZ3VRU01VOUR0bk43Mk1kSXhVbllJbTBrUVdFdVVVd3kzVE5GdUhDWXpKUUhOT09DYXRkZ9IBgAJBVV95cUxPaDRHWW16ZWNlalZTOXZ4aUJ2YWtqZ0xfcDY3a2tQM0xGSTIxWVlUX1pPUjFoVVVLM0h3bVhMMGpzUzJ3OUVfYVhuMnl3Z3dhbDIyMC16bklZS2NlTlQtT2E5T2lYTHB0LWVsS1lSaDZTX1l2UklIb3lma29mbjBWbXBtTHNJak5VeXJMT3hMZ0dUbEx3S0tVckJ1WFdOMmdqSklreDBxZWZ5S1RvSFUyaFhPVk5xRkgzZTlaT1BZYko4RzFvSEZub3Viek1KM1JCWXhjNU1wRDNwOUZESjBoZGRoaFZHcXNjLVNnMV90VjlaMkg4bTc3eXB6SDdwdm5E?oc=5</t>
+  </si>
+  <si>
+    <t>Trump anuncia un acuerdo comercial con India</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxNaFRjaVRrLTVTV1FnUnI2RU4zNGZqUDlrSFBQaVBFc1AzaXFPZ2VIcHpMcGVocC14cy1FX3hPMnRGWElVWEItVEVUaGZuaUo5RkFxd09vNUNuUDd0RXB5Rk0zT0tlajFYQnFzMXYxZGNIYTVqeDBNTWlTY1hOWmRtQW9MZkJPTEVpSHZneFpua2xjUExjbVdiMmJhOXVfeDdxQWfSAaIBQVVfeXFMUDMwMHhIN1R6T2xzT3I5OGY3OEpYcG41aktydWNsMHBwQ19rVzNOeUpGOW5xWVpKMzZSN3hORWxTVEw0cjU0ZjUyLUdhcjB5VGNBdjFZMVdQd2ZiWmlMU3ZYRUt2eWF6aVpGdEhlcmpCZlpUWTl4d3JRYktlT0YyRklSd004Zy1uSDliN2xNYVMyMVRsdUhNYU9fVWpobURweTdn?oc=5</t>
+  </si>
+  <si>
+    <t>Trump celebra el 178 aniversario de la guerra que le arrebató a México la mitad de su terrritorio</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5wFBVV95cUxOWFNZVVBxNEZVamZkZTVuSGV1Zlg4Rk1aQ1FDb0x6bnJleWZGaVo3emU4cXdBR3lkX2wyU1BMeU9zUkZOeVZMci1LYnZSQjBEbFN4ejZ5enVYY2Iza3lGQkZiUFhMMEZ0UWRPVlYyVUNaemQzOVh5MXAxNzhsMWJ0Z0JwT1RUQnJYcV9JMHcxQ0g1U2otOGo2UmVTMUx4VEtKbEVrMF9fRHBhZGJMWXM0LXMwQnFSZWRPMk9NRWRLVFYteFBCYkRaQUVZSGRFU3F4YWR4Qm1YWlp6bmhoTU5LVW96eHNDMEXSAecBQVVfeXFMTlhTWVVQcTRGVWpmZGU1bkhldWZYOEZNWkNRQ29Mem5yZXlmRmlaN3plOHF3QUd5ZF9sMlNQTHlPc1JGTnlWTHItS2J2UkIwRGxTeHo2eXp1WGNiM2t5RkJGYlBYTDBGdFFkT1ZWMlVDWnpkMzlYeTFwMTc4bDFidGdCcE9UVEJyWHFfSTB3MUNINVNqLThqNlJlUzFMeFRLSmxFazBfX0RwYWRiTFlzNC1zMEJxUmVkTzJPTUVkS1RWLXhQQmJEWkFFWUhkRVNxeGFkeEJtWFpaem5oaE1OS1VvenhzQzBF?oc=5</t>
+  </si>
+  <si>
+    <t>Dice Trump a periodistas que México dejará de enviar petróleo a Cuba</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxOUEVzd2tJeHRkQjNPR2JOSDFVUW9wdjdmMG4zN3hKb1pnSTVXZjlaRjZYMDNuQVhueTlLTVZHd0dKTC11NXpwV19NUHNIUG0zUWFEdnJsS3BhQVJHZVdNNXY4UFpFR3NLSk95ajZ1NkpZUWE3SUQ3WnRza2V2ZU9oNnotYlY2VkpfUVNValUyal8tUHdfSTRuNmlEZ3EzbDdFWUI1bFdGblVYeG4ybmpqdEU2c19YUGsxdE5lSQ?oc=5</t>
+  </si>
+  <si>
+    <t>Trump pide a los republicanos “nacionalizar” las futuras elecciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNOEVPa2VYMUM0X1g4d1AtRE9WbjJ0anhWeDVkT1p1MVRZRFYxX3k1RFRINXAtLWhTZ0ExZWRQRTM3NnpTcU4tdFNFdHIwUEJVSnluaUI2cWQxUUZmbVI1d3pnOXVtM3hHNWJJZDFXWnhfaHIwWXNvNzljd05KTVkxdGhGTUplRlNaZktIMjVSNnpsNm9DV0JnTDB5UWJlejVrRjJvenBn?oc=5</t>
+  </si>
+  <si>
+    <t>Entrevista AP: Cuba no tiene una mesa de diálogo con EEUU tras últimas amenazas de Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxPdk9ZSEplQzZGNDdlWEc5RW9QODM5Yk1zd0Y0RTlyQ1dUSVFreERPcktaV0FudklnQ3p1cUx1ZGJ1X04tNFprb0FsOW0wUkVSU2M5aTNNNlNXYWlwNkZ5VHRWNy1weE0zOHhRdUxDNzF1aTZGUXRvQ1pnLUNxSmVWS1VzdmJTeFlvSnY2Rlk4Z004Q05EUEtaMlIxVFpTYTdFZnk0aHFLaGgzNHdaYzJZT2E5OFdld3IwUGxaVUlOc0FXZDlDbXZWYXlWUXFCT2J4dWdKZG4tT3ktZUxxQ3kySlJR?oc=5</t>
+  </si>
+  <si>
+    <t>Monólogo en los Grammy desata furia de Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxNMkhqcXk0dGdodWU5SGZoaXdpZ1VhTWhHbHl3c19QaWFqN1V0b2tNRUh0RVNfYmxibVR3NC1USENXbm1zRGJmcU5MY2p0TXoyT2EtQjJhbXRUMURwUzRrcEF2NXA0S1ZDWk04TERfYmYxSDIwV0lsdlE5N2lBZGE5d1VER1MxM0s5VUltMkNPMjVmWThfc2xNTXBFcGFfQzR6SU1Za3o4NklJLWJ1WmdLQUNR0gGyAUFVX3lxTFAzNThWY0ZaQ2hDejBFNHctMlZPUTVIZk9NWG50OTZabko5c0JKMURxUkVCcG9LeldzZkdfbTBoVzBTb0tpNFY4bzVydnRkVVJhNUZFejhqSTRjWW9DaHRVQXFReExhQXA4ZnBXazlDaGZVQnhxeGtyZWhadFRiUTNtN3loajVXOHJmbF9SYkhfVi1wV1R0YXVlaHl5aGoxVGJkVlYwTG1wVFFjVmlVR0ZCRmc?oc=5</t>
+  </si>
+  <si>
+    <t>Obtiene Sheinbaum 69% de aprobación en enero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinAFBVV95cUxPSjdFb0ZaMHRoUHZEV2lHN2ZUbVFrWldUazI1RV82THZRQWVUUVRtenktcmQyeXRnYld4YUlfc3RYU1FjT2ZKUTZmQkRaQW5MSHRVb3ZtTFRzWmVGUVdubm5Xa2ppV1pKdEw5QmdTTnVQdHVSTVE4MUpHbEVyOWlISkZKc1VtbDhqdVVFNV95dnBNQW4wRGFlTkg0Umo?oc=5</t>
   </si>
 </sst>
 </file>
@@ -1350,10 +2241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F7D5D6-FAFA-4C0F-BC6F-B783DD2F90A9}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53:C65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:XFD118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1584,19 +2475,19 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>46054</v>
+        <v>46053</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1604,13 +2495,13 @@
         <v>46053</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
@@ -1621,16 +2512,16 @@
         <v>46053</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1638,13 +2529,13 @@
         <v>46053</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
@@ -1655,13 +2546,13 @@
         <v>46053</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
         <v>46</v>
@@ -1672,16 +2563,16 @@
         <v>46053</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1689,16 +2580,16 @@
         <v>46053</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1706,16 +2597,16 @@
         <v>46053</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1723,33 +2614,33 @@
         <v>46053</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>46054</v>
+        <v>46053</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1757,16 +2648,16 @@
         <v>46053</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1774,16 +2665,16 @@
         <v>46053</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1791,16 +2682,16 @@
         <v>46053</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1808,16 +2699,16 @@
         <v>46053</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1825,16 +2716,16 @@
         <v>46053</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1842,16 +2733,16 @@
         <v>46053</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1859,16 +2750,16 @@
         <v>46053</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1876,16 +2767,16 @@
         <v>46053</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1893,13 +2784,13 @@
         <v>46053</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
         <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
         <v>31</v>
@@ -1910,13 +2801,13 @@
         <v>46053</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
         <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
@@ -1927,13 +2818,13 @@
         <v>46053</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
         <v>61</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s">
         <v>31</v>
@@ -1944,16 +2835,16 @@
         <v>46053</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
         <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1961,16 +2852,16 @@
         <v>46053</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
         <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1978,13 +2869,13 @@
         <v>46053</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
         <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
         <v>38</v>
@@ -1995,13 +2886,13 @@
         <v>46053</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
         <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
@@ -2012,16 +2903,16 @@
         <v>46053</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
         <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2029,33 +2920,33 @@
         <v>46053</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
         <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>46054</v>
+        <v>46053</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
         <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2063,16 +2954,16 @@
         <v>46053</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C42" t="s">
         <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2080,16 +2971,16 @@
         <v>46053</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
         <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2097,16 +2988,16 @@
         <v>46053</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
         <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -2114,16 +3005,16 @@
         <v>46053</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
         <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -2131,16 +3022,16 @@
         <v>46053</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -2148,16 +3039,16 @@
         <v>46053</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
         <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2165,16 +3056,16 @@
         <v>46053</v>
       </c>
       <c r="B48" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -2182,16 +3073,16 @@
         <v>46053</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -2199,16 +3090,16 @@
         <v>46053</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -2216,16 +3107,16 @@
         <v>46053</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="D51" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2233,16 +3124,16 @@
         <v>46053</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
         <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2250,16 +3141,16 @@
         <v>46053</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C53" t="s">
         <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E53" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2267,16 +3158,16 @@
         <v>46053</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C54" t="s">
         <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -2284,16 +3175,16 @@
         <v>46053</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
         <v>162</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2301,16 +3192,16 @@
         <v>46053</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
         <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E56" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2318,16 +3209,16 @@
         <v>46053</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
         <v>162</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2335,13 +3226,13 @@
         <v>46053</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
         <v>162</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E58" t="s">
         <v>146</v>
@@ -2352,33 +3243,33 @@
         <v>46053</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s">
         <v>162</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E59" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>46054</v>
+        <v>46053</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
         <v>162</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2386,87 +3277,2455 @@
         <v>46053</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
         <v>162</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E61" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>46053</v>
+        <v>46054</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B66" t="s">
+        <v>171</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>172</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>187</v>
+      </c>
+      <c r="E67" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B68" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>213</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B69" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>230</v>
+      </c>
+      <c r="E69" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B70" t="s">
+        <v>234</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>235</v>
+      </c>
+      <c r="E70" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B71" t="s">
+        <v>262</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>263</v>
+      </c>
+      <c r="E71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B72" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>265</v>
+      </c>
+      <c r="E72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B73" t="s">
+        <v>266</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>267</v>
+      </c>
+      <c r="E73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" t="s">
+        <v>296</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B75" t="s">
+        <v>312</v>
+      </c>
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" t="s">
+        <v>313</v>
+      </c>
+      <c r="E75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B76" t="s">
+        <v>321</v>
+      </c>
+      <c r="C76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" t="s">
+        <v>322</v>
+      </c>
+      <c r="E76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B77" t="s">
+        <v>330</v>
+      </c>
+      <c r="C77" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" t="s">
+        <v>331</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B78" t="s">
+        <v>332</v>
+      </c>
+      <c r="C78" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" t="s">
+        <v>333</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B79" t="s">
+        <v>363</v>
+      </c>
+      <c r="C79" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" t="s">
+        <v>364</v>
+      </c>
+      <c r="E79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B80" t="s">
+        <v>365</v>
+      </c>
+      <c r="C80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" t="s">
+        <v>366</v>
+      </c>
+      <c r="E80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B81" t="s">
+        <v>389</v>
+      </c>
+      <c r="C81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" t="s">
+        <v>390</v>
+      </c>
+      <c r="E81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>46054</v>
+      </c>
+      <c r="B82" t="s">
+        <v>417</v>
+      </c>
+      <c r="C82" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" t="s">
+        <v>418</v>
+      </c>
+      <c r="E82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>167</v>
+      </c>
+      <c r="E83" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>170</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B87" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>180</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B88" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>182</v>
+      </c>
+      <c r="E88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>185</v>
+      </c>
+      <c r="E89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B90" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B91" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>193</v>
+      </c>
+      <c r="E91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B92" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>195</v>
+      </c>
+      <c r="E92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B93" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>197</v>
+      </c>
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B94" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>199</v>
+      </c>
+      <c r="E94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B95" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>201</v>
+      </c>
+      <c r="E95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B97" t="s">
+        <v>208</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B98" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>211</v>
+      </c>
+      <c r="E98" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B99" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>215</v>
+      </c>
+      <c r="E99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B100" t="s">
+        <v>216</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>217</v>
+      </c>
+      <c r="E100" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B101" t="s">
+        <v>218</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>219</v>
+      </c>
+      <c r="E101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B102" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>221</v>
+      </c>
+      <c r="E102" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B103" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>223</v>
+      </c>
+      <c r="E103" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B104" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>225</v>
+      </c>
+      <c r="E104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B105" t="s">
+        <v>226</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>227</v>
+      </c>
+      <c r="E105" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B106" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>233</v>
+      </c>
+      <c r="E106" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B107" t="s">
+        <v>239</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>240</v>
+      </c>
+      <c r="E107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B108" t="s">
+        <v>241</v>
+      </c>
+      <c r="C108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>242</v>
+      </c>
+      <c r="E108" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B109" t="s">
+        <v>243</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>244</v>
+      </c>
+      <c r="E109" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B110" t="s">
+        <v>245</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>246</v>
+      </c>
+      <c r="E110" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B111" t="s">
+        <v>247</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>248</v>
+      </c>
+      <c r="E111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B112" t="s">
+        <v>256</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>257</v>
+      </c>
+      <c r="E112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B113" t="s">
+        <v>258</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>259</v>
+      </c>
+      <c r="E113" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B114" t="s">
+        <v>260</v>
+      </c>
+      <c r="C114" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>261</v>
+      </c>
+      <c r="E114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B115" t="s">
+        <v>270</v>
+      </c>
+      <c r="C115" t="s">
+        <v>52</v>
+      </c>
+      <c r="D115" t="s">
+        <v>271</v>
+      </c>
+      <c r="E115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B116" t="s">
+        <v>272</v>
+      </c>
+      <c r="C116" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116" t="s">
+        <v>273</v>
+      </c>
+      <c r="E116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B117" t="s">
+        <v>274</v>
+      </c>
+      <c r="C117" t="s">
+        <v>52</v>
+      </c>
+      <c r="D117" t="s">
+        <v>275</v>
+      </c>
+      <c r="E117" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B118" t="s">
+        <v>280</v>
+      </c>
+      <c r="C118" t="s">
+        <v>281</v>
+      </c>
+      <c r="D118" t="s">
+        <v>282</v>
+      </c>
+      <c r="E118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B119" t="s">
+        <v>283</v>
+      </c>
+      <c r="C119" t="s">
+        <v>281</v>
+      </c>
+      <c r="D119" t="s">
+        <v>284</v>
+      </c>
+      <c r="E119" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B120" t="s">
+        <v>285</v>
+      </c>
+      <c r="C120" t="s">
+        <v>281</v>
+      </c>
+      <c r="D120" t="s">
+        <v>286</v>
+      </c>
+      <c r="E120" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B121" t="s">
+        <v>287</v>
+      </c>
+      <c r="C121" t="s">
+        <v>281</v>
+      </c>
+      <c r="D121" t="s">
+        <v>288</v>
+      </c>
+      <c r="E121" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B122" t="s">
+        <v>289</v>
+      </c>
+      <c r="C122" t="s">
+        <v>56</v>
+      </c>
+      <c r="D122" t="s">
+        <v>290</v>
+      </c>
+      <c r="E122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B123" t="s">
+        <v>291</v>
+      </c>
+      <c r="C123" t="s">
+        <v>56</v>
+      </c>
+      <c r="D123" t="s">
+        <v>292</v>
+      </c>
+      <c r="E123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B124" t="s">
+        <v>293</v>
+      </c>
+      <c r="C124" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" t="s">
+        <v>294</v>
+      </c>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B125" t="s">
+        <v>297</v>
+      </c>
+      <c r="C125" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" t="s">
+        <v>298</v>
+      </c>
+      <c r="E125" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B126" t="s">
+        <v>300</v>
+      </c>
+      <c r="C126" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" t="s">
+        <v>301</v>
+      </c>
+      <c r="E126" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B127" t="s">
+        <v>302</v>
+      </c>
+      <c r="C127" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127" t="s">
+        <v>303</v>
+      </c>
+      <c r="E127" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B128" t="s">
+        <v>306</v>
+      </c>
+      <c r="C128" t="s">
+        <v>56</v>
+      </c>
+      <c r="D128" t="s">
+        <v>307</v>
+      </c>
+      <c r="E128" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B129" t="s">
+        <v>317</v>
+      </c>
+      <c r="C129" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129" t="s">
+        <v>318</v>
+      </c>
+      <c r="E129" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B130" t="s">
+        <v>319</v>
+      </c>
+      <c r="C130" t="s">
+        <v>56</v>
+      </c>
+      <c r="D130" t="s">
+        <v>320</v>
+      </c>
+      <c r="E130" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B131" t="s">
+        <v>323</v>
+      </c>
+      <c r="C131" t="s">
+        <v>56</v>
+      </c>
+      <c r="D131" t="s">
+        <v>324</v>
+      </c>
+      <c r="E131" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B132" t="s">
+        <v>325</v>
+      </c>
+      <c r="C132" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132" t="s">
+        <v>326</v>
+      </c>
+      <c r="E132" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B133" t="s">
+        <v>327</v>
+      </c>
+      <c r="C133" t="s">
+        <v>56</v>
+      </c>
+      <c r="D133" t="s">
+        <v>328</v>
+      </c>
+      <c r="E133" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B134" t="s">
+        <v>334</v>
+      </c>
+      <c r="C134" t="s">
+        <v>61</v>
+      </c>
+      <c r="D134" t="s">
+        <v>335</v>
+      </c>
+      <c r="E134" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B135" t="s">
+        <v>337</v>
+      </c>
+      <c r="C135" t="s">
+        <v>61</v>
+      </c>
+      <c r="D135" t="s">
+        <v>338</v>
+      </c>
+      <c r="E135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B136" t="s">
+        <v>339</v>
+      </c>
+      <c r="C136" t="s">
+        <v>61</v>
+      </c>
+      <c r="D136" t="s">
+        <v>340</v>
+      </c>
+      <c r="E136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B137" t="s">
+        <v>341</v>
+      </c>
+      <c r="C137" t="s">
+        <v>61</v>
+      </c>
+      <c r="D137" t="s">
+        <v>342</v>
+      </c>
+      <c r="E137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B138" t="s">
+        <v>343</v>
+      </c>
+      <c r="C138" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138" t="s">
+        <v>344</v>
+      </c>
+      <c r="E138" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B139" t="s">
+        <v>351</v>
+      </c>
+      <c r="C139" t="s">
+        <v>61</v>
+      </c>
+      <c r="D139" t="s">
+        <v>352</v>
+      </c>
+      <c r="E139" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B140" t="s">
+        <v>355</v>
+      </c>
+      <c r="C140" t="s">
+        <v>61</v>
+      </c>
+      <c r="D140" t="s">
+        <v>356</v>
+      </c>
+      <c r="E140" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B141" t="s">
+        <v>357</v>
+      </c>
+      <c r="C141" t="s">
+        <v>61</v>
+      </c>
+      <c r="D141" t="s">
+        <v>358</v>
+      </c>
+      <c r="E141" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B142" t="s">
+        <v>359</v>
+      </c>
+      <c r="C142" t="s">
+        <v>61</v>
+      </c>
+      <c r="D142" t="s">
+        <v>360</v>
+      </c>
+      <c r="E142" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B143" t="s">
+        <v>361</v>
+      </c>
+      <c r="C143" t="s">
+        <v>61</v>
+      </c>
+      <c r="D143" t="s">
+        <v>362</v>
+      </c>
+      <c r="E143" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B144" t="s">
+        <v>367</v>
+      </c>
+      <c r="C144" t="s">
+        <v>61</v>
+      </c>
+      <c r="D144" t="s">
+        <v>368</v>
+      </c>
+      <c r="E144" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B145" t="s">
+        <v>393</v>
+      </c>
+      <c r="C145" t="s">
+        <v>61</v>
+      </c>
+      <c r="D145" t="s">
+        <v>394</v>
+      </c>
+      <c r="E145" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B146" t="s">
+        <v>395</v>
+      </c>
+      <c r="C146" t="s">
+        <v>61</v>
+      </c>
+      <c r="D146" t="s">
+        <v>396</v>
+      </c>
+      <c r="E146" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B147" t="s">
+        <v>397</v>
+      </c>
+      <c r="C147" t="s">
+        <v>61</v>
+      </c>
+      <c r="D147" t="s">
+        <v>398</v>
+      </c>
+      <c r="E147" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B148" t="s">
+        <v>399</v>
+      </c>
+      <c r="C148" t="s">
+        <v>61</v>
+      </c>
+      <c r="D148" t="s">
+        <v>400</v>
+      </c>
+      <c r="E148" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B149" t="s">
+        <v>401</v>
+      </c>
+      <c r="C149" t="s">
+        <v>61</v>
+      </c>
+      <c r="D149" t="s">
+        <v>402</v>
+      </c>
+      <c r="E149" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B150" t="s">
+        <v>403</v>
+      </c>
+      <c r="C150" t="s">
+        <v>61</v>
+      </c>
+      <c r="D150" t="s">
+        <v>404</v>
+      </c>
+      <c r="E150" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B151" t="s">
+        <v>405</v>
+      </c>
+      <c r="C151" t="s">
+        <v>61</v>
+      </c>
+      <c r="D151" t="s">
+        <v>406</v>
+      </c>
+      <c r="E151" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B152" t="s">
+        <v>409</v>
+      </c>
+      <c r="C152" t="s">
+        <v>61</v>
+      </c>
+      <c r="D152" t="s">
+        <v>410</v>
+      </c>
+      <c r="E152" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B153" t="s">
+        <v>411</v>
+      </c>
+      <c r="C153" t="s">
+        <v>61</v>
+      </c>
+      <c r="D153" t="s">
+        <v>412</v>
+      </c>
+      <c r="E153" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B154" t="s">
+        <v>413</v>
+      </c>
+      <c r="C154" t="s">
+        <v>61</v>
+      </c>
+      <c r="D154" t="s">
+        <v>414</v>
+      </c>
+      <c r="E154" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B155" t="s">
+        <v>415</v>
+      </c>
+      <c r="C155" t="s">
+        <v>61</v>
+      </c>
+      <c r="D155" t="s">
+        <v>416</v>
+      </c>
+      <c r="E155" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B156" t="s">
+        <v>421</v>
+      </c>
+      <c r="C156" t="s">
+        <v>61</v>
+      </c>
+      <c r="D156" t="s">
+        <v>422</v>
+      </c>
+      <c r="E156" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B157" t="s">
+        <v>425</v>
+      </c>
+      <c r="C157" t="s">
+        <v>61</v>
+      </c>
+      <c r="D157" t="s">
+        <v>426</v>
+      </c>
+      <c r="E157" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B158" t="s">
+        <v>427</v>
+      </c>
+      <c r="C158" t="s">
         <v>162</v>
       </c>
-      <c r="D65" t="s">
-        <v>159</v>
-      </c>
-      <c r="E65" t="s">
-        <v>160</v>
+      <c r="D158" t="s">
+        <v>428</v>
+      </c>
+      <c r="E158" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B159" t="s">
+        <v>436</v>
+      </c>
+      <c r="C159" t="s">
+        <v>162</v>
+      </c>
+      <c r="D159" t="s">
+        <v>437</v>
+      </c>
+      <c r="E159" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B160" t="s">
+        <v>440</v>
+      </c>
+      <c r="C160" t="s">
+        <v>162</v>
+      </c>
+      <c r="D160" t="s">
+        <v>441</v>
+      </c>
+      <c r="E160" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B161" t="s">
+        <v>443</v>
+      </c>
+      <c r="C161" t="s">
+        <v>162</v>
+      </c>
+      <c r="D161" t="s">
+        <v>444</v>
+      </c>
+      <c r="E161" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B162" t="s">
+        <v>445</v>
+      </c>
+      <c r="C162" t="s">
+        <v>162</v>
+      </c>
+      <c r="D162" t="s">
+        <v>446</v>
+      </c>
+      <c r="E162" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B163" t="s">
+        <v>449</v>
+      </c>
+      <c r="C163" t="s">
+        <v>162</v>
+      </c>
+      <c r="D163" t="s">
+        <v>450</v>
+      </c>
+      <c r="E163" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>46055</v>
+      </c>
+      <c r="B164" t="s">
+        <v>453</v>
+      </c>
+      <c r="C164" t="s">
+        <v>162</v>
+      </c>
+      <c r="D164" t="s">
+        <v>454</v>
+      </c>
+      <c r="E164" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B165" t="s">
+        <v>177</v>
+      </c>
+      <c r="C165" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" t="s">
+        <v>178</v>
+      </c>
+      <c r="E165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B166" t="s">
+        <v>188</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" t="s">
+        <v>189</v>
+      </c>
+      <c r="E166" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B167" t="s">
+        <v>202</v>
+      </c>
+      <c r="C167" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" t="s">
+        <v>203</v>
+      </c>
+      <c r="E167" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B168" t="s">
+        <v>204</v>
+      </c>
+      <c r="C168" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" t="s">
+        <v>205</v>
+      </c>
+      <c r="E168" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B169" t="s">
+        <v>237</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>238</v>
+      </c>
+      <c r="E169" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B170" t="s">
+        <v>249</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>250</v>
+      </c>
+      <c r="E170" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B171" t="s">
+        <v>251</v>
+      </c>
+      <c r="C171" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" t="s">
+        <v>252</v>
+      </c>
+      <c r="E171" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B172" t="s">
+        <v>254</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>255</v>
+      </c>
+      <c r="E172" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B173" t="s">
+        <v>268</v>
+      </c>
+      <c r="C173" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" t="s">
+        <v>269</v>
+      </c>
+      <c r="E173" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B174" t="s">
+        <v>276</v>
+      </c>
+      <c r="C174" t="s">
+        <v>52</v>
+      </c>
+      <c r="D174" t="s">
+        <v>277</v>
+      </c>
+      <c r="E174" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B175" t="s">
+        <v>278</v>
+      </c>
+      <c r="C175" t="s">
+        <v>52</v>
+      </c>
+      <c r="D175" t="s">
+        <v>279</v>
+      </c>
+      <c r="E175" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B176" t="s">
+        <v>304</v>
+      </c>
+      <c r="C176" t="s">
+        <v>56</v>
+      </c>
+      <c r="D176" t="s">
+        <v>305</v>
+      </c>
+      <c r="E176" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B177" t="s">
+        <v>308</v>
+      </c>
+      <c r="C177" t="s">
+        <v>56</v>
+      </c>
+      <c r="D177" t="s">
+        <v>309</v>
+      </c>
+      <c r="E177" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B178" t="s">
+        <v>310</v>
+      </c>
+      <c r="C178" t="s">
+        <v>56</v>
+      </c>
+      <c r="D178" t="s">
+        <v>311</v>
+      </c>
+      <c r="E178" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B179" t="s">
+        <v>314</v>
+      </c>
+      <c r="C179" t="s">
+        <v>56</v>
+      </c>
+      <c r="D179" t="s">
+        <v>315</v>
+      </c>
+      <c r="E179" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B180" t="s">
+        <v>346</v>
+      </c>
+      <c r="C180" t="s">
+        <v>61</v>
+      </c>
+      <c r="D180" t="s">
+        <v>347</v>
+      </c>
+      <c r="E180" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B181" t="s">
+        <v>348</v>
+      </c>
+      <c r="C181" t="s">
+        <v>61</v>
+      </c>
+      <c r="D181" t="s">
+        <v>349</v>
+      </c>
+      <c r="E181" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B182" t="s">
+        <v>353</v>
+      </c>
+      <c r="C182" t="s">
+        <v>61</v>
+      </c>
+      <c r="D182" t="s">
+        <v>354</v>
+      </c>
+      <c r="E182" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B183" t="s">
+        <v>369</v>
+      </c>
+      <c r="C183" t="s">
+        <v>61</v>
+      </c>
+      <c r="D183" t="s">
+        <v>370</v>
+      </c>
+      <c r="E183" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B184" t="s">
+        <v>371</v>
+      </c>
+      <c r="C184" t="s">
+        <v>61</v>
+      </c>
+      <c r="D184" t="s">
+        <v>372</v>
+      </c>
+      <c r="E184" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B185" t="s">
+        <v>373</v>
+      </c>
+      <c r="C185" t="s">
+        <v>61</v>
+      </c>
+      <c r="D185" t="s">
+        <v>374</v>
+      </c>
+      <c r="E185" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B186" t="s">
+        <v>375</v>
+      </c>
+      <c r="C186" t="s">
+        <v>61</v>
+      </c>
+      <c r="D186" t="s">
+        <v>376</v>
+      </c>
+      <c r="E186" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B187" t="s">
+        <v>377</v>
+      </c>
+      <c r="C187" t="s">
+        <v>61</v>
+      </c>
+      <c r="D187" t="s">
+        <v>378</v>
+      </c>
+      <c r="E187" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B188" t="s">
+        <v>379</v>
+      </c>
+      <c r="C188" t="s">
+        <v>61</v>
+      </c>
+      <c r="D188" t="s">
+        <v>380</v>
+      </c>
+      <c r="E188" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B189" t="s">
+        <v>381</v>
+      </c>
+      <c r="C189" t="s">
+        <v>61</v>
+      </c>
+      <c r="D189" t="s">
+        <v>382</v>
+      </c>
+      <c r="E189" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B190" t="s">
+        <v>383</v>
+      </c>
+      <c r="C190" t="s">
+        <v>61</v>
+      </c>
+      <c r="D190" t="s">
+        <v>384</v>
+      </c>
+      <c r="E190" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B191" t="s">
+        <v>385</v>
+      </c>
+      <c r="C191" t="s">
+        <v>61</v>
+      </c>
+      <c r="D191" t="s">
+        <v>386</v>
+      </c>
+      <c r="E191" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B192" t="s">
+        <v>387</v>
+      </c>
+      <c r="C192" t="s">
+        <v>61</v>
+      </c>
+      <c r="D192" t="s">
+        <v>388</v>
+      </c>
+      <c r="E192" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B193" t="s">
+        <v>391</v>
+      </c>
+      <c r="C193" t="s">
+        <v>61</v>
+      </c>
+      <c r="D193" t="s">
+        <v>392</v>
+      </c>
+      <c r="E193" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B194" t="s">
+        <v>407</v>
+      </c>
+      <c r="C194" t="s">
+        <v>61</v>
+      </c>
+      <c r="D194" t="s">
+        <v>408</v>
+      </c>
+      <c r="E194" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B195" t="s">
+        <v>419</v>
+      </c>
+      <c r="C195" t="s">
+        <v>61</v>
+      </c>
+      <c r="D195" t="s">
+        <v>420</v>
+      </c>
+      <c r="E195" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B196" t="s">
+        <v>423</v>
+      </c>
+      <c r="C196" t="s">
+        <v>61</v>
+      </c>
+      <c r="D196" t="s">
+        <v>424</v>
+      </c>
+      <c r="E196" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B197" t="s">
+        <v>430</v>
+      </c>
+      <c r="C197" t="s">
+        <v>162</v>
+      </c>
+      <c r="D197" t="s">
+        <v>431</v>
+      </c>
+      <c r="E197" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B198" t="s">
+        <v>432</v>
+      </c>
+      <c r="C198" t="s">
+        <v>162</v>
+      </c>
+      <c r="D198" t="s">
+        <v>433</v>
+      </c>
+      <c r="E198" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B199" t="s">
+        <v>434</v>
+      </c>
+      <c r="C199" t="s">
+        <v>162</v>
+      </c>
+      <c r="D199" t="s">
+        <v>435</v>
+      </c>
+      <c r="E199" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B200" t="s">
+        <v>438</v>
+      </c>
+      <c r="C200" t="s">
+        <v>162</v>
+      </c>
+      <c r="D200" t="s">
+        <v>439</v>
+      </c>
+      <c r="E200" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B201" t="s">
+        <v>447</v>
+      </c>
+      <c r="C201" t="s">
+        <v>162</v>
+      </c>
+      <c r="D201" t="s">
+        <v>448</v>
+      </c>
+      <c r="E201" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B202" t="s">
+        <v>451</v>
+      </c>
+      <c r="C202" t="s">
+        <v>162</v>
+      </c>
+      <c r="D202" t="s">
+        <v>452</v>
+      </c>
+      <c r="E202" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B203" t="s">
+        <v>455</v>
+      </c>
+      <c r="C203" t="s">
+        <v>162</v>
+      </c>
+      <c r="D203" t="s">
+        <v>456</v>
+      </c>
+      <c r="E203" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>46056</v>
+      </c>
+      <c r="B204" t="s">
+        <v>457</v>
+      </c>
+      <c r="C204" t="s">
+        <v>162</v>
+      </c>
+      <c r="D204" t="s">
+        <v>458</v>
+      </c>
+      <c r="E204" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E204" xr:uid="{D6F7D5D6-FAFA-4C0F-BC6F-B783DD2F90A9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E204">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/noticias_dap.xlsx
+++ b/noticias_dap.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\DAP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E229D4E-B592-4A5D-A33B-780F8C393EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{393956A7-CA2B-4A0E-9F95-943EC7B174B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19C68159-5166-45DD-BAFC-25160BD78539}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED4E40BA-07C4-42D1-94BD-01558BA1EFC4}"/>
   </bookViews>
   <sheets>
     <sheet name="noticias_dap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_dap!$A$1:$E$204</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -133,387 +130,387 @@
     <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxQTFlzdjd4SHk1OTR1NEJnOXAwVEExbVhiMnhHa29ldVZnazFwMjREWHp2T2x3aDVSc1pJYy1wTlhKQ0VvclZ6enBkT3JsTVdUX2pZRjlXMFVhenJ2eFdxYkJtclEyUnVERDRkejJJcVNYUzM0UGJTSFZrcS02YkZyRlFiVEN3VDM0STB4TldDUWhIUThCSDNkNXBCQ0I3QmhCcmxmNGZfcW9fZ2EyQWp3YkNOQjh2Ni1TbXIyRFd6cko2ZjhEMVpBMjJLdFdmMTFGdGVqa05HSGpVU3lkLUthNDUyQU5tSFRjb1dZ0gGGAkFVX3lxTE5jLTV4aEpwcVVaQl9odld4RGUwRmVFR29YWDRqYWh6aGZ1bDFKUWpOVGtqbW1LUzR1a1dFQWJWZ2VsajI5d0lQTkJQcGdESG9TMDJsYlZRYlVoUW9wVlY3amplRWVOUW8yZF9hbzM5QVQzcUNQcWxtRmFieGlFREJyanVzY1REc0s0X0VWaEVia0JtZE1wandkcmZnc2FVZ3hOZ0JVU1hDajdrMU1KQnNOQ01KZTY0V0hUX1d0Q2U4WF91Y0NmYml5TWYxMVBjbmZLa1JvMUhHa0lDZTJleEF6X3l0aTJidU43RU8yc0dwUGxUTWZSemRlRE44RlBxWjMwSzk3bnc?oc=5</t>
   </si>
   <si>
+    <t>PC de Coacalco controla fuga de gas tras perforación accidental de tubo; desalojan 60 familias</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxOcnlESUdDN2NzNzg2V1lySVdwVUQ2LWo5STZUaVltbTRZcEFlYWNpSlg0RlpRS0xKRFNlbFZxUFVJM2RPckpWcnVxOWdDdzdzaEtJQnBMLWxlVHZMZENFdk1FeHFqX0tBY20zM0FaUm5IQVkzTEFUQ3hLRF9Id1BsUTE2cm1EQlpxNG1YTlllX3NkS1hpTERmUU9odjlHajFVSFBfVDJMRWhUbUZEU3RUTjhEZnlhYmF4TXdueW9rNEtTMFZfTmxMMXVGQTlDQm5seUR4Yzc3aGJKTVNTUFpVZw?oc=5</t>
+  </si>
+  <si>
+    <t>La Jornada</t>
+  </si>
+  <si>
+    <t>Mueren subdirector de Protección Civil de Naucalpan y su esposa por presunta inhalación de gas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxNczdaZldFcEVjODd4T2JvOVZ5UTlzbEc3VEd2a2x3ODZqNnUyRXo3ekc1SktmTmpYZW1WSGcxYXRTUi1QVmdldlJtckFjOFhzZ3NQdlN4M2oycXptQkRjQVpLRXRsMEIzc3VXczcxMFd2WlduZVMtbzA0b3ZxSVFUb1A3Sm1pNTdkREZ2N1lvRWUzZG9IOHVEM3lPYXo1dzM1WW1naUtVbXprSWdmV3JEWnExY1phYUpDbF90VHEzT0FxdnFPU0tJZlA4cHk5d2NmVThYRmlkVng1ZVZXQnlFWm9R?oc=5</t>
+  </si>
+  <si>
+    <t>Estos serán los precios del gas LP del 1 al 7 de febrero en Puebla</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMidEFVX3lxTFBwVFpXdmY4Q1RBeVRZLTRfVzRjSGxkU2p4VDMzdl9yV1gwMmlfTWc2T0tKUkU2U21vOXVGXy1QaXYtMHRhd2VLNVk2VmJyb1JMY3pxSmdraDZxZTVkTFQ3SjlieXZFWG1CSzJpd21PTG9wTllU0gF0QVVfeXFMUF94LTBuZi05ZmxiQ1Z0M0hZa3NsQXBLRXBiQmZmTXBPVVZFd2kxZlpfbTVMWE90SHFpa0x6Z2RCY0FQYXpwaWVSanVwY2FoMm9mdzhsS19ETjVuZFlfSm9PTHlXUEpJQXgyWVBKNUdVTGRZNl8?oc=5</t>
+  </si>
+  <si>
+    <t>MILENIO</t>
+  </si>
+  <si>
+    <t>¿Más caro? Aquí los precios del gas LP en Jalisco del 1 al 7 de febrero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxPeE5jRHV4eXBlYmpNQk1SZlptNFNFaVNyWS1fN0J3dUoyMUJaSE9ZbGpQZWR3bWpRc0RmNXJjdTBhM0ZpR1ZSSTA0aHVSQjk3S0twNHhlOC1PRFdURmdQNm1EQTFyWjRwRzRXR0Y3LXRFb09aakRfUy1JMmc4amt4RWtPV0dTQ2ln0gGIAUFVX3lxTE94TmNEdXh5cGViak1CTVJmWm00U0VpU3JZLV83Qnd1SjIxQlpIT1lsalBlZHdtalFzRGY1cmN1MGEzRmlHVlJJMDRodVJCOTdLS3A0eGU4LU9EV1RGZ1A2bURBMXJaNHBHNFdHRjctdEVvT1pqRF9TLUkyZzhqa3hFa09XR1NDaWc?oc=5</t>
+  </si>
+  <si>
+    <t>Muere adulta mayor tras explosión por acumulación de gas dentro de casa en Guadalupe</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPVDVTeFlPV2xxWnR6TFFfQktSVTF2MDlmVHJwaUhtby1PODE5NXk4OUFkOUpfZW9LbGJSQ2hIcnlUMUJWdWg3RmdQYmtxOW1UNHU1WU4zYU0yX2hYMEpMVU1qSzR3MkpUSko0eEdENU5NQi1CRXdzMl8yemd0eFZOZlNfVEFQSWkwZlhtaERpMnpLQ3FvM2NV0gGXAUFVX3lxTE42QklrNlE4TTEyWTNoRFNQMzBPOVpXQkRmNXhhcEI0dE1ieUpXMng1cktoQU5hWGlTVkZEYkpiNkFPZDU3WFJ5MTBTcENjTHFETXhlMWUyNGhVQzNGX1dOaElVNDQxMDNTQmlQdWVuRlEyWHpndTZkdnMyQ01wV1B6R190aE5uUGc3S0V5dDZoRVlyQktRSUU?oc=5</t>
+  </si>
+  <si>
+    <t>¿Cómo tramitar el cambio de placas a Edomex para obtener el subsidio del 100% en impuestos vehiculares? | PASO A PASO</t>
+  </si>
+  <si>
+    <t>impuesto</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_wFBVV95cUxOMWNJQ2NDY1VPeldHVFV6YTRnWnhnYjhXVWVqTWxwYWo3bDNITlN6X2ZsUnNYTVJZY0VfVjRuT0tlSTl6Q1Y4R1dPVW9qSjR5Nkc1NnkxT1FXLVpfU2VlY3UzWGx0dTRuUWp5c3NRU2I4bm5oWDJvbG9ZamRVRnBJSWh2NUwwOV96TnUtbGZ1S2s0ci0wRVBILTAzNGtRbWlWNk02c1lsMkRoWkpGbVpwNDJnU0VQS3h3OUUxaXNkN183QXM5b2NIMnh1LWpRUUZ5STY3Wm90R1RHWF9nREZtYlNmaWk4RW1YSmxtb0dwNERFalRxSmVDRFVpdGFLUlHSAYQCQVVfeXFMUDZDYXIzdlJpei1qYkdGeWoxY3c0Z0xENDdzdHA2QzEtY3EzOXc1Ulk4NUh6V0xTd2tUQzVqTG9NSEZNdHNEWGZBaHB3eDNyUFUxSjBnUVVLUlBFWnRocEtqZFNRUTdoVkxaWlprZFp3TGw0bnpORUtTaGRqeXd0T1RST0U1eElsbGZxUkl0U081Vm5aNVE0cnhJVXBYUE1CRTBCeG51MS15RmFxU3p3Y1g0YTdCQk9ucHo0c3hqenRETUpfQmtsZzhnUExCcGtBQWlqbGJyaEZlREEzWDNJVXZUcl82RUFURTZ0U2plY3RVOEJlakwzbkRWdUIwcXhwLVk0Y2U?oc=5</t>
+  </si>
+  <si>
+    <t>Los países bálticos aprueban un área de movilidad militar para facilitar el paso transfronterizo de sus ejércitos</t>
+  </si>
+  <si>
+    <t>movilidad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-gFBVV95cUxOUUtiQ3U0VHlWTzBaY3NpeTU1Skowemt6aDR1R21iUU5wTlk0ZDNEYjZSeUZ5UVRtaV8ta2RHckJscmFNeWRRM0Y2SG5OVTliY0c1Y0wzTm9zekd2TnBHY0ozRUMtSEFEMmlHZ2k3LUJLR1ljUWN3Z1NaVm1ZRnQ0aHA4R1VWakRPUUt3T1F0dlVfRUFxLXF0eGkwdWNmR0RyeHM1dlFsYjJtQUV4SHdqWHdWVXlKVUdoZGZ0aXhWTWJJWk5YVV9sZmQtRWJOSXIyWmhlS0lBZjE3QUxOQ0pKdlJsUUpWd00yLWN0dWJlc2JObHIwTlJnNzZ30gGUAkFVX3lxTFBCcXM3eTBWLU13SElNT1hFd3VKLTk1NEE5NU91cVZxX0c1N2RodThkb0o1M0hGR2xvaHZiU0taVXpuOVZIVlBsX3pOdlc3UmJkWndrMVcyZzh3ZzBWQzFhQmZ0eWpPeEdIZzJhSmkwRTZfOHRjNDB2MnBuOG9CeVFNNU9WUXR2UFVJUXVhem0wVnBOckpvamxQWFhWa0FwZ29GV0hWaWc2VUdxVVFxd0NWZUlqa00wUjExSWlZRnFQY1hpRGdlbnJVX2JjSFB2cEVPM2NMUnNJXzFPZnc1M0VBbk9hbWFMLWwtZjdLUmRSLVdQZlFlb3p3YkVxZjVyc0V0eTNhOHRJNHp3V2hNUmFoVHp4Yg?oc=5</t>
+  </si>
+  <si>
+    <t>La electromovilidad despega; la red de carga sigue en tierra</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiwFBVV95cUxPamtmR0NSaTVZbFg1MldSMm84bzY4WUNBWWZGc2ZQQ1hFOGVFd1hUaThWVnBXeWtJU2picUR6aTg4UTVPbFBvNEtKcW9HWjd2dWFoeWRBdHpCenp6aTdKRlcxcGZfT3JBekVtMjFULXZUQnFwS3l4SlQ0RmdjcTJCZ0NGYjhJZ3dmSDQ00gGLAUFVX3lxTE5CSWhiNlBCbVhzQm9DeWxJVWJZdHYzdGR2eXptcTlUNzNLTzVzYTdCOGV1a0x3ZUFCMHd2b0JNZFJkRXNTaGpiVTBJOFkzRHB6NkZRRXZzdWNmTXp4aEVmOXIySVoxWlVaOHYyMXNyNEhoejRYc1hBaHMzWnhqZXlvQ185RDMzemhJdXM?oc=5</t>
+  </si>
+  <si>
+    <t>Anuncia Gobernador de Nuevo León colaboración RapidSOS para reforzar la seguridad rumbo al Mundial</t>
+  </si>
+  <si>
+    <t>seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxNbkpsVWJaUWJhLTg5MG5ORDVKcjFLYmZ4dTQ1eTVxZU1HckU2ZkxYWjVHbENOdXNiWFhZcXY0NzNZUjRqSllHVHJhNll5SjNSQk1PWTRlRThSaW9aMk9oSG42RmVXcVBxMHB5V0gxSk1XRENCYkhWLWc3bS1nVHRUYThYbG1EbmRUMVlsVUhGbHhRQndnSEFaQVBveVBES0k4ckk0bFNKaG5uUjIySjlBY3VRb2sxQjJoVFN2SEFB0gHDAUFVX3lxTE1Ka2NJTUdOeEN6b1hPanU3QnRNdmdpUEJRY3hjcFM2OXBVOXlUQnJHbkdwdDVKTjZZTGR5QzBDMlFyU0ladlpCOUhfZlpMMGJaZWFjRkdxUnEwcVlxNGdqMTU4amk3dDNWakJOcDllYUVPeEhHYVVJWC1WS19ESDcybHA2Zi1lVkhrRGNKYk5EUGo5bnVaNUJQcDRJakhocHJjblNBQU5LbE1DZmxJNVhfWjNOS25jbm4zbjNuV1c0QUp0aw?oc=5</t>
+  </si>
+  <si>
+    <t>Imagen Radio 90.5</t>
+  </si>
+  <si>
+    <t>El miedo en el trabajo es un riesgo de seguridad oculto y ayuda a explicar por qué los peligros no se denuncian</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPR0VvU3RCVEk3T2ZxV3BqSlN4bjgyNldBaXV6U181Wnp2Z1RfZ1l6blRVc003SkRrdWNURlZLTm5Cd3FBcWhXMzR5Mm9KbzJVV3pIQzdQLW1kZXdtaTExNUxQNW5ub3UwRkNNV3d4bEtBZFhmY0IwUmVvOEhOMlhZZlZhU3dZT3dSQUlzQUlzQkROenM3RmV4U3FOSFpjODJIM0VIMGpieFdwYV93YTJrUnE2QTVlVm9LQmhFYTFJaDFQdmVkSV9ISERkZkxYbjQ?oc=5</t>
+  </si>
+  <si>
+    <t>Forbes México</t>
+  </si>
+  <si>
+    <t>Marina capacita a 34 elementos para detectar amenazas químicas durante el Mundial 2026; buscan mayor seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxPLVVoVUR1V3dsdVp4YUVUVF9KU2ZzZVNoUUF0czhBZ0JwSkxuLS1ELUVqS0NqWm11ekdMa1MyVV9DMHp4b25TZVl2bHlnZjZ4a1JHcE1ZV0tlOVcxVU1XemlpSlZJWW9NXzgyaFNnd056QUJPdU5VLUh6ZGpKYzdwVDYwbExGV3c1TmlacHdnRHlkZVdSUHd4X2JlSlZfckptZ0R6ZURVbnowQ1ZGb0JYY2pnMkVBeF9vLVZRZlZobEp3SGU4RV9yNm04STZPUlFieVlnVzhSbkhqZlg3SkI1RVVR0gH2AUFVX3lxTFBzYU5zN0dkZi1yT1ZQQlJRbnJCWXBPU2h2ai1Uc1FCNUthY2YxNk9lYi1aZlRzQk13X0huaHo4bEpzeU1UcWk2U0xHYVFoeFAzbG9WbGlETkVfeFE0Tjd5V3FqbTd3MVpMaUhoeFFqeUc3YTdUWmN4a011dzJnRFBobDdWOVpKeHU3TFdRcGJVNFVEZXoxUUt6N2FEWFVkbVZ6NHZPdjBJdGJ6RW0zVF9QbEtIQXVZQ2ZRUHFPMUtSS2FqMGxCdzNLLVNKVnVKUEtDdkc3bkU2RTBkM0dUMmxuZVFFbDRBcTJYa3ZkN09NOXpUM1BPdw?oc=5</t>
+  </si>
+  <si>
+    <t>Embajada de EU en Haití emite alerta de seguridad por "intensos tiroteos" en Puerto Príncipe</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_wFBVV95cUxORmxsMjA2YzRRdmlWQUxPNll0VnVOYU9pU01fakFqWEpPTWtlOENnVHhrVVBYRUZQVklUeFdHR2NUeWlkT3FvU3Mtb2JzR3pEcllXajRGakVDMDh6NGg1U3ZFQVdnNmw4T1RKT1lhVk1oYXJtV0JqXzJCbkxvbU51T3JEeGRPTXNiVHpiY0dlTFc0Snc0NF9KbjhEVnZxaG94c01sMGhzNVd4TVRaUFNoLXYzR0xoelZKRWNJaFlmM3M3ck1YaG1zME82dWRDUGZaOHY2U1hZX29MOGRtejc2cEZyNi1zRGNBdjIwVmsxcE5LQmV6dnpvVGF4dEtVRFnSAZMCQVVfeXFMT252djdXTE0ybVdIZGRNRWhGWm9KU3JuTF9YMnd5bGVqem9pMlZlcS0yRFZLS1Q2a1V3Rm5qNzV0T1FRYXBJZXJsQ3VHOFdta1dqQzdfMzgwUFVvdFVLNm5semJsdGlvVlB3ekhtbThFOVdwMy1IckpPVmJMNGZzX2J0UEV5TXZjNDVDMDRGdWlpRWNBYm9rN1YxaTRNLVpMajZlaDg4dTBOa2drdzhRZWJBdEhDV2hPUHdSODlLRmR4ZlBMbjlUa1I3ZUE1VjhRNnp3V3k4QUpRRzBlM0xKWW9zLW5kM29ueVJycjVfMlhyNkJpWVl1bk9OeEMxb2FDNFB0bzBPc0hPRTBrUEpjczR2TjQ?oc=5</t>
+  </si>
+  <si>
+    <t>Refuerzan seguridad y controles en frontera de Chiapas ante el estado de sitio de Guatemala</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxPRWcySWstQ1l0RlVTcUtZN3VwRGFOWTBKWkV6YlAzZnZqYnEySmhHdUdyc1lSZ0RXTDdUcGtVbXFmbkpUTmpGWmpnSWpZS0N1Tm9QeDR1YTYtbmNiYndKTE1ueDY5MGdUZ0RuTXF5QW16UmR6WnUta1BVaEROT3JBUm1fUGQ1aEN5dFItRm5KOU45NU1iTk1PLTVFSW9fVVpJN1cyaTZjVXlQWGY5MEpEb0hWUEVublJUOGVsOTViQTI0T0Fwb3VKS21BN3EwTTdUNWNR0gHTAUFVX3lxTE9FZzJJay1DWXRGVVNxS1k3dXBEYU5ZMEpaRXpiUDNmdmpicTJKaEd1R3JzWVJnRFdMN1Rwa1VtcWZuSlROakZaamdJallLQ3VOb1B4NHVhNi1uY2Jid0pMTW54NjkwZ1RnRG5NcXlBbXpSZHpadS1rUFVoRE5PckFSbV9QZDVoQ3l0Ui1Gbko5Tjk1TWJOTU8tNUVJb19VWkk3VzJpNmNVeVBYZjkwSkRvSFZQRW5uUlQ4ZWw5NWJBMjRPQXBvdUpLbUE3cTBNN1Q1Y1E?oc=5</t>
+  </si>
+  <si>
+    <t>LatinUS</t>
+  </si>
+  <si>
+    <t>C4 Norte de Monterrey toma forma: obra alcanza 31% y promete reforzar la seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxNZEFmbFNmR0VneXJYVmhOVEJRQVN1S3hjQkdkRnplb0RIZWxXXzlLX0VOdXFRSDRDTzhyX0hiU1I0MmhmR0NlVnFsOGYzMlNlU2tEVFdmMVdsb2t5V09lQjduMUd5Y1R0VGRSZUdMMy1UTnhsSW83S1FFX0ZCbkM1MWxzTjJuV3dHWmxnMExmczktSmt1aExWWTROdW5jSlZ6R01ySWt4VUl2eHlCeE9QQnJsYWRScFk3aU14a2tNZzQyYTVrd1puWFB1VHBQeERMTEwxZHRxbW_SAd4BQVVfeXFMTm04ZTJDUEtGSEtvTW5wZU9oOGlQR1BMRHFGcDlwY3BwYjB0SGVOZ1FyZW9TRXlJb1hSV1pfYzdnRDhXOFJDMm5DQzQ0VzRqZEJWWEhld2l6ZTJQUDA0cTQyRHBYSlNEdERSTEZ4ZmNjQmh4U3ZNNmc4ZjJ2SWFkTmNaU1F0OHprVjJvWU1iSXRoN0tFQ3dyU2VON1pSSDBlYUd0dzNhUkhhSkNKcjYxOTVIN05YQzRXc0VvalBVQm1DakpzYVRWbGo1aEhMX21MS3RUNk9ta3JVelJTSXl3?oc=5</t>
+  </si>
+  <si>
+    <t>Radio Fórmula</t>
+  </si>
+  <si>
+    <t>El infinito problema de seguridad para niños en Roblox: lo que deben saber los padres</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxNdHVkNm4wZE5fU09MRmZ1azBud1V3NjQyQmRQWTJhNTN1aGF5c1FJeVRYZzBfRXdQM0ZHSlY0dDdWbHdaV3o4UnMySzlhZzNrWERtakpLd081OVVrWHA2am1oa212WEpKajFiRkxLOUdjV1p5cEV2dG1DLVRzZ3lkZEZ3b29ldURtRGpNU1E4Q2VhVlhrZHJhZTVSMXBBMmxwZ2NzY1NGeHRaYndkaXMxcFRKV242cnEyRHRVNUxySlV3OVIyRTdF?oc=5</t>
+  </si>
+  <si>
+    <t>UnoTV</t>
+  </si>
+  <si>
+    <t>Llamada Marco Rubio–Juan Ramón de la Fuente por seguridad regional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxQd25EVHVUS1NXNnBVcEo1YTV2VzVYQmdZLWstMDBvd2Q4X1dKVTNvaFViR0g0Z0Q2bTFvazFZLVBraFlRRUd4UndRMU5UZ1hRajNaM2xPbDQyOGhyZEtmeDVsZUhFNWV4cnFRaF9oVWtFYm5zaUVfX3NfS01CY0U5UHJBRHFRdGRNZjBQbWpvUEtWdGQ4c2daWGpjMF91MHc?oc=5</t>
+  </si>
+  <si>
+    <t>Violación en Miramar: intensa búsqueda del sospechoso y las cámaras de seguridad clave que analiza la Justicia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-AFBVV95cUxNenhkZXRoX2VtMjRCQ19lZW10YlZLVFBxc3JHS0FlYWMtd3ZPSnl2UzRyWE0zVExzZTQxLUQxSEN5WEplNGltZEhJeUJfcnV4QllBZEJZY0lYalFpM1dFV25TbGFKdm1vUVVIRFoweDUzeHpCc1JfSmhwTk9tS2hvRlA1bkR3NU92N2Z5ZmlsNWdITjU3WUg2cHd4b2Y3R2YxMkZkZ3hFYkVCcy1mOFZZSklOQ1Q5dmNQVjVfLXpyYjhxOWU3aU1EejdRLWZGbUpFOGVYZXh0WGR5bm5QeDNvUkVBY1lDN2ZjeF9raVBEMnpTNU9CM092RtIBkwJBVV95cUxOUWQ3VFdIVnZmS0pDaEkwRHk3U3NqUjl0YzZoUnJta0ZwZHM3U3h3ZURtNElFbHVVSGd1WnlsX05oMEtNeTZobjNfYVl4ajhTQkFvbFJ4V0tIVVlabHBLY014VGkzb1VaSU92WTM2RnRxbEk0RVkxeXlHQXpjSDRMazhGanIzcU9STFUzMVdhU2xpUDNYN1RQUU9qZEp0RFZfbzZLWHRXYUc2ejBrSzFsRXBMV3AxaDVWV19Sczg1aURSRjZDalNid3dHLVB5bF9YOUNwN0pYY2h4aU8waDBxajNjQWluc2RrNU8yS0psVGc4X0NQUk9lSXF3ZW0yWms0SXZIdkNZNExHdWhfX3cyd3h5aw?oc=5</t>
+  </si>
+  <si>
+    <t>El régimen de Irán volvió a desafiar a EEUU: “Si comete un error, pondrá en riesgo su propia seguridad”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxONzJNRkRaTTRfLTVlbnVHbGJpSXVOdktlb3dJeFZWeXVYV2hXOEI3MGxWTXM1bHJDMHR2YUJ3d21NNDJSY0JwZFQ1dFdwM0ZnVXU0UkVBSlJRdkMtTkVvVTg3cE9XOVV6Zmk2U3lmb0luMHN6ZE1OMmRTTTI4RHduWVpublltb2c3VWJCd0lRSV9LTmlXdnd6TEliLUtOTWdWb0tucXYwcDZsdVhfRmNCQU1jenFmZEdqcXctNk15Rjlya2dFWXQ1Q2JLZ2xsSzAwUnBlNnVtSERQSlRfLXk1ZTE5MNIB_gFBVV95cUxOcEdtVXJkREJmMTJuaEN6ZzFZMlJQa3htdVExYU9kelB1NkJlcG80OUhwRjBwUTc2dzQxemQwRllsM2tOWlpIMmhJM2xuNmwycmR5bUk2Z3BzcnNELVg0dTZUVWNjRHhVVkpxa3RDa3dDRUJvVno1NExVRkNncDcwNlNzbDB1OS1aVnlyZmd0SGZRSVQ2VjItSDJZVjE3NllRcmtQaDVUOEg1U3hnaUFDWEFhbjl4Y0VxMjhmX1FTTmtha0o2NGhSaDJvSHJTanBLZmYtUjUwS0UwazBqTVE0cDZGR0p0VlN0TVdGVEkxTU9VenFNNk1VdWIzaVFJZw?oc=5</t>
+  </si>
+  <si>
+    <t>Jefe de seguridad de Hidrandina desató balacera y se quitó la vida tras ser despedido: reportan tres heridos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxPRTZPVGFWTmFIR3VwVmRJeksyVm93MmNVYjFKNkZvN3duQmtFbjh3Sk8tTi05d2l5cHAxWHNuRFd5TzZCYkZVRDdmM1YxU2xOM1llZ2pscU9Gd1pGR19OVHp6SXh4ZUZQemNVT1gySWFSYlIwZndkcDRiWk1KakpTZy1tUW9NZ2ZFNEVNVll6TnFRbi1uR2FCNFRXX0NUdVBfcmE1NEZPNm5yRkdxT21ZbEdVNVVkX1o2ek5oS2VqR1NQRXdUeDhFUTB2c2Z2VmowS2I4UG1hNEdfd3U4dk5NR0czVENEQUpKSXVv0gGGAkFVX3lxTE81Mmlyck43YW5MeTgwVHc0dGRDODRwTGJCcFcxdi1CLVV1RkNBRWhINERJUEhVeVFJNXJZWXBEZVBOdnQtODF1SHM4MmI4eDZzcENLUDU5VWtvVlBRRlhLLVF5Zk5lc01lZkFDZTNodEE3RFR6TlAxVjczQTA1TGtaRnNveFpqZjRFcTFNMUZOSTdCRGFiQl9WTi1uZjVrYXJMY0k1TG9qMURDa0dfRkoyZVB4VE9PaVJGOUc2OXVDVS1EdFl5X2t4STVCeHFYWjRaakYzRGRfZGswbS1oREc0SnU1RzkyWWxDRHRfdHZFcUVWOUJ0WWtBNkZkYTFWZk1nRXJtbnc?oc=5</t>
+  </si>
+  <si>
+    <t>"La guerra en Ucrania sigue siendo la mayor amenaza mundial para la seguridad nuclear", advierte el OIEA</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6gFBVV95cUxNeFc1QXVsWEVhRlRhUDhpM3gyLXkwZVYyREl6Tk94TGNrRnlyaUVkdzJqRC1UNGZqOW5jal8zVFhnNl9fbFo1QjZ1T0luQ1lEOGp1N2hfRlFJanFDOGFtMmRwR2IxWjJBT1BpWTVsQmlLTVgxYTJCRUJtS2FnMzV2VU81VklJblJYeUJnTllJaFZNQmNtdlQxZTJodDB5V3RUZ3NrTXNWVWlMZ1N6SEZ1Q2RNdkNZZFNvemhIVXcwVEh4c3pab01RNnExYmIxT2Y0b3FBMDJwVlRjSmNYOTRIazA4eGl6U3dHbmfSAYQCQVVfeXFMUGppSEJlN1NOa2JQLVlQdzdqVkZQNmpmdTdDNURXYl84RmQ2MmF2RmpRZFNBSHVpd0NBYWlOb2hSb0tOem5iNmNCQmQtUnZZV2V6YXNLNEtVOHNRcTNQNXd4MTRadnVqNnJZdkphVkpVVFhEQkxPbzI1MWdQWjhhLWNrTDNldlF5Rl84VkFMblJ6MXJNTkpOamdpRW8zdGlZNFh4U2dWcmMwX1I1WnFXR0pmZnh6QkpqUXRnM1JmVl9ISW9nbUNOdUFldWpuYlh4blNsNkFLX1pSbGY0RXNEcXg5d2N3YnAxMllIc2FEd0hXRUhmOHhDVHZ5OXNSSHR0TzVhV2E?oc=5</t>
+  </si>
+  <si>
+    <t>Federico Gutiérrez denunció que grupos delincuenciales de Medellín prestan seguridad y logística a capos de bandas criminales a nivel internacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinAJBVV95cUxPSWZMb0QybjdWR3Z2bmViMmQ3LVdIUlg0MEdBUDZKQzRyeXp6M1JiTTNUSk92MDBYSVJGZXpCVlI3Qno4YVFEVGtsOHo1NlpBeXhabXlOd0dlMkthbWJURGNrZE5lUWZBRmNRNnROcDYyRkdYcEYwX3IySk00amZ6NG80MXM0V0lKNFFsd2NvUndzMy1nWjhyMHFtOHhiV21jR3JJYjlkMVp4VlRGeXhuQTA4SE55cHRlWFRHVHQ3SkZrejY2dHFTSFNJYVgyTTVuSDU0azRBODZhR2JaclhvczZ4VEJzdjZkdzZMMzMxWFNOTTFyaG5DZlNKV21SaDUwSnd4VVJiaHR3OUZnZThYZk96cmxjZW9oWktBb9IBtwJBVV95cUxNY2FPSW1CclpjU1djYXdPODBVVlI0UWQtcVpMeTdXMmlMRGZwXzlFcmFDOEpUUXlMNlFoTGJqM1BVTFd3RmEzM0c5Tk1maFNQMXhOSnJhNEFsM0UtVWZqa1cxd2VZODRxbUFIS08tZFZJaG9FbTk4dUxhRzZZSE5PdXlvRjRES3pUZ2tFeDA2MjluUnFwVG9WaFZKUXhhOGxqZ01UTWZtTDlCeldBQVM2bzRqS083Nmtkd0h4WU9NRXZZOXQzT055aGpqVlBvVWhsOXV1YlhXSEoxcS1sbVVySWdOR0h4T1h1OXRycTkzblZPb2lBVGVBNFF3RXhwdlNCVGxZd2ZvNmZDQkw0S0gwRV9wOC0zMUNrV1YtUjBzemNQdEg0aVFaXzJxdlk4RnotQXU2ZlhWSQ?oc=5</t>
+  </si>
+  <si>
+    <t>Hablan Rubio y De la Fuente sobre prioridades compartidas y seguridad regional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxQbDRvYnotcFhTUjVaek5WSnllWFV0di1wbDJSZWhlbUt1YzduT2dNR0FIeUJGdzQ1OGNSNzNDTnlrOFJGcW44ZTg3bTBWekVuaVkwbTlwQngxUWM2THRCZGE2dFZjTHdBLTZzS0t1Xzg4RE1Lcy1tMEk5dVhvOXpsN1lyWUUxNGYydDlTTFZDcG40ck1ja0RDbHhBS3dQR3BpMmd4eDVJWThycmkwQ2U4SWV2eWhzRGktdVdhU28zVl83a0pEZnc?oc=5</t>
+  </si>
+  <si>
+    <t>El Sol de México</t>
+  </si>
+  <si>
+    <t>Piden más seguridad durante la búsqueda de personas desaparecidas en SLP</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxPaUhxRldiZlhOWHoyNlVYNUowQUE4cmV6N3BfNGRoNjJTN1lzSHBfbk1EVmROb1lJV0EtaTlJSURvNjg0bEhJczFmdnNxR01BSm9CbVBCbHhfdjBmVEJwTFZwMTR6V0k5SF9UM1EyQU1rSXpSYXNkRUF4Y2JXdGV0WHJVYVl3bEdDQ2VHd3lUWm44bWw5SXhjamtLa204YlZmMHJPc1NpR3Q0NjBtR1VFZ3BRVTZtUE1LT3poaTBn?oc=5</t>
+  </si>
+  <si>
+    <t>Secretaría de Seguridad Pública de Pachuca despliega operativo Águila</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxOMFBnTzZpTEQ1U010UDVHYnFzWmhtc08wdjJ1VU9teFdIQ3RTU2k3UW90QUZnM21jUXJ2OExsZEVoMl81R0pmYWNabU1NdGJ4YTJDbmZvY2RKNllyUW11bVo3SjE5c24xdzJxbU5pVXRUQXdER2k2YWQySjl2ejhjdjg5SGdDTExnanZCMXRISUJva3d2UWVwMFRQbmpDWF9oR2VBdWw1TFY1QXNyYWlwajJfQjVkdnlpNXc?oc=5</t>
+  </si>
+  <si>
+    <t>Universidad de la Academia Metropolitana de Seguridad: 188 elementos se profesionalizan en Derecho y Ciberseguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNREtpZHlxR1Y4NHdCV1ZUX05pTFZ0WVUxSXlsWWRoa0Q1MHlWODFtOGotTVk5cWhLZHF1TVpjRGZ2NUVzR2NlSXlPUGk0VTdwdmlLUUJNcW50dUdnLTkwcl9VaExoZHBjVG1HX3BESFAzUmM1bW55VXVOdVU2S1BfY3pZRlpaR3hqb2JSaGtjMnpPU0VRVC11RHB6RlVrOWZkX1BEakxldktETUZaTXdWMWRCYWZobzVWbkxmTGRKcW5wVUhrMjY1SzJzMFNSMDAz?oc=5</t>
+  </si>
+  <si>
+    <t>Marco Rubio y Juan Ramón de la Fuente hablan sobre agenda en común y seguridad regional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxQOU9sY1NKdXd2M2NKMWJINnpxS3RBRElQeUtOQVliNFY4VUlFZkcyT0UzVjdvemRrUkxmZDZZUm41bGxqdkdTTXo3djA1eDhyU0hUOElXTFlQVDZKQTNZZkZ4bW5nRDBVMTZia0NXTThjYmVadjVoMmdHRUptMExQU2RpOVBUcE5kU3U3UFRPN0FUN1djQXRmOXR1ZmhDb1lVZzFHdFRNSndDeUdNRmpyYXo2cmlrYTREQ3p2UzNfX1NBb3NXZTh5Qjg5YlRFbDRaZ1p6Yk9aYlnSAdgBQVVfeXFMUDlPbGNTSnV3djNjSjFiSDZ6cUt0QURJUHlLTkFZYjRWOFVJRWZHMk9FM1Y3b3pka1JMZmQ2WVJuNWxsanZHU016N3YwNXg4clNIVDhJV0xZUFQ2SkEzWWZGeG1uZ0QwVTE2YmtDV004Y2JlWnY1aDJnR0VKbTBMUFNkaTlQVHBOZFN1N1BUTzdBVDdXY0F0Zjl0dWZoQ29ZVWcxR3RUTUp3Q3lHTUZqcmF6NnJpa2E0REN6dlMzX19TQW9zV2U4eUI4OWJURWw0WmdaemJPWmJZ?oc=5</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Julia Abarca: “Los empleados valoran cada vez más contar con herramientas que les aporten seguridad y reduzcan la incertidumbre”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilAJBVV95cUxQUUwzankwbmFncWJPd1RrZXVrbW5oZ01qSGpzdjFMemNYR2c4WU9kQ0tvU1lMYV9UUTFVdjJ4QUhfYkN0bnFUeVNFZ0RQbk1oYjVCb1dTTHlydnhkSWRpT1I5R1lnRlMxemlabXprOXppYUtZM0U0Z1BGSXdGOUZrZl83TnA1TWt5ZldzR0NTYWZXX0N6OFJBNDN3TDVwUTN2VjQtam94N0RNQ0xQMFBobUttYmVid0dVUTFLZGdzNjJ5cTJPUU80SVVRVnNwOFRLOHZjM2hzUm1NNTB0Q3dyZUZNTXlLT3lnMHF5cXlKMUF0RzBXc0lEVGRZTDdwY25aWkdnN21KZ3h4SDJyU29SM1MyVGHSAagCQVVfeXFMTzhaX2hCRHlsd01HMWpXamc4cml1NDk2Qi04ak9DOFMwWFVqbEtsLWNfTE5ZeHY5ZzBLbjh3N1lHLThKZ2VzQmltLTJXV1ZfdjdGdVFlUGNzSjJYX1FTYTk2MG1YcHBPR1pMN1pSZVc4eWkzbjU0WTZJVzlWRF96cFBTMThCTk1HMS01Z2tBSVctODNhRE9TeVN3dUJYQ3M3SjJQeWdpaGdCYUljdzVSTjBjQXd6Qkt2NHRNS3p6ZC1icmI3aWxRMmxUZmZEbU1BU3JPLWZBSEVUSTdRZC00WUZiS3JTUGt0Q3ZnVE9ERzBZUUdwWXQ3MFdCVU1mSDF2NW1razdLN0t2cmwwQkRULXlNLW9ybk9UTWtuaExMTUJZbGNOcy1ORmQ?oc=5</t>
+  </si>
+  <si>
+    <t>EL PAÍS</t>
+  </si>
+  <si>
+    <t>Nuevo León integra RapidSOS a su C5 para reforzar la seguridad rumbo al Mundial 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxNYTJQWUVPa3g2RzN4aGY4MUh0ajYxZS1Dd0R6Q0NsR05UaExYTWlPbjc0UWsxQUs5cGh6ZWRjLXZQM19lZktrQlozcWFpVHRYSi1Lc2UxdTZ5ZzhXTzdIeFJSLXJyNjlKUWVGNW94bEl4RGYyeTNxSFFLa3A0M01HZ2ZGWHFWWGtJZUpYN2ZHMlRrMHJ4bGIzQjVTLXdXYVNHYXZCWjNlNlZMcllYUkFnd2ZZWjYzNWpOaENTNV9tLTdMbzRrYklJWDU2QlhZbldJU2NzZXpn0gHWAUFVX3lxTE1hMlBZRU9reDZHM3hoZjgxSHRqNjFlLUN3RHpDQ2xHTlRoTFhNaU9uNzRRazFBSzlwaHplZGMtdlAzX2VmS2tCWjNxYWlUdFhKLUtzZTF1NnlnOFdPN0h4UlItcnI2OUpRZUY1b3hsSXhEZjJ5M3FIUUtrcDQzTUdnZkZYcVZYa0llSlg3ZkcyVGswcnhsYjNCNVMtd1dhU0dhdkJaM2U2VkxyWVhSQWd3ZllaNjM1ak5oQ1M1X20tN0xvNGtiSUlYNTZCWFluV0lTY3Nlemc?oc=5</t>
+  </si>
+  <si>
+    <t>MVS Noticias</t>
+  </si>
+  <si>
+    <t>Aprueba Senado de EU financiamiento del gobierno y prórroga temporal para Seguridad Nacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxNNjlscm5UYkxwZHJMbjBmOGZYVGljOWJyb0F2bzVFT2pnUU5tVE1PWVlLVHQ4VkxHUFBaVXRVTW1xaDNreVRhbk5CeEVTV0xNbU5kVmZPTE5DX1Y4TEVvaFkwRHhfMDlkVnpGUFlzNVlvNE5wS2wzWFluSW9wVGhuVnNraUhJRWxabVVHS0JRc1RQeEpMbTFhM0tGXzBHWGotMHlmTEdoYWUtWXpNYjZHcFpsd05vcjJ4T0F4cF9FZ2Y1ajB0YUcwN05tYl81YUtkUUdTQmRoSEpHcFV1QlNDcQ?oc=5</t>
+  </si>
+  <si>
+    <t>La inseguridad que no cabe en una mañanera</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxPWkVlalpGTWhxZk9RZEVmWkJ0eWtBZXJIQm9zSWxTMDFtdGVmZlNpWXZUdGpwWFBYZzN2OVNHZEhpbVNvb0VzQVdVRDRsLTFwa0hxVmJfcDFjbXZsaEpqYUNhMVRoYm5raENYSUlZbHB1LTRod19nc1BHQTd6T0RpUzVoNjVmTkVCZFo2OEljU3pnMTEwUFlUSXNFYU5mZHVIWF9Qd0pIeG9VZHPSAasBQVVfeXFMT0VOYUdTWDk1OUpEN2dFcnFTMFRuVjNEZ2wzeXl5SWlCbVBMd3dWVjdCampwTm5odUROdHZyQXdVQ0drZzFtbFhVVmtDSW5NUFVzZm1BQnYtWXBVeW4xWDhBTmFUVnVJUXNEVnhrVnItUWxhR0VjSFd3ZVB2UUgycGI5VkRJQ1hIQnNpZ002MFhBZVEwTkIzRzNzRmdvUzlRYkVhNU5oQkYzY29N?oc=5</t>
+  </si>
+  <si>
+    <t>Nuevo León colabora con RapidSOS para seguridad del Mundial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPNmhXRko4LW5ocVJFZ0MwTXRCaVZMRl9aUjNTdDBvcDNoenFlbE8yeGNxWDlwSEI2YjV3aWlhdjVEUjRYMEYwbzNqN29ielN5NW5HRnNNMEQwNnRnR3F6Y2FFcEpadThlQmQxcVFHZlRscWVsVV9QWTRJSVI0bUYtZTZCN2dydTBXb290U3BKWVc1V2VJRVk00gGXAUFVX3lxTFBxQkNBZEhTOTI1TDNweGhZWGZQZDJEbXRMSG1JTU9hU1BYWWllNUo3RG81N0V3Nm1ucDdHeURHS1IzemJHd2JWZVExQV9DVTBtZUxULUxBM0lGMG1zRHhZLWp6cTRKLVFwellaNDZleENtbmFCZXIwc2REb1ZsS2pFRFJsUURKY3NiZWZyVUM0VDFpTV8yb1E?oc=5</t>
+  </si>
+  <si>
+    <t>Operativo de seguridad Cancún desarticulan grupo criminal Sinaloa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimwFBVV95cUxOQ2xrMzFCYkFwTTVsaHVJNnQtcjI5MHRNWDlUdTNnejlVN0VENWhXWk53TTcxZWxUZGlRSnBSQmNPWndiRkVXQk5aSXk3V3R3UEZ6XzROV25FZmpFQnFrWmpPdHBtYXRQU2l6Tm1VX3MtOTVLNWY2U0QzcWk2YkxVX0NLc0tnNktaX2VNVkU1MkhMNG4tODlva0p1SdIBmwFBVV95cUxNaVY0YldlOHhETTVKa3RJYVBiT1dzWVJjV1UxUDdfX1VKQXhLT1owbk5wM0VhNWVrM3V3LXBEeVRIODA1VjZOeHY2dFRXcUpHV1hfNHNMSEFfeXNVa0s2blN6b2RiVmt0Z2lqWFpzY2NYMG1SU09ROGFUWC1tYU9vMHRqbW5RYzR6LTlNbDhoQ2ZZbFdSNWY2anZTUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Serie del Caribe 2026: Alistan operativo de seguridad en Zapopan</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxORlZJVFBJb21WVnNFQ0dfcU9hU0FwV0F3NjhEVWF2UTF6X1g0UWpxRzRqU0g4UjRZYllLTnZpdFFodUU4aV96ODEtQWk4NGU5aGhQU3VrQ3JkX2VWU21iWGNOTHUtNjI5dElGMHFnSHRjQ3J0dV9INFgtV0w2R3hvUjJTQVExN2xhTTUyTXNNbS0wanRRVTNrRF9BTUUyanlLMWtEOVJ5WDJmUGxxRlFHNlRqdjVaRVXSAbwBQVVfeXFMTjBoVnFPWElqRWotUDR0WjRNWlh3ZWVqUkhBWllkeE16NGlKTElXUjdlT0F0c0wwVmVDWkpXckxiR3RYM2VGOHFURFRpTGtnYUMxeVNLVWNUQkxzclhCY0ljSmJNSFlCLTFvV2J2VXdoSE40RHhqbWg2YlpnRExyVC1QTW9wdzhtUmI4bFlfS053Z0x2bDVLLS1YQ0ZvTmtMZUFtemRIbWdfVjc5NFFRT0tydVl0TGJfcjdpckM?oc=5</t>
+  </si>
+  <si>
+    <t>El Informador</t>
+  </si>
+  <si>
+    <t>Seguridad en Jalisco: Policía de Guadalajara detiene a diez personas por portación de armas en cuatro colonias distintas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxPLWhuUm91Q3VmS19IeURnYVVobUlSQnA0ZmhwcGJaT0dnek5WaU5QRnpGOHNjVXJiOWtfOUlqXzBqYmhZR0IwdXN1UFhuc0ZIOUlTdW02RVlKLUZ4NWF1X2FacGJtZWpZNzRkSjRJMVRxSHdrdXZDaXJHM1MzS2NwNVNiMUJydG1xb0VucDNCdjVpZGQ1NHNVMVRlTUlHajRIX3BwVDhiOXFFNmNycDR4LTExUmV6RUI0VnAwRWdNT1htcmZBYlNtY01KYThFY3hsYVlGRDFFeWNBWXZucFJZNF90dElMNEJGZEd5cGZNZlRMVFpDVWVjcTdaUkprWTdOTWfSAYcCQVVfeXFMT21rUWMzS09oeXVRc2xJYVM1YzVZQTFsWC1OcUt3dVAyZUxsY1VLY1hqc21RUEw5ZkNFRm1TaGE4SkROdUpfbTlYT2FqSkRucG1sZkJOTFBRenVGemVLUmxVQmlQX1VCWkpUQXd5cTBpTFc5MTljUkpLZ05mTGNYbUtZbDBybEZzbXliUXVXSjdxbXlidW9qTW1wS0MwYUlKSmpObmtSdWlHbzJWcHJRS0hKbERyMnk4TkhDNDdqN1RiZ3pyb1MwN29yYUhGQzVudXhSNHdMSG1qYXBvQnV3Rkg5bDdxcTQ2UnVrRTloX0RNLWxlZk83NDdiMUdpVmc3WGJwU1dDRm8?oc=5</t>
+  </si>
+  <si>
+    <t>México refuerza seguridad y controles en la frontera ante estado de sitio en Guatemala</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxQZUswVlNTRE1FT1JkMGpKREEwT2xoem1Pb0piYkhpZ0tTQ1F6dlpUUFJHRmpEelN2UDBLbjFXWjFheGtfZGRpdEwxemQ1SEYyaXBXdTNRZWVKQ2x0T3lHcnVFYU1LaU00eEJpQWZUVzFVbG95dFk1cV81MEJyeHJUNHAwb21BaEZmMlhCTVh0QmJGMGFKRkxla3hMRjRNNlh6LVJ5ZHJjdWxtbGtEdWF5VUNiV0ZNbFBPRk1tYm93Q2Z5Y2RaWTMxcDVYaU5PMjE4eFhQd9IB2gFBVV95cUxOei1YOTdOcnRaVlhYcEVHLTJKUy0xMkZKbzd5TUNnRXJHb2tLdGc2eXZUSURLZTlidDUzY1VjM2Jyc2dKT2ZZZGs2bEFVcnlQS1ZsVDlfd2NkNzI0NEFRTHFtWThaUmJ2Z2VjZVlOQnNNWF81VG56dDI3M1o0Sm9KN1luOXdET25IeVlyUldoR0NoNkZFcmkzaTJ1X205QkE1VExJS2VaSHcwcTBfUTJxM0ZMQl9CeWpUMkwxd2lzaWRHX3RwTGhHRW5ZdGNOcmdZYXphTkxuYk5ZZw?oc=5</t>
+  </si>
+  <si>
+    <t>Sheinbaum alerta de que los aranceles de Trump pueden crear una "crisis humanitaria de gran alcance" en Cuba</t>
+  </si>
+  <si>
+    <t>agenda nacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxPMzZlWDZoM3hwMWJFODZrVUVma2FJUWtBRnZVYVgwM0ZaeWJXTFE2cklZZFVHdVNDVW5RbEJZb2EwVUxMN0FXZU9jX0Z0NERBOTVwOEkyUkFkR2M5dW9LdUJxNDNGbGhKMW11Tnc2S3liMWZrVVdrelBFWTdZa2wwVmdWeHNBZFQwTEZUaFVYaVFzTmswbWk5SWJNMWdQRTMxREhRX2VJSXpJYnpPVXg5cEFXTzhRdS1IUTdIWktVNGRUUndpOUpXa3ZxSDFQdFZXamJteEVRdWZ1MS0zdEVTWWJ1dGRXT3ZPUzdR0gHwAUFVX3lxTFBwSll1c1dFMlZ1dXNvcTlhbElBQ1lwbzlOdlByb1FzcXpwUWxJYnBMWXpKZU9uOUhpbTl5WkVlby01U2FHa1pIWUg2LVdCd2FIdEdoVTZoQXQwSlRaQm9CaF83dDdWRXlRazFHXzBwRC02V0VaUkFzSF9oWVo5OHp5SEdldkxUeXBXdVdCakUyYkpzbFRIb1VJUlRYTTRTWFJwSDU1U0J0TXNvVGhGQy1MRU11TlczN3AwSHloU01RTGJxSGR5b3g4U3pkQW9SWDRSVW0yZzdzeVRNZjRYUUg3TklLSEZLbXlYZWRYOWJlZg?oc=5</t>
+  </si>
+  <si>
+    <t>Diario Red</t>
+  </si>
+  <si>
+    <t>Boxeador Ryan García dice que retira su apoyo a Donald Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxPQVlMc0pEdEhNSTc0eWY1SEI0MGk0VFozMW9mRlkwUkNiUnJQNWlneHJRbGJrNXowR0prSUFZWEsxbU5wc0FtRWNUTjNOcE1zUFJIX3puVVpwN2NvSVVvUVVhVzdUbkp0cVluNldkUW9XN3NZaUNQdFJXT2lpa19iLUc5ZXcxZnBoSkxpcWtoYXVYS3A3RFJmTTB0M1N6ckQ2cTdN?oc=5</t>
+  </si>
+  <si>
+    <t>Los Angeles Times</t>
+  </si>
+  <si>
+    <t>Trump aparece al menos 3 mil veces en el último lote de los archivos Epstein</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQQmk4Mkl1S211MW8zcTNRNVNsWk82ZHM4Ymt4MXF1OHA5R0haZlRrdUFCcGRtak1ObVc4bllMMURhbk82S2tCNEpPZ0YtMHhjb2o2QmxuM21zWWNYV2NFcVhJbjc2MVdlZkk5bm1tMktHWlNXMFgwX1pNYWRQQV9DeGE3LTc2V1oxNDU5R2ZsVjRUSlBYQ05tZ3ZfNExjdXhnWmFkUGtQRHk5cmFiVWVIRFNTcGkwOWJWQXQyVjdTbl9VUF9PRjlZ?oc=5</t>
+  </si>
+  <si>
+    <t>Sheinbaum inaugurará carretera Bavispe – Nuevo Casas Grandes</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxQeGdYR1ZjeVZZRjRQN3EwamFZbHBoc21qRHBmLWpfVkRPMVB5TVEyUlViTy10T0JmZUczVnBxY3lZYXBSa2ZVMlA0QzB1QTRLdjUxa0hIRHRZanRnMEdMX2wwUmt3YUM4VVE2RXA2c2ZQMlpqTGNIZ1k3UDRFclE1d2g2Y0U2eGNZbm0wZkhieHF1ZF9TdURDb3NEYmFQbnhJNzhrR2N2NzNfTklWUzhUMGx4MWhReUlzMDh1elZianFPSTFUME9CM09uMGNaN2I4UU1iR3U2LVRmUQ?oc=5</t>
+  </si>
+  <si>
+    <t>IMER Noticias</t>
+  </si>
+  <si>
+    <t>¿Qué revelan 3 millones de nuevos documentos sobre los vínculos de Trump con Jeffrey Epstein?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxQajNzLVBDbUQzY0xWZ2IySEEzUlZBVEtjQ3ZRNDlqUVAtOEdUNTNDRzh4Y09XbkJ5UjViUWFkUmxVU3Z4ak9peVBXakJxSmktWEt6NWZjYTlzSVN6OXJmSUM4aTV5OERaYm43TnpTUDVqZGhfUTQyeUVTNHJiWnNvSVN1MXg4OHVsc1JzSWl4Nm1HUQ?oc=5</t>
+  </si>
+  <si>
+    <t>CNN en Español</t>
+  </si>
+  <si>
+    <t>Sheinbaum formaliza Plan de Justicia para trabajadores agrícolas de San Quintín</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxPbFJUeUo4R1lpSS1JYkZQeWJWRllfZmQxdkgweDJGWUYyRWFiTHFvRGZfVF9Wd0JXeW41NFVrazJvQ3JkQ0FQY0gxZVZzTHViWkRHTWFnX1JYOUlzMnZrTzlLalJsUEltbk5QYTRzNHh0LUtxV2dEMUY1b2VNMUN6NVNmNW9YT3Q3MklEVG5LV1lkV2NVa3l0SHJSTGVfbEkxSEFNXzVfRTJqbDg?oc=5</t>
+  </si>
+  <si>
+    <t>masnoticias.mx</t>
+  </si>
+  <si>
+    <t>Trump afirma que Irán "está hablando" con Estados Unidos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxQbU9ZdlJINzRqUUJsMGJldExya1pjdlhsdE1nZllxMWFCakV1TXFVcHhYbUdwV0lyZU50ZEUxRHViRzRqcHNFU3dwenFUMlhiQ05wdFpLSFVHd2pndjFac2JTOTNfS1kxT2lwSFFiaWk5c3NhWU1RaTRRd0NOS1hROEp6S2toRm0yVVpTT1VEREQwYmpKTjAzbVVWcTdtUdIBngFBVV95cUxNc2l6cTFFM1JSdFZkaGVNNElKdElPZldKWWlnb0JSR0pXTGMyVUlVMlRObXF4ZFp1T2xkU19HYlRnYnMwR0hPTVlBbE5yNjVQUVJydFJkaUx4RGZPMUNvQUJMaHZYWlRDa1R4Z3ZDWXo1OWRHRl9sbE55VHFBRFRDTmdBaUZxWThnZGp2ZjNyUkJPUU1BV1Axc05MLXkxQQ?oc=5</t>
+  </si>
+  <si>
+    <t>dw.com</t>
+  </si>
+  <si>
+    <t>Archivos Epstein: testigo del Cártel de Sinaloa vincula a Trump con fiestas sexuales en su campo de golf</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxQTV9BeWxLMHJoalozeTRaeDliblVsN19QQWk4dk05Mkd5SVZoUkZWeUdiazlXTzI4b294MzdLb3dBU1ZvUE13Y19ucG1uWnJ4c2R2TFM2ektPbXNvM3pKNlY1VThNdjJNTmk1bzdzTEJWUHA1STZjdm8yOHVTS0RHQVhCWjU3U2VDWF9lTmdhZmpUd3RFZEtlOFUtYWZSN0RqaUFtZ3o1TTQ2cHVKVFNsZHVYQTVTWTlVYXcwVS1IbXZ4SjVZX29OZTJDYnJ3Unh4SUI5U090ZzNxem5ab1HSAd4BQVVfeXFMUE1fQXlsSzByaGpaM3k0Wng5Ym5VbDdfUEFpOHZNOTJHeUlWaFJGVnlHYms5V08yOG9veDM3S293QVNWb1BNd2NfbnBtblpyeHNkdkxTNnpLT21zbzN6SjZWNVU4TXYyTU5pNW83c0xCVlBwNUk2Y3ZvMjh1U0tER0FYQlo1N1NlQ1hfZU5nYWZqVHd0RWRLZThVLWFmUjdEamlBbWd6NU00NnB1SlRTbGR1WEE1U1k5VWF3MFUtSG12eEo1WV9vTmUyQ2Jyd1J4eElCOVNPdGczcXpuWm9R?oc=5</t>
+  </si>
+  <si>
+    <t>Resumen de ‘Melania’, el documental sobre la primera dama de Estados Unidos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxNUEdKSEJaeDZnNzl5Y0Z5RXJHb0x3MnBKb3hBZ0UxSVRZS3RqUjhPWTJhMUY4SUFwc2k1OFFiVFEzRU9IdW5tMHNmeEVMY3pVMHZOcW12VGxpN3R5VXJSbWRsSFlsZHEtUFJncHpZZ3NrOFRPczJyUURHLUVUTkdqckJMdFEtNk02NXNFNE1vMzRlUXNnM3NYbQ?oc=5</t>
+  </si>
+  <si>
+    <t>The New York Times</t>
+  </si>
+  <si>
+    <t>Trump aplicará aranceles a países que vendan petróleo a Cuba</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxPRFA3WW5PTW1uajlVbkR1NmxLUFlfZk1NcjJLZmxoRnljWU0yVzhUQ3V2MVplT1FYNlpsZlVVQ1luM0R4dnNWT1F0aDJtakpKYVlteUtSZ3VfdHg3UzNyTTh3UUJSeTdlQ1dmTFhKRDJwRGI1UmFmekwwMFhCYnRqRHMxdmdNbnZKRU5saFFuSmduZDNMNm9KSWl5azFpNHZWendkblJuUTY2V2lf0gGsAUFVX3lxTE01ZVVTMkxKNTR6VG4xRVduWXVselMxVk1OR1VrU1JuTF9rUmtDM25mNGNsaGZLRUF3OGxBbGpIRmVGSVV2Zm1uTkdZRzRVVmg2SnJva1dUamgxd3hreERmX2hrenA5Y3RQNXBJdGFvQVg0VXQwVlhXNFFiY0NXRVA5TDV1VWh5ZzhSYU45MjFzcUVHNkcwdlRCSktXOUdldHVDZGdwTnZzOVMySWI?oc=5</t>
+  </si>
+  <si>
+    <t>Trump ordena a agentes federales mantenerse al margen de protestas por migración</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxPNmhFRlNLMGdDRHZPdGY1aldsZXJkRWdrbkF2NXAza3EwaEIwdXFBUE13RnlEbVR3M21iNy1BTTZ0Ykl1UTFiM1MyZm9HdGR0Y3BxUWV2bXphX1RFa3hCX1pweW1GSllrZzlKVXQ1TEk0VXdEOVVTVFBwZnNsTGd0ZkU1cGxwTWNlLVpqU29ObXUwQzB0VWVWYWFhTjh3ZFk5T3R6YnN6UGZVb1pqVkJOUmlMajQyLUJwS2RTa1VLTkFuSWFBZVRoX212MFVsUlJWYUVER1BYYjFYN2Zqa1kyTVFuRGEyVjlMNmpDMVh5aXpkdw?oc=5</t>
+  </si>
+  <si>
+    <t>Trump dice que Irán "está hablando" con EU ante amenaza de ataques militares</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPZ1NkeE13S2lZU3o5czhWOFVsQ0VHaVdnYmNfUXBaTDViQ1poaUZ2UVNKelF2WFVLX0hqNzMxY3F1LW9TR3FNU1N3TUxueUZoTTdDbV9iZWRhLXpCS2hfV2dJalg1bFRxdjd3S2JJajRSclo4SnJKWUdLVnI5QUdoMUNZWDhWOHNvSUNPSkNubEd3RnJSallJ?oc=5</t>
+  </si>
+  <si>
+    <t>5 revelaciones de los millones de archivos Epstein que acaban de salir a la luz</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE85cW9ESWNHQ2cwa0MyNkJuYmtLUXZuZ3ZtSXhSMWJVd3lTdVByTnlsX3dwZEgwY29aTlR3TTFDSEFudi0weWNLNTRSUVN0ZEczZThNRWVFQVNFN2vSAWBBVV95cUxQR3MzZE9jV2pNbHBiWFlmR0FsQmFPSlVMNkJUd25yanFpWk1kV3dZOVRnbVZna2RBWVMyejJHZE5QdmRfYlNRclpPc0xnUWlYdTlMTzZsQXJDdldHMGtfcG0?oc=5</t>
+  </si>
+  <si>
+    <t>BBC</t>
+  </si>
+  <si>
     <t>Trabajos de repavimentación provocan fuga de gas natural en Coacalco</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxPSFZaOFkzUkZEQzBMd050MzdUSEtMQnkzN1dOeThQSy12eEoybEZ5ajZObG9DQlhsdzg2YTFqZzFUSFU5b05KaG5PQXNzZXJ1LWpGSlBSNkNqTkRla0xZSnhQOU9lZlhWOHBsRmUtZVYwdzM4M25PRDNhY3E2bUhVUVN0dE1Fc0lZZS1pTE5SMzN1aUc1V3BiTXJoTlNDdW8tVWk2Y3M5UFpwUHh6elJaMHlSX3NDUkJDdDNjeC03OGVWRzlVRGQtb2MwLVFOaWdj?oc=5</t>
   </si>
   <si>
-    <t>El Sol de México</t>
-  </si>
-  <si>
-    <t>PC de Coacalco controla fuga de gas tras perforación accidental de tubo; desalojan 60 familias</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxOcnlESUdDN2NzNzg2V1lySVdwVUQ2LWo5STZUaVltbTRZcEFlYWNpSlg0RlpRS0xKRFNlbFZxUFVJM2RPckpWcnVxOWdDdzdzaEtJQnBMLWxlVHZMZENFdk1FeHFqX0tBY20zM0FaUm5IQVkzTEFUQ3hLRF9Id1BsUTE2cm1EQlpxNG1YTlllX3NkS1hpTERmUU9odjlHajFVSFBfVDJMRWhUbUZEU3RUTjhEZnlhYmF4TXdueW9rNEtTMFZfTmxMMXVGQTlDQm5seUR4Yzc3aGJKTVNTUFpVZw?oc=5</t>
-  </si>
-  <si>
-    <t>La Jornada</t>
-  </si>
-  <si>
-    <t>Mueren subdirector de Protección Civil de Naucalpan y su esposa por presunta inhalación de gas</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxNczdaZldFcEVjODd4T2JvOVZ5UTlzbEc3VEd2a2x3ODZqNnUyRXo3ekc1SktmTmpYZW1WSGcxYXRTUi1QVmdldlJtckFjOFhzZ3NQdlN4M2oycXptQkRjQVpLRXRsMEIzc3VXczcxMFd2WlduZVMtbzA0b3ZxSVFUb1A3Sm1pNTdkREZ2N1lvRWUzZG9IOHVEM3lPYXo1dzM1WW1naUtVbXprSWdmV3JEWnExY1phYUpDbF90VHEzT0FxdnFPU0tJZlA4cHk5d2NmVThYRmlkVng1ZVZXQnlFWm9R?oc=5</t>
-  </si>
-  <si>
-    <t>Estos serán los precios del gas LP del 1 al 7 de febrero en Puebla</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMidEFVX3lxTFBwVFpXdmY4Q1RBeVRZLTRfVzRjSGxkU2p4VDMzdl9yV1gwMmlfTWc2T0tKUkU2U21vOXVGXy1QaXYtMHRhd2VLNVk2VmJyb1JMY3pxSmdraDZxZTVkTFQ3SjlieXZFWG1CSzJpd21PTG9wTllU0gF0QVVfeXFMUF94LTBuZi05ZmxiQ1Z0M0hZa3NsQXBLRXBiQmZmTXBPVVZFd2kxZlpfbTVMWE90SHFpa0x6Z2RCY0FQYXpwaWVSanVwY2FoMm9mdzhsS19ETjVuZFlfSm9PTHlXUEpJQXgyWVBKNUdVTGRZNl8?oc=5</t>
-  </si>
-  <si>
-    <t>MILENIO</t>
-  </si>
-  <si>
-    <t>¿Más caro? Aquí los precios del gas LP en Jalisco del 1 al 7 de febrero</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxPeE5jRHV4eXBlYmpNQk1SZlptNFNFaVNyWS1fN0J3dUoyMUJaSE9ZbGpQZWR3bWpRc0RmNXJjdTBhM0ZpR1ZSSTA0aHVSQjk3S0twNHhlOC1PRFdURmdQNm1EQTFyWjRwRzRXR0Y3LXRFb09aakRfUy1JMmc4amt4RWtPV0dTQ2ln0gGIAUFVX3lxTE94TmNEdXh5cGViak1CTVJmWm00U0VpU3JZLV83Qnd1SjIxQlpIT1lsalBlZHdtalFzRGY1cmN1MGEzRmlHVlJJMDRodVJCOTdLS3A0eGU4LU9EV1RGZ1A2bURBMXJaNHBHNFdHRjctdEVvT1pqRF9TLUkyZzhqa3hFa09XR1NDaWc?oc=5</t>
-  </si>
-  <si>
-    <t>Muere adulta mayor tras explosión por acumulación de gas dentro de casa en Guadalupe</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPVDVTeFlPV2xxWnR6TFFfQktSVTF2MDlmVHJwaUhtby1PODE5NXk4OUFkOUpfZW9LbGJSQ2hIcnlUMUJWdWg3RmdQYmtxOW1UNHU1WU4zYU0yX2hYMEpMVU1qSzR3MkpUSko0eEdENU5NQi1CRXdzMl8yemd0eFZOZlNfVEFQSWkwZlhtaERpMnpLQ3FvM2NV0gGXAUFVX3lxTE42QklrNlE4TTEyWTNoRFNQMzBPOVpXQkRmNXhhcEI0dE1ieUpXMng1cktoQU5hWGlTVkZEYkpiNkFPZDU3WFJ5MTBTcENjTHFETXhlMWUyNGhVQzNGX1dOaElVNDQxMDNTQmlQdWVuRlEyWHpndTZkdnMyQ01wV1B6R190aE5uUGc3S0V5dDZoRVlyQktRSUU?oc=5</t>
-  </si>
-  <si>
-    <t>¿Cómo tramitar el cambio de placas a Edomex para obtener el subsidio del 100% en impuestos vehiculares? | PASO A PASO</t>
-  </si>
-  <si>
-    <t>impuesto</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi_wFBVV95cUxOMWNJQ2NDY1VPeldHVFV6YTRnWnhnYjhXVWVqTWxwYWo3bDNITlN6X2ZsUnNYTVJZY0VfVjRuT0tlSTl6Q1Y4R1dPVW9qSjR5Nkc1NnkxT1FXLVpfU2VlY3UzWGx0dTRuUWp5c3NRU2I4bm5oWDJvbG9ZamRVRnBJSWh2NUwwOV96TnUtbGZ1S2s0ci0wRVBILTAzNGtRbWlWNk02c1lsMkRoWkpGbVpwNDJnU0VQS3h3OUUxaXNkN183QXM5b2NIMnh1LWpRUUZ5STY3Wm90R1RHWF9nREZtYlNmaWk4RW1YSmxtb0dwNERFalRxSmVDRFVpdGFLUlHSAYQCQVVfeXFMUDZDYXIzdlJpei1qYkdGeWoxY3c0Z0xENDdzdHA2QzEtY3EzOXc1Ulk4NUh6V0xTd2tUQzVqTG9NSEZNdHNEWGZBaHB3eDNyUFUxSjBnUVVLUlBFWnRocEtqZFNRUTdoVkxaWlprZFp3TGw0bnpORUtTaGRqeXd0T1RST0U1eElsbGZxUkl0U081Vm5aNVE0cnhJVXBYUE1CRTBCeG51MS15RmFxU3p3Y1g0YTdCQk9ucHo0c3hqenRETUpfQmtsZzhnUExCcGtBQWlqbGJyaEZlREEzWDNJVXZUcl82RUFURTZ0U2plY3RVOEJlakwzbkRWdUIwcXhwLVk0Y2U?oc=5</t>
-  </si>
-  <si>
-    <t>MVS Noticias</t>
-  </si>
-  <si>
-    <t>Los países bálticos aprueban un área de movilidad militar para facilitar el paso transfronterizo de sus ejércitos</t>
-  </si>
-  <si>
-    <t>movilidad</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi-gFBVV95cUxOUUtiQ3U0VHlWTzBaY3NpeTU1Skowemt6aDR1R21iUU5wTlk0ZDNEYjZSeUZ5UVRtaV8ta2RHckJscmFNeWRRM0Y2SG5OVTliY0c1Y0wzTm9zekd2TnBHY0ozRUMtSEFEMmlHZ2k3LUJLR1ljUWN3Z1NaVm1ZRnQ0aHA4R1VWakRPUUt3T1F0dlVfRUFxLXF0eGkwdWNmR0RyeHM1dlFsYjJtQUV4SHdqWHdWVXlKVUdoZGZ0aXhWTWJJWk5YVV9sZmQtRWJOSXIyWmhlS0lBZjE3QUxOQ0pKdlJsUUpWd00yLWN0dWJlc2JObHIwTlJnNzZ30gGUAkFVX3lxTFBCcXM3eTBWLU13SElNT1hFd3VKLTk1NEE5NU91cVZxX0c1N2RodThkb0o1M0hGR2xvaHZiU0taVXpuOVZIVlBsX3pOdlc3UmJkWndrMVcyZzh3ZzBWQzFhQmZ0eWpPeEdIZzJhSmkwRTZfOHRjNDB2MnBuOG9CeVFNNU9WUXR2UFVJUXVhem0wVnBOckpvamxQWFhWa0FwZ29GV0hWaWc2VUdxVVFxd0NWZUlqa00wUjExSWlZRnFQY1hpRGdlbnJVX2JjSFB2cEVPM2NMUnNJXzFPZnc1M0VBbk9hbWFMLWwtZjdLUmRSLVdQZlFlb3p3YkVxZjVyc0V0eTNhOHRJNHp3V2hNUmFoVHp4Yg?oc=5</t>
-  </si>
-  <si>
-    <t>La electromovilidad despega; la red de carga sigue en tierra</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiiwFBVV95cUxPamtmR0NSaTVZbFg1MldSMm84bzY4WUNBWWZGc2ZQQ1hFOGVFd1hUaThWVnBXeWtJU2picUR6aTg4UTVPbFBvNEtKcW9HWjd2dWFoeWRBdHpCenp6aTdKRlcxcGZfT3JBekVtMjFULXZUQnFwS3l4SlQ0RmdjcTJCZ0NGYjhJZ3dmSDQ00gGLAUFVX3lxTE5CSWhiNlBCbVhzQm9DeWxJVWJZdHYzdGR2eXptcTlUNzNLTzVzYTdCOGV1a0x3ZUFCMHd2b0JNZFJkRXNTaGpiVTBJOFkzRHB6NkZRRXZzdWNmTXp4aEVmOXIySVoxWlVaOHYyMXNyNEhoejRYc1hBaHMzWnhqZXlvQ185RDMzemhJdXM?oc=5</t>
-  </si>
-  <si>
     <t>Migración, comercio y seguridad: el eje de las llamadas entre Sheinbaum y Trump</t>
   </si>
   <si>
-    <t>seguridad</t>
-  </si>
-  <si>
     <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxNeFAtSnpxbnpZT01YUUJ3a3VXVWU0czVSTHM5RGktLW1NWXBXN3hlbHdObmhJY2xPLWJZbjBvVUpIUkVNaWV2VlZ5NHltUWNna1ZUWDF4TTBjLWhQMUtYUnh4QUFIQS01X2YzTUFQWk9qOFNEZ2hFQnp0SXF4QU9vN0taSy1QekRNUUVvSy1mQV9RSlJfTGtSaWhCbmhXSFZJZERrVUNPTk1WR1dnQWxlYm8zQTE5LVlEZFBhUUhPUy14bUtM0gHKAUFVX3lxTE9LZlNqbUxya1Y4RUVkOXV6UTRlY2ljblZvNkFrSWVfUUU0eUpaQlA2NTlYc3BQZVhsV3RjMThxckhPOW11UlRJUERGQlAwZl9CaFpmNTRjUk1qWG5fbzRuV2ZFdFJtenZfSUFNMGktR1FQd09BSTFQb01XNkI3YW8tbWR5WmZIT1FEd0phUVJOVHFUaF90bUhYd0pSSXFESjlYUlFwbXNLQ2pOZEhSblpuZVJhUEphY0VJb1ZteENkdEVGU0hpb2NES3c?oc=5</t>
   </si>
   <si>
     <t>El Economista</t>
   </si>
   <si>
-    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxNbkpsVWJaUWJhLTg5MG5ORDVKcjFLYmZ4dTQ1eTVxZU1HckU2ZkxYWjVHbENOdXNiWFhZcXY0NzNZUjRqSllHVHJhNll5SjNSQk1PWTRlRThSaW9aMk9oSG42RmVXcVBxMHB5V0gxSk1XRENCYkhWLWc3bS1nVHRUYThYbG1EbmRUMVlsVUhGbHhRQndnSEFaQVBveVBES0k4ckk0bFNKaG5uUjIySjlBY3VRb2sxQjJoVFN2SEFB0gHDAUFVX3lxTE1Ka2NJTUdOeEN6b1hPanU3QnRNdmdpUEJRY3hjcFM2OXBVOXlUQnJHbkdwdDVKTjZZTGR5QzBDMlFyU0ladlpCOUhfZlpMMGJaZWFjRkdxUnEwcVlxNGdqMTU4amk3dDNWakJOcDllYUVPeEhHYVVJWC1WS19ESDcybHA2Zi1lVkhrRGNKYk5EUGo5bnVaNUJQcDRJakhocHJjblNBQU5LbE1DZmxJNVhfWjNOS25jbm4zbjNuV1c0QUp0aw?oc=5</t>
-  </si>
-  <si>
-    <t>Imagen Radio 90.5</t>
-  </si>
-  <si>
-    <t>El miedo en el trabajo es un riesgo de seguridad oculto y ayuda a explicar por qué los peligros no se denuncian</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPR0VvU3RCVEk3T2ZxV3BqSlN4bjgyNldBaXV6U181Wnp2Z1RfZ1l6blRVc003SkRrdWNURlZLTm5Cd3FBcWhXMzR5Mm9KbzJVV3pIQzdQLW1kZXdtaTExNUxQNW5ub3UwRkNNV3d4bEtBZFhmY0IwUmVvOEhOMlhZZlZhU3dZT3dSQUlzQUlzQkROenM3RmV4U3FOSFpjODJIM0VIMGpieFdwYV93YTJrUnE2QTVlVm9LQmhFYTFJaDFQdmVkSV9ISERkZkxYbjQ?oc=5</t>
-  </si>
-  <si>
-    <t>Forbes México</t>
-  </si>
-  <si>
-    <t>Marina capacita a 34 elementos para detectar amenazas químicas durante el Mundial 2026; buscan mayor seguridad</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxPLVVoVUR1V3dsdVp4YUVUVF9KU2ZzZVNoUUF0czhBZ0JwSkxuLS1ELUVqS0NqWm11ekdMa1MyVV9DMHp4b25TZVl2bHlnZjZ4a1JHcE1ZV0tlOVcxVU1XemlpSlZJWW9NXzgyaFNnd056QUJPdU5VLUh6ZGpKYzdwVDYwbExGV3c1TmlacHdnRHlkZVdSUHd4X2JlSlZfckptZ0R6ZURVbnowQ1ZGb0JYY2pnMkVBeF9vLVZRZlZobEp3SGU4RV9yNm04STZPUlFieVlnVzhSbkhqZlg3SkI1RVVR0gH2AUFVX3lxTFBzYU5zN0dkZi1yT1ZQQlJRbnJCWXBPU2h2ai1Uc1FCNUthY2YxNk9lYi1aZlRzQk13X0huaHo4bEpzeU1UcWk2U0xHYVFoeFAzbG9WbGlETkVfeFE0Tjd5V3FqbTd3MVpMaUhoeFFqeUc3YTdUWmN4a011dzJnRFBobDdWOVpKeHU3TFdRcGJVNFVEZXoxUUt6N2FEWFVkbVZ6NHZPdjBJdGJ6RW0zVF9QbEtIQXVZQ2ZRUHFPMUtSS2FqMGxCdzNLLVNKVnVKUEtDdkc3bkU2RTBkM0dUMmxuZVFFbDRBcTJYa3ZkN09NOXpUM1BPdw?oc=5</t>
-  </si>
-  <si>
-    <t>Embajada de EU en Haití emite alerta de seguridad por "intensos tiroteos" en Puerto Príncipe</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi_wFBVV95cUxORmxsMjA2YzRRdmlWQUxPNll0VnVOYU9pU01fakFqWEpPTWtlOENnVHhrVVBYRUZQVklUeFdHR2NUeWlkT3FvU3Mtb2JzR3pEcllXajRGakVDMDh6NGg1U3ZFQVdnNmw4T1RKT1lhVk1oYXJtV0JqXzJCbkxvbU51T3JEeGRPTXNiVHpiY0dlTFc0Snc0NF9KbjhEVnZxaG94c01sMGhzNVd4TVRaUFNoLXYzR0xoelZKRWNJaFlmM3M3ck1YaG1zME82dWRDUGZaOHY2U1hZX29MOGRtejc2cEZyNi1zRGNBdjIwVmsxcE5LQmV6dnpvVGF4dEtVRFnSAZMCQVVfeXFMT252djdXTE0ybVdIZGRNRWhGWm9KU3JuTF9YMnd5bGVqem9pMlZlcS0yRFZLS1Q2a1V3Rm5qNzV0T1FRYXBJZXJsQ3VHOFdta1dqQzdfMzgwUFVvdFVLNm5semJsdGlvVlB3ekhtbThFOVdwMy1IckpPVmJMNGZzX2J0UEV5TXZjNDVDMDRGdWlpRWNBYm9rN1YxaTRNLVpMajZlaDg4dTBOa2drdzhRZWJBdEhDV2hPUHdSODlLRmR4ZlBMbjlUa1I3ZUE1VjhRNnp3V3k4QUpRRzBlM0xKWW9zLW5kM29ueVJycjVfMlhyNkJpWVl1bk9OeEMxb2FDNFB0bzBPc0hPRTBrUEpjczR2TjQ?oc=5</t>
-  </si>
-  <si>
-    <t>Refuerzan seguridad y controles en frontera de Chiapas ante el estado de sitio de Guatemala</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxPRWcySWstQ1l0RlVTcUtZN3VwRGFOWTBKWkV6YlAzZnZqYnEySmhHdUdyc1lSZ0RXTDdUcGtVbXFmbkpUTmpGWmpnSWpZS0N1Tm9QeDR1YTYtbmNiYndKTE1ueDY5MGdUZ0RuTXF5QW16UmR6WnUta1BVaEROT3JBUm1fUGQ1aEN5dFItRm5KOU45NU1iTk1PLTVFSW9fVVpJN1cyaTZjVXlQWGY5MEpEb0hWUEVublJUOGVsOTViQTI0T0Fwb3VKS21BN3EwTTdUNWNR0gHTAUFVX3lxTE9FZzJJay1DWXRGVVNxS1k3dXBEYU5ZMEpaRXpiUDNmdmpicTJKaEd1R3JzWVJnRFdMN1Rwa1VtcWZuSlROakZaamdJallLQ3VOb1B4NHVhNi1uY2Jid0pMTW54NjkwZ1RnRG5NcXlBbXpSZHpadS1rUFVoRE5PckFSbV9QZDVoQ3l0Ui1Gbko5Tjk1TWJOTU8tNUVJb19VWkk3VzJpNmNVeVBYZjkwSkRvSFZQRW5uUlQ4ZWw5NWJBMjRPQXBvdUpLbUE3cTBNN1Q1Y1E?oc=5</t>
-  </si>
-  <si>
-    <t>LatinUS</t>
-  </si>
-  <si>
-    <t>C4 Norte de Monterrey toma forma: obra alcanza 31% y promete reforzar la seguridad</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxNZEFmbFNmR0VneXJYVmhOVEJRQVN1S3hjQkdkRnplb0RIZWxXXzlLX0VOdXFRSDRDTzhyX0hiU1I0MmhmR0NlVnFsOGYzMlNlU2tEVFdmMVdsb2t5V09lQjduMUd5Y1R0VGRSZUdMMy1UTnhsSW83S1FFX0ZCbkM1MWxzTjJuV3dHWmxnMExmczktSmt1aExWWTROdW5jSlZ6R01ySWt4VUl2eHlCeE9QQnJsYWRScFk3aU14a2tNZzQyYTVrd1puWFB1VHBQeERMTEwxZHRxbW_SAd4BQVVfeXFMTm04ZTJDUEtGSEtvTW5wZU9oOGlQR1BMRHFGcDlwY3BwYjB0SGVOZ1FyZW9TRXlJb1hSV1pfYzdnRDhXOFJDMm5DQzQ0VzRqZEJWWEhld2l6ZTJQUDA0cTQyRHBYSlNEdERSTEZ4ZmNjQmh4U3ZNNmc4ZjJ2SWFkTmNaU1F0OHprVjJvWU1iSXRoN0tFQ3dyU2VON1pSSDBlYUd0dzNhUkhhSkNKcjYxOTVIN05YQzRXc0VvalBVQm1DakpzYVRWbGo1aEhMX21MS3RUNk9ta3JVelJTSXl3?oc=5</t>
-  </si>
-  <si>
-    <t>Radio Fórmula</t>
-  </si>
-  <si>
-    <t>El infinito problema de seguridad para niños en Roblox: lo que deben saber los padres</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxNdHVkNm4wZE5fU09MRmZ1azBud1V3NjQyQmRQWTJhNTN1aGF5c1FJeVRYZzBfRXdQM0ZHSlY0dDdWbHdaV3o4UnMySzlhZzNrWERtakpLd081OVVrWHA2am1oa212WEpKajFiRkxLOUdjV1p5cEV2dG1DLVRzZ3lkZEZ3b29ldURtRGpNU1E4Q2VhVlhrZHJhZTVSMXBBMmxwZ2NzY1NGeHRaYndkaXMxcFRKV242cnEyRHRVNUxySlV3OVIyRTdF?oc=5</t>
-  </si>
-  <si>
-    <t>UnoTV</t>
-  </si>
-  <si>
-    <t>Llamada Marco Rubio–Juan Ramón de la Fuente por seguridad regional</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxQd25EVHVUS1NXNnBVcEo1YTV2VzVYQmdZLWstMDBvd2Q4X1dKVTNvaFViR0g0Z0Q2bTFvazFZLVBraFlRRUd4UndRMU5UZ1hRajNaM2xPbDQyOGhyZEtmeDVsZUhFNWV4cnFRaF9oVWtFYm5zaUVfX3NfS01CY0U5UHJBRHFRdGRNZjBQbWpvUEtWdGQ4c2daWGpjMF91MHc?oc=5</t>
-  </si>
-  <si>
-    <t>Violación en Miramar: intensa búsqueda del sospechoso y las cámaras de seguridad clave que analiza la Justicia</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi-AFBVV95cUxNenhkZXRoX2VtMjRCQ19lZW10YlZLVFBxc3JHS0FlYWMtd3ZPSnl2UzRyWE0zVExzZTQxLUQxSEN5WEplNGltZEhJeUJfcnV4QllBZEJZY0lYalFpM1dFV25TbGFKdm1vUVVIRFoweDUzeHpCc1JfSmhwTk9tS2hvRlA1bkR3NU92N2Z5ZmlsNWdITjU3WUg2cHd4b2Y3R2YxMkZkZ3hFYkVCcy1mOFZZSklOQ1Q5dmNQVjVfLXpyYjhxOWU3aU1EejdRLWZGbUpFOGVYZXh0WGR5bm5QeDNvUkVBY1lDN2ZjeF9raVBEMnpTNU9CM092RtIBkwJBVV95cUxOUWQ3VFdIVnZmS0pDaEkwRHk3U3NqUjl0YzZoUnJta0ZwZHM3U3h3ZURtNElFbHVVSGd1WnlsX05oMEtNeTZobjNfYVl4ajhTQkFvbFJ4V0tIVVlabHBLY014VGkzb1VaSU92WTM2RnRxbEk0RVkxeXlHQXpjSDRMazhGanIzcU9STFUzMVdhU2xpUDNYN1RQUU9qZEp0RFZfbzZLWHRXYUc2ejBrSzFsRXBMV3AxaDVWV19Sczg1aURSRjZDalNid3dHLVB5bF9YOUNwN0pYY2h4aU8waDBxajNjQWluc2RrNU8yS0psVGc4X0NQUk9lSXF3ZW0yWms0SXZIdkNZNExHdWhfX3cyd3h5aw?oc=5</t>
-  </si>
-  <si>
-    <t>El régimen de Irán volvió a desafiar a EEUU: “Si comete un error, pondrá en riesgo su propia seguridad”</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxONzJNRkRaTTRfLTVlbnVHbGJpSXVOdktlb3dJeFZWeXVYV2hXOEI3MGxWTXM1bHJDMHR2YUJ3d21NNDJSY0JwZFQ1dFdwM0ZnVXU0UkVBSlJRdkMtTkVvVTg3cE9XOVV6Zmk2U3lmb0luMHN6ZE1OMmRTTTI4RHduWVpublltb2c3VWJCd0lRSV9LTmlXdnd6TEliLUtOTWdWb0tucXYwcDZsdVhfRmNCQU1jenFmZEdqcXctNk15Rjlya2dFWXQ1Q2JLZ2xsSzAwUnBlNnVtSERQSlRfLXk1ZTE5MNIB_gFBVV95cUxOcEdtVXJkREJmMTJuaEN6ZzFZMlJQa3htdVExYU9kelB1NkJlcG80OUhwRjBwUTc2dzQxemQwRllsM2tOWlpIMmhJM2xuNmwycmR5bUk2Z3BzcnNELVg0dTZUVWNjRHhVVkpxa3RDa3dDRUJvVno1NExVRkNncDcwNlNzbDB1OS1aVnlyZmd0SGZRSVQ2VjItSDJZVjE3NllRcmtQaDVUOEg1U3hnaUFDWEFhbjl4Y0VxMjhmX1FTTmtha0o2NGhSaDJvSHJTanBLZmYtUjUwS0UwazBqTVE0cDZGR0p0VlN0TVdGVEkxTU9VenFNNk1VdWIzaVFJZw?oc=5</t>
-  </si>
-  <si>
-    <t>Jefe de seguridad de Hidrandina desató balacera y se quitó la vida tras ser despedido: reportan tres heridos</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxPRTZPVGFWTmFIR3VwVmRJeksyVm93MmNVYjFKNkZvN3duQmtFbjh3Sk8tTi05d2l5cHAxWHNuRFd5TzZCYkZVRDdmM1YxU2xOM1llZ2pscU9Gd1pGR19OVHp6SXh4ZUZQemNVT1gySWFSYlIwZndkcDRiWk1KakpTZy1tUW9NZ2ZFNEVNVll6TnFRbi1uR2FCNFRXX0NUdVBfcmE1NEZPNm5yRkdxT21ZbEdVNVVkX1o2ek5oS2VqR1NQRXdUeDhFUTB2c2Z2VmowS2I4UG1hNEdfd3U4dk5NR0czVENEQUpKSXVv0gGGAkFVX3lxTE81Mmlyck43YW5MeTgwVHc0dGRDODRwTGJCcFcxdi1CLVV1RkNBRWhINERJUEhVeVFJNXJZWXBEZVBOdnQtODF1SHM4MmI4eDZzcENLUDU5VWtvVlBRRlhLLVF5Zk5lc01lZkFDZTNodEE3RFR6TlAxVjczQTA1TGtaRnNveFpqZjRFcTFNMUZOSTdCRGFiQl9WTi1uZjVrYXJMY0k1TG9qMURDa0dfRkoyZVB4VE9PaVJGOUc2OXVDVS1EdFl5X2t4STVCeHFYWjRaakYzRGRfZGswbS1oREc0SnU1RzkyWWxDRHRfdHZFcUVWOUJ0WWtBNkZkYTFWZk1nRXJtbnc?oc=5</t>
-  </si>
-  <si>
-    <t>"La guerra en Ucrania sigue siendo la mayor amenaza mundial para la seguridad nuclear", advierte el OIEA</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi6gFBVV95cUxNeFc1QXVsWEVhRlRhUDhpM3gyLXkwZVYyREl6Tk94TGNrRnlyaUVkdzJqRC1UNGZqOW5jal8zVFhnNl9fbFo1QjZ1T0luQ1lEOGp1N2hfRlFJanFDOGFtMmRwR2IxWjJBT1BpWTVsQmlLTVgxYTJCRUJtS2FnMzV2VU81VklJblJYeUJnTllJaFZNQmNtdlQxZTJodDB5V3RUZ3NrTXNWVWlMZ1N6SEZ1Q2RNdkNZZFNvemhIVXcwVEh4c3pab01RNnExYmIxT2Y0b3FBMDJwVlRjSmNYOTRIazA4eGl6U3dHbmfSAYQCQVVfeXFMUGppSEJlN1NOa2JQLVlQdzdqVkZQNmpmdTdDNURXYl84RmQ2MmF2RmpRZFNBSHVpd0NBYWlOb2hSb0tOem5iNmNCQmQtUnZZV2V6YXNLNEtVOHNRcTNQNXd4MTRadnVqNnJZdkphVkpVVFhEQkxPbzI1MWdQWjhhLWNrTDNldlF5Rl84VkFMblJ6MXJNTkpOamdpRW8zdGlZNFh4U2dWcmMwX1I1WnFXR0pmZnh6QkpqUXRnM1JmVl9ISW9nbUNOdUFldWpuYlh4blNsNkFLX1pSbGY0RXNEcXg5d2N3YnAxMllIc2FEd0hXRUhmOHhDVHZ5OXNSSHR0TzVhV2E?oc=5</t>
-  </si>
-  <si>
-    <t>Federico Gutiérrez denunció que grupos delincuenciales de Medellín prestan seguridad y logística a capos de bandas criminales a nivel internacional</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMinAJBVV95cUxPSWZMb0QybjdWR3Z2bmViMmQ3LVdIUlg0MEdBUDZKQzRyeXp6M1JiTTNUSk92MDBYSVJGZXpCVlI3Qno4YVFEVGtsOHo1NlpBeXhabXlOd0dlMkthbWJURGNrZE5lUWZBRmNRNnROcDYyRkdYcEYwX3IySk00amZ6NG80MXM0V0lKNFFsd2NvUndzMy1nWjhyMHFtOHhiV21jR3JJYjlkMVp4VlRGeXhuQTA4SE55cHRlWFRHVHQ3SkZrejY2dHFTSFNJYVgyTTVuSDU0azRBODZhR2JaclhvczZ4VEJzdjZkdzZMMzMxWFNOTTFyaG5DZlNKV21SaDUwSnd4VVJiaHR3OUZnZThYZk96cmxjZW9oWktBb9IBtwJBVV95cUxNY2FPSW1CclpjU1djYXdPODBVVlI0UWQtcVpMeTdXMmlMRGZwXzlFcmFDOEpUUXlMNlFoTGJqM1BVTFd3RmEzM0c5Tk1maFNQMXhOSnJhNEFsM0UtVWZqa1cxd2VZODRxbUFIS08tZFZJaG9FbTk4dUxhRzZZSE5PdXlvRjRES3pUZ2tFeDA2MjluUnFwVG9WaFZKUXhhOGxqZ01UTWZtTDlCeldBQVM2bzRqS083Nmtkd0h4WU9NRXZZOXQzT055aGpqVlBvVWhsOXV1YlhXSEoxcS1sbVVySWdOR0h4T1h1OXRycTkzblZPb2lBVGVBNFF3RXhwdlNCVGxZd2ZvNmZDQkw0S0gwRV9wOC0zMUNrV1YtUjBzemNQdEg0aVFaXzJxdlk4RnotQXU2ZlhWSQ?oc=5</t>
-  </si>
-  <si>
-    <t>Hablan Rubio y De la Fuente sobre prioridades compartidas y seguridad regional</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxQbDRvYnotcFhTUjVaek5WSnllWFV0di1wbDJSZWhlbUt1YzduT2dNR0FIeUJGdzQ1OGNSNzNDTnlrOFJGcW44ZTg3bTBWekVuaVkwbTlwQngxUWM2THRCZGE2dFZjTHdBLTZzS0t1Xzg4RE1Lcy1tMEk5dVhvOXpsN1lyWUUxNGYydDlTTFZDcG40ck1ja0RDbHhBS3dQR3BpMmd4eDVJWThycmkwQ2U4SWV2eWhzRGktdVdhU28zVl83a0pEZnc?oc=5</t>
-  </si>
-  <si>
-    <t>Piden más seguridad durante la búsqueda de personas desaparecidas en SLP</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxPaUhxRldiZlhOWHoyNlVYNUowQUE4cmV6N3BfNGRoNjJTN1lzSHBfbk1EVmROb1lJV0EtaTlJSURvNjg0bEhJczFmdnNxR01BSm9CbVBCbHhfdjBmVEJwTFZwMTR6V0k5SF9UM1EyQU1rSXpSYXNkRUF4Y2JXdGV0WHJVYVl3bEdDQ2VHd3lUWm44bWw5SXhjamtLa204YlZmMHJPc1NpR3Q0NjBtR1VFZ3BRVTZtUE1LT3poaTBn?oc=5</t>
-  </si>
-  <si>
-    <t>Secretaría de Seguridad Pública de Pachuca despliega operativo Águila</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxOMFBnTzZpTEQ1U010UDVHYnFzWmhtc08wdjJ1VU9teFdIQ3RTU2k3UW90QUZnM21jUXJ2OExsZEVoMl81R0pmYWNabU1NdGJ4YTJDbmZvY2RKNllyUW11bVo3SjE5c24xdzJxbU5pVXRUQXdER2k2YWQySjl2ejhjdjg5SGdDTExnanZCMXRISUJva3d2UWVwMFRQbmpDWF9oR2VBdWw1TFY1QXNyYWlwajJfQjVkdnlpNXc?oc=5</t>
-  </si>
-  <si>
-    <t>Universidad de la Academia Metropolitana de Seguridad: 188 elementos se profesionalizan en Derecho y Ciberseguridad</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNREtpZHlxR1Y4NHdCV1ZUX05pTFZ0WVUxSXlsWWRoa0Q1MHlWODFtOGotTVk5cWhLZHF1TVpjRGZ2NUVzR2NlSXlPUGk0VTdwdmlLUUJNcW50dUdnLTkwcl9VaExoZHBjVG1HX3BESFAzUmM1bW55VXVOdVU2S1BfY3pZRlpaR3hqb2JSaGtjMnpPU0VRVC11RHB6RlVrOWZkX1BEakxldktETUZaTXdWMWRCYWZobzVWbkxmTGRKcW5wVUhrMjY1SzJzMFNSMDAz?oc=5</t>
-  </si>
-  <si>
     <t>Congreso del Edomex fija como prioridad transparencia, seguridad y reforma electoral</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxQLXZrVlZvRy0xd1FjUDFHOGNRNF9tbmUtS2F5OFhZT0ZBM0RraU5OV2pUeGM2T1ZqR1BweFFScWthTU8xXzJ6UkpISDNCdjFodGFTRk5YczM4QlFUV2tsNnlIVWVBbnlIQ3pDcDNRZXV1b3ZLTmxBcG9CQUdYLS1nVTdEWElSUEhhRWJYSjEteG9RY2w5SWZQbmg0T01EZkZNMGNJZDc5a1kyUjNpWXVvU1JNRkRkTkhLQm1Pbnl6U2RqdXBHdkE2eHJZaUl0cmlWZGt2Nw?oc=5</t>
   </si>
   <si>
-    <t>Marco Rubio y Juan Ramón de la Fuente hablan sobre agenda en común y seguridad regional</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxQOU9sY1NKdXd2M2NKMWJINnpxS3RBRElQeUtOQVliNFY4VUlFZkcyT0UzVjdvemRrUkxmZDZZUm41bGxqdkdTTXo3djA1eDhyU0hUOElXTFlQVDZKQTNZZkZ4bW5nRDBVMTZia0NXTThjYmVadjVoMmdHRUptMExQU2RpOVBUcE5kU3U3UFRPN0FUN1djQXRmOXR1ZmhDb1lVZzFHdFRNSndDeUdNRmpyYXo2cmlrYTREQ3p2UzNfX1NBb3NXZTh5Qjg5YlRFbDRaZ1p6Yk9aYlnSAdgBQVVfeXFMUDlPbGNTSnV3djNjSjFiSDZ6cUt0QURJUHlLTkFZYjRWOFVJRWZHMk9FM1Y3b3pka1JMZmQ2WVJuNWxsanZHU016N3YwNXg4clNIVDhJV0xZUFQ2SkEzWWZGeG1uZ0QwVTE2YmtDV004Y2JlWnY1aDJnR0VKbTBMUFNkaTlQVHBOZFN1N1BUTzdBVDdXY0F0Zjl0dWZoQ29ZVWcxR3RUTUp3Q3lHTUZqcmF6NnJpa2E0REN6dlMzX19TQW9zV2U4eUI4OWJURWw0WmdaemJPWmJZ?oc=5</t>
-  </si>
-  <si>
-    <t>Proceso</t>
-  </si>
-  <si>
-    <t>Julia Abarca: “Los empleados valoran cada vez más contar con herramientas que les aporten seguridad y reduzcan la incertidumbre”</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMilAJBVV95cUxQUUwzankwbmFncWJPd1RrZXVrbW5oZ01qSGpzdjFMemNYR2c4WU9kQ0tvU1lMYV9UUTFVdjJ4QUhfYkN0bnFUeVNFZ0RQbk1oYjVCb1dTTHlydnhkSWRpT1I5R1lnRlMxemlabXprOXppYUtZM0U0Z1BGSXdGOUZrZl83TnA1TWt5ZldzR0NTYWZXX0N6OFJBNDN3TDVwUTN2VjQtam94N0RNQ0xQMFBobUttYmVid0dVUTFLZGdzNjJ5cTJPUU80SVVRVnNwOFRLOHZjM2hzUm1NNTB0Q3dyZUZNTXlLT3lnMHF5cXlKMUF0RzBXc0lEVGRZTDdwY25aWkdnN21KZ3h4SDJyU29SM1MyVGHSAagCQVVfeXFMTzhaX2hCRHlsd01HMWpXamc4cml1NDk2Qi04ak9DOFMwWFVqbEtsLWNfTE5ZeHY5ZzBLbjh3N1lHLThKZ2VzQmltLTJXV1ZfdjdGdVFlUGNzSjJYX1FTYTk2MG1YcHBPR1pMN1pSZVc4eWkzbjU0WTZJVzlWRF96cFBTMThCTk1HMS01Z2tBSVctODNhRE9TeVN3dUJYQ3M3SjJQeWdpaGdCYUljdzVSTjBjQXd6Qkt2NHRNS3p6ZC1icmI3aWxRMmxUZmZEbU1BU3JPLWZBSEVUSTdRZC00WUZiS3JTUGt0Q3ZnVE9ERzBZUUdwWXQ3MFdCVU1mSDF2NW1razdLN0t2cmwwQkRULXlNLW9ybk9UTWtuaExMTUJZbGNOcy1ORmQ?oc=5</t>
-  </si>
-  <si>
-    <t>EL PAÍS</t>
-  </si>
-  <si>
-    <t>Nuevo León integra RapidSOS a su C5 para reforzar la seguridad rumbo al Mundial 2026</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxNYTJQWUVPa3g2RzN4aGY4MUh0ajYxZS1Dd0R6Q0NsR05UaExYTWlPbjc0UWsxQUs5cGh6ZWRjLXZQM19lZktrQlozcWFpVHRYSi1Lc2UxdTZ5ZzhXTzdIeFJSLXJyNjlKUWVGNW94bEl4RGYyeTNxSFFLa3A0M01HZ2ZGWHFWWGtJZUpYN2ZHMlRrMHJ4bGIzQjVTLXdXYVNHYXZCWjNlNlZMcllYUkFnd2ZZWjYzNWpOaENTNV9tLTdMbzRrYklJWDU2QlhZbldJU2NzZXpn0gHWAUFVX3lxTE1hMlBZRU9reDZHM3hoZjgxSHRqNjFlLUN3RHpDQ2xHTlRoTFhNaU9uNzRRazFBSzlwaHplZGMtdlAzX2VmS2tCWjNxYWlUdFhKLUtzZTF1NnlnOFdPN0h4UlItcnI2OUpRZUY1b3hsSXhEZjJ5M3FIUUtrcDQzTUdnZkZYcVZYa0llSlg3ZkcyVGswcnhsYjNCNVMtd1dhU0dhdkJaM2U2VkxyWVhSQWd3ZllaNjM1ak5oQ1M1X20tN0xvNGtiSUlYNTZCWFluV0lTY3Nlemc?oc=5</t>
-  </si>
-  <si>
-    <t>Aprueba Senado de EU financiamiento del gobierno y prórroga temporal para Seguridad Nacional</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxNNjlscm5UYkxwZHJMbjBmOGZYVGljOWJyb0F2bzVFT2pnUU5tVE1PWVlLVHQ4VkxHUFBaVXRVTW1xaDNreVRhbk5CeEVTV0xNbU5kVmZPTE5DX1Y4TEVvaFkwRHhfMDlkVnpGUFlzNVlvNE5wS2wzWFluSW9wVGhuVnNraUhJRWxabVVHS0JRc1RQeEpMbTFhM0tGXzBHWGotMHlmTEdoYWUtWXpNYjZHcFpsd05vcjJ4T0F4cF9FZ2Y1ajB0YUcwN05tYl81YUtkUUdTQmRoSEpHcFV1QlNDcQ?oc=5</t>
-  </si>
-  <si>
-    <t>La inseguridad que no cabe en una mañanera</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxPWkVlalpGTWhxZk9RZEVmWkJ0eWtBZXJIQm9zSWxTMDFtdGVmZlNpWXZUdGpwWFBYZzN2OVNHZEhpbVNvb0VzQVdVRDRsLTFwa0hxVmJfcDFjbXZsaEpqYUNhMVRoYm5raENYSUlZbHB1LTRod19nc1BHQTd6T0RpUzVoNjVmTkVCZFo2OEljU3pnMTEwUFlUSXNFYU5mZHVIWF9Qd0pIeG9VZHPSAasBQVVfeXFMT0VOYUdTWDk1OUpEN2dFcnFTMFRuVjNEZ2wzeXl5SWlCbVBMd3dWVjdCampwTm5odUROdHZyQXdVQ0drZzFtbFhVVmtDSW5NUFVzZm1BQnYtWXBVeW4xWDhBTmFUVnVJUXNEVnhrVnItUWxhR0VjSFd3ZVB2UUgycGI5VkRJQ1hIQnNpZ002MFhBZVEwTkIzRzNzRmdvUzlRYkVhNU5oQkYzY29N?oc=5</t>
-  </si>
-  <si>
-    <t>Nuevo León colabora con RapidSOS para seguridad del Mundial</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPNmhXRko4LW5ocVJFZ0MwTXRCaVZMRl9aUjNTdDBvcDNoenFlbE8yeGNxWDlwSEI2YjV3aWlhdjVEUjRYMEYwbzNqN29ielN5NW5HRnNNMEQwNnRnR3F6Y2FFcEpadThlQmQxcVFHZlRscWVsVV9QWTRJSVI0bUYtZTZCN2dydTBXb290U3BKWVc1V2VJRVk00gGXAUFVX3lxTFBxQkNBZEhTOTI1TDNweGhZWGZQZDJEbXRMSG1JTU9hU1BYWWllNUo3RG81N0V3Nm1ucDdHeURHS1IzemJHd2JWZVExQV9DVTBtZUxULUxBM0lGMG1zRHhZLWp6cTRKLVFwellaNDZleENtbmFCZXIwc2REb1ZsS2pFRFJsUURKY3NiZWZyVUM0VDFpTV8yb1E?oc=5</t>
-  </si>
-  <si>
-    <t>Operativo de seguridad Cancún desarticulan grupo criminal Sinaloa</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMimwFBVV95cUxOQ2xrMzFCYkFwTTVsaHVJNnQtcjI5MHRNWDlUdTNnejlVN0VENWhXWk53TTcxZWxUZGlRSnBSQmNPWndiRkVXQk5aSXk3V3R3UEZ6XzROV25FZmpFQnFrWmpPdHBtYXRQU2l6Tm1VX3MtOTVLNWY2U0QzcWk2YkxVX0NLc0tnNktaX2VNVkU1MkhMNG4tODlva0p1SdIBmwFBVV95cUxNaVY0YldlOHhETTVKa3RJYVBiT1dzWVJjV1UxUDdfX1VKQXhLT1owbk5wM0VhNWVrM3V3LXBEeVRIODA1VjZOeHY2dFRXcUpHV1hfNHNMSEFfeXNVa0s2blN6b2RiVmt0Z2lqWFpzY2NYMG1SU09ROGFUWC1tYU9vMHRqbW5RYzR6LTlNbDhoQ2ZZbFdSNWY2anZTUQ?oc=5</t>
-  </si>
-  <si>
-    <t>Serie del Caribe 2026: Alistan operativo de seguridad en Zapopan</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxORlZJVFBJb21WVnNFQ0dfcU9hU0FwV0F3NjhEVWF2UTF6X1g0UWpxRzRqU0g4UjRZYllLTnZpdFFodUU4aV96ODEtQWk4NGU5aGhQU3VrQ3JkX2VWU21iWGNOTHUtNjI5dElGMHFnSHRjQ3J0dV9INFgtV0w2R3hvUjJTQVExN2xhTTUyTXNNbS0wanRRVTNrRF9BTUUyanlLMWtEOVJ5WDJmUGxxRlFHNlRqdjVaRVXSAbwBQVVfeXFMTjBoVnFPWElqRWotUDR0WjRNWlh3ZWVqUkhBWllkeE16NGlKTElXUjdlT0F0c0wwVmVDWkpXckxiR3RYM2VGOHFURFRpTGtnYUMxeVNLVWNUQkxzclhCY0ljSmJNSFlCLTFvV2J2VXdoSE40RHhqbWg2YlpnRExyVC1QTW9wdzhtUmI4bFlfS053Z0x2bDVLLS1YQ0ZvTmtMZUFtemRIbWdfVjc5NFFRT0tydVl0TGJfcjdpckM?oc=5</t>
-  </si>
-  <si>
-    <t>El Informador</t>
-  </si>
-  <si>
-    <t>Seguridad en Jalisco: Policía de Guadalajara detiene a diez personas por portación de armas en cuatro colonias distintas</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxPLWhuUm91Q3VmS19IeURnYVVobUlSQnA0ZmhwcGJaT0dnek5WaU5QRnpGOHNjVXJiOWtfOUlqXzBqYmhZR0IwdXN1UFhuc0ZIOUlTdW02RVlKLUZ4NWF1X2FacGJtZWpZNzRkSjRJMVRxSHdrdXZDaXJHM1MzS2NwNVNiMUJydG1xb0VucDNCdjVpZGQ1NHNVMVRlTUlHajRIX3BwVDhiOXFFNmNycDR4LTExUmV6RUI0VnAwRWdNT1htcmZBYlNtY01KYThFY3hsYVlGRDFFeWNBWXZucFJZNF90dElMNEJGZEd5cGZNZlRMVFpDVWVjcTdaUkprWTdOTWfSAYcCQVVfeXFMT21rUWMzS09oeXVRc2xJYVM1YzVZQTFsWC1OcUt3dVAyZUxsY1VLY1hqc21RUEw5ZkNFRm1TaGE4SkROdUpfbTlYT2FqSkRucG1sZkJOTFBRenVGemVLUmxVQmlQX1VCWkpUQXd5cTBpTFc5MTljUkpLZ05mTGNYbUtZbDBybEZzbXliUXVXSjdxbXlidW9qTW1wS0MwYUlKSmpObmtSdWlHbzJWcHJRS0hKbERyMnk4TkhDNDdqN1RiZ3pyb1MwN29yYUhGQzVudXhSNHdMSG1qYXBvQnV3Rkg5bDdxcTQ2UnVrRTloX0RNLWxlZk83NDdiMUdpVmc3WGJwU1dDRm8?oc=5</t>
-  </si>
-  <si>
-    <t>México refuerza seguridad y controles en la frontera ante estado de sitio en Guatemala</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxQZUswVlNTRE1FT1JkMGpKREEwT2xoem1Pb0piYkhpZ0tTQ1F6dlpUUFJHRmpEelN2UDBLbjFXWjFheGtfZGRpdEwxemQ1SEYyaXBXdTNRZWVKQ2x0T3lHcnVFYU1LaU00eEJpQWZUVzFVbG95dFk1cV81MEJyeHJUNHAwb21BaEZmMlhCTVh0QmJGMGFKRkxla3hMRjRNNlh6LVJ5ZHJjdWxtbGtEdWF5VUNiV0ZNbFBPRk1tYm93Q2Z5Y2RaWTMxcDVYaU5PMjE4eFhQd9IB2gFBVV95cUxOei1YOTdOcnRaVlhYcEVHLTJKUy0xMkZKbzd5TUNnRXJHb2tLdGc2eXZUSURLZTlidDUzY1VjM2Jyc2dKT2ZZZGs2bEFVcnlQS1ZsVDlfd2NkNzI0NEFRTHFtWThaUmJ2Z2VjZVlOQnNNWF81VG56dDI3M1o0Sm9KN1luOXdET25IeVlyUldoR0NoNkZFcmkzaTJ1X205QkE1VExJS2VaSHcwcTBfUTJxM0ZMQl9CeWpUMkwxd2lzaWRHX3RwTGhHRW5ZdGNOcmdZYXphTkxuYk5ZZw?oc=5</t>
-  </si>
-  <si>
-    <t>Sheinbaum alerta de que los aranceles de Trump pueden crear una "crisis humanitaria de gran alcance" en Cuba</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxPMzZlWDZoM3hwMWJFODZrVUVma2FJUWtBRnZVYVgwM0ZaeWJXTFE2cklZZFVHdVNDVW5RbEJZb2EwVUxMN0FXZU9jX0Z0NERBOTVwOEkyUkFkR2M5dW9LdUJxNDNGbGhKMW11Tnc2S3liMWZrVVdrelBFWTdZa2wwVmdWeHNBZFQwTEZUaFVYaVFzTmswbWk5SWJNMWdQRTMxREhRX2VJSXpJYnpPVXg5cEFXTzhRdS1IUTdIWktVNGRUUndpOUpXa3ZxSDFQdFZXamJteEVRdWZ1MS0zdEVTWWJ1dGRXT3ZPUzdR0gHwAUFVX3lxTFBwSll1c1dFMlZ1dXNvcTlhbElBQ1lwbzlOdlByb1FzcXpwUWxJYnBMWXpKZU9uOUhpbTl5WkVlby01U2FHa1pIWUg2LVdCd2FIdEdoVTZoQXQwSlRaQm9CaF83dDdWRXlRazFHXzBwRC02V0VaUkFzSF9oWVo5OHp5SEdldkxUeXBXdVdCakUyYkpzbFRIb1VJUlRYTTRTWFJwSDU1U0J0TXNvVGhGQy1MRU11TlczN3AwSHloU01RTGJxSGR5b3g4U3pkQW9SWDRSVW0yZzdzeVRNZjRYUUg3TklLSEZLbXlYZWRYOWJlZg?oc=5</t>
-  </si>
-  <si>
-    <t>Diario Red</t>
-  </si>
-  <si>
-    <t>Boxeador Ryan García dice que retira su apoyo a Donald Trump</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxPQVlMc0pEdEhNSTc0eWY1SEI0MGk0VFozMW9mRlkwUkNiUnJQNWlneHJRbGJrNXowR0prSUFZWEsxbU5wc0FtRWNUTjNOcE1zUFJIX3puVVpwN2NvSVVvUVVhVzdUbkp0cVluNldkUW9XN3NZaUNQdFJXT2lpa19iLUc5ZXcxZnBoSkxpcWtoYXVYS3A3RFJmTTB0M1N6ckQ2cTdN?oc=5</t>
-  </si>
-  <si>
-    <t>Los Angeles Times</t>
-  </si>
-  <si>
-    <t>Trump aparece al menos 3 mil veces en el último lote de los archivos Epstein</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQQmk4Mkl1S211MW8zcTNRNVNsWk82ZHM4Ymt4MXF1OHA5R0haZlRrdUFCcGRtak1ObVc4bllMMURhbk82S2tCNEpPZ0YtMHhjb2o2QmxuM21zWWNYV2NFcVhJbjc2MVdlZkk5bm1tMktHWlNXMFgwX1pNYWRQQV9DeGE3LTc2V1oxNDU5R2ZsVjRUSlBYQ05tZ3ZfNExjdXhnWmFkUGtQRHk5cmFiVWVIRFNTcGkwOWJWQXQyVjdTbl9VUF9PRjlZ?oc=5</t>
-  </si>
-  <si>
-    <t>Sheinbaum inaugurará carretera Bavispe – Nuevo Casas Grandes</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxQeGdYR1ZjeVZZRjRQN3EwamFZbHBoc21qRHBmLWpfVkRPMVB5TVEyUlViTy10T0JmZUczVnBxY3lZYXBSa2ZVMlA0QzB1QTRLdjUxa0hIRHRZanRnMEdMX2wwUmt3YUM4VVE2RXA2c2ZQMlpqTGNIZ1k3UDRFclE1d2g2Y0U2eGNZbm0wZkhieHF1ZF9TdURDb3NEYmFQbnhJNzhrR2N2NzNfTklWUzhUMGx4MWhReUlzMDh1elZianFPSTFUME9CM09uMGNaN2I4UU1iR3U2LVRmUQ?oc=5</t>
-  </si>
-  <si>
-    <t>IMER Noticias</t>
-  </si>
-  <si>
-    <t>¿Qué revelan 3 millones de nuevos documentos sobre los vínculos de Trump con Jeffrey Epstein?</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxQajNzLVBDbUQzY0xWZ2IySEEzUlZBVEtjQ3ZRNDlqUVAtOEdUNTNDRzh4Y09XbkJ5UjViUWFkUmxVU3Z4ak9peVBXakJxSmktWEt6NWZjYTlzSVN6OXJmSUM4aTV5OERaYm43TnpTUDVqZGhfUTQyeUVTNHJiWnNvSVN1MXg4OHVsc1JzSWl4Nm1HUQ?oc=5</t>
-  </si>
-  <si>
-    <t>CNN en Español</t>
-  </si>
-  <si>
-    <t>Sheinbaum formaliza Plan de Justicia para trabajadores agrícolas de San Quintín</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxPbFJUeUo4R1lpSS1JYkZQeWJWRllfZmQxdkgweDJGWUYyRWFiTHFvRGZfVF9Wd0JXeW41NFVrazJvQ3JkQ0FQY0gxZVZzTHViWkRHTWFnX1JYOUlzMnZrTzlLalJsUEltbk5QYTRzNHh0LUtxV2dEMUY1b2VNMUN6NVNmNW9YT3Q3MklEVG5LV1lkV2NVa3l0SHJSTGVfbEkxSEFNXzVfRTJqbDg?oc=5</t>
-  </si>
-  <si>
-    <t>masnoticias.mx</t>
-  </si>
-  <si>
-    <t>Trump afirma que Irán "está hablando" con Estados Unidos</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxQbU9ZdlJINzRqUUJsMGJldExya1pjdlhsdE1nZllxMWFCakV1TXFVcHhYbUdwV0lyZU50ZEUxRHViRzRqcHNFU3dwenFUMlhiQ05wdFpLSFVHd2pndjFac2JTOTNfS1kxT2lwSFFiaWk5c3NhWU1RaTRRd0NOS1hROEp6S2toRm0yVVpTT1VEREQwYmpKTjAzbVVWcTdtUdIBngFBVV95cUxNc2l6cTFFM1JSdFZkaGVNNElKdElPZldKWWlnb0JSR0pXTGMyVUlVMlRObXF4ZFp1T2xkU19HYlRnYnMwR0hPTVlBbE5yNjVQUVJydFJkaUx4RGZPMUNvQUJMaHZYWlRDa1R4Z3ZDWXo1OWRHRl9sbE55VHFBRFRDTmdBaUZxWThnZGp2ZjNyUkJPUU1BV1Axc05MLXkxQQ?oc=5</t>
-  </si>
-  <si>
-    <t>dw.com</t>
-  </si>
-  <si>
-    <t>Archivos Epstein: testigo del Cártel de Sinaloa vincula a Trump con fiestas sexuales en su campo de golf</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxQTV9BeWxLMHJoalozeTRaeDliblVsN19QQWk4dk05Mkd5SVZoUkZWeUdiazlXTzI4b294MzdLb3dBU1ZvUE13Y19ucG1uWnJ4c2R2TFM2ektPbXNvM3pKNlY1VThNdjJNTmk1bzdzTEJWUHA1STZjdm8yOHVTS0RHQVhCWjU3U2VDWF9lTmdhZmpUd3RFZEtlOFUtYWZSN0RqaUFtZ3o1TTQ2cHVKVFNsZHVYQTVTWTlVYXcwVS1IbXZ4SjVZX29OZTJDYnJ3Unh4SUI5U090ZzNxem5ab1HSAd4BQVVfeXFMUE1fQXlsSzByaGpaM3k0Wng5Ym5VbDdfUEFpOHZNOTJHeUlWaFJGVnlHYms5V08yOG9veDM3S293QVNWb1BNd2NfbnBtblpyeHNkdkxTNnpLT21zbzN6SjZWNVU4TXYyTU5pNW83c0xCVlBwNUk2Y3ZvMjh1U0tER0FYQlo1N1NlQ1hfZU5nYWZqVHd0RWRLZThVLWFmUjdEamlBbWd6NU00NnB1SlRTbGR1WEE1U1k5VWF3MFUtSG12eEo1WV9vTmUyQ2Jyd1J4eElCOVNPdGczcXpuWm9R?oc=5</t>
-  </si>
-  <si>
-    <t>Resumen de ‘Melania’, el documental sobre la primera dama de Estados Unidos</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxNUEdKSEJaeDZnNzl5Y0Z5RXJHb0x3MnBKb3hBZ0UxSVRZS3RqUjhPWTJhMUY4SUFwc2k1OFFiVFEzRU9IdW5tMHNmeEVMY3pVMHZOcW12VGxpN3R5VXJSbWRsSFlsZHEtUFJncHpZZ3NrOFRPczJyUURHLUVUTkdqckJMdFEtNk02NXNFNE1vMzRlUXNnM3NYbQ?oc=5</t>
-  </si>
-  <si>
-    <t>The New York Times</t>
-  </si>
-  <si>
-    <t>Trump aplicará aranceles a países que vendan petróleo a Cuba</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxPRFA3WW5PTW1uajlVbkR1NmxLUFlfZk1NcjJLZmxoRnljWU0yVzhUQ3V2MVplT1FYNlpsZlVVQ1luM0R4dnNWT1F0aDJtakpKYVlteUtSZ3VfdHg3UzNyTTh3UUJSeTdlQ1dmTFhKRDJwRGI1UmFmekwwMFhCYnRqRHMxdmdNbnZKRU5saFFuSmduZDNMNm9KSWl5azFpNHZWendkblJuUTY2V2lf0gGsAUFVX3lxTE01ZVVTMkxKNTR6VG4xRVduWXVselMxVk1OR1VrU1JuTF9rUmtDM25mNGNsaGZLRUF3OGxBbGpIRmVGSVV2Zm1uTkdZRzRVVmg2SnJva1dUamgxd3hreERmX2hrenA5Y3RQNXBJdGFvQVg0VXQwVlhXNFFiY0NXRVA5TDV1VWh5ZzhSYU45MjFzcUVHNkcwdlRCSktXOUdldHVDZGdwTnZzOVMySWI?oc=5</t>
-  </si>
-  <si>
-    <t>Trump ordena a agentes federales mantenerse al margen de protestas por migración</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxPNmhFRlNLMGdDRHZPdGY1aldsZXJkRWdrbkF2NXAza3EwaEIwdXFBUE13RnlEbVR3M21iNy1BTTZ0Ykl1UTFiM1MyZm9HdGR0Y3BxUWV2bXphX1RFa3hCX1pweW1GSllrZzlKVXQ1TEk0VXdEOVVTVFBwZnNsTGd0ZkU1cGxwTWNlLVpqU29ObXUwQzB0VWVWYWFhTjh3ZFk5T3R6YnN6UGZVb1pqVkJOUmlMajQyLUJwS2RTa1VLTkFuSWFBZVRoX212MFVsUlJWYUVER1BYYjFYN2Zqa1kyTVFuRGEyVjlMNmpDMVh5aXpkdw?oc=5</t>
-  </si>
-  <si>
-    <t>Trump dice que Irán "está hablando" con EU ante amenaza de ataques militares</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPZ1NkeE13S2lZU3o5czhWOFVsQ0VHaVdnYmNfUXBaTDViQ1poaUZ2UVNKelF2WFVLX0hqNzMxY3F1LW9TR3FNU1N3TUxueUZoTTdDbV9iZWRhLXpCS2hfV2dJalg1bFRxdjd3S2JJajRSclo4SnJKWUdLVnI5QUdoMUNZWDhWOHNvSUNPSkNubEd3RnJSallJ?oc=5</t>
-  </si>
-  <si>
-    <t>5 revelaciones de los millones de archivos Epstein que acaban de salir a la luz</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE85cW9ESWNHQ2cwa0MyNkJuYmtLUXZuZ3ZtSXhSMWJVd3lTdVByTnlsX3dwZEgwY29aTlR3TTFDSEFudi0weWNLNTRSUVN0ZEczZThNRWVFQVNFN2vSAWBBVV95cUxQR3MzZE9jV2pNbHBiWFlmR0FsQmFPSlVMNkJUd25yanFpWk1kV3dZOVRnbVZna2RBWVMyejJHZE5QdmRfYlNRclpPc0xnUWlYdTlMTzZsQXJDdldHMGtfcG0?oc=5</t>
-  </si>
-  <si>
-    <t>BBC</t>
-  </si>
-  <si>
-    <t>Anuncia Gobernador de Nuevo León colaboración RapidSOS para reforzar la seguridad rumbo al Mundial</t>
-  </si>
-  <si>
-    <t>agenda nacional</t>
-  </si>
-  <si>
     <t>¿Cómo cambiarán los medicamentos para perder peso a la industria alimentaria? Aquí te contamos</t>
   </si>
   <si>
@@ -523,6 +520,114 @@
     <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNM2NES2dsU1JZUHhnSExyd1NLZ29GNExiUVo4UVpjdnEtbi1VQnN2c09WQ0lmbndwWGVDNDZZTWIzTmIzaXY4cTk0cHJwZzJQYzFNdHNJUkxnTlhmVzVuNVFscVZLQ0d3TUdhS0t2UGpQeEpYMUFndDhONUhJRGN6ZU5mZU9nemQ1RDZJZl9iNkwxYTd6eGo1eUFQdkQ2cGtDczNNbWtwZmRPaHkxajFzb3N2aEZ5Zw?oc=5</t>
   </si>
   <si>
+    <t>Tres fugas de gas en cinco meses en Coacalco</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxPUU9laHZEb3o3X2huQ1VYbk96RkZhdmRNV3pUV3YzbnlGaS1PVE9VR2tVdndkdW1zWmgtVUdSYkpJNGxwU0xGdTdqeWFCZUstTzFQNVh3eVFmZ0diWDhWLVBYNHlxamxwM08xVnkwT0M4SF9RTWNpRE9nRkZvT25GZWNRNk5zREU3dTJMM2h1NmVBcnREbjRZUk55UFhxSVVjeWgtN3hpc202RzVYaTF6aW5hbTI0SnFjYnVzUdIB0AFBVV95cUxQdXFSOFV0Y2hDZks3VGF0NnlpU0E5T2ltVHNqWTdyT0lwb3JqUkVKX09oSzJBZVRqSHdNMC03UVc0bTJiOWtKcGFtLUM5T3dXYi1XNDRiSll1MVFkTFhHT0JORnJteFhpZk1fUk10Q1hWNzZGMkU4MWlqZ3NIdGpScTdsWG5LSkJ0VXJzSUZQcDdjc0VWaVYxLVNibVI0bHpmeTdGTkxIbnJrN1JsTUE1RDJCN2hDUUl3eVhReml5NmRzOHpkdUlMV2dJcmNfS0dX?oc=5</t>
+  </si>
+  <si>
+    <t>Se registra desabasto de gas LP en Centla tras operativo contra distribuidora por irregularidades</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxNZVEzb2tJNW1PR0hoTDg4dzlFWTZNMUdIUjlmTExUTWh6UFlWaW44aGw5LV91RW9EbGg0LWMyMlFRRzVvbnNtS3FCYmc1VHV2aEttdE1jZGl5MEh1N0dGa3NLT210TVpzN2g0V0x6M1BnSFpIYVRDcU1rOFBzQ3l5RWtHZS1ZYnNweDlBVjA2S3FSZC11WXV0ckJGSFVsNVRFZmhMQ0UtUlVsb2pSRnFoTm9HV01BY29IdjZ4TndKa0VFZ19TMkN6UjlsbEN3UWd5QnE5eHowX1FBYW5s0gHcAUFVX3lxTE1lUTNva0k1bU9HSGhMODh3OUVZNk0xR0hSOWZMTFRNaHpQWVZpbjhobDktX3VFb0RsaDQtYzIyUVFHNW9uc21LcUJiZzVUdXZoS210TWNkaXkwSHU3R0Zrc0tPbXRNWnM3aDRXTHozUGdIWkhhVENxTWs4UHNDeXlFa0dlLVlic3B4OUFWMDZLcVJkLXVZdXRyQkZIVWw1VEVmaExDRS1SVWxvalJGcWhOb0dXTUFjb0h2NnhOd0prRUVnX1MyQ3pSOWxsQ3dRZ3lCcTl4ejBfUUFhbmw?oc=5</t>
+  </si>
+  <si>
+    <t>¿Sube el litro de combustible? Así queda el precio de la gasolina en México para febrero 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxPY2pnUnhXWThuOWhXZ19ZNFVPc3U3MzhlOTN3TVE1amEtdkU2NUJTVzFoZUNiVkpWZjI4NEdHVmh6MlZtZjc3V0VPMnNsQ1VubU40UFhxZndkZkJtOUJjU1ZuSDV2TW9lckhMd0tUbTN4R08yM055b0dYTndZTlJSZEMwZVpxNThnZEdtdzZwT0M0c1ZTUnI4dFFVU0tfQXUtVEpnN0dERWtiSng3OVVuam00TmhEZS02ejRNNm1PRHRZQjU4ZDdtREJMTGZqd2hMRG44R0pEMkwyMlhPX2c?oc=5</t>
+  </si>
+  <si>
+    <t>Gobierno de Sheinbaum anuncia gasoducto y planta de licuefacción en Guaymas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxNU25FVm5Mdmpnd2xRT3hwTEZvdGxOdkxSSUQzS2RFOTNyV053cU1FM1lwU0pNYy1ORThudmMyWGV6WmoxRU5BZUszRS02em5uYUZKSHVESU95aEJ5TWZyZzFWNHZGbm15UjhzTE80dzZCN3FJSWhralRoUC1oXzRFa29KaG1oa1AteXA4SHkwOHFpYlNOQXBmaW5TTnpXRXA2aUdYLUxtUmNTeko5WE5Lc21Ic09YZE9OT2hBUnJqcVZLR0HSAcMBQVVfeXFMTVNuRVZuTHZqZ3dsUU94cExGb3RsTnZMUklEM0tkRTkzcldOd3FNRTNZcFNKTWMtTkU4bnZjMlhlelpqMUVOQWVLM0UtNnpubmFGSkh1RElPeWhCeU1mcmcxVjR2Rm5teVI4c0xPNHc2QjdxSUloa2pUaFAtaF80RWtvSmhtaGtQLXlwOEh5MDhxaWJTTkFwZmluU056V0VwNmlHWC1MbVJjU3pKOVhOS3NtSHNPWGRPTk9oQVJyanFWS0dB?oc=5</t>
+  </si>
+  <si>
+    <t>La Silla Rota</t>
+  </si>
+  <si>
+    <t>Sener anuncia proyectos de gas para Guaymas, Sonora</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxQVG9XbFk1aS1BbWFzOTY1dDFza2dTby1xYl9aMzVaMEs4dmtsbTVRNm5kbXp0MnYxWm00R09BdlNXVG52ODB6YWxqS2gwdXRCVlM3Q1I3WEFSRUVIQjlHWldkckJxNFJqTndnLW9YcGxxcUpianhCbHpVWnhiQUlnS3VvMHpZblptblZIaHV30gGTAUFVX3lxTE9FTEFKb2VPYXpJYm9nWExyQl9TUUlrZU9Za2ppdUJsQ0pUZkhZdk5XaTZPRGk0UnlibFVRSnREQW1WYkJHZDJQOEhzNFJIUHVQZ1ZwYnBwdlFBYVRjNTU5QXhoRXRjbzZncVZobkFoVW8xSEg3LW5qSFBva2cwcVpMTWwwMFFlZ1ZOYkVrNktka1JOVQ?oc=5</t>
+  </si>
+  <si>
+    <t>Excélsior</t>
+  </si>
+  <si>
+    <t>¿Cuánto costará el tanque de Gas LP en Coahuila y Durango esta semana?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggFBVV95cUxNaW5kYTB0RFFKYlJmWTlIeGloRjZvTTFxQmpQUDFSM0pTRldFMG1RaG45aU5rZHRadkVsM3FESFRKaUVFUzBaQ1hvUE5XSzFQc2hBZU5PcjlscTdiY3VmUEpZVHJYX1VLRl9jMjZDdUdhdExaczhUWTgwZDQ4bTU2YmNB0gGCAUFVX3lxTE1KWUhSXzI1amdFaHdwaFZ6RWc1MTJfNFlzMDFldUwwSFR6Zm9lbmMtd21HcGU4bGQteG9rZEpUV1lJeGRRMGhBYkVoanZTM3hieTBVcGpPMFZXZjItMzktZ1pfd3lRblN2bWp5emxXdGMzMUlBd1ZRdEJmQXFNLU9lRVE?oc=5</t>
+  </si>
+  <si>
+    <t>Inversión puerto de Guaymas gas natural licuado SSA México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxOdHlpUW9yRDg3NGJRQ01TQm5OUWlnWGdIZmNQU19WRE1jWTVaZklBZGQ3WFdnUWlfOFlVdkdrd1hvU1FhRHI4czdJbkhkZjU2Mi1BVWs4TXFQbU1jYzFUcjdOZDZiUTl2QkRRRzQ1TmVSaWJDc1hMUFpzY3VWN3VrSnktR0duN1FrNXZLZXE2emp1dGd2R2dLeUZQWGNER0Q1dkVkNXZ4WdIBpwFBVV95cUxOdnBiR3hSLVZMWkFlazhrdFFoVXU3eWZZVjROVkUtTmI4aExwNFNPcjIwMGtvZE0yUXljTkFDbmpBSkJpUjlwb212NWRTQS05UEFYdkdQZVFzcWZ4NS1RRW8zbVJGUm1tMWJkOUdHN2pJdkQ1eEFSQ0xkcjFaWE1mWE51eEJDRklReWJPa0NNWmRZNng5aFozZ3pUUWxLekpfd0hOWDd0Yw?oc=5</t>
+  </si>
+  <si>
+    <t>Explosión por fuga de gas provoca incendio en vivienda de Hidalgo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxPVERCZGUzY0NycUlseUJXZzVUMWFFM2xtTUU5aF93Rk5kanFXaXJKb3REYVd0UHBkaTFLbzlCVy1LUlFLdXcyTDVDYUdqTHlnSmQxY3VuN1FONmFZNjlyRmpGbUF6d1ZZX3JacVg5V2hUYXJSTXVWd1Rmc0drUUhkZ1hFbmVMTnhQV0w0T1BUZkVZMzjSAZMBQVVfeXFMUHlWZFd1VHQ5cVFsLWF5X2NEREJYVDQweTlGN19wMksxdGpIeGJFWkV3bldsU1lYYmFwcEdCMksxWVFlZDVUcFpRUUlLQkd6LXFqY09adkpBdEtLSV84MENXWmdTeUMxWTRGS2xiT19FM0RaUGU5eDZXeWpRZG0zR3JHaUdyTFJkOTNEdjN0ckhySE9Z?oc=5</t>
+  </si>
+  <si>
+    <t>Morena prioriza la Ley de Cuidados, Movilidad y Plan General de la Ciudad en Nuevo Periodo Legislativo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxQTjdZaWx5elRGSExFUGJ2SFZzbjVld2t1UXk3cWt2Xy0yTTNiMGhMSVZXQnBNY09GbFh5VmNReG1ieVJGZ3g0a2IyZk5Fb094RXRJR19QX0pwTDhmWThTXzZQUmI5VmFOQmVnejlCbDF4cUFObFZ3ZV9YdWN1eWNCZ3gxT0wyQVdNVjhSYUIyUFJrdi1mTmh5TnVrRzc2UTFQVXZYRV84VXY5TjhIWDlEYWMtTk9oNlp0QmNGcmFBZ3VrSWNJbnQtVkNqR1BNWS1adFRWRG9sR0VRRnVBSVVmbEREdnBlVWF6TGcwMFFHRmlDd9IB9wFBVV95cUxNSzZoelFYc19LTjl3UDVfSVdVS1ZkeTRlSGI5bVhtTmJyYnFBd1NQM0dsT2lJWE4wV3lqZDZLU1pWTndZUUF5MEwzcF94N0U3bVkwQjgyLWgzVjlic0FQWHR4bFVpTTBNUHlFU1RTR2xDY2t3YXZKVDl3X3I3TEFPWWh0TFVMdUFzY1o3dmlRNXowXzZ0Z3lqUXY2NVRpazVHdFV4UUhXajVHMC1yQm54ejR6QVpjTy1ZdWF3U0llM250TlUtTldfRjhxUzlHdzRTeGpRcnBsaHdQZFp2c2d2SldCeElwTXZRRzlpbkNDYkVVOTZETFZ3?oc=5</t>
+  </si>
+  <si>
+    <t>Movilidad Segura en Edomex 2026: así funcionará la nueva plataforma contra el acoso sexual</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxOSnREdmlhYjJDRzRFcW90ZS1Mb0ItZnZ5WjdmWUcxQ29EWFNSUF9kUTJQV2JkVTFrMEVfdHZsRlY4c2JMVHBoc09wQlBOTEUyN05SdGhXOWFsRnpfajdqNFplQTVQM25DTTFZeGkzV3BWWEtQbFhwcGprYWhrRWp5TWNVeTliRTRvRFlVajRPRnlQeXdRcjlwMUlZV2t6VGVSODctMk94U29YSy1BSE00LVFNQ2dMVEZBTktGRUIycVNjdVQ5dnNNSGFTVndpTTJNc3Vj?oc=5</t>
+  </si>
+  <si>
+    <t>Un hombre con movilidad reducida fallece en un incendio en Tarragona</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxOMXdQTzk2d3N4T0ZubGVHblZvWkVnSk9VVGtWbHB4a1JoSVZ1X0pUa2ZGYVp2YmdjcmtFelVmM2VZOVhxejlFdW95UkZCRHZ1MlI4T2Q0MEp4OFdDdkx6RnJxRDhNUzR5ZjV2MWxPYm5ORjJBa2hWb3lNWWs1YnAtc2xwcHBoMUdGQjdubEV4RzUyUU1JeFBWcFV1RVNBbmpjTVNwUElfc0NMdi1MRW9ha2phMEYzOHlNLVRzTjhGM0JMdThHX2N5cWVkQU16V3Ut0gHQAUFVX3lxTE4xd1BPOTZ3c3hPRm5sZUduVm9aRWdKT1VUa1ZscHhrUmhJVnVfSlRrZkZhWnZiZ2Nya0V6VWYzZVk5WHF6OUV1b3lSRkJEdnUyUjhPZDQwSng4V0N2THpGcnFEOE1TNHlmNXYxbE9ibk5GMkFraFZveU1ZazVicC1zbHBwcGgxR0ZCN25sRXhHNTJRTUl4UFZwVXVFU0FuamNNU3BQSV9zQ0x2LUxFb2FramEwRjM4eU0tVHNOOEYzQkx1OEdfY3lxZWRBTXpXdS0?oc=5</t>
+  </si>
+  <si>
+    <t>Benito Juárez defiende espectáculos masivos garantizan seguridad en Plaza de Toros y Estadio</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxQR3RHekZyZklJZWlwVkJjdk1ta2dQbERrV0JMVVVhRkI5ZDlZME1aeXFBdEg3VUZMSGhkbTQ3bmdaV3NzcTlwMVA0UkZlSXFZUkhESFBXVUMyVkNVLV9WZ3M4elJMRXMyLTdKQjhWVjFSTUxfVlRDcWZ5U1YteTVlYWp5Zkl0VjQtWmZhbHhzUk56SGlvdmN2TTh2cHZFVHBMZFFrX2tyR2xaTUNuOExpaVdQQnRlTk8yWkRUSVh3TTZSTlNDR3VibDA2UGI2LWwzTk1QUTcyRW8tTHVUbTBYOXR3aVhPZHRfbEFaWVg1cWJldWxfZW9jY3dzMGV1X0VOZnfSAZYCQVVfeXFMTzNNQnd3UV9hcTV5WTd1MmNIVlNfWXIxVXIzOWVJSGtweVJVd205dkdDQ213alkyLXBtX0ZiRmsyWVZXZ1NhX210UjRDYUNaQUJZMlpseVYxcVl6TlhhWkFUZ0hrVlhGNXhxY3M1TjBEb25kQWxfWlVQWkp0TGF6aC1uUzdfd1lnWlV3LWFBTUZKS3NpUmZmQ1o4WmtLMmNWZmd2N1Iya21Xdlc0SE5BMGNXVWhjZVc1YnYxeG9KNmRuOHVBaktpRE9CdkRkTmdnMmFSUlhoaGRvdk0zTU92TDFtRmR3dnhab29HdDY1dDRNbHpaVndYaHRnaUJraDRGdHcya2xlaENyVC1DVmMxdEl5UmJEenc?oc=5</t>
+  </si>
+  <si>
+    <t>Seis adolescentes escapan de Casa Cuna en La Paz DIF activa búsqueda y refuerza seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxPcnFEdHZZZlB5LWJmT1RTZzhIdkdNcnBNN0pvRVdCNW5SM2E4T29YRGdGbHdtV0d5Qjh6b2NSMDk2Sk9NMXlEVWNfdTlzN2YzdkJUcGpTV1Rqak9tekc0allXMEZkTlhVbUp4TDJWdDlkMWZpSkNRYkRZWkFXOWFMREhDZUw5bFhpaGh0SHEtM1RvYl9HN2x4X0Nkb05TeklKdWJFTnFQVXItWkxRMTU5R2FYdmtUaW0tT3llR2IwQ2xpaVlQMW50WtIB3AFBVV95cUxNRjl1MHoyQ0RFNUExTUFLNGdJd0ltUGpEcWdDSlpNLXZyMV9fUDdkZHhXNHZTS19aSktBS2YyWFQ4OFVXczhDYnJBYlYwRUNPTVg0QkRRMU1aZlc5clhHUFRjQ2xnTHRRdVo0MzNvTFVqUHdzLUJpS2NCdndhX0NfRXIzc0pTYjFEUXJDQk5XRVpBb2p0TjRlcDY0bDVxM0ptRk9rVk5qYWVidldBdk1UM2E0LWVVUnhtbnFSLXVxbTJtb0xwZGxtVldCTmk0eGEwQ2tDSnVFcWpmc3JZ?oc=5</t>
+  </si>
+  <si>
+    <t>Qué hacer en la noche para cuidar la seguridad del celular: apagarlo o dejarlo bloqueado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxPN3hFbjZBMTBicVBvdHUtMHVJcFAzbVFGRG9iejMzYWdMVlZKb2ZjNGIzUnQ4Q3NtVFNMR0xsRkhJSzRFSDdtZTgwTzQyVmhtMlczY0tfQUNSZHlOTkRVYXhDeVpWT3hPVU5OSGlIMkdzcDh6Szl0YXF4dGhCeEMwVDVDLWxuT3djQ2hYRjBvVTJ6RzRvaThtLS1rTG9jeTlReFM0UnBRZXJmQ3FZZ3V2b3FoTG9qa0VFWno4UmRCNC10ZWhGeWhhVNIB4wFBVV95cUxPUV9YS1RtcUl2ZlJjUUkxUmQ4N1lMc0JZcnAtMVA2aFJvT1JXRHBnM2lUNm5FX3lzS1RCVFBZemNJN1NhbjN0WjAtbFl1WEV0Mm80TlFHdVJvaVlNY3ZhWkFjSEk1QTRFdUlnQzVPN01BSUUxeHVST0VLNG5qTFhrcHBNR0daTmVfdTI3NlJSN0NjeFdvNDJ1RGlzejdiR3JMRFlQM214M1ZPX3c3Q1dCdWU0THp6dlBQM04xWmNSUFNFU1J1QW9sTWUwWlhnS2k4aHJxMlB6S0wtUVpTRXFmMzZGNA?oc=5</t>
+  </si>
+  <si>
+    <t>El presidente Bukele anuncia próxima visita a Chile para cooperación en seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxNRHNZdHV1dVZKYmZ6a1NEd2x2T09hYm05WFVpLVo5eW5OS2N2RkQ2Sk42WllFYXRXTkhKNm0tMmhZN1NBRWwwbS1NcEZzRXVLb3NUZDRZN1ZzczBHZ0FGN2NkU2QzSHFFRzJuTzBOcFpKaUl1M2ptcEhwZVRUYlpEamJxZGNBY2hObURLQ19vTVJzLVAxYjVTWjlCcU96SlNLanZ2alhxVFIwZGwzTkxTTHhOdWxTS0FLdjl4c0dEV3U4RjdtMFFRM9IB4wFBVV95cUxQZHJXZHdiYkdEYURtTndWZmFBdklBeXo4YmhtZTRWYWdaMXhkc2lJS1QxUnZFeHQ5ZUNQeFJRN0lmRVFhQ0NNVHdUZmIyYmZycVhoNWZOVldzZ1RCNk1FYXpkUUk1THp4VnFKajJTWS1mTm5VVmMyVnpoQ2tpMnZ6SHVhSHMyc0xVdEtNVk1qbmo1YUZpcVYtdWNQdnVFdnQxRERSQVhScEo1a1UwZXJtOFpYVUI0Q0tWWVNETkZSbWhybXAzTkdqc2Y5aGRySGMxeGQ0SnpoUlhzeEJ1R2tZRGxpUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Mundial de Futbol en México: el reto de la ciberseguridad y la protección de datos personales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxQZ0tQWGRyTWlsMThET1hrdFlTeVBIMGZXaGpUc19nLUNVYTdCOTAzR3ZzakNua25BM0VkY2xBanNUMHJvU3hEaE9ldWVpZHdFZXRtaUpSWUVhNVA4ZWtaY1dvUUtHNGQzd2cxMjRDQ1lIMGx2aUpRdGk1TlhhcWN5cTluc2g1ak15NTgtS2Jtd200WERDOHJPMGVNcy1YUFVEMURzczB5enE1OFk1UGpXcHFwb3pSMFVyV3lYNGpyVVF2Z0dEX1VKZm1aR1Y2MjQzdHB3V2FDdkhWczNVQ1FxMNIB4AFBVV95cUxQZ0tQWGRyTWlsMThET1hrdFlTeVBIMGZXaGpUc19nLUNVYTdCOTAzR3ZzakNua25BM0VkY2xBanNUMHJvU3hEaE9ldWVpZHdFZXRtaUpSWUVhNVA4ZWtaY1dvUUtHNGQzd2cxMjRDQ1lIMGx2aUpRdGk1TlhhcWN5cTluc2g1ak15NTgtS2Jtd200WERDOHJPMGVNcy1YUFVEMURzczB5enE1OFk1UGpXcHFwb3pSMFVyV3lYNGpyVVF2Z0dEX1VKZm1aR1Y2MjQzdHB3V2FDdkhWczNVQ1FxMA?oc=5</t>
+  </si>
+  <si>
+    <t>Condenan a 40 años de prisión a ex comisionado de seguridad de Nicolás Romero por homicidio</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxNUkRQNUU4V0ZKalhfZjZIUEFaTDRzcjJ6RWstd21uVDNfZFAzRm1oeTFXcDB1VDk5MjV1emlFbTlLX2dEMUVUWVB3dlpiLVFWck11NGlqRWdLQkN6T0J2Q2VUV0xOeXY2R2FIVUJ1TW1nX013U21Lak8zb1dzY0FMdG9iMURPUll4SzVxdm8xMUhVWjZRWW9QLXRiaUp6c3FySWhaSzBuMDU0Mjc1em53anFsNTNPQ0ZqazlkWjFXVWR2VjNqdkNvTDVnWQ?oc=5</t>
+  </si>
+  <si>
     <t>Cuba se queda sin gas LP: Jamaica se ‘rehúsa’ a venderle petróleo por ‘terror’ a aranceles de Trump</t>
   </si>
   <si>
@@ -538,12 +643,6 @@
     <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxNajBfVjE4Zkc4MGZZT1dtbGROX1BoRXFBNUM3Y2t3aW0yeU9TRWRmQkZsclpKVXRUOE8yWi1pdE5ERmpTYmVIN05PSnFpVmVZcGd5ZWxjQnpPNzlHZ3ZNVW1HYzJtbW44b0ZVYmppcmphWlJ2a09SWnJhS2JLTW9UZHB3SDNVUXg3LXJnNDRmaUJtemQwR2dNY2NfLWU2aUNBbnQ5aVBGZGZyT2R4TGlsWFFBNVVQVE9pV0M2eHB2Vkl5NTdu0gHYAUFVX3lxTE41ZmtieS0tVEVYdlMxUVhyNXhMOWxkRUpkbE9XaExnV0RYbjZBZndQRklKV1ZhajhiMk9OUXFMUHJQaU9xeTVUR3J1X1E1MXNjMEhuQlNvM050UFFYVWdWWWFJUjhyWEdqd21NRUxaMFJUcG1ONXlzRzJSek1fUkl4aWIzZW9JLXhYOURCM1QyVVFoMjBJSW9GaXppejloY3dLdmJvSWNRT2txM1ItNk5ULVgzRGMwQzFrRWh5Q0hMb0JNNTdoSGhHM1B5RkFTLXhzNG45anE5Tw?oc=5</t>
   </si>
   <si>
-    <t>Tres fugas de gas en cinco meses en Coacalco</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxPUU9laHZEb3o3X2huQ1VYbk96RkZhdmRNV3pUV3YzbnlGaS1PVE9VR2tVdndkdW1zWmgtVUdSYkpJNGxwU0xGdTdqeWFCZUstTzFQNVh3eVFmZ0diWDhWLVBYNHlxamxwM08xVnkwT0M4SF9RTWNpRE9nRkZvT25GZWNRNk5zREU3dTJMM2h1NmVBcnREbjRZUk55UFhxSVVjeWgtN3hpc202RzVYaTF6aW5hbTI0SnFjYnVzUdIB0AFBVV95cUxQdXFSOFV0Y2hDZks3VGF0NnlpU0E5T2ltVHNqWTdyT0lwb3JqUkVKX09oSzJBZVRqSHdNMC03UVc0bTJiOWtKcGFtLUM5T3dXYi1XNDRiSll1MVFkTFhHT0JORnJteFhpZk1fUk10Q1hWNzZGMkU4MWlqZ3NIdGpScTdsWG5LSkJ0VXJzSUZQcDdjc0VWaVYxLVNibVI0bHpmeTdGTkxIbnJrN1JsTUE1RDJCN2hDUUl3eVhReml5NmRzOHpkdUlMV2dJcmNfS0dX?oc=5</t>
-  </si>
-  <si>
     <t>Gas Natural y TMEC</t>
   </si>
   <si>
@@ -556,81 +655,513 @@
     <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxONmFlYW1tNDNMUHJaWWR3YnVsVGdUU1d5LXEzRVRsbEc0OHBhTWs0a1BzY05LY29nSUlnMjI1YzFuWVhMZHlzaV81TUhTcFdKM3dtWE9VekxlYTJraTltd2VxZmJwT3dXdkx2OU01dk9rTXBuajhZdU9HTDJaMWxqbW5US0tVbUNnZ0pkME9wdTFBYU83ZE1ESldvZWRJSk5ZcF9oQjRQRGdGMVF6N3ZNMTJQTGJvZjN0VkZMR243MzRZeko5NEJXdmhyUTQxOEh0YmNUem42ekJINjDSAdsBQVVfeXFMTjZhZWFtbTQzTFByWllkd2J1bFRnVFNXeS1xM0VUbGxHNDhwYU1rNGtQc2NOS2NvZ0lJZzIyNWMxbllYTGR5c2lfNU1IU3BXSjN3bVhPVXpMZWEya2k5bXdlcWZicE93V3ZMdjlNNXZPa01wbmo4WXVPR0wyWjFsam1uVEtLVW1DZ2dKZDBPcHUxQWFPN2RNREpXb2VkSUpOWXBfaEI0UERnRjFRejd2TTEyUExib2YzdFZGTEduNzM0WXpKOTRCV3ZoclE0MThIdGJjVHpuNnpCSDYw?oc=5</t>
   </si>
   <si>
+    <t>¿Dónde cargar gasolina más barata HOY? Precios de este lunes 2 de febrero 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxQaXVxZEcwTk9QM3hvaUZfeGQ0eVAyODl1dHVTVVRYRzR0WWphMHZFN1I2akROd0M1UGtvVkg0QnBEUERqZTBQeFRNVzZNcHlsZU9nekFzVjB1MHBBRUhSTDhHQWJmSmlLUnpMZ2FndXRySVFnWEFjZEx2STEtdk1NZTIyb1dfVEZQay01bWE3UlgtTzBpamw2amtPR3dGb1diYzZ0YUdEQXhKT2JtUHVISFo0N21iOXplRGhGc1NFRFpyZXJuQ1A0ZGdGS2RvQVBs0gHWAUFVX3lxTE1GV1FQSUR0Z2FsYW4tcjRlYzB2aUg4cW5MbWF0MGExNk9PQ0pHMEJpTThxN1UyQzVHUGJUd0QwMlZlN1NYMGp3a2pEYUVIYXNQOWNJUWMtZlgwZUJlLS1jaVZNU2E1ek1VTEJrOTVxWF8ySDJRcnRCMDNXRTVLNlBHb2xoZDZYeVFrb3ZsV3RUWE1JMDB1S0hjSnpZWm93RzU3bFpJbDFLNzlabWRHVGF5c1UtMzdWQzB0TlVEbDduRmNTdHBjc2FQdE9TQ2o1a1hrZXNpcVE?oc=5</t>
+  </si>
+  <si>
+    <t>Las tortugas han reconstruido las Galápagos: las grandes ingenieras ambientales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxOT3ptdmJyeEQ5UHlOYjZFRzFrMkJkVkIyVWlLeEZtMjFrTEJnSlJwSFJGNk1NZVJaaHAtTXdwNXUweWpJTkZmdVV2VndaTTB5NkRyQTJhQ0U5WWhqc3hxTjVCb1lsbWFDNWYzR3FMdFJnZkxjVXMtLWp5eUFYbHo0SkZyOEpnd0hSLW5sUFZTbXcyTkl4RWJBNkF0eGthT1B5Z014Q2ZZTGF6c1ZJZS1BcEhZdFF5UFpOamVNRWhjRUJKZkRtTFRjU25kRVpMWVdj?oc=5</t>
+  </si>
+  <si>
+    <t>Animal Politico</t>
+  </si>
+  <si>
+    <t>Zarpa el primer buque de gas licuado de petróleo de Venezuela</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxOb2g2Y1NWREZ0Q3hlZTlGdy1CamtYWk9KdlYzWm1yejFHVlFsVTNkUWdob21LTmNQRzFaLThXcDNmdXZpR1JUdHYtQnFGZlNTTWhMaFFYRnlDNnVyRTJYZEMzN0p3OW04Q1VKNENMYzdKNl9wajBwaVhwU2l0YjFKUWhabEpuN1k1dDVMaGVrcGJfU2lMTkZqNTVZbk1QWDVzbkIxWXN5cm1TMFXSAasBQVVfeXFMTm9oNmNTVkRGdEN4ZWU5RnctQmprWFpPSnZWM1ptcnoxR1ZRbFUzZFFnaG9tS05jUEcxWi04V3AzZnV2aUdSVHR2LUJxRmZTU01oTGhRWEZ5QzZ1ckUyWGRDMzdKdzltOENVSjRDTGM3SjZfcGowcGlYcFNpdGIxSlFoWmxKbjdZNXQ1TGhla3BiX1NpTE5GajU1WW5NUFg1c25CMVlzeXJtUzBV?oc=5</t>
+  </si>
+  <si>
+    <t>Explosión de Tanque de Gas durante Feria Patronal en Puebla Provoca Fuerte Incendio</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxQa2ZkOXFpRGFUam9RMzJCdkQwODBnUjByb2xKTi1tdjVqamkwcTBUaDYzRnBvSElfT2hialhrZTZUUlQtYmF6ZVJUWWk0UktFbXE0MFRZdGxJSG03Vmg5OHNfRWxmbWZZMmNJYnJPS0lNX29HTDk0LVhTUVk3bTN2LWdBVU9STlBWLThoMHc3dmFta29sN2FQNVljRG1odEYtV3U0WmljSmQ0NnNJeS1xUEdLSzRjaE5pMDlETmVKeFB2VGZaSklndktOWHJEZUN3WFE?oc=5</t>
+  </si>
+  <si>
+    <t>Venezuela Exportó su Primer Cargamento de Gas Licuado de Petróleo, Anunció Delcy Rodríguez</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxNVG45TjV4WFpOc2FqSWRTaVhVeTI2ekY5SGVpbFpqLXk4SWdMX1BjUG41NHc3blB5ZXVvUjBXakQ1YkZ6aVpIMXM3Rk9SZUNSMENEM3RSalRnbnIxLXg0ZS13a1ZrQjNUUkQtOE9pWHJCYklYcU9XRzlUUU52UU9YZ1p1ZjI5dkxnQmw2QXp5OUlnRVRPbzBva21RMmhkVnJPRDMzYU1iN1FQeXU0WEYxWWVRMHRHTzB1S2dLOWZ2eW5yVVFlcWpOaU5acHRVelUwNkgtUjMzeUx3QmRJbEVfb2NR?oc=5</t>
+  </si>
+  <si>
+    <t>Video: Momento Exacto de la Explosión de una Casa por Acumulación de Gas en Álvaro Obregón</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxNYTFXMVE1bWQ5djVPZHd1Y29HUVI0NmFnUV92UTZhY2dqLWMyM1B3cFBoaDNIMVpwd0F1aDd2R1k0MXh0M1lfRExEN1VEWXZPdFZLNHNIZVgyN0ZlaFhZbDRiQ2UzbWlWeUVqZ1lNTzBaakp5TDVsY3AxSU5ieGh4NEt2Y2x6eHFyU2szM3d2eDkwZkxYd1V6cTdJcDlJTEtVZzMtWnJDMEpGMkZFLTMzSFVaZ2l4dGxoR1RVbXJRLWM5ZWQ2aDl4aU5tY3ZVVnBZYWhKNzJYUDlNQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Desalojan Edificios por Choque que Provocó Fuga de Gas y Agua en Monterrey</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxOQzJNcXpLZ0RGV2Jmb1RSYzFnc0tYcHQteWphcllRVF8yZGE4dlBQdmJLTVk1UzROYmRYczdTdVpuM1hPd0E1NUQ3NHcwVVQ5dDJQMlVlM1Z0aktYaEdFQWZUZklhbEpXOC1leFllQ0FsR25KUmRpV1ktX0hpYXZ5TkhraWRhR2xvNXkxdXgwN3o0MmZQRmdRMEdOMkdKNUFERnlTUjRsa1NxZGxlNHJNU1B3UVROZm9IUXJPTnBnSXdyMEJTWGpPeFFVaW05NE1fRnpZZg?oc=5</t>
+  </si>
+  <si>
+    <t>Explota Tanque de Gas durante Feria Patronal en Puebla</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxQZ2lPV3phTkV5aUo1SEFUVUktU00taW9WbzRWc0dhUWVUeFZvcGRqR3Yzb3A3SFMyejdiM01pT3BBQl9admVhVUpvV2xBNTVzSmR6WTRRUUl1TzkweVg4NTljaG5zOXJlMVZWaWhxSENnNkJVYUxQdV9sVHNqM2thbEJTTmJNZVNmWUFkLWxIRU1lRk5zU2E0ODI1LU5lck04enFMLWlRTVc0RG5LRWs4MVg3UUFjcDFjZ1lqcF9WSnBiRDJpelNEcDFCQ2dibE00NzZtZA?oc=5</t>
+  </si>
+  <si>
+    <t>Fuga de Gas en Vivienda de la Col. Doctores, CDMX, deja un Muerto</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxNa1ZMZVFFNlIwWXl1XzF6MW5mSVVwTEVyaUV1ai1qRTlJQXdaRHpncEdNelRJLUxHS0hVbUlhVE0wbVExQnRxcHhCaTdLalVTaFJ3cm1ycVVxQWZhdHpJdUtMRzA4a3BjdUVMWGN2dzJpYXBiZl9mVlhKa3ExOC1hWUtucGZSWFN4dXFLRjh4eGtCcF81UWhOZ0RnUTBiZFJocFlfQVBuczdDME1UWGZPMHJLVHhsUXM?oc=5</t>
+  </si>
+  <si>
+    <t>Explota tanque de gas cerca del Hospital López Mateos, en CDMX</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxPN2g4NnNYcFVtdVdRWUJMQ1BrTHpKRS1PenV2YVJxb1ZBRnRDWFFfLXF3d1ZlMnQtWE9JSEU5NGltVEt4akR5TkoyUHk1Nk1WNDduLVVJY2pfYlFVSlNTeXpSQUtHSVdMYnRSeloybFMzTlZuVDZxZzBiYi1YZ3p0MGN5QWhmaHpTSTBLV19kR0pHMWdKaU14bFE0Z0lhbk1jV1VZTA?oc=5</t>
+  </si>
+  <si>
+    <t>¿A cuánto está el tanque? Precio el Gas LP en México para la semana del 1 al 7 de febrero 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxPUVd3dHkwTFpRcTd6UXhlc0NYalR4MW96dHQ0V0dWTm1kRE5DbVMxNlJPc1I4U0J0X3d1N0JLMkRPQXd6cnhzY2tNekpKdWRtMUJPMHZaY3FKZDlPbmlqNG1QeFdmTzJ2NnNEYmV2SkQxYlpCRnNUZm0xVW9kclpPTmJGMDd5bDNkcTlUUlFqMnpYYXc1eDBzNnU3YnJUVTdvamN5MlZzdFVqNXVuTHVJZGhtcUZOeDBOS0pKMzNHd2lNX1U?oc=5</t>
+  </si>
+  <si>
+    <t>Plan de viaje: Así amanece el precio de la gasolina este lunes 2 de febrero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxOVXJfOWpzSkM2NHZXcmNmZl9UaGRfVWJlRHRJejlLa0c2MmtXVU0tU29JY0F2bzFrUVFDcGZrTkQ5YlU2NFhJVDRhTmEzejJkMGE4WkFzNzcxSlBFVFA0Q0Ficlp0S19jdVZ4d212RUF3ZVdkQ2NDcllISG8zRUs1Q1dqVExSWU1yazNUbF94THBISnZaZVNpZkV3M0hpX0xHalhCRWRTdG9GYnRVRWg2aG1vdTBITmVDSzdLUFhFYjNMQjViTkE?oc=5</t>
+  </si>
+  <si>
+    <t>VIDEO: Captan momento exacto de la explosión por gas en vivienda de Álvaro Obregón</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxNRExtdU1jWk53cGRVTU1MZnlXRUZ2LVVLUThNZ3ZUcVprNExQQ1BzOVVyTk9FSWVVSi1WTHItdU1xYlhmYm5LTHUxS043WFhHSmo3TXhoY2E2X2lxdGdfZEhRX0xYZEtPaXExenRiN0d0QTUzTkNBVUc1Skg4MGVMWmJ1NFI0d0YtdTdib2JfLW1ISzk5UGFwampRMHZBWUpCLWppZVRJTU1aV2JxMzZhWFY1VQ?oc=5</t>
+  </si>
+  <si>
+    <t>Emergencia en CDMX: Fuerte explosión por acumulación de gas en vivienda de Álvaro Obregón</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxON2cxSmpidFJ5UmtMTEFXcmRWVVhxRVdvZmEyQU1CdS1YcW54a1Y3SXNPLVBLS0ptMVducVc1cEwzLWFFNUhXbjVQNzFsdGNoRER2QUxvNTNKRmY3UHlQZE9yanhlX216TExZelIxck5CR00zbHZ3cEpLT09ESTVvNTlKQkdibHpOdV9iMDhhc0o0QWt6RDZxYjA3dHRSZTVIUDU2WGwyYVFXeVdKeWVmVkdB?oc=5</t>
+  </si>
+  <si>
+    <t>Sin precisar el destino ni el comprador, Delcy Rodríguez informó la salida del primer buque con gas licuado desde Venezuela</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_AFBVV95cUxOZ1VRXzBLOTdDaFhIODI5UHJ3OURzcGhQczNjTFlFS2FsS2hjdDhmblVkaXdNWjZ6bE00MHk0WHd0aVF4U2ZRWmpkU2VUbUI4Y3BGakdybkpjVk1ET2ZBeVJTc3FIU1VISXpRS1ZjVUZza1A3cktTLURxV1VtS1BWVnp1aWFGTGlfNDlKU1BydG5RbFdRY2NCRTZYNWtUZ0JpRkRSNnNQMEtVQXRwX05oVU1pUndhX3pqTnMzMFBTMmxVLTgyU2xmWXJwdTBoSTItQV9WOTR0ZDN0UzUtSjhlaldHdTVtWE02RW5IRzdWSFAyYjJSNmxSNklUQ3nSAZcCQVVfeXFMTXRfZVViTWRDSFFZa0FrZUdCUHNrVXV5a0tVS2lONkRQNS1xWFlSaHdRMmJJRnpmSVdYQXdrbXJJSUNxZFFVV1VITGZyUTlHcHFMR3ZfR0M4VUs3djZERzY1T3ZGcUtlREhmOE41QjEyU2xsZGJSSkg4cThDc29RVWtPMk15akxRaGd5NmdlalNKSUFYclN2YTcwVm84ZnJwYi1OendOZThYZFMydVU0cHFMa290OHIwQUhYQkNERVZveXlLM2FHTjQ5akdLSDBsSWk3NGJrcExEWERfNFlhdkJMcWtxejlhQlFhbUhUdEhJZW40SHdfVENvdUJlZVgtUVA4LTQ2NTBadXRKaElMYmR0ODN0TDU4?oc=5</t>
+  </si>
+  <si>
+    <t>Fugas de gas y sobrecargas eléctricas: principales causas de explosiones e incendios</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxNcjh2QnpOOTNxVDIxY2c5cHFENndibEZwY0ZCN25CUng1b2syWHlUcEhOdDVBY2JGNVBKSlNWcWE4ZTNJTldsdEdlaEw1UjBsdF83SEQ3TGF4VUxZT2FaV0ZGMDhqQ09BUExseTdWeXR5OWZBczAyWHRMRjNQaU40UHo4alItalFUdUhhVldTOUJTQjlNVEFaamRSTTF5MTBmM1B6bTVVMEhGNWZqUExxaWwzcHM5bFV0M0JoZzk3ZDBpZzh0N1J3RS1qQXVqUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Desalojan instalaciones de la FEM en Chihuahua por fuga de gas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxOdUpGNTZFbWY3bWxZVzhoRm1yN2RpMXZhVmR4SEY4am0ycTlLRG9BdTBfX29rTThVdm5naGJnanlPN3VOWVVDdVVXVkdnZ19rbGhQWnc4UWRRTEhXYUJGQkNnNm1YRDRXRGUzYjZoZE9jSk1OREJlM2h1WWRxd0tvSVpnbkljaTBrZ3AzMDl5Y1lleERzVEJVSEl3djkxRzVPUk5SM2xiakdVdW5mekxIM1JYa0d5RlcyS0dzcHVn?oc=5</t>
+  </si>
+  <si>
+    <t>Rescatan a perrito tras explosión por acumulación de gas en Axotla, Álvaro Obregón</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxQR2E1RG5GWEMwSU85d2FDbnlfNE10aTROZjJtdG42MERBc01ORm41bnd5WEx6OHA1OHR4bWgxSkxOLXpBYi0zU3JiODFQU3NXcExxYlhEZUh5WnpXMTA0V1BoQ0dNSkNpT0lTemhveTZzWmlSVEVCeWl3NzlrdnhaNjF0NU9TQnNscVBhbmFTM1RpSVFKU2NlMUVnb3VKNzAyb2JRS3hxSWJvdFZqQjl2RGQxeHNNamFHSkZLemJKVENhcTl5QTE0Tw?oc=5</t>
+  </si>
+  <si>
+    <t>Explosión por acumulación de gas en Álvaro Obregón activa a servicios de emergencia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxPa29rNjl6Mkp4S3pSUkQzdURnb2hZcVlEQTdaUTB6R3BVeXlCYlJYWi1OZXBVLWFLYVFrQUtDbFlfR3BuZF8wX1RoMWxLX1lRTnRQRTlfOTJHcEI4WHBVaGtiMENiNTVKd045RWhpRHdzc2pfV3lDV2thOGRYSDlrQUE3eGI3T09PN0cwdnFBR0dsY0liSFRnQ25aU2djaUJnZFlOXzIybGdXYndkQkJDc0xaSXRJdUxGMWx1OXBCZHFoaDA?oc=5</t>
+  </si>
+  <si>
+    <t>SDPnoticias.com</t>
+  </si>
+  <si>
+    <t>Precio máximo del gas LP en cada municipio de Veracruz del del 1 al 7 de febrero; los más caros y los más baratos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxNQmNuSjBQc0RjREJramF2X0xnSnc5dXoyNHdnSE5zRUU4LUpUcjlwOFV0NGdubDFoVnVHLUlveUYxOFZHSnA4V0U0eVBzcjA5LXFlRThZYmFlVF9IVmtpeVZ5VDJmMkthSFBaT0drcmhUcklJcDZOVko3VzFGMVVPQS1xWXhZOUpSMEJIX2xmT3NicU93SkYtRnd6M0VEVktZX3BuMUV3RDZOWEoyb3lhZUhPVHFkdjNhbWZ0SFF0TDZ0ek1QUWcwZDUzV3FVNDNnZ1c2dHhZaG83MXpKZG9ZbHQyMXlkNm5XYjV30gHrAUFVX3lxTE1CY25KMFBzRGNEQmtqYXZfTGdKdzl1ejI0d2dITnNFRTgtSlRyOXA4VXQ0Z25sMWhWdUctSW95RjE4VkdKcDhXRTR5UHNyMDktcWVFOFliYWVUX0hWa2l5VnlUMmYyS2FIUFpPR2tyaFRySUlwNk5WSjdXMUYxVU9BLXFZeFk5SlIwQkhfbGZPc2JxT3dKRi1Gd3ozRURWS1lfcG4xRXdENk5YSjJveWFlSE9UcWR2M2FtZnRIUXRMNnR6TVBRZzBkNTNXcVU0M2dnVzZ0eFlobzcxekpkb1lsdDIxeWQ2bldiNXc?oc=5</t>
+  </si>
+  <si>
+    <t>Explosión de tanque de gas calcina dos motos y una camioneta</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwFBVV95cUxNN0tUa0JJcmNSY3puVFM1UnEtSXNRVFpuOUM4UGgxN2UtMkh6bEFQZTc0aVZoWExCRnBzY3dwcUFNbEhoN0QxN2xyZ0hMalZQaXBHNC1wdUJqRW11NnQ0SHBySDBzVEE4dlZ5Vl8wYTM3dVk0MnMxbFJScXk5SEVVQ3FJendQVlY3ckJsODNmUdIBlAFBVV95cUxQVjEyZDNVUlJod1lSUUY1bmdOVURKN1pYUXdVWUtTdEY1dGtUZF9lb190RGVWc013R3FyN21iMnY0RkFUTlJROTVicW9sa2xXREtoRDVYcHJkY25abm4zUXFMSW42NERnLTNsVlZPNktYdUt6OE1URnk1bHduUjRDOW1NLXpLSUppQks4S3hvSGlIa0xJ?oc=5</t>
+  </si>
+  <si>
+    <t>Camioneta choca con tubería de gas y provoca evacuación de dos edificios en Monterrey</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxOYWZ3UVZjNHp2ZDFUTHVHUUNQS2s2YkV0NDZ5cEY4X1pVVG1CRUxzVGlhS3BkTUtKdk5QQjBfMmRNalZwQmY2UE4xdzR4LXJRTnhZU3I4UjliVnplMnBtVEJhOTd4SkdRYTJ6UVRIeXdtMk4tTzN2dFJGSUJEeFdzb09ULWZENy1nMEIxblBDTjJBUlJvZC1ReEx1VzFRSU9kUHpoemR3bXJIdnYwekdqQkFMTEhHOVh1NzlhaGhZb3lFVTI2SzJPbl9nTXd3T2czU1ktckJR0gHWAUFVX3lxTE5hZndRVmM0enZkMVRMdUdRQ1BLazZiRXQ0NnlwRjhfWlVUbUJFTHNUaWFLcGRNS0p2TlBCMF8yZE1qVnBCZjZQTjF3NHgtclFOeFlTcjhSOWJWemUycG1UQmE5N3hKR1FhMnpRVEh5d20yTi1PM3Z0UkZJQkR4V3NvT1QtZkQ3LWcwQjFuUENOMkFSUm9kLVF4THVXMVFJT2RQemh6ZHdtckh2djB6R2pCQUxMSEc5WHU3OWFoaFlveUVVMjZLMk9uX2dNd3dPZzNTWS1yQlE?oc=5</t>
+  </si>
+  <si>
+    <t>Explota tanque de gas y provoca daños en vivienda de la colonia Axotla</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxPMWhrc1dfVFppOHcxd0szS0FnUkZXQ2dQcjlZdzdZWnlZdXZCM3c2WVFkcHU1RFpQbTFJbzJHZmp5MnE3T3g3NVhlYll0MHJ3QnhrSGtMX3JUZmVRMVNkX1Bjd3RBaGljX3JNSVdvWURKVEVwYUROejNqSUdrVFFOTHlSWkNtTDNFTEM5WmVuZk9iLXJUa3lERXl6VjJFSUtUcnF3eWQzYkd4MHJfNzV1S3BhR1VtU1ZNQzN2bDBNT0c3dw?oc=5</t>
+  </si>
+  <si>
+    <t>Delcy Rodríguez anuncia primera exportación de gas de Venezuela</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxQNkpDS1NXck9UOG5VQzFBdFFGdktMQTBHSl9EMTNYaThjYXp4ZUNmRkZpRWFDb3BsTVAwZzMxWW85VEZfWWJZMkpZZGVCQ0tWUXVJWXlYTWhuMnNFYnZtOUZyZWxRXzk5NEQ0em5PY0VEMW8xZjU3T1lxSnU1d3Q3OWJGN0otYWw0cEJXM3V0eHNLZEFBMV9NYkI1QkZ6WWQtTjJ3MjZFMS1nTEhad3FzSXl3TU9qenUxV1E?oc=5</t>
+  </si>
+  <si>
+    <t>Delcy Rodríguez anuncia la exportación de su primer cargamento de gas licuado de petróleo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxObkRad2JCY3RCcjZlMUJpTUJocHBxalJJekVhcjZCNU9ZUXdnSTdHNU5lTGI0UHdmNWNxS2t1WXpqdE8xQVFrSFhKWF9ETG1ISHluYUk1YUN6YzluN3h3R0hwMnNhNnVONERzTnBqTDNUWEZCWlFOY1dEQTA1ZTVoUzg0cm1CMDd4aENfX1p3VTZvZzZ6NzFadmdOVDdyaEV6Wjk3ZEQwX3FGQ0wzLUZXeUhqeGRaeG1Fcm44?oc=5</t>
+  </si>
+  <si>
+    <t>Urge mejorar operación en crudo y gas: McKinsey</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMif0FVX3lxTFBsZGlEY3hIdzFMTElsS1I5elVpQjQ5V1BMdURuRm92bzhfU3p0NE1NR2NfdXRocDZfdmh2MEZWYnF3TFpEQm9RQWtoMnBva0daRkFpR3pTNVRGQ3NQSlBIZVVZOFBZUFlfOU9wQ0k0eE5zeDdhdElpeFJaS01tWEnSAX9BVV95cUxORzhkQUtVMTg2Q0Q4eEVOMHdZalJQZkx6aEdmTTNzOXFILVVYY3pUeXBlYVdhQnJBRkIxd1VRNkFsWnNJUXoyczFxQUlCQmt5LWszU2NHd0MzR1o0WGFxRmV4anBtbWE3X2FjQnRWYmE3WE9CUGdiMjNqcjNTMjg4?oc=5</t>
+  </si>
+  <si>
+    <t>¿Cuánto subió el Gas LP en CdMx y Edomex? Éste será el precio durante la semana hasta el 7 de febrero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxNbDNpcERWN3k2bDlDZ09CRnNSbGw2N2FRVXpWc2I2cVBLWDBtYTJiSTk5dEF5a2N5ZGRrWkkyYkF4SDVBa2NFbm5OZDNvYlpwN01HUHFqNlJJTUZIMFNIYmI2TEFMd1lIVzhKRjFiXzF0bS15d1cwb1ZhbFVOYWl2TnYyMUNDdWxwZi11ZUR3UG1ibmk0WG5sS3JyTi1WUHBLdlJv0gGjAUFVX3lxTE9zdWZVNDNwTVoyTHQtbWdhNUExa3ZJWGJpcmZmS0QzX0UzVk5hU0FJMWlUbFZXMlNVU0pFYXZqdXBKcTk0ZUM2ak9vNFc5TTBmRDVMMXNkUzM4SHU1QXZJSzZSUGtaUTU1M0RidTZWQ1ZsZ0JLUFpEQUt2UkdZdTR0Yk5wZkxFWWhNdFRoTVBGNms0UG16bFUweTd5OUhqbEp2QU0?oc=5</t>
+  </si>
+  <si>
+    <t>Desalojan a 90 personas de dos edificios por fuga de gas tras choque en Monterrey</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxQVlZwN2hWam9rclkwbXlhOFpKLVplVXpCaGI5MENrSGpCNkw1WFI3OFJEbEk3bjVWaGY2c1NMdlc0WF9jUXpvZElLLUJVaTBjb00zUkJkcWNZOHh5VHZfSElDWl9GbHkzdU1nZWNud0VjMG5od05HWGwxeC1zbWl6VmwzUm5oRVVhbE8xQ9IBjAFBVV95cUxNTTh1U19pN1hyR2swa3hKT2FaQWxUS2VJclM3MWItWm1DRlg0VzJZWVItNHphRGx6WWhPX3BpakEwY3dwRkc0TFJXSDNVTXRuTTcyLXM0VnIyRTdVbHlJY0kzM1ZIWU5VM2dYYXBVTTQ2TjRpa1l4SmJsMUNISzRXVS1WeTlpNV9CbUhIcw?oc=5</t>
+  </si>
+  <si>
+    <t>Por baja de retenciones y de impuestos, la recaudación tributaria cayó en enero por sexto mes consecutivo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxPZGxMdHY0TXVWb3E5ME1UZUVDaXpOS1hKOFpZRDNyb2s4Z3BJVmdFTl81aFN2V296VWJDQllRZ3phTG1NZVdZeFMybmN6OTcwMll0UW1wa3ZwNldoV1ZoeFJwYVBQaE55bmd4MnNtTnYwWFlvdktDTlZHZTc4RE91OE9lYWhzeV81OE1xUUJ2Z2R0MERmZl94Y1FfeTg3eDltclAzbGphT0l3ckVKM0xJTWtlODU0OE1iWlYwdWlGdjdjOWgxbVZSTUhXVzcxSkFYTDJRb241dzMya2tIQTdXblV1Y9IB_gFBVV95cUxNVm5VSWZBRE1WdFNXT3lOUms0X1gxdDdWOE5PSmVHeHlteWRXNW9fSFVZeHU4a0RDS2h2U0dHdEhscW52V25ma24ySUdaVWJ6V1N1N0oyZV9VNzNkYk1BNHUzanZUOFlvSVR6Zmt1M1gwa2ZBSVZ0XzJkU3cwTVh3NjBSZWxGQm83ZE1ORE1RYXRXamMxQWI2dlFKQjdwQVF4TGNDS0VSVzE1RExoLThtNmtzSUpueVZkeEdaQVZEVzNWRlQ1a1ZaOTZpNU9ST1IwVkNCOWo2UlZUakR1V3VFQm4tcFR4T2JuVC1GR0IzMGlDbG9WQ3FVMUFOR3FhQQ?oc=5</t>
+  </si>
+  <si>
+    <t>De la histórica victoria a la cuenta final: cómo los impuestos afectan al premio de Carlos Alcaraz tras ganar el Open de Australia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxPQzdpaFZXRFpieXAwVVdFbnY1YUE2cW55TzlCaTctWHdpcHJzSFR2T25UbEU4MEpsSklRR3BzaVNwdndBWWxDa29NbVg5cDdqUS1CY0RSLU9nOUtmT2FyZnBHbFFjcHBnRnRPTng2M2JaZEpqN0toRVpwaEY2S0hSdTdwZDlEbDZxTnAzajltYmlqWE1TZ0R5U1BrcnlnOEhMaGF3TlpjTldhaG9SYXAtZXdEVjdDQVFMN1VZaTY0Y1JpZEN3NWQwMXBoS29Qc0Q4NHp0NUtNX2FpZEJ3OFlTcXVhcVducXE5NGw2dmJWcEUtMnRHSkJxcnRlaEpPbE84TEHSAZwCQVVfeXFMTlFzVHZyRkQwZzBZdnVpUFVndEhfaE12aGJMZWU0TmNfekhDMmVDM0FEMTZDczN0SGVudmI2Q1I5VEhRWUFpenRsWm9OU29Fa1FLZXJhZVBlMVlWYWJacVY0R2pXOU5NYXI0aTVfbE5SOGp4anhiVGtTWXR4M2s2UTVZWkRjUVpPb2pUZ3Z4bzZESDN5Y0pwT1FFenp0REdPSHFHcHJROXc3c21PWkZBTi1qbXJnYXNSRWNqOVpDajNESzBxUVBWVWJsVHRzMWktMENsTGQ4WXo5LWJpakpTem9GOWhWTWswNFR1S1FXWmx4R0FLMmVaOWJ6cmhvRXdESmtQMXIxR2U0WS0tS1IzS1VTcGRETnpvODI0TlM?oc=5</t>
+  </si>
+  <si>
+    <t>Gobierno Petro tiene embolatados $23.000 millones por mala gestión de la Dian y otros ministerios con el impuesto al turismo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxNam4tMlZYeGN6MEJVRW5HclpacU5fRWFQS1I4VFU4RXpYNzN5VVlaM3RtSjZPVng2M2QwWkZVRTg4Rm1FSnA2LUJyenZqYjBzdDlpb1pKVGJiZXNyRU50em5NRDN5UkJiLXhZOXlONGhjY1ZMMnZ2SFM0Q09RTlZXU1FBOEdsSjFQVkZWOENTR0JJMzNfM0llOER5VU1xR1VNcXVndFR0dHllb0FiYjh0U3VGUFUtVzNjTkJLcjhmNW1OV2FfbVZkdzlYLTNLLWpVYTJoSGYwSGtKS2R4VkxINkx3V3VhZGRwa21ZRm9lMEJCUzYyQlFrRXR2QdIBlgJBVV95cUxQeU51R2hKd3psTnB5S3BzVmQ2a2RxWi1fRlVoZFNIdGZhVVE2YkZLNjdnRFlGX3N4ZjdoY2dJTWtCUkFvdjVYSFBDQzdMalVnNUZYOHE3anFreDVxd25sSThCcHIzWmtUdkVJamZ0WXczTG1PZmlyOVRxTkVPeXZ3Smd0U0lsdnNVVGdxWE16WFlBUUNqcVRXdTYtejJGZEkwTFpBSmZnbFZqNGRNOUw4Rl9SeGxINUJwcUtJaVVyYVRkU1RidjlvdEk5NktFN05nOEJuTU5KcWJSRDNEUFNneGx6S0IzbENGVUw5bVhEemxJTnNGOWNSa3hSVThkVnhLVGtOZjhITmxydEJsYmZqRDZZWHp5Zw?oc=5</t>
+  </si>
+  <si>
+    <t>Galerías de arte cierran sus puertas hasta el 7 de febrero para protestar sobre un IVA reducido</t>
+  </si>
+  <si>
+    <t>iva</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxOb2o3Ty1YTVM2ajk0bk1oQ1o4Vll5Q25zUWV4aWJQZTQ3b25sWU4yMlI0Y3U4RGRnQTF6SjI4UlNDQ0hobmNtS0t5dk5pdlVGazlabng3MXhBSnFGRUREaHJSUWUwaHpMYm0wN1Q2dHIzclRTcVpuNFkzUU4xUE5tZFpKR3FjUHhYa0NwRjF3TzZfWDJ5aUJONWREaU9rSVV6Nk42aDlpNUppbnNtWjZoYzFKT050WFhCN0hzYlJBNGFnQ0VBUTJJQUxkNTY5djVKanNHZVJ0VXVsZWtuTHotMC130gH8AUFVX3lxTE5LRHBBVlBxNng4SWw4U1dUYUduSFZaUnZ4LXdadFY4YjVkQUw1SzJxbU1NQm54dUVRVzc2eW9Rb1RFdXA4U0I2UTVsWnNNcDhESzgwQ2Z5bjlIak5PWVRidmQ0MkRwcGNjRV9tWkJhVkhkUjc4RUZtaTVnV0hEMU01Y2kyc0o0NWU2QkZEOExCVnZULXE5d0JDcUtMci0wOTFkUmNud0k4UlNXcW1HRmt6SE9YYXR3cU1UR21TMmRpaTRacEFxSXI4NzVVZmREQ04tZTZtdUVvZW5ST0gzeWEybUhWTjgxcEJIdEdMZENpRlNsbVJNNjZUdjJBVg?oc=5</t>
+  </si>
+  <si>
+    <t>El Prado reivindica como obras de arte las fotografías que cuentan su memoria</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxPV0ZpOGFYaEthU0Y2UEVINVJiZHk5Nkt2TjVmd0RTZElNRC1vSUN2X2lEaWQtVHgya1NOV3R5dlpjMDk4czVNM2ZnSF90SHR0enVzX1VldDg2cHBIYW9mTG0ydVk4ZjdZQXpJYkhRX052a29LUXlxVEhTNmc2Z0xvb2pmM3B5alpZcktzMzdxaG8zMXZkajI0Unp6aDU3Z1V3bHZSSFlaVDRQUGNvckFrcUt4ay1jZlF1UU0xRtIB0AFBVV95cUxQanpvY3lMQnZ5VktPMFVmTWdTWE9yMU5IV21wLWphYnFfTlRnQkFpZEJfb04tNjh3eG1zaXphN29IMTZvb2xIR3laNWtGYkg0LVZacnB5ak0xWUF2QVJmNmFZT2dOaERxcEVhemQzd3JEYjVFOVM1YU94Y1F1cUJEWmwtSXFMRXdQUXFRVzZMTVNWeGROVzNRTk1HOGRlMWhQM0ZoVEtSS3RydVJrWVNfOXR1RS1XYWRXVjRfNl9waFJQamxHSEVFWXNUS3FXMDhO?oc=5</t>
+  </si>
+  <si>
+    <t>La batalla del arte contra el IVA: “No trabajamos en igualdad de condiciones”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxOVERjbzBaNzhBMllfakxuVTFlenZWSGY0VjVKQ3hhYmdSTHBFX0ZHMTJ4MDVHMXoyRFRJZUdPaGh2WWl0MzhQOU5VWVNkdlZCS3puOVgwR1o0eWpwTUdlOWxXZmwtMVotRkNidzhOR3dHeUpwRXpqdkk0bW93Ui1hdWZnb2RhV2lGcmthTHZDaVFSSDBNeXpRNF9BQmZURzRuQnNVTlRCR2paMlpzc1k3TElpSjZPZUJt0gHMAUFVX3lxTFB3MnpyeFV6ZW90bndHdzMycElIbGh4aHA0WF8wZDdWVVpINWtCODFDQWlta2RpWkpoY1hRYjRDbVpHQmw3Mm03M0J6NXNjay1yVnNmWkt1UzlKZG5ZQVpuSnNUdXBXcnFsaHpLUUtoRlFNTGpoQ2hJbnFfMDVBbWl3RW5ubGlXSXRTdWZXWlkxS2lmSWNUT3JvOG9jV3A4eGJYeXRFM2JVUmQ4cFZaVnNxVUsybFh4aUV5NnpObzhOZU0zd2dBMUxGbXdQcg?oc=5</t>
+  </si>
+  <si>
+    <t>Aseguradoras analizan absorber parte del IVA en caso de siniestros</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQVUlBM1VlQzZRYUp5OFNkbW9Gd0s2b0VpQzNiTzMwRExYZ0hxSWp0bmZPQjhDQjBUN082QWhlUU0xQjdzUjY4WlY3dGc2M3pTdU1YU3pqeURpUDhnV0J1a3BUeUtYUDNicjVHMTFfZ3k1YUF2RXk3VGhlTi1BY00tYURjQkt3WkhCNk84RzdXSkxmYTRXRjhwQzAxZlRjNEEwMmJqSVFKMHptNmtLTDFxdTRWYmZITmxaNlh3ZWlB?oc=5</t>
+  </si>
+  <si>
+    <t>Tren Interurbano México-Toluca: ¿puedo viajar con mi Tarjeta de Movilidad Integrada?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxOeTRzZ2RmbUphaFdtZ01DbldIVWl3c0Y5RnFHaVVVU3pvTjNXSWZLeTdoaVA0alJfZUV2R2VwM3phZi1XaGFFWHp0OWVaZjROV2VNa3RBSTMwQWVDOFlqMzlZUUFmRmZJT2tvUE5rUmNKMHlsalA2ZDZ6WUs4ck5IREFJUGN1R2dUU0Zia25vZzRyVXUzNzIxS0dBYWhoLUt1aGsyUTAwMFBTTHB0WXdoVThad1VpT2JzdWtXeENhaWItdnFKMVpITkVoZVVzSldtWXJmWnpkRVFNUdIB3wFBVV95cUxPOVpteGNRSWdFLU1tOVdzU0ZPTk1lZVl1TTRLdGxqLVp3OWZlVWx5VHJaZGNyU3h6R1JCSmVwRVNQZTlvS05uUWpvZXFxUkZLWEFteFR5QktIQXBkMWp1LU40QnRKbG11em1TOENmWlptV1lWYWVKWks5WHlVZnhlS19BRzAxdmItWmh1cHRZVGhvMTY5dmd2NzFwd1VRNEdhU1I2QkZVc0trM1dpc2JiSG5Pa0l1SlAxVjNpVGtiVDR0bnZXYjlOT1BycHZLVGtkeFVqWUdLYk9JTEhqZ2hN?oc=5</t>
+  </si>
+  <si>
+    <t>Con el Tren “El Insurgente” en Edomex se hace historia en movilidad y calidad de vida para el Valle de México, Toluca y sur del Estado: Gobernadora Delfina Gómez</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugJBVV95cUxPblNMT3RYUnpsN08yT1k2X0NWbkxKZ1Q5cW8xRWN2Nk5SYnNvTjZKTnRSQTJlQUQ1MnVJSlNtYnFBQ3FwRDlOT1MwNnlCbVY4ZXRrWVFsMmZ6TVdBRFJTNzNyVEplZncyUjJYNmx3N1M1ejVZN2tQcVctY2RfYTFSSm4xZkRmM2M1Z2VjcXdUQW1IVmRCY3lxVndUNjdtckx6LVhHbjRjbmp3UGZXaVRVc2dlSnkycldpLTBjLWozTThoUnJUTEdPLTg0a3paekZ5Z1AwdHk5ZElBcE5lUmdqdF9xdFhVSGhuczBZaUFRaXpaUlEtRXhtTzdIUUxxLXphbGIwZG9MZk9MbE9VWHh1ajVId05Bd0ROeERfQ09aYll1czgydEUtMXdGOU5Bd0dHTXR2S0lSX3Z0Z9IBvwJBVV95cUxOelY2N2ZYa0U0OEdlQXhnSWRyNzVTaThwQWVnc29GRUlRZ3kzb2JCTTdGSkRUakhOdWI4N3pqbmdXa2VockxlSGJwY2lvWGxTOHg5dmhKOEphY3h5ckI5dkxhRUdIRWh3VjJKZkVmWEdjUUh0MG1ORHMtRzVSVzBPb1hnNy1oUEdXb0t3Uy12c2lDNUI3ZlVqem9kV05SYldFckd5V1lLSjFTNTIxZkVyb2tPRXJXdk9wX0tUR0pRRWhVemtHQXZRT2VicE56cGx0eFd0WTZBWHcxNkxIQi1ZTndPVzZBUW5sVGNuMkhXMEg4ZjZQU2lPME9Ya1hpdHRGeEt2RDlQX01uRExzdlVpZ1lLcHVFVi03ZkRrR1ZReGJVcE9IOUZPdG14N2JuOXdKaVV3Z1lHNUVsdWxtdmRN?oc=5</t>
+  </si>
+  <si>
+    <t>Brugada y Delfina Gómez destacan que con Tren Insurgente se ofrecerá una movilidad digna y mejorara vida de las personas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAJBVV95cUxPMkdDUjU4NWlIUHFlQWgwYlIzMVp0VDF1VkNfVlZueHgzLXJVSHU1S2Y0YUVsWjd5b3JwTHUzamlRMHJZWDF6MjN6NDlCNTlqVG9JUTk2WXZkaGRaWE42MVh4bFgyeUcyTEw4VDBUU2w5RXNaMjNmWnZUVk5TNmRQOHJDbDBvT1JvRWJjclhpN1BMLUx5N2x0OTJ5c0d2NXdKb25nTTZGQWlsTFhSbDhHeUlfNTNkb2lZWFp2SEx1NWMxbzZLdmhBb1JXdjB4dFZWTElid1EtLThuNnNNUW84eERrSFlqOTdzRnRJMjBzdUhvVXdlOUVfMkZHRVNHaU1PamVSMWNGeFbSAY4CQVVfeXFMT1l3aU9JWk9YR0t0Vlp4dFhzVjZhQ09TT0ViSldYYmNwSnZfZFNHWHdVR0RZd05FYWxQS0FMZi1MZk1uQURxelFweUd1VlFfZzIxMmh0VU9jOUZkUVprY192eld2SWx6MFRlN1BwZjhHRTMtRzVKaUcwRmYxZlFBWTRyYmNJSWJqd1ZMNG9sUkN1NGR4TEk4TzlBbWRpQzh3WUZnNFc5VFhGSm5kTGlxQzVYdEc2QlAydDZmT2VsSVZQRWNfR3NXX19xenZVcDRwZHZDSjJxYlUwMlBkYUphMTEtaUNmTmxrUG1UUWZJbkxtbzROaXZ5THk1UU1TWTk2UXU2RFBmYWlObGZ2X09n?oc=5</t>
+  </si>
+  <si>
+    <t>Sheinbaum quiere mejorar la movilidad en la CdMx; apenas "lleva las bases", dicen expertos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOeGYwU1h5eHU4UVk4TUpYc1RwWTRMUGdLb19mVXAyNFhGcjhZcUprMDlNamRXdURVMVloVUdINkJHeEt4bVVJVjE3WmdyRnNNWVJwdU05aEV0bk9EanVKbW1TSXlmZGVEREtxcDkxNUxWanJvX3VTYUZUbXFxWVl4ZFpvSVJxY3dwb1lONzRRU0ZfNW5Vei1pbktyLUFjMGlObTJYMWZ2blF0MHlCYzZvU1V3WERtMXZvaElfbHBXX3Q0eHZCTklORnJhYw?oc=5</t>
+  </si>
+  <si>
+    <t>SinEmbargo</t>
+  </si>
+  <si>
+    <t>Tren 'El Insurgente' hace historia en movilidad del Valle de México y Toluca, destaca Delfina Gómez</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxQZkxobmhQV1RIUDNPLUwzdE83QTh3UHF5cG10VGx4LUxkNTE2N0lzeWlmT1pSZC1sMXZUYTlsQm1OanRyeXFGdkx1Q1ZNMFVLNGZveGlBNXl4NG8xeDVRQ256YVo2OTl0RXF1QlJfcXQ2bjV4eDd1MXVjbDVnSUtFMTZTazg0dmlibGRqVnhTQ2stdVUtalctR3VURmt4NlNneldnU1Qzek1XV1F3ZU9OcmY1V1RETzJpdno3NWMtZmI2c1pCaDRwOHlqQTRLTFFtREVhcm5ZTk54NGZMdDd0OHlIU0RrR0EzamtfWdIB8gFBVV95cUxPdnp4LWttNlhqN2pNUV8wa2R3SEZla1UyY2RlQjNGNDJkeHVhSW9SRHdTRmZsVnlhNGhDa3psVVJpS2U5dXdNalVPZ09LamFJc1hfVldZZ0dpUVlaQzA2SmhxQ29EUnY4NkdfN29IY0pnNE1HVldndHAyZXJLZ25YeERxX2U5YXFNQmIwbE52QVJINGVCTV9xbndZaGdJRkdaeWNrUVhqOFBnZFFtOFJYbV9MWWxhVnhST1BBc2lEQl80a0FSeG5jWkxfZENhQzZjNEVvN0dUdTFSa2lnM0xBWXVnbnYzT2pUUnQtb3hlT0dCZw?oc=5</t>
+  </si>
+  <si>
+    <t>'Movilidad de primer mundo para el pueblo': Sheinbaum estrena el Tren Toluca-CDMX</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxPZjdydVg0alBRb2ZiNDdWOW8xbzk4TDE1OGV1b0FZTHYxYkF1eFNCM0oydlJEa0pkWWJnRGU1VkYzSWRjOVZDa0FGbnVYek9IXzJISXdXcklCamRLc0Y1X2V0bnVWRjRaWC1DaU1HamFaVWxOc1VtTk50SU13czhpWDhRQ1BvRGZMQWR0VzJ6Sl94Z1N3alJMVVNVODEyaWtGSVVlclcxUnU2dHNDMm44RkNKSWM1V1pGVjdtcXIwWnVkTXVfVEZveVBQU0l5TTJLTFljQtIB2gFBVV95cUxNNlVLUEFQNXJkYW1nT3pRSWNxbC1vZVYtWFhhck9yR3BUc09GWUx6OWdnZUt1QzJxSXctb2RFYkdWSEFtZjA1MU44bGplcnRVdGRkMlNSbGg2cFJZMzdWUm5iYXpVd1k5aW0xcEpicXVVZzMxTEM2cE93SExUR1g3cUZwLXlKOHpKMWFZRVdtdmI1c0ptVGJTajBvQU1LWkozUmZ2MWZBTjVOUU5IZXpTMGRMcEdocEZEaExKd3ZOQTg0NFBqQS02MzVRMmc1Vm5ObGtSUjFiRlh3UQ?oc=5</t>
+  </si>
+  <si>
+    <t>Taxistas afectan la movilidad en Bogotá: bloquean ingreso al aeropuerto El Dorado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxNWVhqWnI0RnoyaGV3QWxSTlVOWHQzdUZkS3JZZmFHVG9xMmFNNHNNVVVUZTNRYjFoTjFYcURYSk5GdFJQZVpkb3Y1aU5ZSnhQcXdLM1N3S1hidEtoYi15VUhFYjRxQWJ2ZERPN0puLXZrdndreEJTTk9MeUg1Tlp5YllaZ1d4NjIwYVdvNGFBTVk4QmFkQXB6RXRnOEdKOU85N0hfRUxQYlpBY0o1blpwZFJSajVwS05HMGhPS3BYWkxNZHAwRkJMcnZ1bjhvQdIB6AFBVV95cUxORmZKd216YVo2c0pzX0RoQlYtWi1xbGtxSXBHb3RBTnpJaFFSaGhaTEJHNUhCQ3p5cndDRUtOUU9yNndYcEk1bkNCcWpyX3hrcktma1I0ZVhEQXFCbXlvQWJLTTNYV3VObVlLYWxtTFVxeEwyZXoxbmRVcGNJandPa3cwbGxTSkpacV8xbEJoZHU2cnBxZTdOU2hNX2QydVRQUG9oN1RpeHRleFlWeXVOUWI1YXlJMHRpMzItd1E2VkM3b2N5cW84V3VaYzZVT1c3ODlRMDRxYXlnbUZ3UEtyaU5YeGRiWTFi?oc=5</t>
+  </si>
+  <si>
+    <t>Delfina Gómez reconoce avance histórico en movilidad con el Tren Insurgente</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxOaWo4QnBHUFlvOUo2cGZjS0tveUpOUmpHalNyV3VDSEdzSkZrUjFibzBWMVY0OEQtZ0lMV0JEVG4xNFNoNXFKZnRwQjFCeGtLYkZNWEM5Sk5XekVWbzJmTTlId3lqRG5yc2dkU1k1LVV6OUcxbnJQQU5jVXdvcnFqdUVJMXl5UExTU1N0OU1yLXl4QTNQMUQtRVJjSnU1Zk1oaFVMdnUtRVVKemFONDdaVzdiNzU1d0lNSnU0?oc=5</t>
+  </si>
+  <si>
+    <t>Tren Insurgente hace historia en movilidad del Valle de México: Delfina Gómez</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxPTFlsSlRIbGRQbGlBcmRHaUc4cGI1VHpqSlV2R3Fsc2tKbnJvSTN0WUxMaGU0Y3dlakNIY2g3Tkdfd05KNC1YWlg0eU1qUXdXS0oweHIxd2Z6emRTWVZkQWVOSHBIVzk0OG1hVjdsZlJidGZwOHhDbmUxa1lkV21LUmt4Unl1N0RHdDB0R09PZVpydWM1cU9KLUdEQngwTHN1bjl0ZDQxbU1NSGpacm5Ucnhn0gG3AUFVX3lxTE8wWEpaWmw2UWQ1QWo2ZTB1TGdvbnVHcTlPcHlRRkROMjh4bDVjYmVUZW1UX1VrOGExaTBqMkRaeXJjYnJubFYwM0RENWQ3RTlRNWVHc3dNQTB2TDBEWnBpQjRoTWtHcl9MTFpCai1xTjdwaG93ZEQzX2VoVkRLaEh1SFA0azBlRTNHQXlmUkdhWEJnVnhRNlpzRFlsai1PZ09nbS05aFpDaTZtdThmUUdZMDZaWDFLZw?oc=5</t>
+  </si>
+  <si>
+    <t>Con el Tren El Insurgente se hace historia en movilidad y calidad de vida para Edomex: Delfina Gómez</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNZThPcm9uWGtZeFJfdGxWeDRic0V0SHpvdkJHLVlaanZGOU5WcjBISzhvUWJwV2N1YktrM3d4WXlZc01iaDF4UWRnWlNKakYxcVdHQWhodE9UMGNfWThoYkNvWGczZVhrUngtVzMtS2pWbVVEWkgzcWhhdy1LSWlXTmd2bE9KZ2FxSXhMSFktSUk0YzV4OGgxZzJTQm9tTktPUWlkOdIBpAFBVV95cUxNZThPcm9uWGtZeFJfdGxWeDRic0V0SHpvdkJHLVlaanZGOU5WcjBISzhvUWJwV2N1YktrM3d4WXlZc01iaDF4UWRnWlNKakYxcVdHQWhodE9UMGNfWThoYkNvWGczZVhrUngtVzMtS2pWbVVEWkgzcWhhdy1LSWlXTmd2bE9KZ2FxSXhMSFktSUk0YzV4OGgxZzJTQm9tTktPUWlkOQ?oc=5</t>
+  </si>
+  <si>
+    <t>Avances y desafíos de la electromovilidad en México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxNNkJZcENkN0ZudVJuVDNRbUpmUlBjZUlaYUNub1VqaW9IZ0lPVDhVYzhQMkFhNUhJczAtajNZRjVFbGZVdjJGOFpXQXAtWWlwRm51Vjk3bUl3cEM3TWtLZ2UzaXdiU0NrR0xmVHNINVllNVk3NGJiQnBVa0htay10aW9GNllqc0lrRzg1MlBB0gGOAUFVX3lxTFAyOVNaTTlybVBlMGlNMlNURU4yRThsNWxHVFdYc3ZKX2xqYVB5M08tX2V4NHd1dlZ5Y0FCMmtLbXE0c3NYYkltbTFCZERGcXJ0T0JqQ1BPY1pST1E1NGR4YVlOSlBCQ0hGNVNSdXpZQU84LXdTNlpZbjgwTFpOTHV2bTFybW52ZzdjYkVQZEE?oc=5</t>
+  </si>
+  <si>
+    <t>La movilidad aérea urbana podría sumar hasta 100,000 aeronaves eVTOL</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxOLTJfTy1uLUxzcUZ6WnJXZ0JnQUN1em5paDJEdHNvd05ZQ3hFNnZpdFM1V1R4by1WUVVqbEx1MnJGeGRhdGtqRFRuSlMyVWxCM21UUlNvV1hLbVRwZkxxNE9laTRSU2xOamZpYkFGQ3JhdWI2b1RJSm5POGZqel9talVSazkzcVJHMjM0cFo1Wll6VVRGSUFyTjVkZWJuUDJhdFpoNGNRc2hHT3dwa0dkaTVWd3dlLVZOUnZj?oc=5</t>
+  </si>
+  <si>
+    <t>Real Estate Market &amp; Lifestyle</t>
+  </si>
+  <si>
+    <t>Admite Morena en SLP que la inseguridad sigue siendo el gran reto de la 4T</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxOSW5RU0h4WkVHYUR1OXRBY3lwLThlYkcxbTNKb2hfMnNkck0zNE9hclFUV0tWZmJDVTRha2Y5TGliT0VEekFLNzktSloyNmVBQXhZSWJwZ1FTeEF6V2U5dExTd2FUUEdqOS1RY1RJODdJLWgxUWFHNkpTLU9zMjdnU2owVElSN0ZwWkFVUTlCU1gzd2FjTnd4ZXdvUVZXa05RN1l1akRMeWNjTTZfQUtkM19KNGh5dkhoTndv0gHPAUFVX3lxTE9kQ25PbHpQU2NGc0lfZVdlVE9NSGlVQWNsOXo2eHBzdnpXcF9NLWhWUnh2RElaXzFlT0NZWHBldTNiMEpKOUQ3eE9oRnJ2TFFCcWZuajdwZWRjVG1ZWU1XQkNSV2g0THBaT1QzcWVyMWtqaWxHZnlONHVKSXltVTVxS0JnajdhVVZ5THVUbjMwRFNTSHg2OG0wd043NmQ3VWNRV2xCUEVGUWFacE9ENjZWR09EVVJtNUZmQ3lVTXl3d00zdzY0UHZNQWd4NW5hTQ?oc=5</t>
+  </si>
+  <si>
+    <t>El Universal San Luis Potosí</t>
+  </si>
+  <si>
+    <t>Cerrar el paso al dinero del crimen, el gran reto de la seguridad nacional de Sheinbaum</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxPaEMycy1POXpMZTdkWmxENEZGSFV6VWRHdXA2VWVMdmh5dXlqT3g4eHNkcG5WU0VpRU9iMG9QN1NSVy1rbFNUNG9GR2RDNXJpQnBlUG95b3ZpMC1JNENQX0t4S0d4R3JWNUR0c3B6eDgxRVF1ci0xLUM1NUhvRXhTNWk2RlBsQkdUSDdMZ21JeUZpLUNtQkYyQ3RabHJPR3NjY1VfNUNvNnptdGNZbFRYeW5PWEpwbHNIZUFiWU0yVS11Y0R4V0E1aVE1TTE1aW5LLWRHSXgwWlhXMURvd1B30gHkAUFVX3lxTE1yakV5eWIxQlY4NklISlN2SFRlLXEtS01oY2txc0hvODlHY01kNWIxbVB6WWFaVTJ3cFcwblA0b05UMURHMFdSbjB6cEFCN0pTQ3huVFUydl9ycmtmZ3NHaGlsUTVBZjgxLWZ4Z1h6MjVFMFhnbEV1RFhoMDlTUVBLM01RQk1NWllSZlFJdW82TUQwQ2NfVkFmWFpGNHFFRGctR0s1UXBVS0Y3aWppVEVUeFJKX0ZPQVllNElMYjRWMldydk1oWU13SzBjRzBmQjlIX3BGUnVwbDlMSTY2TDAtZ2M4Xw?oc=5</t>
+  </si>
+  <si>
+    <t>Registro Nacional Penitenciario: obligaciones biométricas y desafíos en seguridad de datos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxOdnhoX1BZclNGNWZUQWRvOEUyVFpxaTBqSDNNTDQ5VENicmthX3VhdmJ1ZmNiRlVhekt5ZHpqcXBJSjRoQmdSN0k4OXF0STdKU2Fxb3dhUEpLTWtBSXFISFdtSEZScGZWUXVlTUtuRE1TZV9xNXV6YUhDYlJrZlBySkZfQURRMS1YRERVaDRQMUJ1TVp1U2JKX1h0aUZzTENKYmNRU2o0TTBCaW11LXpYVFFla1Y0ZXBKcEF6bjRta0wxYU1fZ3lQY0dsYlByczZqRFk5NG5SbFdWaW04d2tDU9IB5gFBVV95cUxNWDktLU4tcnByX1VtWDZhOW1jRTZlVThpenFaa3ZCYTdKUlVhMWtnSFh1NGJBZkM3SVIzZkhtVXpmZjBTWDZydHBqZ1BPY2xwUlpNZFgxaWJ2VERJbXZrb1gyRUhaX0tPdjBFMmZBNlFHZWtPLWo1TjZ3NzZ4SWU2YkdnRG5BYVVMM2xZbWJvUW50Qy1VTzVRT0h5ZjhfYnlfa1hxWWRTbUNGcDZzLTYyTHk2bm1aenpZNXBzOWluMWk1U3NHNWZYSnBwZDdMb0JtME4wWFBNNEZJU0xYV3BMbkdIMDhfUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Diplomacia de seguridad, cooperación México–EU</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxQLWRXZkp3U1phamhEQkpZZXRIWUd0V19ZMGxqZF9zQ3kzRHBYc3NpY0RnSTRmLS1FQmZSTFJWellSVnNuWGx1WFozdTJQYmtwZHJaNWZ3SkJoNXR6UUQtaEV1bzJHY0Q2WXh5MWQ3Z19yNUtlS045WGdUM0YwVFdNeHNQdDV5YmJmbFl2V2t3bHc0TTdYRDNIUzhReWxyNi1FRll0N0NXa9IBrAFBVV95cUxOSmpGUkx2SE1fRG5ndjdSSE9TSGl2eFZCVmRQUjd0dWlqS3ZvWnhGbTJWZnhGNGt6Y2JsemRLb0ZzR1lDYmRxZTRqUl9KZEFDSDE5YW1ZcDF3dW9hdVlFRk1nSGNqRUd0bE1YWFRsTnNETGdaODBmUUdqbHFMQ2lrZnpUbEktdzl1TlAxaUdmNHkyYUxjYVpXVVczd1ZIa2c3bTlDZC0xZzR5R2RO?oc=5</t>
+  </si>
+  <si>
+    <t>Mando Unificado Oriente duplica fuerza de seguridad en Valle de Chalco</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxOX0ZJZElOdk1waFJPNWlTRHhKMy1yNVFXZkpPS0JNR05WTVltV1JvWHFtbU9kbGp4NF9nd1pzbkQ5cVNSZWg2Z2VoTUh2dEdHMVQ0LTlnbjRyQ0VJWmNyQjZSR25aU3RHdlgwVDhmLW1VSXBhdFBYbTA0dVlvcUFBN0tONG5LWDNXM2JtU21Ddy1OSk5lZVNyeGh6YVl2Z3A5aktXU0FCb3JJVWZoZDg3Z0hlem1yRFJBOFIzWnZVbWJsLWZGMGVKNl9seUZhd2c1R0FPTzhPbE5QMXBXdGVZ0gHfAUFVX3lxTE5fRklkSU52TXBoUk81aVNEeEozLXI1UVdmSk9LQk1HTlZNWW1XUm9YcW1tT2Rsang0X2d3WnNuRDlxU1JlaDZnZWhNSHZ0R0cxVDQtOWduNHJDRUlaY3JCNlJHblpTdEd2WDBUOGYtbVVJcGF0UFhtMDR1WW9xQUE3S040bktYM1czYm1TbUN3LU5KTmVlU3J4aHphWXZncDlqS1dTQUJvcklVZmhkODdnSGV6bXJEUkE4UjNadlVtYmwtZkYwZUo2X2x5RmF3ZzVHQU9POE9sTlAxcFd0ZVk?oc=5</t>
+  </si>
+  <si>
+    <t>estadodemexico.heraldodemexico.com.mx</t>
+  </si>
+  <si>
+    <t>Detienen a Tres Personas por Robo a Tienda en Monterrey; Participó Guardia de Seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxQOG5YS3dFUmRZQlB0MG9VWE1lZFRFbEtuOGtxQUxRWjdtc3h6dm5WZmNHSkNMM2I3eUNhcTl5MjF0WkxPQnBJbVhkMHQteng4X0JKNUR2QnJmbThXVWpNdjJaSGpaRTdCT1cySGZyMFY4Q3A1UEpDZlhid0UzZW9yYnBFUGxDblhpcEtHcUQ1aC1ZMmhCbGh0ZENfT3ExUHRoMnRZWmpmN2dscVU1SVZXbVBPYnA4am1oaS0yT1Axa2dtMVhPbmxqZFRhQUtLUFI3dkRNTTFtNE41ZllYRFhwUFdR?oc=5</t>
+  </si>
+  <si>
+    <t>Seguridad en Guanajuato: enero de 2026 registra la cifra más baja de homicidios dolosos en 8 años</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxORExOQVg1aExUb3d3ZG1KbllHT0k1RW44UDJfZEUwLXZKLWlGZUEwUmRVRXZtOHpPMnhfUjJqSU0zem45cmo4UTZuNHVKZjdya1FmMFVHUlkyeDQ3LWxvRlVJb0ZIdzZQa0xmZ2oxRHJvNFlzcE1aSmJQZ0s5MDNMd1NjaXpULUdfQ0w1LVF0TkIyU2hoWndnWlNuMnhzWTRzM25hSVpRRVpKYmdRNDVFYllaMUpFOVBSWlBuaWVrdEJKY3lXZ3BIME4zTXBtc2RaTjgwbVBnMGRKWXlzZkFDbHRLYWszSEhVRElKZtIB8gFBVV95cUxQUXI0Vk9KTVIxTjBDdEFJNXJqSzVsTHFPZDJNZEVwYmthXzdCSkNqaUw4TndGQVFTZEFUYUNzMTJOY1NiaUg4blIzTDB0RGozVzNZdEZWeVJCamVWZ2laMGxPYS1sWmpZWDBUZ25hR1VfX19JVHBDNlpneDhfTUFpZTJFdmlXNl9YNEhlQ1hPeU4yOVI3c0dnaXNkMU9ZVGlsVG51cUp1V3ZuU0s2b0M4bE0xMU5ROGNIc2tvVGJSYzcyX2l0bURPbVlQeXFmbGM3R21fYlZpSl80WkpBNHF5R0RlaHRRaFNxcnN1ZEY3UVQ2dw?oc=5</t>
+  </si>
+  <si>
+    <t>Muere el obispo de BCS, Miguel Ángel Alba Díaz, una voz crítica en la seguridad y con las desapariciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8AFBVV95cUxNTjdZRTBtSU02cGhCcEk0cTZydGxWWU5FOEctSmxZQnd3MTdINU9vWEI4Zk4yaDlvSGJlR1dIdU5EUEpNVVZWaWYtaW5wSllzWGRPcTFDM3JsOXFHN2VmbXBWSXlWYl9yWGNtVzMxY0p2NmhFWm10MUlzRzNsSGtaQ1ZBTjczUUdwRXd4NXlnUnNCVDlDZks0clRaSU9hTTVPdUdOWGNrNHJ3LWwybWVDLXNiWGNoTzdrWGJFbzJyRnV1TmtkbDZzVmFFZTlMRkE5MkRNei1lRkpiVFl5REw5dlZWeEhSeV84a3dwV0hPY03SAfYBQVVfeXFMUEVnV3JpdThMRU9uNTV2Yk1OTGU1ei1kZlVpTFVmQjVtMnVrYktjRlNOblAtai1WM1Y5NXAwWVJIMWFpZXVuX2ZqNGt5NUlMVW5PM0VqWFJnenI3THF3QWJQQWtqN3NVMUFZQWZBREc2WWZITkdXbjQ5OVV1R0p4WWNxdUZCajlEUnh5S1FHaXF5ME40d1dqdWhRSjV3VjdDeC1abUlmcUU4cEZiZDU4QXhXS2JjRWVGeklWTTV0eWN1OVZfVkEzdGRrR014N05nbERCSjlkbDlpMnZ4UkxpaDR2UVdHQ05PcnpPbXhrS3dNTkI5NHVB?oc=5</t>
+  </si>
+  <si>
+    <t>Últimas noticias de Seguridad y justicia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE96eUpCaTRfSkNVcEh5cEU4bWpTTEpBTmpJU21jS1Q3VERoc01ibDV1Qzd2NzRkNFJ3WW1nZlBHcllYREpUYWpHMzFIczZHUmZMY015QUxsZnEzYW5OSHJnTUJWQnFJSFo5MGlfRzZ3QThzY0k?oc=5</t>
+  </si>
+  <si>
+    <t>En 2026 cambian las monedas de 10 pesos: nuevos metales y mayor seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxQSFZlTGJyVnd5R0RpdVg4U0ozLUlkVVFydl9sOHk1N1RsaktOLTBRdWRBNExkVXh3QnoxUmRVaE1ZOEVYWFRJQUt0UmR1Yy1iNjJ0VnF6VThrajIzc2dmbWhIRWRZVktwLTFnUWhrZTZabmYzcWhlQmpsODFya2FKRVZjdlRGNW1LTFUxVXhfN3hCT3hXRFVJLUFxNFhIeTNXZGZJZUlnZw?oc=5</t>
+  </si>
+  <si>
+    <t>La Policía Nacional Civil de Guatemala refuerza seguridad en centros educativos con el inicio del ciclo escolar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7gFBVV95cUxQejlLSHlpUW5ZM2lEUm1BcjFYQWN4OTVoWnNyRUNlVGltVjYwODdSQUU2Q05TUHNFakxyTnFYSUJBc0t0OGdORjZNMXBZQ1U3QTJydzJubUc0LVNqdm9zR1Q4X01TQ3NINkdwVlpZUkdORlg2bjZrdkRPZlFGa3JvQURFWmdtYzktS24zNmF0d1dRd0RYc2FaUHpQTldnVE0yV2pBcDFNa1dpc1FNQ3VfTzcyUlhrS2VYaWVxM3BDcmxQbEZkejJ1YjB6UGVFM2g4YjRIOVZGSTl5cWU5eWxOcldPNG9sR2pqcWkzMWJB0gGIAkFVX3lxTFBJbm9Ydl94VS05cWJnOFcwWHhLYTBTMGhING4zN3dwYmdIMWhXQkF6XzdzVzRGYzN5c1EwVWpxYTdhMklVVW1xQmRIcmZVM2hWOTFxRXJBQkFGT0pKaElOMi0taGwwME9lc0N3MlZ3dV9aT2paRkdJSEw0ZkZQREpZVEpmblJnODVsdDdXUG11bE5LeTd2dFZzMlI0UFRnaTdEbk1UeXhYV0dFdXowY2FVbmpfV0pteGNKbHVaRkZ6YkFZVFE2eXYyWVZpbnFNajh2NlFNOFhySWI4YzJVc0J1MTRXQWRPb3dPVkJhNTVFemFKbzVXUDRyUUljR1lkQWZJTVB6X3JkTw?oc=5</t>
+  </si>
+  <si>
+    <t>Tulancingo se quedó sin clínica de especialidades por baja seguridad social, revela alcaldesa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5wFBVV95cUxNMmQySHQ0RmF5dm1yTlFxMWRMajJVYlNtN1BBVjBxVk50SXJFUHpqVUFseF85LUF3N2E4ZlJVZTJrSjRGa3lDdF9zelhwaGR1MXpQR2lDQU9KQTRFTEx1eElVUVFiUnpkZ25FYmdGeHdTaXc1SXM1Qk1EcXdYTHJ2RnNPNnNjdkx4NWc5dnpSbU96R0hua1dnc2ZXWUc2ck1zQVhJVDd5a1ZReFJVUG9TeG1rLXMzdVdEWkkyQTY1LUlnTWxhbGdabzhFQXd1NGRPaHRzcEl4aTJyNi14UnFNQXZVMmFuZkXSAecBQVVfeXFMTTJkMkh0NEZheXZtck5RcTFkTGoyVWJTbTdQQVYwcVZOdElyRVB6alVBbHhfOS1BdzdhOGZSVWUya0o0Rmt5Q3Rfc3pYcGhkdTF6UEdpQ0FPSkE0RUxMdXhJVVFRYlJ6ZGduRWJnRnh3U2l3NUlzNUJNRHF3WExydkZzTzZzY3ZMeDVnOXZ6Um1PekdIbmtXZ3NmV1lHNnJNc0FYSVQ3eWtWUXhSVVBvU3htay1zM3VXRFpJMkE2NS1JZ01sYWxnWm84RUF3dTRkT2h0c3BJeGkycjYteFJxTUF2VTJhbmZF?oc=5</t>
+  </si>
+  <si>
+    <t>Puebla: alerta por inseguridad en ciclopista de San Andrés Cholula</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxNaWFtUzJmaUEtR1F2R19iNXdGS0pFRTBabTZmSU9zMzlVWERNR3BFQ1F3RGkycHhhRUM4aDZablhaZUVpQWJBakp0NUNKbkhaeE9vV1p3MFFXV25SMVdKc0tfaXpTNDVvMHlCNkZnNWstZ2cySlk5UHdtS1VRZmxPRlUwVzFfQWdhZVBQYXhoUFl3UER3Wnd1dTZVZk83Q053OE9HT3ZxanBzU3k4VmNIcnE4TkdRclp6d3fSAboBQVVfeXFMTWlhbVMyZmlBLUdRdkdfYjV3RktKRUUwWm02ZklPczM5VVhETUdwRUNRd0RpMnB4YUVDOGg2Wm5YWmVFaUFiQWpKdDVDSm5IWnhPb1dadzBRV1duUjFXSnNLX2l6UzQ1bzB5QjZGZzVrLWdnMkpZOVB3bUtVUWZsT0ZVMFcxX0FnYWVQUGF4aFBZd1BEd1p3dXU2VWZPN0NOdzhPR092cWpwc1N5OFZjSHJxOE5HUXJaend3?oc=5</t>
+  </si>
+  <si>
+    <t>Peludos alivian salud emocional en el AIFA; aportan seguridad y calma en la terminal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxQalZYYnYzNktIc1RVZkcxRi00QTk5UjZLcUhlUV80VHdNYmhXZ2tid04wVkJjNE9hQ0xuWGgxWG1qQ0NmcnlJQjgxb0VORExORHRuY3R3OE9BTFZKWEE4eWRaZUQ0U1V3aTJFOVU1MFRtZVhTcjVsQVQzMVUxNExORWNyTi1wOTlQUWFCemNGekFyU2FQU3JZVGNqQmt2YWhhb2Z2U3FkdHhycknSAbABQVVfeXFMUHZ0M3hVTVhXV0RNSHRDNkowMlFpYkpDYzMwa2RVTDRhYnNsWm9fSENRQlNpOHhRMTAwWDE2eGdWeVZQY0xDeGx3ajc2Q1BaQnVMWTlTQm5Nb3JUT1BmZjlHTTdya2J6R3hVclBneXltS1FZemtVcFN0NG8yOGpnZkk4eVdDRHlNWlZqQTQzTGllcHdYQmZWMHU4TFdmMjN2NXU4ZHlTc3R0Nk5HcGhuQkE?oc=5</t>
+  </si>
+  <si>
+    <t>El impuesto invisible de la inseguridad en la economía formal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxPeUdwLUlzaUlOWTlFdmVLMlQ0NGo3LWs3aUo1blZhSHZQXzgtc1pMb2p6dG5CWEVsdDd3S3dsaEdDNEkyR1hTU2VSZXF1YUt2OWRKalVDQkNna1lraFkwYl8yTzZJSXNCUG9GY3VLYi1wZlpGeGVQNDVqX2s5VjB1N2JwYTZnMGN5b243LdIBkgFBVV95cUxPXzZ0djNSMDRJYTBFdkROY0ZWdzVQaHpoVlRmdDlIdUxBTWVpcTBFSHVzM1haY1BZeTZ2YU5jM2QzUW1WaG5EQkNxelFDTkl0N3hIVmtLQmd6WENrWXdvVDRtYi0wU0l4d2ZlalJtRUVrT2ZDS2IwbXFxSEU2aGxES1Y5THp0b0QwN3ZJUXE3OTl4QQ?oc=5</t>
+  </si>
+  <si>
+    <t>Guardia de seguridad asalta la tienda que le toca vigilar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxPRkRwa0thcFhsalVaNDloM2plUEtqN3pSLWExRzc4RTRHWGk2b0N0R2U1RTJacjAzMEdmTjZzeXAxTlhqTEZGZ3BLZjZlTXFlNzh2OVg1N0ZfVk4xSXpDUE5ORXlQU3ZkRWg0MlhNaHIzR2FPTmZLZXJjRDNCUjVMMUZncW1Ha25aY1Z0bm1XSFJocjDSAZgBQVVfeXFMT1BXY2hrY1FRb2FVQl8zU0NkU1FaNDJOTkVyNHRGcklZUW5jSmYtd29jVDJLbDA1SXM2NTBybWdNd0h0QTNPUTdHTWUybXpnbVhPM01VUE5iZlJueF9YMFdZV09yVm4tQW9RanQtMVRkS01uTkJUZUNEdGo4RE5aZEhJNHQxclBaRGpEbmgybktFdVgxYk1HLVo?oc=5</t>
+  </si>
+  <si>
+    <t>Regreso a clases con nueva seguridad en el CCH Sur: Todo lo que cambió tras la tragedia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxORGZhVS1wRWRoQ216Q1gtU0h2OWo1bjBNaFJ2V1FkY3JQUlB2ZTM1aUJqWE9IVFM4NlBFdVA4VWNXZmpjNE44YUI3MGlVTXpGZ182c1g2X25rNTBKbVVURlRRMzRqMllOQmZMS2pFY2VKdVJpVXNZVlpPcEdUNjEzSHdGQUUySFE4bU1WbkFJZjZCcm5HYnF4YUNCaVEwenNJU3JtSVg3SU9yNjNSRzlGYWtleTZsSmRlcm1LdURYSkJfNndBVHNiWlN4VTh5czItd1VSYy1VR3PSAdgBQVVfeXFMTkRmYVUtcEVkaENtekNYLVNIdjlqNW4wTWhSdldRZGNyUFJQdmUzNWlCalhPSFRTODZQRXVQOFVjV2ZqYzROOGFCNzBpVU16RmdfNnNYNl9uazUwSm1VVEZUUTM0ajJZTkJmTEtqRWNlSnVSaVVzWVZaT3BHVDYxM0h3RkFFMkhROG1NVm5BSWY2QnJuR2JxeGFDQmlRMHpzSVNybUlYN0lPcjYzUkc5RmFrZXk2bEpkZXJtS3VEWEpCXzZ3QVRzYlpTeFU4eXMyLXdVUmMtVUdz?oc=5</t>
+  </si>
+  <si>
+    <t>Caen tres por robo en supermercado del Centro de Monterrey; uno era guardia de seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxQX3dLaUZFNFNJTTBpVzNPamhmRWJYYjRKajQ0V2d4Y3pqZENiXzFiRXRyVmd6UnUyQzNXZ1dTb1NROUFFS2lCdkk3dzJscUh3UUhPcmlCNVJxYzJnRDVBZEFGa2M2MkxFX2pFTGJJU1djRVdFSXhuSEJWdEZweGZ1MGloMTdJMkpad3cyUTZSbmVUemF5WFhmdkFIbjFVcFBjREJOUF9UdFUtdFdfX1draklDcjNfNEs5dDFkMk91NlRDcHJHRG5PaUhQZEwxalRQYVZsZ0c1WFN5RTjSAdsBQVVfeXFMUF93S2lGRTRTSU0waVczT2poZkViWGI0Smo0NFdneGN6amRDYl8xYkV0clZnelJ1MkMzV2dXU29TUTlBRUtpQnZJN3cybHFId1FIT3JpQjVScWMyZ0Q1QWRBRmtjNjJMRV9qRUxiSVNXY0VXRUl4bkhCVnRGcHhmdTBpaDE3STJKWnd3MlE2Um5lVHpheVhYZnZBSG4xVXBQY0RCTlBfVHRVLXRXX19Xa2pJQ3IzXzRLOXQxZDJPdTZUQ3ByR0RuT2lIUGRMMWpUUGFWbGdHNVhTeUU4?oc=5</t>
+  </si>
+  <si>
+    <t>Empresarios piden ampliar plazo para generar Dictamen de Seguridad Estructural, tras sismo de enero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxNcUgtZzNGd0czM1gtS21ybnlNaDZuYVJXUHRGblJCREtWMkJuVzZQaWp2ZXBMRGpKOHJSNUlJTnZWVDhQR2E0a0dIUDAxU3FQNk9jaENTcHowWXZZRXJCeVBZV0JPOC1TaGl6QUtBbEdKdXdxWkpmTVI4OFZjd3lBZ2RkV0FNdTgtNkJyTnZxeHNycmJNM3lkTVlMYnA1OVdPTHJSZHF5NGFYNEdFQkduU0IxU0huSEZwQTZsakJFN295aTUzYXRHaW9zaEc?oc=5</t>
+  </si>
+  <si>
+    <t>La UNAM planea unificar protocolos de seguridad en sus 14 planteles de bachillerato</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxNVU5nM3RZemh3Y0FINUgzbkFkUmxxd3RseUdIQVNBdVVIUGJJSkdNZS1wVS1YeGM2TFJhX2ZZaW9US1VfcHFJelVlbGx3dEU3aE1ScEhSWUpZZk95UEkyMk1zc1lhZ0drVXhRWW5Lem9NUF9yRXBxT09CSlY3U2MyRlNLTVoyUjBERm4tSEM3SGxKWlNiVU5sWVhfZDktVjNiQkdUY1RSaXJwVGZHQkllNFA4eV9sRVN0dUFBbjN3SlVFQlpHZHFMX3lPcU12ci0zQXhsaA?oc=5</t>
+  </si>
+  <si>
+    <t>Departamento de Seguridad de EU ordena el cierre de instalaciones de ICE en Texas por brote de sarampión</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxOaU80a3Rwc1JxenRKN1dTb0ItNU96NWdBMU0tMFFKQ3U1UFVHOG5mM2RtVk9TYnRtU2dvTWNOS3FKdXZfTDZKdGt5WTAzUW9yejgwWHloRmR3TE5WXzl5ZnRHc0hvelVUVXB5ekNmLUowQ0hXclJfUXNmRmtIalBKUG5FMTNSelBuX3ZWSl9wNVNoY25XTHNfWE16S2FZdloyQldqYkZiQ0JmSDBWTFJjN09xN3E4LV94Um5wTnJ2dFpwNVBMdXVaRWdYcUxVbnpJU1JpVHN2eDhON29vMzZUdl92RUE0bVRXdFNBSEV5Z3A1UQ?oc=5</t>
+  </si>
+  <si>
+    <t>Israel reabre el cruce de Rafah bajo estrictas medidas de seguridad y control militar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxOZl9TWno2M2k4LUMxM2tRT3ZYVDBGSGkyVTdia1l0U19zOG4yajNCa2dMYkVWRVgtVThxYnZ2ZUI2cnVISE9faExqVHR3OWladzJmbUoxcDdmTUJ1VDVCdGJjQjkwZmxJS1RvZXNHVnBHWFVCNk42R09HVTJ6M29OaDdOSDVVY1NOcXdDMnF1bUt1U0k0V19SSXNjeUtuOF92b1JvRHJYVmphcDhXYnl0N0ppNW1OdU5KazVzZG8tcTJycVJIQVlMRGJXZ2ZCWmJ6X1pn?oc=5</t>
+  </si>
+  <si>
+    <t>Residente e invitados dan brutal golpiza a guardias de seguridad en Angelópolis, Puebla</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxQNGtQcGpqLWI0ZURRZDJPUzVZTWQwNmI0NUZ5MWVvTTBUYVZHYW81S0hVRFdXaUxVZUZDQTRzazIxcVhBMUg3Z1UwYXEtbUUxUnFpdlFrb1dfZUw4cjJqNUF5RmRWa0xPUHR4ZGh1RFRCV29feHFCcEw1SE9HUEN0YVRYaUZTRDFBLVd2VXF30gGOAUFVX3lxTE1CcnhRbnNDekt4TU5RQkNjZ2RoWjN1UENndFdWb0JJaloyWnFHNHFkQzJMTkhBMnZmR0hLM0pfaWJsU3JoN0dqUk1DRmVmZnpLVUc4b1RqeTJKOXlubkc1bzAtY0FPdUVQN1o5eW11aTRyZGowM0xQYUJOeUl6NmlOR01QT3piWUltYWUzc0E?oc=5</t>
+  </si>
+  <si>
+    <t>Seguridad: Fortalecen búsqueda de los mineros secuestrados en Concordia, Sinaloa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxOSlhmYzhna192ZlJ4cmFjcWJWdzN0Z1FPSkR1Ym9tX0QyNlExUTBITmRrdm13T3FiblFGNUJ1RjhOeWVHOTlvZ1RfTWd1Q3U0RVZWaEVXMlJVNzN3dnBmT1dFQjdoS1JVazV1ajlVdUZ2RmpfU1dSOXVaNjdjYW16TTJBellpZDdfZ1lYNG1wekljR3Z6ZDh2SGRVRzN2TVdBMWhOZzRiUVhlT2FVdE02ZUtrTGpId9IBuwFBVV95cUxNVnIzcG5PdzZsWW1FSDdYaXByTWdLdm9xM3Ywa0xPLW9uQi1TOFA3MGNpMlJkQXV5OG00QUZqQkJjZHdOcUVTWElCR0dCaGo0bDRyM1VfUXdrV0NkUXN6WGZuYU9hcDFjdFkxVE5rTHM5cVlXRE95ZnVfbTV6NTVjOHNoVkcteGtrNjllWGxqQWNjUGVrNklJaDNZWmViSDFIVVh4ZllFVGMzdlp2TG9OVjhlaUQ4WVUzNjg0?oc=5</t>
+  </si>
+  <si>
+    <t>Presidenta Claudia Sheinbaum inaugura tramo Santa Fe-Observatorio del Tren “El Insurgente”; se conecta Toluca con la Ciudad de México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_AFBVV95cUxPN2R0Q2dhVHJLQTJFdXhJT1I0Z0JZRXJIak42RUpTaURzeDNWNFAtU1BrSWd1b2dfcUlSaFY5eGNuUEx1akZBblkzbjIxa1ZGOWxaZkx3OFhXRElEZWtBbGl6RWl1WEZGczk2MmRsaW9fQVdydFVHQlFkTlJOYXBuWXRfdlctMHpTaGxmRVp1d2I5Z2xTc2g2cm9uWGdvTmtoQmFrbllJQ3NCTmNpcHV0M3BrUi1SWXhoMUFXdTM3eVc4cEU3WFJsdDljbUd3U1lxeXVxWTBYbEtJdVJvclhsVEJ5M0h5M0N1RTRHekF1OVpwS05KZDItVVQwMjk?oc=5</t>
+  </si>
+  <si>
+    <t>Gob MX</t>
+  </si>
+  <si>
+    <t>Así es como Trump aparece en los archivos Epstein</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxOMUQ4eklYWnpPc0FkRklxQlpIQVI2UURKY2kwU2ZVMVgtSV9UZzVTX3FwaXBhRTNzSV9PbHhzcTRKaUdzZTIwWWl3a0VYMXgtOEF2TkxEMjBoT3dkbE1vaEp1S2xVODlicFQxRWdvVk5ESUE4WURLX1hSUVNNVnZDQ1dEVXIxNmxnZVI2alAyTGE4QQ?oc=5</t>
+  </si>
+  <si>
+    <t>Trump anuncia un acuerdo comercial con India y afirma que Modi aceptó dejar de comprar petróleo ruso</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxQWkJhazJFRzE4SF93ZG9OVjljS1pkVmRocXJzRnZxdkR4ak05aE5relVsbUlfa3VZaGY1UWZ4RU5pNlcxeWFQcFZtV0IxaURNSk1uWWlqQlFFNk02SFdSUUh3Z2EtN1FIQzZwVXVnamhHQldsTkNhQWNmQ0xlSGx1WC1fT1dJZlFybEtkSXJERkZ2aGFVT1JHU1hpX3FLakxpYmNVMDRPeVR4c2tIRThIZlZGWDc4T1Q3RC1zcGZEQWNwMzc1MnFfRkg4RTlnYjJfSUlOTzl2YVdKZ3M5Y0N1Mm1iZnY5NEdJTjI4eXdCME9tVm1KS09DbUxiMA?oc=5</t>
+  </si>
+  <si>
+    <t>France 24</t>
+  </si>
+  <si>
+    <t>Corea del Sur responde a Sheinbaum por conciertos de BTS mientras Profeco inicia proceso contra Ticketmaster</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxNaDFIZ2RaZzg2bExKbzgzd3g0c1QtNFg5Vm5MYUN0emU2ZWlraWJBZHhhb0RxWHFfV29CZzN3Wkw5S1pHVWtwSzlKYWgwNk1VeXNWdzE3Smcxa1NkMGc4RE4tb1VIX19ISXRpdWtqYjRabW5QaGVHYjFxTmYtZVhjd0xKdkJqOGxmSXJXQ2hTbmhfOXJ0OGVJazhSMTl6SExtRXNZZTNGQ2JNbVFUTVRqS2hDZ3VRU01VOUR0bk43Mk1kSXhVbllJbTBrUVdFdVVVd3kzVE5GdUhDWXpKUUhOT09DYXRkZ9IBgAJBVV95cUxPaDRHWW16ZWNlalZTOXZ4aUJ2YWtqZ0xfcDY3a2tQM0xGSTIxWVlUX1pPUjFoVVVLM0h3bVhMMGpzUzJ3OUVfYVhuMnl3Z3dhbDIyMC16bklZS2NlTlQtT2E5T2lYTHB0LWVsS1lSaDZTX1l2UklIb3lma29mbjBWbXBtTHNJak5VeXJMT3hMZ0dUbEx3S0tVckJ1WFdOMmdqSklreDBxZWZ5S1RvSFUyaFhPVk5xRkgzZTlaT1BZYko4RzFvSEZub3Viek1KM1JCWXhjNU1wRDNwOUZESjBoZGRoaFZHcXNjLVNnMV90VjlaMkg4bTc3eXB6SDdwdm5E?oc=5</t>
+  </si>
+  <si>
+    <t>Trump anuncia un acuerdo comercial con India</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxNaFRjaVRrLTVTV1FnUnI2RU4zNGZqUDlrSFBQaVBFc1AzaXFPZ2VIcHpMcGVocC14cy1FX3hPMnRGWElVWEItVEVUaGZuaUo5RkFxd09vNUNuUDd0RXB5Rk0zT0tlajFYQnFzMXYxZGNIYTVqeDBNTWlTY1hOWmRtQW9MZkJPTEVpSHZneFpua2xjUExjbVdiMmJhOXVfeDdxQWfSAaIBQVVfeXFMUDMwMHhIN1R6T2xzT3I5OGY3OEpYcG41aktydWNsMHBwQ19rVzNOeUpGOW5xWVpKMzZSN3hORWxTVEw0cjU0ZjUyLUdhcjB5VGNBdjFZMVdQd2ZiWmlMU3ZYRUt2eWF6aVpGdEhlcmpCZlpUWTl4d3JRYktlT0YyRklSd004Zy1uSDliN2xNYVMyMVRsdUhNYU9fVWpobURweTdn?oc=5</t>
+  </si>
+  <si>
+    <t>Dice Trump a periodistas que México dejará de enviar petróleo a Cuba</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxOUEVzd2tJeHRkQjNPR2JOSDFVUW9wdjdmMG4zN3hKb1pnSTVXZjlaRjZYMDNuQVhueTlLTVZHd0dKTC11NXpwV19NUHNIUG0zUWFEdnJsS3BhQVJHZVdNNXY4UFpFR3NLSk95ajZ1NkpZUWE3SUQ3WnRza2V2ZU9oNnotYlY2VkpfUVNValUyal8tUHdfSTRuNmlEZ3EzbDdFWUI1bFdGblVYeG4ybmpqdEU2c19YUGsxdE5lSQ?oc=5</t>
+  </si>
+  <si>
+    <t>Entrevista AP: Cuba no tiene una mesa de diálogo con EEUU tras últimas amenazas de Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxPdk9ZSEplQzZGNDdlWEc5RW9QODM5Yk1zd0Y0RTlyQ1dUSVFreERPcktaV0FudklnQ3p1cUx1ZGJ1X04tNFprb0FsOW0wUkVSU2M5aTNNNlNXYWlwNkZ5VHRWNy1weE0zOHhRdUxDNzF1aTZGUXRvQ1pnLUNxSmVWS1VzdmJTeFlvSnY2Rlk4Z004Q05EUEtaMlIxVFpTYTdFZnk0aHFLaGgzNHdaYzJZT2E5OFdld3IwUGxaVUlOc0FXZDlDbXZWYXlWUXFCT2J4dWdKZG4tT3ktZUxxQ3kySlJR?oc=5</t>
+  </si>
+  <si>
     <t>Graban momento exacto en que ocurre explosión por acumulación de gas en colonia Axotla | VIDEO FUERTE</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMi9wFBVV95cUxNMWdsek1nUm5YQUpDa045S1diaVpxV3YyV2pINTQ3NlJfN0xURFRMZUlnLXRBRHVVZWtoYjNXQ1RDR05yR2d3LUFiQjdCdU1xWVFKMUhteTRYeDB0MGQ4TXNvRkhmY0dOMmRCSnJDV2t3SVJMMExKdWUzRG9CQ2xHWnNkZ1o5dmFsWTBwZkpDTk5uMXBvdWlmNFU1WmxHMXNBYVdyU2xJakZnZEFKeW9LaTlzQVlnRDkyVUk5R3NNVUFuRnBVMjlHMW16cHdqUkVoNm1lNDhNSV95T2FJd0doY1FUSHdIbUVVbDFxbW9pcGZubjhrR2tR0gH3AUFVX3lxTE0xZ2x6TWdSblhBSkNrTjlLV2JpWnFXdjJXakg1NDc2Ul83TFREVExlSWctdEFEdVVla2hiM1dDVENHTnJHZ3ctQWJCN0J1TXFZUUoxSG15NFh4MHQwZDhNc29GSGZjR04yZEJKckNXa3dJUkwwTEp1ZTNEb0JDbEdac2RnWjl2YWxZMHBmSkNOTm4xcG91aWY0VTVabEcxc0FhV3JTbElqRmdkQUp5b0tpOXNBWWdEOTJVSTlHc01VQW5GcFUyOUcxbXpwd2pSRWg2bWU0OE1JX3lPYUl3R2hjUVRId0htRVVsMXFtb2lwZm5uOGtHa1E?oc=5</t>
   </si>
   <si>
-    <t>¿Dónde cargar gasolina más barata HOY? Precios de este lunes 2 de febrero 2026</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxQaXVxZEcwTk9QM3hvaUZfeGQ0eVAyODl1dHVTVVRYRzR0WWphMHZFN1I2akROd0M1UGtvVkg0QnBEUERqZTBQeFRNVzZNcHlsZU9nekFzVjB1MHBBRUhSTDhHQWJmSmlLUnpMZ2FndXRySVFnWEFjZEx2STEtdk1NZTIyb1dfVEZQay01bWE3UlgtTzBpamw2amtPR3dGb1diYzZ0YUdEQXhKT2JtUHVISFo0N21iOXplRGhGc1NFRFpyZXJuQ1A0ZGdGS2RvQVBs0gHWAUFVX3lxTE1GV1FQSUR0Z2FsYW4tcjRlYzB2aUg4cW5MbWF0MGExNk9PQ0pHMEJpTThxN1UyQzVHUGJUd0QwMlZlN1NYMGp3a2pEYUVIYXNQOWNJUWMtZlgwZUJlLS1jaVZNU2E1ek1VTEJrOTVxWF8ySDJRcnRCMDNXRTVLNlBHb2xoZDZYeVFrb3ZsV3RUWE1JMDB1S0hjSnpZWm93RzU3bFpJbDFLNzlabWRHVGF5c1UtMzdWQzB0TlVEbDduRmNTdHBjc2FQdE9TQ2o1a1hrZXNpcVE?oc=5</t>
-  </si>
-  <si>
-    <t>Las tortugas han reconstruido las Galápagos: las grandes ingenieras ambientales</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxOT3ptdmJyeEQ5UHlOYjZFRzFrMkJkVkIyVWlLeEZtMjFrTEJnSlJwSFJGNk1NZVJaaHAtTXdwNXUweWpJTkZmdVV2VndaTTB5NkRyQTJhQ0U5WWhqc3hxTjVCb1lsbWFDNWYzR3FMdFJnZkxjVXMtLWp5eUFYbHo0SkZyOEpnd0hSLW5sUFZTbXcyTkl4RWJBNkF0eGthT1B5Z014Q2ZZTGF6c1ZJZS1BcEhZdFF5UFpOamVNRWhjRUJKZkRtTFRjU25kRVpMWVdj?oc=5</t>
-  </si>
-  <si>
-    <t>Animal Politico</t>
-  </si>
-  <si>
-    <t>Zarpa el primer buque de gas licuado de petróleo de Venezuela</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxOb2g2Y1NWREZ0Q3hlZTlGdy1CamtYWk9KdlYzWm1yejFHVlFsVTNkUWdob21LTmNQRzFaLThXcDNmdXZpR1JUdHYtQnFGZlNTTWhMaFFYRnlDNnVyRTJYZEMzN0p3OW04Q1VKNENMYzdKNl9wajBwaVhwU2l0YjFKUWhabEpuN1k1dDVMaGVrcGJfU2lMTkZqNTVZbk1QWDVzbkIxWXN5cm1TMFXSAasBQVVfeXFMTm9oNmNTVkRGdEN4ZWU5RnctQmprWFpPSnZWM1ptcnoxR1ZRbFUzZFFnaG9tS05jUEcxWi04V3AzZnV2aUdSVHR2LUJxRmZTU01oTGhRWEZ5QzZ1ckUyWGRDMzdKdzltOENVSjRDTGM3SjZfcGowcGlYcFNpdGIxSlFoWmxKbjdZNXQ1TGhla3BiX1NpTE5GajU1WW5NUFg1c25CMVlzeXJtUzBV?oc=5</t>
-  </si>
-  <si>
-    <t>Se registra desabasto de gas LP en Centla tras operativo contra distribuidora por irregularidades</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxNZVEzb2tJNW1PR0hoTDg4dzlFWTZNMUdIUjlmTExUTWh6UFlWaW44aGw5LV91RW9EbGg0LWMyMlFRRzVvbnNtS3FCYmc1VHV2aEttdE1jZGl5MEh1N0dGa3NLT210TVpzN2g0V0x6M1BnSFpIYVRDcU1rOFBzQ3l5RWtHZS1ZYnNweDlBVjA2S3FSZC11WXV0ckJGSFVsNVRFZmhMQ0UtUlVsb2pSRnFoTm9HV01BY29IdjZ4TndKa0VFZ19TMkN6UjlsbEN3UWd5QnE5eHowX1FBYW5s0gHcAUFVX3lxTE1lUTNva0k1bU9HSGhMODh3OUVZNk0xR0hSOWZMTFRNaHpQWVZpbjhobDktX3VFb0RsaDQtYzIyUVFHNW9uc21LcUJiZzVUdXZoS210TWNkaXkwSHU3R0Zrc0tPbXRNWnM3aDRXTHozUGdIWkhhVENxTWs4UHNDeXlFa0dlLVlic3B4OUFWMDZLcVJkLXVZdXRyQkZIVWw1VEVmaExDRS1SVWxvalJGcWhOb0dXTUFjb0h2NnhOd0prRUVnX1MyQ3pSOWxsQ3dRZ3lCcTl4ejBfUUFhbmw?oc=5</t>
-  </si>
-  <si>
     <t>El gas natural, la crisis por venir a México en 2028</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMilgFBVV95cUxQMnhxMW5OOGxjcC1GU0w3Sm96cGQ2NG43d09vYlhqMDBaWVg5TVhjN2Z2Mkp1NFZjR1BWSjNLTVZnTUZSOTRtUWVlSDgtLTNKOEUyUlFKSFZlTEs3Nlhaa0NxUHdlaGE3NmcxZFE2NE5EbHJHSjFZcVM5OUM3QXNKWmUwaDkzTFkxMWJUaG5abHI5QURZNmfSAaMBQVVfeXFMTllWOTRlMi1CSE02eTFldXc4TDlQLUhJckpXUnZidVd1SGRUWC1OSmxTR0c5R215RmJhVGstTWUzd1dfLUtnZnd4U3A3NW40SDZrVlkxLUYzZHp4RkRBeTNEaG5yLVNJbE96UUE4NGdOYUNZWlFxcVNpZGxGMngydkd6NTg0cHZEalNxa09JSEhtc3NKNmxTU21vSFEzU29maTlfdw?oc=5</t>
   </si>
   <si>
-    <t>Explosión de Tanque de Gas durante Feria Patronal en Puebla Provoca Fuerte Incendio</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxQa2ZkOXFpRGFUam9RMzJCdkQwODBnUjByb2xKTi1tdjVqamkwcTBUaDYzRnBvSElfT2hialhrZTZUUlQtYmF6ZVJUWWk0UktFbXE0MFRZdGxJSG03Vmg5OHNfRWxmbWZZMmNJYnJPS0lNX29HTDk0LVhTUVk3bTN2LWdBVU9STlBWLThoMHc3dmFta29sN2FQNVljRG1odEYtV3U0WmljSmQ0NnNJeS1xUEdLSzRjaE5pMDlETmVKeFB2VGZaSklndktOWHJEZUN3WFE?oc=5</t>
-  </si>
-  <si>
-    <t>Venezuela Exportó su Primer Cargamento de Gas Licuado de Petróleo, Anunció Delcy Rodríguez</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxNVG45TjV4WFpOc2FqSWRTaVhVeTI2ekY5SGVpbFpqLXk4SWdMX1BjUG41NHc3blB5ZXVvUjBXakQ1YkZ6aVpIMXM3Rk9SZUNSMENEM3RSalRnbnIxLXg0ZS13a1ZrQjNUUkQtOE9pWHJCYklYcU9XRzlUUU52UU9YZ1p1ZjI5dkxnQmw2QXp5OUlnRVRPbzBva21RMmhkVnJPRDMzYU1iN1FQeXU0WEYxWWVRMHRHTzB1S2dLOWZ2eW5yVVFlcWpOaU5acHRVelUwNkgtUjMzeUx3QmRJbEVfb2NR?oc=5</t>
-  </si>
-  <si>
-    <t>Video: Momento Exacto de la Explosión de una Casa por Acumulación de Gas en Álvaro Obregón</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxNYTFXMVE1bWQ5djVPZHd1Y29HUVI0NmFnUV92UTZhY2dqLWMyM1B3cFBoaDNIMVpwd0F1aDd2R1k0MXh0M1lfRExEN1VEWXZPdFZLNHNIZVgyN0ZlaFhZbDRiQ2UzbWlWeUVqZ1lNTzBaakp5TDVsY3AxSU5ieGh4NEt2Y2x6eHFyU2szM3d2eDkwZkxYd1V6cTdJcDlJTEtVZzMtWnJDMEpGMkZFLTMzSFVaZ2l4dGxoR1RVbXJRLWM5ZWQ2aDl4aU5tY3ZVVnBZYWhKNzJYUDlNQQ?oc=5</t>
-  </si>
-  <si>
-    <t>Desalojan Edificios por Choque que Provocó Fuga de Gas y Agua en Monterrey</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxOQzJNcXpLZ0RGV2Jmb1RSYzFnc0tYcHQteWphcllRVF8yZGE4dlBQdmJLTVk1UzROYmRYczdTdVpuM1hPd0E1NUQ3NHcwVVQ5dDJQMlVlM1Z0aktYaEdFQWZUZklhbEpXOC1leFllQ0FsR25KUmRpV1ktX0hpYXZ5TkhraWRhR2xvNXkxdXgwN3o0MmZQRmdRMEdOMkdKNUFERnlTUjRsa1NxZGxlNHJNU1B3UVROZm9IUXJPTnBnSXdyMEJTWGpPeFFVaW05NE1fRnpZZg?oc=5</t>
-  </si>
-  <si>
-    <t>Explota Tanque de Gas durante Feria Patronal en Puebla</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxQZ2lPV3phTkV5aUo1SEFUVUktU00taW9WbzRWc0dhUWVUeFZvcGRqR3Yzb3A3SFMyejdiM01pT3BBQl9admVhVUpvV2xBNTVzSmR6WTRRUUl1TzkweVg4NTljaG5zOXJlMVZWaWhxSENnNkJVYUxQdV9sVHNqM2thbEJTTmJNZVNmWUFkLWxIRU1lRk5zU2E0ODI1LU5lck04enFMLWlRTVc0RG5LRWs4MVg3UUFjcDFjZ1lqcF9WSnBiRDJpelNEcDFCQ2dibE00NzZtZA?oc=5</t>
-  </si>
-  <si>
-    <t>Fuga de Gas en Vivienda de la Col. Doctores, CDMX, deja un Muerto</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxNa1ZMZVFFNlIwWXl1XzF6MW5mSVVwTEVyaUV1ai1qRTlJQXdaRHpncEdNelRJLUxHS0hVbUlhVE0wbVExQnRxcHhCaTdLalVTaFJ3cm1ycVVxQWZhdHpJdUtMRzA4a3BjdUVMWGN2dzJpYXBiZl9mVlhKa3ExOC1hWUtucGZSWFN4dXFLRjh4eGtCcF81UWhOZ0RnUTBiZFJocFlfQVBuczdDME1UWGZPMHJLVHhsUXM?oc=5</t>
-  </si>
-  <si>
     <t>Adulta Mayor Narra Cómo Chocó contra Tuberías que Provocó Fuga de Gas y Agua en Monterrey</t>
   </si>
   <si>
@@ -643,135 +1174,12 @@
     <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxQVDNHV2tWSkhYWEpSSlJ5MGRNM080RlBmRkwzYkdBeGxnQjhsUHZqSVdqVXFHUGJPT18tTHA4WThweDV1VTVwYXhmZHlGUmItd1Z5Z05pZkI2YnRwSVNUMEV6SXNreWgwTEU1VXFfM0pVVV96Q2ZaT3gxYzVxWEIxTEtBLVBONmdVX0dCTzEwQmhoeGRxN3ZTUElzemstWnpVTVdUZG9mRzdvY3drXzVTX0NnWENIQzBpRTVHWkdkc0wyOVdhbWpmVkRSbC1XZFBqemk1X2pMQmFJVmVobFk0WTc4NnIxUdIB5gFBVV95cUxQVDNHV2tWSkhYWEpSSlJ5MGRNM080RlBmRkwzYkdBeGxnQjhsUHZqSVdqVXFHUGJPT18tTHA4WThweDV1VTVwYXhmZHlGUmItd1Z5Z05pZkI2YnRwSVNUMEV6SXNreWgwTEU1VXFfM0pVVV96Q2ZaT3gxYzVxWEIxTEtBLVBONmdVX0dCTzEwQmhoeGRxN3ZTUElzemstWnpVTVdUZG9mRzdvY3drXzVTX0NnWENIQzBpRTVHWkdkc0wyOVdhbWpmVkRSbC1XZFBqemk1X2pMQmFJVmVobFk0WTc4NnIxUQ?oc=5</t>
   </si>
   <si>
-    <t>Explota tanque de gas cerca del Hospital López Mateos, en CDMX</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxPN2g4NnNYcFVtdVdRWUJMQ1BrTHpKRS1PenV2YVJxb1ZBRnRDWFFfLXF3d1ZlMnQtWE9JSEU5NGltVEt4akR5TkoyUHk1Nk1WNDduLVVJY2pfYlFVSlNTeXpSQUtHSVdMYnRSeloybFMzTlZuVDZxZzBiYi1YZ3p0MGN5QWhmaHpTSTBLV19kR0pHMWdKaU14bFE0Z0lhbk1jV1VZTA?oc=5</t>
-  </si>
-  <si>
-    <t>¿A cuánto está el tanque? Precio el Gas LP en México para la semana del 1 al 7 de febrero 2026</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxPUVd3dHkwTFpRcTd6UXhlc0NYalR4MW96dHQ0V0dWTm1kRE5DbVMxNlJPc1I4U0J0X3d1N0JLMkRPQXd6cnhzY2tNekpKdWRtMUJPMHZaY3FKZDlPbmlqNG1QeFdmTzJ2NnNEYmV2SkQxYlpCRnNUZm0xVW9kclpPTmJGMDd5bDNkcTlUUlFqMnpYYXc1eDBzNnU3YnJUVTdvamN5MlZzdFVqNXVuTHVJZGhtcUZOeDBOS0pKMzNHd2lNX1U?oc=5</t>
-  </si>
-  <si>
-    <t>Plan de viaje: Así amanece el precio de la gasolina este lunes 2 de febrero</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxOVXJfOWpzSkM2NHZXcmNmZl9UaGRfVWJlRHRJejlLa0c2MmtXVU0tU29JY0F2bzFrUVFDcGZrTkQ5YlU2NFhJVDRhTmEzejJkMGE4WkFzNzcxSlBFVFA0Q0Ficlp0S19jdVZ4d212RUF3ZVdkQ2NDcllISG8zRUs1Q1dqVExSWU1yazNUbF94THBISnZaZVNpZkV3M0hpX0xHalhCRWRTdG9GYnRVRWg2aG1vdTBITmVDSzdLUFhFYjNMQjViTkE?oc=5</t>
-  </si>
-  <si>
-    <t>¿Sube el litro de combustible? Así queda el precio de la gasolina en México para febrero 2026</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxPY2pnUnhXWThuOWhXZ19ZNFVPc3U3MzhlOTN3TVE1amEtdkU2NUJTVzFoZUNiVkpWZjI4NEdHVmh6MlZtZjc3V0VPMnNsQ1VubU40UFhxZndkZkJtOUJjU1ZuSDV2TW9lckhMd0tUbTN4R08yM055b0dYTndZTlJSZEMwZVpxNThnZEdtdzZwT0M0c1ZTUnI4dFFVU0tfQXUtVEpnN0dERWtiSng3OVVuam00TmhEZS02ejRNNm1PRHRZQjU4ZDdtREJMTGZqd2hMRG44R0pEMkwyMlhPX2c?oc=5</t>
-  </si>
-  <si>
-    <t>VIDEO: Captan momento exacto de la explosión por gas en vivienda de Álvaro Obregón</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiswFBVV95cUxNRExtdU1jWk53cGRVTU1MZnlXRUZ2LVVLUThNZ3ZUcVprNExQQ1BzOVVyTk9FSWVVSi1WTHItdU1xYlhmYm5LTHUxS043WFhHSmo3TXhoY2E2X2lxdGdfZEhRX0xYZEtPaXExenRiN0d0QTUzTkNBVUc1Skg4MGVMWmJ1NFI0d0YtdTdib2JfLW1ISzk5UGFwampRMHZBWUpCLWppZVRJTU1aV2JxMzZhWFY1VQ?oc=5</t>
-  </si>
-  <si>
-    <t>Emergencia en CDMX: Fuerte explosión por acumulación de gas en vivienda de Álvaro Obregón</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxON2cxSmpidFJ5UmtMTEFXcmRWVVhxRVdvZmEyQU1CdS1YcW54a1Y3SXNPLVBLS0ptMVducVc1cEwzLWFFNUhXbjVQNzFsdGNoRER2QUxvNTNKRmY3UHlQZE9yanhlX216TExZelIxck5CR00zbHZ3cEpLT09ESTVvNTlKQkdibHpOdV9iMDhhc0o0QWt6RDZxYjA3dHRSZTVIUDU2WGwyYVFXeVdKeWVmVkdB?oc=5</t>
-  </si>
-  <si>
-    <t>Sin precisar el destino ni el comprador, Delcy Rodríguez informó la salida del primer buque con gas licuado desde Venezuela</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi_AFBVV95cUxOZ1VRXzBLOTdDaFhIODI5UHJ3OURzcGhQczNjTFlFS2FsS2hjdDhmblVkaXdNWjZ6bE00MHk0WHd0aVF4U2ZRWmpkU2VUbUI4Y3BGakdybkpjVk1ET2ZBeVJTc3FIU1VISXpRS1ZjVUZza1A3cktTLURxV1VtS1BWVnp1aWFGTGlfNDlKU1BydG5RbFdRY2NCRTZYNWtUZ0JpRkRSNnNQMEtVQXRwX05oVU1pUndhX3pqTnMzMFBTMmxVLTgyU2xmWXJwdTBoSTItQV9WOTR0ZDN0UzUtSjhlaldHdTVtWE02RW5IRzdWSFAyYjJSNmxSNklUQ3nSAZcCQVVfeXFMTXRfZVViTWRDSFFZa0FrZUdCUHNrVXV5a0tVS2lONkRQNS1xWFlSaHdRMmJJRnpmSVdYQXdrbXJJSUNxZFFVV1VITGZyUTlHcHFMR3ZfR0M4VUs3djZERzY1T3ZGcUtlREhmOE41QjEyU2xsZGJSSkg4cThDc29RVWtPMk15akxRaGd5NmdlalNKSUFYclN2YTcwVm84ZnJwYi1OendOZThYZFMydVU0cHFMa290OHIwQUhYQkNERVZveXlLM2FHTjQ5akdLSDBsSWk3NGJrcExEWERfNFlhdkJMcWtxejlhQlFhbUhUdEhJZW40SHdfVENvdUJlZVgtUVA4LTQ2NTBadXRKaElMYmR0ODN0TDU4?oc=5</t>
-  </si>
-  <si>
-    <t>Fugas de gas y sobrecargas eléctricas: principales causas de explosiones e incendios</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxNcjh2QnpOOTNxVDIxY2c5cHFENndibEZwY0ZCN25CUng1b2syWHlUcEhOdDVBY2JGNVBKSlNWcWE4ZTNJTldsdEdlaEw1UjBsdF83SEQ3TGF4VUxZT2FaV0ZGMDhqQ09BUExseTdWeXR5OWZBczAyWHRMRjNQaU40UHo4alItalFUdUhhVldTOUJTQjlNVEFaamRSTTF5MTBmM1B6bTVVMEhGNWZqUExxaWwzcHM5bFV0M0JoZzk3ZDBpZzh0N1J3RS1qQXVqUQ?oc=5</t>
-  </si>
-  <si>
-    <t>Desalojan instalaciones de la FEM en Chihuahua por fuga de gas</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxOdUpGNTZFbWY3bWxZVzhoRm1yN2RpMXZhVmR4SEY4am0ycTlLRG9BdTBfX29rTThVdm5naGJnanlPN3VOWVVDdVVXVkdnZ19rbGhQWnc4UWRRTEhXYUJGQkNnNm1YRDRXRGUzYjZoZE9jSk1OREJlM2h1WWRxd0tvSVpnbkljaTBrZ3AzMDl5Y1lleERzVEJVSEl3djkxRzVPUk5SM2xiakdVdW5mekxIM1JYa0d5RlcyS0dzcHVn?oc=5</t>
-  </si>
-  <si>
-    <t>Rescatan a perrito tras explosión por acumulación de gas en Axotla, Álvaro Obregón</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxQR2E1RG5GWEMwSU85d2FDbnlfNE10aTROZjJtdG42MERBc01ORm41bnd5WEx6OHA1OHR4bWgxSkxOLXpBYi0zU3JiODFQU3NXcExxYlhEZUh5WnpXMTA0V1BoQ0dNSkNpT0lTemhveTZzWmlSVEVCeWl3NzlrdnhaNjF0NU9TQnNscVBhbmFTM1RpSVFKU2NlMUVnb3VKNzAyb2JRS3hxSWJvdFZqQjl2RGQxeHNNamFHSkZLemJKVENhcTl5QTE0Tw?oc=5</t>
-  </si>
-  <si>
-    <t>Explosión por acumulación de gas en Álvaro Obregón activa a servicios de emergencia</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxPa29rNjl6Mkp4S3pSUkQzdURnb2hZcVlEQTdaUTB6R3BVeXlCYlJYWi1OZXBVLWFLYVFrQUtDbFlfR3BuZF8wX1RoMWxLX1lRTnRQRTlfOTJHcEI4WHBVaGtiMENiNTVKd045RWhpRHdzc2pfV3lDV2thOGRYSDlrQUE3eGI3T09PN0cwdnFBR0dsY0liSFRnQ25aU2djaUJnZFlOXzIybGdXYndkQkJDc0xaSXRJdUxGMWx1OXBCZHFoaDA?oc=5</t>
-  </si>
-  <si>
-    <t>SDPnoticias.com</t>
-  </si>
-  <si>
-    <t>Gobierno de Sheinbaum anuncia gasoducto y planta de licuefacción en Guaymas</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxNU25FVm5Mdmpnd2xRT3hwTEZvdGxOdkxSSUQzS2RFOTNyV053cU1FM1lwU0pNYy1ORThudmMyWGV6WmoxRU5BZUszRS02em5uYUZKSHVESU95aEJ5TWZyZzFWNHZGbm15UjhzTE80dzZCN3FJSWhralRoUC1oXzRFa29KaG1oa1AteXA4SHkwOHFpYlNOQXBmaW5TTnpXRXA2aUdYLUxtUmNTeko5WE5Lc21Ic09YZE9OT2hBUnJqcVZLR0HSAcMBQVVfeXFMTVNuRVZuTHZqZ3dsUU94cExGb3RsTnZMUklEM0tkRTkzcldOd3FNRTNZcFNKTWMtTkU4bnZjMlhlelpqMUVOQWVLM0UtNnpubmFGSkh1RElPeWhCeU1mcmcxVjR2Rm5teVI4c0xPNHc2QjdxSUloa2pUaFAtaF80RWtvSmhtaGtQLXlwOEh5MDhxaWJTTkFwZmluU056V0VwNmlHWC1MbVJjU3pKOVhOS3NtSHNPWGRPTk9oQVJyanFWS0dB?oc=5</t>
-  </si>
-  <si>
-    <t>La Silla Rota</t>
-  </si>
-  <si>
-    <t>Precio máximo del gas LP en cada municipio de Veracruz del del 1 al 7 de febrero; los más caros y los más baratos</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxNQmNuSjBQc0RjREJramF2X0xnSnc5dXoyNHdnSE5zRUU4LUpUcjlwOFV0NGdubDFoVnVHLUlveUYxOFZHSnA4V0U0eVBzcjA5LXFlRThZYmFlVF9IVmtpeVZ5VDJmMkthSFBaT0drcmhUcklJcDZOVko3VzFGMVVPQS1xWXhZOUpSMEJIX2xmT3NicU93SkYtRnd6M0VEVktZX3BuMUV3RDZOWEoyb3lhZUhPVHFkdjNhbWZ0SFF0TDZ0ek1QUWcwZDUzV3FVNDNnZ1c2dHhZaG83MXpKZG9ZbHQyMXlkNm5XYjV30gHrAUFVX3lxTE1CY25KMFBzRGNEQmtqYXZfTGdKdzl1ejI0d2dITnNFRTgtSlRyOXA4VXQ0Z25sMWhWdUctSW95RjE4VkdKcDhXRTR5UHNyMDktcWVFOFliYWVUX0hWa2l5VnlUMmYyS2FIUFpPR2tyaFRySUlwNk5WSjdXMUYxVU9BLXFZeFk5SlIwQkhfbGZPc2JxT3dKRi1Gd3ozRURWS1lfcG4xRXdENk5YSjJveWFlSE9UcWR2M2FtZnRIUXRMNnR6TVBRZzBkNTNXcVU0M2dnVzZ0eFlobzcxekpkb1lsdDIxeWQ2bldiNXc?oc=5</t>
-  </si>
-  <si>
-    <t>Sener anuncia proyectos de gas para Guaymas, Sonora</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxQVG9XbFk1aS1BbWFzOTY1dDFza2dTby1xYl9aMzVaMEs4dmtsbTVRNm5kbXp0MnYxWm00R09BdlNXVG52ODB6YWxqS2gwdXRCVlM3Q1I3WEFSRUVIQjlHWldkckJxNFJqTndnLW9YcGxxcUpianhCbHpVWnhiQUlnS3VvMHpZblptblZIaHV30gGTAUFVX3lxTE9FTEFKb2VPYXpJYm9nWExyQl9TUUlrZU9Za2ppdUJsQ0pUZkhZdk5XaTZPRGk0UnlibFVRSnREQW1WYkJHZDJQOEhzNFJIUHVQZ1ZwYnBwdlFBYVRjNTU5QXhoRXRjbzZncVZobkFoVW8xSEg3LW5qSFBva2cwcVpMTWwwMFFlZ1ZOYkVrNktka1JOVQ?oc=5</t>
-  </si>
-  <si>
-    <t>Excélsior</t>
-  </si>
-  <si>
     <t>Captan momento de explosión por acumulación de gas LP en la CDMX</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxOaG1TTkVVS1g5UDFSUmhweU1QU1Q4VjB5VnpVQi1kTTZIVFZxWEtvNXpzYW5OYUJpUHl0YV93Tk4xcndyd3RodVZwWUFkUXZMUmQwakVGcVZhYWQtdnZxUHY0VHprSkc0NEdmX25hSkZuRlAtSVVjYkZEd3NmcUJnWk8xTlo3X0c2Tk16bm9nTHJ4VGJwTEEwMVlMZllRZllTa3pPUUNfZFBlQlFEWkHSAbMBQVVfeXFMT0piUEVWMW16LXhrSzVXV20tTEk2Z1o0WGpJOUg0UjlUakh4Y2pvNDhkRnJ6UjVod0pFR3VxeEtRV19reGJwWklzaFZDcTFQZzkwbU9SVFFfVVprSFV4R05iRDhNYm5xN3Q3NzBCZ2dHbWZrajJkTEFXcUZZTXpHTjA3NmxSNk9uZ3RFS29lLVRzSXhoR0tzbUFpVmttbzZzbUs2VUFnTTZIalQ0TlhINDN0UjA?oc=5</t>
   </si>
   <si>
-    <t>Explosión de tanque de gas calcina dos motos y una camioneta</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMijwFBVV95cUxNN0tUa0JJcmNSY3puVFM1UnEtSXNRVFpuOUM4UGgxN2UtMkh6bEFQZTc0aVZoWExCRnBzY3dwcUFNbEhoN0QxN2xyZ0hMalZQaXBHNC1wdUJqRW11NnQ0SHBySDBzVEE4dlZ5Vl8wYTM3dVk0MnMxbFJScXk5SEVVQ3FJendQVlY3ckJsODNmUdIBlAFBVV95cUxQVjEyZDNVUlJod1lSUUY1bmdOVURKN1pYUXdVWUtTdEY1dGtUZF9lb190RGVWc013R3FyN21iMnY0RkFUTlJROTVicW9sa2xXREtoRDVYcHJkY25abm4zUXFMSW42NERnLTNsVlZPNktYdUt6OE1URnk1bHduUjRDOW1NLXpLSUppQks4S3hvSGlIa0xJ?oc=5</t>
-  </si>
-  <si>
-    <t>Camioneta choca con tubería de gas y provoca evacuación de dos edificios en Monterrey</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxOYWZ3UVZjNHp2ZDFUTHVHUUNQS2s2YkV0NDZ5cEY4X1pVVG1CRUxzVGlhS3BkTUtKdk5QQjBfMmRNalZwQmY2UE4xdzR4LXJRTnhZU3I4UjliVnplMnBtVEJhOTd4SkdRYTJ6UVRIeXdtMk4tTzN2dFJGSUJEeFdzb09ULWZENy1nMEIxblBDTjJBUlJvZC1ReEx1VzFRSU9kUHpoemR3bXJIdnYwekdqQkFMTEhHOVh1NzlhaGhZb3lFVTI2SzJPbl9nTXd3T2czU1ktckJR0gHWAUFVX3lxTE5hZndRVmM0enZkMVRMdUdRQ1BLazZiRXQ0NnlwRjhfWlVUbUJFTHNUaWFLcGRNS0p2TlBCMF8yZE1qVnBCZjZQTjF3NHgtclFOeFlTcjhSOWJWemUycG1UQmE5N3hKR1FhMnpRVEh5d20yTi1PM3Z0UkZJQkR4V3NvT1QtZkQ3LWcwQjFuUENOMkFSUm9kLVF4THVXMVFJT2RQemh6ZHdtckh2djB6R2pCQUxMSEc5WHU3OWFoaFlveUVVMjZLMk9uX2dNd3dPZzNTWS1yQlE?oc=5</t>
-  </si>
-  <si>
-    <t>Explota tanque de gas y provoca daños en vivienda de la colonia Axotla</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiwgFBVV95cUxPMWhrc1dfVFppOHcxd0szS0FnUkZXQ2dQcjlZdzdZWnlZdXZCM3c2WVFkcHU1RFpQbTFJbzJHZmp5MnE3T3g3NVhlYll0MHJ3QnhrSGtMX3JUZmVRMVNkX1Bjd3RBaGljX3JNSVdvWURKVEVwYUROejNqSUdrVFFOTHlSWkNtTDNFTEM5WmVuZk9iLXJUa3lERXl6VjJFSUtUcnF3eWQzYkd4MHJfNzV1S3BhR1VtU1ZNQzN2bDBNT0c3dw?oc=5</t>
-  </si>
-  <si>
-    <t>Delcy Rodríguez anuncia primera exportación de gas de Venezuela</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxQNkpDS1NXck9UOG5VQzFBdFFGdktMQTBHSl9EMTNYaThjYXp4ZUNmRkZpRWFDb3BsTVAwZzMxWW85VEZfWWJZMkpZZGVCQ0tWUXVJWXlYTWhuMnNFYnZtOUZyZWxRXzk5NEQ0em5PY0VEMW8xZjU3T1lxSnU1d3Q3OWJGN0otYWw0cEJXM3V0eHNLZEFBMV9NYkI1QkZ6WWQtTjJ3MjZFMS1nTEhad3FzSXl3TU9qenUxV1E?oc=5</t>
-  </si>
-  <si>
-    <t>Delcy Rodríguez anuncia la exportación de su primer cargamento de gas licuado de petróleo</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxObkRad2JCY3RCcjZlMUJpTUJocHBxalJJekVhcjZCNU9ZUXdnSTdHNU5lTGI0UHdmNWNxS2t1WXpqdE8xQVFrSFhKWF9ETG1ISHluYUk1YUN6YzluN3h3R0hwMnNhNnVONERzTnBqTDNUWEZCWlFOY1dEQTA1ZTVoUzg0cm1CMDd4aENfX1p3VTZvZzZ6NzFadmdOVDdyaEV6Wjk3ZEQwX3FGQ0wzLUZXeUhqeGRaeG1Fcm44?oc=5</t>
-  </si>
-  <si>
     <t>Triunfo comercial en Venezuela: Delcy Rodríguez anuncia la primera exportación de gas licuado</t>
   </si>
   <si>
@@ -793,66 +1201,12 @@
     <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxONFRYNlNIYTAxbDEwWGM4Q29MdkRtVEoyUWRYWi1kMGVXSHVkd0haUWdVaXVsVlFMTGM3Q1VRLXNKTjZRS0FJdDBKR1lDaUpMbnBXVkVMZkd0d2ZIbW9qeVpPc1ZfRHY0Wm5BMmdSa2NzUlFvb2VheFlfa0U5amtKeWExbGRwWno4MGtQeVAzejRZM0xkblZ3cF8yR0pQdWtjODlDU2o1a9IBpwFBVV95cUxNN041T1FmR2xET1Z4WlFkVnFjeWJwNFhEamdNNzBwZWY5d0pJVWM4QWNxSzlCZmVad3RJbkkwNmtpT3k0aGxRZm9OaDBlYmhHSmhzUUgxQWZ0R2p1WUg1dWEzUGR1UkZySzFTZGx3a3MyU1BvSGpCS3dkTmQ1WGFneWV0TE5RM2lySG83QVhla1hVcWhXMERSWlF3cHQyZTVybGpfNXlWRQ?oc=5</t>
   </si>
   <si>
-    <t>Urge mejorar operación en crudo y gas: McKinsey</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMif0FVX3lxTFBsZGlEY3hIdzFMTElsS1I5elVpQjQ5V1BMdURuRm92bzhfU3p0NE1NR2NfdXRocDZfdmh2MEZWYnF3TFpEQm9RQWtoMnBva0daRkFpR3pTNVRGQ3NQSlBIZVVZOFBZUFlfOU9wQ0k0eE5zeDdhdElpeFJaS01tWEnSAX9BVV95cUxORzhkQUtVMTg2Q0Q4eEVOMHdZalJQZkx6aEdmTTNzOXFILVVYY3pUeXBlYVdhQnJBRkIxd1VRNkFsWnNJUXoyczFxQUlCQmt5LWszU2NHd0MzR1o0WGFxRmV4anBtbWE3X2FjQnRWYmE3WE9CUGdiMjNqcjNTMjg4?oc=5</t>
-  </si>
-  <si>
-    <t>¿Cuánto subió el Gas LP en CdMx y Edomex? Éste será el precio durante la semana hasta el 7 de febrero</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxNbDNpcERWN3k2bDlDZ09CRnNSbGw2N2FRVXpWc2I2cVBLWDBtYTJiSTk5dEF5a2N5ZGRrWkkyYkF4SDVBa2NFbm5OZDNvYlpwN01HUHFqNlJJTUZIMFNIYmI2TEFMd1lIVzhKRjFiXzF0bS15d1cwb1ZhbFVOYWl2TnYyMUNDdWxwZi11ZUR3UG1ibmk0WG5sS3JyTi1WUHBLdlJv0gGjAUFVX3lxTE9zdWZVNDNwTVoyTHQtbWdhNUExa3ZJWGJpcmZmS0QzX0UzVk5hU0FJMWlUbFZXMlNVU0pFYXZqdXBKcTk0ZUM2ak9vNFc5TTBmRDVMMXNkUzM4SHU1QXZJSzZSUGtaUTU1M0RidTZWQ1ZsZ0JLUFpEQUt2UkdZdTR0Yk5wZkxFWWhNdFRoTVBGNms0UG16bFUweTd5OUhqbEp2QU0?oc=5</t>
-  </si>
-  <si>
-    <t>Desalojan a 90 personas de dos edificios por fuga de gas tras choque en Monterrey</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxQVlZwN2hWam9rclkwbXlhOFpKLVplVXpCaGI5MENrSGpCNkw1WFI3OFJEbEk3bjVWaGY2c1NMdlc0WF9jUXpvZElLLUJVaTBjb00zUkJkcWNZOHh5VHZfSElDWl9GbHkzdU1nZWNud0VjMG5od05HWGwxeC1zbWl6VmwzUm5oRVVhbE8xQ9IBjAFBVV95cUxNTTh1U19pN1hyR2swa3hKT2FaQWxUS2VJclM3MWItWm1DRlg0VzJZWVItNHphRGx6WWhPX3BpakEwY3dwRkc0TFJXSDNVTXRuTTcyLXM0VnIyRTdVbHlJY0kzM1ZIWU5VM2dYYXBVTTQ2TjRpa1l4SmJsMUNISzRXVS1WeTlpNV9CbUhIcw?oc=5</t>
-  </si>
-  <si>
-    <t>¿Cuánto costará el tanque de Gas LP en Coahuila y Durango esta semana?</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiggFBVV95cUxNaW5kYTB0RFFKYlJmWTlIeGloRjZvTTFxQmpQUDFSM0pTRldFMG1RaG45aU5rZHRadkVsM3FESFRKaUVFUzBaQ1hvUE5XSzFQc2hBZU5PcjlscTdiY3VmUEpZVHJYX1VLRl9jMjZDdUdhdExaczhUWTgwZDQ4bTU2YmNB0gGCAUFVX3lxTE1KWUhSXzI1amdFaHdwaFZ6RWc1MTJfNFlzMDFldUwwSFR6Zm9lbmMtd21HcGU4bGQteG9rZEpUV1lJeGRRMGhBYkVoanZTM3hieTBVcGpPMFZXZjItMzktZ1pfd3lRblN2bWp5emxXdGMzMUlBd1ZRdEJmQXFNLU9lRVE?oc=5</t>
-  </si>
-  <si>
-    <t>Inversión puerto de Guaymas gas natural licuado SSA México</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxOdHlpUW9yRDg3NGJRQ01TQm5OUWlnWGdIZmNQU19WRE1jWTVaZklBZGQ3WFdnUWlfOFlVdkdrd1hvU1FhRHI4czdJbkhkZjU2Mi1BVWs4TXFQbU1jYzFUcjdOZDZiUTl2QkRRRzQ1TmVSaWJDc1hMUFpzY3VWN3VrSnktR0duN1FrNXZLZXE2emp1dGd2R2dLeUZQWGNER0Q1dkVkNXZ4WdIBpwFBVV95cUxOdnBiR3hSLVZMWkFlazhrdFFoVXU3eWZZVjROVkUtTmI4aExwNFNPcjIwMGtvZE0yUXljTkFDbmpBSkJpUjlwb212NWRTQS05UEFYdkdQZVFzcWZ4NS1RRW8zbVJGUm1tMWJkOUdHN2pJdkQ1eEFSQ0xkcjFaWE1mWE51eEJDRklReWJPa0NNWmRZNng5aFozZ3pUUWxLekpfd0hOWDd0Yw?oc=5</t>
-  </si>
-  <si>
-    <t>Explosión por fuga de gas provoca incendio en vivienda de Hidalgo</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxPVERCZGUzY0NycUlseUJXZzVUMWFFM2xtTUU5aF93Rk5kanFXaXJKb3REYVd0UHBkaTFLbzlCVy1LUlFLdXcyTDVDYUdqTHlnSmQxY3VuN1FONmFZNjlyRmpGbUF6d1ZZX3JacVg5V2hUYXJSTXVWd1Rmc0drUUhkZ1hFbmVMTnhQV0w0T1BUZkVZMzjSAZMBQVVfeXFMUHlWZFd1VHQ5cVFsLWF5X2NEREJYVDQweTlGN19wMksxdGpIeGJFWkV3bldsU1lYYmFwcEdCMksxWVFlZDVUcFpRUUlLQkd6LXFqY09adkpBdEtLSV84MENXWmdTeUMxWTRGS2xiT19FM0RaUGU5eDZXeWpRZG0zR3JHaUdyTFJkOTNEdjN0ckhySE9Z?oc=5</t>
-  </si>
-  <si>
     <t>Fuga de gas origina explosión en inmueble de Álvaro Obregón, CdMx</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMihgFBVV95cUxOQWNST0xmUkVmbXdDQ2R0M0lOX3NvU3hnbi0yeThhVGViSXU1RnVSTXB4U1R3NmswRFRZbFdKSTJQc3Y3R3I5VjBRNmVnM2dUcHBhd0tQdXA4WXhrRTVqcFRfb3pMMFRuUGltMkhwSnBuMjJHN0psV3drQVNtTEtzekhZc2ZYQdIBhgFBVV95cUxNUGktQnVVelc2TVNXcXI0VHQ0SWM2aFM5MGJOY3FsVmppLUdNNV9ON3BxZThHWjNVOWtHVGFPNXgwNVUtNE1QNEY3WHpzWnBrdG9UdzFtbzRJbnhweVU5QktkcWRXWElQc3NadlotbVduX05Vekpsc1k5QnZqRmhWQkdTUzRfZw?oc=5</t>
   </si>
   <si>
-    <t>Por baja de retenciones y de impuestos, la recaudación tributaria cayó en enero por sexto mes consecutivo</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxPZGxMdHY0TXVWb3E5ME1UZUVDaXpOS1hKOFpZRDNyb2s4Z3BJVmdFTl81aFN2V296VWJDQllRZ3phTG1NZVdZeFMybmN6OTcwMll0UW1wa3ZwNldoV1ZoeFJwYVBQaE55bmd4MnNtTnYwWFlvdktDTlZHZTc4RE91OE9lYWhzeV81OE1xUUJ2Z2R0MERmZl94Y1FfeTg3eDltclAzbGphT0l3ckVKM0xJTWtlODU0OE1iWlYwdWlGdjdjOWgxbVZSTUhXVzcxSkFYTDJRb241dzMya2tIQTdXblV1Y9IB_gFBVV95cUxNVm5VSWZBRE1WdFNXT3lOUms0X1gxdDdWOE5PSmVHeHlteWRXNW9fSFVZeHU4a0RDS2h2U0dHdEhscW52V25ma24ySUdaVWJ6V1N1N0oyZV9VNzNkYk1BNHUzanZUOFlvSVR6Zmt1M1gwa2ZBSVZ0XzJkU3cwTVh3NjBSZWxGQm83ZE1ORE1RYXRXamMxQWI2dlFKQjdwQVF4TGNDS0VSVzE1RExoLThtNmtzSUpueVZkeEdaQVZEVzNWRlQ1a1ZaOTZpNU9ST1IwVkNCOWo2UlZUakR1V3VFQm4tcFR4T2JuVC1GR0IzMGlDbG9WQ3FVMUFOR3FhQQ?oc=5</t>
-  </si>
-  <si>
-    <t>De la histórica victoria a la cuenta final: cómo los impuestos afectan al premio de Carlos Alcaraz tras ganar el Open de Australia</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxPQzdpaFZXRFpieXAwVVdFbnY1YUE2cW55TzlCaTctWHdpcHJzSFR2T25UbEU4MEpsSklRR3BzaVNwdndBWWxDa29NbVg5cDdqUS1CY0RSLU9nOUtmT2FyZnBHbFFjcHBnRnRPTng2M2JaZEpqN0toRVpwaEY2S0hSdTdwZDlEbDZxTnAzajltYmlqWE1TZ0R5U1BrcnlnOEhMaGF3TlpjTldhaG9SYXAtZXdEVjdDQVFMN1VZaTY0Y1JpZEN3NWQwMXBoS29Qc0Q4NHp0NUtNX2FpZEJ3OFlTcXVhcVducXE5NGw2dmJWcEUtMnRHSkJxcnRlaEpPbE84TEHSAZwCQVVfeXFMTlFzVHZyRkQwZzBZdnVpUFVndEhfaE12aGJMZWU0TmNfekhDMmVDM0FEMTZDczN0SGVudmI2Q1I5VEhRWUFpenRsWm9OU29Fa1FLZXJhZVBlMVlWYWJacVY0R2pXOU5NYXI0aTVfbE5SOGp4anhiVGtTWXR4M2s2UTVZWkRjUVpPb2pUZ3Z4bzZESDN5Y0pwT1FFenp0REdPSHFHcHJROXc3c21PWkZBTi1qbXJnYXNSRWNqOVpDajNESzBxUVBWVWJsVHRzMWktMENsTGQ4WXo5LWJpakpTem9GOWhWTWswNFR1S1FXWmx4R0FLMmVaOWJ6cmhvRXdESmtQMXIxR2U0WS0tS1IzS1VTcGRETnpvODI0TlM?oc=5</t>
-  </si>
-  <si>
-    <t>Gobierno Petro tiene embolatados $23.000 millones por mala gestión de la Dian y otros ministerios con el impuesto al turismo</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxNam4tMlZYeGN6MEJVRW5HclpacU5fRWFQS1I4VFU4RXpYNzN5VVlaM3RtSjZPVng2M2QwWkZVRTg4Rm1FSnA2LUJyenZqYjBzdDlpb1pKVGJiZXNyRU50em5NRDN5UkJiLXhZOXlONGhjY1ZMMnZ2SFM0Q09RTlZXU1FBOEdsSjFQVkZWOENTR0JJMzNfM0llOER5VU1xR1VNcXVndFR0dHllb0FiYjh0U3VGUFUtVzNjTkJLcjhmNW1OV2FfbVZkdzlYLTNLLWpVYTJoSGYwSGtKS2R4VkxINkx3V3VhZGRwa21ZRm9lMEJCUzYyQlFrRXR2QdIBlgJBVV95cUxQeU51R2hKd3psTnB5S3BzVmQ2a2RxWi1fRlVoZFNIdGZhVVE2YkZLNjdnRFlGX3N4ZjdoY2dJTWtCUkFvdjVYSFBDQzdMalVnNUZYOHE3anFreDVxd25sSThCcHIzWmtUdkVJamZ0WXczTG1PZmlyOVRxTkVPeXZ3Smd0U0lsdnNVVGdxWE16WFlBUUNqcVRXdTYtejJGZEkwTFpBSmZnbFZqNGRNOUw4Rl9SeGxINUJwcUtJaVVyYVRkU1RidjlvdEk5NktFN05nOEJuTU5KcWJSRDNEUFNneGx6S0IzbENGVUw5bVhEemxJTnNGOWNSa3hSVThkVnhLVGtOZjhITmxydEJsYmZqRDZZWHp5Zw?oc=5</t>
-  </si>
-  <si>
     <t>¿Eres persona moral y te toca presentar tu declaración de impuestos? Checa los requisitos, el simulador y la fecha límite</t>
   </si>
   <si>
@@ -865,90 +1219,12 @@
     <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxONk04cVUtb0N1d1cyMmpmVXFodTJfc2tDNFdLOU1OWjZaaGRTWEVvSDVZd00yNzhRSVNCZDM5NVN5N2txY3NmWnlYVzh1UXRDRmRpVlVGQnplZUZnR01uSVUxNzNHaEs0aGdoQzJoZGlxdVhBcVlRTllIcUhmVlViYlQ4VXRRQXV1VkpDbENSR2JxdzBCRi1YdWNGNDZGcDVKVjRwc1BLdFBOTXlzREthVmMxRFE2bWVZeWR2TmJ4bUx0ZlpvWXc?oc=5</t>
   </si>
   <si>
-    <t>Galerías de arte cierran sus puertas hasta el 7 de febrero para protestar sobre un IVA reducido</t>
-  </si>
-  <si>
-    <t>iva</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxOb2o3Ty1YTVM2ajk0bk1oQ1o4Vll5Q25zUWV4aWJQZTQ3b25sWU4yMlI0Y3U4RGRnQTF6SjI4UlNDQ0hobmNtS0t5dk5pdlVGazlabng3MXhBSnFGRUREaHJSUWUwaHpMYm0wN1Q2dHIzclRTcVpuNFkzUU4xUE5tZFpKR3FjUHhYa0NwRjF3TzZfWDJ5aUJONWREaU9rSVV6Nk42aDlpNUppbnNtWjZoYzFKT050WFhCN0hzYlJBNGFnQ0VBUTJJQUxkNTY5djVKanNHZVJ0VXVsZWtuTHotMC130gH8AUFVX3lxTE5LRHBBVlBxNng4SWw4U1dUYUduSFZaUnZ4LXdadFY4YjVkQUw1SzJxbU1NQm54dUVRVzc2eW9Rb1RFdXA4U0I2UTVsWnNNcDhESzgwQ2Z5bjlIak5PWVRidmQ0MkRwcGNjRV9tWkJhVkhkUjc4RUZtaTVnV0hEMU01Y2kyc0o0NWU2QkZEOExCVnZULXE5d0JDcUtMci0wOTFkUmNud0k4UlNXcW1HRmt6SE9YYXR3cU1UR21TMmRpaTRacEFxSXI4NzVVZmREQ04tZTZtdUVvZW5ST0gzeWEybUhWTjgxcEJIdEdMZENpRlNsbVJNNjZUdjJBVg?oc=5</t>
-  </si>
-  <si>
-    <t>El Prado reivindica como obras de arte las fotografías que cuentan su memoria</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxPV0ZpOGFYaEthU0Y2UEVINVJiZHk5Nkt2TjVmd0RTZElNRC1vSUN2X2lEaWQtVHgya1NOV3R5dlpjMDk4czVNM2ZnSF90SHR0enVzX1VldDg2cHBIYW9mTG0ydVk4ZjdZQXpJYkhRX052a29LUXlxVEhTNmc2Z0xvb2pmM3B5alpZcktzMzdxaG8zMXZkajI0Unp6aDU3Z1V3bHZSSFlaVDRQUGNvckFrcUt4ay1jZlF1UU0xRtIB0AFBVV95cUxQanpvY3lMQnZ5VktPMFVmTWdTWE9yMU5IV21wLWphYnFfTlRnQkFpZEJfb04tNjh3eG1zaXphN29IMTZvb2xIR3laNWtGYkg0LVZacnB5ak0xWUF2QVJmNmFZT2dOaERxcEVhemQzd3JEYjVFOVM1YU94Y1F1cUJEWmwtSXFMRXdQUXFRVzZMTVNWeGROVzNRTk1HOGRlMWhQM0ZoVEtSS3RydVJrWVNfOXR1RS1XYWRXVjRfNl9waFJQamxHSEVFWXNUS3FXMDhO?oc=5</t>
-  </si>
-  <si>
-    <t>La batalla del arte contra el IVA: “No trabajamos en igualdad de condiciones”</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxOVERjbzBaNzhBMllfakxuVTFlenZWSGY0VjVKQ3hhYmdSTHBFX0ZHMTJ4MDVHMXoyRFRJZUdPaGh2WWl0MzhQOU5VWVNkdlZCS3puOVgwR1o0eWpwTUdlOWxXZmwtMVotRkNidzhOR3dHeUpwRXpqdkk0bW93Ui1hdWZnb2RhV2lGcmthTHZDaVFSSDBNeXpRNF9BQmZURzRuQnNVTlRCR2paMlpzc1k3TElpSjZPZUJt0gHMAUFVX3lxTFB3MnpyeFV6ZW90bndHdzMycElIbGh4aHA0WF8wZDdWVVpINWtCODFDQWlta2RpWkpoY1hRYjRDbVpHQmw3Mm03M0J6NXNjay1yVnNmWkt1UzlKZG5ZQVpuSnNUdXBXcnFsaHpLUUtoRlFNTGpoQ2hJbnFfMDVBbWl3RW5ubGlXSXRTdWZXWlkxS2lmSWNUT3JvOG9jV3A4eGJYeXRFM2JVUmQ4cFZaVnNxVUsybFh4aUV5NnpObzhOZU0zd2dBMUxGbXdQcg?oc=5</t>
-  </si>
-  <si>
-    <t>Aseguradoras analizan absorber parte del IVA en caso de siniestros</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxQVUlBM1VlQzZRYUp5OFNkbW9Gd0s2b0VpQzNiTzMwRExYZ0hxSWp0bmZPQjhDQjBUN082QWhlUU0xQjdzUjY4WlY3dGc2M3pTdU1YU3pqeURpUDhnV0J1a3BUeUtYUDNicjVHMTFfZ3k1YUF2RXk3VGhlTi1BY00tYURjQkt3WkhCNk84RzdXSkxmYTRXRjhwQzAxZlRjNEEwMmJqSVFKMHptNmtLTDFxdTRWYmZITmxaNlh3ZWlB?oc=5</t>
-  </si>
-  <si>
-    <t>Tren Interurbano México-Toluca: ¿puedo viajar con mi Tarjeta de Movilidad Integrada?</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxOeTRzZ2RmbUphaFdtZ01DbldIVWl3c0Y5RnFHaVVVU3pvTjNXSWZLeTdoaVA0alJfZUV2R2VwM3phZi1XaGFFWHp0OWVaZjROV2VNa3RBSTMwQWVDOFlqMzlZUUFmRmZJT2tvUE5rUmNKMHlsalA2ZDZ6WUs4ck5IREFJUGN1R2dUU0Zia25vZzRyVXUzNzIxS0dBYWhoLUt1aGsyUTAwMFBTTHB0WXdoVThad1VpT2JzdWtXeENhaWItdnFKMVpITkVoZVVzSldtWXJmWnpkRVFNUdIB3wFBVV95cUxPOVpteGNRSWdFLU1tOVdzU0ZPTk1lZVl1TTRLdGxqLVp3OWZlVWx5VHJaZGNyU3h6R1JCSmVwRVNQZTlvS05uUWpvZXFxUkZLWEFteFR5QktIQXBkMWp1LU40QnRKbG11em1TOENmWlptV1lWYWVKWks5WHlVZnhlS19BRzAxdmItWmh1cHRZVGhvMTY5dmd2NzFwd1VRNEdhU1I2QkZVc0trM1dpc2JiSG5Pa0l1SlAxVjNpVGtiVDR0bnZXYjlOT1BycHZLVGtkeFVqWUdLYk9JTEhqZ2hN?oc=5</t>
-  </si>
-  <si>
-    <t>Con el Tren “El Insurgente” en Edomex se hace historia en movilidad y calidad de vida para el Valle de México, Toluca y sur del Estado: Gobernadora Delfina Gómez</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiugJBVV95cUxPblNMT3RYUnpsN08yT1k2X0NWbkxKZ1Q5cW8xRWN2Nk5SYnNvTjZKTnRSQTJlQUQ1MnVJSlNtYnFBQ3FwRDlOT1MwNnlCbVY4ZXRrWVFsMmZ6TVdBRFJTNzNyVEplZncyUjJYNmx3N1M1ejVZN2tQcVctY2RfYTFSSm4xZkRmM2M1Z2VjcXdUQW1IVmRCY3lxVndUNjdtckx6LVhHbjRjbmp3UGZXaVRVc2dlSnkycldpLTBjLWozTThoUnJUTEdPLTg0a3paekZ5Z1AwdHk5ZElBcE5lUmdqdF9xdFhVSGhuczBZaUFRaXpaUlEtRXhtTzdIUUxxLXphbGIwZG9MZk9MbE9VWHh1ajVId05Bd0ROeERfQ09aYll1czgydEUtMXdGOU5Bd0dHTXR2S0lSX3Z0Z9IBvwJBVV95cUxOelY2N2ZYa0U0OEdlQXhnSWRyNzVTaThwQWVnc29GRUlRZ3kzb2JCTTdGSkRUakhOdWI4N3pqbmdXa2VockxlSGJwY2lvWGxTOHg5dmhKOEphY3h5ckI5dkxhRUdIRWh3VjJKZkVmWEdjUUh0MG1ORHMtRzVSVzBPb1hnNy1oUEdXb0t3Uy12c2lDNUI3ZlVqem9kV05SYldFckd5V1lLSjFTNTIxZkVyb2tPRXJXdk9wX0tUR0pRRWhVemtHQXZRT2VicE56cGx0eFd0WTZBWHcxNkxIQi1ZTndPVzZBUW5sVGNuMkhXMEg4ZjZQU2lPME9Ya1hpdHRGeEt2RDlQX01uRExzdlVpZ1lLcHVFVi03ZkRrR1ZReGJVcE9IOUZPdG14N2JuOXdKaVV3Z1lHNUVsdWxtdmRN?oc=5</t>
-  </si>
-  <si>
-    <t>Brugada y Delfina Gómez destacan que con Tren Insurgente se ofrecerá una movilidad digna y mejorara vida de las personas</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiiAJBVV95cUxPMkdDUjU4NWlIUHFlQWgwYlIzMVp0VDF1VkNfVlZueHgzLXJVSHU1S2Y0YUVsWjd5b3JwTHUzamlRMHJZWDF6MjN6NDlCNTlqVG9JUTk2WXZkaGRaWE42MVh4bFgyeUcyTEw4VDBUU2w5RXNaMjNmWnZUVk5TNmRQOHJDbDBvT1JvRWJjclhpN1BMLUx5N2x0OTJ5c0d2NXdKb25nTTZGQWlsTFhSbDhHeUlfNTNkb2lZWFp2SEx1NWMxbzZLdmhBb1JXdjB4dFZWTElid1EtLThuNnNNUW84eERrSFlqOTdzRnRJMjBzdUhvVXdlOUVfMkZHRVNHaU1PamVSMWNGeFbSAY4CQVVfeXFMT1l3aU9JWk9YR0t0Vlp4dFhzVjZhQ09TT0ViSldYYmNwSnZfZFNHWHdVR0RZd05FYWxQS0FMZi1MZk1uQURxelFweUd1VlFfZzIxMmh0VU9jOUZkUVprY192eld2SWx6MFRlN1BwZjhHRTMtRzVKaUcwRmYxZlFBWTRyYmNJSWJqd1ZMNG9sUkN1NGR4TEk4TzlBbWRpQzh3WUZnNFc5VFhGSm5kTGlxQzVYdEc2QlAydDZmT2VsSVZQRWNfR3NXX19xenZVcDRwZHZDSjJxYlUwMlBkYUphMTEtaUNmTmxrUG1UUWZJbkxtbzROaXZ5THk1UU1TWTk2UXU2RFBmYWlObGZ2X09n?oc=5</t>
-  </si>
-  <si>
-    <t>Morena prioriza la Ley de Cuidados, Movilidad y Plan General de la Ciudad en Nuevo Periodo Legislativo</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxQTjdZaWx5elRGSExFUGJ2SFZzbjVld2t1UXk3cWt2Xy0yTTNiMGhMSVZXQnBNY09GbFh5VmNReG1ieVJGZ3g0a2IyZk5Fb094RXRJR19QX0pwTDhmWThTXzZQUmI5VmFOQmVnejlCbDF4cUFObFZ3ZV9YdWN1eWNCZ3gxT0wyQVdNVjhSYUIyUFJrdi1mTmh5TnVrRzc2UTFQVXZYRV84VXY5TjhIWDlEYWMtTk9oNlp0QmNGcmFBZ3VrSWNJbnQtVkNqR1BNWS1adFRWRG9sR0VRRnVBSVVmbEREdnBlVWF6TGcwMFFHRmlDd9IB9wFBVV95cUxNSzZoelFYc19LTjl3UDVfSVdVS1ZkeTRlSGI5bVhtTmJyYnFBd1NQM0dsT2lJWE4wV3lqZDZLU1pWTndZUUF5MEwzcF94N0U3bVkwQjgyLWgzVjlic0FQWHR4bFVpTTBNUHlFU1RTR2xDY2t3YXZKVDl3X3I3TEFPWWh0TFVMdUFzY1o3dmlRNXowXzZ0Z3lqUXY2NVRpazVHdFV4UUhXajVHMC1yQm54ejR6QVpjTy1ZdWF3U0llM250TlUtTldfRjhxUzlHdzRTeGpRcnBsaHdQZFp2c2d2SldCeElwTXZRRzlpbkNDYkVVOTZETFZ3?oc=5</t>
-  </si>
-  <si>
-    <t>Sheinbaum quiere mejorar la movilidad en la CdMx; apenas "lleva las bases", dicen expertos</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxOeGYwU1h5eHU4UVk4TUpYc1RwWTRMUGdLb19mVXAyNFhGcjhZcUprMDlNamRXdURVMVloVUdINkJHeEt4bVVJVjE3WmdyRnNNWVJwdU05aEV0bk9EanVKbW1TSXlmZGVEREtxcDkxNUxWanJvX3VTYUZUbXFxWVl4ZFpvSVJxY3dwb1lONzRRU0ZfNW5Vei1pbktyLUFjMGlObTJYMWZ2blF0MHlCYzZvU1V3WERtMXZvaElfbHBXX3Q0eHZCTklORnJhYw?oc=5</t>
-  </si>
-  <si>
-    <t>SinEmbargo</t>
-  </si>
-  <si>
-    <t>Tren 'El Insurgente' hace historia en movilidad del Valle de México y Toluca, destaca Delfina Gómez</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxQZkxobmhQV1RIUDNPLUwzdE83QTh3UHF5cG10VGx4LUxkNTE2N0lzeWlmT1pSZC1sMXZUYTlsQm1OanRyeXFGdkx1Q1ZNMFVLNGZveGlBNXl4NG8xeDVRQ256YVo2OTl0RXF1QlJfcXQ2bjV4eDd1MXVjbDVnSUtFMTZTazg0dmlibGRqVnhTQ2stdVUtalctR3VURmt4NlNneldnU1Qzek1XV1F3ZU9OcmY1V1RETzJpdno3NWMtZmI2c1pCaDRwOHlqQTRLTFFtREVhcm5ZTk54NGZMdDd0OHlIU0RrR0EzamtfWdIB8gFBVV95cUxPdnp4LWttNlhqN2pNUV8wa2R3SEZla1UyY2RlQjNGNDJkeHVhSW9SRHdTRmZsVnlhNGhDa3psVVJpS2U5dXdNalVPZ09LamFJc1hfVldZZ0dpUVlaQzA2SmhxQ29EUnY4NkdfN29IY0pnNE1HVldndHAyZXJLZ25YeERxX2U5YXFNQmIwbE52QVJINGVCTV9xbndZaGdJRkdaeWNrUVhqOFBnZFFtOFJYbV9MWWxhVnhST1BBc2lEQl80a0FSeG5jWkxfZENhQzZjNEVvN0dUdTFSa2lnM0xBWXVnbnYzT2pUUnQtb3hlT0dCZw?oc=5</t>
-  </si>
-  <si>
-    <t>'Movilidad de primer mundo para el pueblo': Sheinbaum estrena el Tren Toluca-CDMX</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxPZjdydVg0alBRb2ZiNDdWOW8xbzk4TDE1OGV1b0FZTHYxYkF1eFNCM0oydlJEa0pkWWJnRGU1VkYzSWRjOVZDa0FGbnVYek9IXzJISXdXcklCamRLc0Y1X2V0bnVWRjRaWC1DaU1HamFaVWxOc1VtTk50SU13czhpWDhRQ1BvRGZMQWR0VzJ6Sl94Z1N3alJMVVNVODEyaWtGSVVlclcxUnU2dHNDMm44RkNKSWM1V1pGVjdtcXIwWnVkTXVfVEZveVBQU0l5TTJLTFljQtIB2gFBVV95cUxNNlVLUEFQNXJkYW1nT3pRSWNxbC1vZVYtWFhhck9yR3BUc09GWUx6OWdnZUt1QzJxSXctb2RFYkdWSEFtZjA1MU44bGplcnRVdGRkMlNSbGg2cFJZMzdWUm5iYXpVd1k5aW0xcEpicXVVZzMxTEM2cE93SExUR1g3cUZwLXlKOHpKMWFZRVdtdmI1c0ptVGJTajBvQU1LWkozUmZ2MWZBTjVOUU5IZXpTMGRMcEdocEZEaExKd3ZOQTg0NFBqQS02MzVRMmc1Vm5ObGtSUjFiRlh3UQ?oc=5</t>
-  </si>
-  <si>
     <t>Sheinbaum concluye el Tren El Insurgente y salda deuda histórica de movilidad: 'La 4T sí cumple' (VIDEO)</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMi9gFBVV95cUxNdm0tQ3U4bkRzUWV5RDh0SUxXQmpzLW1xX0ZJbzU4STlnOXkwZHcySUUwR3VlZS0zWWpiZmx1T3NBQ1Z5dU5IMU00TVBiQ3lCTDJTcERkcnZmRmtSNVR0MUxpV3drY1pTVDF3Mjk3QWx1TDVhdDM2UW5OMExvQlNqSVUzV25VVXNNV085UW83cE9lS2ZCcWlvVHZNY1JwSTJmZ2ZJLXMzM3VycGs3cm1LMkZMaGFINHctdDNNU1dGaW9GdEZZcUk0YU1TaGF3T3dhWDZiTS1LOFdkQ0FLNXlfVUxkTFFVaHhER0h5OEdERmZxdVJ2ZWfSAfYBQVVfeXFMTXZtLUN1OG5Ec1FleUQ4dElMV0Jqcy1tcV9GSW81OEk5Zzl5MGR3MklFMEd1ZWUtM1lqYmZsdU9zQUNWeXVOSDFNNE1QYkN5QkwyU3BEZHJ2ZkZrUjVUdDFMaVd3a2NaU1QxdzI5N0FsdUw1YXQzNlFuTjBMb0JTaklVM1duVVVzTVdPOVFvN3BPZUtmQnFpb1R2TWNScEkyZmdmSS1zMzN1cnBrN3JtSzJGTGhhSDR3LXQzTVNXRmlvRnRGWXFJNGFNU2hhd093YVg2Yk0tSzhXZENBSzV5X1VMZExRVWh4REdIeThHREZmcXVSdmVn?oc=5</t>
   </si>
   <si>
-    <t>Taxistas afectan la movilidad en Bogotá: bloquean ingreso al aeropuerto El Dorado</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxNWVhqWnI0RnoyaGV3QWxSTlVOWHQzdUZkS3JZZmFHVG9xMmFNNHNNVVVUZTNRYjFoTjFYcURYSk5GdFJQZVpkb3Y1aU5ZSnhQcXdLM1N3S1hidEtoYi15VUhFYjRxQWJ2ZERPN0puLXZrdndreEJTTk9MeUg1Tlp5YllaZ1d4NjIwYVdvNGFBTVk4QmFkQXB6RXRnOEdKOU85N0hfRUxQYlpBY0o1blpwZFJSajVwS05HMGhPS3BYWkxNZHAwRkJMcnZ1bjhvQdIB6AFBVV95cUxORmZKd216YVo2c0pzX0RoQlYtWi1xbGtxSXBHb3RBTnpJaFFSaGhaTEJHNUhCQ3p5cndDRUtOUU9yNndYcEk1bkNCcWpyX3hrcktma1I0ZVhEQXFCbXlvQWJLTTNYV3VObVlLYWxtTFVxeEwyZXoxbmRVcGNJandPa3cwbGxTSkpacV8xbEJoZHU2cnBxZTdOU2hNX2QydVRQUG9oN1RpeHRleFlWeXVOUWI1YXlJMHRpMzItd1E2VkM3b2N5cW84V3VaYzZVT1c3ODlRMDRxYXlnbUZ3UEtyaU5YeGRiWTFi?oc=5</t>
-  </si>
-  <si>
     <t>Lluvias afectan la movilidad en Bogotá: suspenden temporalmente el TransMiCable por condiciones climáticas adversas</t>
   </si>
   <si>
@@ -961,12 +1237,6 @@
     <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxQLUlRNXFNOHZvS3U0QW9hZDU1aGtKQXlUSjQ1VVpQdXVtWHF5RlZxWlNsZl9vdktiT0N0Skp3bjM4NmRvTVVDZVRNUTIzckRQLUtOb2pXSXdnM2dnOVFjczFjWGJxMGd4VkRpU0tJSTBSamljMWVVWnlZQ2VFcWRtaVk0dEFlY3JNV2lPczJPVHAtM0FzY01uM0lhMlBrWTc5VVZXbTNNME4yUU1HdHlLSFVrbno3M2d5U3c?oc=5</t>
   </si>
   <si>
-    <t>Movilidad Segura en Edomex 2026: así funcionará la nueva plataforma contra el acoso sexual</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxOSnREdmlhYjJDRzRFcW90ZS1Mb0ItZnZ5WjdmWUcxQ29EWFNSUF9kUTJQV2JkVTFrMEVfdHZsRlY4c2JMVHBoc09wQlBOTEUyN05SdGhXOWFsRnpfajdqNFplQTVQM25DTTFZeGkzV3BWWEtQbFhwcGprYWhrRWp5TWNVeTliRTRvRFlVajRPRnlQeXdRcjlwMUlZV2t6VGVSODctMk94U29YSy1BSE00LVFNQ2dMVEZBTktGRUIycVNjdVQ5dnNNSGFTVndpTTJNc3Vj?oc=5</t>
-  </si>
-  <si>
     <t>El Programa Permanente de Bacheo tiene el objetivo de mejorar la movilidad urbana</t>
   </si>
   <si>
@@ -976,93 +1246,6 @@
     <t>El Sol de Tampico | Noticias Locales, Policiacas, sobre México, Tamaulipas y el Mundo - El Sol de México</t>
   </si>
   <si>
-    <t>Delfina Gómez reconoce avance histórico en movilidad con el Tren Insurgente</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxOaWo4QnBHUFlvOUo2cGZjS0tveUpOUmpHalNyV3VDSEdzSkZrUjFibzBWMVY0OEQtZ0lMV0JEVG4xNFNoNXFKZnRwQjFCeGtLYkZNWEM5Sk5XekVWbzJmTTlId3lqRG5yc2dkU1k1LVV6OUcxbnJQQU5jVXdvcnFqdUVJMXl5UExTU1N0OU1yLXl4QTNQMUQtRVJjSnU1Zk1oaFVMdnUtRVVKemFONDdaVzdiNzU1d0lNSnU0?oc=5</t>
-  </si>
-  <si>
-    <t>Tren Insurgente hace historia en movilidad del Valle de México: Delfina Gómez</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMisgFBVV95cUxPTFlsSlRIbGRQbGlBcmRHaUc4cGI1VHpqSlV2R3Fsc2tKbnJvSTN0WUxMaGU0Y3dlakNIY2g3Tkdfd05KNC1YWlg0eU1qUXdXS0oweHIxd2Z6emRTWVZkQWVOSHBIVzk0OG1hVjdsZlJidGZwOHhDbmUxa1lkV21LUmt4Unl1N0RHdDB0R09PZVpydWM1cU9KLUdEQngwTHN1bjl0ZDQxbU1NSGpacm5Ucnhn0gG3AUFVX3lxTE8wWEpaWmw2UWQ1QWo2ZTB1TGdvbnVHcTlPcHlRRkROMjh4bDVjYmVUZW1UX1VrOGExaTBqMkRaeXJjYnJubFYwM0RENWQ3RTlRNWVHc3dNQTB2TDBEWnBpQjRoTWtHcl9MTFpCai1xTjdwaG93ZEQzX2VoVkRLaEh1SFA0azBlRTNHQXlmUkdhWEJnVnhRNlpzRFlsai1PZ09nbS05aFpDaTZtdThmUUdZMDZaWDFLZw?oc=5</t>
-  </si>
-  <si>
-    <t>Un hombre con movilidad reducida fallece en un incendio en Tarragona</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxOMXdQTzk2d3N4T0ZubGVHblZvWkVnSk9VVGtWbHB4a1JoSVZ1X0pUa2ZGYVp2YmdjcmtFelVmM2VZOVhxejlFdW95UkZCRHZ1MlI4T2Q0MEp4OFdDdkx6RnJxRDhNUzR5ZjV2MWxPYm5ORjJBa2hWb3lNWWs1YnAtc2xwcHBoMUdGQjdubEV4RzUyUU1JeFBWcFV1RVNBbmpjTVNwUElfc0NMdi1MRW9ha2phMEYzOHlNLVRzTjhGM0JMdThHX2N5cWVkQU16V3Ut0gHQAUFVX3lxTE4xd1BPOTZ3c3hPRm5sZUduVm9aRWdKT1VUa1ZscHhrUmhJVnVfSlRrZkZhWnZiZ2Nya0V6VWYzZVk5WHF6OUV1b3lSRkJEdnUyUjhPZDQwSng4V0N2THpGcnFEOE1TNHlmNXYxbE9ibk5GMkFraFZveU1ZazVicC1zbHBwcGgxR0ZCN25sRXhHNTJRTUl4UFZwVXVFU0FuamNNU3BQSV9zQ0x2LUxFb2FramEwRjM4eU0tVHNOOEYzQkx1OEdfY3lxZWRBTXpXdS0?oc=5</t>
-  </si>
-  <si>
-    <t>Con el Tren El Insurgente se hace historia en movilidad y calidad de vida para Edomex: Delfina Gómez</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxNZThPcm9uWGtZeFJfdGxWeDRic0V0SHpvdkJHLVlaanZGOU5WcjBISzhvUWJwV2N1YktrM3d4WXlZc01iaDF4UWRnWlNKakYxcVdHQWhodE9UMGNfWThoYkNvWGczZVhrUngtVzMtS2pWbVVEWkgzcWhhdy1LSWlXTmd2bE9KZ2FxSXhMSFktSUk0YzV4OGgxZzJTQm9tTktPUWlkOdIBpAFBVV95cUxNZThPcm9uWGtZeFJfdGxWeDRic0V0SHpvdkJHLVlaanZGOU5WcjBISzhvUWJwV2N1YktrM3d4WXlZc01iaDF4UWRnWlNKakYxcVdHQWhodE9UMGNfWThoYkNvWGczZVhrUngtVzMtS2pWbVVEWkgzcWhhdy1LSWlXTmd2bE9KZ2FxSXhMSFktSUk0YzV4OGgxZzJTQm9tTktPUWlkOQ?oc=5</t>
-  </si>
-  <si>
-    <t>Avances y desafíos de la electromovilidad en México</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxNNkJZcENkN0ZudVJuVDNRbUpmUlBjZUlaYUNub1VqaW9IZ0lPVDhVYzhQMkFhNUhJczAtajNZRjVFbGZVdjJGOFpXQXAtWWlwRm51Vjk3bUl3cEM3TWtLZ2UzaXdiU0NrR0xmVHNINVllNVk3NGJiQnBVa0htay10aW9GNllqc0lrRzg1MlBB0gGOAUFVX3lxTFAyOVNaTTlybVBlMGlNMlNURU4yRThsNWxHVFdYc3ZKX2xqYVB5M08tX2V4NHd1dlZ5Y0FCMmtLbXE0c3NYYkltbTFCZERGcXJ0T0JqQ1BPY1pST1E1NGR4YVlOSlBCQ0hGNVNSdXpZQU84LXdTNlpZbjgwTFpOTHV2bTFybW52ZzdjYkVQZEE?oc=5</t>
-  </si>
-  <si>
-    <t>La movilidad aérea urbana podría sumar hasta 100,000 aeronaves eVTOL</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxOLTJfTy1uLUxzcUZ6WnJXZ0JnQUN1em5paDJEdHNvd05ZQ3hFNnZpdFM1V1R4by1WUVVqbEx1MnJGeGRhdGtqRFRuSlMyVWxCM21UUlNvV1hLbVRwZkxxNE9laTRSU2xOamZpYkFGQ3JhdWI2b1RJSm5POGZqel9talVSazkzcVJHMjM0cFo1Wll6VVRGSUFyTjVkZWJuUDJhdFpoNGNRc2hHT3dwa0dkaTVWd3dlLVZOUnZj?oc=5</t>
-  </si>
-  <si>
-    <t>Real Estate Market &amp; Lifestyle</t>
-  </si>
-  <si>
-    <t>Benito Juárez defiende espectáculos masivos garantizan seguridad en Plaza de Toros y Estadio</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxQR3RHekZyZklJZWlwVkJjdk1ta2dQbERrV0JMVVVhRkI5ZDlZME1aeXFBdEg3VUZMSGhkbTQ3bmdaV3NzcTlwMVA0UkZlSXFZUkhESFBXVUMyVkNVLV9WZ3M4elJMRXMyLTdKQjhWVjFSTUxfVlRDcWZ5U1YteTVlYWp5Zkl0VjQtWmZhbHhzUk56SGlvdmN2TTh2cHZFVHBMZFFrX2tyR2xaTUNuOExpaVdQQnRlTk8yWkRUSVh3TTZSTlNDR3VibDA2UGI2LWwzTk1QUTcyRW8tTHVUbTBYOXR3aVhPZHRfbEFaWVg1cWJldWxfZW9jY3dzMGV1X0VOZnfSAZYCQVVfeXFMTzNNQnd3UV9hcTV5WTd1MmNIVlNfWXIxVXIzOWVJSGtweVJVd205dkdDQ213alkyLXBtX0ZiRmsyWVZXZ1NhX210UjRDYUNaQUJZMlpseVYxcVl6TlhhWkFUZ0hrVlhGNXhxY3M1TjBEb25kQWxfWlVQWkp0TGF6aC1uUzdfd1lnWlV3LWFBTUZKS3NpUmZmQ1o4WmtLMmNWZmd2N1Iya21Xdlc0SE5BMGNXVWhjZVc1YnYxeG9KNmRuOHVBaktpRE9CdkRkTmdnMmFSUlhoaGRvdk0zTU92TDFtRmR3dnhab29HdDY1dDRNbHpaVndYaHRnaUJraDRGdHcya2xlaENyVC1DVmMxdEl5UmJEenc?oc=5</t>
-  </si>
-  <si>
-    <t>Seis adolescentes escapan de Casa Cuna en La Paz DIF activa búsqueda y refuerza seguridad</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxPcnFEdHZZZlB5LWJmT1RTZzhIdkdNcnBNN0pvRVdCNW5SM2E4T29YRGdGbHdtV0d5Qjh6b2NSMDk2Sk9NMXlEVWNfdTlzN2YzdkJUcGpTV1Rqak9tekc0allXMEZkTlhVbUp4TDJWdDlkMWZpSkNRYkRZWkFXOWFMREhDZUw5bFhpaGh0SHEtM1RvYl9HN2x4X0Nkb05TeklKdWJFTnFQVXItWkxRMTU5R2FYdmtUaW0tT3llR2IwQ2xpaVlQMW50WtIB3AFBVV95cUxNRjl1MHoyQ0RFNUExTUFLNGdJd0ltUGpEcWdDSlpNLXZyMV9fUDdkZHhXNHZTS19aSktBS2YyWFQ4OFVXczhDYnJBYlYwRUNPTVg0QkRRMU1aZlc5clhHUFRjQ2xnTHRRdVo0MzNvTFVqUHdzLUJpS2NCdndhX0NfRXIzc0pTYjFEUXJDQk5XRVpBb2p0TjRlcDY0bDVxM0ptRk9rVk5qYWVidldBdk1UM2E0LWVVUnhtbnFSLXVxbTJtb0xwZGxtVldCTmk0eGEwQ2tDSnVFcWpmc3JZ?oc=5</t>
-  </si>
-  <si>
-    <t>Admite Morena en SLP que la inseguridad sigue siendo el gran reto de la 4T</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxOSW5RU0h4WkVHYUR1OXRBY3lwLThlYkcxbTNKb2hfMnNkck0zNE9hclFUV0tWZmJDVTRha2Y5TGliT0VEekFLNzktSloyNmVBQXhZSWJwZ1FTeEF6V2U5dExTd2FUUEdqOS1RY1RJODdJLWgxUWFHNkpTLU9zMjdnU2owVElSN0ZwWkFVUTlCU1gzd2FjTnd4ZXdvUVZXa05RN1l1akRMeWNjTTZfQUtkM19KNGh5dkhoTndv0gHPAUFVX3lxTE9kQ25PbHpQU2NGc0lfZVdlVE9NSGlVQWNsOXo2eHBzdnpXcF9NLWhWUnh2RElaXzFlT0NZWHBldTNiMEpKOUQ3eE9oRnJ2TFFCcWZuajdwZWRjVG1ZWU1XQkNSV2g0THBaT1QzcWVyMWtqaWxHZnlONHVKSXltVTVxS0JnajdhVVZ5THVUbjMwRFNTSHg2OG0wd043NmQ3VWNRV2xCUEVGUWFacE9ENjZWR09EVVJtNUZmQ3lVTXl3d00zdzY0UHZNQWd4NW5hTQ?oc=5</t>
-  </si>
-  <si>
-    <t>El Universal San Luis Potosí</t>
-  </si>
-  <si>
-    <t>Cerrar el paso al dinero del crimen, el gran reto de la seguridad nacional de Sheinbaum</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxPaEMycy1POXpMZTdkWmxENEZGSFV6VWRHdXA2VWVMdmh5dXlqT3g4eHNkcG5WU0VpRU9iMG9QN1NSVy1rbFNUNG9GR2RDNXJpQnBlUG95b3ZpMC1JNENQX0t4S0d4R3JWNUR0c3B6eDgxRVF1ci0xLUM1NUhvRXhTNWk2RlBsQkdUSDdMZ21JeUZpLUNtQkYyQ3RabHJPR3NjY1VfNUNvNnptdGNZbFRYeW5PWEpwbHNIZUFiWU0yVS11Y0R4V0E1aVE1TTE1aW5LLWRHSXgwWlhXMURvd1B30gHkAUFVX3lxTE1yakV5eWIxQlY4NklISlN2SFRlLXEtS01oY2txc0hvODlHY01kNWIxbVB6WWFaVTJ3cFcwblA0b05UMURHMFdSbjB6cEFCN0pTQ3huVFUydl9ycmtmZ3NHaGlsUTVBZjgxLWZ4Z1h6MjVFMFhnbEV1RFhoMDlTUVBLM01RQk1NWllSZlFJdW82TUQwQ2NfVkFmWFpGNHFFRGctR0s1UXBVS0Y3aWppVEVUeFJKX0ZPQVllNElMYjRWMldydk1oWU13SzBjRzBmQjlIX3BGUnVwbDlMSTY2TDAtZ2M4Xw?oc=5</t>
-  </si>
-  <si>
-    <t>Registro Nacional Penitenciario: obligaciones biométricas y desafíos en seguridad de datos</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxOdnhoX1BZclNGNWZUQWRvOEUyVFpxaTBqSDNNTDQ5VENicmthX3VhdmJ1ZmNiRlVhekt5ZHpqcXBJSjRoQmdSN0k4OXF0STdKU2Fxb3dhUEpLTWtBSXFISFdtSEZScGZWUXVlTUtuRE1TZV9xNXV6YUhDYlJrZlBySkZfQURRMS1YRERVaDRQMUJ1TVp1U2JKX1h0aUZzTENKYmNRU2o0TTBCaW11LXpYVFFla1Y0ZXBKcEF6bjRta0wxYU1fZ3lQY0dsYlByczZqRFk5NG5SbFdWaW04d2tDU9IB5gFBVV95cUxNWDktLU4tcnByX1VtWDZhOW1jRTZlVThpenFaa3ZCYTdKUlVhMWtnSFh1NGJBZkM3SVIzZkhtVXpmZjBTWDZydHBqZ1BPY2xwUlpNZFgxaWJ2VERJbXZrb1gyRUhaX0tPdjBFMmZBNlFHZWtPLWo1TjZ3NzZ4SWU2YkdnRG5BYVVMM2xZbWJvUW50Qy1VTzVRT0h5ZjhfYnlfa1hxWWRTbUNGcDZzLTYyTHk2bm1aenpZNXBzOWluMWk1U3NHNWZYSnBwZDdMb0JtME4wWFBNNEZJU0xYV3BMbkdIMDhfUQ?oc=5</t>
-  </si>
-  <si>
-    <t>Diplomacia de seguridad, cooperación México–EU</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxQLWRXZkp3U1phamhEQkpZZXRIWUd0V19ZMGxqZF9zQ3kzRHBYc3NpY0RnSTRmLS1FQmZSTFJWellSVnNuWGx1WFozdTJQYmtwZHJaNWZ3SkJoNXR6UUQtaEV1bzJHY0Q2WXh5MWQ3Z19yNUtlS045WGdUM0YwVFdNeHNQdDV5YmJmbFl2V2t3bHc0TTdYRDNIUzhReWxyNi1FRll0N0NXa9IBrAFBVV95cUxOSmpGUkx2SE1fRG5ndjdSSE9TSGl2eFZCVmRQUjd0dWlqS3ZvWnhGbTJWZnhGNGt6Y2JsemRLb0ZzR1lDYmRxZTRqUl9KZEFDSDE5YW1ZcDF3dW9hdVlFRk1nSGNqRUd0bE1YWFRsTnNETGdaODBmUUdqbHFMQ2lrZnpUbEktdzl1TlAxaUdmNHkyYUxjYVpXVVczd1ZIa2c3bTlDZC0xZzR5R2RO?oc=5</t>
-  </si>
-  <si>
-    <t>Mando Unificado Oriente duplica fuerza de seguridad en Valle de Chalco</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxOX0ZJZElOdk1waFJPNWlTRHhKMy1yNVFXZkpPS0JNR05WTVltV1JvWHFtbU9kbGp4NF9nd1pzbkQ5cVNSZWg2Z2VoTUh2dEdHMVQ0LTlnbjRyQ0VJWmNyQjZSR25aU3RHdlgwVDhmLW1VSXBhdFBYbTA0dVlvcUFBN0tONG5LWDNXM2JtU21Ddy1OSk5lZVNyeGh6YVl2Z3A5aktXU0FCb3JJVWZoZDg3Z0hlem1yRFJBOFIzWnZVbWJsLWZGMGVKNl9seUZhd2c1R0FPTzhPbE5QMXBXdGVZ0gHfAUFVX3lxTE5fRklkSU52TXBoUk81aVNEeEozLXI1UVdmSk9LQk1HTlZNWW1XUm9YcW1tT2Rsang0X2d3WnNuRDlxU1JlaDZnZWhNSHZ0R0cxVDQtOWduNHJDRUlaY3JCNlJHblpTdEd2WDBUOGYtbVVJcGF0UFhtMDR1WW9xQUE3S040bktYM1czYm1TbUN3LU5KTmVlU3J4aHphWXZncDlqS1dTQUJvcklVZmhkODdnSGV6bXJEUkE4UjNadlVtYmwtZkYwZUo2X2x5RmF3ZzVHQU9POE9sTlAxcFd0ZVk?oc=5</t>
-  </si>
-  <si>
-    <t>estadodemexico.heraldodemexico.com.mx</t>
-  </si>
-  <si>
     <t>Crece la percepción de inseguridad</t>
   </si>
   <si>
@@ -1078,60 +1261,12 @@
     <t>Expansión Política</t>
   </si>
   <si>
-    <t>Detienen a Tres Personas por Robo a Tienda en Monterrey; Participó Guardia de Seguridad</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxQOG5YS3dFUmRZQlB0MG9VWE1lZFRFbEtuOGtxQUxRWjdtc3h6dm5WZmNHSkNMM2I3eUNhcTl5MjF0WkxPQnBJbVhkMHQteng4X0JKNUR2QnJmbThXVWpNdjJaSGpaRTdCT1cySGZyMFY4Q3A1UEpDZlhid0UzZW9yYnBFUGxDblhpcEtHcUQ1aC1ZMmhCbGh0ZENfT3ExUHRoMnRZWmpmN2dscVU1SVZXbVBPYnA4am1oaS0yT1Axa2dtMVhPbmxqZFRhQUtLUFI3dkRNTTFtNE41ZllYRFhwUFdR?oc=5</t>
-  </si>
-  <si>
     <t>Así se Encuentra Pueblo Quieto Tras Operativo de Seguridad</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxNZkl6VGhTb3pSQUpZdWFtcmRudEE1SUxISE1zbjY0LWYyUzFFSGp2OW52QjVOUklOeTNfT3Qtd0loYzhNVGRqNngtTVY3d3B4VmJrcEE3bHNLOVJtblZBNExOdHJsYkZUejdkWHlZcTBEa2lwbkFZNDFUcktOSzJoV19QeHVBUDhXQ2FMTHdFQkVMeERsUmp2eEN0SVZxNGFoQ0VkemUxZnVYNUpSZWlJdGlhRGNiaXhsaUN0MXlGN3lpaU40RGxQZlFWa1phdw?oc=5</t>
   </si>
   <si>
-    <t>Seguridad en Guanajuato: enero de 2026 registra la cifra más baja de homicidios dolosos en 8 años</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxORExOQVg1aExUb3d3ZG1KbllHT0k1RW44UDJfZEUwLXZKLWlGZUEwUmRVRXZtOHpPMnhfUjJqSU0zem45cmo4UTZuNHVKZjdya1FmMFVHUlkyeDQ3LWxvRlVJb0ZIdzZQa0xmZ2oxRHJvNFlzcE1aSmJQZ0s5MDNMd1NjaXpULUdfQ0w1LVF0TkIyU2hoWndnWlNuMnhzWTRzM25hSVpRRVpKYmdRNDVFYllaMUpFOVBSWlBuaWVrdEJKY3lXZ3BIME4zTXBtc2RaTjgwbVBnMGRKWXlzZkFDbHRLYWszSEhVRElKZtIB8gFBVV95cUxQUXI0Vk9KTVIxTjBDdEFJNXJqSzVsTHFPZDJNZEVwYmthXzdCSkNqaUw4TndGQVFTZEFUYUNzMTJOY1NiaUg4blIzTDB0RGozVzNZdEZWeVJCamVWZ2laMGxPYS1sWmpZWDBUZ25hR1VfX19JVHBDNlpneDhfTUFpZTJFdmlXNl9YNEhlQ1hPeU4yOVI3c0dnaXNkMU9ZVGlsVG51cUp1V3ZuU0s2b0M4bE0xMU5ROGNIc2tvVGJSYzcyX2l0bURPbVlQeXFmbGM3R21fYlZpSl80WkpBNHF5R0RlaHRRaFNxcnN1ZEY3UVQ2dw?oc=5</t>
-  </si>
-  <si>
-    <t>Muere el obispo de BCS, Miguel Ángel Alba Díaz, una voz crítica en la seguridad y con las desapariciones</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi8AFBVV95cUxNTjdZRTBtSU02cGhCcEk0cTZydGxWWU5FOEctSmxZQnd3MTdINU9vWEI4Zk4yaDlvSGJlR1dIdU5EUEpNVVZWaWYtaW5wSllzWGRPcTFDM3JsOXFHN2VmbXBWSXlWYl9yWGNtVzMxY0p2NmhFWm10MUlzRzNsSGtaQ1ZBTjczUUdwRXd4NXlnUnNCVDlDZks0clRaSU9hTTVPdUdOWGNrNHJ3LWwybWVDLXNiWGNoTzdrWGJFbzJyRnV1TmtkbDZzVmFFZTlMRkE5MkRNei1lRkpiVFl5REw5dlZWeEhSeV84a3dwV0hPY03SAfYBQVVfeXFMUEVnV3JpdThMRU9uNTV2Yk1OTGU1ei1kZlVpTFVmQjVtMnVrYktjRlNOblAtai1WM1Y5NXAwWVJIMWFpZXVuX2ZqNGt5NUlMVW5PM0VqWFJnenI3THF3QWJQQWtqN3NVMUFZQWZBREc2WWZITkdXbjQ5OVV1R0p4WWNxdUZCajlEUnh5S1FHaXF5ME40d1dqdWhRSjV3VjdDeC1abUlmcUU4cEZiZDU4QXhXS2JjRWVGeklWTTV0eWN1OVZfVkEzdGRrR014N05nbERCSjlkbDlpMnZ4UkxpaDR2UVdHQ05PcnpPbXhrS3dNTkI5NHVB?oc=5</t>
-  </si>
-  <si>
-    <t>Últimas noticias de Seguridad y justicia</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE96eUpCaTRfSkNVcEh5cEU4bWpTTEpBTmpJU21jS1Q3VERoc01ibDV1Qzd2NzRkNFJ3WW1nZlBHcllYREpUYWpHMzFIczZHUmZMY015QUxsZnEzYW5OSHJnTUJWQnFJSFo5MGlfRzZ3QThzY0k?oc=5</t>
-  </si>
-  <si>
-    <t>En 2026 cambian las monedas de 10 pesos: nuevos metales y mayor seguridad</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxQSFZlTGJyVnd5R0RpdVg4U0ozLUlkVVFydl9sOHk1N1RsaktOLTBRdWRBNExkVXh3QnoxUmRVaE1ZOEVYWFRJQUt0UmR1Yy1iNjJ0VnF6VThrajIzc2dmbWhIRWRZVktwLTFnUWhrZTZabmYzcWhlQmpsODFya2FKRVZjdlRGNW1LTFUxVXhfN3hCT3hXRFVJLUFxNFhIeTNXZGZJZUlnZw?oc=5</t>
-  </si>
-  <si>
-    <t>Qué hacer en la noche para cuidar la seguridad del celular: apagarlo o dejarlo bloqueado</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxPN3hFbjZBMTBicVBvdHUtMHVJcFAzbVFGRG9iejMzYWdMVlZKb2ZjNGIzUnQ4Q3NtVFNMR0xsRkhJSzRFSDdtZTgwTzQyVmhtMlczY0tfQUNSZHlOTkRVYXhDeVpWT3hPVU5OSGlIMkdzcDh6Szl0YXF4dGhCeEMwVDVDLWxuT3djQ2hYRjBvVTJ6RzRvaThtLS1rTG9jeTlReFM0UnBRZXJmQ3FZZ3V2b3FoTG9qa0VFWno4UmRCNC10ZWhGeWhhVNIB4wFBVV95cUxPUV9YS1RtcUl2ZlJjUUkxUmQ4N1lMc0JZcnAtMVA2aFJvT1JXRHBnM2lUNm5FX3lzS1RCVFBZemNJN1NhbjN0WjAtbFl1WEV0Mm80TlFHdVJvaVlNY3ZhWkFjSEk1QTRFdUlnQzVPN01BSUUxeHVST0VLNG5qTFhrcHBNR0daTmVfdTI3NlJSN0NjeFdvNDJ1RGlzejdiR3JMRFlQM214M1ZPX3c3Q1dCdWU0THp6dlBQM04xWmNSUFNFU1J1QW9sTWUwWlhnS2k4aHJxMlB6S0wtUVpTRXFmMzZGNA?oc=5</t>
-  </si>
-  <si>
-    <t>El presidente Bukele anuncia próxima visita a Chile para cooperación en seguridad</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxNRHNZdHV1dVZKYmZ6a1NEd2x2T09hYm05WFVpLVo5eW5OS2N2RkQ2Sk42WllFYXRXTkhKNm0tMmhZN1NBRWwwbS1NcEZzRXVLb3NUZDRZN1ZzczBHZ0FGN2NkU2QzSHFFRzJuTzBOcFpKaUl1M2ptcEhwZVRUYlpEamJxZGNBY2hObURLQ19vTVJzLVAxYjVTWjlCcU96SlNLanZ2alhxVFIwZGwzTkxTTHhOdWxTS0FLdjl4c0dEV3U4RjdtMFFRM9IB4wFBVV95cUxQZHJXZHdiYkdEYURtTndWZmFBdklBeXo4YmhtZTRWYWdaMXhkc2lJS1QxUnZFeHQ5ZUNQeFJRN0lmRVFhQ0NNVHdUZmIyYmZycVhoNWZOVldzZ1RCNk1FYXpkUUk1THp4VnFKajJTWS1mTm5VVmMyVnpoQ2tpMnZ6SHVhSHMyc0xVdEtNVk1qbmo1YUZpcVYtdWNQdnVFdnQxRERSQVhScEo1a1UwZXJtOFpYVUI0Q0tWWVNETkZSbWhybXAzTkdqc2Y5aGRySGMxeGQ0SnpoUlhzeEJ1R2tZRGxpUQ?oc=5</t>
-  </si>
-  <si>
-    <t>La Policía Nacional Civil de Guatemala refuerza seguridad en centros educativos con el inicio del ciclo escolar</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi7gFBVV95cUxQejlLSHlpUW5ZM2lEUm1BcjFYQWN4OTVoWnNyRUNlVGltVjYwODdSQUU2Q05TUHNFakxyTnFYSUJBc0t0OGdORjZNMXBZQ1U3QTJydzJubUc0LVNqdm9zR1Q4X01TQ3NINkdwVlpZUkdORlg2bjZrdkRPZlFGa3JvQURFWmdtYzktS24zNmF0d1dRd0RYc2FaUHpQTldnVE0yV2pBcDFNa1dpc1FNQ3VfTzcyUlhrS2VYaWVxM3BDcmxQbEZkejJ1YjB6UGVFM2g4YjRIOVZGSTl5cWU5eWxOcldPNG9sR2pqcWkzMWJB0gGIAkFVX3lxTFBJbm9Ydl94VS05cWJnOFcwWHhLYTBTMGhING4zN3dwYmdIMWhXQkF6XzdzVzRGYzN5c1EwVWpxYTdhMklVVW1xQmRIcmZVM2hWOTFxRXJBQkFGT0pKaElOMi0taGwwME9lc0N3MlZ3dV9aT2paRkdJSEw0ZkZQREpZVEpmblJnODVsdDdXUG11bE5LeTd2dFZzMlI0UFRnaTdEbk1UeXhYV0dFdXowY2FVbmpfV0pteGNKbHVaRkZ6YkFZVFE2eXYyWVZpbnFNajh2NlFNOFhySWI4YzJVc0J1MTRXQWRPb3dPVkJhNTVFemFKbzVXUDRyUUljR1lkQWZJTVB6X3JkTw?oc=5</t>
-  </si>
-  <si>
     <t>Bajo fuerte esquema de seguridad, fue extraditado a Estados Unidos ‘Pipe Tuluá’, líder de uno de los grupos de narcos más fuertes de Colombia</t>
   </si>
   <si>
@@ -1192,129 +1327,30 @@
     <t>https://news.google.com/rss/articles/CBMi8AFBVV95cUxQalhaYkszc3FCUXBSdG1pVm05Tk41Wi1fT0cta2c1QnMzZ21YaGRCM1BpaldoOVFsM1Fia1p1SjNtdzZNcGhWTHpnZmJMV0wzTlI3QzY4OXI1REVqbVpwdDhsRndjZXJmYXZnSG85QkF2Z2xvc1FoMk9sRjBfRnVuVWdXbTYyNGlXcUhoaVVoZnNuSmI1aWJsbWVqenNqZUpSRDM5TzVhcDNLbmJGVExGWjQtWHdNZjJnd2RDVnVHOUIwaG1oSFJqOG8zU21zYWJtamhySUNuNEtaWkJJbDVoZDAwcGpaUk9UMDdlRzVTWjLSAfABQVVfeXFMUGpYWmJLM3NxQlFwUnRtaVZtOU5ONVotX09HLWtnNUJzM2dtWGhkQjNQaWpXaDlRbDNRYmtadUozbXc2TXBoVkx6Z2ZiTFdMM05SN0M2ODlyNURFam1acHQ4bEZ3Y2VyZmF2Z0hvOUJBdmdsb3NRaDJPbEYwX0Z1blVnV202MjRpV3FIaGlVaGZzbkpiNWlibG1lanpzamVKUkQzOU81YXAzS25iRlRMRlo0LVh3TWYyZ3dkQ1Z1RzlCMGhtaEhSajhvM1Ntc2FibWpocklDbjRLWlpCSWw1aGQwMHBqWlJPVDA3ZUc1U1oy?oc=5</t>
   </si>
   <si>
-    <t>Mundial de Futbol en México: el reto de la ciberseguridad y la protección de datos personales</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxQZ0tQWGRyTWlsMThET1hrdFlTeVBIMGZXaGpUc19nLUNVYTdCOTAzR3ZzakNua25BM0VkY2xBanNUMHJvU3hEaE9ldWVpZHdFZXRtaUpSWUVhNVA4ZWtaY1dvUUtHNGQzd2cxMjRDQ1lIMGx2aUpRdGk1TlhhcWN5cTluc2g1ak15NTgtS2Jtd200WERDOHJPMGVNcy1YUFVEMURzczB5enE1OFk1UGpXcHFwb3pSMFVyV3lYNGpyVVF2Z0dEX1VKZm1aR1Y2MjQzdHB3V2FDdkhWczNVQ1FxMNIB4AFBVV95cUxQZ0tQWGRyTWlsMThET1hrdFlTeVBIMGZXaGpUc19nLUNVYTdCOTAzR3ZzakNua25BM0VkY2xBanNUMHJvU3hEaE9ldWVpZHdFZXRtaUpSWUVhNVA4ZWtaY1dvUUtHNGQzd2cxMjRDQ1lIMGx2aUpRdGk1TlhhcWN5cTluc2g1ak15NTgtS2Jtd200WERDOHJPMGVNcy1YUFVEMURzczB5enE1OFk1UGpXcHFwb3pSMFVyV3lYNGpyVVF2Z0dEX1VKZm1aR1Y2MjQzdHB3V2FDdkhWczNVQ1FxMA?oc=5</t>
-  </si>
-  <si>
     <t>Capacitación, promoción y seguridad, así se prepara hoteleros de Hidalgo rumbo al Mundial</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxPVmV2SnhiWTJFS28tajJ6Z0l4QjVfYlpnbGtYZmY3RHl3ZE1MeldiNW5UaVMxcE5Kd0QzR1lHZGVkME1VSkxySnp0NXpweEtjeUVQSmktQVlKMXRfdjktYkltTVZsdXp5SG9nWUkwOFgwZ0dMT3FPTUhUTHUzT0I4Tk9tbWF1eHpFT3Y3dnd0c0phT2ZGaTNjanAtZm9RN29DQ05JVU54TmNpWi0ycXJsNW5ISWpsS1NrZnJFRUoyVlR4Umk5bjNXS3l3YU95ZWF2SW5CdzFpNDU3Ql9wanfSAd4BQVVfeXFMT1Zldkp4YlkyRUtvLWoyemdJeEI1X2JaZ2xrWGZmN0R5d2RNTHpXYjVuVGlTMXBOSndEM0dZR2RlZDBNVUpMckp6dDV6cHhLY3lFUEppLUFZSjF0X3Y5LWJJbU1WbHV6eUhvZ1lJMDhYMGdHTE9xT01IVEx1M09COE5PbW1hdXh6RU92N3Z3dHNKYU9mRmkzY2pwLWZvUTdvQ0NOSVVOeE5jaVotMnFybDVuSElqbEtTa2ZyRUVKMlZUeFJpOW4zV0t5d2FPeWVhdkluQncxaTQ1N0JfcGp3?oc=5</t>
   </si>
   <si>
-    <t>Tulancingo se quedó sin clínica de especialidades por baja seguridad social, revela alcaldesa</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi5wFBVV95cUxNMmQySHQ0RmF5dm1yTlFxMWRMajJVYlNtN1BBVjBxVk50SXJFUHpqVUFseF85LUF3N2E4ZlJVZTJrSjRGa3lDdF9zelhwaGR1MXpQR2lDQU9KQTRFTEx1eElVUVFiUnpkZ25FYmdGeHdTaXc1SXM1Qk1EcXdYTHJ2RnNPNnNjdkx4NWc5dnpSbU96R0hua1dnc2ZXWUc2ck1zQVhJVDd5a1ZReFJVUG9TeG1rLXMzdVdEWkkyQTY1LUlnTWxhbGdabzhFQXd1NGRPaHRzcEl4aTJyNi14UnFNQXZVMmFuZkXSAecBQVVfeXFMTTJkMkh0NEZheXZtck5RcTFkTGoyVWJTbTdQQVYwcVZOdElyRVB6alVBbHhfOS1BdzdhOGZSVWUya0o0Rmt5Q3Rfc3pYcGhkdTF6UEdpQ0FPSkE0RUxMdXhJVVFRYlJ6ZGduRWJnRnh3U2l3NUlzNUJNRHF3WExydkZzTzZzY3ZMeDVnOXZ6Um1PekdIbmtXZ3NmV1lHNnJNc0FYSVQ3eWtWUXhSVVBvU3htay1zM3VXRFpJMkE2NS1JZ01sYWxnWm84RUF3dTRkT2h0c3BJeGkycjYteFJxTUF2VTJhbmZF?oc=5</t>
-  </si>
-  <si>
-    <t>Puebla: alerta por inseguridad en ciclopista de San Andrés Cholula</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxNaWFtUzJmaUEtR1F2R19iNXdGS0pFRTBabTZmSU9zMzlVWERNR3BFQ1F3RGkycHhhRUM4aDZablhaZUVpQWJBakp0NUNKbkhaeE9vV1p3MFFXV25SMVdKc0tfaXpTNDVvMHlCNkZnNWstZ2cySlk5UHdtS1VRZmxPRlUwVzFfQWdhZVBQYXhoUFl3UER3Wnd1dTZVZk83Q053OE9HT3ZxanBzU3k4VmNIcnE4TkdRclp6d3fSAboBQVVfeXFMTWlhbVMyZmlBLUdRdkdfYjV3RktKRUUwWm02ZklPczM5VVhETUdwRUNRd0RpMnB4YUVDOGg2Wm5YWmVFaUFiQWpKdDVDSm5IWnhPb1dadzBRV1duUjFXSnNLX2l6UzQ1bzB5QjZGZzVrLWdnMkpZOVB3bUtVUWZsT0ZVMFcxX0FnYWVQUGF4aFBZd1BEd1p3dXU2VWZPN0NOdzhPR092cWpwc1N5OFZjSHJxOE5HUXJaend3?oc=5</t>
-  </si>
-  <si>
-    <t>Peludos alivian salud emocional en el AIFA; aportan seguridad y calma en la terminal</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxQalZYYnYzNktIc1RVZkcxRi00QTk5UjZLcUhlUV80VHdNYmhXZ2tid04wVkJjNE9hQ0xuWGgxWG1qQ0NmcnlJQjgxb0VORExORHRuY3R3OE9BTFZKWEE4eWRaZUQ0U1V3aTJFOVU1MFRtZVhTcjVsQVQzMVUxNExORWNyTi1wOTlQUWFCemNGekFyU2FQU3JZVGNqQmt2YWhhb2Z2U3FkdHhycknSAbABQVVfeXFMUHZ0M3hVTVhXV0RNSHRDNkowMlFpYkpDYzMwa2RVTDRhYnNsWm9fSENRQlNpOHhRMTAwWDE2eGdWeVZQY0xDeGx3ajc2Q1BaQnVMWTlTQm5Nb3JUT1BmZjlHTTdya2J6R3hVclBneXltS1FZemtVcFN0NG8yOGpnZkk4eVdDRHlNWlZqQTQzTGllcHdYQmZWMHU4TFdmMjN2NXU4ZHlTc3R0Nk5HcGhuQkE?oc=5</t>
-  </si>
-  <si>
-    <t>El impuesto invisible de la inseguridad en la economía formal</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMijAFBVV95cUxPeUdwLUlzaUlOWTlFdmVLMlQ0NGo3LWs3aUo1blZhSHZQXzgtc1pMb2p6dG5CWEVsdDd3S3dsaEdDNEkyR1hTU2VSZXF1YUt2OWRKalVDQkNna1lraFkwYl8yTzZJSXNCUG9GY3VLYi1wZlpGeGVQNDVqX2s5VjB1N2JwYTZnMGN5b243LdIBkgFBVV95cUxPXzZ0djNSMDRJYTBFdkROY0ZWdzVQaHpoVlRmdDlIdUxBTWVpcTBFSHVzM1haY1BZeTZ2YU5jM2QzUW1WaG5EQkNxelFDTkl0N3hIVmtLQmd6WENrWXdvVDRtYi0wU0l4d2ZlalJtRUVrT2ZDS2IwbXFxSEU2aGxES1Y5THp0b0QwN3ZJUXE3OTl4QQ?oc=5</t>
-  </si>
-  <si>
-    <t>Guardia de seguridad asalta la tienda que le toca vigilar</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxPRkRwa0thcFhsalVaNDloM2plUEtqN3pSLWExRzc4RTRHWGk2b0N0R2U1RTJacjAzMEdmTjZzeXAxTlhqTEZGZ3BLZjZlTXFlNzh2OVg1N0ZfVk4xSXpDUE5ORXlQU3ZkRWg0MlhNaHIzR2FPTmZLZXJjRDNCUjVMMUZncW1Ha25aY1Z0bm1XSFJocjDSAZgBQVVfeXFMT1BXY2hrY1FRb2FVQl8zU0NkU1FaNDJOTkVyNHRGcklZUW5jSmYtd29jVDJLbDA1SXM2NTBybWdNd0h0QTNPUTdHTWUybXpnbVhPM01VUE5iZlJueF9YMFdZV09yVm4tQW9RanQtMVRkS01uTkJUZUNEdGo4RE5aZEhJNHQxclBaRGpEbmgybktFdVgxYk1HLVo?oc=5</t>
-  </si>
-  <si>
-    <t>Regreso a clases con nueva seguridad en el CCH Sur: Todo lo que cambió tras la tragedia</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxORGZhVS1wRWRoQ216Q1gtU0h2OWo1bjBNaFJ2V1FkY3JQUlB2ZTM1aUJqWE9IVFM4NlBFdVA4VWNXZmpjNE44YUI3MGlVTXpGZ182c1g2X25rNTBKbVVURlRRMzRqMllOQmZMS2pFY2VKdVJpVXNZVlpPcEdUNjEzSHdGQUUySFE4bU1WbkFJZjZCcm5HYnF4YUNCaVEwenNJU3JtSVg3SU9yNjNSRzlGYWtleTZsSmRlcm1LdURYSkJfNndBVHNiWlN4VTh5czItd1VSYy1VR3PSAdgBQVVfeXFMTkRmYVUtcEVkaENtekNYLVNIdjlqNW4wTWhSdldRZGNyUFJQdmUzNWlCalhPSFRTODZQRXVQOFVjV2ZqYzROOGFCNzBpVU16RmdfNnNYNl9uazUwSm1VVEZUUTM0ajJZTkJmTEtqRWNlSnVSaVVzWVZaT3BHVDYxM0h3RkFFMkhROG1NVm5BSWY2QnJuR2JxeGFDQmlRMHpzSVNybUlYN0lPcjYzUkc5RmFrZXk2bEpkZXJtS3VEWEpCXzZ3QVRzYlpTeFU4eXMyLXdVUmMtVUdz?oc=5</t>
-  </si>
-  <si>
-    <t>Caen tres por robo en supermercado del Centro de Monterrey; uno era guardia de seguridad</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxQX3dLaUZFNFNJTTBpVzNPamhmRWJYYjRKajQ0V2d4Y3pqZENiXzFiRXRyVmd6UnUyQzNXZ1dTb1NROUFFS2lCdkk3dzJscUh3UUhPcmlCNVJxYzJnRDVBZEFGa2M2MkxFX2pFTGJJU1djRVdFSXhuSEJWdEZweGZ1MGloMTdJMkpad3cyUTZSbmVUemF5WFhmdkFIbjFVcFBjREJOUF9UdFUtdFdfX1draklDcjNfNEs5dDFkMk91NlRDcHJHRG5PaUhQZEwxalRQYVZsZ0c1WFN5RTjSAdsBQVVfeXFMUF93S2lGRTRTSU0waVczT2poZkViWGI0Smo0NFdneGN6amRDYl8xYkV0clZnelJ1MkMzV2dXU29TUTlBRUtpQnZJN3cybHFId1FIT3JpQjVScWMyZ0Q1QWRBRmtjNjJMRV9qRUxiSVNXY0VXRUl4bkhCVnRGcHhmdTBpaDE3STJKWnd3MlE2Um5lVHpheVhYZnZBSG4xVXBQY0RCTlBfVHRVLXRXX19Xa2pJQ3IzXzRLOXQxZDJPdTZUQ3ByR0RuT2lIUGRMMWpUUGFWbGdHNVhTeUU4?oc=5</t>
-  </si>
-  <si>
     <t>Revisa Cuautitlán Izcalli mecanismos de seguridad en plazas comerciales y tiendas departamentales</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxPYzJYRm45QkZCMFU1UU8tQnBiYTl0UVhSeG9SajRiV25mXzltdXpsSFVIZnc5OG96THlqdlk3R2dLWHlXZjF2VkpiZkpyZy1iVE5KamRyWkJYUU9IaUxfTm5NNWhmRW0wSHAyTUFWTTlkNENNWnFCdTN2bnRaRHNCX0JjaXowdFZTWkRGTGd0dHhSc2RsQXkyU0hEclJKSjFCYU5nMVRQNms2NU92UTZ2M3E4QkRqa2JlY1dSeUotNW5JdFlJelJUX285OHJxY3dBR3VzUk5rSHpuTmF1bE5uOXNMWGJIUQ?oc=5</t>
   </si>
   <si>
-    <t>Empresarios piden ampliar plazo para generar Dictamen de Seguridad Estructural, tras sismo de enero</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxNcUgtZzNGd0czM1gtS21ybnlNaDZuYVJXUHRGblJCREtWMkJuVzZQaWp2ZXBMRGpKOHJSNUlJTnZWVDhQR2E0a0dIUDAxU3FQNk9jaENTcHowWXZZRXJCeVBZV0JPOC1TaGl6QUtBbEdKdXdxWkpmTVI4OFZjd3lBZ2RkV0FNdTgtNkJyTnZxeHNycmJNM3lkTVlMYnA1OVdPTHJSZHF5NGFYNEdFQkduU0IxU0huSEZwQTZsakJFN295aTUzYXRHaW9zaEc?oc=5</t>
-  </si>
-  <si>
-    <t>La UNAM planea unificar protocolos de seguridad en sus 14 planteles de bachillerato</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxNVU5nM3RZemh3Y0FINUgzbkFkUmxxd3RseUdIQVNBdVVIUGJJSkdNZS1wVS1YeGM2TFJhX2ZZaW9US1VfcHFJelVlbGx3dEU3aE1ScEhSWUpZZk95UEkyMk1zc1lhZ0drVXhRWW5Lem9NUF9yRXBxT09CSlY3U2MyRlNLTVoyUjBERm4tSEM3SGxKWlNiVU5sWVhfZDktVjNiQkdUY1RSaXJwVGZHQkllNFA4eV9sRVN0dUFBbjN3SlVFQlpHZHFMX3lPcU12ci0zQXhsaA?oc=5</t>
-  </si>
-  <si>
-    <t>Departamento de Seguridad de EU ordena el cierre de instalaciones de ICE en Texas por brote de sarampión</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxOaU80a3Rwc1JxenRKN1dTb0ItNU96NWdBMU0tMFFKQ3U1UFVHOG5mM2RtVk9TYnRtU2dvTWNOS3FKdXZfTDZKdGt5WTAzUW9yejgwWHloRmR3TE5WXzl5ZnRHc0hvelVUVXB5ekNmLUowQ0hXclJfUXNmRmtIalBKUG5FMTNSelBuX3ZWSl9wNVNoY25XTHNfWE16S2FZdloyQldqYkZiQ0JmSDBWTFJjN09xN3E4LV94Um5wTnJ2dFpwNVBMdXVaRWdYcUxVbnpJU1JpVHN2eDhON29vMzZUdl92RUE0bVRXdFNBSEV5Z3A1UQ?oc=5</t>
-  </si>
-  <si>
-    <t>Israel reabre el cruce de Rafah bajo estrictas medidas de seguridad y control militar</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxOZl9TWno2M2k4LUMxM2tRT3ZYVDBGSGkyVTdia1l0U19zOG4yajNCa2dMYkVWRVgtVThxYnZ2ZUI2cnVISE9faExqVHR3OWladzJmbUoxcDdmTUJ1VDVCdGJjQjkwZmxJS1RvZXNHVnBHWFVCNk42R09HVTJ6M29OaDdOSDVVY1NOcXdDMnF1bUt1U0k0V19SSXNjeUtuOF92b1JvRHJYVmphcDhXYnl0N0ppNW1OdU5KazVzZG8tcTJycVJIQVlMRGJXZ2ZCWmJ6X1pn?oc=5</t>
-  </si>
-  <si>
-    <t>Condenan a 40 años de prisión a ex comisionado de seguridad de Nicolás Romero por homicidio</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxNUkRQNUU4V0ZKalhfZjZIUEFaTDRzcjJ6RWstd21uVDNfZFAzRm1oeTFXcDB1VDk5MjV1emlFbTlLX2dEMUVUWVB3dlpiLVFWck11NGlqRWdLQkN6T0J2Q2VUV0xOeXY2R2FIVUJ1TW1nX013U21Lak8zb1dzY0FMdG9iMURPUll4SzVxdm8xMUhVWjZRWW9QLXRiaUp6c3FySWhaSzBuMDU0Mjc1em53anFsNTNPQ0ZqazlkWjFXVWR2VjNqdkNvTDVnWQ?oc=5</t>
-  </si>
-  <si>
     <t>Agentes de Seguridad Nacional en Minneapolis portarán cámaras corporales, dice Noem</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMimAFBVV95cUxOQlZpZFBPc1JxOS1CMGRBZUMwcEVyQnh4TVZFREVSRFBHNkZ3ajJtTU5wS2phRHZwc0xEWlpCX1YwSjFjem41THJ0N1h2ZEdHbFJwRnUyWVdfR1ZGMXFHclZtS0V1dzUzUW5OWW82cTFWbThZVVFjejB6QU02T2ZSaGtINC1CQTNUVFFZSVU0UmFaV3MyOXhTXw?oc=5</t>
   </si>
   <si>
-    <t>Residente e invitados dan brutal golpiza a guardias de seguridad en Angelópolis, Puebla</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxQNGtQcGpqLWI0ZURRZDJPUzVZTWQwNmI0NUZ5MWVvTTBUYVZHYW81S0hVRFdXaUxVZUZDQTRzazIxcVhBMUg3Z1UwYXEtbUUxUnFpdlFrb1dfZUw4cjJqNUF5RmRWa0xPUHR4ZGh1RFRCV29feHFCcEw1SE9HUEN0YVRYaUZTRDFBLVd2VXF30gGOAUFVX3lxTE1CcnhRbnNDekt4TU5RQkNjZ2RoWjN1UENndFdWb0JJaloyWnFHNHFkQzJMTkhBMnZmR0hLM0pfaWJsU3JoN0dqUk1DRmVmZnpLVUc4b1RqeTJKOXlubkc1bzAtY0FPdUVQN1o5eW11aTRyZGowM0xQYUJOeUl6NmlOR01QT3piWUltYWUzc0E?oc=5</t>
-  </si>
-  <si>
     <t>Guía del Tren Interurbano: Estaciones, conexiones y seguridad</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxNQV9YTlctVEs3dllUamFVV0dOV1huRUdhcGRwX3Njc0NRT2F3Wm8xRV9kcjFwOE9tZ2wzTjdET0d2N2ZnQnFPakEyaUZmZ29BZ1lyTnA5QlFpVE1CTC1xekpBMnpGTDUyT2tyX0JTaGFEc2V2OG0tdTR0Szc4ZTVQNzE1RFJWY3YxdmhWbXlXbUV6MTZpMlJUWWxyYlRaZktFdVp1aWgtWGhOTjJXWUHSAa4BQVVfeXFMUElmM1JnR0xkdW5KNTMwaUdFaEh5ZUNuVno0Rzlzc2lwTlVBWm9DOTI3bFQ2dUVvVkppcnA1d2k3cTVkTmRWSWdXQ0tIaHZVaVhBcTd6Nm9oM0lVUDBkaHU2T1R1WTB1MjRabTFjN1Yyd3dyVTNoa05heXFUYTE3MDJiNGRlVlZ4amRxWnhjNHYxMWoydEM4THo4Z25DWnFGdW9oUVdIc2JwTG1TSUtR?oc=5</t>
   </si>
   <si>
-    <t>Seguridad: Fortalecen búsqueda de los mineros secuestrados en Concordia, Sinaloa</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxOSlhmYzhna192ZlJ4cmFjcWJWdzN0Z1FPSkR1Ym9tX0QyNlExUTBITmRrdm13T3FiblFGNUJ1RjhOeWVHOTlvZ1RfTWd1Q3U0RVZWaEVXMlJVNzN3dnBmT1dFQjdoS1JVazV1ajlVdUZ2RmpfU1dSOXVaNjdjYW16TTJBellpZDdfZ1lYNG1wekljR3Z6ZDh2SGRVRzN2TVdBMWhOZzRiUVhlT2FVdE02ZUtrTGpId9IBuwFBVV95cUxNVnIzcG5PdzZsWW1FSDdYaXByTWdLdm9xM3Ywa0xPLW9uQi1TOFA3MGNpMlJkQXV5OG00QUZqQkJjZHdOcUVTWElCR0dCaGo0bDRyM1VfUXdrV0NkUXN6WGZuYU9hcDFjdFkxVE5rTHM5cVlXRE95ZnVfbTV6NTVjOHNoVkcteGtrNjllWGxqQWNjUGVrNklJaDNZWmViSDFIVVh4ZllFVGMzdlp2TG9OVjhlaUQ4WVUzNjg0?oc=5</t>
-  </si>
-  <si>
-    <t>Presidenta Claudia Sheinbaum inaugura tramo Santa Fe-Observatorio del Tren “El Insurgente”; se conecta Toluca con la Ciudad de México</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi_AFBVV95cUxPN2R0Q2dhVHJLQTJFdXhJT1I0Z0JZRXJIak42RUpTaURzeDNWNFAtU1BrSWd1b2dfcUlSaFY5eGNuUEx1akZBblkzbjIxa1ZGOWxaZkx3OFhXRElEZWtBbGl6RWl1WEZGczk2MmRsaW9fQVdydFVHQlFkTlJOYXBuWXRfdlctMHpTaGxmRVp1d2I5Z2xTc2g2cm9uWGdvTmtoQmFrbllJQ3NCTmNpcHV0M3BrUi1SWXhoMUFXdTM3eVc4cEU3WFJsdDljbUd3U1lxeXVxWTBYbEtJdVJvclhsVEJ5M0h5M0N1RTRHekF1OVpwS05KZDItVVQwMjk?oc=5</t>
-  </si>
-  <si>
-    <t>Gob MX</t>
-  </si>
-  <si>
     <t>¿Cómo llegan Petro y Trump a la reunión en la Casa Blanca? Del choque al diálogo: un encuentro clave para Colombia</t>
   </si>
   <si>
@@ -1333,61 +1369,22 @@
     <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxQMWUwdHlPSllOREs0U0g5ZTdwRnV1ZkQtODVDekJHV05URHJBLUwxOWRzRU9NdG85LWs1S2F4LWhUeVdTcjNTbzdsTlNkblJYSDMxVU1teWN0NkphYlBfSmk4TDFXelhCSk41aFlYZGxhNDhVM25kTTg5MGpRNUVMMHY1VHpIOUIxQ1lBaUZkclIzUzRYRVVmd1l0c2N5QTBPQ2tUR0EtMkPSAbwBQVVfeXFMT1BhYkEyWUFGRWs1bDBkczg2dmlXdjNacWE5Tm1aMU1vcFA3MkgzTXhZbFJILWkzRXAtSnZtX2FGWXBXNmVhb2lzc3ktS0JlRnQxUm9ESnpySmxyQXpaZ0lzSDM3T3lBMUVPMWp6OHV5VUlqb0tHbFhUYVdYRzUyWlRfbUxhUmR3T3h5WVVUTFdrRW80ODhRNlFUbkRmYXBBNlNnLS1PVGZLeWpvUl9vZkRLS0ZkYmp0LVdjNlM?oc=5</t>
   </si>
   <si>
-    <t>Así es como Trump aparece en los archivos Epstein</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxOMUQ4eklYWnpPc0FkRklxQlpIQVI2UURKY2kwU2ZVMVgtSV9UZzVTX3FwaXBhRTNzSV9PbHhzcTRKaUdzZTIwWWl3a0VYMXgtOEF2TkxEMjBoT3dkbE1vaEp1S2xVODlicFQxRWdvVk5ESUE4WURLX1hSUVNNVnZDQ1dEVXIxNmxnZVI2alAyTGE4QQ?oc=5</t>
-  </si>
-  <si>
     <t>Estrellas de la música protestan contra la política migratoria de Trump en los Grammy</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMi6AFBVV95cUxNRTkxZ2E0NW9qVGhiNEU5RE5XU216NWlVNDgySjN4eVlGNTg2Zk9RWks2eHl4UFY3RjBuRXFpWG9QbjFYTkxjZE5fbkRvcVZ3UkI1d01aVk5VRl90ajViTHY1b2lNZ3NfNkhkbUp5OGtuemJ6WnlyR0Y5cUwwVzNOLXJhR3U3YndpNC13ek1QeV93bEw5LU9ncFNCM3M5cVN1cXVfNlJYU1Y3Nk9POGxheG5sN0ZxbjVVRUo4WXdyTWhNNlpYMUlXOUpQSDJ0Smc4YkJmN1dpQTZzSUxHYnJoWWlEWlpNNy1T?oc=5</t>
   </si>
   <si>
-    <t>Trump anuncia un acuerdo comercial con India y afirma que Modi aceptó dejar de comprar petróleo ruso</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxQWkJhazJFRzE4SF93ZG9OVjljS1pkVmRocXJzRnZxdkR4ak05aE5relVsbUlfa3VZaGY1UWZ4RU5pNlcxeWFQcFZtV0IxaURNSk1uWWlqQlFFNk02SFdSUUh3Z2EtN1FIQzZwVXVnamhHQldsTkNhQWNmQ0xlSGx1WC1fT1dJZlFybEtkSXJERkZ2aGFVT1JHU1hpX3FLakxpYmNVMDRPeVR4c2tIRThIZlZGWDc4T1Q3RC1zcGZEQWNwMzc1MnFfRkg4RTlnYjJfSUlOTzl2YVdKZ3M5Y0N1Mm1iZnY5NEdJTjI4eXdCME9tVm1KS09DbUxiMA?oc=5</t>
-  </si>
-  <si>
-    <t>France 24</t>
-  </si>
-  <si>
-    <t>Corea del Sur responde a Sheinbaum por conciertos de BTS mientras Profeco inicia proceso contra Ticketmaster</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxNaDFIZ2RaZzg2bExKbzgzd3g0c1QtNFg5Vm5MYUN0emU2ZWlraWJBZHhhb0RxWHFfV29CZzN3Wkw5S1pHVWtwSzlKYWgwNk1VeXNWdzE3Smcxa1NkMGc4RE4tb1VIX19ISXRpdWtqYjRabW5QaGVHYjFxTmYtZVhjd0xKdkJqOGxmSXJXQ2hTbmhfOXJ0OGVJazhSMTl6SExtRXNZZTNGQ2JNbVFUTVRqS2hDZ3VRU01VOUR0bk43Mk1kSXhVbllJbTBrUVdFdVVVd3kzVE5GdUhDWXpKUUhOT09DYXRkZ9IBgAJBVV95cUxPaDRHWW16ZWNlalZTOXZ4aUJ2YWtqZ0xfcDY3a2tQM0xGSTIxWVlUX1pPUjFoVVVLM0h3bVhMMGpzUzJ3OUVfYVhuMnl3Z3dhbDIyMC16bklZS2NlTlQtT2E5T2lYTHB0LWVsS1lSaDZTX1l2UklIb3lma29mbjBWbXBtTHNJak5VeXJMT3hMZ0dUbEx3S0tVckJ1WFdOMmdqSklreDBxZWZ5S1RvSFUyaFhPVk5xRkgzZTlaT1BZYko4RzFvSEZub3Viek1KM1JCWXhjNU1wRDNwOUZESjBoZGRoaFZHcXNjLVNnMV90VjlaMkg4bTc3eXB6SDdwdm5E?oc=5</t>
-  </si>
-  <si>
-    <t>Trump anuncia un acuerdo comercial con India</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxNaFRjaVRrLTVTV1FnUnI2RU4zNGZqUDlrSFBQaVBFc1AzaXFPZ2VIcHpMcGVocC14cy1FX3hPMnRGWElVWEItVEVUaGZuaUo5RkFxd09vNUNuUDd0RXB5Rk0zT0tlajFYQnFzMXYxZGNIYTVqeDBNTWlTY1hOWmRtQW9MZkJPTEVpSHZneFpua2xjUExjbVdiMmJhOXVfeDdxQWfSAaIBQVVfeXFMUDMwMHhIN1R6T2xzT3I5OGY3OEpYcG41aktydWNsMHBwQ19rVzNOeUpGOW5xWVpKMzZSN3hORWxTVEw0cjU0ZjUyLUdhcjB5VGNBdjFZMVdQd2ZiWmlMU3ZYRUt2eWF6aVpGdEhlcmpCZlpUWTl4d3JRYktlT0YyRklSd004Zy1uSDliN2xNYVMyMVRsdUhNYU9fVWpobURweTdn?oc=5</t>
-  </si>
-  <si>
     <t>Trump celebra el 178 aniversario de la guerra que le arrebató a México la mitad de su terrritorio</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMi5wFBVV95cUxOWFNZVVBxNEZVamZkZTVuSGV1Zlg4Rk1aQ1FDb0x6bnJleWZGaVo3emU4cXdBR3lkX2wyU1BMeU9zUkZOeVZMci1LYnZSQjBEbFN4ejZ5enVYY2Iza3lGQkZiUFhMMEZ0UWRPVlYyVUNaemQzOVh5MXAxNzhsMWJ0Z0JwT1RUQnJYcV9JMHcxQ0g1U2otOGo2UmVTMUx4VEtKbEVrMF9fRHBhZGJMWXM0LXMwQnFSZWRPMk9NRWRLVFYteFBCYkRaQUVZSGRFU3F4YWR4Qm1YWlp6bmhoTU5LVW96eHNDMEXSAecBQVVfeXFMTlhTWVVQcTRGVWpmZGU1bkhldWZYOEZNWkNRQ29Mem5yZXlmRmlaN3plOHF3QUd5ZF9sMlNQTHlPc1JGTnlWTHItS2J2UkIwRGxTeHo2eXp1WGNiM2t5RkJGYlBYTDBGdFFkT1ZWMlVDWnpkMzlYeTFwMTc4bDFidGdCcE9UVEJyWHFfSTB3MUNINVNqLThqNlJlUzFMeFRLSmxFazBfX0RwYWRiTFlzNC1zMEJxUmVkTzJPTUVkS1RWLXhQQmJEWkFFWUhkRVNxeGFkeEJtWFpaem5oaE1OS1VvenhzQzBF?oc=5</t>
   </si>
   <si>
-    <t>Dice Trump a periodistas que México dejará de enviar petróleo a Cuba</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxOUEVzd2tJeHRkQjNPR2JOSDFVUW9wdjdmMG4zN3hKb1pnSTVXZjlaRjZYMDNuQVhueTlLTVZHd0dKTC11NXpwV19NUHNIUG0zUWFEdnJsS3BhQVJHZVdNNXY4UFpFR3NLSk95ajZ1NkpZUWE3SUQ3WnRza2V2ZU9oNnotYlY2VkpfUVNValUyal8tUHdfSTRuNmlEZ3EzbDdFWUI1bFdGblVYeG4ybmpqdEU2c19YUGsxdE5lSQ?oc=5</t>
-  </si>
-  <si>
     <t>Trump pide a los republicanos “nacionalizar” las futuras elecciones</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNOEVPa2VYMUM0X1g4d1AtRE9WbjJ0anhWeDVkT1p1MVRZRFYxX3k1RFRINXAtLWhTZ0ExZWRQRTM3NnpTcU4tdFNFdHIwUEJVSnluaUI2cWQxUUZmbVI1d3pnOXVtM3hHNWJJZDFXWnhfaHIwWXNvNzljd05KTVkxdGhGTUplRlNaZktIMjVSNnpsNm9DV0JnTDB5UWJlejVrRjJvenBn?oc=5</t>
-  </si>
-  <si>
-    <t>Entrevista AP: Cuba no tiene una mesa de diálogo con EEUU tras últimas amenazas de Trump</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxPdk9ZSEplQzZGNDdlWEc5RW9QODM5Yk1zd0Y0RTlyQ1dUSVFreERPcktaV0FudklnQ3p1cUx1ZGJ1X04tNFprb0FsOW0wUkVSU2M5aTNNNlNXYWlwNkZ5VHRWNy1weE0zOHhRdUxDNzF1aTZGUXRvQ1pnLUNxSmVWS1VzdmJTeFlvSnY2Rlk4Z004Q05EUEtaMlIxVFpTYTdFZnk0aHFLaGgzNHdaYzJZT2E5OFdld3IwUGxaVUlOc0FXZDlDbXZWYXlWUXFCT2J4dWdKZG4tT3ktZUxxQ3kySlJR?oc=5</t>
   </si>
   <si>
     <t>Monólogo en los Grammy desata furia de Trump</t>
@@ -2240,17 +2237,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F7D5D6-FAFA-4C0F-BC6F-B783DD2F90A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4855979C-8B5F-4FBD-A4DE-90E6E1F4122E}">
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:XFD118"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="122.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2478,16 +2470,16 @@
         <v>46053</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2495,16 +2487,16 @@
         <v>46053</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2512,16 +2504,16 @@
         <v>46053</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2529,16 +2521,16 @@
         <v>46053</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2546,16 +2538,16 @@
         <v>46053</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2563,13 +2555,13 @@
         <v>46053</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -2580,13 +2572,13 @@
         <v>46053</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
         <v>31</v>
@@ -2597,16 +2589,16 @@
         <v>46053</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2614,16 +2606,16 @@
         <v>46053</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2631,16 +2623,16 @@
         <v>46053</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2648,13 +2640,13 @@
         <v>46053</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -2665,13 +2657,13 @@
         <v>46053</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -2682,16 +2674,16 @@
         <v>46053</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2699,16 +2691,16 @@
         <v>46053</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2716,16 +2708,16 @@
         <v>46053</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2733,16 +2725,16 @@
         <v>46053</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2750,13 +2742,13 @@
         <v>46053</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
         <v>31</v>
@@ -2767,13 +2759,13 @@
         <v>46053</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
         <v>31</v>
@@ -2784,13 +2776,13 @@
         <v>46053</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
         <v>31</v>
@@ -2801,13 +2793,13 @@
         <v>46053</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
@@ -2818,13 +2810,13 @@
         <v>46053</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
         <v>31</v>
@@ -2835,16 +2827,16 @@
         <v>46053</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2852,16 +2844,16 @@
         <v>46053</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2869,16 +2861,16 @@
         <v>46053</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2886,16 +2878,16 @@
         <v>46053</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2903,16 +2895,16 @@
         <v>46053</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -2920,16 +2912,16 @@
         <v>46053</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2937,16 +2929,16 @@
         <v>46053</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2954,16 +2946,16 @@
         <v>46053</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -2971,16 +2963,16 @@
         <v>46053</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -2988,16 +2980,16 @@
         <v>46053</v>
       </c>
       <c r="B44" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3005,16 +2997,16 @@
         <v>46053</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -3022,16 +3014,16 @@
         <v>46053</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -3039,16 +3031,16 @@
         <v>46053</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -3056,16 +3048,16 @@
         <v>46053</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -3073,16 +3065,16 @@
         <v>46053</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C49" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -3090,16 +3082,16 @@
         <v>46053</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3107,16 +3099,16 @@
         <v>46053</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -3124,16 +3116,16 @@
         <v>46053</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -3141,16 +3133,16 @@
         <v>46053</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -3158,16 +3150,16 @@
         <v>46053</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -3175,16 +3167,16 @@
         <v>46053</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3192,16 +3184,16 @@
         <v>46053</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E56" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -3209,16 +3201,16 @@
         <v>46053</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -3226,16 +3218,16 @@
         <v>46053</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -3243,16 +3235,16 @@
         <v>46053</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -3260,16 +3252,16 @@
         <v>46053</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -3277,16 +3269,16 @@
         <v>46053</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E61" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -3294,16 +3286,16 @@
         <v>46054</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -3311,16 +3303,16 @@
         <v>46054</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="E63" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -3328,16 +3320,16 @@
         <v>46054</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -3354,7 +3346,7 @@
         <v>165</v>
       </c>
       <c r="E65" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -3362,13 +3354,13 @@
         <v>46054</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -3379,16 +3371,16 @@
         <v>46054</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="E67" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -3396,13 +3388,13 @@
         <v>46054</v>
       </c>
       <c r="B68" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="E68" t="s">
         <v>28</v>
@@ -3413,16 +3405,16 @@
         <v>46054</v>
       </c>
       <c r="B69" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="E69" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -3430,16 +3422,16 @@
         <v>46054</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
       </c>
       <c r="D70" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="E70" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -3447,16 +3439,16 @@
         <v>46054</v>
       </c>
       <c r="B71" t="s">
-        <v>262</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -3464,16 +3456,16 @@
         <v>46054</v>
       </c>
       <c r="B72" t="s">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -3481,16 +3473,16 @@
         <v>46054</v>
       </c>
       <c r="B73" t="s">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -3498,13 +3490,13 @@
         <v>46054</v>
       </c>
       <c r="B74" t="s">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D74" t="s">
-        <v>296</v>
+        <v>185</v>
       </c>
       <c r="E74" t="s">
         <v>15</v>
@@ -3515,16 +3507,16 @@
         <v>46054</v>
       </c>
       <c r="B75" t="s">
-        <v>312</v>
+        <v>186</v>
       </c>
       <c r="C75" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>313</v>
+        <v>187</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -3532,16 +3524,16 @@
         <v>46054</v>
       </c>
       <c r="B76" t="s">
-        <v>321</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="E76" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -3549,13 +3541,13 @@
         <v>46054</v>
       </c>
       <c r="B77" t="s">
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="C77" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D77" t="s">
-        <v>331</v>
+        <v>191</v>
       </c>
       <c r="E77" t="s">
         <v>8</v>
@@ -3566,13 +3558,13 @@
         <v>46054</v>
       </c>
       <c r="B78" t="s">
-        <v>332</v>
+        <v>192</v>
       </c>
       <c r="C78" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D78" t="s">
-        <v>333</v>
+        <v>193</v>
       </c>
       <c r="E78" t="s">
         <v>8</v>
@@ -3583,13 +3575,13 @@
         <v>46054</v>
       </c>
       <c r="B79" t="s">
-        <v>363</v>
+        <v>194</v>
       </c>
       <c r="C79" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D79" t="s">
-        <v>364</v>
+        <v>195</v>
       </c>
       <c r="E79" t="s">
         <v>31</v>
@@ -3600,13 +3592,13 @@
         <v>46054</v>
       </c>
       <c r="B80" t="s">
-        <v>365</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D80" t="s">
-        <v>366</v>
+        <v>197</v>
       </c>
       <c r="E80" t="s">
         <v>31</v>
@@ -3617,16 +3609,16 @@
         <v>46054</v>
       </c>
       <c r="B81" t="s">
-        <v>389</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D81" t="s">
-        <v>390</v>
+        <v>199</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -3634,16 +3626,16 @@
         <v>46054</v>
       </c>
       <c r="B82" t="s">
-        <v>417</v>
+        <v>200</v>
       </c>
       <c r="C82" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D82" t="s">
-        <v>418</v>
+        <v>201</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -3651,16 +3643,16 @@
         <v>46055</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="E83" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -3668,13 +3660,13 @@
         <v>46055</v>
       </c>
       <c r="B84" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="E84" t="s">
         <v>8</v>
@@ -3685,13 +3677,13 @@
         <v>46055</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="E85" t="s">
         <v>15</v>
@@ -3702,13 +3694,13 @@
         <v>46055</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="E86" t="s">
         <v>15</v>
@@ -3719,13 +3711,13 @@
         <v>46055</v>
       </c>
       <c r="B87" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="E87" t="s">
         <v>15</v>
@@ -3736,16 +3728,16 @@
         <v>46055</v>
       </c>
       <c r="B88" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="E88" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -3753,16 +3745,16 @@
         <v>46055</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="E89" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -3770,13 +3762,13 @@
         <v>46055</v>
       </c>
       <c r="B90" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="E90" t="s">
         <v>21</v>
@@ -3787,13 +3779,13 @@
         <v>46055</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="E91" t="s">
         <v>21</v>
@@ -3804,13 +3796,13 @@
         <v>46055</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="E92" t="s">
         <v>21</v>
@@ -3821,13 +3813,13 @@
         <v>46055</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="E93" t="s">
         <v>21</v>
@@ -3838,13 +3830,13 @@
         <v>46055</v>
       </c>
       <c r="B94" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="E94" t="s">
         <v>21</v>
@@ -3855,13 +3847,13 @@
         <v>46055</v>
       </c>
       <c r="B95" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="E95" t="s">
         <v>21</v>
@@ -3872,16 +3864,16 @@
         <v>46055</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="E96" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -3889,13 +3881,13 @@
         <v>46055</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="E97" t="s">
         <v>28</v>
@@ -3906,13 +3898,13 @@
         <v>46055</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="E98" t="s">
         <v>28</v>
@@ -3923,13 +3915,13 @@
         <v>46055</v>
       </c>
       <c r="B99" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="E99" t="s">
         <v>28</v>
@@ -3940,13 +3932,13 @@
         <v>46055</v>
       </c>
       <c r="B100" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="E100" t="s">
         <v>28</v>
@@ -3957,13 +3949,13 @@
         <v>46055</v>
       </c>
       <c r="B101" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="E101" t="s">
         <v>31</v>
@@ -3974,16 +3966,16 @@
         <v>46055</v>
       </c>
       <c r="B102" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -3991,16 +3983,16 @@
         <v>46055</v>
       </c>
       <c r="B103" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -4008,16 +4000,16 @@
         <v>46055</v>
       </c>
       <c r="B104" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
       </c>
       <c r="D104" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -4025,16 +4017,16 @@
         <v>46055</v>
       </c>
       <c r="B105" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E105" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -4042,16 +4034,16 @@
         <v>46055</v>
       </c>
       <c r="B106" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="E106" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -4059,16 +4051,16 @@
         <v>46055</v>
       </c>
       <c r="B107" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E107" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -4076,16 +4068,16 @@
         <v>46055</v>
       </c>
       <c r="B108" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="E108" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -4093,16 +4085,16 @@
         <v>46055</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="E109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -4110,16 +4102,16 @@
         <v>46055</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -4127,16 +4119,16 @@
         <v>46055</v>
       </c>
       <c r="B111" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="E111" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -4144,16 +4136,16 @@
         <v>46055</v>
       </c>
       <c r="B112" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E112" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -4161,16 +4153,16 @@
         <v>46055</v>
       </c>
       <c r="B113" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E113" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -4178,16 +4170,16 @@
         <v>46055</v>
       </c>
       <c r="B114" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -4195,13 +4187,13 @@
         <v>46055</v>
       </c>
       <c r="B115" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" t="s">
         <v>270</v>
-      </c>
-      <c r="C115" t="s">
-        <v>52</v>
-      </c>
-      <c r="D115" t="s">
-        <v>271</v>
       </c>
       <c r="E115" t="s">
         <v>31</v>
@@ -4212,13 +4204,13 @@
         <v>46055</v>
       </c>
       <c r="B116" t="s">
+        <v>271</v>
+      </c>
+      <c r="C116" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" t="s">
         <v>272</v>
-      </c>
-      <c r="C116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D116" t="s">
-        <v>273</v>
       </c>
       <c r="E116" t="s">
         <v>31</v>
@@ -4229,13 +4221,13 @@
         <v>46055</v>
       </c>
       <c r="B117" t="s">
+        <v>273</v>
+      </c>
+      <c r="C117" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" t="s">
         <v>274</v>
-      </c>
-      <c r="C117" t="s">
-        <v>52</v>
-      </c>
-      <c r="D117" t="s">
-        <v>275</v>
       </c>
       <c r="E117" t="s">
         <v>31</v>
@@ -4246,13 +4238,13 @@
         <v>46055</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C118" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D118" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E118" t="s">
         <v>31</v>
@@ -4263,16 +4255,16 @@
         <v>46055</v>
       </c>
       <c r="B119" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C119" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D119" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E119" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -4280,16 +4272,16 @@
         <v>46055</v>
       </c>
       <c r="B120" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C120" t="s">
+        <v>276</v>
+      </c>
+      <c r="D120" t="s">
         <v>281</v>
       </c>
-      <c r="D120" t="s">
-        <v>286</v>
-      </c>
       <c r="E120" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -4297,16 +4289,16 @@
         <v>46055</v>
       </c>
       <c r="B121" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C121" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D121" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -4314,13 +4306,13 @@
         <v>46055</v>
       </c>
       <c r="B122" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C122" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D122" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E122" t="s">
         <v>15</v>
@@ -4331,13 +4323,13 @@
         <v>46055</v>
       </c>
       <c r="B123" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C123" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D123" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E123" t="s">
         <v>15</v>
@@ -4348,13 +4340,13 @@
         <v>46055</v>
       </c>
       <c r="B124" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C124" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D124" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E124" t="s">
         <v>15</v>
@@ -4365,16 +4357,16 @@
         <v>46055</v>
       </c>
       <c r="B125" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C125" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D125" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E125" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -4382,16 +4374,16 @@
         <v>46055</v>
       </c>
       <c r="B126" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C126" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D126" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="E126" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -4399,16 +4391,16 @@
         <v>46055</v>
       </c>
       <c r="B127" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C127" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D127" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E127" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -4416,13 +4408,13 @@
         <v>46055</v>
       </c>
       <c r="B128" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C128" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D128" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="E128" t="s">
         <v>31</v>
@@ -4433,16 +4425,16 @@
         <v>46055</v>
       </c>
       <c r="B129" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="C129" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D129" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="E129" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -4450,16 +4442,16 @@
         <v>46055</v>
       </c>
       <c r="B130" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C130" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D130" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="E130" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -4467,16 +4459,16 @@
         <v>46055</v>
       </c>
       <c r="B131" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="C131" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D131" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="E131" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -4484,16 +4476,16 @@
         <v>46055</v>
       </c>
       <c r="B132" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C132" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D132" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="E132" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -4501,16 +4493,16 @@
         <v>46055</v>
       </c>
       <c r="B133" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C133" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D133" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="E133" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -4518,16 +4510,16 @@
         <v>46055</v>
       </c>
       <c r="B134" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C134" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D134" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="E134" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -4535,13 +4527,13 @@
         <v>46055</v>
       </c>
       <c r="B135" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="C135" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D135" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="E135" t="s">
         <v>15</v>
@@ -4552,13 +4544,13 @@
         <v>46055</v>
       </c>
       <c r="B136" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="C136" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D136" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="E136" t="s">
         <v>15</v>
@@ -4569,13 +4561,13 @@
         <v>46055</v>
       </c>
       <c r="B137" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="C137" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D137" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="E137" t="s">
         <v>15</v>
@@ -4586,16 +4578,16 @@
         <v>46055</v>
       </c>
       <c r="B138" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="C138" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D138" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="E138" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -4603,13 +4595,13 @@
         <v>46055</v>
       </c>
       <c r="B139" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="C139" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D139" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="E139" t="s">
         <v>21</v>
@@ -4620,16 +4612,16 @@
         <v>46055</v>
       </c>
       <c r="B140" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="C140" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D140" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="E140" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -4637,16 +4629,16 @@
         <v>46055</v>
       </c>
       <c r="B141" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="C141" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D141" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="E141" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -4654,16 +4646,16 @@
         <v>46055</v>
       </c>
       <c r="B142" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="C142" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D142" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="E142" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -4671,16 +4663,16 @@
         <v>46055</v>
       </c>
       <c r="B143" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="C143" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D143" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="E143" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -4688,13 +4680,13 @@
         <v>46055</v>
       </c>
       <c r="B144" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C144" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D144" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="E144" t="s">
         <v>31</v>
@@ -4705,16 +4697,16 @@
         <v>46055</v>
       </c>
       <c r="B145" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
       <c r="C145" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D145" t="s">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="E145" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -4722,16 +4714,16 @@
         <v>46055</v>
       </c>
       <c r="B146" t="s">
-        <v>395</v>
+        <v>336</v>
       </c>
       <c r="C146" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D146" t="s">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="E146" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -4739,16 +4731,16 @@
         <v>46055</v>
       </c>
       <c r="B147" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="C147" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D147" t="s">
-        <v>398</v>
+        <v>339</v>
       </c>
       <c r="E147" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -4756,16 +4748,16 @@
         <v>46055</v>
       </c>
       <c r="B148" t="s">
-        <v>399</v>
+        <v>340</v>
       </c>
       <c r="C148" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D148" t="s">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="E148" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -4773,16 +4765,16 @@
         <v>46055</v>
       </c>
       <c r="B149" t="s">
-        <v>401</v>
+        <v>342</v>
       </c>
       <c r="C149" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D149" t="s">
-        <v>402</v>
+        <v>343</v>
       </c>
       <c r="E149" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -4790,16 +4782,16 @@
         <v>46055</v>
       </c>
       <c r="B150" t="s">
-        <v>403</v>
+        <v>344</v>
       </c>
       <c r="C150" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D150" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="E150" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -4807,16 +4799,16 @@
         <v>46055</v>
       </c>
       <c r="B151" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
       <c r="C151" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D151" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
       <c r="E151" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -4824,16 +4816,16 @@
         <v>46055</v>
       </c>
       <c r="B152" t="s">
-        <v>409</v>
+        <v>348</v>
       </c>
       <c r="C152" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D152" t="s">
-        <v>410</v>
+        <v>349</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -4841,16 +4833,16 @@
         <v>46055</v>
       </c>
       <c r="B153" t="s">
-        <v>411</v>
+        <v>350</v>
       </c>
       <c r="C153" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D153" t="s">
-        <v>412</v>
+        <v>351</v>
       </c>
       <c r="E153" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -4858,16 +4850,16 @@
         <v>46055</v>
       </c>
       <c r="B154" t="s">
-        <v>413</v>
+        <v>352</v>
       </c>
       <c r="C154" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D154" t="s">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -4875,16 +4867,16 @@
         <v>46055</v>
       </c>
       <c r="B155" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="C155" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D155" t="s">
-        <v>416</v>
+        <v>355</v>
       </c>
       <c r="E155" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -4892,16 +4884,16 @@
         <v>46055</v>
       </c>
       <c r="B156" t="s">
-        <v>421</v>
+        <v>356</v>
       </c>
       <c r="C156" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D156" t="s">
-        <v>422</v>
+        <v>357</v>
       </c>
       <c r="E156" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -4909,16 +4901,16 @@
         <v>46055</v>
       </c>
       <c r="B157" t="s">
-        <v>425</v>
+        <v>358</v>
       </c>
       <c r="C157" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D157" t="s">
-        <v>426</v>
+        <v>359</v>
       </c>
       <c r="E157" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -4926,16 +4918,16 @@
         <v>46055</v>
       </c>
       <c r="B158" t="s">
-        <v>427</v>
+        <v>360</v>
       </c>
       <c r="C158" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D158" t="s">
-        <v>428</v>
+        <v>361</v>
       </c>
       <c r="E158" t="s">
-        <v>429</v>
+        <v>362</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -4943,16 +4935,16 @@
         <v>46055</v>
       </c>
       <c r="B159" t="s">
-        <v>436</v>
+        <v>363</v>
       </c>
       <c r="C159" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D159" t="s">
-        <v>437</v>
+        <v>364</v>
       </c>
       <c r="E159" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -4960,16 +4952,16 @@
         <v>46055</v>
       </c>
       <c r="B160" t="s">
-        <v>440</v>
+        <v>365</v>
       </c>
       <c r="C160" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D160" t="s">
-        <v>441</v>
+        <v>366</v>
       </c>
       <c r="E160" t="s">
-        <v>442</v>
+        <v>367</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -4977,13 +4969,13 @@
         <v>46055</v>
       </c>
       <c r="B161" t="s">
-        <v>443</v>
+        <v>368</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D161" t="s">
-        <v>444</v>
+        <v>369</v>
       </c>
       <c r="E161" t="s">
         <v>31</v>
@@ -4994,16 +4986,16 @@
         <v>46055</v>
       </c>
       <c r="B162" t="s">
-        <v>445</v>
+        <v>370</v>
       </c>
       <c r="C162" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D162" t="s">
-        <v>446</v>
+        <v>371</v>
       </c>
       <c r="E162" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -5011,16 +5003,16 @@
         <v>46055</v>
       </c>
       <c r="B163" t="s">
-        <v>449</v>
+        <v>372</v>
       </c>
       <c r="C163" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D163" t="s">
-        <v>450</v>
+        <v>373</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -5028,16 +5020,16 @@
         <v>46055</v>
       </c>
       <c r="B164" t="s">
-        <v>453</v>
+        <v>374</v>
       </c>
       <c r="C164" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D164" t="s">
-        <v>454</v>
+        <v>375</v>
       </c>
       <c r="E164" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -5045,13 +5037,13 @@
         <v>46056</v>
       </c>
       <c r="B165" t="s">
-        <v>177</v>
+        <v>376</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
       </c>
       <c r="D165" t="s">
-        <v>178</v>
+        <v>377</v>
       </c>
       <c r="E165" t="s">
         <v>15</v>
@@ -5062,13 +5054,13 @@
         <v>46056</v>
       </c>
       <c r="B166" t="s">
-        <v>188</v>
+        <v>378</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>189</v>
+        <v>379</v>
       </c>
       <c r="E166" t="s">
         <v>18</v>
@@ -5079,13 +5071,13 @@
         <v>46056</v>
       </c>
       <c r="B167" t="s">
-        <v>202</v>
+        <v>380</v>
       </c>
       <c r="C167" t="s">
         <v>6</v>
       </c>
       <c r="D167" t="s">
-        <v>203</v>
+        <v>381</v>
       </c>
       <c r="E167" t="s">
         <v>21</v>
@@ -5096,16 +5088,16 @@
         <v>46056</v>
       </c>
       <c r="B168" t="s">
-        <v>204</v>
+        <v>382</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>205</v>
+        <v>383</v>
       </c>
       <c r="E168" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -5113,16 +5105,16 @@
         <v>46056</v>
       </c>
       <c r="B169" t="s">
-        <v>237</v>
+        <v>384</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
       </c>
       <c r="D169" t="s">
-        <v>238</v>
+        <v>385</v>
       </c>
       <c r="E169" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -5130,16 +5122,16 @@
         <v>46056</v>
       </c>
       <c r="B170" t="s">
-        <v>249</v>
+        <v>386</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
       </c>
       <c r="D170" t="s">
-        <v>250</v>
+        <v>387</v>
       </c>
       <c r="E170" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -5147,16 +5139,16 @@
         <v>46056</v>
       </c>
       <c r="B171" t="s">
-        <v>251</v>
+        <v>388</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
       </c>
       <c r="D171" t="s">
-        <v>252</v>
+        <v>389</v>
       </c>
       <c r="E171" t="s">
-        <v>253</v>
+        <v>390</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -5164,16 +5156,16 @@
         <v>46056</v>
       </c>
       <c r="B172" t="s">
-        <v>254</v>
+        <v>391</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>255</v>
+        <v>392</v>
       </c>
       <c r="E172" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -5181,16 +5173,16 @@
         <v>46056</v>
       </c>
       <c r="B173" t="s">
-        <v>268</v>
+        <v>393</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
       </c>
       <c r="D173" t="s">
-        <v>269</v>
+        <v>394</v>
       </c>
       <c r="E173" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -5198,16 +5190,16 @@
         <v>46056</v>
       </c>
       <c r="B174" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="C174" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D174" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
       <c r="E174" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -5215,16 +5207,16 @@
         <v>46056</v>
       </c>
       <c r="B175" t="s">
-        <v>278</v>
+        <v>397</v>
       </c>
       <c r="C175" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D175" t="s">
-        <v>279</v>
+        <v>398</v>
       </c>
       <c r="E175" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -5232,16 +5224,16 @@
         <v>46056</v>
       </c>
       <c r="B176" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="C176" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D176" t="s">
-        <v>305</v>
+        <v>400</v>
       </c>
       <c r="E176" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -5249,13 +5241,13 @@
         <v>46056</v>
       </c>
       <c r="B177" t="s">
-        <v>308</v>
+        <v>401</v>
       </c>
       <c r="C177" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D177" t="s">
-        <v>309</v>
+        <v>402</v>
       </c>
       <c r="E177" t="s">
         <v>31</v>
@@ -5266,16 +5258,16 @@
         <v>46056</v>
       </c>
       <c r="B178" t="s">
-        <v>310</v>
+        <v>403</v>
       </c>
       <c r="C178" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D178" t="s">
-        <v>311</v>
+        <v>404</v>
       </c>
       <c r="E178" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -5283,16 +5275,16 @@
         <v>46056</v>
       </c>
       <c r="B179" t="s">
-        <v>314</v>
+        <v>405</v>
       </c>
       <c r="C179" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D179" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="E179" t="s">
-        <v>316</v>
+        <v>407</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -5300,13 +5292,13 @@
         <v>46056</v>
       </c>
       <c r="B180" t="s">
-        <v>346</v>
+        <v>408</v>
       </c>
       <c r="C180" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D180" t="s">
-        <v>347</v>
+        <v>409</v>
       </c>
       <c r="E180" t="s">
         <v>15</v>
@@ -5317,16 +5309,16 @@
         <v>46056</v>
       </c>
       <c r="B181" t="s">
-        <v>348</v>
+        <v>410</v>
       </c>
       <c r="C181" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D181" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="E181" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -5334,13 +5326,13 @@
         <v>46056</v>
       </c>
       <c r="B182" t="s">
-        <v>353</v>
+        <v>413</v>
       </c>
       <c r="C182" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D182" t="s">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="E182" t="s">
         <v>21</v>
@@ -5351,13 +5343,13 @@
         <v>46056</v>
       </c>
       <c r="B183" t="s">
-        <v>369</v>
+        <v>415</v>
       </c>
       <c r="C183" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D183" t="s">
-        <v>370</v>
+        <v>416</v>
       </c>
       <c r="E183" t="s">
         <v>31</v>
@@ -5368,13 +5360,13 @@
         <v>46056</v>
       </c>
       <c r="B184" t="s">
-        <v>371</v>
+        <v>417</v>
       </c>
       <c r="C184" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D184" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="E184" t="s">
         <v>31</v>
@@ -5385,13 +5377,13 @@
         <v>46056</v>
       </c>
       <c r="B185" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="C185" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D185" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="E185" t="s">
         <v>31</v>
@@ -5402,16 +5394,16 @@
         <v>46056</v>
       </c>
       <c r="B186" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="C186" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D186" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="E186" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -5419,16 +5411,16 @@
         <v>46056</v>
       </c>
       <c r="B187" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="C187" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D187" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="E187" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -5436,16 +5428,16 @@
         <v>46056</v>
       </c>
       <c r="B188" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="C188" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D188" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="E188" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -5453,16 +5445,16 @@
         <v>46056</v>
       </c>
       <c r="B189" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="C189" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D189" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="E189" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -5470,16 +5462,16 @@
         <v>46056</v>
       </c>
       <c r="B190" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="C190" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D190" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="E190" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -5487,16 +5479,16 @@
         <v>46056</v>
       </c>
       <c r="B191" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="C191" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D191" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="E191" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -5504,16 +5496,16 @@
         <v>46056</v>
       </c>
       <c r="B192" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="C192" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D192" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="E192" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -5521,16 +5513,16 @@
         <v>46056</v>
       </c>
       <c r="B193" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="C193" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D193" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="E193" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -5538,16 +5530,16 @@
         <v>46056</v>
       </c>
       <c r="B194" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="C194" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D194" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="E194" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -5555,16 +5547,16 @@
         <v>46056</v>
       </c>
       <c r="B195" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="C195" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D195" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="E195" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -5572,16 +5564,16 @@
         <v>46056</v>
       </c>
       <c r="B196" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="C196" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D196" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="E196" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -5589,16 +5581,16 @@
         <v>46056</v>
       </c>
       <c r="B197" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="C197" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D197" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="E197" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -5606,16 +5598,16 @@
         <v>46056</v>
       </c>
       <c r="B198" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="C198" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D198" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="E198" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -5623,16 +5615,16 @@
         <v>46056</v>
       </c>
       <c r="B199" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C199" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D199" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="E199" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -5640,16 +5632,16 @@
         <v>46056</v>
       </c>
       <c r="B200" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="C200" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D200" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="E200" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -5657,16 +5649,16 @@
         <v>46056</v>
       </c>
       <c r="B201" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C201" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D201" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E201" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -5674,16 +5666,16 @@
         <v>46056</v>
       </c>
       <c r="B202" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C202" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D202" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E202" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -5694,13 +5686,13 @@
         <v>455</v>
       </c>
       <c r="C203" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D203" t="s">
         <v>456</v>
       </c>
       <c r="E203" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -5711,21 +5703,16 @@
         <v>457</v>
       </c>
       <c r="C204" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="D204" t="s">
         <v>458</v>
       </c>
       <c r="E204" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E204" xr:uid="{D6F7D5D6-FAFA-4C0F-BC6F-B783DD2F90A9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E204">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/noticias_dap.xlsx
+++ b/noticias_dap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\DAP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{393956A7-CA2B-4A0E-9F95-943EC7B174B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBE529BE-ECE8-4ACA-87DD-ED94AA188052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED4E40BA-07C4-42D1-94BD-01558BA1EFC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AFF59C4B-3A27-466E-81FC-888D43418794}"/>
   </bookViews>
   <sheets>
     <sheet name="noticias_dap" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="888">
   <si>
     <t>fecha</t>
   </si>
@@ -1397,6 +1397,1293 @@
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMinAFBVV95cUxPSjdFb0ZaMHRoUHZEV2lHN2ZUbVFrWldUazI1RV82THZRQWVUUVRtenktcmQyeXRnYld4YUlfc3RYU1FjT2ZKUTZmQkRaQW5MSHRVb3ZtTFRzWmVGUVdubm5Xa2ppV1pKdEw5QmdTTnVQdHVSTVE4MUpHbEVyOWlISkZKc1VtbDhqdVVFNV95dnBNQW4wRGFlTkg0Umo?oc=5</t>
+  </si>
+  <si>
+    <t>Cinco estados estarían considerando eliminar impuestos para los propietarios de casas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxQdDdielQyN1FQbFJ5dGtmWk53Uml2Q2NXakVJWHZ3dHl1Zjkwa1ZWSUdVY01JNGRSNXJNMEVMMlozRFFuTDZ6TjhqZ0E5Y1FyN3RrVDRXM29vYjhXczFsNjJ0bVQ3MW1NamRyTzJ6YmlrZ0ppTTJCd3owMk01dVh6aEZUYmhLYnIzREQteDVqcmp3NUtXWEI4OEt4Um9Vc0lRZnRES3d6WXc1SnZIcC1mcVhqODVCRnR6YUJoR2FrSXNSTVJOOVJxRHRrdzg1SExJbVlsU0tqMFMyU0HSAeABQVVfeXFMUDIxODJ1RUllQ0JoWW1DekVQc2t2Zl9zSGRlTk1pNGxEN21JRjE5dVN3aTNWZkJwaVBja0RSNElzbU1GRzRYOVBkdm9Ma2dLTjlKWjhOaGxPZWdsVWo0bFVkcDU3czFTUHVCcURNazFlb0l5Z1JtcjRKc2FyLS13TGE2Q2J6VWhqZWZSc05OR0YwY1R3d244SVRIT0NWYndXX1N5NUxsRDBLd1RrQ0hBamlMd25KVTN2SXJsR2ppSHpBZDVIWkFVV09JUUxCNFFKckpJZlJjSWgtQjFUR2xGNFY?oc=5</t>
+  </si>
+  <si>
+    <t>México reunirá a expertos para impulsar la movilidad sostenible en América Latina</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxPZGhkY0JEckpxX25rTDBTSkZ3TnhnSENsbnpVYTRTa01VRVF3TnFDdUxEZXdTS01RVjZmTXhCVExHbkNOUHhidlY0QV9XVmlIYnQzbmdnMUxfY2hVMDFMeW01NDZtdTktY2RxVkk1UzdZT2g2cW5rREFlck1zcGM1NExFa2lXLVJYWmtCdUlUbEhtYkJ5NGZEZnVJSFhvc2FIRWFPTmYzT1JiRk93Y24xWm0tOWphYlNTaEdoX3pfRGg4alJwWERj?oc=5</t>
+  </si>
+  <si>
+    <t>ANPACT, AMAM y WRI México convocan al Foro Latinoamericano para fortalecer políticas públicas de movilidad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxOTmszYlFDLUhVTEF2SVpnWkM5eDF5VWxkSXFlVlVYOWhPVGZWTXVHd2N6bE9US1M2QVhnd2l2VWx5STJwVjZZZjVncHBEWFhEUGxNY2JJbFhyNlk4cnZKaFNZOTRYeHVZVjRZeldZZlJ1SGFXUy1VLUJjMHhVc2l5NEhwNTVIWEg1N205T1drWGR2UXVudWl1Qjc4Q1JzNjMtNDYyQmIxc1hGS0oxa0tpVUVWRHd5dHAzc2RXYzk0UDE5aTFTMHJOc2RKb0VuenRQbHVqUDFIYmRfdw?oc=5</t>
+  </si>
+  <si>
+    <t>Refuerzan estrategia de seguridad en Sinaloa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxQLUwtVERPa21fOURrekdGWHBXR2xEOFhNZUNkTHBNeFVSM3RCNDByR1FfOS0xRGpUVW16NGZuQ2hmM1JzU29kNnp4RXM3VkF0MTdIMDQ4LXBUblVRTlo0amZnSmpIS2p0R2dQQ1RURGhrS1BsQ2FNUzNYMlE0S3ktQdIBhgFBVV95cUxOR3plakJ6V1hCWS10RlEwYmJSa2JyMnlJd1JXZDZONTIwME1pdEl0dUpzRnlTQlUwZEVjQURsSk9WeVZ1NEhzQlpSblNCTXN5c3Jrb191RFBVblpzWHBod2dtQWVCNk1XQURBSTctM1d6SWJqcVVXRG9wZUNrejE0TzJEb0t1UQ?oc=5</t>
+  </si>
+  <si>
+    <t>Tras asesinato de la tía y prima de Mario Delgado en Colima, gobernadora designa a nuevo secretario de Seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihwJBVV95cUxQMnNzLWxhUEp5Y1Jzb0h3YWJEWXE2UTIwZ0ZFUEh1QXRnQkxlYWlqaU1uNmF3X05mMjVRS0pyUmtlTW9BRWVQY201eW1WN21QOTFVbHMzdmJYdHJqNWN2ZklPaXliSDdYa1owQ3hjSkV5WUU1ZjgtcWVHbXBRMUNHam01Z0xiV1ZlR0ZiR21ESnpOeTZhMlljczZ6RVI0bUczTWdpNGg4QnpwQUl6Q3VQMlNqTEZCejJMd2tRU1BFMi1Gd0JJWGs3UWpab2d1aGdGWXBwNmRVT1g0RVNmTkRBb0JDam96LVdES3hDUWtFVW9lSkFtbmNmMTJpcEtDN3BEclllMV9QZ9IBmwJBVV95cUxOTXV4TVd2dXQzV3kyUFh0WmhaRFZMTWpxNnpIdm1CbjZoTmduY2ZWWm1PZVlqbGw5MzJnYkRuVTk5X3dkdG91QU0wUElRNkMxajN2d2dNb0NmNWRqb0tMNWpwUl8tS3RRdjJJV1I1bEpubjFzTzdFQUphLXkwRGNnU0llOXJXR1NxdWpUQ1BsbjNUSFd4dHlKMDVtYzhKaEtUMXYxWnV0eXVnS1NyNmlBQXJwcTZ3WGljUHV5amFLWXp2dC1hYm9wOXdEUllLTTVxVWo2TDR4WklrLTV2NFhTNnAwWmxJX3FqVzhHMFBVaTV6dzFHejhaaVZaRnl2S1pRWnl6dndaREhiekhkSmJNbnRhcjNWTnBmR1JF?oc=5</t>
+  </si>
+  <si>
+    <t>Rubén Rocha Moya y Omar García Harfuch se reúnen en Sinaloa para revisar la estrategia de seguridad ante hechos recientes de violencia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAJBVV95cUxQbkVMUGI4c0xPbXlCNmU1YWtrNllCSW1pbTZfeHlxVjF1b2RySHhtNEk1bG4tTi1FUHZSQ3ZfbExzR050SFdDVHV5WGg2eXJidDR4Q0NiQnlqOHJOZHJWVlZMb3FXQTVpMEJlOWI4bXlmZXA1bGM3ZExLNnp6dThOb3FYa09kakdWWDZiYUhwUXVEa0I0aWU3SFhJbjQ1d0pJX3RkajhraU9xMldub0lfamFOS0h1NmRSZWIxX3FJVHIxMk5tcTVLMmdRcDNRX29RNWlYZU1VamY5d3lCbFk5SjB2aWVkQXJ0NnZxeXRSRVFvN1pxd1hmX3pxcVVNekczYy16TWxoOWjSAaMCQVVfeXFMUDhHVXdCRHRCa3dhVHB3algzcFhoQ0tKRVdfcFZhRGd3U0QzQlIweVl0LVJlUVMzLUY1YkFFa09BN3hBVk1CaEpva0JodUZBSkxGVVA1ZXl5eWxELWJMYXNwMEhUeGlTWmxVcXQ4WENuNk9yUlY4Z2MwZXV5SHBVV3dFM1NBZFhnb2FaQVhfdGVVcEE5dlJTVkd1bzBWNTBENkxvby1lbUNQR3M5UzVaVDVGTUVaODUtQnB6OVp5YUs1T1RYaFpOYVlpVEwzWkpYSXFiZkk1elpQTDlwQklaMDAtRGY4OWJ6ajVhaW02VWZvcmVpaW4xQnp3U1ctOWNBdmp0eTI2YV9UZmlHeDI5RVc2bEV4M3daTmwtTURldUVHby1R?oc=5</t>
+  </si>
+  <si>
+    <t>Vinculan a proceso al ex director de Adquisiciones del Ayuntamiento de Tala por comprar cemento más caro</t>
+  </si>
+  <si>
+    <t>cemento</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxNUjhsd0hsTlNXQzFQaVJ5WkRNelZGM3RSU1NoV2NTaEQwUHRmU0JpOVhyb0J1eWp1eWROMnBXa0RMbUloYnZLTmNuM0RYSmhyYmNMcGpXd1o1ZG94TkZtWDdiVTVORGFHaHpRYkM5dXE5aWNiUzJ4OHdCdE05V3IxdG5rR3hnTFFhMWR6MUNJTEp3YktGd2pzbkwzYktUOGl5cW5yYlVpRDUwYXZNRmh2RHBOYjZTRE9Sd0Juc0lRLTd3Uk1rRkJQRVBoS3g0cVBvZmlSR1FtRktqTDhyYW5KZWVnN1pkLURmNGl3?oc=5</t>
+  </si>
+  <si>
+    <t>Alphabet supera expectativas y aumentará su gasto en IA</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxNUUlZWXpjUWNMWUNfV2RVR3dtYjZQTFVpcGR2WXppTmZYOGtXZnpsMFlYbjB2OVhiX1NWVDJOLTdhb3pidmlKTkZ1U1VtNFB2MGw3aVdpTmhINW1NandkZUF5Y3pIcHYtM0E4NHhFMG1UWXVodUVUQmloQk9UT2ZIYml0NXVJLVVRUEhmQUtvRTJJR296SXRKbkhIZy1hWmpncUVBdl9GMzc3NUQyeEHSAbMBQVVfeXFMTWlfT05PdWdqSllTQ0J3ZmN5ZENkUTAyT1FPYXhRd2p2NVhEOG1YRC0ybkhmLU5CbDBuSlVCR0JzNHo2ak9GRXlzUnU3Z2dtNVgweFM5OGE1RV91aDVpLVRBb2phUXlKU21CSXhnb0JiSldRWkpzTFA5TF84NGhDcTJCOGZhYVZCMmNZYk9qTVVqTXYteUZwTlNFN0JOZUpJZVJibmVhTnpXWVlCZ2dtcVI2S00?oc=5</t>
+  </si>
+  <si>
+    <t>Víctor Hugo Romo propone Constancia de Seguridad de Instalación de Gas en viviendas, hospitales, escuelas y negocios</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijAJBVV95cUxNUG5NRTUySEF4OTdCVDQ4Wl9UZ29SMmZYbk12c29kY2RYY2x3WHdWRmR1YnFZY0xMbjk2dTFOUzVZYk5RbjdiV19CWkRCRElyMEY3d2xXYmlZRF9nQzA3aEptUkM2b1RPNWVUSVVlTjRkaTgtZVBCZDBibHFrQTVjZUJuanJscmZDZ2lJYk12RGZJcEJnUmp5MnVVcEFXN3R1bWlPVUozN0dvUkZ5a3dYU29YLTdJc1R5MDVpYVdtSlFlWl9UXzdfNGZkR2lLODZqMTd5c2stOUZ2RXB4dVA4SVNNUXdtZkdkSnI2NWh1Q25oMHd1ZnhmYW5JLVVhcEFIckRsYUJVcTFXbnFq0gGgAkFVX3lxTFBFRkRLUmlBcHpZTW9ubDJkSFBsMGhhcXh4V3RoXzNLcHdGWjJxaFJYRE9lcF9EWllCNTRZd3dyakRtNGJfbFlBU05BUDhhaEFzQUJUSW1RdlZLWDhSeVFrNlNuUk1idDhweS1HV0VIVmhGYjV1ZFRXXzVlb1RiU1dIU210SFdUUjRab2FZc0I5MTE3YzdDdHdTSUtUVVYxN25hODJYemdBQkhBQVdneldjM05QMWZfNTZObEIyYm1ISm5YUnBkS011SENZLWQwVU5KQ1gxT19NYkpWNjRJdDBOUzRMeXlHay1FTjNmWEY1akNBblVxWVRZTkliNTVmX3p4eUZyUzVKWnJEWG1MWkZrYXM0Z2hocXB2SHdYUjU0MQ?oc=5</t>
+  </si>
+  <si>
+    <t>Cuánto diésel y gasolina gasta un auto</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxOb0gtMEdkZXFBS3VXUjB2RlN2dF91U19TVlpyM2dBQ19DSHlnMm9Qb2hzSDIzUWdUdkVIZzlpZzBKd3ZjZGRMajRlenR2NG5ZNUZYU2p4X2lXUkw3S1ZtOG4yNmFmaDNUS2xMQ1RqcjhkblFFWVNHWkxmeEhmaUY4YTZuS1B1bkEw0gGcAUFVX3lxTE5CZ0prdnA1ZktUdFFuXzN1dzE1cUpQbjYwdHZRNjBrNnhTVG91MGxWd1RBQk1sb2lRTWtXWUd6dW9nTEZhOGFmaUwzLWptWHFQUjZWMHhFMXVVRW5IZE9kSDlGTE40VHV3Z3pGX3A4bFBITXRhSHV4X09EeWZHUWdzLUxWNXM3SzlVVGNkSTE2RHlXelhsZHpTcjk1bw?oc=5</t>
+  </si>
+  <si>
+    <t>¿Dónde cargar gasolina más barata HOY? Precios de este jueves 5 de febrero 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0gFBVV95cUxPcnNqYWRtWGpKSWxCaUlLRm04NUhhSFl4V3RkQ09saEQ1dklCaFpJbTR2aWJHS05Xd09RaWhfNVBqMXlRZkFvb0l6b0hxckZTTS10OEh1c1dGZGlBaDhaQW1LR0xXTXAwNUtMcW9hNS0wajBiTGg2eUZUTnVDeWgyRGVpZWJ1Z1BkNDhMb2ZZZEFTRlQ3c1BOS3NRUXRtZDJ4aGxrN0FoRU0tWU1JYzBCemFuVU96b0xFeVQ5bnpvWGdWcHJvZ09SLUhzcGtadFdqRWfSAdcBQVVfeXFMTy1qTXlUSkpFRGs5OUJDZzJKSlJaeXlUVW93OE84WFJLdDFVYUlfSDdaZWtLRVZhYWdjZXpyNFNsVVRwcUlGYV9yUGtHemcxODNhdjlwdmFwTjlIQUZyM0R2VnNCZWF3MGRBYUd6WHlXS01XZ0h6TzNaOW00QTNLcWVJdE1NcjBvaWxFVUlabGttLUEwbjdQU1U2MHc2RFhkUXBrYnE2TE1Ya2JmbjZER2xmSUl6OF9QWXBpaFdtTEE3dmhmQjZuMDNhSVk2cnBDc09QSzNDdnc?oc=5</t>
+  </si>
+  <si>
+    <t>Globos con gas provocan explosión dentro de un ascensor en Mumbai</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxONVlyNmNJVWlERmI0cUF2WWhJbWp1T0hfQ083dWFhSkhsT2FGVEdPeWNFcEYtdllmTVVibFd4VTNuV2llRnB0czhqV0d5X1JHNnhhWmRGQzhiWUdlOU01VEFVbml4RE9RbXpralB5VFFvdUJBUE54ZjBSV1J1aU93dFI3dzRLRERWSnhiQjJtcEZyN1R1UVJnMEFoaEg5UlJtaGFQRQ?oc=5</t>
+  </si>
+  <si>
+    <t>Siria firmó un acuerdo histórico junto a Chevron y Qatar para crear su primer campo de petróleo y gas en alta mar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9gFBVV95cUxORmFNUkxUOWdnZTgwY2lZdkhmUjdaVWYtaGxjSG5rMEhoSWNwajN0ejFDU19SNG12TE5MQ0liMFB0cElaYW5zMXY1ODZqeVpqVE0wQjhTM19Lcy1mMEhEZmtQNjhDNU80Q21pTnlOQ1hSeEpteEZFakYtNml4RXJvdlBNOVBJM1VYN1BFaFFXclhhcFI4OTdBS0NWUUFMQ1NITk5tNGRwS2lTWUZPa0VaeU9LUl9zUHVWMXVvZjExRHlaeGdXcjVaYTFmX2ItTTlBRjk2VlY0R1p2bE5kbDZnQnI5NzVNSXVUXzhGQ0tXQ1VJcnIyZ1HSAZACQVVfeXFMUDJWQkpDRkRNZTM4OGxoQWt4ZFptcXpMNDRRb1BlSDBTTU5xems1X1hDUVJLZ1lzYktDa3ZyZkpuU1FCNzRwbTVnaDA2YUZrcmZlNXd1TWtRSnU3dDZjTWI5dnV1MDRYVV9DRHhUSFl6RGVlcWZRLTV1NkNkWWdjalpPajl2NC1aMEFJNFlIUHNoWVppZ3l0M0FOOTJyTzM0Ul96S1VOanRaSGNIV21GU2hRdzM1N205cHllX2c3Y202eWV6cjlPNkRqMkMzZXFZOWk1NDFBQ214bThzZTYtTUJpaTU2UHpBN3VYSC1telR0VnBjZlNLYkRIYXdkRHdsUjdDV2g2enoxUlc2V2JFNDg?oc=5</t>
+  </si>
+  <si>
+    <t>Bomberos controlan tras varias horas fuga de gas en la Zona Centro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxQV1FPNWUzWHpWZUljUXN1aWVqOHJZX21zWklnZ1RGU2ozTlRKU0Z4YlVOYjdSa1BFVktrQUJPMW1jU0JNenpiT2RRUk4ybnRCTkJrWXV1QkFWNTJnbks3U0ZLTTFhSHVCRnRmS0VIeTZHOHVtM1ZHbXRtMDBsM0NzeTF0Rmc0d1JzREp0am5kdTdibjFRQmU5enNEMFdNNzA0eWpBbE1sTE1IX2RiTHJwRXhtcUZ0MEdlLVUw?oc=5</t>
+  </si>
+  <si>
+    <t>Explosión de globos con gas deja dos personas heridas dentro de un elevador en Mumbai, India</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxQY1ljSHhPTkh5UlQxaGFzeE1QU1B6T0piZFpxVXFkc0ZWSWtXQjVRMTQ4X3pHc0h5Q3hqQ3VyWG1FeVJudEpmS09oYmJScUpnbGl0eHNxWWExa2hkaUF6c3lqZ3dTalc5NjNJT3hocEFzRllDRUtJRlNlUElSbnFJZGtrNzJ0QVY5LUh3dzVrdjJpYUNZTDZvRklNNE5oTkNsaXJGVlZDYUxpOXg5WWw3T05PQ1JRbzI2OHN4MG9PSkVoZzh0QmFQYVRtVW1KVHpGTkhubHU1QXpJZEk?oc=5</t>
+  </si>
+  <si>
+    <t>Estalla ducto de gasolina en Rosarito</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxNM1pfU2JzUHltdlhkQXg5Q1VGbnN6U1RGZjItVTNFUDdvWWFZcWh5QWY4Rk1RNDJVb1JqUnJVN2FLbGNMN08zUS1ubzdSWTF1M0JfWXNEbUdSczBsZ2gtVm1fOE9rQnZBMnViOGc3MGdCYzNqNVJlQnlfNW9Fem9PVXZMTDBXeGlzYWhOOUFTaExzZDjSAZgBQVVfeXFMUFhONTg0WDNUcmpKeEJqMVhUMXFNcWs0VFBocDNVeGV4WEYtaS1WaXhZdnhUTlhabWt4cXN0ZEFIbzFUdHd2bmRXLXBjZ0RpVldUSDRGTm9zZnRPZ3FmS0t1QU00eHJXbG5YeWs5aUNwczR3RTJhUVhscENISGNuS0ZmanBpU0ozb3Qzcmx4blNhLTNVRDJQbVQ?oc=5</t>
+  </si>
+  <si>
+    <t>Impuestos y aumento de precios afectan las ventas de comercios en México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxQXzBoY1AxaXFsVHdtTEY4d3JBZ2tnS2VWbnh2dGdiaV9JcnZTeG4ydm5wQjJiRzJERHVJVjV6ZHdhMkY5STRUaEdJRjZpb0FBMUt0b1phNjBnMFFXWnd5Ukt0bFh3eV9CMC1DNXJya2Noa0xQdklZZU9lNWJWUXJoWmpvcmxCeFEtbEdOOTVIU2YzcVNzalVuMnhEeWtyYWsyR3hLNnctdmdodWtJRHRsTWtfa0VZZEY5SXFnd2o1R3ZzNE0?oc=5</t>
+  </si>
+  <si>
+    <t>Impuestos y cárcel: ¿En qué casos tus obligaciones con las autoridades te ponen en riesgo?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxNdHgyV2U2ZEUzU1EzM1I0clZqVmI3YlNIbGg5VFhSc2sxM21sbmhYMHdXWEhDTGQ0dWtweURYV2FzNmJYbzhQTTJ2bTRQSXV1TlhkUk4teGREcy1Ca1g3RUg4a0x1RVZJbThDeXZLaUtlLXdaX1dwMXVUa3BKLVFhRjlETG1kdF9laXRRb0N1OU1tQTVscTFHMU1sMXViTTlrUDFQSlpyQ0tmbVZyQThN?oc=5</t>
+  </si>
+  <si>
+    <t>SAT: esta es la cantidad de impuestos que tendrás que pagar si recibes depósitos de 50,000 pesos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxNeHMyZ09pX0FLWWkyZ3c3VkduVWhvWUZRdEdab1JIY3dwRzh1Tk82My1Ib2pMaDFDcTMyWXpOQkN3dkQ2X28yUjFDSlFFbWZBcU5GQ3hZSmxPSTZRUWVxU3FYOVZ6WWxfWk10UlFvRUIxb203X0h6TW92RF9TU0NNN0ZScEdnenZhTXhkMHA1c3pCUnhoOUY0Nk0tN3Z6ZEF5TWxkTDdaaGl2aHJZeVRjdURKSUVBZ2Y5eFdwZ2VpUzdvYmJjaVNTRHdRU3ZhSExKZHZoZ0RYT2tud2hNVUxtcF9nQjBmdWFzbUlV0gHwAUFVX3lxTFBheHlXa2t6Sl9ab1c5Y1lTMEpZV3VxMVVrc1M5UFo3UjRXSjR4RVBrTW9TbVZ5eC1wcWRDTkdYUVQ3ZFp1cVowTmQwX28tbjFEdlZOb2N0aU5QSDJYT2JlTW1pMlVGSEFuN2JtelNMWTR0RlpCbWFXWDJNeDJwcDVySFBKejdGcDVFaENISGNrb2hNdW5RSzB5dy1PWTBSV0NJalk0Y0pESkkxakw3RUpET0k5cW5BWFk4ck5rVGVub0JWU0tBdnoza3VicmpoTEJNRmRCOGljbzIyNU8yUUhwV3lndkFtZEp3RkVyT3EyVg?oc=5</t>
+  </si>
+  <si>
+    <t>BP gana a Hacienda en los tribunales y logra que le reconozcan la devolución de 123 millones por impuestos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8wFBVV95cUxPN2lYaFVDaEdzaVRycTVtb0NLT29pNGhQS2ZRQVFNeGpsd1ZUSDRRTzNqQkFuUmpSWk9DQnp2WDRKdW5STndiOGhISW1iSm1jTlF5SmY0WTgxNThGMGtqLXBLSTBPdUc3bl9tZ0hrWTRDNTZoUmpUaVhtVHVtS2V0R3l1djVkNV80SEtUNDlQbEV0cWNEa3JndUJaOTFzY2ZCYjFnQmdNdDJhQ0t4cEN1WHAwRGpUb2VsTlVZNk9LVmJwcHY3V1ljNmFESGE5cWZaT1c0SXJiN3lsYkxLMUx3d3BTZkZlME9pY3NRUnhEYnZBVUHSAYcCQVVfeXFMTnZOUUVIc0lxYm5idmZQcE1CLXRGNkE3VG9LOUNLUU95OVhkSkVKTnpWajZaeGw1c2pzRUM1ekJVS0lJc1l2aHJlZVFYdkRNd0d6ekxaRk1pN2JLVHFRX0xDXzFFTG1reUdQTXAzemQ5bEoyY1lYSE1Rcm96UXc0ZlIwTDJJaU9wa0hTdWM4SU0tcHZlYTNVOHNZS2FJd2Y0a2VlYzA1Zlh1b2dSX0E4TmlIQ0RYemhTdTdfbEFDM0NuWkxENTdCNEplYU5WVzhSTWl1Zjg2LXFnaXBWUUN5ZnlBYVExb1BmT2dTS3RmNVEzZU51dGZvOGtSaDBscnRzRkw1emV2MnM?oc=5</t>
+  </si>
+  <si>
+    <t>Cinco Días</t>
+  </si>
+  <si>
+    <t>OnStar alcanza 300 mil vehículos conectados en México y consolida su liderazgo en movilidad inteligente</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_wFBVV95cUxPMEpfdHRhaVZLWTE2MXNtbl9RT1FMQ01KS2d3b1NzOTdZTUgyaWN0ZVB1OTJLXzNsSllFY3I4VGU5dVFOMnBIeE5xU1hyQVI2RkxUbVZtbDd5amFqLUNtS3U1cGx6Z24xVzdZZmtlZzhOQ1NDZ3pIT3lHSl9PMi1HSHVjUUVCTnJpV3ZXU01fa1p2YWo3V0p6YnFiUnJXMlpvaHE0M3V5Z1dfY3BzclFZczRiT0hxeVhmSmh1RHA3N0JoSWNSZUNfVzgyaEtsMWpqUWczazFRdDJPcGEtNWVMQzhPcDJtNVRlY2ltWUktT3BsSndjeVJrOTZoSHhHQTQ?oc=5</t>
+  </si>
+  <si>
+    <t>Alistan foro latinoamericano para fortalecer decisiones en materia de movilidad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxOZWxOc3dHMlJLZllUamtYSXNKR2hVcVRfU2NEczRCeTZnZlE3U0tHbEhNRVZVTVlhbWt6QVd0VWdaV0c5V1pIdXUxaW8wRjNQLXpsYkJzYlllYUR4UFBEWk5nTnB3clR1TC1zc2o3Q0YwQmI1eDVHSE55ZmtVM2hJR0lfODhBX2RKaEdqLUpNS3dhcVRUMm1lTVBVUzllbkI4?oc=5</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>Movilidad Mejora en Querétaro Pese a Obras del Tren México–Querétaro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxNN0xMT3g2WEJ4R2ZPYkdiSWVhQ3B0bnhDaERZVmFCZlFfdjl0QklnSWJVQXM5bWxrWDNTMlRGMlE1QURuMTVzV1RzWExad1JmTWNHN19raWRtTWJDRTFCWWRXaDZ4VWhfT3BFclN1X2FWNGEtX0NfekF1U3gtWXhscGNwcXp1b1M5N05XV1lvSVkxdmJzbUF6dDZZdlhMc2NZbXAxSXYyN2hwMWJ6NlRTNHZXUVplVkEzWW95VExzZHNlcDB4VTZQcjB2cDJoMW8?oc=5</t>
+  </si>
+  <si>
+    <t>Importancia de la seguridad para atraer proyectos de inversión</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxPRVVsd3I5V2J1Vk0zdkFTUHFNNDBKZ0ZiZ2RaYV9VS1lsSlowdlZPcUQ0QUhydEV0emFiUndCRFc3QWt2X09wbUhPcHhOSUJzTHRDY2xyd2pjaE9NSUZueHlJLW81MnNEQTNnTXVIc21jWm04dm90dU5EY2NNcXJNX1ItVHBGQVFFYmhVUXBSR3F4eDRIZ1V0Ymd4blJFbzBVY3NNYndmVEpTanZrR3fSAbMBQVVfeXFMT0MzRmQtNmtyOFN0ZVV1RnQtNE5aRktqRUJhWmtPeFNoN0Q3WjU4RXJMNFhkY3VjMnpZdWxlaGR1RG80VEd5Mm03bGdHVkNEaGNVeVZIMW16VTlaWnRmaHNMY3RnRnNEeDljcWJyWHNaeEF3RnZ2a3RIVUREa3E1bmR0UkxwN2Y2bzA1OElLUk5abzVSN2Roa2Z3OXI3X0ZiRjNoX1hHOXdXcEVoalo2NWp5NVU?oc=5</t>
+  </si>
+  <si>
+    <t>Analizan estrategia de seguridad para Sinaloa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiggFBVV95cUxOWkhhZWpTMEtKaVQ0OFFPSDBFT0RRRUZ2OWVHOF91MnhQZXhEYzY5dWo1eWw3M1dfOGZOZW10U0x5b1NKd3M5SzA5YURVdWRscUxsV1hnSEdMT19qeEhOZWpqT1B4eXJKUDRSRHFDbDVqUGVLMGVnVzRYSWZBYU1nNEl30gGHAUFVX3lxTE0wYzFsdDBtdHVxUTI5ZGpEdUgxN1hiNnM3Ul9ZWkN4a3Q5Wm5SMTV4akhCZVJOV0ExeU1VTTBPbElRTWlwcTNxQWEwZVNvV1J2cUMzSFRjVklYRVlnY2lZSURGa29qczdxQUlWbnFTOTNLMmdMalRxQ09RVEpZaFg5SXpFNmVaQQ?oc=5</t>
+  </si>
+  <si>
+    <t>IMSS Bienestar atiende casos de cáncer en población sin seguridad social</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxOVHdQWV9yR3lvcGNJOFJNU3VCRUNXUkFXRl82NkRfbUY4Ti10N09iOHhmM3d3RnJLem1GRVNkY2tWeE53WUhock1BMV85T0tNNFRhcG1mUVoxNUFKUTc0bWY3SVJyYldEZVlRbmpVVlBXVk9uMGF4b3c1cXE1Y2VUenExOEdIZHZ2Z2lMM2NMcFFZNktXYThyWHVzajhOSmNvcmJQelNB0gGrAUFVX3lxTE5QajNySHNZRk8xSVpiQVNWbEE4TDhfRlpaWmR0NHUzdURnZkJZWG1RbmQxcGlnY1pJRHlrR0FoZHNZRVB2cnozMWhmSl9XT2NRUFE0QlVhZzVyTkZFRm9iRjF0dlk5N2lQbEJnT3M1VEpFd0ZtVFF4aFBkdjZZa3Iwcmtuam1vZHF1cXE1UEZIcWtMa0tNaFEwWFJxalotZkRJNGpNWHp2OUgyRQ?oc=5</t>
+  </si>
+  <si>
+    <t>Envían policías a Tequila para reforzar seguridad tras detención de alcalde</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxOTUFTcnF1OUFnZDZidmg3cU4xWG5yWnBkZXhGWGtHMUdUMERpR0ZFeFN2TTUwMVJ3R3BnWlZyVWVZVHhYMkN1V0oybEZLRGtiMkpNdjFkT21fZzFXZWVDaXNPSUlveHlvaDB1UWU5MGl3NzFHWlgyazJubUkteElkYURvd2tPUXpoWGlvbHRaVEdrdGxpYlJWeHFEdEl1XzQ?oc=5</t>
+  </si>
+  <si>
+    <t>Tras captura de edil de Jalisco, policía estatal tomará control de la seguridad en Tequila</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiwJBVV95cUxNQzRwR21yd0l5SXh0YUF3QmIwMmVBZTZPejJDODJHcDhTY0VSSFpLekhoem80VlhsbVQ3ME9YV0haZkRBSDhnSU1zRkdySVc0a1V5VTVaXzBGZU1CSXZCWm02N3h4WVBPSlAyUGVSRWw1YmFPQk5SZ0lvWjA4d25FSVJTQ19adTFqUWpGNzFTX1dCeTF2a29PZ0p4N044VXluZzBzQnU1SHFwUU5kdHBGQjNIUmR4R3dpcmcwdllqd0k4RUJVR0tOV2NLLU5RX0pqalR1LWo1TlRrQXYwN1ZKWjJ0eWtnbTN4SEZocUZ6WFRTUVAzZDBDZUpWZVoxV01HaGlDa0Z3aWM2QmvSAZ8CQVVfeXFMT1J0bFM1RkZyX0tlemtIUkJhNUQ4Yl9PVDZSN3NwNmFPLWtlZHg3cmpMSzhKaGlueS1adUpvXzZfSHBKNFZuQTBoSVN3ZVgwTlMzQnFhX3hjMmthbl9XLXR4QkYwUEFxamw3dHByNUpIa1dwZ1dWdXZld01uOTBMYTNMSG9OeS1sdmlYNkhjRTZXYzcwMjY3QUtGU3d5V0VyZTBFZHdNU21hTVBRcmxSbDg3d21QMjFUYXRPVzdyWERCTFdnMjlxNXRtV0VWRE9qQXZJeTktMjBTTHEwd2ZPRldnSDY0cjN4bV83NTJhaDV2VmtNT3QzVk95X0RJMlkxanZOUVFLUVpKdi1mckRDUGxNM25RUmN4cFV1TTZ3VWs?oc=5</t>
+  </si>
+  <si>
+    <t>Prioridad dar seguridad a Tequila, asegura Pablo Lemus, gobernador de Jalisco</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxQWUJIMmxfcThWT3owV09JMmpobjlGbm9SMnJVZjNVTTh3eFduVDhnQ211M2poTzRGYmdmR3VvVGx4TjFJTnZaR1pxRFp1djVYbjZRcFlYV1o5SkpKc1hHSnlaYUs4eHVodllJbGw2a3VVQkVUZ0ZySUZJbDM3OUNTc3NZanM0VTlDTk1uVzc3Qk4wdEhSZnltYnZNYjZLU2J1cnhhMXJGZi13ZUIwRkxjWVNDclR4OVJsS3RJemhobDB5VnlvU0pkWDBwSVo2Mk3SAdQBQVVfeXFMTWw1WFN3cTBVa0Y5Y3R5am5KalZEVHNEZU1Bd0MwenA3cjdTU0NlQl9PemZkT1JvN1pWWDVHcW9UUDhVWV9VcWlYTUZySTN2RC0wendCNi1mUHVzaVNhVm5pQl8wTm1RMlNMVUdubzBZQmZKUEUtWExJUDRIUTIzUnpDalRUSFh4MW5CUl9TcGh5d3dxdk5IcFZIWTNKMTIxUmFZVVJHMWtqQ2YxU0loZUlrNFpYRjlSZnlSQTZLTDFKRTdFS0dQNHh3Q0ZVNS1QMTk0OE4?oc=5</t>
+  </si>
+  <si>
+    <t>Viajar en El Insurgente: usuarios reconocen rapidez y seguridad, pero fallan máquinas de recarga y escaleras</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMifkFVX3lxTE9nWG5jU2poeDVvX1BuU1BrRWZCenloeWZpcHN2UGJXMXJJdW5VTkFsc0w4aHNnUzdpQnB2YVkwZ1F4N08yNGc0WEJsbUprcFdlNDNZNTdXdkNjai1QbGxkUmd6ZnF1eFZFQlEtU0pXelplTWRxNEFaRG5ySGZpQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Seguridad desmiente imágenes difundidas sobre operativo de captura del alcalde de Tequila, Jalisco</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxQanRMUFNZTkJRd2hkOGtjWEkwa1RGeDk5LVByVVFTVmtjNWZGNlRsdkRqREtVUjI2TWF1V18ta1NFaDQwT0gxbldSMkd1eFVUVnpNcUdiWWQ1Y3JaQkhKa1Y4SG5PQmFQYmZLczR6aXRiakFWR3ZDMGRadmNsazZPNzQxSjN5YlMxWDBLR2ZkOV9YeWdnRXlTMVI1WWJBQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Descartan ingobernabilidad en Tequila, Jalisco, tras detención de alcalde; Policía Estatal asume seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxQTm5QWE1paVBZbFQwaWFKU1BUVENaOXVuR19GNUpTd25YM3R4NllHaFUwejRUc2ZBSno5cUl3VS1KdVdfMU5OQnZaUnJjcWdZSlR3V1NkWEpRVEZjVGtMZTVxZC1hQ1g0ZjljZWdOa08zUmtEcU9LMWhia18zT3JZUTNBRlRpUGVqSHpYbUtzekM3enQyeG9ZeUVGbWVfMS0xVmo1dUNB?oc=5</t>
+  </si>
+  <si>
+    <t>“La inseguridad es un riesgo permanente”: sector minero exige acción del Estado por desaparición de 10 trabajadores en Sinaloa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxNU2lURnFLREVBVFYtR2tDQ3M1V2t3WFd1UjFWM3U5dWFPdmZuV1VCQk5xVlpjQ1N2MUlZcXYwQmp5eldXOERmOFg1c0tzV09KOHF0aDVZenFmdkM4ZzdFQm9laHZyUTVwVzRrN1BKQTQ3WXNkLWl1Z3JNQ29qdzNwcEZaS05CZXN2TUVjMmVyenNaT3hHNFJpNnY3Vkc5SWoy?oc=5</t>
+  </si>
+  <si>
+    <t>Rumbo a una nueva gobernanza democrática por la seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxOMkFLWXNEaWY0UkcyS3VhVFp5RlpGWlpPb0dMbm9pbm9vS1dQQUl3N2c4VmgyWUJjRmxkanM0ZGZFeXVqUEMtTHRPNkRQVWpUZlBwSnNsRjZibm9GbHFtOW0yejh5NzdkQ19NMXpXVFFVTUwwdHNDcDUxSVFkc1J1b2pEbVdEclpldFhFVHNZbjZrZ1dxS09zeGJwQmNURDlnUlZvdWVqa9IBtAFBVV95cUxOYnlsYy1Mc2NIbjAxU3J2bWRCS2kyamZjSllFLTN1T3psRXQ5UDRha0Fjd0JqNVR3RFdSdV9FbGl6V0VUVkpTN2loXzZMYmNuZDlHM3Q5alRNSGJiLUpCbGN6NHhzYVgxcV8tbnExYnNmZWxUNVk4NlZGWmNxN1BnaUx5Si1hVEJqS2tjSTRBazlxdzhnWTNpcmxoNFdQMHA4V2o3TVZuZVVBRno5dGtWUThpd1A?oc=5</t>
+  </si>
+  <si>
+    <t>Policía Estatal Toma Control de la Seguridad de Tequila, Jalisco, Tras la Detención de Diego 'N'</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxQZVNIbm0xS2NOYjJVd1VVUWdpMnBhRWhDWXdIZ2tIcnBHcHZEYWdxZTBOZzRRWDlRd1o2S01tMFlSMFBiampkTjVfYkJkWnFEd3l3bnlwdTZDMVFQV0dKajdwcTNIeEdIV25ld2IwRDRCWjQ2NS1tTGxMeUVhUDV0ZmxWWGJpd2dOR2dOUFItOHdEeVB2bnVTdjBuTXRmZHAwY2sxSVJPeFY3bzZTeEotTmVTSnBvUFdYRHdQejdteDdnd0pRQ3dQUDNubUJ5UWdiT21CekltXzY?oc=5</t>
+  </si>
+  <si>
+    <t>Atacan a balazos casa de alcalde de Banderilla, Veracruz; Nahle rechaza fallas en seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxPLTlSb1NfZHJRRkFPdHdpaElsdlBOd2wtdUNGdXZETGVEd2Z1SC10VWFudGlsSDNiVmtRWUV0UFBFdHdiY2gwSTBQTThaZU1xbUR2dXk5Y1U1RDFWQ04zWWhwekNUNnc1TVlnbXc5eDNPWXdJSDBScG9hOHoxUGNCMFA5dUx0a1J6WDNtTk5qbllBY014dVlRVmstRWJIeVVLQVFjdnhQSzRDdmRMTDYzcTBLTUQ0M1V4WjdUd1JFeEtoaHJuZzFIZldTRHJQeHBzN3hVckxZSVhQbllSU2NVZ2V3QdIB6AFBVV95cUxNTWhDanhiU0xyRWZLcklEUWFObkNUc0JWWmFhMEZXZDlaTHBRZS1mWjNZdzRqY0FER1hKbHUzVE4xTW1BV2JWbEo3TlhWc0ZkdVFWTVRMaVBwcmZRa2NfUFBJTUxMcEZkY1YzVTR2R2NITVJCTVYxVEJtVW9xcGFjVjVQdHVxVW5fTGxuZHlqUU1TUlJyRG5JQTdfaE9qV1dwaFY0WjdIMTZHVDR6VGVtMExOcHhPYUNlZVJ0WHliS18zZVEzVk9HRzVHemJSTmxiSHpfV0x6T1BtWjl0NThydk9ENkt5WWJq?oc=5</t>
+  </si>
+  <si>
+    <t>El 'alfil' de Harfuch aterriza en Colima: ¿Quién es Fabián Gómez, nuevo secretario de Seguridad?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxNcVRwY2ExbzFUajUyQkJBVHNQX1dablVmMnEtWm5SZWh4Q2lyNmFRdlZVbUxidnYzd29ULVhHMFJMSEhxelFaOHFNSkNLR01DMHMwdzV5S1V6RE1WSThkUVdGVFVqYUIyXzZWLW5xTXZ2YXdUYlRrOFJaOWM2VmlhdjlXVWw3aWFHRjdsaExraWVnWkZNaVh2YVo2eWtOSlNlS3BYVlRQQVpLdTN5U0tBRFZJQnFzYWtkeElrMDV2T1FxWXdueW1Ud0dSeTBqOUpoV1FGYWtyaTFnTVI2ZFNOM1d1UFDSAeoBQVVfeXFMUGREaUhZMzRnVUltcnJCckExemg3TXl2Rk5RZVViMGc2dXZVZ1NEdmctYTVzc25aX1Nma3VJZUQ5Y0dfYmVaSDBhek9JLUxjZUV5cVFzdGJwcHQ3anZTbUdjQUxxYzUwaWpoM2hHcXB1cUpwTF9vYVEyVGtWbnQ3SW55Tmx5S1dEcWdvSGM1cldXam13S3EwUGFrN2pwVFU1bEdrUkpneG9WM2VHRnVYMzFpTzc1bVRQVFlHU184dmE0N042YjZPQVYzX1FodGlPRXM4ckxYNl9PeTZYQmdVQmpYVE14bm9YNTJ3?oc=5</t>
+  </si>
+  <si>
+    <t>En Tequila, Jalisco, analizan rectoría de Seguridad Pública</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinAFBVV95cUxPd3cwU0ZVbTdHX1k0MFhadm1xUUZUQ3kyanhVRUFzVnhUZ1pfSVdpcndCb05YTG1oQlFNMWdVeDRUQl9IN0psS1FuS1FTT0FONmtVVUo5bFpJLWpqMDNfc0VEZTN1TFNIbVlINzU1WWtyZktFSWR1QmRYdnlwd0JfbnE2LUlxLWpWdGZLaWZYOUFFdkFBcGlGN3NVVjA?oc=5</t>
+  </si>
+  <si>
+    <t>Donald Trump elogia a Nayib Bukele por su política de seguridad: “Ha sido un gran aliado de este país”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxPUGVQM2x1ZEtzMGZBenZwMTVPakVlTklZNFEzMTUxRm1tUkNjaFFwbFd1RDVlZnFNOFZVM0lyd1B6TnJzOWRCUVp0UjhnYzRxeGJna3VZWWlBQkE2SF9yVHlxNS1DS0VOWEJPMFNHbUE3S2NLN3hOZGJrX1pkY0p0TE9FcnlNYjZ4MGhlbm5ZRE5kTW5PalBOdXl2TmVKY3FxWnQ3ZEt1VTBHZ2FGa1I1Um5UdERRSl90WG4zZDhRZVBxQTJYdmZEa1U3a2w1WEVmQ2lwYW53RTNGVGx2NHRILdIB-wFBVV95cUxNekhramZvaHNnS0JBSlpNOVoxNDVyb05hQ1JIcDdXT0RiMEppVzY5c2xMX2pwbW8xdDdqcXFkV0JGX2JuVlRnOXJUTXJXOHl5V2I5Ukh3eUctMWp4djd5cFRHS2ZzWktZd0lDaFA3WHlqYkdyT1FocWpZbTFOUzJ5cWpVZXpRVmM5SVVaN2FRU1NRZFlHMUxKNzFpZENEczZ5Y2V2RnR0ZzJWdnZoLXFxOWZzZmZWU1FuOElxdHpPUXJFMlBscy1jLW1obVRpTzhsTUhxaG9mVnZrM1NGOEl0dDFZMWF4MWlyaVo2emZic3FraEpyZnZpUTBMMA?oc=5</t>
+  </si>
+  <si>
+    <t>La ONU calificó como “un momento grave para la paz y la seguridad” mundial la expiración del tratado de reducción de armas estratégicas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikAJBVV95cUxObnJrWUlHOUI1YzJMQlV4aFBndTR4bVhXMG90RzJacmxuY0YyNnB0bnJVRkFzNTdPMjVaajZ3Yi1RZ0pkcGhuZHZMeFdRRmtFMjFGYkFkNHZSVDZiVHJBMVpDMExZYVVmSXlSX1RfM1pfdll3bWNjaDdTUTA5OTJjZWEwMWFqcmVwdmJGX1NhSTlKMGFnVDFvcFlqNlBxSmdrZVhEMTNhRUdtYUE2QnpWQXlMNWdqZXZ4VVNVY0htNnd0cVFvQUYzN2RDNEFHTzZNeDB3Snh6TkwxTVFUb0F5MGMyY2RBX3I3THNnMG1tdlZteldYTW8wQ2h4TWEtUWIyM25JRnpJTzZGTXI4NVVCQdIBqwJBVV95cUxQOVlvcmw5MGp5UVBqMHJvWExRY1l5Ynd4eHo0Qm5PZDRSX1dpcDdRWm1weFJsZERYWFVvckVjUE5LVXBVZzY1clMxM3RVd2stQUdZdnFjOVFZQ2kzMmlESmk4eTlONlFNdk04QWpXNklMSkpQOC1JaTU4N0lsU0V1Yk9weDRQRFZQLTBJYmU3TXQ1blhVb05Uby1BdHpNVEQyMlU2MzlKWGNqNU1zTUtBbmg5VXNnaDd6ekVDWmNfZU9Yc0JHTDBrV3FZMVFWT2J1OFlEWFcxLVR3UGEzVV9sNG5GRjF6QmstazNCYy1fb05lc0NzUzJjRWgtc3FLU2hWdkloSkdCNUV2bVlqV3FvdTF2OE9ndkkyMzM1NmVsMG5VVUtpdUdqSE1oNA?oc=5</t>
+  </si>
+  <si>
+    <t>Las bajas médicas de menos de 15 días no generan gasto para la Seguridad Social, pero sí a las empresas: el 65% dura menos de dos semanas y las de tres días aumentan un 141%</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgJBVV95cUxOU0pYaE5EV0x1b1BNaGtacGZkMUh4MjkzVEdXYmZVY0Q5MnQ1N0Q4aEVEbzQ1ckh3QWl1MWFfQzAyelE2Y2wta2xRS2E2bFE0TFlkQ0RuSEw5Z1d3dTlObjJNaHBjb0hreW5DRGVIWG92eTRrLXZzeHllZl9rQ3Y5LWM1c1ZueWprWjU1SzhlZThwTk5kSHk1dktXcWlyVURvQ2tPNlZkSlZqd25iNWN2aERwXzkxOEhhaU1pdWZETUxTS3o0LUdvSS1XSG5ucGJuUEVOQ01kZUQ5U0g4WVhYMVZ0NThtRWVlUUVfcmd2bm52VWItSXNkTG1FTmdPXzV1UnNTT051LWxnNE5qSlJLUFEzcjNkTUg0bmpCNV9tZUprTWFjUVZfMDJDNVBtQ09Qb0hkWU1n0gHQAkFVX3lxTE5YVmZuWUYyZ0RuNlJBNVk4b195eFo4cFhKZXJaUHFhbTIyY2RJN3loRjJkZVpIcFBncWZvalRFWW40LXN3N2hjYlctWUlUQjl6RlRsRWp3bGI0R2d2UU9MdENHQjBLLXVpZ3hXcUNIT1g0NFlqVXo2dG41VEU1VVpKTF8zMTJEb1hrSElBZmNXV1BjMGlHWEFjbmhWRlk2ZXhYQUE4d3I5ODNwU0lZRnRkNnN2dUJBb2s1UEVjeWtLRVQxT0FUaFB6RlBpQy1CYW51TDFGUUhjNlhjaTBTcm8yS1VXZDg4RWlxUEM4YTFrU2k1S19hcVJQcFBNNHhEUGxsMHJUSWRTRklMbUp2ME01aUF3TV9EdUYyNmlzNGdLWHgyUUhHeHJMT3BPZTlKMHpRSmN4WEtLUHI1RFVEQm4ycnVLM3owZ0dFb0pSOE5QMg?oc=5</t>
+  </si>
+  <si>
+    <t>Maldonado Ceballos pide no politizar seguridad tras ataque a edil de Temoac</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxQVHFNUHl5VHVlR1ZtWWlsQjFfMmF2elpMUXpVbXgtOWZWSEg5RUY2UEhubDBnVk9ucGxvU1RWTVp5NFhWekZVNlpfcGVubUJLbGdjWnpYdTcyU1VJa3RLNl9CYUt3cWZxY1ppS3VSa1ZEeHJnYmEyb3NZZnhEVVkyWERHTkFpRmZ0WEJWMUk4TU82ZTFiRk9WMXYyUU5CQjdTRkRyVVpreklOdUlCWlE0WHd4bzdvcm1LcTg4eUdURVI2X0N2RnFj?oc=5</t>
+  </si>
+  <si>
+    <t>Secretaría de Seguridad del Estado se hará cargo de la vigilancia de Tequila tras detención del alcalde</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxNS1pLOU4yQ1BRMFAxRzl3cF90MW9Pa3c4ZllQZWFxeEYycWJ6cFo1aF83SkNnMjJ1OW9aUVpWd3lkOUpYbnM4M2xndjhJUU5IWWYyUF9sRHAzZDhXbUloZmpRby1lcWZJcWVvLVdYN2hPWHNKZjdrLVdIS2l5NmZ3aEJ6QzhlVVRyTlpxQzdkdVNFSzhERmRLVEU1UnUzLWFxZ1YxM0lpMDFSLUZhMHM5dURlREFYajVnQlpUSVZwNG1jZERObUV2aEUwRHh0TVZqX0VjV09Mc2hGRlN5Wjh4cUU0OFk?oc=5</t>
+  </si>
+  <si>
+    <t>Programa Camina Seguro refuerza la seguridad en Tapachula: Yamil Melgar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxOM3FLUnppWFlhRjFQaHB3aVdGZnA5aXJBYXk2Wkt4SE9EaTJKY2ZqTFcwdFNHRC1hSGRWUXBHbnRQanFDWUtnZkZ1bFl0UjRSVGFJYnRMWnA3ckpYMHpnT1JvblBYaEpGdW9KQ0NQTFZGTGZHc3NpNU9tVjU3Q0pXdUNZOFAtUTBZcU1jQlhRSjJNY0lmTTFwTXFaZ250ZDFpbE5velptQjhMb2Jwa0FCQ3duOGR1UjhX?oc=5</t>
+  </si>
+  <si>
+    <t>Diario del Sur | Noticias Locales, Policiacas, sobre México, Chiapas y el Mundo - El Sol de México</t>
+  </si>
+  <si>
+    <t>IA y videovigilancia serán clave para la seguridad del Mundial 2026: especialistas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxNcldOUUN1VzZuczU0bTBDb0syMnpXTkVMNEtyblo5YzFaSjl4a3JuRnp0eTFpZVRCMUc3UnIzbWRsWWpUc2gwNHlmQnpkeUl1MWlHeGdGTEwxYUVLVWk2SHRsN2VGY0h1dXRiVDFpcWQ5S0IyNS14VVRXb09kVHpGeENQc2xReUJ5TUlXLTNvcmhVUDM5bmFrRXRtbWd3aDNMQURJSGczMWJ4TDlnXzMycmhOelRfMUw1VFFYMkkyS081Yzh0NmpyNg?oc=5</t>
+  </si>
+  <si>
+    <t>Gobernador de Jalisco respalda detención del alcalde de Tequila y analiza intervención en seguridad municipal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9AFBVV95cUxQdklsWVozakhpQjJxa3dxYUNhbEo3emp2cGVzUExTREVIZ0JNdXFONHdTQWxoNDYza1BLdjZVSXUzbDV3bmsxMVY4bFlMN2xPeW9rS0MyVVd0cHV0Sm1iNVRFdVl6WjhYQ2NUTjZWVjJMc1VoY2dNSU15YktFU2wzbWhSbmZLRy01V3dDN0h4YloxZ2JNaEdNZk9ZdjlVWlBuUFJKNERLa2N1YmtkbXFsRS1QQnByLVpYdFhxbzQtTmItOXVHeW5BdXRzcVdtcnd1UHBiTmJmYjFLTjBJTDUwcTVnVEFZMEZuVmNDNFViMmEtQnJt?oc=5</t>
+  </si>
+  <si>
+    <t>Policía de Jalisco toma el control de la seguridad en Tequila tras captura del alcalde</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxOclRucjNwUjFkdFZqdm9TUkN2dGVMZHc3N201dGxSZmFlTHNNRFJrbWFPbnNUZ2lIbzdwUVpMSHhmdjhFXzc5LWZlc3RBTDlyZ3V0Q05ETGxRSzVKT2lFaXZYektXaXFXd1Z1enVYcTVKUGZUY3dCZHlibVQ3eGVOQ1EzcnJvSTlsTEM0d1pOOXNRN1hacVAxNzNVTnZTQXhjN3pWSTMzMmd3R2dlTXg5cmZPYnAzN29ZT3RINjRnRnpoOXROQmd1S1RDRWczOTlHencwMUVMSGM2Z01DdG5RZVZfbVFad9IB5gFBVV95cUxOclRucjNwUjFkdFZqdm9TUkN2dGVMZHc3N201dGxSZmFlTHNNRFJrbWFPbnNUZ2lIbzdwUVpMSHhmdjhFXzc5LWZlc3RBTDlyZ3V0Q05ETGxRSzVKT2lFaXZYektXaXFXd1Z1enVYcTVKUGZUY3dCZHlibVQ3eGVOQ1EzcnJvSTlsTEM0d1pOOXNRN1hacVAxNzNVTnZTQXhjN3pWSTMzMmd3R2dlTXg5cmZPYnAzN29ZT3RINjRnRnpoOXROQmd1S1RDRWczOTlHencwMUVMSGM2Z01DdG5RZVZfbVFadw?oc=5</t>
+  </si>
+  <si>
+    <t>Ante omisiones de Morena, el PRI llama a publicar el programa de seguridad nacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxNb0ZZSWZkbUQ1QjNITzlqS3NtaHVjM3dmMEM5aHNidlBQUklpWHhCM1RjU3NMb01wWWlHdlN2M2s0X2tsY0dDa0VwR1YySHFidDNRS2toM1MxcnVUb3JWMzBqVEZNdVVUZHkwSksxcUxuWEp0eXR2QVY1RXc0UHRPeEs1TzlwcHNqMnRhUHFhZU1DaUR4MEpGN2xXYXdpTE1hY0htZE1TS0dyNHpweURUM21NXzZGOVlWMXlZ?oc=5</t>
+  </si>
+  <si>
+    <t>Vértigo Político</t>
+  </si>
+  <si>
+    <t>Así será la nueva moneda de 10 pesos: diseño, materiales y medidas de seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxOdFhuQ3dEajRSeFBPVFU0aWt5N2N6Q0hyYlNZWmlraWFYTUlVN2ZJTFdWcVBIQjNfUmJJdzZnYWx2UUdTci1ZRnZDQ3R5aHczRGctRW1kQS1pVHpUVFhxUjdqUHdMTkR3bTJ5ZV9lZlJnUlYtU3AxT3BJNjBlVXFlZ3FOeEVEbzNDNFJTRDVYQ21HdkFOa1A4VFlyV2JmOXZXUC1yTC0teHh4OXA4OUVReng5MUxDQdIBtgFBVV95cUxOdFhuQ3dEajRSeFBPVFU0aWt5N2N6Q0hyYlNZWmlraWFYTUlVN2ZJTFdWcVBIQjNfUmJJdzZnYWx2UUdTci1ZRnZDQ3R5aHczRGctRW1kQS1pVHpUVFhxUjdqUHdMTkR3bTJ5ZV9lZlJnUlYtU3AxT3BJNjBlVXFlZ3FOeEVEbzNDNFJTRDVYQ21HdkFOa1A4VFlyV2JmOXZXUC1yTC0teHh4OXA4OUVReng5MUxDQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Amnistía Internacional y HRW alertan sobre militarización de seguridad y retroceso democrático en México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5wFBVV95cUxNZmh2RW1jaWVpekpJUFdPRmQxUzlRazBMaDVwUFVxVEpfNVJPTTNNM3Q1RUd1R0FHN3hFYU1iRFJsblZiai1sdXB1T2Q1UU9VU3dwdEE3R0w0VUhpMUwzYTBHRVhXSmtTOFl2RmhJVXJ5TVNMSUU0Y0pVa3JuYlBTR1BGN1VJVlVVd0ppdEVPYWh3WlFZUGVwV2FnVFRsclEzNUM2MjhFTnNHOUpUX0RGNFZBUl9rTGNsY1VpZUdEby1jdllRYUpfUWNSb2Y3aFdzSWt6RnQ1T2xlcDVMLTljY1FFRU5QVE3SAecBQVVfeXFMTWZodkVtY2llaXpKSVBXT0ZkMVM5UWswTGg1cFBVcVRKXzVST00zTTN0NUVHdUdBRzd4RWFNYkRSbG5WYmotbHVwdU9kNVFPVVN3cHRBN0dMNFVIaTFMM2EwR0VYV0prUzhZdkZoSVVyeU1TTElFNGNKVWtybmJQU0dQRjdVSVZVVXdKaXRFT2Fod1pRWVBlcFdhZ1RUbHJRMzVDNjI4RU5zRzlKVF9ERjRWQVJfa0xjbGNVaWVHRG8tY3ZZUWFKX1FjUm9mN2hXc0lrekZ0NU9sZXA1TC05Y2NRRUVOUFRN?oc=5</t>
+  </si>
+  <si>
+    <t>Jalisco asume seguridad de Tequila y revisará a la Policía Municipal</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxOOXJCN2l2V1Zick5yTXRHMy1hbFNiT2ItcS02a0g5V1R2aTVQUllDRjlXMGdzaXNRclZCa0RFc2VHUEZoZnUtVjJ4X1RaM3Jnb0xwSTdqQkxwNkhRODlZTzJ5WlNjOXFYWFFRamVOUXc1TERJT24wT2xZZEZoQnRoWlA4VGJ2TDc5YUFRWWYyYVdsaUI5VVlCVlFfck9oREVrNVNkbUI5QXM5N3dfWXRUalR6VmpsSERU0gG4AUFVX3lxTE45ckI3aXZXVmJyTnJNdEczLWFsU2JPYi1xLTZrSDlXVHZpNVBSWUNGOVcwZ3Npc1FyVkJrREVzZUdQRmhmdS1WMnhfVFozcmdvTHBJN2pCTHA2SFE4OVlPMnlaU2M5cVhYUVFqZU5RdzVMRElPbjBPbFlkRmhCdGhaUDhUYnZMNzlhQVFZZjJhV2xpQjlVWUJWUV9yT2hERWs1U2RtQjlBczk3d19ZdFRqVHpWamxIRFQ?oc=5</t>
+  </si>
+  <si>
+    <t>Semar 'va con todo' en seguridad y logra 53 capturas en la CDMX</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinAFBVV95cUxOV2lKMXBTV0l3WHZPelY4Wnl5T1p5emM3NGM3eGNlb2FPWXNaNkF0aVc4aVp2bTgzbTRQX3dfY3VBME5LNTFLbTFNQzJGTlBBTUJjc2VWWTZfVW9zS2luR2tnLXlOcHVpd1JZbG0xLUk2WGlJNHFfRVNQNEtjdWQ1dXpGVjdzbDVzbDZyREItOXVNclhXc1BxaHpkc3DSAaIBQVVfeXFMT0tGakNfUk1ZRkxEMzRsTU1UM21hVk1yQXJoci12SEZES081MVdUYXFwWUNoWktBN0lkTXM0M0xDOGpYeGVidXFpMEQ0dHZPYnBBNGd0WG9RM0hjdzRQelFDN1FVSUNreUFaTFBnM0tJbElxVlhJU1pjZXhuQklRZk1RNldjNWNEa2hmTWxaTkRTMEF2MHpLekpLSFg2NGxaU0tn?oc=5</t>
+  </si>
+  <si>
+    <t>Un atentado contra la caravana de seguridad del senador Jairo Castellanos en Arauca deja dos muertos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8wFBVV95cUxNckZYamNtNUtXX2hiS2llekVMTDhzQzlKU0tSRjVtQWx3N2F1ZTJJOV8tM045a1ZidHVJSXhnRUNUNkg3QU1wa0J2MjJ1eUZXNEY1bUtwb1BERTE5bzVqWF9VZ2tteXc3VGtpX3lhWUlKZHdlbVY3RThkSXBPclRneHdicGN5d2xCbUUxdUs5Z0phckJiQnFQZG5LLXNkb1pQS05IOUQ5clJUdDZ3Ujh6dTZQT0RFcU5QUVp2bGRXX056MDFmR09qZFlxbi1aZlFZQVJqT1dZUGZlYUhlQkctOTRiQ3hxbFBqSkp2a3EzWVIxR1nSAYcCQVVfeXFMTTFVUzV2RFJSdXl1empib3FjZ2RvVGpGV3RDWDVaTWVPcWlMLUdOOHpXc0lOVW9RMks4d1VicFBKVml1Q05CdXB0US0zUF9aQVhuQkhuWnVJZUNTbk1iYVZrRVVwa0NYU3dGRF9aWThpTmNGSHEyX3haVjFOUnlNNV9xc09JUVdYRjZfR3E1UWNSMEVDZE5ycWJqdEVuV1FJcUROdTl3MGhlS2JvQWh5OWs2R1U1OWw3bzByT25vUFJkd1huY0J1N0xTb0Z6OUstbzZYSzZuWTdlYzhvYUE4Wmc2dm5NS0VUTnFjRVdYTzc4QUFIQUE1QVVYaG1sc3V3QjU4b3ZlVzQ?oc=5</t>
+  </si>
+  <si>
+    <t>elpais.com</t>
+  </si>
+  <si>
+    <t>Causa en Común alerta por presunta manipulación de cifras de inseguridad en registros oficiales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxOYkVLV0lOd3BESzAwblIzS0xoU0hsUnNVakhRS253M2xZX29sbEJ4cmRTT2RKaVBSZTNnbnhfbW5HWlpEeHZoblIzeGs5bm9XdnBmbmR5eExqV0lsWDNiTVV6M3l3NHFVd3Z3VklpNTFnbG5oVWNDb1lHMFJLQ2o2eDU1WGlSSHREbEhKaXVBTm5lRVVqbDRFaEZDa2dkUkhuYjU3RkRpb25LTmkwY0NTNDNZNjI2WkxRZmFGOVZQckxaai13Uk5kRGZBekhrWkQ1RTM0d0RxbUVoV0owZ3pmWmpId9IB4wFBVV95cUxOYkVLV0lOd3BESzAwblIzS0xoU0hsUnNVakhRS253M2xZX29sbEJ4cmRTT2RKaVBSZTNnbnhfbW5HWlpEeHZoblIzeGs5bm9XdnBmbmR5eExqV0lsWDNiTVV6M3l3NHFVd3Z3VklpNTFnbG5oVWNDb1lHMFJLQ2o2eDU1WGlSSHREbEhKaXVBTm5lRVVqbDRFaEZDa2dkUkhuYjU3RkRpb25LTmkwY0NTNDNZNjI2WkxRZmFGOVZQckxaai13Uk5kRGZBekhrWkQ1RTM0d0RxbUVoV0owZ3pmWmpIdw?oc=5</t>
+  </si>
+  <si>
+    <t>mvsnoticias.com</t>
+  </si>
+  <si>
+    <t>Justicia de EU reduce personal en investigaciones por abuso de fuerzas de seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9AFBVV95cUxORk1ENmZvWjRTRXdtdEdkSmU5cmw4Y3ZXQ3JYZnN0MVNrRElWek9WVWFlSkQ1OUpLRlRkNEVna1o3Y2cwcHhIOENJZWhjVkJITHB6TEk3d1dvZ29CZU02ZFZJLVVUSno5T3ljVEc1YXF5X1p1MUNIelpiMmRiQk02ZXpGaS1vRm54WVp2OXZaOUJXUDc0YXNFX19RVVMyakVVN2hjVUQ0aWFwcFFOOGE3VzdPVm5Mb0xCZVNxbmN5STRnYnBMbGZ4R2hTSnhHdkpxOXVyNHJ1cEtuWWhLMktFaGQwYjlrLThKaEdqTThJQVNWU0Y4?oc=5</t>
+  </si>
+  <si>
+    <t>Al menos cinco alcaldes de la entidad son investigados por la FGR: Seguridad de Morelos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxQOElBMW5Dcm5mWm1FT1NKbTdHbk1GSHByRk5SY0hFczJXeWxrTklkQVNOTVk5NVZtWkJSWGYxbU1KZXRrcDdSdjZUU00wYms3LWhJd0Jod2M4YWJsRWVLYUxRZXlGNDlGNXp2SWxuMUJmTnRMZkgtTlRobE9hNmgwVkxHRVVfYUJmSE5adkNqaWVvNDhjMkY5WkhDY0VxVEpLUkM2d2NOdWxRYnhnY2dqSEgzcllyb1Z1OHc?oc=5</t>
+  </si>
+  <si>
+    <t>Policías estatales asumen seguridad de Tequila tras detención de alcalde</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxPbjFrVFJnVEI1RkRpZTlKVV9RTl83Z05mX1A1TWhnOHZtcy1XdlNqem5GcXFLUW54NjBuNGwzX1ZkTWhrNWk3SUxtTXoySUt3b216UHZBMlhMUldOcFlsTDZUdWRIMEF4R2JSejAxQXo4SkduR2lZSnpMQ0Y0MWlyT0RsUVNUMjd6R1R6S1pUS2l6T0h3dmlqb25oZGNGYkVJSXhVRzYwUngxTmd5NDdRYUNtUGV6MHZnOUlOSFBUa1hXNHpN?oc=5</t>
+  </si>
+  <si>
+    <t>Detienen por secuestro agravado a director de Seguridad Pública de Tlaltenango, Zacatecas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxQTGR6Y0tUbkJrRFpranI3MktEUFNzYWJKbFUtXzFDTlBsbWV4RnNaYTlCeGI0YW52THdWMnRhTnd6OGZ1dUlEM1E0b3o5QU13dEpTMjNha2VBX0I0V1pEOVc3ZUMwYjBJN3N0bnAxZURNYWliaS1BRmRfYUxtOTQ1aGpuaS1YMEh2enJQc1NYX21EZ2lhUU1jeVBfaXVIMGJTLUl6dDhIUjBCTXBidXZhTjZ2NVFXVElyLUk5VkEyUFFIOVU2Qmp0Z2l6ZUZhODgyNndaSGdXblFRZw?oc=5</t>
+  </si>
+  <si>
+    <t>Taipéi lanza un nuevo programa de seguridad tras un ataque mortal con arma blanca</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwFBVV95cUxOelk2S20wZlNuNUxMaEZXU09JQklSTEloMkNsSm90a2xfUi15QXN3YXNiUktFQ2lJVF84Z2Y5TkFCVjhyZ19zeWV0a0RJeWRSVU12X3JqSS1BUHpSU3BEWUpXb09UeHZiNzloQXQ2SE5ZaGNabmFjWnVNaHVSUm1Ra1dRVE52REIxYWtKT2RkVQ?oc=5</t>
+  </si>
+  <si>
+    <t>Acusa Moreira opacidad en política de seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihwFBVV95cUxORFNPd3JpbkhielVGYXRYWVU0cG1SdDNQMmxiRVlDSVQwaHdfWmZqRzNIbHA2N0NlNTkyS1dCXzZkQ2kycGRUOGdtbV9DeGVFVEd5LXVhM3VBVEJlNkRYNjl0YnNqU2Q3QUJBOEZvZGpvUmhUY0g5RmxLNWlFNmNrdmxjNlkyeUk?oc=5</t>
+  </si>
+  <si>
+    <t>Seguridad y narrativa: el desfase datos-percepción</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxPUUg4eC14c1BzdFdQY3E1c2luR21MaEUzYjdSNWptSGZKQWljZnM2QnM4UlVsbzg4aVRpTERrNXZ4ZUdFQUc2em8zODBLRG5xaC1tRmg3UWpvUEZadExVcDRKdlEwV0Z6Ul85SDI2cDVHVmVnWEhvMlp2dEg2Z3RjTURnWkxMaUN4bkE?oc=5</t>
+  </si>
+  <si>
+    <t>‘Narcoguerra’ en Sinaloa: quiénes son los posibles nuevos jefes de seguridad de Los Chapitos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMihAFBVV95cUxQTl9XVXRzLXJ4RXBIUU5VWWRnOUtQY3lrdGdWbmFmU1pIb05EdVBaLVN4N3Q0T1F6cnlnTFowckg5ZDVkSmk1OFp5WHF5SnFyR1NSb2IxOEp1Q0dLTlZmeUUyNnZoUk15a2h0NWlEdW92MFFKcGQyMk9kdjhhYWJVMkpxZmHSAYQBQVVfeXFMTVotaEgxZUtJMXNZM01xQTY3anpzaTJzXzFGaEtoMXVzTHFhRkVwNmZuNlJCLV9zaU5wcXM4bEJ6M0xTOTdyekd0Y2I1S3F1blVhc193OHRaWDV4T3RSazc4Y21hSVlGRVl4UDIxbENvcU90RjdJY2ZGUlkxbzZGZ2NpVVVy?oc=5</t>
+  </si>
+  <si>
+    <t>milenio.com</t>
+  </si>
+  <si>
+    <t>México y EU cierran filas por los minerales críticos, la nueva frontera de la seguridad de Norteamérica</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxQV1FhaFZqNVBUbGZRU1E3NllOMUx6NWNrSmcyRFA1X2JRblhaV2dLbUV2eDBrSjFTZk1fRnZHd0ZpMDJkZmY0bzVnVnpDY0hTWEZjS2o1bTJ2VmZLLWpsVTJqUFdIdFJnM3YteTNYUUV3ZjU2TFJuUHJtWEgzV3RhNUxveXhmTlhFRGFlQWVtOG5vWXMtNDk40gGXAUFVX3lxTE80dDNINTlESDFONzNPNi16OW5wSWFPdEphX2tmNkVoUFQ2M3RKeHFDb3lvUV9VVGkzVVVLOENhdnUtY2JOWGZQYklzUUVMNnc0aTNxOTJLd3RxdC1wVzlyeGdMRnhLY3BwOXhuOWFxMUlnWkdzZ2hFcjFRS242YWpHSmlvNUxmX0d1eDFJMkhpSGZhM0IxcWM?oc=5</t>
+  </si>
+  <si>
+    <t>Mujer explota contra taxista por una cámara de seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxQdGZhQkpvV2wxVGJiUVBuRHlTY0MzckgtY2UzNVlGSDhfVUJ6dDV1TlhILTZtZHliTjRkWi1VcDJVSXlRY2o1aG5tdnUxbUM3T0cyMkE3XzdSRThObEE3UHU0R2lFNEpPbkprR18ySmJUak1ja2IwaFotNEhSRVlTbkRXRXBVN1YwVG1HbDdmTU1RaG1k0gGUAUFVX3lxTE1HOHJfdVcxYXFfbVVFVDgzaTZpSS1aZ09TNWtBQ3ZUXzJ4MlFWcm5Vb1llZW9uczNzSW9yYUlDZW9wNk5YaEpPMHF6TUM1NURHNGRRTmhQRFVqZjg1Tjc3aHpCV3Uxdm5ZYjNpZlh3RjVqMjhfWUUwdzYwUHdFVjR3NkhJaldubDFCWTFFVEtVOFF5Vk8?oc=5</t>
+  </si>
+  <si>
+    <t>Lanzan campaña 'Denunciar es cuidar' para fortalecer seguridad en Lerdo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxPblQ5eS1BbTZsb2ZTN0lQU1ZVUE4tUVhmbU43YlFVaW40NV9FOThPd1ZPY05GcTlsQm8yTHdPZ3JMOW1JbTFVUkY5YTFESHRmdnduLXpNZk1JNVI1emY3S0xPU1RVMW1Dd25QQVB4bkdKYTlrZno5dTVSYUluU2JKOGdWRkVKTVVlakpwRXR2cWU2dWvSAZMBQVVfeXFMT2F1WXVveUtkcW9uMThGVzhEZDJXNGI2Q0k4LXJfTHU4T3NPY1cyakNKS2ZPQXJzd2UyOEdXT29YR3ZmV1BrOFp1cklETG1aN2g4X0E1ZXp6WHhWazJ3aEFOcHVOS1lRUnY3TkpGbWphN0xYdEtxcGZDRUJPOWczcWtMeGRSZ1NUV3hBaDZYUEtGVlZJ?oc=5</t>
+  </si>
+  <si>
+    <t>HRW reprueba a México por impunidad y crisis de seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxNcTJTaWZoU2dVMVV2dGx0eUJlQVlrYnZOelNKQlhmVTluSG9SaHR6ckc4N2MwNnlEd1JBT1JmcUlUUjVtc2RpZnp0RkhxdlFqT3Y3RXBiT09LNWFJbzBTbXFSMW1iWkFiaTB6SmgwQjVpTTBKSTYxYm1Wb0RHYkZ1THNJekVwNmZsVklEU0dWRGxzVTBuSU9DYUR1MlNyX3Nq0gGgAUFVX3lxTE9WVEZLd1R6TUdFUExFbURzNlo3WEZmUzhMSE92Nlh6eWtiSFJwZWtleWNqTDZNalJ6LUtrYWs1SXB0RzNvR2VIY01oRVQ1c2IzZnhLRUlJR1ZPQmRidkd6bURSWXVFX2MzQ0I0WFdubjNKZkVMaE9tY0lUa3B4eEhEYmVkSkJoR282c1FoUGFMeFJ1RWFDS25zYW05Q24zNVY?oc=5</t>
+  </si>
+  <si>
+    <t>Harfuch refuerza estrategia de seguridad en Sinaloa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxOMklVZ0tyLWdTaFJxVDUtVTBPZUxDeHN0X0xVVXcxMG44ME5NWEs1Z09VaUdwQjZNUllwc3dkcUJ5ZUVZRG0wdUxGeFpabVNXWjk2RmFRV0oyamlBMklQdUY2T3lUakNfTDN6Q19McmJ3MEZCUXFVemY1UDZGMHJ0MDVXQU8ySGNmak1WVXZVTXJPeHVUNXN0NXpoUE9Pd9IBngFBVV95cUxNVkhXeE5fSkJIRWExUzZwXzhaVTQ4dEVoYXdTd1laZld6N3dOR2tySEF1dHh4ZjZxQ3I2dDNKTkxydWZfU3hhYVAybUNHeFlDQk1pTkRqbmNwMm81VndsVGR4MkM0MGxrX0VjV3ZRaFRsUG14ZmNRR1lwOFVzZ19qdW5xTjdyMEJuUHpENVM5OW5iMzZBOGFNRVNZclJGUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Refuerzan seguridad en Tuxtla Gutiérrez tras detención de presunto operador del CJNG</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxQRXlmUXhQdlpQTHFxSFVFNVhkbC1GanJhODVpUzF0RjdXQXZDbWZVNUlRbmp4VG01azVkUm8tclIxMi0tVERhZGlQcV9mWjJzM3pqY1lVaDJUYkZDekpmWHZUdkxUalJCS1pHMXBiWVVDZnNscEVSSzFIdUpQTUN0R2owbWlTLUVkQUJFZXZsLWZyYV9XN1BN0gGXAUFVX3lxTE5hYS1IelRuVmZtU1RDeFNlSWZYR2VpMmpQZDhUX2djaEEtV05WTUtCR3Y2c25zd0lILVB4dXpKUlplV2xCYlBTdHBQeERKOWVoUjR1VWtuRU9pZ09BUEdpRlB2Qm1CR0RDZnVJVVd2LWV0ZjZuWVZxWUFraTZJQm1feGF4T3UyMjBmWmRKLUJaS3NacGMwT1U?oc=5</t>
+  </si>
+  <si>
+    <t>Tequila: Secretaría de Seguridad de Jalisco tomará el mando del municipio tras detención del alcalde Diego Rivera Navarro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigwJBVV95cUxNMHlxeWRJRDNGMEZ2VVFRTWthWC1VdXY2SmJlSHNuaVZPUldpanZneWlBd3IzVjhFWlBPUWpwRXZSUzRQZVdGQnp3VDZZZGl6UjZ0djJIb1Z1SjdoU1VJUGRwVk1tbzFxUHdzMlJ6eFJCUHRHZlpDMWJ1ckpmSGJZUXFOUGw5Y19sSDhDSDBwLTkzdzhFeWdhSzZOMzRVMDFzUDVXZ0JTMHVoMzY3d3BLei0yekdMUUdLVEZZRTZ5MC1hSnkzWFcxUGY3eFlUdll1WVVBdmtuVDl0OXA1cGwxUEMxdl9MQ29PZG9NNXJSYnFTbGExVjRaellDbXRtVjRDVnRv0gGIAkFVX3lxTE5sbVY5a0RxT0pkNGwwRDJwSDlvRkRKRkUtTHZXSG5yb1cxbFlmanR0TXJUUWFQX3o0WTJrSGl6SzJpLWkyZzZOZ3VXRFg3OXFmb2syZFVIRksyT0Zwb2ZaZFNQYlZpdWh1a2hhcFdGcEF4eU9pUElxWW1SSWRfb3owTWpDRV9GN3hlek5NMTNtV2loMEpYdUc5aHNPTTM3QlowMmllRHFmT3JldU5KRkw5VGlBR0xaeFEwaE5rbG5vWGttSHUzTHNJZmZHR1lnODc1UF9EOEstNW8tRDY2dF9wQWdsNjFYVThjV1pibzAta3NFemFQZHp0b012SXJFbkpzTGh0S05ORw?oc=5</t>
+  </si>
+  <si>
+    <t>Novedad en norelem: Abrazaderas de palanca con cierre de seguridad para aplicaciones industriales</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxONDVLRzZfYkNaam9KMzlTRXJTQzI2Nmg0bDdzQWo0M09YRWwxdGcxTjBkbUczTnEteE9FRzFOMzBNUHhTSG9JdEdpUU9nb2JnTUNqdXJuMnliMjhfTFNIbEVaNmJtcThNQVMxN3NHOGZCTThHdGhjTGhJN1dmdGNXbE51UFJoRXFhUkVYOXFkaG5PWHBlOFhfbDg2SGlHYkxNdlNta3ZNdlhkZXNLb0U0bGdfZDlEQ2EtNkxaTHBQajdBc1BKUHlhQlQ3QQ?oc=5</t>
+  </si>
+  <si>
+    <t>MexicoIndustry</t>
+  </si>
+  <si>
+    <t>La producción de la industria alimentaria creció un 1,7 % en 2025</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxNUEpZVGJvNko4ZnQxQUtMZTRRUE5tZ1V5TzFIbzRCS1QtamxqNS1HRzVMRHQyQjI3aUlVbkN5MFU1cHViTDNEV1Zka1JwRWNRSUR3WkwwUTVBSkFlTWo2WWJBRHZtVmx1TE1XR2J3ejRjMWMzSE5zVHloZkpiTVBidnExWVY3SU9QR3BKSTNSbUdFZDFGaEZ4ejRlTFJiTUwwZTFPcjUtWFZQMXYxWmMxYVlaS2XSAc8BQVVfeXFMUFhPRloxWlE4Y29BV0JIeERlSEFtZ25oc1YwZGxfQjhmNkJEVUhiQUxDTVJIUGc1UnlYNjNnTjNOUzF2WW5uRzBzU3duZm52Wk1jd1J6MHhpV2FlOXZUczNmTDNDcmxnY3d2aE1xLXZWZTM0TWVqVDBodlZzNTVMR1VYSVlPVEFTNDJXX0ZaUUJrRUVHTnFZNkswdzdEUjRvQm9PTWJvU3AzLUtnSUhFRWJaUHNEQ2FRLVVhVEE4SGtYMk83dmFEN3ZEUU52UWZF?oc=5</t>
+  </si>
+  <si>
+    <t>El polémico gesto de Alfredo Adame en entrevista con Adrián Marcelo: “Traje mi cemento para inhalar”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxOeWg2WlhMYmNIb3hSQkNIalB3UnJTYlpLckNfWnJiRnZVMWpJNHJyNE4wRUROMWNpRnRGWE4wRnFxUHdSb05Ya3YyRjZpeW9TYlF0bUExUVZ1WEdCa3hTbEs3WWMyV1hNQzQwbGRKZGpMSk1JWG5XVHRxRGhVbmpIMFRpeDRDNG55TEZfbFhZdkFXd3l6UzUxelRxVGdtWExn0gGgAUFVX3lxTE0wbU8yc0VhNGkyWl85QVppUmpxOXZDaHB1blZBOTkyNDU1QW1lWURha0NTbnRsREtVRE9vajRzclBXUk13MXVRdWU1bXctVFM3QXZyZktsZklrSGw4NXJKUzhOMHNvT1doYnN2U1FHMTJsZVNodUFCNWtsRzZ2NmxpTThuV1RlODNKLUlQS1F6LW83Z0xtSUxfSERFUEtVbGo?oc=5</t>
+  </si>
+  <si>
+    <t>Pemex adjudica a Slim contrato mixto en campo Macavil con reservas de gas y condensado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxOSTNZSlZKdTNkSy1aRExrbWpsbjRpMk9WclNEYi1TbDY0U1ZHN1ZtX1R2MHpsMEczUi1GVXBSZjNQOW9GN2xtMnBpV0ZhQW83enh1WXctVnNXMC11QmptTXJjNUxzaHY3ODJ5R0ZHY3NTMm5CUENjOVg3enF0a2J4VVVDTDFSa25hMlY3VS1NREkyU1VSS1ZBYmhacDdGc00xUVVKRGNFeHo0SE5ZTUlOMU85OTB6bFN3VWljN1M3bGdIVDNKOW5rSTAzLVY0R2vSAdQBQVVfeXFMTXBsaEFJa1BkQWlGdmhpVUpzYWE3R3dDWmt1bW13Tl9GUUhuR19xNU13VVJVaTZ6MTM2YmRWekdzdlVWTUdYZ3laQ2VlY19xNjJMZ3paT2w0ZTNQbjB5UHptclBfeUFNLWQ5RzdzZXNLZlBZOExuczBFWGFDUlAtRTlRMDJTT21DX2FRRmN2VEVKeGw0SmxRVkZJU0FKVTZSUUNMamJ1SFFmUklBQ2RqSkVobXQ4SXZWQ0hLN0NULWpSVC1MRHgyMTFsa2hUMGVWVHI4NDc?oc=5</t>
+  </si>
+  <si>
+    <t>Food tours en CDMX o cómo la gastronomía ordena flujos y llena mesas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxPLVE5aEZYbXlZMzMwcE11Z2tEYkYtU2lmNHNKSmpwTlZRSVBWRVhWNWNDR0xiRDczdXNLYy0tbVFZcnhfRTlsSDJ5X1p4dDhPaGt4ZmhxZEhLMm5xYjVpbUFsZGdHb2dCZHowMjgyTHhHWkZNU1I5cFd3SkdWZ3FKanljZV90MFlfa0diZVdsLXhPU2xWUDR3YjFrcnBoMERfcUE1QVdlQm5ad3FMdnpsWkJoX3JsSEJMZ0HSAb8BQVVfeXFMTXI2VVlESnluUkpEXzk3ZC02RmFlTFNmOEMwX0RIU09qMWRmYU1wZDh3WjB4MjBpOF9vNWdNSXdncE9XQXhNcXMzZjFIRGs5T0l5ODd5akpSQW12QTN2ZlhvTEh2Q0lsV1hiOThmdGo2b3l2NVJXYXFKajJnMEQtZ1dhX1lOT2xaU3Q5ZGJ6SVQzR0psZWNqSUJCYTJyLWNoLXBDUUc4XzRoRXczNG9NZ1hTN1A2VVFBejQxeFA0QXc?oc=5</t>
+  </si>
+  <si>
+    <t>Para reducir dependencia con EU: Pemex da contrato a Carlos Slim en campo con abundantes reservas de gas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxPX01FbTNQUmFvNEJocmxrZFVQZEQ5Q3A3RVNfLXNUakpLM0xwQzRpMEV6dWE0eFBtRlliMFVIUFhhYWgwcW5VVUYwMnFqdDZsc0dCN0RPZlhITFU3VnZKM2I4eC02X3NKQ05KNUoxZzRqVVdSNDB0bmo3T2EzVnpmTlNpckdWXzRHdkVDYnhpZS1uNVRpbnVOTkxJV0R0dHFnVVFLMi1GUGtWQWNJU1NkNnlqaDdGd3c1QmMweUFrNndsbVZ4YmNJX2h1a09iX2VSV0R4bjNUVGZvY1hNb3lrSDdVRUxiemFQM1U5VQ?oc=5</t>
+  </si>
+  <si>
+    <t>Pemex otorga un contrato para el campo de gas y condensados a una empresa de Slim</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxNdjZvUVc1UkQ1cGg2eW9RWkdSWk9tV3FIN0hsa3MxWXNkVkk5MTRXS0l6M2ctVGlBVG1vWm5oMnJTNTlCUEZsTzR2Zi1aX05ZeTNIWVFmWDRWV3lLV252R1F4Q0lla0ZtbWNsWExZa0pTMlFoTmVNRDJRc1hJcFVCX1lxWDh2dktOVXgybkQwa2N3M2Y5bmxfcTdKTjVwVWx0SnBaRnpoVQ?oc=5</t>
+  </si>
+  <si>
+    <t>Estados Unidos arresta a "participante clave" del ataque en Bengasi en 2012</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5wFBVV95cUxPMkRJMzFGR1l2V3d6M1hJZTVjZEY3alZDUHZtMnNHXzgxMkxGZmkzUWhmOXdpRHVONHc5dm1TVV9xdnhVNG9Fc0RIaWpMODltVkw3Y0wwWTk2VlNRWXc5Y083dEJtcVYyZnNTTGhHTDN0Y1RCbnF3SjdRTWROa3hyTjk4azNCZm1fbll3UF82SnRSbE11dXZnN2VERkRUVDBPNmUyN1FnNkdnUEhiV1JOQno5STdhakJhTk1BQ0xucWF1eDFsU19ZbnQ4ZFFodnlfVUIxdzk5cHBnS2N5VFB6aWNIc3lyY2_SAfsBQVVfeXFMTTA5MjdqR3BfbFRkalh1cDZ0ZDRjcm5udGctUWZzdDFYN0ZSZjBqLWt1SC1walJRVGhwR0d3SHlzQXhnOVo5cGVJVHAtUnA1WEVKcXVHNW5MVW1KSmtLRUVjVVZnaVVEZU5zT1Awb1IxQlNvVno1Q2ZCVWJIR09nbWJWWmJyQ2c0dEI4aHlDVU1oQW85Q2RMMFlaM2JxWkR3QnNISEV4U0ZnTGU5V0RzLVNCUmtnTzBQbkEzTEZONmpLa3ZnZ0ZxX3lUZUtUVDNwTGw2VFpIVEZpZ0pKUEp6dDBwWXFzalBBUFh3OUE4a1dvcE9JbzMwaVcycmc?oc=5</t>
+  </si>
+  <si>
+    <t>Explosión en estación de gas LP deja un herido en Juchitán</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxPcGhQNWJtdHVjMjJpVnBqZ1BhMldiUlVWaWFITDhWQjM0czh4ck0zQVJZNUVrV01wVUJtMnE4VzZIMmI2UGNiTmxSbmltcDFDeWF5b2o0VEwyaTdybXFQOGtPT3dOVUZIMUU4OThwZ09RQ3NGTDgzdEtOZXVrclh4ZWFGRTRiRW02TmpmTV9GdmlvaWhVV2oyUUh1aW9KN0tQUkhHLXVfdmwzeXBFX1hXaXlWVS1CSmliU1Rj0gHAAUFVX3lxTE5RRi03MEV6aVFhdmhWMkpXQVJ0THFXWVBaMUw3MHQ2U2J6ajVqaDNVY1daTHhIT3JibFFHUi1ERldQMWFQNlJubDVSN1JFZGZSYWM0bjdVeFNCeWNtclI0cVI4QmdFeUxTVE0wQ1c2LU9pWUp3U3FCMXdPcDhMUWpUbW1qLWRjYXp6NlhHV3NWWDh3cXpHTGJOaWRjRmlBR0VxcDNTQmVUT1dBLVpYVXc5V1BiS0tTS3VfZkJTV0JRUg?oc=5</t>
+  </si>
+  <si>
+    <t>Aquí encontrarás la gasolina más barata HOY... Precios este viernes 6 de febrero 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxOSVJIbGZZeWlBbUtDUC00VTl1RHE2Sy05U0lzWWltbHkwbVNka0hPc3Nucnl3VklIQjVKMGo4bkF3VGZmZHNJTHVzX1B1VXQyWGtYUGRpdU1yanJ6YmFHbjZYazJFcU5SSW9WWjltVE1SRnRadkZJcEpKQ0xTODdSblVQWmM4d0tkNnVMb0pDYkNBdEFNVnBHT0RXX2NmTGlsWUV6OHRXbFUyU1RMU1FoMkZJc0J0akQ0a2RrVlduTS1od3dRcmdoNEpSMmdmX2xLMmFycHcwWmjSAd4BQVVfeXFMT2t4RzA4R0g3dWktRXl6eHRnZE1VVlcwcnFFX1FTS29oQUxlNG1JWXlEOWt4Z0xjcUZLMWNxQ3N1YzVueDBqTGVJLWVMRDFFNEI0UzljRk8wWVBmT2JvczVzUi1tTUQ2cmR3ZlMtNm0zNjlUclBpT3N0RkZLeHJFSk40OXpwMG9xT1otZUhJQ0lwWHJYdHBGZ3NRQzdFNEJOYjNsRm9qSVMtVXp3Q3JjazJwVTBCT3ZLdkJOUm9qVDVXbXN6WkRhelFpTWVmZ0tSbXJ0LXlDYVY1VEF6VGx3?oc=5</t>
+  </si>
+  <si>
+    <t>Fuga de Gas en Vivienda de la Col. Santa María la Ribera, CDMX, Deja un Muerto</t>
+  </si>
+  <si>
+    <t>Bodega Aurrera pone en liquidación tanque de gas estacionario de acero, con pintura anticorrosiva: ideal pa...</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinAJBVV95cUxPWHlDM2tkZjJ4ZVY2QVc5MEVJT1NoQVVvX1UyeHpNcHVLaGtKcExMNlR3YjQ3dVBCQWdZcndxX3JQeW90M1d2TXM2TXVjeDk1YTZhcUdMWnMyc1ZXSV85MG1ISC1Ua05PSE0xMHhrdDE0T3VKQnR3c2NLa0RURkt3MVlwdjlkTFQ4ZXZ6ZGRBMVd2LVpsclF2QU00Ry1zNTNXb1RmZ1BtYnh3cjh6THN2QV9jUmxudmwzYWNaclpxVG5IVkVLak9tZWZMY09VR3d1ZmRNRUlEek9hSDVfcDNtTHBnYmRLREplZTdoamdXWmRyUDdISUxkY29FR2wyYVBLXzRjeTNTb1RJMWp0TnJMXzVTZ3Z2SVZsSkNlcNIBogJBVV95cUxOek8tRkplTE5hVmR2eW1BbWpSZlVqWXRnOFVzeVN6cmp6aXlyTm05N2g1WHVWZTRvdHM5NjJyN2xsU0g4a1V4eUhMVWloRDJITko5aW5SUjNaY3RMNV9GOVVJSm9uMWxtZHlEdC1URDBXdkRxdzBZTXNIeXFGSmJiNnBPQWNKZ2hueWZFWE5nYzNFLXoxZHlEOWVXdFBnZ3cwZTg3R2VCcnkyN1MyWlROcVVsZ0p5VHVxcVJ4QXFLQWZlSy1SN0I1VmRHNVJINTB1bHpRb0k2emFOaHlCd2lWZW1lQ1FGUEw3WEd5T1JwZnNZUnFkZ1JSRDBSZ082aDdtaDFvVWIybXBNSGZBVklyMDdKNVVQaEh6ZkUydUhlRGs3Zw?oc=5</t>
+  </si>
+  <si>
+    <t>Slim se pone 'gaseoso': Pemex le adjudica otro contrato para explotar yacimiento</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxOYloweThiX1JpdGh2aG16U3VrX3hSU09zaWEwODdvSHA0MUYyandNeFpSa0t3VzBSdXVnVkxIck5ZcDZKdjVETzh5a3MtanJzeGJydldSNFlSZ1NnNzRLdTZNXzRvLTBCdjdLZkV3cGNLampId3hTNFNTYkpoYWVDSDhMRjMwQm9vc3gzOW5Zc1EwME9UaERQeDJqVEU2Wlg1d0dRcm9hdUR5RWRoMWNaVExnMDNQUk9xX1JxQmV3cG9vemhLZ3BNU1dZUnktSllxeUhB0gHYAUFVX3lxTE9wQVdsaGNnWTdrc0NUNXAteWJJS0ZpMXlCVVlVLWtSaV9MWEFzMDNOSkV3NDZkNDdhR2dpU0ZMeGdDUnpWQjVqMmtEd3RvVVBMTnY5bkRfTF9iNGYyNU9LYnlYMmhRVWRFVlplU1ZDNlFxVHZaYzlVajFjTnBTV0JLVE5qYU9Ldk5lRjRfaGdTYVFiOW1NejkyMzZGblhBVVlPem51eVVVejRZNzJ1aFdLcWdKdFRiWkY5SmprdnhBNnZXR1BpeGxlVGNWeU1VajZOUl9WSHB6VQ?oc=5</t>
+  </si>
+  <si>
+    <t>Llaman a reforzar seguridad en tanques de gas en zonas con alta concentración de personas de la CDMX</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxQcTNCdUhvZ0dPcG1qdUFBSnNyTUxUWWtzYkZHZ3I3VzJwU21lUTVUQzcyaTV4aV9Jekw4aGY5YWp4YzlLbHFaXzE4Xy1mWkk2UE1DVTZiZUl5ZkRmYWNFRGhjNWNDdzdNc1NfRDNzOHM3MmZYczhScm1GMHoyQ0RRdThQc29qTDQ4U2MtdTVaeDBMaDJ4bTlab3JwUmVTc1c4U1BPUzM1eHhUWnJzamtneWNFaVF4bmZ4UWpmSmVWbjVNaDdEYjlPcmlSNA?oc=5</t>
+  </si>
+  <si>
+    <t>Operativo a pipas de gas en Periférico, CDMX: 22 infraccionadas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxQMEc2b1VuSVBXT1dQY2ZqV041TTFLT3M5ZzBMNDlINEMwUG5TNHZKQkVPRGFSd2lRSVFaeFRVNzN0bHZVdndXUVo1U1dLel9Ibmdja2Q4M1dzR0hlamJEeTdNMDUtOVM4MThtQTBvV0ZRWU5yY25EODJ0LWVHNVJXSUVRdy1PRS1aVUZwQWtCM1R0TEswYTJzbS1HQ3NDazh30gGmAUFVX3lxTE1qSUVEeVRXSmtoNFZOTVp1QTFnbVNoaUN3NExwWkFrUlhQX3Y2dVA3akstbU1DcHNKM2ZtOUFfd2Q1cFdUU0hKSUVZZWpKcmN3QnNPXzBVd0R0WnlFZVFZVkJkTXFjOXFrb1FGZ3NuNDlBUm1WYmhucUFBY2d3NkhNOGt5Z2FYUUZHV3laajlycDktQTRVVTdLN0dCMGF0X29FLXlZd3c?oc=5</t>
+  </si>
+  <si>
+    <t>Comunidades del Golfo de México resisten ante el gasoducto de Puerta al Sureste</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivgFBVV95cUxOdnVFTUF4Nm80Tjc1bmRnMlowUWd0OHpHUnRBZ2hCMkxtMnpkVDJDTUl1dkVZamdEc0RwOWhXWnNkMVNJRG92TWFIZ0wySHptMWhHZmxqYmlZdElXTmFjekpxc1hUMEJ6NkU2WWszQ3hWbGZVOVJidlc1SS16QWRHcEFzOFczT2FjMFJQbmVva0phVjZ5cFhXMG9na1VaYjh5VDFMQjdicFRmZm5hUFZDSGJyc21Ja2c5dFJHanlR0gHSAUFVX3lxTFB1cTgyTkE1eGZXYmEzb2h0VVg3ZWtQaTVZTE1ZT1d6UVBtUjhVbms1QnV0Z3phVm4yd0NtSkducWlUeU9DNFJ4ZnY3aXNSTldpUnBPVjZraWpDNGNXNWJYcVdqVXYxVHptYzNuSE83a3pyOUNfc19Tb1RFbTF2aDBIN3ZiTFdycmNYb0lYYVI2VUZGTDNZVjM3UV9aMEp2R2cxS251UDQzZUpCSTQzVFdxdmRYODNRNTNHYUFuMlo2NEhjNU5uZ21ua2tJMHVvRkw5UQ?oc=5</t>
+  </si>
+  <si>
+    <t>México duplicó en una década sus importaciones de gas natural desde Estados Unidos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxPSzE1cWRJRHhOUE9ZZkZpblNWOHM3X0wtM3IxR2dyTzNKN0d1a2g2eEhIWUZXeF9WczROaGpFQ2N1RENJQnhQel9DMmVGSF9kSFJHNFExejBybUN4U1NmOWFBWXdMRmNZOExLS3FSclZNYkZKQzVmZ3ZYVUY3TGhvQ0tra2NGY0xLZFNvTWhMRnBHOGR0X2RGN0JwbGxjcWVYMUZhUjA4Y0NoNmtpczBFemNRNDltN3lVbTUyTDdOVnJBUi1GNm12bWxwbXRtd9IB4gFBVV95cUxNbDRyRS1uTVNKQzUySWlYdmtQVmNqTHUxY2phV0RPN2tCd096TmxDd1dxd0w3bnllQmhmMm9QM1hWZ3RBUkRGV1FLcXBXMTJUZkNlSFZnNEN1ajBGZ2NCQUctU1JEWW43UGw3SkJUWDRIcW44SDR2V29rWkFjMklTTTNpZzByOWZUODJrMVdnN21STEljbUNTYTVDdmY5ODRPTldxaUN1RkVzb05HclBoUTNxMDhhZ0prNk1PV21nUjBCenB3ZlVuWVBxRlVFMG9yalBZV1ppaHNwaHR1aXZiQ3J3?oc=5</t>
+  </si>
+  <si>
+    <t>Merz busca nuevos proveedores de gas en el Golfo para reducir la dependencia de Estados Unidos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxNYktVX0pyRnRIMDhXZmVja0hlUmNYbjNRV09Bb0JxanZJMGROXzhpRDRXM3FzVU01aVlIMlYxOFpxTEpPVWFwT2wzMDJqVG9pSnpwazQzamI5SmxMYjhETENqRFhqTTlrUFVpWEhjTEx2ZnVBamlYeHRvQmg1XzFkeU9qc2lpbXdDYWdwa1liNWVabWVfZGhac1lWMVl1VjdJbG1xT195bmhtd3gyeUxNalRnY09TWlpxamxsY0hZZE9fc1ZMRVc1V1NaWG84YjlkcEZkQtIB6AFBVV95cUxPLTk5VWVmdWZUZVMzYS0xZHo5dDZXdWtsOGp5NkZ1aW5jaC1mVk1ibE10WndqdTUwRlhZTDU4SlVkcVJrbHhuNFBZODE3S3liT21aUnh3bVZFOW42cWhFbUJxZVZPRlp5dFpJTzJ4SEZXY09nX2FHLXo1cTVxSUQxWFNHVnd6S2NBTVlJOTlKVkEtZlIweWs5YlFSX1hRQ3A1bzVLRXNYaThOc3hWT1Iyb3VteW82U0RsZDMwMFNBYVZYbnYtczc0Nm40ak13QVJSTU9OY0ZheXNBeFVjZ1hvTHJWM2FrRXdx?oc=5</t>
+  </si>
+  <si>
+    <t>Explosión por acumulación de gas deja dos adultos mayores lesionados en Monterrey</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxNTHRLd0ZnWG9Xbk4weGNqMXY1Sy1GM0ZJTFI4V3hUYkJrWkxWYmFUR1d4V3VuNXBRbS1tMjYtOFhLOXVmV0U1QWNQdUNwUm4xQW0wYUMySXI2ck9hNHVNRUhha0JHUjlwNjN3R0x6cFV0c25FMnlOV3ZWdmJ4YTA2LWpMcEp4RDdUMV9iUjBmYjE5MXNVb2RxZ1BCTGFaajBYS2pSRTJtcGFidTl0QWxaR0xQTXFsem9SYm1iWllPUVY1U280QXBfRjBvbUYtSnNteUVv0gHTAUFVX3lxTE1MdEt3RmdYb1duTjB4Y2oxdjVLLUYzRklMUjhXeFRiQmtaTFZiYVRHV3hXdW41cFFtLW0yNi04WEs5dWZXRTVBY1B1Q3BSbjFBbTBhQzJJcjZyT2E0dU1FSGFrQkdSOXA2M3dHTHpwVXRzbkUyeU5XdlZ2YnhhMDYtakxwSnhEN1QxX2JSMGZiMTkxc1VvZHFnUEJMYVpqMFhLalJFMm1wYWJ1OXRBbFpHTFBNcWx6b1JibWJaWU9RVjVTbzRBcF9GMG9tRi1Kc215RW8?oc=5</t>
+  </si>
+  <si>
+    <t>Pemex adjudica contrato para campo de gas y condensado a empresa de Slim: Reuters</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxNaE1OaHpYamNnZUl5S0d6akt0Qm1uc2lrakVTYmVlLUZ0bDY0ckxjQWlxQWE5MGJJNERhczlLN2tQb2ZiWW1qMTVzNW9jRFhzN19ic1VGaWt6bGhrTHpwal8xMXlxcEt2TjNfWThOOUtTUHBTRUxUZUQyQk83cGF3MmxhSkxHTnFsWF9xUENoR2l2WF9y0gGUAUFVX3lxTE9OaUFWYnp1VnlCamhFY0hyUzVPS1pIaFJhcm5IX1p4X1l1UlFwZEQ1WWVHbEJwVkxSb1hzaUlYaXVEZnVBVVJudFlmemg3aU9udXQ2YmV4VWRUX1JzcWc2RVRlNGxxUy13UnBRb2JwWnJXRWF6bHgzMlB6bF94MVhMTllMUWlzYmtGVFJFU1l0RW5QT3Y?oc=5</t>
+  </si>
+  <si>
+    <t>ASEA cancela NOM de 2010 para dar seguridad en distribución de gas LP mediante nuevas disposiciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxPeVhfVXBrWHNVR2t2LXI0NlhENmRCU3gtNkJoQ1dxUGRFVUJzNmhaLUVZQWpZVEV4SlQ0U2s1TzBCSllSenFuRGVrbUNfXzd5dFQ2dHF3X095UlpTMmhoMUFVUW0xQXZQR0VOTDBycV9FUzc1enBGSG5zNmxzVW0ybXh1VXFDVm9nQUtESDJB0gGOAUFVX3lxTE95YXpobmVLemt6Tk03a2Zhd2pfUkplRDBuX3ROLXM4WGhmMGxOaG41WDJJa2tYTHF2RURuTGJsMXNKRUhOeW14aTZiUG4tR0g4NmhUTXFSVFJWcXpyYkg0SFBUUmo3cG9vSXJLNU5fYTctTFk2WnNGQXZiTTRFa0cxMFdNQzVBM0ZBaHhRQkE?oc=5</t>
+  </si>
+  <si>
+    <t>Gasolinas y diésel, sin estímulo fiscal; precio mínimo de Magna se mantiene en $17.98 por litro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinAFBVV95cUxNcjJPd043RDYtWWhPYXpYOUVXQ1FoYUUtM0Q2VTFKY2J0SjEtZGRQcy1uVW92TVpYdnpQanFQTlU4RmpGZVdfaGk0NVc2Z1JxTkluZUVYZHB6WDRVemo2VjdlMzlKU1BXa2FfeWh4OEhYQmdTeGdYY0gtcnZrYUpsTlNhcTJMbVVxRWlfZHZWWHVIZk1Vd1M3YjM1ZVbSAZwBQVVfeXFMTXkzYWhsZjlIXzBDWWY3NS1XZHFrbEpmdlJOV2dMTjV4eXJDWnVpdlI4bXhNdjIxRWIyN2g1MW9IZ1BKS0F2RVhCaDJCSUNoZEZoYmNvNV9wQWRId21RTTlDejhzeVV1V0lBel9ocjVRNWg0cWxGVlBSak9BakpoTk16VkJjT0RCcUNKVUNXOVpuVjBqa3F0SnpNRlp5?oc=5</t>
+  </si>
+  <si>
+    <t>Momento aterrador cuando globos con gas provocan fuerte explosión dentro de un elevador | VIDEO</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqAFBVV95cUxNTTBxTFg5azdwWUttVVAyVVk4Y29JVzM3UUJQZFMzbUJlT3RDakNxd2VkckxqdzhCb1NkNHNzelJPdFdmSXc2QmZlRm5qNld6TXdqZm5HZFFhVHRSUDlMdXNQdEN2OWVKNWdMZ1BkeEFLaHYyTmpvR0tpZ3VpS0dfaUl4MHVQUno4MzZtWnd2bzQ0SWJpcFhSTzlIX0x5RUM0RmJZMUZDOWfSAagBQVVfeXFMTWtOZEpGQUJnYkxSc3NCcDJ4NHFWWmxyMHlidWk0NkZzd3BiTjJWZzB3ZlNjQzdyOEhQaHpwWjVrbjhQTVI4ZWphWFJEb05mU0EwMmJKVzMzN1VrenZ5YWhNZXJaaWlhRGlxUmNTYnU5MTZoOTE3cjBMOUZqbDBGbVMzNGR3V3g2S2ViRFhnY3hFVTdNTVkzdFhab3U3bFV2cExTZDBoZFNp?oc=5</t>
+  </si>
+  <si>
+    <t>Municipios desaprovechan el potencial recaudatorio de los impuestos a la propiedad: CIEP</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxNc25zLUZrQ0IwWXRaZHdtMUJjanpYcUZJTWNMdTUxY3NCQlpkZUFkc2pnanJUX2VUNzdVcDVZeUVEM29XXzlCZ0xmZ0VOQ1NKbEtYamtWZlBIWUtySGhkOFI3dHR6aGxhYnVSd3FDTDhYdDNfT05pN0hhYUpVcmsxZ3dQQjdKbDNYVmFiRU5LRWt1MTJsMHEwNnNIdlh0VUs4SmlfRUlZZ3pidmZKNkhheXBlTWFaWVVGTVlxZS1WM3FXZ0V3NUFFR2dmLTFWd9IB0wFBVV95cUxONTFYT0NOU0V5ZExKSWd1UExhZ21NbFFTUWxQeG9iYkxBdWR0SVlXQ2FXdm5vRHJ4S09ZZFlSNjNwdUJ4WGJWeDdTS0lpN1BqMkUyUFZSYWtucDRCNTByZndJWGwyWHRqTTM0dGdDMmYydG9Xb1h0UXhYYmx2Q3ZFU1dHOXFPMWZ2cjRUZktiUU9RS3ZyLVZYOXAzY3U5b1NuOHFxNmh1ZXV3eUUyVGh2cG9hNEZWSHlhR2JFQjlZTEJpdW0yakNWNjNVQ0V3THNHdkx3?oc=5</t>
+  </si>
+  <si>
+    <t>¿Arte como pago de impuestos? ¿Qué está pasando entre el muralista Melchor Peredo y el SAT?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxNbzNoLUV0cEJiVEMxcWFoeWZleFdPUHJnbThMdjNpVGVqN2ZXU2w0alFyUkdfZGI3czZWdHAxaGlydkZjcThzOFNxcFowaEVvd2hmTmlrYThCSWF0c2hxSjRzZU9sQlNuUTZ5bElyR2d1STFleUZvLWsyX3BzVHpNR3A0ZEhlSExHU2FXNThTSjB3UXQ2NVZxeWtxVnNicVMwNXdwZlFVa0F6bUhqS0VrS1REYzhfY1ZYQnhlVGI2ell4UG5KZGwxeTZyX1Rrb2tiV0tPNWNmbG4?oc=5</t>
+  </si>
+  <si>
+    <t>El impuesto a los super ricos obligaría a Amancio Ortega a pagar a Hacienda 2.198 millones anuales: la propuesta de Consumo para erradicar la pobreza infantil</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwJBVV95cUxNRmdydGpSanBwUmtGLWZXZElCdEQ5Wno3dTZ4dlhuRFpweS0yVUhPUmpjZkN2UW05dTlYMXpJZG82ZXUwS01vQ01UTTJkeFVqRkgzY2t1akpiaWduVEdXbkNrWUsyR2lFbE5xSGhLOTVnelFqbFB4cWJqa2VVbENLSy1kNmJFbkw5RDYtYWdnSFVQblNVRUhLak1GTzhKNGI2Y2hUSWZSNDNxeHpVbXYzMmdIa3A5VkI5aGFvaFFSS3lzVHlkUHBTNm1LOUwwQ2ptNlZGcHRnWDFLcGJhQ1pIa1RIVUU1MnNndUF3Y3FuOV83eGt3LWZiNFVVcTU5QU9BckpqRGowUkVpYTY2a1I4ZktoVmF1UHNiTHVCb193a0t0TWhfWHEw0gHCAkFVX3lxTE4tdmh1cTBhSVJMeVEya2VhUVAxWUZtcU94b1kwUEhNUW92R21pdzQ4d3pjdWxJZ2owN0F5MmVkTnlrakJqX0VwTE11SURlQ2ktdWhWM0ZXM0hKTXZBaG9RRUU0cWpucktOZ2JqTWZJQmxzOV82TWdwTnZPRjBYQU5vMHBJcW1uOGtVR0dReHpTQzc1dVRDVXNaRFEyX0xKS2dMX0RETU1faWtDd2xhX2ZtNWlrVy15Y1UyMmhGdVZOY1BqSXQ0dFRaUFdVMlBxWkt2YS1qNTROMjhUMkZPbkFmd01pdXhaalVVRXR2NXVNOURnb0tQbzF2RlhJYVJIODNzb2JXR3JFWmR6MFJHckZ6Z2M0QmltUV9Wdjl0dmIyWW1hZUhGdEowbHZFeUNmb2JIVzZ4SENZdFExWkNjTE83TWc?oc=5</t>
+  </si>
+  <si>
+    <t>Paso a paso: cómo aplicar la rebaja del Impuesto a la Renta por gastos personales en 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxPSnRfc2pNSEFyNEEtRmtqMlVwVmlMWDdsMUpSMUhTeEJPVzUzQ1NVTld2X3lwRVRxN08tT051dV9FdlNUUmJuVmQ2VXk1djJrRUJxYzFtWHc4RjgyaHBHUmFhTG94azRJaklBN3hLSHNqN0k5Nk56S2Z1c2g4RVhJcEhQTy1xeEs3d0ttMUJHTEtzWC1xLUN0cWpXb0xIZmxwVjU5YWVwYm8tS2loSEJraU9Za0dBN3lNeW5mN0NGQUFIOGluTVVuY1FvemRQd3l3SlNoWmxkajRFZ9IB7gFBVV95cUxQWjM5UXI1emFvbkZQbVpkbkdPRlJfUEZnTi0tcW0tZWJMRnh1ckNhTG5hY2FwVjhFZDR3Vk5NQ2h4ZVVUV1I5MWZaY0RmQzR1S1ZybHlLQUVQV05nU045Yk9WWGgzME5TVW5Pc0NsbnpFOW1vVmoxcDhWSE1WZVh0Z2dhTGYxOUZMMzdGOXBxUUd5V1h5dm85ZFQyOG9xYlp4amRFN0hGV3plN0tReTRiVkZjT0ZhU3F0QXVhVElLSzR4TjZIM3dVZnFlZXRPd3BKZW9lTG1rMnV3Mk5kOUI5RXNSQXI3cnZ2Mm1CUElB?oc=5</t>
+  </si>
+  <si>
+    <t>bloomberglinea.com</t>
+  </si>
+  <si>
+    <t>Reforma laboral: qué iniciativas propone el Gobierno y por qué formalizarían prácticas habituales de las empresas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7gFBVV95cUxNNWlJemtMbjRmQy1lb1lMd2U2QXNvSXhIM21SYjEwRDJXZHdueF9QTUQtRVA5NUxfaTFaQmVKaUFtN3N6cjh6dFljNkw2NUNUU29lSkozZkJzYkczd1JGMlNMZE92OURvZ3p0dV9fUGRncFUzS3pOSDB3VE5ZajFxSlplYzdRMDFsOFBkQjdOQnpNOTZUNVdsQVZJazc2aW5MSGxyQTNCeXFXUlE2dFIwWkhLSUNvN2gyR205bVRCX2QxU25NNVZXRTdMLWUwWGhFYlZTeUVJakZ4ZzV0X2dzT0gxSkhEV2dDSS00R0VB0gGIAkFVX3lxTFBQeHdPN05YWlNFVFhxRGVPLVdadlpBajlvMmRVbXhobElGRE8yR29kbk8tSFVsdjJXTTJCc2dHWG02SVdUSkdLeWNaY3pTYTdKbkhaaklxYmxOblpkOU40eEhWY2wzR0JLR3BoYXpHc0g2WUpweWdRb1FucUVrUVVOd1JXY1J5TG9FSEd6NzZfUEJ0X2EyaHlnUUV1a2pMSVlid0dfdTRnSlRTVGg5UllTNFZqQzdwRHgtS1pweThtbF8xTlpqNGR1WWd3bnNVY05JMW9Gd2prXzdKV0pKLVRCckFjTEs3ZGEwWmJTVl9uOHJfUVdjb2VfeDdPWkhHYU1fRzZDd0tTRQ?oc=5</t>
+  </si>
+  <si>
+    <t>Escobedo mejora movilidad y espacios públicos en la colonia Felipe Carrillo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxOSTFMekdtcGU2Si1MQVN5VFBzdzhaWjIwdHV1S0FYZWM2c0JxcXkzM2FDYkg2c0gwOU93Y0Fra3BIYVBaamxOR0xUNU50VnBGOUMxYW8wSE5OVF9VUXVPZTJJM3lYVk9Rek5XX0dTQVJfLTFWcXVLZkJZY29JT1BQWWtybk9uenNFazI1cngwOHExTUl5X05yU25fVXZFQjhsTGJNbHo2WnU2OVBLRlcwaFgzRERLU3pPWG5QZVlQa09jX3dIeHRRNl9KV1pjQ2vSAdQBQVVfeXFMTUpINkhpcVlMRnRmMmZJMUJ1a0JER243SUhfWlBSTUVGRW80Q1JRSWRyUHpLVEF3dnFJcUZnSXJKYTZZcHRreldqd24zdUVsRGFfTmxFdUo4QkM5WHZiSzNVeFA0UjlORVNybDhuT1RJeGI5eHc2NkQ4VEJlUHM2ZF9xcjgxVTIxN19QeDYxWUdUMnI2XzRrVmhEM1ZuMHFFLU1jRDVXdWlKMUJSbS1DMWc2U2xSRDd0aWxMMG1lalNKQUpPNG5xenV3WUZXZmtIQ08tUno?oc=5</t>
+  </si>
+  <si>
+    <t>Julián Figueroa convulsionó y perdió movilidad del cuerpo por implante de naltrexona, Imelda Tuñón culpa a Chacón</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMigwJBVV95cUxOXzJBdDc4bExPUFIyWFc2N0d6S3FXZ0ZhU1R1NHA4R0ZQOXpVV21oMFpIN21IZy1fdTVxNG5qTVl1M3pIWktsb3VfUVdDMVpzeTJITlZ5YXhEZm1NVWZrdnh2UHF0WElKSWVuYm92OVpGZFpROV9pMEg5UzNURk9KaVYyZVEza1BMcWhLMGh6MmlldHN4ZWVNXzdWRnBZUjlwMFZfQ2VDdW9wTWhHaFVxalpYRWd6bGdGd3hBNlZYLWg5VkFSZGhlbE5rVFBrWV9ZeGgtOUdrYTFCNkp4dkZsa1h6S0NwUm83WHlha3l3Z2JPQllKOVBHRlJYWFZ2VjFqQWRj0gGIAkFVX3lxTE5wa1kzLWJoY0pWT3JOSWFsVk9CMDY5cGV6MzFKTWJQYzI2cEQ0Qmg2WEJfNlhEU0dmTGJncHFQQUpRelFhaER0Zm50TC1iT3FoeGtVNl9HdnZVckI5dTBLeE1KZHQzMlBoMlZMNVMxZDMzaUlVVmFndndoeWtWalFoRXpvWV9tczA0VlJacU5VYlF1ZlI2M1hyNHFDMGtiN29ucVNicTBuRWRZNlJwOUJ1bXNZTGlaSFM5U3BQLXIwaHZSX1FLVVBGNWpXcGR2dERhWmt2RUNpSFRtMTF2am9OUTlTSUxiUzFYU3pjTEdvVk03cHg4NndDcWxJQ2QwNG9aa0ZGN0ZMRw?oc=5</t>
+  </si>
+  <si>
+    <t>Inauguran obras para la movilidad y la recreación en Escobedo NL</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxNSHlsNk4xTGFyeXBCZjh1S3VYek9CbzExWFNTZHhUeGpRSFFNRXgydTM3dnRVd044Q3pwbWpTa016eFNadDdjUldnR2lkTVFoSTdSUS1EVy1QNWtlOW9WYXdGOHJyczk1OTIyOHlUbGFTOVhobFZTMU9nclgxSzhsRnlyQVgxbUdSVHlOXzRjQ0lfcXFCLTZJUElIWnF2Z2FoSUstR0dlS2ZYVWJPNHpnMnZMN1Y3WlRhMTlXR2FHVndCRU3SAcgBQVVfeXFMTWFzT2p6NkZSV1g4aHc3Qkw2OF9kM0RxQmpENWlPWHRvUmV6X3FpcDBmV2ZvZU1tLUh4SjNJMFR2ZHpLMDdRS2xGOHZwcE85bUs2U2dPcnZfY3ZOZEdQMmFQb2dQM3Mxc2prYVFVQjE0cEZER1pkSzB2TU5kZ3lkcnJqdXdWbkdPc2k4d3k4dFF5OWdRaE9scnk1bXlLYXZINC1MT0N3MnllM1NfdzByaW1NcEZ1MVpRUXpycmtNTklIaE5CdlB4Vko?oc=5</t>
+  </si>
+  <si>
+    <t>Plan de movilidad especial en San Salvador: así será el acceso al estadio para los conciertos de Shakira</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxOcHhyS2FGNWxUaFdRTWc5eHVaRUU3VUJaY2pnbzI2ZGZyUUZvZmVxeG1uWktRWGgwU2pPMkE4R09YNWN5R0FJbXExanZsRUJhc1dVWnRyZDI0Mm10NGpBNjRtbUxsaDI3c01lbjdFaVhHdUhaSG1RMXZpREFUalVWTngwVmpBOEs0UTRIbDJLYlREaFdFcVRVd0pxZ1ZOczRCVkRMTzhoNXlBalV4VGtGNzUyeGNSWFhDNTFVUzBpSVBsQmIydklUcGpRSDFrUDdqcHQ1Y2FYWC1tRTZRZ2kza0xnUE5QZ9IBgAJBVV95cUxPb0UyQUFrRWpMNERjZlI2MV8xQkFJN1l3NTZpcTl1VWVBTUJFTktVLWlraEVObnlISE13SDdLOUdWX3ZLOXpDNktoUmdJcks0ZW9zVk5ja2JyR19GcGZLdXJueHBVZXpHdDI0VDZmNXZKSExGVWd3MjB0Wm1OU1dMYlZCSmNXQ1dGc3pPRHZsUkdnN2JiR29YNW1NZTNKNEdfZlduaDk4cEpuSkVrYnpHWW5nZTA5YlJSWmlIMm9nUkExSEc4X1BWdTByU3FlcFVyeFA5VnA2bTVad0wzNUpLcTlIN2RaY21pR3UzRkE0LTFKX3ROaHFaVWRKMk1sbzB4?oc=5</t>
+  </si>
+  <si>
+    <t>Andrés Mijes mejora movilidad y espacios públicos en la colonia Felipe Carrillo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxNWnhVQXlKUEFFVG5aSUhSRTUtbFJSektYOEstQWtJTXJCeWljeUY1TTk4RUFuX1NkeG1sM0hxZXIzeEhJWHl0NnhldUV5dnJXOGxWNmZzNTFpRzhWOWhJZmlTTTVkbFlmR1ZRam0xMVhVRmQ0dGh5cWw2VnMzdlBCTkZOUHhCcDJ4M0tkbG9iRmt5aVpRYjlBWHVXZDNPcDUzV21KN1RJNVZkNm5aakJMWXRtQTI1bC1QaWVGNzNRemdIUHF0b3c?oc=5</t>
+  </si>
+  <si>
+    <t>Carnaval 2026 en Pachuca modifica operación del Tuzobús y movilidad en el Centro Histórico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxNUEtYaEI0bHVzTjFfUVBRTVhQQTVsb0VrMWhhdzNla2g3Umpob2NZSzVUakdnVFZxVmN2NWpYZklpM04tT2d5N2UwTWI5WEpTOUU4ZXZBeFV4U2NmYk9XbmlMMHFhbXFTWTJIUDNaN1htR1VGQURTc2F2d1pUNWs3MHZ5QjJZRnlTbzllZm1kWUtHXzlFZjZOQmRSWFVLODNaYW1Zam54eUtpOFVNVG9PWVFqQ3hDTTQycF8wdFQyM0JWRmNpc2w3MEd5V0N3QjF2SFJIaDAwUFJnOFBkcV9IQ2ZR0gHiAUFVX3lxTE1QS1hoQjRsdXNOMV9RUFFNWFBBNWxvRWsxaGF3M2VraDdSamhvY1lLNVRqR2dUVnFWY3Y1alhmSWkzTi1PZ3k3ZTBNYjlYSlM5RThldkF4VXhTY2ZiT1duaUwwcWFtcVNZMkhQM1o3WG1HVUZBRFNzYXZ3WlQ1azcwdnlCMllGeVNvOWVmbWRZS0dfOUVmNk5CZFJYVUs4M1phbVlqbnh5S2k4VU1Ub09ZUWpDeENNNDJwXzB0VDIzQlZGY2lzbDcwR3lXQ3dCMXZIUkhoMDBQUmc4UGRxX0hDZlE?oc=5</t>
+  </si>
+  <si>
+    <t>Movilidad acepta veto parcial; busca tarifa preferencial en transporte público de NL</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxQNkRiYWVPM3RRem1KaDFnZXdNb0doSDVFVVhzaWFNODlyUnFjUjNlTWEtNWZwbGtDNkQzcEMyM1VfckI0SzVoUXpJT2dacWEzZC1oWTB4NGZBMmtvb3ZPY3FmNktDV1VKQ2pVQ21GS2tYNVFVcEtVYVU1VHU2MGM4OVE5SGpMbWJhU3RQQ29LTkctNFRfSERTa3NBYTR0S3Atdm1sNNIBpAFBVV95cUxOMFBlTlFnVXdZWWRfR3hhSGVsbUViUXV0MllaeG9oUHhwSGp2aWdjblh1Ul9fdDJIbktEN21MWkJzVURWZEl4Um50MDlWUjZCSVc1WGRiOUZmNVRvdUZlUm5KQzlOTnQ2U2VQcld3cHIxTEt4LXkxTmpKVUNUTXg1ZnpWVEJSWjhRc1M4UEdxbHllRnUwTS1qOHVmOTJGekhyVE5RSg?oc=5</t>
+  </si>
+  <si>
+    <t>Bandos municipales priorizan inclusión, movilidad y ambiente</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilAFBVV95cUxPQmtnRVJoU3JBbFZaV2FNRlQyNW5rdlNWeDhnT3ZreUV6ZEllZFVnQ0JoVE91VVJDSUtyb1N0WEI2amJQczZramY4Z3F6dEZITDBQMDQySUxPenV2MDhON0ZIZ3E5Z1BDXy0ySG15MElyUnlia3A4bkFQb090ZERXNjJrSUZYdGhacWR0VnI0V3VWM2F30gGUAUFVX3lxTE5aT21yLXNNVTEwMGdwdHhzLXY4RzN4cnoySndXMmFYM1Nyc25ONXNOeGhCOEY1X1lsV0V2RUtvcnJQbS1mcmV2bFdXYlJQOUgtTXZMdFJRNnAwb01hY2hyRVF2X1NRQ243OXJEbjA4a2tGZ0lNaWdfRzNpMW4zdlBBUmFOM1RqaXdYRWhubV9MYk9VZkI?oc=5</t>
+  </si>
+  <si>
+    <t>El Corolario Trump: seguridad hemisférica y migración de retorno en América Latina</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxPLURIVXpUMnZGaEFjdUtPa0FHOXJGVURDRHIycFo0Z2JjRDNqOFhsRWJRZmNWZnRObEJ6Z0t2Si01SlpMNl96NVZtd3cwaTYxOGNodFpJTjk5c2lZTk1DNGpCdWVSb3UxYU9lbDVxYjI0dTRwVVAxTVkzU1kwSjdXcWJVaTIyZFpHbndCQ0RJejdSR2dZSUw5WHhrZlJ6bTZIVkMtcnIzV0ZJbXdfM21Lbi1IYjljbjdoYWZQcG1LSFhDaHRPVUdDZ0FUNNIB0AFBVV95cUxNczlMbjNzSVVPcnMzaldnWENSeVdFcUR4cHdtY2FGYzgyYnRCYWlLWTBJanRoT2RJN1l4Q0l6dWZPa3B6V0NrSzJMU3dGb0tKamtlS0FWUmlQM2NVSlJxekNBZ0d0NzJaal92RVRIeDN3T2hYcmF4YUpwR3UxN250N2E2M0NXUlZIZXBfZURRM0FZWlZGaHI4dG9Gd1ZqYVY1X0lTaWFaa283YVc2QU5fdEc3ci1fd0RRcFhtbUZIMnBjRi1neGRBRUliLWg4ckJW?oc=5</t>
+  </si>
+  <si>
+    <t>Fuerzas de seguridad rescatan a dos personas extraviadas en La Malinche</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxQVG92Wk45b3hZdVl0VFFQSHVRaDNaQy0zNVlkdDNyMkE1MkEwMHoxVXE1aFdJeEM1N2UtMlUydU9QWHNGTmh4dlZaRGlqWVJWZ0Y5SDl1aU01LUw3eDEwMGRiZldyOTJhVENrOURqMFp6QzdwNTN4LTF4QjBXY2JHTXhTQTZpRTMzc1M3a2JrMVFWT3RmbHJTNlgyMm1TWXBwX2fSAacBQVVfeXFMTzFKWk1zYll3eTVTTV9EdGs4MFpIT3ZVNEY5WDNNZElHa1UxVzcyNjEtUURxREZzeFFDbFVLZmxrYmZMZ3dIN3NrMkZFOUVvVlpDRzhxa1VqNVVZTjVuMlVGVkZLb1gzcUVSQXlJRW8yN2MycjVWWU1TQjd1VVV6bGxQY19Rd2Z5ZDNONWtJdlE0SEtNWHA2REhaSWdKZURvSHVGblZRTDg?oc=5</t>
+  </si>
+  <si>
+    <t>Estrategia Nacional de Seguridad y del Plan Michoacán reducen en 30% los homicidios dolosos; es el año más bajo desde 2016</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxPWUNFQW5TYXljMnpqbHlVUkJUUzdaclhZa1FqOWpSNjdCWklDdVVjemdkVlNnZ1kyeE1tdGJqMGUzUFh5OC0xWEJoYWo5VEFXQzBMVFFhaVZiVEZ1M21lQTZtaGpLa2dFOFVKUXMtU1JKWERsSURmS3lTNjFiNjRPY1g3bmhtWDhaZE1uRFdoNEx2Yll0b0x2UmxqMWJDWGNIWDlwMHduckVPZWdaNTNVMEZFZHoxZ1BRNnFaUlhIOGY3dkVrY0U5MHc5RdIB0AFBVV95cUxPaDJXVlVpckoyTl9DSUQ4eFZfb043ZG9qRFJ5U1l2RGJURXYzTmhXM3lvcl90NGMzZWVKcnJMT3Zwc3hiYlZHOHhTNS1aMHJ0UUY3MGZaYlBXWDRBYnRsQm9ObmRSVTV2ckk1Q0dJQ1o4TXBmNS1CUHJSYm5rNDgwMjNtM1h1bEdfa1E0OFJybWY5QV9HdXJqNXE0TzdXaFQ3T0tXYzZGUDVkRHQ1VEhGZ1ZzMlBwUEY1b2dmWlpEOHN4T2pTTnNxYVVoeHRNZzgz?oc=5</t>
+  </si>
+  <si>
+    <t>CFE y Sener impulsan Esquemas de Desarrollo Mixto para fortalecer la seguridad energética del país</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxNdU5RSHF1SkRwRE15Wm10ZDVGZmlSVk5pLTJWbXl3VHVtdHNsT3k1UHRPWGNQZnV6aGtDblV5NG1CMjZmLWx3MGVQSDUxb2VBQjd0a0U4eVktN3lBLUFRLWM1S3FpUzBHWURBbm54dmtlR0NHeExVanh4VUpicUZoVi1iSURmSnphbXQ3MmVZLU1WZjZqWGJLZE1YU3dMTmEzeUE5eHBWQURrckxld1dqN3dSdmJpYnZqSWhoZkZaaTZRTUxnTHlOQTRXU09Hc3htOVA1ckpfS05EZlpwVXJyN184MEZzZw?oc=5</t>
+  </si>
+  <si>
+    <t>Estrategia de Seguridad y Plan Michoacán reducen cifra de homicidios en la entidad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNYzlXQjlFVzgyUE9WRVpKQ3VVeDFsMDV1cndxVEFHbG15MTZsanh4WkRSMHo2WVFJaEdXNExjaGdvb19nQmlSUG9JcmJjTzZVNF95TXBZS2dITjNLSXJwNURkc0dGQ05ZWHplSGRoby1EWFVUQUV2WFBGOVRKVjhSQnFQZUxxbVBwYmgxUHNnczF2djNSZmpDb0p5d3p5cGMxaUZQQWdvbzF5NTdvVHUxSHB3bUVKcG0xTVh1WXNZU2RQT1lMRXhmM2VLaFp6b3d0?oc=5</t>
+  </si>
+  <si>
+    <t>EU acusa de tráfico de fentanilo a suministrador de Los Chapitos • Seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikAFBVV95cUxPVkp1N3pkUTQycDRUb18tcHpSQ1R0YU5oZlU1dm5ERmdZRDloRGJyVHNJY1B5T3BydXNTbWtSSVoydHJPbXQ2cTEzeFlkUDlHX24tZXN6SEkzOENEQlVXYlcxLXRWRVhldVNSZm8zckVjWGpHNUxXSGZYTllBeGZoOFBXTGxITUlrcG5TM0RrQjg?oc=5</t>
+  </si>
+  <si>
+    <t>Caso Axe Ceremonia: Jueza determina como legal entrevistas de MP a Ocesa y Seguridad Privada Lobo sin presencia de abogados de familia Giles</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgJBVV95cUxNZjNlVUVtTDZOaERJYXlncF83NW5IV1JIWWVkZERRNDBXTTBMdnRWOHpmekVmWm1xb1F0Z0VzWl83ZVBtM2lhUjRuNHhvNjh5YkJPaC1XWXktd3ExUlN2bko2VGp3bjRUeThQd2ZUejU4blo5eWc3cDlFZEVCQ2pLUms2UEowS3pXS3ZsZHF6TFFzM1VsNEtLSW5MOFdHcC0wV2tSZnNyRjZDU0hnQi14eXhWcjBuVFZWQUozUGFyNnBpSzRmcUdLLXc2ZG1pOXN5a1I2S05uRVU4WDhNd0xld3E1T2Y3NFZLbDBOX0FnRG85c21PZDM5NXJ1SHdyZ0tweVJwN1VvWTg5dXdEZXfSAaICQVVfeXFMTXlsTF9pTXQzU2dfYTAzQnA0eUQyTEppWVdodzExMTE5TFVHU2hEQnNKRXIyV3hLTW1UeHFmTXhaUm1fVmtqTUtnN3g2RE4yTHg4d3R1YzIxd2tIX0p3UUstcGY1WDdCNmpjM0ZodG1FSEwxSmhQUTFGdVJXanJCT0UxVjNjTWtDQVEzR3pKMkh6ei16b0tVZ3BnNWlZUXZVRWFaRUlLXzVfMVlMRU5fbGlaQS1pN25zTXE4eVRBdjlxaU9iNk9kVWpPZElQVTFqLUZKdFZNcGpuTThleDR0YzJJcHJHeTc1MU5RYy11SGFOaHQxR0NVckxNV3RpUnI3TTAydko0V0RBcWtHRkV4ZTBkdGlfVlRrU2lqZ0czS0tyYWc?oc=5</t>
+  </si>
+  <si>
+    <t>Robustecen la seguridad en municipios del Estado de México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxQQ0taZTAwZkdGRklKNlBnbncySkhfRWFmUTlCYWQ2Z2xFaWFnbm5nUXA0SWZPWTF1LXRPQmRULWcxTS1mXzEwaTl3VG0wOU9GWm9YM2dpaHhrOVZNemM0b0l1WEpCRE1PTXY0X1VHZm5tZngwVUZDdnV2TmlCY1liS3F5aDdlTEVfQ3hnX0xCVGdEeUJzWEVpZzlNTnZrekJNNWR1Y3B0eER1MEVLY3JNQWtCRm1tb0FfYXB30gHAAUFVX3lxTE0yTkVwTlloTVpUWGt2c1FmNFpaSDN5SW12dVhiVDJQc3JFSmViNzJKTUZaQ0FHRWc5S0dSa2ZsOGRSZUVfNVh5eEZ0dHJqZWt1OGJ5VVlTNUsyZXoxUFEtWkZVLU1PT1prWmlyQVdQYUgzaU15LVFHaHVUUkpOM0NWLTRUMm9fWW5NUW8zcXpBcUl5Z3ozcVVhVVhTOUFjRjNkWklTWDdvQjMwVHV5c3M3SDd4SzBnUExTdXFBcEFnTQ?oc=5</t>
+  </si>
+  <si>
+    <t>En vigor, reformas en seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxPNHNXY0RGNUFlU05WSGFxOTQ3VTZlSTlCSHpHUy1BaXBkUXJJMEEtSG9rbXR6SDA3T25FWHg3TGR0MWY0dEFzUnFnSDhQaDl4X1p6RkpUdXh3cmUtVjgwQmllUGthbXBldC1ZX2JiU1BDWU5JSWY1cWdibVYwRHRDY1JRNFFPbEQ4SkpSSUc5RVZDZ3hUdEkySVRzYndidG_SAaQBQVVfeXFMTXlUd0RMdkZSakFMOXNqWVh6SzRMZDdQcFFSaThydGg3ZW4xTDk1S0RkN0I3VWdlU01WVm1rZEYxRER4ckNJc0p4M1prTTFrZ3hpOWZ0YmlTcmx3NFhqQjVvczhNLUdTYzRxT01QazA3LUNBU2ozVFVMX0hGNXVtM0ZwOWlXbEhScE1OdWdMTDUxZjRQTEdVUGFFVjZjRTFYdVo5SUM?oc=5</t>
+  </si>
+  <si>
+    <t>Mando militar llegará a la Secretaría de Seguridad Pública de Uruapan, anuncia Sheinbaum</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxPQXRjb3dmQTlORkduLXhzTFktZ0pEQ08tX2VHREt3OThtM0x6d3RPVmZlYU9fMGU3b1l0YmZJUDNXcGFvb2dGbVNVNnYyVGJhWWRHQmtpY0NGYlg1SUdhNGJzMW5qTDdWd2o5X3huY0J1d09jUS1qWEFoY1pMZ1JMTE4ydjNGQmloS011VUd2c29fTjQ0SGdtSDdOakdjSGtCSUxxWENzWDg2YkNNMktGeVluWDJSZ3RnRHpBek5aNEFjMDhkdXVmWlRNWGFpSWdwTXdwOEtYNVV0MFBtR3pn0gHkAUFVX3lxTE5ZTThpbkNfX0dLZkJveC1FOHdlZDJlRVU5bjlNWUtQQjZoaVFpVHlFeUZHWEJCOWlIUFpXLTdGeUJLanZ1eUZMVWFCcDZ4cEdkWi1XNk5mdkZUamlHMFBwQ2t3ZVVUMGRGNmNFRTVXSGs1eDB6NjF6ZjUtTHpzMVBEdEtTeUZBQkxQSzFFVnlEcVdPeTlCYTNiRWpWenQ5TDhIazRDaXhXYTR3eDhJUVRKNG5hUzRfS0FsNmRqVV9MRG1VZnVWUmh3T0xDWXBvUm9nblQ2TmZlRGdNbVdfcUhyR1BhTQ?oc=5</t>
+  </si>
+  <si>
+    <t>Robustecen la seguridad en municipios del oriente</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxPQkw5eE44UkdmMG5zMlJ2eERtMlE4UHRDdEN4dHA1aUlVS2FmT1F0Rkw0WjkwemVndDBsMFdBOW1tSXNNUWVlODh4bG5haWs5WXdYMGN5REhpMkdjT295LUVTV0ktcVdXSGVxT1E0cDkyUjlfZ3NtTWRmZ2w0TGFyWmhGVE1KUGRyMXVydXJsRXhseVhkRWRLdGNFYnhYbURRdm4zQnRoOTNQRk1fdnlWajljNER1bU9JSUtibjN0Zzh5RVnSAcMBQVVfeXFMT0JMOXhOOFJHZjBuczJSdnhEbTJROFB0Q3RDeHRwNWlJVUthZk9RdEZMNFo5MHplZ3QwbDBXQTltbUlzTVFlZTg4eGxuYWlrOVl3WDBjeURIaTJHY09veS1FU1dJLXFXV0hlcU9RNHA5MlI5X2dzbU1kZmdsNExhclpoRlRNSlBkcjF1cnVybEV4bHlYZEVkS3RjRWJ4WG1EUXZuM0J0aDkzUEZNX3Z5Vmo5YzREdW1PSUlLYm4zdGc4eUVZ?oc=5</t>
+  </si>
+  <si>
+    <t>Megacárcel y duplicar elementos de la GN: el modelo de seguridad que propone Xóchitl Gálvez</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxOME5SbEN6UXItZGlkX2wxNTJ6QWVJSTJIazNLMWlyc0JSZVRXZ1FlOHc3UUZkWWdTMm1yVk9iQkswNE1iaEZqS19mY2tnNEhhdVdBNlZnRG5xUDZYNmJRdjZRaFdTTGdMQ3BDVERROUFvVm96RUFsVG5rSGVRQlFXTXRKY2liUjFNX1VSTUZlclE0UEtKOGt6aVNTcGRQYkRFUm9ZczVPRFdmaWg3bks0azBhV0pZaVhwZGZ3aGRZS1c5dXYzWmhuM2JMWW95TFpTa25qd1VtZnFrRGlyQ0xsbkRYbU9TZw?oc=5</t>
+  </si>
+  <si>
+    <t>Plan Michoacán logra 15% menos homicidios y 430 detenciones, informa el Gabinete de Seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwFBVV95cUxOQXU1NUIwRnVJYXlwUGo5QjJ0TnY4bWJvTURZR2xPNHdfRVY1emNoMlkyeWJwOXZ0RG0zbWFDazdhYmVrZnZiQW5IeWstWHNZWnVlS2RyMU5Dd053d0x2Z3JRV3ZkY05zWDNwRDV0aXUwN1RsY05aa2t6Wm9TZHFyTmhjQ0twWGFwUnVkN2N5TQ?oc=5</t>
+  </si>
+  <si>
+    <t>Grecia Quiroz y Harfuch se reúnen en Uruapan; abordan caso Carlos Manzo y nuevas estrategias de seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMif0FVX3lxTFBqU0lsdVB3VEx1amJDUHFKd2xIbjJNbnlQVFg0V1ExYVN3TEpPdUg2aVl5WVVFM0l2OVZZNG5nWlA2dFhQNGRxTlc5eU4zV0lzRzVLdFNsd2p0SzFSS1B2NHk4dC1SVVkxUm5vdnlVbGg0UUtBa3JtTTNnZlIwbUE?oc=5</t>
+  </si>
+  <si>
+    <t>Crisis de suicidios de elementos de seguridad en México es provocada por malas condiciones laborales y atención psicológica, según estudio</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwJBVV95cUxPWkdPbmpPdTBteVZkaXpCWU9Dall2YnNfSWdBMl9fV0g1Y2dvUFM1RGFPWDlhS2kxOGU2QjZVV2U3czVWeG82QTZrcUtMSDB1dEtWSVRCb213VlVBcWUwY1dDaF9sbG1VaWUyLVV5YXJLbm8ycVdqTUFHUHBNTWUxX1dWX0RpendaY1Y2OVd5OWNWUFpYYUFCeGtJNGJrTWhNVDJ4cWxHVDhJNnlJampneVAwWFFLNDlUMFU5bVhNZk1CZ1E2OGVMRUpyQ1dDU3RyMW1heVU1Ui1jSDJMbm9INkdmYkt6bFdoRlB3ZTVUY1VZdUVKXzZOWUQzRV8yeXg5RTdFQnREVWFTVlR3eGlj0gGPAkFVX3lxTE9aR09uak91MG15VmRpekJZT0NqWXZic19JZ0EyX19XSDVjZ29QUzVEYU9YOWFLaTE4ZTZCNlVXZTdzNVZ4bzZBNmtxS0xIMHV0S1ZJVEJvbXdWVUFxZTBjV0NoX2xsbVVpZTItVXlhcktubzJxV2pNQUdQcE1NZTFfV1ZfRGl6d1pjVjY5V3k5Y1ZQWlhhQUJ4a0k0YmtNaE1UMnhxbEdUOEk2eUlqamd5UDBYUUs0OVQwVTltWE1mTUJnUTY4ZUxFSnJDV0NTdHIxbWF5VTVSLWNIMkxub0g2R2ZiS3psV2hGUHdlNVRjVVl1RUpfNk5ZRDNFXzJ5eDlFN0VCdERVYVNWVHd4aWM?oc=5</t>
+  </si>
+  <si>
+    <t>García Harfuch Da Balance de Estrategia de Seguridad en Michoacán y Destaca Detenciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxPV2t3eWNYX2FnOEZPWVlQdDIwaHA5WVVVVHkwTFVleXVJcFpsd0ZUTFF6MTMyUW90ZE4tU2Q2TFpKQWliREFJSG5FQUQxd2NCMnZkZWVGTnM5VVRFSWNhdWJnbFRTdXJrY0hQNTQxR09ZZXA2T1oxSlhtZWctTHVaYng5Zk5mOUpCUlFzdGl4TGtXMW10QlZaRGRsVWgzSEZibzZ6MUVKMFlVeDhtLXhTaGJjY25vUUp1emN2U2lDNHAtVE9odW1kdHVtNXAtUVgwVlVOYi13?oc=5</t>
+  </si>
+  <si>
+    <t>Refuerzan Seguridad en Zona Rural de Tecate Tras Enfrentamiento Armado</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxNMEFfOWVGd3drZXN4czY4T1ZIdDdVRWRwdTdXbXpPNmxucnFhbUl1b01TalV0UXJZTElCRWFldnRoX2VOZVI2Tll5aUVRc2JsWG5KZ01JR0tBVnhzODBpTXV1QmVBN1R5eU1YQXo1eWNwS2RoQzN4Q1c2NXF5ZUQ0V2plbGEtdE41ang3XzhHSUVGRTZvWS1mWXhOWGY5UVBLbFM4ZTFTMmdTcDBGeVdhem1IblZWSDlPd2RyVkdadkJmbzJLOUZqb1dhM1lrYm1HTW50eA?oc=5</t>
+  </si>
+  <si>
+    <t>Del Ayuntamiento a Almoloya: Ingresan al Penal de Máxima Seguridad al Alcalde de Tequila</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxPd1pyYjNBenRWMkpRSHNPMVRDdUR6dmtGN1I5ckpYWEUzQk0zOHlXWkNHWEctVHhGbEpzMmNrb1ZFZC1ibEtSdFZBdV8zLTEyR1U5ZUJFTzFLaVNDLUVVLVlvWFVoUjhod2tkckwxaDY2cWx6TGZjN1Zub1JJMzFqcmhlUUpxWTE0VDNCT3YtbXEyVlJsOFBSX2NRTHdoZW5kb0JVeDY5V2U4YXZicEZnSnlKd3BGYlZMV2ZsRVpOYkgyYzBsbXc?oc=5</t>
+  </si>
+  <si>
+    <t>Golpean y Amarran a Guardia de Seguridad a un Poste en Monterrey; Autoridades Buscan a los Respo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxQbjN2Sk1mYVNzX05JYUhyMHU0dHJYbzF5MFlra1lLdzZwa1dac0xtM3ZYdFNybHc4ME1SWHBsWWNfXzJVbWRTeDh0VFpYS2U1VV84RkhzZk5OeF8wZXNuamNMdHlTTDVHcFBCbGdzdDlmNnZVWWFrNlNVeVdYdnR3NUk2YlRpdDluazdCcHRNNVBndXl2bUhUbzItYUs3c2FncW82aVBGSXNFRURIa19idjdJN2Q5cU9HSXBHbm5FaVdxc0tUME91VnBFcnVld3Juam5KRHY5dko1OGRxYUlnRlFaRmM?oc=5</t>
+  </si>
+  <si>
+    <t>Samuel García afirma que Nuevo León vive su mejor momento en seguridad en los últimos 15 años</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6gFBVV95cUxNdk9XRnhpQ1FQdDhmOWFhMm9iQVN2UWJtSC1wdkRMQjBhVkhOX3o4djZYQWlLYlhVaXVsbVoySGFCY1ZnUGp1RmZxUmgyS2YxU2tiU1hEX2VydkowR2ozVFpmYVRBUGxpMVRrbmpYeE1CZjhvLWFNM0NYX0NJUzVzU25qOFctaHY4SVA4dEg2czlWNzVsb2M3MFUyQVdPTVZVSS1taEIwRU0temFINkd5Sm5hVUxxdXQ3UWNTRVpjS3pabXVJLVlDU25iS2F5eENhbUFkUktVWEdHUjg5dnBHWWxvZHhoSk1fNlHSAe8BQVVfeXFMTWI1ZkVjcWpIN01HYnJlRjhjTHRJSnQzSVVGcUgtVjlGSG5hS3BTRXFjOGdUVGpqdXZsaHBmLXd0OGYyM0pkVXYyYXBHWUZlNmVZNG93U2VxUFVwN2JqbkczQnc3elhZY2FLaHBZZmZEMk92ODRzMUgtMG5VenltNDRNdTdZc1ExaE41SEpuLVVGWExEdUFERUlTQjhHaFludk5IWUEzLU1DaUV2cUJUbGh5cmpndUQ4YlNsNTh0SVZjZFVsc3hSV3ktTTNNMjB6QWcyV0w2S0FEWnRxVEphVmpVTTlTUmlIU3RUZ0xpTnM?oc=5</t>
+  </si>
+  <si>
+    <t>Homicidios en Michoacán bajan 30% tras plan de seguridad; 2025, el nivel más bajo desde 2016</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxQWWlVV2UzY3BDSWpXY2VpeG11eE8zWEtsQW9iNFFYa2tqMWdZeW9LVGdpN3I5Q012MmwxOHV0bk1YSW9VTi01SF9qTlRPZ3dxdDQyMGNPaE5EQ2pVZ19RY2JsRk52elRJejNuSTJGamV6M3N3dUxFdU95cE5xNGM4SFJaVm9hNXBLWDFOaENsNEJ0MWI2YWVSME12TEdxb1N1QXlHNzcwNzdPNHJUUlhDRWUxZGhqTXl3V29fWndCYktOS3VyeDVhQV9zX3RaR1NNMlFFaGhEOXZTcFVzazYtamUtRdIB6AFBVV95cUxNMllUNG5UTmhJaWdFeERqaUFFSW5GaGdlRFJqcU1lMFJDMDRsUkRPeW9HUm1CMVhjejhvakt6Z1lzVXJEYzdsRDFDVUF0QnpwRmtVWEVuTGdDS0pWUmpuUlJ0clR4WXM0bFBoVTRrdDdoT1hlSl84Wjd5NENhVmdFTE0wcmt0d1FXMktoUVM0WFFHWDdSSHNpNk4wNHVPV3JQUm5tLXdwTmNnMF9INXhKbE9wR19pZlFibEFSSnVvTzl2d3hUUUJrX0lZU1JIWEhIem10elhjaDQ2ME9fWGF0aTFpd01YMENy?oc=5</t>
+  </si>
+  <si>
+    <t>Adán Augusto "entregó la seguridad a La Barredora"; asegura expolicía de Tabasco</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxNZTBCdGxGQ1NKU0hTUkRGWVAtUm1qRUR6Z2RRSXVFbG9laUQyOWwxT243N29hZUJpOEhRSmcyZ29idnkyaVd6QnVBbHE0UmZ0ZTBoN2VfdHRaTWZBX09TZ3NYcDRHeHBrenFYN3c0WGpMRnZmWThpcUhSV1FlZmxLMjNucnF4Q3BIUXNYd0VWYUp3eGJfeU9wd0dMV001Y2V1OUhmZkVwZ3FCUXVRTEZXZ200WXZyUdIBwwFBVV95cUxNUjlfWjk3LWVlcEgyaUxJd2xDeGFWWWpJLWhPMEJ3ZW1BeDlEOU5zX1E1UWF2c0ZrM0F3MC0yci10b0V1akw5ZDVBcFVXcHFKbEdsdkRiZi0zdGJKWWY1blozYmtUNWNsd2w5LVRscG1tWDdsWXphbWlQbENraGR2WVQ1YkV1c1pJYTA4bzlMM2Y1YUN1VlJ0N2o2d3pZSm9BUy1zRjh5NC16aU83cGpTeWNqb3d6UWtZTGxtMTRzdWxpVmM?oc=5</t>
+  </si>
+  <si>
+    <t>Revisó la Secretaría de Seguridad el armamento de la Policía de Tequila; arribó la Fuerza Interinstitucional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxQdm5KWGczVGdWRnRBSFRvYjlIU1VYcVNhcjhPcThJa200eHBQdGNDSlA1QWJwQWlmQWN5LUNRQk9JR0FjMUZlMVlnWjEtM29mUEJUUC05WU5hWmNKb3hPTVFqdm16Tndwc21acWFXVk4wQnJLNnZwOVM1WDhoRVFHdEpkRFlqcWdtaHFlX0pLQ2gwXzE5RHZsT2RUUWQ4NVlZb2l1U2hwTWVfLXR4OWo0dTBCV0Y5bG9pX3VwY1F4S2tCUGtCdHJSVXBMMU5EY3pjTm1rNzEtSWtyMnRXYy1QWXE4aEFhYU1XUERN?oc=5</t>
+  </si>
+  <si>
+    <t>Aborda Jesús Valenciano temas de seguridad y aguas internacionales en Washington</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxQdzJCQ1NXOXo3czBIdHZ3NEQxWm1EMklrazFTWGtnODhSX3dtQUhseFJ3TW1lQVU1Zzk2SWlxZ0Q1YXFDVUlyV2wwVU1Ucm1vMVYzdGtSREpuaTY0NnB0UGhiQnY3TmN2YXgwMl95TU9IR1AwUjZiVEcybVFfWEluSXVBc0NCdDFxVWRONTdjc193VTdoc2J0cmpPZnVSdUViMEFuSm90U0l5WXdJalZNbFJEWmdlOEp6ZUpDSG5jYTY3QUh0T3Q5OVdwSEZMWm9o?oc=5</t>
+  </si>
+  <si>
+    <t>Reforzarán seguridad entre el Estado de México y Querétaro</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxNWkdZelV0ZnlhbTAwWTRmandvQ2tZZ2NtVXM2NGtoNGFSQzMxb3hZa3YxSGxsQVBpMGdrdUtNSHdwS0VQQUg0XzhQdE1xS1lHcHNhd19XNHdjSVVBNmplcmxDd2dmMXIyQVMwenlON00wOS1jM2YzQkRhc2xZZVhyLWZ0eGNQbWxpWlZJN24yMW5QZTlKWDBDX09lWVJUYWpNb0E1MkdZemMwUTZnaUFB?oc=5</t>
+  </si>
+  <si>
+    <t>Huixquilucan refuerza seguridad con Guardia Nacional y C-5</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxQWGszNkp2QmhLWW5feGNnM25tYjNERE9ic2JqQ1R3OVE3ZnVVcktlVHh1TXdSeC16b2RsRFctZm1iWEdQRktUa281UUQ1cEZMVVkycUNJQTNzR1dSN285bUdCaFlodlI4Y1RvSnpzeWdmTE9mUkRQVnlSZDVTRm9TRHpJSUlUcFAxYmNFRF9TeGJScGVFOUZEMTBHTWRXM1VtSHdWbTJTUU1Rbm9nZkdz?oc=5</t>
+  </si>
+  <si>
+    <t>Seguridad Pública de Salamanca confirma privación de la libertad del empresario Gerardo Arredondo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxPVGNWak1QXy1RMy02aTVSZXFrRXJLS250MUt4dWZTQ24zc09LNUQzRFNWcFJWbVFUeU5PS19hdDdMNS14b2pQdEFrSUZobERLSU5KSkI3b0JUam1NRUNjaFdoaG9GSzdmR0RDRDVEd2pyTXhpZ09uWkVycE8xU1BxRmNJMXJLZm9SMWI2ZUI5MklmQk8xUU9YZTQyWXA4aXZSeWNaMWJaNDZvb1NCemtaM21ENUUzc3AtN2ZkeFViNkU2cDM2amdRQ0x5ajJBNjQ?oc=5</t>
+  </si>
+  <si>
+    <t>Empresarios escoltan su propia mercancía ante la inseguridad en carreteras de Guanajuato</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxPRXRSMzhuNnNSbHVFNmNaSjk2UTdaNGpYV24zY1BZdW5sS3hodDdKb2FJeWtRX0M2Vjk1cjZQQkN5Ml9fb0RHdHNyMnRES1pmR1BCbjdsR3RMeGJoS2JLMTlyWjNyVWpVczBDeGJWOE1YU1RDcTJvYTMwZUhZUGFtOHhsbEVsbjJucDJkalNjT0xOdzhMRGRDR2F4YkM0NThJRHZWXzdtbGZQeE5XRF8zcjhmT2RsWnZrUGFjal84WEthMmlGenlHbTdSbUh3Ymk1RFdITFpwMXg1YkxtTDV0MHU3OEHSAeQBQVVfeXFMT0V0UjM4bjZzUmx1RTZjWko5NlE3WjRqWFduM2NQWXVubEt4aHQ3Sm9hSXlrUV9DNlY5NXI2UEJDeTJfX29ER3RzcjJ0REtaZkdQQm43bEd0THhiaEtiSzE5clozclVqVXMwQ3hiVjhNWFNUQ3Eyb2EzMGVIWVBhbTh4bGxFbG4ybnAyZGpTY09MTnc4TERkQ0dheGJDNDU4SUR2Vl83bWxmUHhOV0RfM3I4Zk9kbFp2a1BhY2pfOFhLYTJpRnp5R203Um1Id2JpNURXSExacDF4NWJMbUw1dDB1NzhB?oc=5</t>
+  </si>
+  <si>
+    <t>Activan protocolo de seguridad en Colegio San Roberto de Monterrey</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxPM0IyNlVla3hsZEVEeEtpTGNtREVVRUF4cS0wYjlxXzlQb1g3eVAtUUpoN2F6bjViazU1WktfTFpPZ3NOT2NEX2NaLVBTV1kySnVENlFubjhIamxiSWhXTmh3Vl9yZGJQTEZGWlduVXJkcF8wNjVhVVpUUDVMbksyZ3h0bndDYnctZlo4b0k3MndzSkR2WVBPNzNOT0NrVkhzc3U0cWhDUHBINVdISmg5MWt4Z0dvYUhhZnhxejVVd9IBvwFBVV95cUxPM0IyNlVla3hsZEVEeEtpTGNtREVVRUF4cS0wYjlxXzlQb1g3eVAtUUpoN2F6bjViazU1WktfTFpPZ3NOT2NEX2NaLVBTV1kySnVENlFubjhIamxiSWhXTmh3Vl9yZGJQTEZGWlduVXJkcF8wNjVhVVpUUDVMbksyZ3h0bndDYnctZlo4b0k3MndzSkR2WVBPNzNOT0NrVkhzc3U0cWhDUHBINVdISmg5MWt4Z0dvYUhhZnhxejVVdw?oc=5</t>
+  </si>
+  <si>
+    <t>Monterrey es el municipio con mayor inseguridad en Nuevo León, de acuerdo al INEGI</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxOWDgyYXVQdzI4cS1XdmF4Z1ZJc0IwdUUxVk83aVJJQVhPX3N5dHBacDh6NG9mWlVnX2h4eWNPYnJSaUotU1hNU0hiUFF1T0V2ZzNNV2Jad3NTQkZWcXFkR1NDcEt3QnFyQk5JYkJ2cEJVSTBmamVnQW1KNTJwbThDM3BYN21Va1ppOUNyY1F2VGQ2MEpqb0N1NFotTzhDNVRrNExsNWZPcDk5c0N6aXVzUFBXNmZGRDhNNWRZQ1RuTGhtckI0UHhKZXEyMlJ6Y3FrLUc40gHTAUFVX3lxTE5YODJhdVB3MjhxLVd2YXhnVklzQjB1RTFWTzdpUklBWE9fc3l0cFpwOHo0b2ZaVWdfaHh5Y09iclJpSi1TWE1TSGJQUXVPRXZnM01XYlp3c1NCRlZxcWRHU0NwS3dCcXJCTkliQnZwQlVJMGZqZWdBbUo1MnBtOEMzcFg3bVVrWmk5Q3JjUXZUZDYwSmpvQ3U0Wi1POEM1VGs0TGw1Zk9wOTlzQ3ppdXNQUFc2ZkZEOE01ZFlDVG5MaG1yQjRQeEplcTIyUnpjcWstRzg?oc=5</t>
+  </si>
+  <si>
+    <t>Italia intensifica su seguridad para los Juegos Olímpicos de Invierno contrarrestando protestas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxOSHVlVC1rWEpYZE5IeVowY0tNX2d0Z3Y3dXp2ak9YUVNjTVBJUnNmaU5lel9hMDJKeHQ0QjAtdm9xNy0wSVNCemdFNGlONUlFZ0J6N0ZlczFwODA2T0xHQ1cycHRNTUFDempQTUFaSnFnXzFNZXdHdFFhbk1YWG5XU0x6RnowZk9XRFo2MG16NVRPMTRFeDhWU04wQm1ONFVTU2l6WFVScEhUMmF4czNPOUUxSkpBQXNoWEFiX0dMYTYzZXhLQy0wZE56S1YwZTlJUGxDNllvQlFUVzlrN0VuS2NEVkpoY1J0dTR6RQ?oc=5</t>
+  </si>
+  <si>
+    <t>latimes.com</t>
+  </si>
+  <si>
+    <t>Debe garantizarse seguridad en Tequila: Lemus tras detención de alcalde</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi6AFBVV95cUxPWGxQOEtBMDY2UGxqX0lDQzN6WDFzZ2NxQlo3SVFBRDVrQk5FcWQ0ZkdNN2lpNy01V09JbGZvZEh2MWJpSFVIZ3FsenlCU1Y2ZThDRkhsOGp5MG1uOG1MdDhtZ3dfTTZhdnUzaXZwc3FQY09tZV93ejNiSFlXY1NHeGllWW9QbUwyRGJhVldNY1ZnbXJuTXI4QjNyd3NrNlZYak9BVVdhN2NOcWxxdXQ0SU1JVElESmlGWUNRcld1RHEyZkZxcTFPVUVQYVc0WjJDOTZjOHpYOXZOTHhFV181eGVoUWI5SDFG?oc=5</t>
+  </si>
+  <si>
+    <t>Asfura y Trump tendrá un encuentro de “alto nivel” el sábado en Florida para hablar de migración, narcotráfico y seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimwFBVV95cUxNS0NnSTExdnBMUjVFVDdVeVZvaUZoZmE1bmNtM3ZmaUhKMGpwLWtMM2tDQ0hVV3l1QXN1WWxQcks0WHVkcUtVZzdRWXdfWlhHa3ZzNEpFY0pRd202cWtEUHVWM2EwWTJxY0FKd3lQcXBMdTVlV29wQmdjTTdJZEFlaTBFRXhwU2JZaWtENzFvdVMyZVdkTTFaZ3gtQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Archivo de Etiqueta de "Gabinete de seguridad"</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE5GUWhNejEwU1hXWGpXWm5SZ0x0Q191d2dxbF9MTm1PSFVLT0Q4U3JhRmJSZV94YktpTXJFdDNYd1RndVB3a0c4Mi02VUNLc2tWd2FZY0I5TWdOZldGM0pnd0VLbklxdFB4VjktMll0QlVHbkU?oc=5</t>
+  </si>
+  <si>
+    <t>Quadratin Michoacán - page 4 - Quadratín México</t>
+  </si>
+  <si>
+    <t>Hoteleros en Nuevo León reforzarán protocolos de seguridad de cara al Mundial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxPV2V2Sm82YlJxMFBmX0xRYnlJeW1qX2ZtZVlHQUFabEJfcEwwekRaVzgxX2NzZE4tMXRKV29uUHp3RUE0cTVWWWVyaWt2SU55c2JtMWdtQ0I0S3FDSF9TeHdBakQ2Tmd2cVByeHpSbGwxNW10UFAtdHZaWTNpOHFLeGRCNGRQUEUzMmlSZUpGcmFPWllTckR4NGJTNGFXV0tua1c00gGjAUFVX3lxTE9TcXR0VXk3aC0ybm03N1JUM3VCRklhclp1OXdOSU5CUDhEN09tNEdyTUxyUTZTanVLUkJXc3B0Q2VrNkFUZ0pSbWhaWEU0ZTVXaTlneDdDczJPTEpsakFXOHVNOHEtM05WNXlFSUo4WnZmakQtUGM0VmdQM0R5VGRzT1pNSWx1UkhxTG1SeEpZYlQ4blBqcVZCTW1PSWs1UU1ESzA?oc=5</t>
+  </si>
+  <si>
+    <t>Guardia Nacional se integra al sistema de monitoreo del C-5 de Huixquilucan para fortalecer la seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxNdVYxNzRRRmRabTVCcEJ0VTdiZmp2NVZpZ1Q0QkpMa3BqMUpzRmtGUUpsWE42N08yVjk2SldpZXVlTEhGNzU3Xzd6X21GN2tmNk5UbC1lNjFWQjltWE0tWDk0bHhFWVdfcmhjNUFzeDhBQUhCLTlERzNwOXdvMWdpTmZ4UzJucXU3OVdHa01n0gGOAUFVX3lxTE5SZmxOOFNrZDdNaGx1QktuN3ZaVk1qV3lLR0VIUGlHckgteFl3Ym5Od3dINHdrdVlBNENmUXhZRlNLYUpsRHVoU3ZTTnVWSmRVbkxLR2RKa0FXVTNSX2xEWVJJbjVGTnBxckxBMklXcXdvMGxwNDRXX0tOVFIzcmJCSllzU0RWbXBjZ2hYT1E?oc=5</t>
+  </si>
+  <si>
+    <t>Ven a seguridad y cruces de carga como claves para Nuevo Laredo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimgFBVV95cUxOUXROMFpPLWdZTDFESVVUU3NRaFZZY1dDeVVZRVZQWmxYTXFFYlNfMTNnZ21ZTUFvR0NpeUVidHRYWmVHTWdsTGRiYWhrVjktR3E2SG5SVERtZm4zcF90bDZNWUNpZVdYME5hTFBWSWEtVTlISmJ3VENqa2JLb1gyVEZDMm5KMEQzNmt3d0RpN0NyVER5d1N6M1lR0gGaAUFVX3lxTE1KaXk2WHA0aXJNT0NpMkNNWVhvVnRjVnRZZE8tSUd2ZC00RjdwMUNJUlJHX29EMmxJY05TblY0U3ROSzYtVU9OZ3NGc1M2YWJhM2l1aEx6YU5qazllUmtPOFdqeV9wbkVDR2wyOHBEUVRuNldPMGZERk80LTctWHV2V0U0YTIzYUhwMldBejc2Wk9ia1RCTVJ5Wmc?oc=5</t>
+  </si>
+  <si>
+    <t>Secretaría de Seguridad Ciudadana asume control del C5i de Tlaxcala</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxOTVJXMEZYSjRfdXV5akdYTjZIQVZjaEtMT0RkT3hWaFhCcTBwNVRPaWhPMmVQbkFWSkZWMDYxaThUTWFySjY3QTZTWjhaN1ktTkhaUGgtR216ZV9Bc3R5ajUwSmNBaDJabk1ZejQtTHQ2LTlPeUVsVHdXY3lrOFhJbkV2MVlxekViWkE5d21Bc3dKLU3SAZMBQVVfeXFMT0R3U0VPMXVJZ1ltaGI2WUwtLUtrSTVqUk5XQ1FyOHY2amY5dDNyRDFfeFc5QTl5TnN3LXBBbDIxOXQ3MmZEbGpobjMwX3gxa29iZ0czRTFTb1VmS1RPaUc5QkFfa18xT2RUejlLUXhsbkJ2RXBvZlJXeVhJYUY4VnlmVUt2SHhDanZJQXV0OFd6N3Fz?oc=5</t>
+  </si>
+  <si>
+    <t>EU urge a sus ciudadanos abandonar Irán por seguridad frente a tensiones con Teherán</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxPQUdsU3YtTlppQnNOZDZBMnMzU21sQU12TjVlWnRCLVZweWNPbTMxbTZxdmlkNmlrM21pV0xKYWdYUGc2aEQ1S2dhVlFuUnhSOUduNWVReFY1eFZwUWYzb1BndWlMZGNSLXEyMUx5VlBGb3hQcjlCOVRsaGdYLWxKU2xqQzNMQm1DRzRWQlJoZ0J6ZU5jbm0zX29TZnZjdDJqMTZ3MNIBpAFBVV95cUxNck9YbS1nVlJDRW11Z2xSYUkzYlpqckRuelRrY1ZKVGZHZlVWa0lPUTdKTlZMM1h0OHp1NUEzdldaVUZKbk85ZVFRUG5hSDAzWl96d254ZThuNFJzWkJVemRaRmJ4enFocWZHY3V2Wk1MZDdVMVJnREdaQ0xMdXZ5cktFdy1RbHh6b1NNYjFmZlY1aC1JQnd1VUxuWUNwQlMzazB5VQ?oc=5</t>
+  </si>
+  <si>
+    <t>Trump y Asfura se reunirán para hablar sobre migración y seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxQSGthMzg2cUVHbjFDSG8tRzAxTE5wQmpZV0dvNXVsdV9OMWFTV1R3cFU1ZzFCTHdaVVI2SElGOHN6MTZTM1RPb3NmdEJncW9VclNvOVhIMWo1SXp3X2pDeXpDZ3RTM3hFNWRfejVmclRpU2xScmp2alAtWlRILXRTS1ZhVXdRYXZHTzFkSFhCMXo1YTVoYWh0MW5tblB0YWM3UFVQYU0waXphSW9ublhkcVRob2hZRVgzUlVPaTZ6WkU2ZnfSAcgBQVVfeXFMTzgxdF9FR2k3MWlXZHd0N09KclIzOFZQQ0tleFJ3cVpGaHF0MDVZVnlMQW1jMUVubnA5U2t6bEdxUE1Vd0ViUWppUDdSTlk3TUgyQ0ZrMGJzNFBVeWJYQWdFYkVNZndKeGVILU9uTEVFdi1QOTluZ3RLSng5YU5Wc19qcHhqM09JamhaVEkyc1dNTmJGclJKaFpicFNSVW1TaTZlYThoZHh3am9STGtmQllwcDhrNVNYMzUwUENHVDNqbHNKdjBkOFE?oc=5</t>
+  </si>
+  <si>
+    <t>La seguridad en México está en su peor nivel, según informe</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOcmZrc2UzN0pnamRMc1hHVUQwdFA3Y3RNam9SSmpSM3EwU0JnM2FYd2lsWDRDcm4zZG5TZEJaVjM0VkI4SEpBd1lQc3dVQ1RtVmNWNnQyMWlWRGhfTzNLSkcwQjQ0ZGdiZVFiQ245dk9zRi1OTXJGTTd6dFpOd051RndoMUVKdDJqelFmWmNpY29QYVNOTXZSTFRkVDlPdktqMlVTbnlLZTl3TFRINC1N0gG0AUFVX3lxTE1VaW1XdVF6ZFE2SERIel95U0JkMTZxdTFmZVY0U1g5bklvTWdVX1RVVjlfSTFhWjV6QVh5ZmwyUV9mS2hvRVFrNjdlZG1leS1rdm9rczF4YnhJSXo3ODJwaW5ZaUZnR05ON3hpZmhOMFdaNm1wdzJEZGo5Q1JPUzEzeU45Y2JhWWktSFRDY2dzWV9pY0g1TEEySWh2U01RYTU0OUdHSXZMTWpOQzdjU0QzRVFpOA?oc=5</t>
+  </si>
+  <si>
+    <t>Seguridad en Jalisco: Policía captura a objetivo prioritario buscado por homicidio</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxNNDF2N3ZKeEdnNm80ckl0TUlzQTVqaGJ2M1ZEYVZiR0JBeExIUEJhblZGX2xEX1pOY3F3WXpPTWduTEU1cHhjVUR4X2xXdEJCMXA4eW5ZdVVXRWM5RGFpd0d0NkN6SnM4SFNJSkdMV003WUJnMGVBM2tGOG9fTkQ4ckhTMi0wNURKU1BWbXFLME9BQU1VRWhhd1hBWmFxNEtUaGxEWW5SMjZ2MmhGT1NFcUluQ0FBSTFZVG5TM1N1X0VjQUc5TnIyWVJFd0hrd1nSAdQBQVVfeXFMTkNOcTFpekNOd1JyREpORE9MVmk4WmxvQU04bVVvbGtfbzE5SFJJdHB5dTU4UGUxeks5YS1uZm84bm9aN25lOWtZQ0d2a01rdmJnZWJzRUtMbGxpd2YzeVdOZTNZQ3RyRHJEcjdRZHgxQjMyc29kWDlxYzh6V096dlFkSjZFaGFxTXZpZURhcHZDWTNadTFkVlE3Q0p3czQyam1peDF5ZmlNeE1oTERyUHQ4VFFwSnluaXVHei1TSl9FbzlsNjVhcWVjeWZXbV9VTlVDUHU?oc=5</t>
+  </si>
+  <si>
+    <t>Implementan operativo de revisión en colonias con reporte de fugas de gas en Tamaulipas; exhortan a reportar incidentes</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7wFBVV95cUxQdllLaW41LWtZWmJrbWpFbXpiWFVnWktyVEdaazEza3RGbzBaMVloVTlJakRpN2lrNmtrdlRlaFNrOVRaZ09GZm1JaHBJWnU4dXZfVDhGMmhJZkVEakp3Vy1JS205VUY0RFNHTW4tUDlUclNVYWwzeXVnbVNGZ2NIUFYtczVEV2p2LW1xM015SmNsbDI3M0VNU2w3SVJPVjd6MU9VQjBzUGRxZk5ZVV9NNUtVREY2NWRUd1FVTTA1VXlxX3h2MlJ6WHRDVXVibk1iWlpSMUlISVI1ek5qWVJ2dkMzSUFydE94NlVoUnNXONIBgwJBVV95cUxQY3lZbGpSQW9TQVFFcTFFU1NnUElWeDZUTURzdzV4Z2lvWVlVZlc4eHN3eklUdEJpd2RFekZzV2lISENsMmR1SlZ2MU9zcG1FWFQwMlZwZjRfWmNDYTR1WU0tdlQ4MmJyUnQ4Z0hlUU1ON1QwNGplRGNhWFdpcW5JQXFVS0NGU19Ob1M4RDBzdUxrQ2tndWF0UFhmS0lfZVY2N3BrNkdManVNWG5SQVd4QmhoMXpEbmM5SEU2a204SWI5QUFXanNoODgxalBwR0tKNTAwZ1lkbXdEeWZ2eFViRjZlTHkzYzBIMWVSM1RwSXNlM1M4aXZESDJleVo1SjZqNVJF?oc=5</t>
+  </si>
+  <si>
+    <t>Mega fuga de gas en Reynosa; pánico en 15 colonias y activan protocolos de emergencia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxOdTVzajVLU0FzelBXeFVTa2NVMVVRbmhWb0FVY3p0WGl5NUliTm5HQWNTUjlsTTJVNVhoR0dWOElCLXBvNHhhLWh4NW9jMUR2ejcydkotakJzRnhoZGR6b3FfOERDTi1vY2ZzdG1kcTg4Vzk5cUxsZ0JYc1JpRGxCbjUzWnNaMW1XNmIxWV9DRl9CaUZSdnl1enE0cGY5cU9hdEFzekx3alppR2FDTmZPVERtRlpKUDNVSEVyb1d0TdIB0wFBVV95cUxNcXJLWHhWam5UenU1T1pHSmwwVGtINWRHcjlQQXNIcnllVTVlX09MMXo4UF9BTGtoV3A0QkVNQzdneEFhU3lRMDVBaVFpVlE4S2Jya2dSSTVIQTVhXzQ3am93QmVyZVI3TW16Skx0TGFIWl92RU5tcEQwWFpjNjIwakFJaU1JRjFGc3puOTFBbGxBNmlrQ2ZhMkg2bGlWcFZzU0tya3JJLThrZ0pFY1NLZGx0VG10X0o0LW9zRjY4TUNEWkttY2hTVGFSVGJrbmRrcVF3?oc=5</t>
+  </si>
+  <si>
+    <t>Emergencia en Reynosa, Tamaulipas, por Fuga de Gas Natural</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxQRnRiY2JxRmFzcFJWSHc4SUR2b3NrNERtVjViYmRWLXlwcWRFbzVmcTAtSndILUQzOHFZaTcyU2h4T2k4QmppU3Mzei1yUmxZTENxRFVoRl8zVW5Dbnh1ek4zZDEwT2xuZElRaXJLbm1PRUYybWItOTYtczZ0QVUxYTdQc3NQU3dweUdMRWNUMkRUZUpMT29rRE81cnAzNWJKOVZFUWhlTW0tMDRUUG14TXU5S3o?oc=5</t>
+  </si>
+  <si>
+    <t>¿Llenas hoy el tanque o mejor te esperas? Así amaneció el precio de la gasolina este lunes</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxNM0Y2eUkwdFhLSUY5TGVHV29tRnZXVkFNM1c5MVZHdWNMdjQzR1BVSHhPUHh2NUI1VmlqSEtnMjdMaWNvc2RIMDgwWWd3VTRjMXY1R2RjWUoxNjBad2lVM1RTNF85ZFJ0MHJoUEI4YzdISXBQb0ZLVl9ZcVBScDFOaDN5b05kVVJ3SnVYWW5YRU5oc0laTnpBbTJLZFpnUWdKamo5UXZfMmVqUGVXN0N3b051Y0tHMElUTUE?oc=5</t>
+  </si>
+  <si>
+    <t>¿Peluches, cartas, flores y cena? Esto gastarán los mexicanos en San Valentín 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOdG9vUVZCOTFmN2wwcXhhTnlWV3pOMnI0NGs3ZzBOeXdNX2pZeGtwemZKdUxVWWFRTnFRS2Z5NXZJNXhILVZRYTk4UXBVR0hEdHVrdC1FMFEyUUlMY0RfcnNNRnhCb01feUJJNy1MaUxlMzBoOG5yMm1YN0JFRGh1ZUowU2J2XzNELUIxdmpIZ0s0eFp1N2FEVS1lRXpyQ0xUaWZfTw?oc=5</t>
+  </si>
+  <si>
+    <t>Precio del Gas LP bajó 4.25% en 13 meses en Parral</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiogFBVV95cUxON3I1S254RXZRRUhBTzUycHduNmYtMGcxUlhQNEtRNVdzeWFSVlg2aTdGcWpmSGlhQVlYYXBMRW1vUWNUQmtqZzNhQlFvcW1GMDI5Y1lNTHc3UkY4XzRhcndPM3VKY3JaLUFHQVY2MGVXMnA3a0NiOGg2Y2VIbkM0SUNnaXVacnZYd0dtSV9LN0VsZ0NOaHZscnlkQlR1QnM5cGc?oc=5</t>
+  </si>
+  <si>
+    <t>Precio del Gas LP en Tulancingo: Subió o bajo para la segunda semana de febrero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxPRDhoUU13M2ZBRUdNT3RrOFRnRE1JODNEZUt2XzhfM2FYbEQ1XzZhaG1jRzR0cjVSNzlXUVJLOHF3VHJlRnNPY1d5UGRFS2cyMUx2enQ4V04tVGJxcHN3SUZPd20yR2hrUmxlR0QySVlWYjFtaERJZHg0aGlyaFF3OXBPS0lhYXBJcUtoVXlZU0taNWNTYW5SYzlzTFlVQ3NyVW9TekFucHQ3aGFnZXZIbUJ0dnF6OHhCaGMzanVKSnZSS1dsZEdrN0tR?oc=5</t>
+  </si>
+  <si>
+    <t>¿Subió por San Valentín? Éste será el costo del Gas LP en CdMx y Edomex hasta el 14 de febrero | Lista de prec</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOOVpOS2xQMkxqeC1vaDM2WXR5elVFRThYdXNlUzNRb3VOcDJKTGgzU24xVEplb3JaQVVxM24wRm93Umg4WkRoVko2dGtjejRKNTZLQ0tIbGVtYVVCMTl3aG9xQ3ZIOVFkeWxVcU5GdTcwa0ZlNUxkV085R04yUUJ2V3BjMnpkdFZxTkM1c19HOUtUd0dzejZhak5xOW5yS0I2MEF6YtIBpAFBVV95cUxPRThmbzlWTkxGbkhtT09DekktdzFqV2xMMy1oZi1fYjA2Uzlfd0d0bUcyR2NEbGMyeGhxeU9ZY05xVUtpVG9lN2xmby14VUxmZ2FXcERZUW1JNTByLXBrVmFRdjExUG1aODlyR0s4NzVRWWZzSlJFbDctVnF4UzVQWHE0eGtaM1F6Smx3aEpOXzh1T2dXMUltWGNSUHNycUJzeFdBcQ?oc=5</t>
+  </si>
+  <si>
+    <t>¿Baja más? Así quedaron los precios del gas LP en Jalisco del 8 al 14 de febrero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiigFBVV95cUxOZ2VyUEh4M0V0cEdRUmE5Z2gtSHdjNF93dThpRno1WC1OMEd4dE1tNlhPM255cUNJano2aWp1cGh1VkRRZHBtVXAxek40MFZXTjBwdG5lcjdMT1pHUURsMXF0TGxuWVk4cEZCREpHbDRyS3RZQm1rZk52MHE4QXpTWmV5c3NoZU8xZVHSAYoBQVVfeXFMTkg2ZURqZ2VzUzNUYjBxUWtYbExXeE5HNGFLNVI1ekViSjF6VlhIVUpIX1pEUkdhUTZLY0I5ckxoUEZYeTVpWS05b1hOX3huUVhPdkJfM0E3cmRhNnFQNzdHZHQ5M3BOMnhWYmg2WE1NbHVEcGptUndqbmVENUZFdUpyQTRGZXdFVk1R?oc=5</t>
+  </si>
+  <si>
+    <t>México importa más gasolina de la que produce, incluso con esfuerzos de Pemex</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxOY3dUTEpHV0E3dUd6U0VVY2ZYamRJWTJ2UlhNRGRhODR1U25aZDBkWWVxWjRsUDF2Wk41SmViUWZ4QXhsQTR2QjR1X0lYTVRnTVZ1OFF4bUZJUkVzM2h6M213dVJDUUhDaVlDTF9GSWdESzBQNU11QXBnWnBzMGwwYlVBYnJEcU1vTEV2MWZVMjJLYkZXeS1FWHIyMEFUcmtkUUtvT215dmJmc0NMeFJqYm5CaW1WMzdtWmlWblpSenVUSU5VTjAydtIB3AFBVV95cUxQcWhSdXBzckU4a0RiMGpQcDlHV3ZNWU9yTW5yVXVjUzlVRjN2MjFfeVBwTVVFS3JadlBjbmRvYzN3OGxVdjY3SkxfZ3VPMXJCdFhQWUo5cG5fSlpVczloN205X01sOVFQbjFGTlNic3M3TUpPR2dMelFqS3JkeVRRMXUzdFh1Y3Z6eTdVd2lDNDRFNmFOVTZkLXZ0LW54azlzNGdVWlhVaVVTRG5EbWZUd2t6TUZhY2hBaHMtRGo0YmN5Q1E1cmhNU1VZTktMcmJwVjFTU3Y4ZS03ODN1?oc=5</t>
+  </si>
+  <si>
+    <t>EU captura petrolero que burló bloqueo impuesto por Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxPNUE0RWxPN081alg0NFV2V0RNdkJNazhJYmdScDBVaDlHQW5qOUlfNklwZ2ZUdTEzcTREMmwwUkhpVkk2UV9GOHdka3Q2X2YyeFdZX3hRdTRLMHpJMWFycnNUemtkNUlITlFsdFJ3ZnBfN1FqVnRtLWNrcFlWUjktOGhpZnZVMF9rdkt5R1JqYmtxbGtjUGpEMURhZFlISXJtaXQ4M3Fub09wbVVTZFRSeVByLTdZUk5DakRpaXk1NGFKMGM2ZHQwLVlDYU56dVotb3RfeHcyVklWQmVQNmhV0gHfAUFVX3lxTE81QTRFbE83TzVqWDQ0VXZXRE12Qk1rOEliZ1JwMFVoOUdBbmo5SV82SXBnZlR1MTNxNEQybDBSSGlWSTZRX0Y4d2RrdDZfZjJ4V1lfeFF1NEswekkxYXJyc1R6a2Q1SUhOUWx0UndmcF83UWpWdG0tY2twWVZSOS04aGlmdlUwX2t2S3lHUmpia3Fsa2NQakQxRGFkWUhJcm1pdDgzcW5vT3BtVVNkVFJ5UHItN1lSTkNqRGlpeTU0YUowYzZkdDAtWUNhTnp1Wi1vdF94dzJWSVZCZVA2aFU?oc=5</t>
+  </si>
+  <si>
+    <t>La primera ministra de Japón confirmó la suspensión del impuesto a los alimentos tras la histórica victoria electoral</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxNTDdzZGRNYjZCdVI0Z1pLcHlwc2RoUGVYVEtaMzQ4QWFVOUpUQldPcmpQZ3dlMFo4QW5zOE9vRk9JVkJpVDYxUjNMSnd0b1NGYjg1QlJZc3lrNWR6clhxQlI1ZF9pbkU0Vm9oNC1Bcng0SmZZZUVRcU9iNU5MelRfQzZxQ3NHYmw2dUhoSEIxT2h5X0dBNDlmdDNQbWhITlhtZ1l3aHl5UmpRTkR5Q2ZuYWtGTkh3Z1drU2VYVnhsRl9mUXVnckVNdTNGSmE2alJfRkk0ckVKUlo3NmVTQ29UU09Sd3pQbkhmYy1oLXBuVmkxOXYzQjU2aWM0Z9IBlgJBVV95cUxOMFE1R3VhMXB5M1dRVkJSSHZWcWx0eVgtY2JMQTN0T2xMTkxzMGNBanJLLXA2WUQtMVk2ZHFFLVBJOUZrQVNwU0JpbTVDOVRRUXV0bG9uU29TWGdzZzE0V1VNcHNNWk5sU2hzdUNLTHVPRTRtSkFEeWxxYlRpSE1HTl9ycHFoV01MancxeHUyRkNTTVI5Vk5WVVJvVzFpYmU5T0VkQTRZLUJQRTJ6a09yb2t3YVpTUVc0R0tnT2FFdWo0R1dDZDJkU0FDNDFFSlJrQVZwQ1Y1V2dJSkRpNFJuRUlxUVhsX2NvUG4wZjlESFg5RWx1N2tJQ0NwNkVRZmpOVGttclRSZnl3NS1oYUdYWXRZWDAzZw?oc=5</t>
+  </si>
+  <si>
+    <t>EU captura petrolero en el océano Índico tras burlar bloqueo impuesto por Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxPWjJFWEs0WlJNS09jWW5QdlhySi1mOUZNTDUxM3VEbllnaDFBRUpzQmtvTGlXVHhFU0VrbXI1QS03RU0zSW83YnZ5UW44aDdPU2FpNmR2UFlkcEMtdEJMR1NXVWRlaUxuSWFrNG9CSUJvZWl5TEFNZ2pyVTR1UUxRNjdSOThDNDFiVFBtbFgxLV9YblVlbWpJUElIUUR2dzdlLWRvV25lYlB5WFJWWUtPaUgtYjEzcVJUa0ljemZjeEt3WlFwQzkydHV3R2x1amxHd2Rv?oc=5</t>
+  </si>
+  <si>
+    <t>Qué implica el tren interurbano “El Insurgente” para la movilidad y la vida urbana del valle de México</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8wFBVV95cUxOTnE3c185bVBJVnIyTmNGTFE0RlgyRFVxeEZMRGxKWTh4Z3UwdkdKYVB2SzFMQ1FlOGpMQy1Hb3ZNSnZIM2JKOEJJM2YwbDZEekpFVzFVMlFEMERNa1RPRkZvX0ZJeHoxYzh0WE5CclVMRlVmcnN0ZWgyWEphaERWZFdKUWVKSGFwc3FRLWZXVXpVMFR1amd0RVYzd1J5bmpmUThISnAwd3lHUjd6RzNiUVh6T1ZEeFM5cDJmdWtZd19PbFdqa2dCYnJYOFlFb1JZTWpIT2g1ZGc2Wlp4VkxEZlc1dlhzTFRpdThWbVpQM196cWc?oc=5</t>
+  </si>
+  <si>
+    <t>"Movilidad W" del sábado 07 de febrero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTFBsaGMyeDRkWXRKY0RkbmxvU3FJeGVMRWoyajl5OW83TFF4WjhLZWNlV2EtenJGSkpLYURObGNldE9mY0g5cTBuVGdPeVA2YlMxNEs2Z21leTB6ZmhJd0E?oc=5</t>
+  </si>
+  <si>
+    <t>W Radio México</t>
+  </si>
+  <si>
+    <t>¿Es ilegal en Jalisco? Esto dice la Ley de Movilidad sobre las calcomanías y el polarizado en Guadalajara</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxQV1pBNDMxWkxheXpfTjBsdTV4TWhVSTJLOEhYSFIzMlktd2RKb01sZUIxOXBhdFRMTjFlTFZWY3FGSU15MU1NNWNIdVFGZmI3cnNxMVRWN0R0THViNEFoYXN5MTBoTW9aVHE1Mk93UWhTakZ5ekdYR3JoX1NVQzhsQUZScXZmbi0wWUo1WFlCSUZtVXNNZE1oUnVUbk1lMU5UQUNiYVZGMGVxTFZsQVNnc041NU1YTVhuWGJUd2phenBOR0EyeXRyVGF6Q0YxeVVVZDg4MDVEQmowNTJDNUZacFl1VlhIQjNXXzJ2atIB8gFBVV95cUxNc09ILWtlMXExTlRMVzJfbVZjUzVOWEs4RjRBNThKaUl0R3c2Tlc1TGJFYk91T0V2YXpaZjRZeWJuNTFtal8zY2VwLThXbjJKVFdCM0hJWE12b1NYcjBNREVRYXhOR3VzalNfQTVSLVJROGdFR092eEZvYXExekE3SFZjcXpZakh2UFBYc2dkZFUydC0tYTJRMFlOeXF6eXhhX1JFQnlSdHR3TTBqOHhoX1Q0a3AyOGxkaW5Pel9ueEVPeHhzT0V5RHl0U3V6d3JSYWtxZGdpWFlQVlZFWGIzc0M4QXREV0RVeUtSN19oX1QyUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Seguro de viaje: prevención y movilidad en 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxQNEVVZjVCZXVpMEtsdF9UQmpCZUtSU005ZW51bXhXWDBGODV0QzBUSkM0ZHR3MHRxVmcwREkzbWVGU1dGcUFvWlRpMy0yVnJ1TlJrNnJVZnYwczgyYmhMeENOQmlfQjRzTUZPZHlpRTNpYWM1TGJfRHo0ei1pNUM0bXRMbGhSQ0h4TjZ2NTdFRkxYcmttMm9sVmo2akl6YUplTGJv?oc=5</t>
+  </si>
+  <si>
+    <t>España pacta mejoras en la seguridad ferroviaria tras dos accidentes y una huelga</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxQQ1lkODlWT2pScVJDd1JqLUxfcnczOWYxUDUtSTgxN1NFM3YtVmRqRFNqZHRuNm1CT1BONXByYjRzWlpleFM4SGd4cVlvRVlOOURCUDU1dFZyb0ZDSXU0R2I3a0R4dXg5QkpFWVQxRkU4NFN5MFhVWTF6bkpwUlNJTldQclQ0QTFCZEwwdEVWWEZxU1RzR0V5LWs0cDZVRkduTVNrZmdJeElDVmpUU28xbVRlM1gxTnRZdDBGQktBS3kzQWhOMzRNYTJObW9KQdIB0wFBVV95cUxOckNYR2tOcmtzb2pTUWVDYTZZanQ4Z3ZQRGVUbDhMY3ZPa2JLX1Vqdkliclc3M2ZuSHowNkdHa3JOcU9mb2tTNDJuTDZZS0dxc0FfQkJZM0ZkVmg4dURDTGlsRDFTbVJCb2F0MXBEb1JNd3BHM3VSRVlESDhYWmhHWGpqbkhMb2hKbElud2hZUGRYa3dkRnpiZ0dQNUFvdXFVaGxabGJDMklIOVRiaVYwdnBsblYxeDVYOUQ2eTVPZU9HSHNwMWpjci1xRXc2TllFN3Bj?oc=5</t>
+  </si>
+  <si>
+    <t>Con binomio tierra-aire gobierno estatal fortalece seguridad en Puebla</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxNMm9kQ2RjeVRmOWJDNlJFaGpMR3N4aU1ZTGYtdDFJU2ROTXdqYjh0aVR1X2EzdFVPaEFGQ05XcHZHWDgxZHFNS3dIRFhjcHBESU9LbnVwaVJCWklVREljbjFvWnZQRHRtZFF2aGE2WWdJTWpXNFJFNkdOd1VfOXp5cXgxdWQyWlhEMW9lVE4wYkFhYUZGb01Lem5pSUJiYzFjMEFJ0gGoAUFVX3lxTFBldVNHM3BoWHd0SFRCOTNMQTRET2VBdXJ3dW1kemJVQl9jdlFRSmlYUkpFUUlwdmxadElFa3R3c2l4YjhNVC1yWURIQmxGZEpwYTBRakFmQlFmajBBVGI3RWFTMTBpTnhtaVMwZkwyeDZkNjdUSTIxcEJHeUNtck9nMlhFOUJ2bmtWWVhGcERlQnFqc1dWWVV0N1YyRUdfU0NXMHVud2tmeg?oc=5</t>
+  </si>
+  <si>
+    <t>Ciberseguridad, talento y datos: la nueva frontera de la competitividad latinoamericana</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7wFBVV95cUxQVS16SDJySW83WXVaN0x1d2NPQmlmV0VHZWhtbXphUHhaNGxsMjRjWU0zUjN4c1RxU1JoSldfTWFCZEQ3MGRsYTlpTDlLSU1tanNEcnZXRFpKMTZSWkNkbk10cGZzcVg4TGRjd1BYTjZtSGphby1ac3QzUlhHZUJUdzNYekppWTNIVzB3UkQ4V2V3bUc1WVFNQWNvbS1JYl9YOC1tcDNkQzFEanpOeklPWTFKbndVeThhbVpoR2xreWY3QlFaejRxNzJtV2dtenZrRXRpLXpyalYyTGJGX0tzdkQ1aGhTWXF3NnR6WXNQZw?oc=5</t>
+  </si>
+  <si>
+    <t>Identifican tres cuerpos de mineros de la canadiense Vizsla Silver • Seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxOVDVoeGRDYkIyT3BHWWFLZldudDd4VjNNWGgwVGZXbkx0V0xsUHJ4UE9MeWpyLXJjSG5BT3hWWTltX1FoYTlGWk5VcEZKS1JyQ3huNVZDUWlyVWtJVVN3Z2l6VExIYWN1MlFaSjh6UWdjdmw3b2N2S2NWeGZXcXhoLVJocmt4a3otMEYwLXFscXBlZ2c?oc=5</t>
+  </si>
+  <si>
+    <t>Tras homicidios, Naucalpan refuerza seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijwFBVV95cUxQTldDYnlpZngwNl92T0N2WFZ0Wk5HdTZnam9Rd19qakt1M2IzZW53Z3RveEtINllYZ2VZaEFHVTNBc3lqcnJCT2NPZ3Q1M1NMa1BoWkJhQjRsSFh6T3U1YnE1RHRQWTZmUlFFb0ZiVUxmazR1bHB6cWJFdFljSE1aTmcxZ2d1RXg1YTZZVlB2a9IBowFBVV95cUxNQm9hNUdnVnc4cWtXaDU1RGo4TkwxeHAxOVRRRVhzeEU0eDZRYndqMkRwY0xFMFBrdW1jREN0MjVmTjQzQk4tNUcwSVU4bm1OeWlxMFBJRi00ZTZnY09YbXVlZnZ4eFFCX1NYZUVsekk4dk9FVXpNdnN2dUxhS3ZHS0cxaGVIN3R2MEg4aXZQYWUxRGJqd293YnlLQktkQnZoejFF?oc=5</t>
+  </si>
+  <si>
+    <t>Crimen de mineros en Concordia gremio exige mayor seguridad y justicia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirwFBVV95cUxOQk9FVTltZGVaX29oNXlmNGd2clliSGlWWklwTDdZQ2xtU08tSGZXNGV2MTZsdVEtQ1FxUFhvYlNYMU5HTXluSGhnd2U0ZFlGN1cwbXo5Q3VaTC04RnpvalYyT1FzSURsTWNJck1icGlOYlczQjhJQlNJSmQ0LW50ZVlmTGVKcTlGd3R0MEJfZzYyN2o3Wl83RTRVWDJiVGtMRmpUTExVZzBoVDB6RVlz0gHDAUFVX3lxTE9PaHVueS1mYTlZcUdpejhLQ2VNc2RzcnhkOUlIVi1RTVNpOFc5bHlMMURFNnBUUGs0LTBXT2xYZFVGa0NnN3RFVkE0YUp6VjRWdHlPaTY3Xy1vZm9TaXVlNGRMUHVFLW9yS3lJY2xsdDRHaTA1Vk1qT0dLdE9xSGtNZ2xxRTFMcnBkb0hkUExoNlBKTDVXV3BYa19KQzZCRjNvTlBiOVJFeFJ5enFCRkpRN3BQSnJFLW1NSUJhSVVWcWdEZw?oc=5</t>
+  </si>
+  <si>
+    <t>La soberanía digital y la seguridad nacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOQmxOWXljVFBYcmhHR0tzcEtYX1RjMUJNNUx6RzdXMTE3SlBDRHowZjVuQ1pOdkE1S0t6QjlLeDlSQVluQmhpX2NBR3NHeWM0TU9qVjFtcjRERkc2Q2JLdURSWHFMV2ROZFZWeldEaG9kUkdCYlNud1VGYWttZU5ROVlrdHA3VmpZTmZRR0VyR09lczFaRTlvUHNhMTVKTlhhelpKNNIBqgFBVV95cUxQRHlOZ3ZsM3lhSlJBUXdXNmtvMXp6cXhQRGJNb2pzaTNmd08wRnJBRVNia3JqcTZvNm1oOUNhZUdVRnVCZS1tQ1hGbWJyQk9RblNoQmI0MWlBTHdGMzh5cWlSN1cwWF9jdHZxSXlLNFNpWU5EVElHQzhmRWVoVTdhYk50bmE0UFpGQTJoX3k2U01YY19WNllGLV9jcE1qLVJHUFJxT0N0Nk84Zw?oc=5</t>
+  </si>
+  <si>
+    <t>Azucena Cisneros y Delfina Gómez refuerzan estrategia de seguridad con Mesa de Paz</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxOOU5SQmp3Rm9tNzltSHozd01sdUlSalBsek15dFNyMGpNOFdUMlZiRTFlZElWTl9YRGR1eTF2QWlDRXBGSkMtRlRxdDFXd19meHNlbER4OXgtOTBMRWN0ZHYycEptc0FaN3Q5YmliX3NaYU1FbHdpZ014WXRXWDdGdGVnbkVHbWlsamlrd0RZVHJUaEk5Y0NmLUYwaXZRRXNMRFR2bjhKQW1DNXFhUWctZjJDeVpoMVM3R3NkbzVRZnFCaDMyMElOeEdsZEo0NEVBZUNWWXB4bG1JYnVpTklQdlhB0gHnAUFVX3lxTFA5NUpEaExSZFMzWjRXTnZGQUVUSTdVNWlRVUVpcG5TWWpqWVdGOTVKQ1lXS2pCMF9LYkh1ZlFYeFVSSkNNUkc2SHFlUnJfTERsRE53Tl8wUVBjaEl4SU8yWFUtNGJOallhUFgwM25oYmNnaHFTa201T1V3UFpTNE1UUjVRWlpJdzlOcEZaeGsteklsZVdyUHNvN3BXOTh1M2h6bmYwWGxKUXhTZHdUWWFWTVdWNGdTMmYzdGVWN1dmRUMzSkVlSDdCOUQ2QTFPNXFZTUV2TGNlT3ZGTUNJNGJnSWh6d2p2Yw?oc=5</t>
+  </si>
+  <si>
+    <t>Estado de derecho y seguridad, necesarios para impulsar la inversión en Jalisco</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxNdG8xZ2dFY0RQN0lhT2N2a3FGYmFvREhfcGs1dkpHbmRxV05CVjZFQjZpR3ZOY0dvdmcwWkc0NXYwbzdMZVRzUFJjajVZNXFXNFE0SUxOOEpqeGxBX2hCV1pyZERBNGpPZkRRcVphRXpxVENfRDRzZlJ3XzZKN3ZkUllhby1PYnR2aHZCZUZ4TWxQdkoxVjFrWWU1QWtHcUk?oc=5</t>
+  </si>
+  <si>
+    <t>Refuerzan Estrategia de Seguridad en la Zona Industrial de SLP con Revisión a Empresas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4AFBVV95cUxOU05Za05LeG90YWt3bkY2MTY3QXJuYjBfQVhXcG0tRWk4RE5qbGxsUURXX0Q1ZDNjQmkzTGhBV3g5Y29WOGgwMzBLLUg0bURPX3pfemV2Zkh3TTFQU1NYam1DUnJlYl9icW96MTEwWExQVlJfWXMyMFlmZnh1eEV1ZDRtaVRmSVByQUhjTWZVbUhFbGRhbVlmSWFnMVdicEc5dy1OQlpfXzBjaVdfX2R6clRiTG1NRkc3ZUZXSVplb0M5WTF6U24tZHJabFJFVVd6bE5VNHlFVk9VTmNLVEh4UA?oc=5</t>
+  </si>
+  <si>
+    <t>Someten y Amarran a Guardia de Seguridad para Asaltar Agencia de Autos en Guadalupe, Nuevo León</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxNalB4WW9KbmxxZWhjRjRBV0VRVkVvMVVvVl91VWVHaVprb1kxc015bVA3ZGtyTy16bDBmMWE2QllfM2p3dmtSejJZWjhDREh5bTlGUGl5U2lVZ3c3UjJMZGJjZmsteWd6WVZaSzY5Rk1MSmVKay1fOVYtaUU4Q21sYUFiZG9UZ0JxeTJNdS1UOU8xVFJLQUZCNmlmNGF1ZTIxTS1iSW5zLW9Nb2JhOTU3Z2pkdHVPb0RaTnN4dmNWT1V1b05XSkNR?oc=5</t>
+  </si>
+  <si>
+    <t>Guanajuato fortalece lazos con Estados Unidos en economía, comercio, migración y seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3gFBVV95cUxOTFBtSmUySUNBM2dTVTVoRFhHTWUzcFE1MmxEeWRYTDBGMC03VVBUZFFtemNMQmZTMVM2ZTJKODdkMmlwaXFTN1oxeXA1OUt2cy0wX1Bhbi14bGpOa0hsVEJQZjJRajJJaDZYVW9ZaElHSWdtZzktNUhGNFAzWjVpdktGYzRabFRkY2NDenUzVm8xSjFXM0tkdTNmQkJ3X2FPYkc2WThKMWRSYVAzaExidS1mM3plLVAzOVh4Mm1Yc0ZyLU5sTHpOSGxUc2ctM09qbDFMOW1mZzhPUUFEM3fSAeMBQVVfeXFMTXJIdVJxRkRQdWFJc1kwdW5RRnZvYTZtUnNfb0U1R1phcHpQd3RoQXhUMGhBdl9wSExuWmJHcDhOalE0M3hBcDV3US1zZkVXY05IbmxjVHF5TTZ2VzdyTnJ6aDNybUZUUUpZZmNDcGQyT0hiQ1N0cnpkRHp0STliRENyRkctQmRLOHBCWVprSXpjVk1kZmlVeUNVci1EWjdueXBwNGZKLVozMmJJM1Q4M0d5d0JVVG1fR1I5UVNYbGNudGwyck5LdEJRa1RBOHp1TFB4eXJicS1aQm1UU2xwdno0VDg?oc=5</t>
+  </si>
+  <si>
+    <t>Modi visita Malasia para reforzar la cooperación en materia de defensa y seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxON2dQVUk3aWQxN0V3ak0yUVpXeVFMaFM4SGpLUFBQbFpCeXU0d3dqTWwwM293Z0puQU9uamI1VnM2VFdkTlF5OUs2cmh4LWpNVV85cFVZSkt3d3NXakpNdUI5RmtBTUVMYlQ5WENDZkplNlhGVExwVWU5cjluY0hhT21zc1RKVTNic05OLVpadnZ0aVdfUy1mb2doZGRlREs0RS1sOUZHSHpUNno1enYtQURfcENCV0RRN2dVUVo4NTF1THBRZUZIa3F2TW5RRzVD0gHrAUFVX3lxTE5neDlxYWpiNUE4NmNBYlZuczdrVTNNMlRtaHEwc3RhSUFSTnViOGdaT0V0S1lJaGJ4VHlSMU1xeEVDTjllVE92WE5kV3dza2tYQldfTDFQV0xXWjViejJfVnp3dXAtblJFWV9ISktPbHJfVERDamlncVJhMzlnZ2lQcXpIMEJQdkVaVUY4NDJ5QjZYYVloVngtY09jbVVxOHlhb3I2V1RRLWp5VlVLS3d3X0ZNSnNjczdlSG9IeUhlcVoyU2xnXzRnaTZCdEd1SEZuM3cydnVWeHJaUDRxc0VrLU5aREtzLVVrcXc?oc=5</t>
+  </si>
+  <si>
+    <t>Pakistán despide a las 31 víctimas del ataque a una mezquita en alerta máxima de seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2wFBVV95cUxOY2p0a2tCWllsT2xGSXpsN0Q1dVlORHRLWEE1REJaRGJwRUhvcmV0ZkV5V1ZGd3V4S0VLMUVrX2JaaF9GbnAtdjc1QTZQeS1PYzFHaTZwRkd2VVVMYWFxZEhPYWRjM3F6TFZFZXpWUF83R0pMM3h5cTFyRWRNMVh3RzdEQmhQWjdYUktpUnNhUmFtUzFMNjVnWG0wVHU4M0ptU05QeUpuSDliMmpfcC1NSFBMMkJfX1NzRGYyd05uVmZqejl3MGFJaS0yWGpPMjFsMlJCUlhOQUxUS3PSAfYBQVVfeXFMUG1ENXZFSjZMRzJNWnRsOF9qSDYtMTdJTmhZVGRGZXlPQkJDOGFRUWRWVkltR3VPSjVlckE0NTJIdUcxYUNxUFo3S3Mtc2tkS0FQSm5OazlNSlNtWDdHS0pha280c01KNk1fbmlaV0Q0YjAwRlA5ejBXczVwemxFZ1hpLU9RRlpwdzEyUEsxcXAtVDNLZVNJM2VxbkE0ZDdFQ0FUcGxPc1ZfZUV3ZFRqV2RETWdOYVE3bWFrOGFuUXFlTG4taTd6LUxURUhXZURESURaaHRGdkRZckRtVko0blJPdDRfNGFaSVplWmV5Nk12NXZiYlR3?oc=5</t>
+  </si>
+  <si>
+    <t>Reconocen labor de corporaciones de seguridad al conmemorar la Marcha de la Lealtad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxPdmRRd2FnVkVZWFdhNVZuX3RoaVNHZmIzWXlwWXB0UTRUY1l1Y05zOEJxSE82TzFhU1BxeXltUjVDOU1xVkdIT1dqM3ZOdFI5blBUUGYzRXhHcC1xaHJkemYxTFdUb3B3YWpHMDNfNkdwYW1aSFljcGMtblplZjFaMy1WamNBRS11cy1CYzFpUmNOU2JfTng5SkJaWDFRbEV0V2l6VkswV3ExWlVaUTY0Z0hCX2hWUXZVcTFpcGtoc2lmR3ZsdFMzbUU1YVMtQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Entregan propuesta para la creación del protocolo de seguridad para abogados</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxNVVUxd1JmSGU1aFU4VHRMaUFHcDEwajdMTUpfUFlIQU80aGN6MFVLQk9MWTdmQXhuYkhtbFlQcEY3eklVal9jTm56eXlzdXZ4WFlleHVKTVJyU1FIbXphYUJidFBIVFZDc3Y3OTcxVFN6a1BBZU8xTDFhZmI3WEVpMnllam5Na0lQOXZ2alR5cm5aXzlNTEk1TTZnRVVQRm5CTTJjVGJRZFM2QXBKMk1UY0pUUk1iUlBlNzhqMXBROG1fRm8?oc=5</t>
+  </si>
+  <si>
+    <t>Realizarán en Meoqui Foros de Prevención y Seguridad Escolar</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxOQVM1dFJNYkFud05mYVVWWThDUHgySzFzdTdnOUFZSENKTlRHOWVDZmxpRlpIMVFoYTNraE95TjVQcGN2QUhOa005WGk3dEo4MTRXdzNucmJsNmEtVV9MSnI3MmFLa2huMm1JeWRFTk9MY090ekgwY1RUelozSEROaWJyZjlHZzR6OGRNd0xBOGJXZ0VtNlVPZ3BrZ2JqLXA4T1hoSm5qRkpMM0V4VkNpYVNKcGdzdw?oc=5</t>
+  </si>
+  <si>
+    <t>Industria minera reclama al gobierno por inseguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxPeTdIZ2o1d1ZscDMzVkVzelgwcDNyZnhKSVhmT0FCR2Rvd0NRVFh0OFYyWkhVSFAtdl85aUYwcDBTbUhjUG51a0pwelViRnoxRjNheENLQzVjT2toOFBaVUNnblRGbkZvSzBIclhaYklIUlMzQ3lGT044SlFVaXNkd1lfbWVqSlYtMzR5QTNzdXprVEQxZE1RRE5wV1NJalZfVURNdzFoZDJPaTV5Y0HSAa4BQVVfeXFMT3k3SGdqNXdWbHAzM1ZFc3pYMHAzcmZ4SklYZk9BQkdkb3dDUVRYdDhWMlpIVUhQLXZfOWlGMHAwU21IY1BudWtKcHpVYkZ6MUYzYXhDS0M1Y09raDhQWlVDZ25URm5Gb0swSHJYWmJJSFJTM0N5Rk9OOEpRVWlzZHdZX21lakpWLTM0eUEzc3V6a1REMWRNUUROcFdTSWpWX1VETXcxaGQyT2k1eWNB?oc=5</t>
+  </si>
+  <si>
+    <t>Balanza de protección a funcionarios no pesa parejo; dispar, seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxPc0NVVnlMV0tUMTVZeS1ycHVibE9JbjktM05teEJVbFhVbVRxbW5Xb19IUWVKREhTejFicnlrWWR4M0ZrR21KZGdiSXdQTlgtaWdHMTU4cDVFTDQ4N01CZXhMNDNlT0VlUmRydTF6amVzOFJTRlBUTVZQQnFWV3hndFlJRXd6SENqWHNzSEM5MC15TmRQUXJrRV9WeTdGRlFwcHBn0gGoAUFVX3lxTE5jSElFRmhocEJuYkNoSHBhcllDMGVhUGF5U21Fdzg0TjVBSlBqU2VobXpwOFJ5aUxtVlJHOUhvVFBGeDg3cG12enkzYWExd1NSSUZVcWJqc2FZZjNWenJSSndfTG9BZjdycUhtWWRqZDhSS241QVlrcGtmTnJEZEVMbk9vczZGYmlxZFVXLTVWRG80eC15UnN0NmxzU0NqSFZlTXBQUnAzMg?oc=5</t>
+  </si>
+  <si>
+    <t>El BEI urge a invertir en la fabricación de paneles solares para garantizar la seguridad económica</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxQa1VqOV9rVW1kaHowdVIyeExGU1IyZEJfVjJRbUthX0J5RzJ0RjZrSkJDMGZiVnBaRGNMWkNXZFU0M1FCUy1oUTlfYkZiR3FDUFpROFpiTmJ5QnhjS016azBRS25KTDZzcnZxZXJDWk9rbTg0Y1BwWElkV2FtMUNkZmRxMGxnM0pfLUR5TjU0bU51UXVNaEZWV0ljTk0wb01aVjNFdmgwZ0xxZ0JNNENSSmhIbWdpVlNvMFh6MHFtYlVmSjYwYW9NRngza2g4c2daZ1dRVkw3LXhRQdIB7gFBVV95cUxQd1huaHJwUXlsVHFmVU1aYVpFbTI3U2dRdEVWdkNiYU5lM2RaVHp2ZldCdlcxdjhiY3ZCMGtPbkpzVEdzcU4ydE1pbDMyZjdwTWR5YkZaLUxJUkJSMk9MNlozRVFSSlM4RkM0TnNQaXU1c0pLMktmN1NFdjYwOVZjbUM5NUhSeDYxQW1MaWJobnVYTWdWQUNUd2lRWGhDM1FqLW1TenVhRjB4enhZZ3JYc0hDa0FtYWlla203OHBOTlpDMHZXS2pNbDJlRGZWeTU5WXYyU2lXdjRFaWF0OEhNRkxCY0ZwZjdIZUdVdF93?oc=5</t>
+  </si>
+  <si>
+    <t>Pide FGR armonizar leyes para avanzar en la Estrategia Nacional de Seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMidkFVX3lxTE40R3kwcy1rQUJ1V2kzS0diZlRIai16THZ3Wi05UFJTa3otYjJJM29FbHAwdWRXYTNuTHhRVTdWUlJLem1EclR1RFJTNENUTEJQMlZ2bWdjaWkxMjNwcnM4UHVFM0hyR1dHaktRRERESHZScV8zNnc?oc=5</t>
+  </si>
+  <si>
+    <t>Guardia Nacional se integra a operativos de seguridad en Pachuca</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilwFBVV95cUxPYlo3OG9ueUswWTM0SzQ0VUQ3d1Y5V0ZmMHN5OVNudTlYY2V1RTdTQmNka3otS19sUUhRbWhjRUNkRFdBWUM4YWVYNzJxNW9ocjFBS0JpbWlEVndWN0NOWXAxdl9ZMm5SaHREQ1Z0MktWZXlCUFRDVnoyODVpOW00cy13Qm9FVVJwMWUxcFdVWGhvY0tOWWw00gGXAUFVX3lxTE1KU3h6LWhwZmpfS1ZxQ1o5SU1xTHpySHB4ZU10bTFZYU54eGFCYXlMT0FVcmJXQnFPbkVmNkhKUllFZFd0dHhiRWtZT1JJbTFFTnpnYm92VWdWY2lIU19HUW90bDZ3S3V3dGl1RHNHdDFlRkdJOEotN1lHU1dkYlY1aTFzZ2JNUGxmWS1Ld3BObWx0bjBpOHc?oc=5</t>
+  </si>
+  <si>
+    <t>Camimex exige reforzar investigaciones y seguridad tras asesinato de mineros en Sinaloa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxOa083VjFCUUQ5VE9wODRvanNsU0treENZNndjV3Z0cVBGX1BMOHRyWHJiMUtETHJwMlhscWJrSHpBQmZDZTdTN2VSR2xVWk9qbnh3enpSOURIdkozVkhMd01tNi1tX0s1RTlTOFRyWS1abmZXWVRnUzZ1a283WnB4eVJMV1dOZWVuN19BMFd2LUxkT3B1WFVaYjBWdXVyMXNJMTlwTtIBpAFBVV95cUxObnhwVEdiRF8wOEowb3hIY3Y1YVNmY2VNRHZ4c1dqWDVyZ1JZb2w5NWRhSUNCODZOM2hhN3VscWZZSFZlWURPYXZtOUxLcVpYTk5US0JNUzZiSGRjWWN0RURKbmlOUkRRRTI1SDdRNTNmbVo5TWNoLWQxd2U0dDZpMkhRVkJEYXZ3eGZ5Zk14WjJ1SnhIb1NXQllMdzRKZVVZV0lkTg?oc=5</t>
+  </si>
+  <si>
+    <t>Aseguran más de 2 mil dosis de droga y detienen a 361 personas en León durante operativos de seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxQQlFyWTJReUNERDNiNk9WME1ZSHFEbkRzSXlnSTQ2UllvTGh0dWZMczhVeFh0dWhBdFRlOGFRdkc3aVF6cTlwSldERjRVMkp5d01Pa0M5S2ZLSi1fbmxjWjl1N0I4N1F3bzE0cHRXenk2ME9hSzBaUjFLNjhTVEhJdUMwYk90N2UxVktQdzU2TGducnpmOC1VUFFjY2dtZ9IBngFBVV95cUxPcURmNW02V2tWZXhHcVhiTEJGYzFsUEdpV1d5MTdUWUtDZlR0VlN4Q0xhUmtBTi1mRnRzR0dERVpCUFc3dURzdmlXSGFRWDNGSWdnd3lHRTV0VWxEMVpKdTdzclY2dGlZNFdPYV9WVjBUMmxFVDN1LXdzUHc1VGRBeW15TTNZMkZhOW1qUk8zX0ozZ3dGX1ZjdUFYZUYzZw?oc=5</t>
+  </si>
+  <si>
+    <t>Pablo Lemus insta a líderes sociales y cámaras a cerrar filas por la seguridad; especialmente por la detención del alcalde de Tequila</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwJBVV95cUxQMjFnbVhaVnhpN0M1am04VmxpNTE4UkVjT2lzRnl3Y2hUOFVLWkRGMXNKUUdwUTFWQmlZZE42dkh2a0ZWdmdUeGNXNi1qRDBwVkM1eHBpQ1FBRXRqN1JHblRyUVkteV9Ua1FGbGNXbVVmYTdQRnN1Z0FHV1pES29DeUN3STdCOHowN0FGaDFoWHlzMWRDWTBHcFYxamNYQ1kzcHpkaWFyRlQ1LWtOY3Z2alVMT1p2X3NsZGpBRTZVOVVXWEtZemxkQW5nNGVWR1dvTkdvbnBVemdadXgweEo2LWhFYnpSTXFtb0NCMGFKU3VpS1Q3WVZoZ0NnWHlWaDVPSng4azlSbDdPMk1RZUxuc0Eyd9IBmAJBVV95cUxOLVNtbzFwTXpySG9fMVpPWkQwQ0lNT0FjclNsQkZaeGhJcmwzRnJ4QkNQbEs1azBUTEVtUi1CM1V4OVZ6MERCMEp3U3FGYUxCSmRZbXktSFNVeHU3X3BwTEpWS2txNDR5b0VieENRbWlyTnFTMnNvMWJpNTVjQ2NiMVVsVFFic2ttaVYzeFZWZVRkbXN0S0pRM3ZSblphaHpacGkzMWRiZkNqTzZVM3RSODNob21lOFpZeEdpb0xXV04zVjlRUG1KOG5NUG5MU1QwT0s2Sk9aRG1ZVHF6YUIzZTlaSTZ6QkVDc0tGd3NnVWdURF8yaDJsZmx2X3hqZUdLeHNtQ1RHWUFaemhFUmVEdkRrblNDVHl3?oc=5</t>
+  </si>
+  <si>
+    <t>Urgen a líderes sociales involucrarse en seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxOaHlJVElZLVFhd1dxZnRzQjF6b0lVNUZKNFNvMEZVS3FrM3c0LWlOVzVTV2JzR1JIbmxMSFJlSVFDdjJJWFE2SlhyZTdPYmFxeGZpdTUtbVZfS1dOUWZReVRNczA5SU1VcGFQLW1GYzM5R25SZFQ5M1lsdW9WaWJ1Ny1GLUxPVGF0bnZBWFdzLWV2TGNOYjVlX2p2SGhtNHk3Y0MyNG1R0gGrAUFVX3lxTFBPWm43UGRRbnBBRmYxUHRBWHh3QkF0V3RiamxrMDJFZG1IZ3VIZXZrWnFCMmVTdFNfQUFpNmJQRzJSTEFDWkZNaHZJMkhxSGpZUDd6b19QNDF5eDRnTzhTR01vYjZmV0xSbXdJeFJ2TG5HYm5HSExlLXJQYnZDR0g1ZEllZm9idTdtRVFyeU8tUjVTRVpqNks1WnFmaDZXS21VOHF0a2tISnhKSQ?oc=5</t>
+  </si>
+  <si>
+    <t>Seguridad en Jalisco: Disparan contra agentes de Fiscalía en Tonalá</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuwFBVV95cUxNTHlFNnNTS1NQZFU1TXhWbWFYRUwwbi1kYUtHNGd3TFZhcVhwTGRNS1drcFdjUzlSQW9NZ1FuMGoxVEVEUlZqMndLSUJTY3JGdkJBbEEyZ1FEZlpqOG9lRjlzTDRiQ1ZVdzlFNWFPcTFtQmNwdGpONkJhdDYtbU1XR0RyekpYQ1JNbGVlTks0elJIbVRPZzExMmlRcGhCSGVUb1NMRzY5NlBBQlVkUUU3VnBoemNlM3ZUeHVR0gHAAUFVX3lxTE9WeW16d1U0ZmpybVRsNnUzN08wdERlNTV2YWNsY1JvWVZxUnZmZkdRSm9raUYtTmItbkx4cHRSa0dnVWc1VzFRU25vMWRZQWZRX242UWNmdnNvbHBlUWNUSUlBZTJQU3otUnFqZEgzNzN2cGl0N0tEU2MyYXpBeXVwS2hrSUFnNkZRU0dVT2tvWllfUEFTaGFyYkhXbVQySVB1N2JYUXBOcmQwTmV6ZjMyN2F5ZTFSYmxPNHVleXpHaA?oc=5</t>
+  </si>
+  <si>
+    <t>Balacera: Urgen a líderes sociales involucrarse en seguridad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNQ3ZsTkYtVHByb2N4bTF0anE1d2NqOExRazdJZkwzVlFFdi1NLWgwNWQzNVI0QzVMSzc1eUFLS3ZPUTlLTy1SNjhpQkdTWXBqeG1qTmtHUmhDYVMyN3hLcUtjZVdwRTJvTHdMWDBsb2tZNW9BSFBybnBvbFc5eF9aZGItTDFBOVVGOXdQejk0dlNaczRiM1JXVk5EUFgySFVLTWg0TGdB0gGrAUFVX3lxTE1lVHpIS2ZsUmZnNWlwSl9zV1FvdExXQzNvdGNZdkg4UDUtNms4S2ZaT2dUTFVXYjZTMk0yY0x2eVpRU096NHBvS2kzbTZWbVFZZ3p0OFNFTHBXbkR3WFZucF9xcF85YXRPa3hMVmRZZklLTWtUR0k0WGp0VVktVkRmVHJfVXdNMjJGQ3pqQ0FpNnl5UjFncE40NnhEWHMydWpfaEY5VW5rOGNtRQ?oc=5</t>
+  </si>
+  <si>
+    <t>Existe una triple amenaza para la seguridad alimentaria mundial</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxNMDJ6T21vM0s3N0NWcXVqTEd6cl9yN0dsUS1CVC00REo3M3BCcEZqZEY3YXBwbk5nNTlldURxQWlGRF8tdGdkMEJmN1R4U19aN0tGeVRoN25qVG9OejNuWWlESlFIT2pmaFQtQjhOUEhUNlNFaU40Y0ZvVlFHQVhHNHJmSWZvMHRkQ2NTU1pPS0ZvNDhaa25yeDlJOEF3dGo1WVJsM3Rn0gG6AUFVX3lxTE9CeEJ3MGZjcHdQaTdndjRqT09ySVNmOHFFckJuWS1MQU15UENoOWpmT0lZU0hQcjR6Z3ZuR1dOZkFmZkNiNGc5UFRhdnc5U2pPZlYxSVE5amNSQmo2ZDhEYkNPRG56dWtKT1JZd1Q2eU1TLUdRcG9lRk1uc19pMEtSRk9tZFdTZjlBVkRYWFoxYklxYnpMamdCOFIwM1U1TUFjR01qQ05WbFpzYjhkY3AzTlViUzZrbnRGUQ?oc=5</t>
+  </si>
+  <si>
+    <t>"Nadie entiende ni una palabra de lo que dice este tipo": las críticas de Trump al show de Bad Bunny en el SuperBowl</t>
+  </si>
+  <si>
+    <t>agenda_nacional</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE1rYkdPUW83VW1HZGhXLWhTUDk5dy1ORUF0VUdfMjlsdFVkdGFIeFlWeFdfQ3QzYl9Kb05EV3NNQkNCV2NkcHV5QVZBck1ILUFjZENPLTFpTld4bzjSAWBBVV95cUxPUkU1dXppcVlaN2FjcmdfeTloYS10N1BfV3hMRjJnYkN2ZnhONk4tcXRKZm95Y1dPUFN4YlpsY3hsZWJBQ2tRS1FxYXc2R1lXcXdkOThBLThTQWhkTzcxdG0?oc=5</t>
+  </si>
+  <si>
+    <t>Versión estenográfica. Conferencia de prensa de la presidenta Claudia Sheinbaum Pardo del 09 de febrero de 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxOOTF0SnNwYkZQZGxMMTl1VXFiQndrQkJqTTRvWFB0U3JJdWpsZ3BEY29YZWY1MmR0Vl9fMzFCSUZLVkt1ZDRpSWhGMDFhaDhoXzUyNUtBdHFIc0poOVFLTW5PUWhYVWFna2ltc1ktSHVpbzhfOWJWOWwtbWFZakU0ZnNfalI2Q3hOd3ZxMDlYUjlURC15U2NVdXJOalJzQ3BfV2lCazRKdzNSUTM2YVJVcjFMVXdYczRVczFYU1lyUnVmZ1BtdEtQU20wallNVmVYU1NUNjJvRnljaXRKdjhfbC1aN1FuQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Ghislaine Maxwell ofrece exculpar a Trump del ‘caso Epstein’ a cambio de inmunidad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxOamlMNGMyMFJpMTNtdGFDTm5yNEdlMjZuQjE4ZG5Cd3ZFQmFFWmVOQWhIOGR0dURNUVFrbWMxNTJXZU9tMHlKZklQOTJYTzQ0cG1kNmJwNWw5N1k5X3M5M01ZVEVmV0IwQ0NubmhXQ0puLUhzSldyX1hLNEFSaDNDVjJRNjN5YnpybkQ4QTY5M3E0SXpESkljWWlfQWhidzBrTmN2M1Foa0pwb1gzdWx1c3MzMVkxMVpmTHfSAc4BQVVfeXFMT1h2X19GY21MLVN2UThtRmJPQ0hjajBJaXBzaVU1RE10WGtxdktsTHlsTE0xWndocUkzeTRMbUpTcFNOSzBQdU0zNVV5TTVkN19PRS1BZHVoR1RIb2NKYjY1bjJ4bHFhOXlvYkxjdmhHWUczazRnaUpmOFktTFVJTk5OR1o2bHNxenJOS1dmQW1QcTllNGFXMnMycVM0SVZNa0Z6QTUyNmNoU2cxWUVVNjNUajdTNE1sdm1jOEw1YXdzeVZTcUx4QkpxbFI0REE?oc=5</t>
+  </si>
+  <si>
+    <t>Sheinbaum Encabeza 113 Aniversario de Marcha de la Lealtad; Fuerzas Armadas Llaman a la Unidad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxOYWI2TzVNYVpvams0UHlBYWRtVV81QXM5ZGhhVzFvRzZfNEg4M0Y2ZEkzcXhvUVZZeXJyQ1FqWFBQWHFUZVlRc0FQcnRzT2JJa1FGWXdsQXVBXzFGaW1kS1ZXNFpNMzlaS2RJa2FrVlAyX3FsREcwd3dxWldGT08wYkhqWmNUbGN1UGpuMVNsY3otcE9tcjliNVM4dXozR2VLNUQ5OWRDVldvODlZMDcxSkFoZmN6MEJEZUhJbFNpakpMZGthRXpBX3pVSTRjdVFqN0VXS2ZoU1Y?oc=5</t>
+  </si>
+  <si>
+    <t>Sheinbaum defiende la soberanía de México frente a EE.UU. mientras hace concesiones sin precedente. ¿Cuánto le puede durar?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxNNFgzSXpHQUZ2RkxuUjRET1ZLMFA2T1pKLU13dkxnZEpfbmpJN3RvZ2hMX3FRVDhaZVlmM1JlOVRpT3hKLURKQkt5VThtbng5bDhOTUFmeFp3V3JUTDgtcUpGWDYtb0lqRG93WXV6UTFVUGxHcHVFS1AwVlBVRk83bTY0RmxkY3ROWVZMWFJrR1lKUTd2M3FXaTc5ZENuUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Sheinbaum encabeza ceremonia del 113 aniversario de la Marcha de la Lealtad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1wFBVV95cUxOUTNYSUN5R2V3YUFYSTlPQ011UG02V3A5aEZKY1VRUEgyOG1QUHk3dTdTS3hKd1AxalVrQUdnNmR3aXh1YzRoQUExQTNmZllZTDNBTjNWQ1g4aGtOMkJmVFpwSzJRY3h6Rll4QXRtdXFwbGRmakpUOGloX0psWXdvX05HWER3Y3h2XzJkbFcwNEplOWF6MmlDYldrakgybGJEazB0Qmt3MGxLTFMyX04tblBQWVJ3RDJlVVlocGdKWFpmdEZreW52ZnFhSHUtUmFYd001YWx4NA?oc=5</t>
+  </si>
+  <si>
+    <t>La respuesta de Trump a Bad Bunny tras su ‘show’ de medio tiempo en el Super Bowl</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxQQ0RSTHNHRmRXRzY5elZhZzFXTFZqN3U1NzZINFR5eS1hanRlOGozM3pMcmRfMVVDX1BnQmFidFlPX0tocVhLNDlfMUVJUUR4NGRVQUF3dU9vMVNwa3htSEEyRWMzS2lXdHBCS1ZpQzhHZjlqSmV2TVc5ZENCRndjcW80TnhqN19xclBOeGxUbkZ1X18yTzZySVdmUFI2YWtZQ09STkc1dXJXSWNIa0FrZWR5VTBqTENGTmM5VFVlbnUzTVFEdWxOc0U3eEHSAeABQVVfeXFMT2htR1gxOVBWSEhBQzRvTkpGSS05TlI1dERQOVVLWUhIb0xmYXU0UW9GenNIc3FQcmVPOHRZaE1wb0JUTDhZZGNadVdqczZYZzNwVmdjeUJ6d2hOVFhMWGxyWXpxN1FmSTRZQ0FtRmduYlRNOFpqV3lscHlvdWJKVUMtVnBSZUxBX3RablUwSHduQTlPQWZXc3lyOE41dzc2eU9fdm53SHhQRzlhVFlHUS1ZaUpaUkZmc2lKS2JQY3dwb2dCMGVUb09XMlJBWUl0MUd4eGpCTmE5MXpMQzhOc24?oc=5</t>
+  </si>
+  <si>
+    <t>Población de grandes economías rechaza políticas de Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxQZ01acllxWERaZU9DTV9EYV9NaUVQMFhlcC1FaHowa1E2aTg3RW92NW5pXzk2dlN1X0Nmby0yN1JieFB5OTdxQU9PRGhNX2lKRVUzX21SSHZ3dC1odWY3b2hrUkh6UlZsWFJOTV9VMlgwY1J4TUFIcml2R0JtQU51ZS1HZF81S0JxV2dCdUdvSTNnN3YtNmtlR0ZBaGVkR0N0TkhoWXZEYnlKOVd4M01IeTB0eDJzRW1URkJrX0dUcUh1WFd2Tmh5RlhXMNIBywFBVV95cUxOc1ZoZkJqZ0VFdFlmaTdaNGVPdFhpVWVQY0ZnSk53YS1na1R1dDh5cVdnRjBZVTEtamhrVERIbmZKbmJHcDNMZVVOcXV4a1haekZWeDZGOFRsRllhQjlveTFabmJIV1JnSXVndGhrSkgwRG1MTEF3bXF3MDJ5em9QUDFteTB2dE5ZeWI1MURvTXcwRDkzQVJuY01CTmNBWjVWNHlHV1JNR0ZWR1ZZWE5XUnByXzcydUxkWnJNM3FfYmN0MHFBcGcyUTVMSQ?oc=5</t>
+  </si>
+  <si>
+    <t>DW.com</t>
+  </si>
+  <si>
+    <t>"Una bofetada a nuestro país": Trump carga contra Bad Bunny tras su histórico show en el Super Bowl</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxQcVZLM19zSjBCby1QaXVmcXBrbFBtNDMzWHVZUHlGbTRtWHJJdmdzSkpVR0RnYThBREpiWmF2VHU3ZXRGbUhTdmtSZkYyLWtPMnVibnVRdUF2dUdHMU53Q05PN3JmUE5VWVNCSURUM1NiN2k1ZjBNbDY3RVhYV05Ic09Jc2RuVGMyZEdQQXU4SkItemwxNVhjTkM5U192RldRQnotVThKNjhMb2Y2OXlYaUZyRTZPQ2FJ0gHAAUFVX3lxTE01cDd0QnpfRGkwNWNqWXJFMzBBcFEwNW9QamE3V0FSbmw3M2xIa3lhS2FtcFNsazlQMEllNzY1a2hYcFJOcE1UVHZzS05DN3ZJbmhtUkc1VEd6empYdkRZemZPNzRVNmV2TklFNDhlY2xESGZYcHY5MlpiOC0zOHl3MHFrOWkxQmFJLUc0XzZlN0tKU3piWEJ0c3Z4NHp4WlNqZk5yN3NtZ3VUYy15M2c0T2swdWNucFU2TmdLRll4LQ?oc=5</t>
+  </si>
+  <si>
+    <t>Telemundo New York</t>
+  </si>
+  <si>
+    <t>“Vamos a ayudar al pueblo de Cuba”: Sheinbaum reitera que es injusta la medida de Trump</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxQVGpkNXJzZ3hUSHlfYnJaaDhRd1VqUTBNNmUtc3UwdUg3R3o3WktFLWthbUpNTEVncEVoQU5jV0ZqNFY5bzNiY1J1NS0tQjVucVZVRjVCTVRqYUFpeUxUbk8xNURiWTFSWVdFRUQxMUx2RDVyR2hpZm1nYXRmNlU2OTlzejhnTEo1R1h3UkJfVU5ZWGVRcnBBMkFqNG1MN18xMnlHMHBkY1NjQVlGUWx2Rm9RclAxTjlnWGFnUXQ1NU5HU1M1eURYV21FZGFBdjlSWVJvVHln0gHWAUFVX3lxTFBUamQ1cnNneFRIeV9iclpoOFF3VWpRME02ZS1zdTB1SDdHejdaS0Uta2FtSk1MRWdwRWhBTmNXRmo0VjlvM2JjUnU1LS1CNW5xVlVGNUJNVGphQWl5TFRuTzE1RGJZMVJZV0VFRDExTHZENXJHaGlmbWdhdGY2VTY5OXN6OGdMSjVHWHdSQl9VTllYZVFycEEyQWo0bUw3XzEyeUcwcGRjU2NBWUZRbHZGb1FyUDFOOWdYYWdRdDU1TkdTUzV5RFhXbUVkYUF2OVJZUm9UeWc?oc=5</t>
+  </si>
+  <si>
+    <t>Sheinbaum promete más ayuda a Cuba: “No se puede ahorcar a un pueblo así, es muy injusto”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxPU2QzYUJ1WHFvd3puM0lKZmI3WFFGa2VPRXhjdEpnVlpBU2FLWFRhRzBXN09GMFZzZU01dG9tZXNqNU8zRGZMWEotUG04dzNKRVR0VGVOd3FIcFhtdmdGd0dCN0c0anI2aWtxaDVseHFFaGlrNWloS1o5cTFTal85TG1YSkExWVk2RmtrSzJidUxTQ0pfNkM2Vy1JU0QzemlnOVh2RmNsbTQ5bGJyUWxRdVRnOXM1RlRXMlp0VlpCVGlPa3phaGfSAdoBQVVfeXFMT0k3VjdRbUV2NjZHMnFzNFo4eVlNeHBranN0enJaclMtM2lMM0ZDaWhYdGZNTEM5UHFZOHFuUVVWX0tDNWxMd3ZLWGJ5S2kzUElMTGNfUEVlSkpEYmVWd0xvcE5oemNtbV9OWWNaX1VDZkFaNl8wemJpR0VSM3loS1JHaTB6T2l4Y0NYLXAxT1E0WmVUS1dEckV3YUIxa0NwaTJOSmdZZDMtaDJqRHNVMHQxLVBsYUE5TzNfMHJGVjFXZUNrVWhiVERDWE1GQWJ2WkpDaTdwZzc5RGc?oc=5</t>
+  </si>
+  <si>
+    <t>Embajada rechaza cancelación de Sheinbaum a congresistas de EU; "compromisos, solo por vías oficiales"</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxONXBnOVR6ZHNuUElSd0FDQjdCanQxV0JkTzFDWlQtTlAwRksyakYtX3ZKdzZsX0FsbG5odDlSbEY5YkNuT09hS2UyNnJjTEd3Sy1vaGFoU2NkSGd6dkZSLUVCa1U1amk3N0FQYklqY3NxSFVNY3ljZTctdU9RS2M5dUNId3VHaDJ4eWhNMWdaU2U0ZVRMSnRSYmdrUC0zeFNrYUdEQkttRElRdTdwMTZaczZIajVZQUdtb2dEcXg4Y2p1ZmpVbHllaWRZcUpvWE5Vb3VJ?oc=5</t>
+  </si>
+  <si>
+    <t>La creciente volatilidad de Trump tiene al mundo en vilo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxNdDNtQUI0eE44UzVNUTZyWlBBRjRiRnNreXN2Q0tucTF0VjNDdndFRzNxNVhYZ2hQSzB5WFhab25FMkIyR0ItSFlNeVpfbTdoTEZGbENKWkdjVDlEOWhiSGtYbEpuTl9PNkhncFZlRWF1eW9pVlFQVGM2b3JzQUphYmF5RExneWpTUjRVLU93?oc=5</t>
+  </si>
+  <si>
+    <t>"Está detenido en este momento el envío de petróleo a Cuba", confirma Sheinbaum</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9AFBVV95cUxPa0xRVVNiZlVpWXFTVE5EcU1VWHcwVzRJbVRqb0dBbTZRWkRRM3I3Z0FMam9IczJGTlZ2THhCbGxnLThyLU1ZaXJ1NGd1RzB5dVFjZmpzejFfWVFlWkd2UVBSZDRrUGNVdGJjNlVlVFUtU0EzUmlnS0xUaTlUMzAzNXZ4dHdOSGVfbTF4TFpBSUw0NmxVNjF4WWprT0dNT3hOSDNGTzNTbzhWNVFWUkkyalhrVkQ0OFRTY3l6eEdjLWRwSkh1VDB4UUVlSExoS1R5UDRPSzJhZ3hjRUMyU2k4dTNaWFprNDdMQnpKWWVqRTB2OXox0gGIAkFVX3lxTFBfUGx3dExMOXJpQ2o5eEJfYVBIUFR0YmFOcXRsWkJZUTNnQlIwTVB3N3dYdElmZUNCZWtJTUdIanJwT0dfN09KbjRORGd2QjlJTERlX0x4cEpXTWRHYWlHR1dza3R0YjVqMWNvSEVqNjVYUnVQaUVsdUstUXg3c0ljdEN0Y2I1Qk9sRHVRRl9vdzZoWFF6aXVXVjdiRnljaVFQRVRRMllKMUk3WE1QSnZqSHB2VFZ5TWludTh4Zkptd1NNNWFvM3V0RTNYOXVHeU82U1dIRFlsX2JYWlJqbGNpOHJ6My0waldDUlZ0Z1UtVmRSYUpxTF9STHhWOWRBT3hJRWFZSHc5ZA?oc=5</t>
   </si>
 </sst>
 </file>
@@ -2237,10 +3524,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4855979C-8B5F-4FBD-A4DE-90E6E1F4122E}">
-  <dimension ref="A1:E204"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3323DA0-7D8F-482B-A400-E67F1291E3BC}">
+  <dimension ref="A1:E413"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5712,6 +7001,3559 @@
         <v>204</v>
       </c>
     </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B205" t="s">
+        <v>459</v>
+      </c>
+      <c r="C205" t="s">
+        <v>49</v>
+      </c>
+      <c r="D205" t="s">
+        <v>460</v>
+      </c>
+      <c r="E205" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B206" t="s">
+        <v>461</v>
+      </c>
+      <c r="C206" t="s">
+        <v>52</v>
+      </c>
+      <c r="D206" t="s">
+        <v>462</v>
+      </c>
+      <c r="E206" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B207" t="s">
+        <v>463</v>
+      </c>
+      <c r="C207" t="s">
+        <v>52</v>
+      </c>
+      <c r="D207" t="s">
+        <v>464</v>
+      </c>
+      <c r="E207" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B208" t="s">
+        <v>465</v>
+      </c>
+      <c r="C208" t="s">
+        <v>57</v>
+      </c>
+      <c r="D208" t="s">
+        <v>466</v>
+      </c>
+      <c r="E208" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B209" t="s">
+        <v>467</v>
+      </c>
+      <c r="C209" t="s">
+        <v>57</v>
+      </c>
+      <c r="D209" t="s">
+        <v>468</v>
+      </c>
+      <c r="E209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>46057</v>
+      </c>
+      <c r="B210" t="s">
+        <v>469</v>
+      </c>
+      <c r="C210" t="s">
+        <v>57</v>
+      </c>
+      <c r="D210" t="s">
+        <v>470</v>
+      </c>
+      <c r="E210" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B211" t="s">
+        <v>471</v>
+      </c>
+      <c r="C211" t="s">
+        <v>472</v>
+      </c>
+      <c r="D211" t="s">
+        <v>473</v>
+      </c>
+      <c r="E211" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B212" t="s">
+        <v>474</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
+        <v>475</v>
+      </c>
+      <c r="E212" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B213" t="s">
+        <v>476</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
+        <v>477</v>
+      </c>
+      <c r="E213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B214" t="s">
+        <v>478</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="s">
+        <v>479</v>
+      </c>
+      <c r="E214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B215" t="s">
+        <v>480</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="s">
+        <v>481</v>
+      </c>
+      <c r="E215" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B216" t="s">
+        <v>482</v>
+      </c>
+      <c r="C216" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>483</v>
+      </c>
+      <c r="E216" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B217" t="s">
+        <v>484</v>
+      </c>
+      <c r="C217" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>485</v>
+      </c>
+      <c r="E217" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B218" t="s">
+        <v>486</v>
+      </c>
+      <c r="C218" t="s">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>487</v>
+      </c>
+      <c r="E218" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B219" t="s">
+        <v>488</v>
+      </c>
+      <c r="C219" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>489</v>
+      </c>
+      <c r="E219" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B220" t="s">
+        <v>490</v>
+      </c>
+      <c r="C220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" t="s">
+        <v>491</v>
+      </c>
+      <c r="E220" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B221" t="s">
+        <v>492</v>
+      </c>
+      <c r="C221" t="s">
+        <v>49</v>
+      </c>
+      <c r="D221" t="s">
+        <v>493</v>
+      </c>
+      <c r="E221" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B222" t="s">
+        <v>494</v>
+      </c>
+      <c r="C222" t="s">
+        <v>49</v>
+      </c>
+      <c r="D222" t="s">
+        <v>495</v>
+      </c>
+      <c r="E222" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B223" t="s">
+        <v>496</v>
+      </c>
+      <c r="C223" t="s">
+        <v>49</v>
+      </c>
+      <c r="D223" t="s">
+        <v>497</v>
+      </c>
+      <c r="E223" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B224" t="s">
+        <v>498</v>
+      </c>
+      <c r="C224" t="s">
+        <v>49</v>
+      </c>
+      <c r="D224" t="s">
+        <v>499</v>
+      </c>
+      <c r="E224" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B225" t="s">
+        <v>501</v>
+      </c>
+      <c r="C225" t="s">
+        <v>52</v>
+      </c>
+      <c r="D225" t="s">
+        <v>502</v>
+      </c>
+      <c r="E225" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B226" t="s">
+        <v>503</v>
+      </c>
+      <c r="C226" t="s">
+        <v>52</v>
+      </c>
+      <c r="D226" t="s">
+        <v>504</v>
+      </c>
+      <c r="E226" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B227" t="s">
+        <v>506</v>
+      </c>
+      <c r="C227" t="s">
+        <v>52</v>
+      </c>
+      <c r="D227" t="s">
+        <v>507</v>
+      </c>
+      <c r="E227" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B228" t="s">
+        <v>508</v>
+      </c>
+      <c r="C228" t="s">
+        <v>57</v>
+      </c>
+      <c r="D228" t="s">
+        <v>509</v>
+      </c>
+      <c r="E228" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B229" t="s">
+        <v>510</v>
+      </c>
+      <c r="C229" t="s">
+        <v>57</v>
+      </c>
+      <c r="D229" t="s">
+        <v>511</v>
+      </c>
+      <c r="E229" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B230" t="s">
+        <v>512</v>
+      </c>
+      <c r="C230" t="s">
+        <v>57</v>
+      </c>
+      <c r="D230" t="s">
+        <v>513</v>
+      </c>
+      <c r="E230" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B231" t="s">
+        <v>514</v>
+      </c>
+      <c r="C231" t="s">
+        <v>57</v>
+      </c>
+      <c r="D231" t="s">
+        <v>515</v>
+      </c>
+      <c r="E231" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B232" t="s">
+        <v>516</v>
+      </c>
+      <c r="C232" t="s">
+        <v>57</v>
+      </c>
+      <c r="D232" t="s">
+        <v>517</v>
+      </c>
+      <c r="E232" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B233" t="s">
+        <v>518</v>
+      </c>
+      <c r="C233" t="s">
+        <v>57</v>
+      </c>
+      <c r="D233" t="s">
+        <v>519</v>
+      </c>
+      <c r="E233" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B234" t="s">
+        <v>520</v>
+      </c>
+      <c r="C234" t="s">
+        <v>57</v>
+      </c>
+      <c r="D234" t="s">
+        <v>521</v>
+      </c>
+      <c r="E234" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B235" t="s">
+        <v>522</v>
+      </c>
+      <c r="C235" t="s">
+        <v>57</v>
+      </c>
+      <c r="D235" t="s">
+        <v>523</v>
+      </c>
+      <c r="E235" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B236" t="s">
+        <v>524</v>
+      </c>
+      <c r="C236" t="s">
+        <v>57</v>
+      </c>
+      <c r="D236" t="s">
+        <v>525</v>
+      </c>
+      <c r="E236" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B237" t="s">
+        <v>526</v>
+      </c>
+      <c r="C237" t="s">
+        <v>57</v>
+      </c>
+      <c r="D237" t="s">
+        <v>527</v>
+      </c>
+      <c r="E237" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B238" t="s">
+        <v>528</v>
+      </c>
+      <c r="C238" t="s">
+        <v>57</v>
+      </c>
+      <c r="D238" t="s">
+        <v>529</v>
+      </c>
+      <c r="E238" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B239" t="s">
+        <v>530</v>
+      </c>
+      <c r="C239" t="s">
+        <v>57</v>
+      </c>
+      <c r="D239" t="s">
+        <v>531</v>
+      </c>
+      <c r="E239" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B240" t="s">
+        <v>532</v>
+      </c>
+      <c r="C240" t="s">
+        <v>57</v>
+      </c>
+      <c r="D240" t="s">
+        <v>533</v>
+      </c>
+      <c r="E240" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B241" t="s">
+        <v>534</v>
+      </c>
+      <c r="C241" t="s">
+        <v>57</v>
+      </c>
+      <c r="D241" t="s">
+        <v>535</v>
+      </c>
+      <c r="E241" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B242" t="s">
+        <v>536</v>
+      </c>
+      <c r="C242" t="s">
+        <v>57</v>
+      </c>
+      <c r="D242" t="s">
+        <v>537</v>
+      </c>
+      <c r="E242" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B243" t="s">
+        <v>538</v>
+      </c>
+      <c r="C243" t="s">
+        <v>57</v>
+      </c>
+      <c r="D243" t="s">
+        <v>539</v>
+      </c>
+      <c r="E243" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B244" t="s">
+        <v>540</v>
+      </c>
+      <c r="C244" t="s">
+        <v>57</v>
+      </c>
+      <c r="D244" t="s">
+        <v>541</v>
+      </c>
+      <c r="E244" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B245" t="s">
+        <v>542</v>
+      </c>
+      <c r="C245" t="s">
+        <v>57</v>
+      </c>
+      <c r="D245" t="s">
+        <v>543</v>
+      </c>
+      <c r="E245" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B246" t="s">
+        <v>544</v>
+      </c>
+      <c r="C246" t="s">
+        <v>57</v>
+      </c>
+      <c r="D246" t="s">
+        <v>545</v>
+      </c>
+      <c r="E246" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B247" t="s">
+        <v>546</v>
+      </c>
+      <c r="C247" t="s">
+        <v>57</v>
+      </c>
+      <c r="D247" t="s">
+        <v>547</v>
+      </c>
+      <c r="E247" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B248" t="s">
+        <v>548</v>
+      </c>
+      <c r="C248" t="s">
+        <v>57</v>
+      </c>
+      <c r="D248" t="s">
+        <v>549</v>
+      </c>
+      <c r="E248" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B249" t="s">
+        <v>551</v>
+      </c>
+      <c r="C249" t="s">
+        <v>57</v>
+      </c>
+      <c r="D249" t="s">
+        <v>552</v>
+      </c>
+      <c r="E249" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B250" t="s">
+        <v>553</v>
+      </c>
+      <c r="C250" t="s">
+        <v>57</v>
+      </c>
+      <c r="D250" t="s">
+        <v>554</v>
+      </c>
+      <c r="E250" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B251" t="s">
+        <v>555</v>
+      </c>
+      <c r="C251" t="s">
+        <v>57</v>
+      </c>
+      <c r="D251" t="s">
+        <v>556</v>
+      </c>
+      <c r="E251" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B252" t="s">
+        <v>557</v>
+      </c>
+      <c r="C252" t="s">
+        <v>57</v>
+      </c>
+      <c r="D252" t="s">
+        <v>558</v>
+      </c>
+      <c r="E252" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B253" t="s">
+        <v>560</v>
+      </c>
+      <c r="C253" t="s">
+        <v>57</v>
+      </c>
+      <c r="D253" t="s">
+        <v>561</v>
+      </c>
+      <c r="E253" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B254" t="s">
+        <v>562</v>
+      </c>
+      <c r="C254" t="s">
+        <v>57</v>
+      </c>
+      <c r="D254" t="s">
+        <v>563</v>
+      </c>
+      <c r="E254" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B255" t="s">
+        <v>564</v>
+      </c>
+      <c r="C255" t="s">
+        <v>57</v>
+      </c>
+      <c r="D255" t="s">
+        <v>565</v>
+      </c>
+      <c r="E255" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B256" t="s">
+        <v>566</v>
+      </c>
+      <c r="C256" t="s">
+        <v>57</v>
+      </c>
+      <c r="D256" t="s">
+        <v>567</v>
+      </c>
+      <c r="E256" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B257" t="s">
+        <v>568</v>
+      </c>
+      <c r="C257" t="s">
+        <v>57</v>
+      </c>
+      <c r="D257" t="s">
+        <v>569</v>
+      </c>
+      <c r="E257" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B258" t="s">
+        <v>571</v>
+      </c>
+      <c r="C258" t="s">
+        <v>57</v>
+      </c>
+      <c r="D258" t="s">
+        <v>572</v>
+      </c>
+      <c r="E258" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B259" t="s">
+        <v>574</v>
+      </c>
+      <c r="C259" t="s">
+        <v>57</v>
+      </c>
+      <c r="D259" t="s">
+        <v>575</v>
+      </c>
+      <c r="E259" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B260" t="s">
+        <v>576</v>
+      </c>
+      <c r="C260" t="s">
+        <v>57</v>
+      </c>
+      <c r="D260" t="s">
+        <v>577</v>
+      </c>
+      <c r="E260" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B261" t="s">
+        <v>578</v>
+      </c>
+      <c r="C261" t="s">
+        <v>57</v>
+      </c>
+      <c r="D261" t="s">
+        <v>579</v>
+      </c>
+      <c r="E261" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B262" t="s">
+        <v>580</v>
+      </c>
+      <c r="C262" t="s">
+        <v>57</v>
+      </c>
+      <c r="D262" t="s">
+        <v>581</v>
+      </c>
+      <c r="E262" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B263" t="s">
+        <v>582</v>
+      </c>
+      <c r="C263" t="s">
+        <v>57</v>
+      </c>
+      <c r="D263" t="s">
+        <v>583</v>
+      </c>
+      <c r="E263" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B264" t="s">
+        <v>584</v>
+      </c>
+      <c r="C264" t="s">
+        <v>57</v>
+      </c>
+      <c r="D264" t="s">
+        <v>585</v>
+      </c>
+      <c r="E264" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B265" t="s">
+        <v>586</v>
+      </c>
+      <c r="C265" t="s">
+        <v>57</v>
+      </c>
+      <c r="D265" t="s">
+        <v>587</v>
+      </c>
+      <c r="E265" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B266" t="s">
+        <v>588</v>
+      </c>
+      <c r="C266" t="s">
+        <v>57</v>
+      </c>
+      <c r="D266" t="s">
+        <v>589</v>
+      </c>
+      <c r="E266" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B267" t="s">
+        <v>591</v>
+      </c>
+      <c r="C267" t="s">
+        <v>57</v>
+      </c>
+      <c r="D267" t="s">
+        <v>592</v>
+      </c>
+      <c r="E267" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B268" t="s">
+        <v>593</v>
+      </c>
+      <c r="C268" t="s">
+        <v>57</v>
+      </c>
+      <c r="D268" t="s">
+        <v>594</v>
+      </c>
+      <c r="E268" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B269" t="s">
+        <v>595</v>
+      </c>
+      <c r="C269" t="s">
+        <v>57</v>
+      </c>
+      <c r="D269" t="s">
+        <v>596</v>
+      </c>
+      <c r="E269" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B270" t="s">
+        <v>597</v>
+      </c>
+      <c r="C270" t="s">
+        <v>57</v>
+      </c>
+      <c r="D270" t="s">
+        <v>598</v>
+      </c>
+      <c r="E270" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B271" t="s">
+        <v>599</v>
+      </c>
+      <c r="C271" t="s">
+        <v>57</v>
+      </c>
+      <c r="D271" t="s">
+        <v>600</v>
+      </c>
+      <c r="E271" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B272" t="s">
+        <v>601</v>
+      </c>
+      <c r="C272" t="s">
+        <v>57</v>
+      </c>
+      <c r="D272" t="s">
+        <v>602</v>
+      </c>
+      <c r="E272" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B273" t="s">
+        <v>603</v>
+      </c>
+      <c r="C273" t="s">
+        <v>57</v>
+      </c>
+      <c r="D273" t="s">
+        <v>604</v>
+      </c>
+      <c r="E273" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>46058</v>
+      </c>
+      <c r="B274" t="s">
+        <v>605</v>
+      </c>
+      <c r="C274" t="s">
+        <v>57</v>
+      </c>
+      <c r="D274" t="s">
+        <v>606</v>
+      </c>
+      <c r="E274" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B275" t="s">
+        <v>608</v>
+      </c>
+      <c r="C275" t="s">
+        <v>164</v>
+      </c>
+      <c r="D275" t="s">
+        <v>609</v>
+      </c>
+      <c r="E275" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B276" t="s">
+        <v>610</v>
+      </c>
+      <c r="C276" t="s">
+        <v>472</v>
+      </c>
+      <c r="D276" t="s">
+        <v>611</v>
+      </c>
+      <c r="E276" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B277" t="s">
+        <v>612</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>613</v>
+      </c>
+      <c r="E277" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B278" t="s">
+        <v>614</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>615</v>
+      </c>
+      <c r="E278" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B279" t="s">
+        <v>616</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" t="s">
+        <v>617</v>
+      </c>
+      <c r="E279" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B280" t="s">
+        <v>618</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" t="s">
+        <v>619</v>
+      </c>
+      <c r="E280" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B281" t="s">
+        <v>620</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="s">
+        <v>621</v>
+      </c>
+      <c r="E281" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B282" t="s">
+        <v>622</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="s">
+        <v>623</v>
+      </c>
+      <c r="E282" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B283" t="s">
+        <v>624</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="s">
+        <v>625</v>
+      </c>
+      <c r="E283" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B284" t="s">
+        <v>626</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="s">
+        <v>229</v>
+      </c>
+      <c r="E284" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B285" t="s">
+        <v>627</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" t="s">
+        <v>628</v>
+      </c>
+      <c r="E285" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B286" t="s">
+        <v>629</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="s">
+        <v>630</v>
+      </c>
+      <c r="E286" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B287" t="s">
+        <v>631</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" t="s">
+        <v>632</v>
+      </c>
+      <c r="E287" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B288" t="s">
+        <v>633</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s">
+        <v>634</v>
+      </c>
+      <c r="E288" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B289" t="s">
+        <v>635</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="s">
+        <v>636</v>
+      </c>
+      <c r="E289" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B290" t="s">
+        <v>637</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="s">
+        <v>638</v>
+      </c>
+      <c r="E290" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B291" t="s">
+        <v>639</v>
+      </c>
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" t="s">
+        <v>640</v>
+      </c>
+      <c r="E291" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B292" t="s">
+        <v>641</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" t="s">
+        <v>642</v>
+      </c>
+      <c r="E292" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B293" t="s">
+        <v>643</v>
+      </c>
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" t="s">
+        <v>644</v>
+      </c>
+      <c r="E293" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B294" t="s">
+        <v>645</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" t="s">
+        <v>646</v>
+      </c>
+      <c r="E294" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B295" t="s">
+        <v>647</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" t="s">
+        <v>648</v>
+      </c>
+      <c r="E295" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B296" t="s">
+        <v>649</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" t="s">
+        <v>650</v>
+      </c>
+      <c r="E296" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B297" t="s">
+        <v>651</v>
+      </c>
+      <c r="C297" t="s">
+        <v>49</v>
+      </c>
+      <c r="D297" t="s">
+        <v>652</v>
+      </c>
+      <c r="E297" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B298" t="s">
+        <v>653</v>
+      </c>
+      <c r="C298" t="s">
+        <v>49</v>
+      </c>
+      <c r="D298" t="s">
+        <v>654</v>
+      </c>
+      <c r="E298" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B299" t="s">
+        <v>655</v>
+      </c>
+      <c r="C299" t="s">
+        <v>49</v>
+      </c>
+      <c r="D299" t="s">
+        <v>656</v>
+      </c>
+      <c r="E299" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B300" t="s">
+        <v>657</v>
+      </c>
+      <c r="C300" t="s">
+        <v>49</v>
+      </c>
+      <c r="D300" t="s">
+        <v>658</v>
+      </c>
+      <c r="E300" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B301" t="s">
+        <v>660</v>
+      </c>
+      <c r="C301" t="s">
+        <v>276</v>
+      </c>
+      <c r="D301" t="s">
+        <v>661</v>
+      </c>
+      <c r="E301" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B302" t="s">
+        <v>662</v>
+      </c>
+      <c r="C302" t="s">
+        <v>52</v>
+      </c>
+      <c r="D302" t="s">
+        <v>663</v>
+      </c>
+      <c r="E302" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B303" t="s">
+        <v>664</v>
+      </c>
+      <c r="C303" t="s">
+        <v>52</v>
+      </c>
+      <c r="D303" t="s">
+        <v>665</v>
+      </c>
+      <c r="E303" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B304" t="s">
+        <v>666</v>
+      </c>
+      <c r="C304" t="s">
+        <v>52</v>
+      </c>
+      <c r="D304" t="s">
+        <v>667</v>
+      </c>
+      <c r="E304" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B305" t="s">
+        <v>668</v>
+      </c>
+      <c r="C305" t="s">
+        <v>52</v>
+      </c>
+      <c r="D305" t="s">
+        <v>669</v>
+      </c>
+      <c r="E305" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B306" t="s">
+        <v>670</v>
+      </c>
+      <c r="C306" t="s">
+        <v>52</v>
+      </c>
+      <c r="D306" t="s">
+        <v>671</v>
+      </c>
+      <c r="E306" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B307" t="s">
+        <v>672</v>
+      </c>
+      <c r="C307" t="s">
+        <v>52</v>
+      </c>
+      <c r="D307" t="s">
+        <v>673</v>
+      </c>
+      <c r="E307" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B308" t="s">
+        <v>674</v>
+      </c>
+      <c r="C308" t="s">
+        <v>52</v>
+      </c>
+      <c r="D308" t="s">
+        <v>675</v>
+      </c>
+      <c r="E308" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B309" t="s">
+        <v>676</v>
+      </c>
+      <c r="C309" t="s">
+        <v>52</v>
+      </c>
+      <c r="D309" t="s">
+        <v>677</v>
+      </c>
+      <c r="E309" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B310" t="s">
+        <v>678</v>
+      </c>
+      <c r="C310" t="s">
+        <v>57</v>
+      </c>
+      <c r="D310" t="s">
+        <v>679</v>
+      </c>
+      <c r="E310" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B311" t="s">
+        <v>680</v>
+      </c>
+      <c r="C311" t="s">
+        <v>57</v>
+      </c>
+      <c r="D311" t="s">
+        <v>681</v>
+      </c>
+      <c r="E311" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B312" t="s">
+        <v>682</v>
+      </c>
+      <c r="C312" t="s">
+        <v>57</v>
+      </c>
+      <c r="D312" t="s">
+        <v>683</v>
+      </c>
+      <c r="E312" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B313" t="s">
+        <v>684</v>
+      </c>
+      <c r="C313" t="s">
+        <v>57</v>
+      </c>
+      <c r="D313" t="s">
+        <v>685</v>
+      </c>
+      <c r="E313" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B314" t="s">
+        <v>686</v>
+      </c>
+      <c r="C314" t="s">
+        <v>57</v>
+      </c>
+      <c r="D314" t="s">
+        <v>687</v>
+      </c>
+      <c r="E314" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B315" t="s">
+        <v>688</v>
+      </c>
+      <c r="C315" t="s">
+        <v>57</v>
+      </c>
+      <c r="D315" t="s">
+        <v>689</v>
+      </c>
+      <c r="E315" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B316" t="s">
+        <v>690</v>
+      </c>
+      <c r="C316" t="s">
+        <v>57</v>
+      </c>
+      <c r="D316" t="s">
+        <v>691</v>
+      </c>
+      <c r="E316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B317" t="s">
+        <v>692</v>
+      </c>
+      <c r="C317" t="s">
+        <v>57</v>
+      </c>
+      <c r="D317" t="s">
+        <v>693</v>
+      </c>
+      <c r="E317" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B318" t="s">
+        <v>694</v>
+      </c>
+      <c r="C318" t="s">
+        <v>57</v>
+      </c>
+      <c r="D318" t="s">
+        <v>695</v>
+      </c>
+      <c r="E318" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B319" t="s">
+        <v>696</v>
+      </c>
+      <c r="C319" t="s">
+        <v>57</v>
+      </c>
+      <c r="D319" t="s">
+        <v>697</v>
+      </c>
+      <c r="E319" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B320" t="s">
+        <v>698</v>
+      </c>
+      <c r="C320" t="s">
+        <v>57</v>
+      </c>
+      <c r="D320" t="s">
+        <v>699</v>
+      </c>
+      <c r="E320" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B321" t="s">
+        <v>700</v>
+      </c>
+      <c r="C321" t="s">
+        <v>57</v>
+      </c>
+      <c r="D321" t="s">
+        <v>701</v>
+      </c>
+      <c r="E321" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B322" t="s">
+        <v>702</v>
+      </c>
+      <c r="C322" t="s">
+        <v>57</v>
+      </c>
+      <c r="D322" t="s">
+        <v>703</v>
+      </c>
+      <c r="E322" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B323" t="s">
+        <v>704</v>
+      </c>
+      <c r="C323" t="s">
+        <v>57</v>
+      </c>
+      <c r="D323" t="s">
+        <v>705</v>
+      </c>
+      <c r="E323" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B324" t="s">
+        <v>706</v>
+      </c>
+      <c r="C324" t="s">
+        <v>57</v>
+      </c>
+      <c r="D324" t="s">
+        <v>707</v>
+      </c>
+      <c r="E324" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B325" t="s">
+        <v>708</v>
+      </c>
+      <c r="C325" t="s">
+        <v>57</v>
+      </c>
+      <c r="D325" t="s">
+        <v>709</v>
+      </c>
+      <c r="E325" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B326" t="s">
+        <v>710</v>
+      </c>
+      <c r="C326" t="s">
+        <v>57</v>
+      </c>
+      <c r="D326" t="s">
+        <v>711</v>
+      </c>
+      <c r="E326" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B327" t="s">
+        <v>712</v>
+      </c>
+      <c r="C327" t="s">
+        <v>57</v>
+      </c>
+      <c r="D327" t="s">
+        <v>713</v>
+      </c>
+      <c r="E327" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B328" t="s">
+        <v>714</v>
+      </c>
+      <c r="C328" t="s">
+        <v>57</v>
+      </c>
+      <c r="D328" t="s">
+        <v>715</v>
+      </c>
+      <c r="E328" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B329" t="s">
+        <v>716</v>
+      </c>
+      <c r="C329" t="s">
+        <v>57</v>
+      </c>
+      <c r="D329" t="s">
+        <v>717</v>
+      </c>
+      <c r="E329" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B330" t="s">
+        <v>718</v>
+      </c>
+      <c r="C330" t="s">
+        <v>57</v>
+      </c>
+      <c r="D330" t="s">
+        <v>719</v>
+      </c>
+      <c r="E330" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B331" t="s">
+        <v>720</v>
+      </c>
+      <c r="C331" t="s">
+        <v>57</v>
+      </c>
+      <c r="D331" t="s">
+        <v>721</v>
+      </c>
+      <c r="E331" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B332" t="s">
+        <v>722</v>
+      </c>
+      <c r="C332" t="s">
+        <v>57</v>
+      </c>
+      <c r="D332" t="s">
+        <v>723</v>
+      </c>
+      <c r="E332" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B333" t="s">
+        <v>724</v>
+      </c>
+      <c r="C333" t="s">
+        <v>57</v>
+      </c>
+      <c r="D333" t="s">
+        <v>725</v>
+      </c>
+      <c r="E333" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B334" t="s">
+        <v>726</v>
+      </c>
+      <c r="C334" t="s">
+        <v>57</v>
+      </c>
+      <c r="D334" t="s">
+        <v>727</v>
+      </c>
+      <c r="E334" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B335" t="s">
+        <v>728</v>
+      </c>
+      <c r="C335" t="s">
+        <v>57</v>
+      </c>
+      <c r="D335" t="s">
+        <v>729</v>
+      </c>
+      <c r="E335" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B336" t="s">
+        <v>631</v>
+      </c>
+      <c r="C336" t="s">
+        <v>57</v>
+      </c>
+      <c r="D336" t="s">
+        <v>632</v>
+      </c>
+      <c r="E336" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B337" t="s">
+        <v>730</v>
+      </c>
+      <c r="C337" t="s">
+        <v>57</v>
+      </c>
+      <c r="D337" t="s">
+        <v>731</v>
+      </c>
+      <c r="E337" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B338" t="s">
+        <v>732</v>
+      </c>
+      <c r="C338" t="s">
+        <v>57</v>
+      </c>
+      <c r="D338" t="s">
+        <v>733</v>
+      </c>
+      <c r="E338" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B339" t="s">
+        <v>734</v>
+      </c>
+      <c r="C339" t="s">
+        <v>57</v>
+      </c>
+      <c r="D339" t="s">
+        <v>735</v>
+      </c>
+      <c r="E339" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B340" t="s">
+        <v>736</v>
+      </c>
+      <c r="C340" t="s">
+        <v>57</v>
+      </c>
+      <c r="D340" t="s">
+        <v>737</v>
+      </c>
+      <c r="E340" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B341" t="s">
+        <v>738</v>
+      </c>
+      <c r="C341" t="s">
+        <v>57</v>
+      </c>
+      <c r="D341" t="s">
+        <v>739</v>
+      </c>
+      <c r="E341" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B342" t="s">
+        <v>741</v>
+      </c>
+      <c r="C342" t="s">
+        <v>57</v>
+      </c>
+      <c r="D342" t="s">
+        <v>742</v>
+      </c>
+      <c r="E342" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B343" t="s">
+        <v>743</v>
+      </c>
+      <c r="C343" t="s">
+        <v>57</v>
+      </c>
+      <c r="D343" t="s">
+        <v>744</v>
+      </c>
+      <c r="E343" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B344" t="s">
+        <v>745</v>
+      </c>
+      <c r="C344" t="s">
+        <v>57</v>
+      </c>
+      <c r="D344" t="s">
+        <v>746</v>
+      </c>
+      <c r="E344" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B345" t="s">
+        <v>748</v>
+      </c>
+      <c r="C345" t="s">
+        <v>57</v>
+      </c>
+      <c r="D345" t="s">
+        <v>749</v>
+      </c>
+      <c r="E345" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B346" t="s">
+        <v>750</v>
+      </c>
+      <c r="C346" t="s">
+        <v>57</v>
+      </c>
+      <c r="D346" t="s">
+        <v>751</v>
+      </c>
+      <c r="E346" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B347" t="s">
+        <v>645</v>
+      </c>
+      <c r="C347" t="s">
+        <v>57</v>
+      </c>
+      <c r="D347" t="s">
+        <v>646</v>
+      </c>
+      <c r="E347" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B348" t="s">
+        <v>752</v>
+      </c>
+      <c r="C348" t="s">
+        <v>57</v>
+      </c>
+      <c r="D348" t="s">
+        <v>753</v>
+      </c>
+      <c r="E348" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B349" t="s">
+        <v>754</v>
+      </c>
+      <c r="C349" t="s">
+        <v>57</v>
+      </c>
+      <c r="D349" t="s">
+        <v>755</v>
+      </c>
+      <c r="E349" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B350" t="s">
+        <v>756</v>
+      </c>
+      <c r="C350" t="s">
+        <v>57</v>
+      </c>
+      <c r="D350" t="s">
+        <v>757</v>
+      </c>
+      <c r="E350" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B351" t="s">
+        <v>758</v>
+      </c>
+      <c r="C351" t="s">
+        <v>57</v>
+      </c>
+      <c r="D351" t="s">
+        <v>759</v>
+      </c>
+      <c r="E351" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B352" t="s">
+        <v>760</v>
+      </c>
+      <c r="C352" t="s">
+        <v>57</v>
+      </c>
+      <c r="D352" t="s">
+        <v>761</v>
+      </c>
+      <c r="E352" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>46059</v>
+      </c>
+      <c r="B353" t="s">
+        <v>762</v>
+      </c>
+      <c r="C353" t="s">
+        <v>57</v>
+      </c>
+      <c r="D353" t="s">
+        <v>763</v>
+      </c>
+      <c r="E353" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B354" t="s">
+        <v>764</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" t="s">
+        <v>765</v>
+      </c>
+      <c r="E354" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B355" t="s">
+        <v>766</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" t="s">
+        <v>767</v>
+      </c>
+      <c r="E355" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B356" t="s">
+        <v>768</v>
+      </c>
+      <c r="C356" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356" t="s">
+        <v>769</v>
+      </c>
+      <c r="E356" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B357" t="s">
+        <v>770</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" t="s">
+        <v>771</v>
+      </c>
+      <c r="E357" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B358" t="s">
+        <v>772</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" t="s">
+        <v>773</v>
+      </c>
+      <c r="E358" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B359" t="s">
+        <v>774</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359" t="s">
+        <v>775</v>
+      </c>
+      <c r="E359" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B360" t="s">
+        <v>776</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" t="s">
+        <v>777</v>
+      </c>
+      <c r="E360" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B361" t="s">
+        <v>778</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" t="s">
+        <v>779</v>
+      </c>
+      <c r="E361" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B362" t="s">
+        <v>780</v>
+      </c>
+      <c r="C362" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362" t="s">
+        <v>781</v>
+      </c>
+      <c r="E362" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B363" t="s">
+        <v>782</v>
+      </c>
+      <c r="C363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" t="s">
+        <v>783</v>
+      </c>
+      <c r="E363" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B364" t="s">
+        <v>784</v>
+      </c>
+      <c r="C364" t="s">
+        <v>49</v>
+      </c>
+      <c r="D364" t="s">
+        <v>785</v>
+      </c>
+      <c r="E364" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B365" t="s">
+        <v>786</v>
+      </c>
+      <c r="C365" t="s">
+        <v>49</v>
+      </c>
+      <c r="D365" t="s">
+        <v>787</v>
+      </c>
+      <c r="E365" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B366" t="s">
+        <v>788</v>
+      </c>
+      <c r="C366" t="s">
+        <v>49</v>
+      </c>
+      <c r="D366" t="s">
+        <v>789</v>
+      </c>
+      <c r="E366" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B367" t="s">
+        <v>790</v>
+      </c>
+      <c r="C367" t="s">
+        <v>52</v>
+      </c>
+      <c r="D367" t="s">
+        <v>791</v>
+      </c>
+      <c r="E367" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B368" t="s">
+        <v>792</v>
+      </c>
+      <c r="C368" t="s">
+        <v>52</v>
+      </c>
+      <c r="D368" t="s">
+        <v>793</v>
+      </c>
+      <c r="E368" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B369" t="s">
+        <v>795</v>
+      </c>
+      <c r="C369" t="s">
+        <v>52</v>
+      </c>
+      <c r="D369" t="s">
+        <v>796</v>
+      </c>
+      <c r="E369" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B370" t="s">
+        <v>797</v>
+      </c>
+      <c r="C370" t="s">
+        <v>52</v>
+      </c>
+      <c r="D370" t="s">
+        <v>798</v>
+      </c>
+      <c r="E370" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B371" t="s">
+        <v>799</v>
+      </c>
+      <c r="C371" t="s">
+        <v>57</v>
+      </c>
+      <c r="D371" t="s">
+        <v>800</v>
+      </c>
+      <c r="E371" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B372" t="s">
+        <v>801</v>
+      </c>
+      <c r="C372" t="s">
+        <v>57</v>
+      </c>
+      <c r="D372" t="s">
+        <v>802</v>
+      </c>
+      <c r="E372" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B373" t="s">
+        <v>803</v>
+      </c>
+      <c r="C373" t="s">
+        <v>57</v>
+      </c>
+      <c r="D373" t="s">
+        <v>804</v>
+      </c>
+      <c r="E373" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B374" t="s">
+        <v>805</v>
+      </c>
+      <c r="C374" t="s">
+        <v>57</v>
+      </c>
+      <c r="D374" t="s">
+        <v>806</v>
+      </c>
+      <c r="E374" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B375" t="s">
+        <v>807</v>
+      </c>
+      <c r="C375" t="s">
+        <v>57</v>
+      </c>
+      <c r="D375" t="s">
+        <v>808</v>
+      </c>
+      <c r="E375" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B376" t="s">
+        <v>809</v>
+      </c>
+      <c r="C376" t="s">
+        <v>57</v>
+      </c>
+      <c r="D376" t="s">
+        <v>810</v>
+      </c>
+      <c r="E376" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B377" t="s">
+        <v>811</v>
+      </c>
+      <c r="C377" t="s">
+        <v>57</v>
+      </c>
+      <c r="D377" t="s">
+        <v>812</v>
+      </c>
+      <c r="E377" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B378" t="s">
+        <v>813</v>
+      </c>
+      <c r="C378" t="s">
+        <v>57</v>
+      </c>
+      <c r="D378" t="s">
+        <v>814</v>
+      </c>
+      <c r="E378" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B379" t="s">
+        <v>815</v>
+      </c>
+      <c r="C379" t="s">
+        <v>57</v>
+      </c>
+      <c r="D379" t="s">
+        <v>816</v>
+      </c>
+      <c r="E379" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B380" t="s">
+        <v>817</v>
+      </c>
+      <c r="C380" t="s">
+        <v>57</v>
+      </c>
+      <c r="D380" t="s">
+        <v>818</v>
+      </c>
+      <c r="E380" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B381" t="s">
+        <v>819</v>
+      </c>
+      <c r="C381" t="s">
+        <v>57</v>
+      </c>
+      <c r="D381" t="s">
+        <v>820</v>
+      </c>
+      <c r="E381" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B382" t="s">
+        <v>821</v>
+      </c>
+      <c r="C382" t="s">
+        <v>57</v>
+      </c>
+      <c r="D382" t="s">
+        <v>822</v>
+      </c>
+      <c r="E382" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B383" t="s">
+        <v>823</v>
+      </c>
+      <c r="C383" t="s">
+        <v>57</v>
+      </c>
+      <c r="D383" t="s">
+        <v>824</v>
+      </c>
+      <c r="E383" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B384" t="s">
+        <v>825</v>
+      </c>
+      <c r="C384" t="s">
+        <v>57</v>
+      </c>
+      <c r="D384" t="s">
+        <v>826</v>
+      </c>
+      <c r="E384" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B385" t="s">
+        <v>827</v>
+      </c>
+      <c r="C385" t="s">
+        <v>57</v>
+      </c>
+      <c r="D385" t="s">
+        <v>828</v>
+      </c>
+      <c r="E385" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B386" t="s">
+        <v>829</v>
+      </c>
+      <c r="C386" t="s">
+        <v>57</v>
+      </c>
+      <c r="D386" t="s">
+        <v>830</v>
+      </c>
+      <c r="E386" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B387" t="s">
+        <v>831</v>
+      </c>
+      <c r="C387" t="s">
+        <v>57</v>
+      </c>
+      <c r="D387" t="s">
+        <v>832</v>
+      </c>
+      <c r="E387" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B388" t="s">
+        <v>833</v>
+      </c>
+      <c r="C388" t="s">
+        <v>57</v>
+      </c>
+      <c r="D388" t="s">
+        <v>834</v>
+      </c>
+      <c r="E388" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B389" t="s">
+        <v>835</v>
+      </c>
+      <c r="C389" t="s">
+        <v>57</v>
+      </c>
+      <c r="D389" t="s">
+        <v>836</v>
+      </c>
+      <c r="E389" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B390" t="s">
+        <v>837</v>
+      </c>
+      <c r="C390" t="s">
+        <v>57</v>
+      </c>
+      <c r="D390" t="s">
+        <v>838</v>
+      </c>
+      <c r="E390" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B391" t="s">
+        <v>839</v>
+      </c>
+      <c r="C391" t="s">
+        <v>57</v>
+      </c>
+      <c r="D391" t="s">
+        <v>840</v>
+      </c>
+      <c r="E391" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B392" t="s">
+        <v>841</v>
+      </c>
+      <c r="C392" t="s">
+        <v>57</v>
+      </c>
+      <c r="D392" t="s">
+        <v>842</v>
+      </c>
+      <c r="E392" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B393" t="s">
+        <v>843</v>
+      </c>
+      <c r="C393" t="s">
+        <v>57</v>
+      </c>
+      <c r="D393" t="s">
+        <v>844</v>
+      </c>
+      <c r="E393" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B394" t="s">
+        <v>845</v>
+      </c>
+      <c r="C394" t="s">
+        <v>57</v>
+      </c>
+      <c r="D394" t="s">
+        <v>846</v>
+      </c>
+      <c r="E394" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B395" t="s">
+        <v>847</v>
+      </c>
+      <c r="C395" t="s">
+        <v>57</v>
+      </c>
+      <c r="D395" t="s">
+        <v>848</v>
+      </c>
+      <c r="E395" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B396" t="s">
+        <v>849</v>
+      </c>
+      <c r="C396" t="s">
+        <v>57</v>
+      </c>
+      <c r="D396" t="s">
+        <v>850</v>
+      </c>
+      <c r="E396" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B397" t="s">
+        <v>851</v>
+      </c>
+      <c r="C397" t="s">
+        <v>57</v>
+      </c>
+      <c r="D397" t="s">
+        <v>852</v>
+      </c>
+      <c r="E397" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B398" t="s">
+        <v>853</v>
+      </c>
+      <c r="C398" t="s">
+        <v>57</v>
+      </c>
+      <c r="D398" t="s">
+        <v>854</v>
+      </c>
+      <c r="E398" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B399" t="s">
+        <v>855</v>
+      </c>
+      <c r="C399" t="s">
+        <v>57</v>
+      </c>
+      <c r="D399" t="s">
+        <v>856</v>
+      </c>
+      <c r="E399" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B400" t="s">
+        <v>857</v>
+      </c>
+      <c r="C400" t="s">
+        <v>858</v>
+      </c>
+      <c r="D400" t="s">
+        <v>859</v>
+      </c>
+      <c r="E400" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B401" t="s">
+        <v>860</v>
+      </c>
+      <c r="C401" t="s">
+        <v>858</v>
+      </c>
+      <c r="D401" t="s">
+        <v>861</v>
+      </c>
+      <c r="E401" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B402" t="s">
+        <v>862</v>
+      </c>
+      <c r="C402" t="s">
+        <v>858</v>
+      </c>
+      <c r="D402" t="s">
+        <v>863</v>
+      </c>
+      <c r="E402" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B403" t="s">
+        <v>864</v>
+      </c>
+      <c r="C403" t="s">
+        <v>858</v>
+      </c>
+      <c r="D403" t="s">
+        <v>865</v>
+      </c>
+      <c r="E403" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B404" t="s">
+        <v>866</v>
+      </c>
+      <c r="C404" t="s">
+        <v>858</v>
+      </c>
+      <c r="D404" t="s">
+        <v>867</v>
+      </c>
+      <c r="E404" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B405" t="s">
+        <v>868</v>
+      </c>
+      <c r="C405" t="s">
+        <v>858</v>
+      </c>
+      <c r="D405" t="s">
+        <v>869</v>
+      </c>
+      <c r="E405" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B406" t="s">
+        <v>870</v>
+      </c>
+      <c r="C406" t="s">
+        <v>858</v>
+      </c>
+      <c r="D406" t="s">
+        <v>871</v>
+      </c>
+      <c r="E406" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B407" t="s">
+        <v>872</v>
+      </c>
+      <c r="C407" t="s">
+        <v>858</v>
+      </c>
+      <c r="D407" t="s">
+        <v>873</v>
+      </c>
+      <c r="E407" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B408" t="s">
+        <v>875</v>
+      </c>
+      <c r="C408" t="s">
+        <v>858</v>
+      </c>
+      <c r="D408" t="s">
+        <v>876</v>
+      </c>
+      <c r="E408" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B409" t="s">
+        <v>878</v>
+      </c>
+      <c r="C409" t="s">
+        <v>858</v>
+      </c>
+      <c r="D409" t="s">
+        <v>879</v>
+      </c>
+      <c r="E409" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B410" t="s">
+        <v>880</v>
+      </c>
+      <c r="C410" t="s">
+        <v>858</v>
+      </c>
+      <c r="D410" t="s">
+        <v>881</v>
+      </c>
+      <c r="E410" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B411" t="s">
+        <v>882</v>
+      </c>
+      <c r="C411" t="s">
+        <v>858</v>
+      </c>
+      <c r="D411" t="s">
+        <v>883</v>
+      </c>
+      <c r="E411" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B412" t="s">
+        <v>884</v>
+      </c>
+      <c r="C412" t="s">
+        <v>858</v>
+      </c>
+      <c r="D412" t="s">
+        <v>885</v>
+      </c>
+      <c r="E412" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>46062</v>
+      </c>
+      <c r="B413" t="s">
+        <v>886</v>
+      </c>
+      <c r="C413" t="s">
+        <v>858</v>
+      </c>
+      <c r="D413" t="s">
+        <v>887</v>
+      </c>
+      <c r="E413" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_dap.xlsx
+++ b/noticias_dap.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\DAP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBE529BE-ECE8-4ACA-87DD-ED94AA188052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C726CEF-5F41-4384-8415-25FD6CE00FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AFF59C4B-3A27-466E-81FC-888D43418794}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98F02C5B-C5DC-466B-B66A-90E52589A962}"/>
   </bookViews>
   <sheets>
     <sheet name="noticias_dap" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_dap!$A$1:$E$408</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="878">
   <si>
     <t>fecha</t>
   </si>
@@ -841,12 +844,6 @@
     <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxPQzdpaFZXRFpieXAwVVdFbnY1YUE2cW55TzlCaTctWHdpcHJzSFR2T25UbEU4MEpsSklRR3BzaVNwdndBWWxDa29NbVg5cDdqUS1CY0RSLU9nOUtmT2FyZnBHbFFjcHBnRnRPTng2M2JaZEpqN0toRVpwaEY2S0hSdTdwZDlEbDZxTnAzajltYmlqWE1TZ0R5U1BrcnlnOEhMaGF3TlpjTldhaG9SYXAtZXdEVjdDQVFMN1VZaTY0Y1JpZEN3NWQwMXBoS29Qc0Q4NHp0NUtNX2FpZEJ3OFlTcXVhcVducXE5NGw2dmJWcEUtMnRHSkJxcnRlaEpPbE84TEHSAZwCQVVfeXFMTlFzVHZyRkQwZzBZdnVpUFVndEhfaE12aGJMZWU0TmNfekhDMmVDM0FEMTZDczN0SGVudmI2Q1I5VEhRWUFpenRsWm9OU29Fa1FLZXJhZVBlMVlWYWJacVY0R2pXOU5NYXI0aTVfbE5SOGp4anhiVGtTWXR4M2s2UTVZWkRjUVpPb2pUZ3Z4bzZESDN5Y0pwT1FFenp0REdPSHFHcHJROXc3c21PWkZBTi1qbXJnYXNSRWNqOVpDajNESzBxUVBWVWJsVHRzMWktMENsTGQ4WXo5LWJpakpTem9GOWhWTWswNFR1S1FXWmx4R0FLMmVaOWJ6cmhvRXdESmtQMXIxR2U0WS0tS1IzS1VTcGRETnpvODI0TlM?oc=5</t>
   </si>
   <si>
-    <t>Gobierno Petro tiene embolatados $23.000 millones por mala gestión de la Dian y otros ministerios con el impuesto al turismo</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxNam4tMlZYeGN6MEJVRW5HclpacU5fRWFQS1I4VFU4RXpYNzN5VVlaM3RtSjZPVng2M2QwWkZVRTg4Rm1FSnA2LUJyenZqYjBzdDlpb1pKVGJiZXNyRU50em5NRDN5UkJiLXhZOXlONGhjY1ZMMnZ2SFM0Q09RTlZXU1FBOEdsSjFQVkZWOENTR0JJMzNfM0llOER5VU1xR1VNcXVndFR0dHllb0FiYjh0U3VGUFUtVzNjTkJLcjhmNW1OV2FfbVZkdzlYLTNLLWpVYTJoSGYwSGtKS2R4VkxINkx3V3VhZGRwa21ZRm9lMEJCUzYyQlFrRXR2QdIBlgJBVV95cUxQeU51R2hKd3psTnB5S3BzVmQ2a2RxWi1fRlVoZFNIdGZhVVE2YkZLNjdnRFlGX3N4ZjdoY2dJTWtCUkFvdjVYSFBDQzdMalVnNUZYOHE3anFreDVxd25sSThCcHIzWmtUdkVJamZ0WXczTG1PZmlyOVRxTkVPeXZ3Smd0U0lsdnNVVGdxWE16WFlBUUNqcVRXdTYtejJGZEkwTFpBSmZnbFZqNGRNOUw4Rl9SeGxINUJwcUtJaVVyYVRkU1RidjlvdEk5NktFN05nOEJuTU5KcWJSRDNEUFNneGx6S0IzbENGVUw5bVhEemxJTnNGOWNSa3hSVThkVnhLVGtOZjhITmxydEJsYmZqRDZZWHp5Zw?oc=5</t>
-  </si>
-  <si>
     <t>Galerías de arte cierran sus puertas hasta el 7 de febrero para protestar sobre un IVA reducido</t>
   </si>
   <si>
@@ -1987,18 +1984,6 @@
     <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxNbzNoLUV0cEJiVEMxcWFoeWZleFdPUHJnbThMdjNpVGVqN2ZXU2w0alFyUkdfZGI3czZWdHAxaGlydkZjcThzOFNxcFowaEVvd2hmTmlrYThCSWF0c2hxSjRzZU9sQlNuUTZ5bElyR2d1STFleUZvLWsyX3BzVHpNR3A0ZEhlSExHU2FXNThTSjB3UXQ2NVZxeWtxVnNicVMwNXdwZlFVa0F6bUhqS0VrS1REYzhfY1ZYQnhlVGI2ell4UG5KZGwxeTZyX1Rrb2tiV0tPNWNmbG4?oc=5</t>
   </si>
   <si>
-    <t>El impuesto a los super ricos obligaría a Amancio Ortega a pagar a Hacienda 2.198 millones anuales: la propuesta de Consumo para erradicar la pobreza infantil</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMipwJBVV95cUxNRmdydGpSanBwUmtGLWZXZElCdEQ5Wno3dTZ4dlhuRFpweS0yVUhPUmpjZkN2UW05dTlYMXpJZG82ZXUwS01vQ01UTTJkeFVqRkgzY2t1akpiaWduVEdXbkNrWUsyR2lFbE5xSGhLOTVnelFqbFB4cWJqa2VVbENLSy1kNmJFbkw5RDYtYWdnSFVQblNVRUhLak1GTzhKNGI2Y2hUSWZSNDNxeHpVbXYzMmdIa3A5VkI5aGFvaFFSS3lzVHlkUHBTNm1LOUwwQ2ptNlZGcHRnWDFLcGJhQ1pIa1RIVUU1MnNndUF3Y3FuOV83eGt3LWZiNFVVcTU5QU9BckpqRGowUkVpYTY2a1I4ZktoVmF1UHNiTHVCb193a0t0TWhfWHEw0gHCAkFVX3lxTE4tdmh1cTBhSVJMeVEya2VhUVAxWUZtcU94b1kwUEhNUW92R21pdzQ4d3pjdWxJZ2owN0F5MmVkTnlrakJqX0VwTE11SURlQ2ktdWhWM0ZXM0hKTXZBaG9RRUU0cWpucktOZ2JqTWZJQmxzOV82TWdwTnZPRjBYQU5vMHBJcW1uOGtVR0dReHpTQzc1dVRDVXNaRFEyX0xKS2dMX0RETU1faWtDd2xhX2ZtNWlrVy15Y1UyMmhGdVZOY1BqSXQ0dFRaUFdVMlBxWkt2YS1qNTROMjhUMkZPbkFmd01pdXhaalVVRXR2NXVNOURnb0tQbzF2RlhJYVJIODNzb2JXR3JFWmR6MFJHckZ6Z2M0QmltUV9Wdjl0dmIyWW1hZUhGdEowbHZFeUNmb2JIVzZ4SENZdFExWkNjTE83TWc?oc=5</t>
-  </si>
-  <si>
-    <t>Paso a paso: cómo aplicar la rebaja del Impuesto a la Renta por gastos personales en 2026</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxPSnRfc2pNSEFyNEEtRmtqMlVwVmlMWDdsMUpSMUhTeEJPVzUzQ1NVTld2X3lwRVRxN08tT051dV9FdlNUUmJuVmQ2VXk1djJrRUJxYzFtWHc4RjgyaHBHUmFhTG94azRJaklBN3hLSHNqN0k5Nk56S2Z1c2g4RVhJcEhQTy1xeEs3d0ttMUJHTEtzWC1xLUN0cWpXb0xIZmxwVjU5YWVwYm8tS2loSEJraU9Za0dBN3lNeW5mN0NGQUFIOGluTVVuY1FvemRQd3l3SlNoWmxkajRFZ9IB7gFBVV95cUxQWjM5UXI1emFvbkZQbVpkbkdPRlJfUEZnTi0tcW0tZWJMRnh1ckNhTG5hY2FwVjhFZDR3Vk5NQ2h4ZVVUV1I5MWZaY0RmQzR1S1ZybHlLQUVQV05nU045Yk9WWGgzME5TVW5Pc0NsbnpFOW1vVmoxcDhWSE1WZVh0Z2dhTGYxOUZMMzdGOXBxUUd5V1h5dm85ZFQyOG9xYlp4amRFN0hGV3plN0tReTRiVkZjT0ZhU3F0QXVhVElLSzR4TjZIM3dVZnFlZXRPd3BKZW9lTG1rMnV3Mk5kOUI5RXNSQXI3cnZ2Mm1CUElB?oc=5</t>
-  </si>
-  <si>
     <t>bloomberglinea.com</t>
   </si>
   <si>
@@ -2374,22 +2359,10 @@
     <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxOY3dUTEpHV0E3dUd6U0VVY2ZYamRJWTJ2UlhNRGRhODR1U25aZDBkWWVxWjRsUDF2Wk41SmViUWZ4QXhsQTR2QjR1X0lYTVRnTVZ1OFF4bUZJUkVzM2h6M213dVJDUUhDaVlDTF9GSWdESzBQNU11QXBnWnBzMGwwYlVBYnJEcU1vTEV2MWZVMjJLYkZXeS1FWHIyMEFUcmtkUUtvT215dmJmc0NMeFJqYm5CaW1WMzdtWmlWblpSenVUSU5VTjAydtIB3AFBVV95cUxQcWhSdXBzckU4a0RiMGpQcDlHV3ZNWU9yTW5yVXVjUzlVRjN2MjFfeVBwTVVFS3JadlBjbmRvYzN3OGxVdjY3SkxfZ3VPMXJCdFhQWUo5cG5fSlpVczloN205X01sOVFQbjFGTlNic3M3TUpPR2dMelFqS3JkeVRRMXUzdFh1Y3Z6eTdVd2lDNDRFNmFOVTZkLXZ0LW54azlzNGdVWlhVaVVTRG5EbWZUd2t6TUZhY2hBaHMtRGo0YmN5Q1E1cmhNU1VZTktMcmJwVjFTU3Y4ZS03ODN1?oc=5</t>
   </si>
   <si>
-    <t>EU captura petrolero que burló bloqueo impuesto por Trump</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi3wFBVV95cUxPNUE0RWxPN081alg0NFV2V0RNdkJNazhJYmdScDBVaDlHQW5qOUlfNklwZ2ZUdTEzcTREMmwwUkhpVkk2UV9GOHdka3Q2X2YyeFdZX3hRdTRLMHpJMWFycnNUemtkNUlITlFsdFJ3ZnBfN1FqVnRtLWNrcFlWUjktOGhpZnZVMF9rdkt5R1JqYmtxbGtjUGpEMURhZFlISXJtaXQ4M3Fub09wbVVTZFRSeVByLTdZUk5DakRpaXk1NGFKMGM2ZHQwLVlDYU56dVotb3RfeHcyVklWQmVQNmhV0gHfAUFVX3lxTE81QTRFbE83TzVqWDQ0VXZXRE12Qk1rOEliZ1JwMFVoOUdBbmo5SV82SXBnZlR1MTNxNEQybDBSSGlWSTZRX0Y4d2RrdDZfZjJ4V1lfeFF1NEswekkxYXJyc1R6a2Q1SUhOUWx0UndmcF83UWpWdG0tY2twWVZSOS04aGlmdlUwX2t2S3lHUmpia3Fsa2NQakQxRGFkWUhJcm1pdDgzcW5vT3BtVVNkVFJ5UHItN1lSTkNqRGlpeTU0YUowYzZkdDAtWUNhTnp1Wi1vdF94dzJWSVZCZVA2aFU?oc=5</t>
-  </si>
-  <si>
     <t>La primera ministra de Japón confirmó la suspensión del impuesto a los alimentos tras la histórica victoria electoral</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMi-wFBVV95cUxNTDdzZGRNYjZCdVI0Z1pLcHlwc2RoUGVYVEtaMzQ4QWFVOUpUQldPcmpQZ3dlMFo4QW5zOE9vRk9JVkJpVDYxUjNMSnd0b1NGYjg1QlJZc3lrNWR6clhxQlI1ZF9pbkU0Vm9oNC1Bcng0SmZZZUVRcU9iNU5MelRfQzZxQ3NHYmw2dUhoSEIxT2h5X0dBNDlmdDNQbWhITlhtZ1l3aHl5UmpRTkR5Q2ZuYWtGTkh3Z1drU2VYVnhsRl9mUXVnckVNdTNGSmE2alJfRkk0ckVKUlo3NmVTQ29UU09Sd3pQbkhmYy1oLXBuVmkxOXYzQjU2aWM0Z9IBlgJBVV95cUxOMFE1R3VhMXB5M1dRVkJSSHZWcWx0eVgtY2JMQTN0T2xMTkxzMGNBanJLLXA2WUQtMVk2ZHFFLVBJOUZrQVNwU0JpbTVDOVRRUXV0bG9uU29TWGdzZzE0V1VNcHNNWk5sU2hzdUNLTHVPRTRtSkFEeWxxYlRpSE1HTl9ycHFoV01MancxeHUyRkNTTVI5Vk5WVVJvVzFpYmU5T0VkQTRZLUJQRTJ6a09yb2t3YVpTUVc0R0tnT2FFdWo0R1dDZDJkU0FDNDFFSlJrQVZwQ1Y1V2dJSkRpNFJuRUlxUVhsX2NvUG4wZjlESFg5RWx1N2tJQ0NwNkVRZmpOVGttclRSZnl3NS1oYUdYWXRZWDAzZw?oc=5</t>
-  </si>
-  <si>
-    <t>EU captura petrolero en el océano Índico tras burlar bloqueo impuesto por Trump</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxPWjJFWEs0WlJNS09jWW5QdlhySi1mOUZNTDUxM3VEbllnaDFBRUpzQmtvTGlXVHhFU0VrbXI1QS03RU0zSW83YnZ5UW44aDdPU2FpNmR2UFlkcEMtdEJMR1NXVWRlaUxuSWFrNG9CSUJvZWl5TEFNZ2pyVTR1UUxRNjdSOThDNDFiVFBtbFgxLV9YblVlbWpJUElIUUR2dzdlLWRvV25lYlB5WFJWWUtPaUgtYjEzcVJUa0ljemZjeEt3WlFwQzkydHV3R2x1amxHd2Rv?oc=5</t>
   </si>
   <si>
     <t>Qué implica el tren interurbano “El Insurgente” para la movilidad y la vida urbana del valle de México</t>
@@ -3524,14 +3497,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3323DA0-7D8F-482B-A400-E67F1291E3BC}">
-  <dimension ref="A1:E413"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37301FED-97FC-4247-80A8-6228C2D5F348}">
+  <dimension ref="A1:E408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A117" activeCellId="4" sqref="A366:XFD366 A364:XFD364 A300:XFD300 A299:XFD299 A117:XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="147.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -5513,10 +5489,10 @@
         <v>273</v>
       </c>
       <c r="C117" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="D117" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E117" t="s">
         <v>31</v>
@@ -5527,16 +5503,16 @@
         <v>46055</v>
       </c>
       <c r="B118" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C118" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D118" t="s">
         <v>277</v>
       </c>
       <c r="E118" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -5547,7 +5523,7 @@
         <v>278</v>
       </c>
       <c r="C119" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D119" t="s">
         <v>279</v>
@@ -5564,13 +5540,13 @@
         <v>280</v>
       </c>
       <c r="C120" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D120" t="s">
         <v>281</v>
       </c>
       <c r="E120" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -5581,13 +5557,13 @@
         <v>282</v>
       </c>
       <c r="C121" t="s">
-        <v>276</v>
+        <v>52</v>
       </c>
       <c r="D121" t="s">
         <v>283</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -5638,7 +5614,7 @@
         <v>289</v>
       </c>
       <c r="E124" t="s">
-        <v>15</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -5646,16 +5622,16 @@
         <v>46055</v>
       </c>
       <c r="B125" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C125" t="s">
         <v>52</v>
       </c>
       <c r="D125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E125" t="s">
-        <v>292</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -5689,7 +5665,7 @@
         <v>296</v>
       </c>
       <c r="E127" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -5706,7 +5682,7 @@
         <v>298</v>
       </c>
       <c r="E128" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -5723,7 +5699,7 @@
         <v>300</v>
       </c>
       <c r="E129" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -5740,7 +5716,7 @@
         <v>302</v>
       </c>
       <c r="E130" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -5774,7 +5750,7 @@
         <v>306</v>
       </c>
       <c r="E132" t="s">
-        <v>43</v>
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -5782,16 +5758,16 @@
         <v>46055</v>
       </c>
       <c r="B133" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C133" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D133" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E133" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -5799,16 +5775,16 @@
         <v>46055</v>
       </c>
       <c r="B134" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C134" t="s">
         <v>57</v>
       </c>
       <c r="D134" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E134" t="s">
-        <v>312</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -5859,7 +5835,7 @@
         <v>318</v>
       </c>
       <c r="E137" t="s">
-        <v>15</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -5867,16 +5843,16 @@
         <v>46055</v>
       </c>
       <c r="B138" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C138" t="s">
         <v>57</v>
       </c>
       <c r="D138" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E138" t="s">
-        <v>321</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -5893,7 +5869,7 @@
         <v>323</v>
       </c>
       <c r="E139" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -5944,7 +5920,7 @@
         <v>329</v>
       </c>
       <c r="E142" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -5961,7 +5937,7 @@
         <v>331</v>
       </c>
       <c r="E143" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -5978,7 +5954,7 @@
         <v>333</v>
       </c>
       <c r="E144" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -6012,7 +5988,7 @@
         <v>337</v>
       </c>
       <c r="E146" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -6063,7 +6039,7 @@
         <v>343</v>
       </c>
       <c r="E149" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -6097,7 +6073,7 @@
         <v>347</v>
       </c>
       <c r="E151" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -6165,7 +6141,7 @@
         <v>355</v>
       </c>
       <c r="E155" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -6182,7 +6158,7 @@
         <v>357</v>
       </c>
       <c r="E156" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -6193,13 +6169,13 @@
         <v>358</v>
       </c>
       <c r="C157" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="D157" t="s">
         <v>359</v>
       </c>
       <c r="E157" t="s">
-        <v>116</v>
+        <v>360</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -6207,16 +6183,16 @@
         <v>46055</v>
       </c>
       <c r="B158" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C158" t="s">
         <v>122</v>
       </c>
       <c r="D158" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E158" t="s">
-        <v>362</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -6233,7 +6209,7 @@
         <v>364</v>
       </c>
       <c r="E159" t="s">
-        <v>146</v>
+        <v>365</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -6241,16 +6217,16 @@
         <v>46055</v>
       </c>
       <c r="B160" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C160" t="s">
         <v>122</v>
       </c>
       <c r="D160" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E160" t="s">
-        <v>367</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -6267,7 +6243,7 @@
         <v>369</v>
       </c>
       <c r="E161" t="s">
-        <v>31</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -6284,7 +6260,7 @@
         <v>371</v>
       </c>
       <c r="E162" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -6301,24 +6277,24 @@
         <v>373</v>
       </c>
       <c r="E163" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B164" t="s">
         <v>374</v>
       </c>
       <c r="C164" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="D164" t="s">
         <v>375</v>
       </c>
       <c r="E164" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -6335,7 +6311,7 @@
         <v>377</v>
       </c>
       <c r="E165" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -6352,7 +6328,7 @@
         <v>379</v>
       </c>
       <c r="E166" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -6369,7 +6345,7 @@
         <v>381</v>
       </c>
       <c r="E167" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -6386,7 +6362,7 @@
         <v>383</v>
       </c>
       <c r="E168" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -6403,7 +6379,7 @@
         <v>385</v>
       </c>
       <c r="E169" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -6420,7 +6396,7 @@
         <v>387</v>
       </c>
       <c r="E170" t="s">
-        <v>135</v>
+        <v>388</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -6428,16 +6404,16 @@
         <v>46056</v>
       </c>
       <c r="B171" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
       </c>
       <c r="D171" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E171" t="s">
-        <v>390</v>
+        <v>43</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -6465,13 +6441,13 @@
         <v>393</v>
       </c>
       <c r="C173" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D173" t="s">
         <v>394</v>
       </c>
       <c r="E173" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -6499,13 +6475,13 @@
         <v>397</v>
       </c>
       <c r="C175" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D175" t="s">
         <v>398</v>
       </c>
       <c r="E175" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -6522,7 +6498,7 @@
         <v>400</v>
       </c>
       <c r="E176" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -6539,7 +6515,7 @@
         <v>402</v>
       </c>
       <c r="E177" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -6556,7 +6532,7 @@
         <v>404</v>
       </c>
       <c r="E178" t="s">
-        <v>90</v>
+        <v>405</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -6564,16 +6540,16 @@
         <v>46056</v>
       </c>
       <c r="B179" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C179" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D179" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E179" t="s">
-        <v>407</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -6590,7 +6566,7 @@
         <v>409</v>
       </c>
       <c r="E180" t="s">
-        <v>15</v>
+        <v>410</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -6598,16 +6574,16 @@
         <v>46056</v>
       </c>
       <c r="B181" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C181" t="s">
         <v>57</v>
       </c>
       <c r="D181" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E181" t="s">
-        <v>412</v>
+        <v>21</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -6624,7 +6600,7 @@
         <v>414</v>
       </c>
       <c r="E182" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -6675,7 +6651,7 @@
         <v>420</v>
       </c>
       <c r="E185" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -6777,7 +6753,7 @@
         <v>432</v>
       </c>
       <c r="E191" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -6794,7 +6770,7 @@
         <v>434</v>
       </c>
       <c r="E192" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -6811,7 +6787,7 @@
         <v>436</v>
       </c>
       <c r="E193" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -6828,7 +6804,7 @@
         <v>438</v>
       </c>
       <c r="E194" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -6845,7 +6821,7 @@
         <v>440</v>
       </c>
       <c r="E195" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -6856,13 +6832,13 @@
         <v>441</v>
       </c>
       <c r="C196" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="D196" t="s">
         <v>442</v>
       </c>
       <c r="E196" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -6879,7 +6855,7 @@
         <v>444</v>
       </c>
       <c r="E197" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -6896,7 +6872,7 @@
         <v>446</v>
       </c>
       <c r="E198" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -6913,7 +6889,7 @@
         <v>448</v>
       </c>
       <c r="E199" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -6930,7 +6906,7 @@
         <v>450</v>
       </c>
       <c r="E200" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -6947,7 +6923,7 @@
         <v>452</v>
       </c>
       <c r="E201" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -6964,7 +6940,7 @@
         <v>454</v>
       </c>
       <c r="E202" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -6981,24 +6957,24 @@
         <v>456</v>
       </c>
       <c r="E203" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B204" t="s">
         <v>457</v>
       </c>
       <c r="C204" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="D204" t="s">
         <v>458</v>
       </c>
       <c r="E204" t="s">
-        <v>204</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -7009,13 +6985,13 @@
         <v>459</v>
       </c>
       <c r="C205" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D205" t="s">
         <v>460</v>
       </c>
       <c r="E205" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -7032,7 +7008,7 @@
         <v>462</v>
       </c>
       <c r="E206" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -7043,13 +7019,13 @@
         <v>463</v>
       </c>
       <c r="C207" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D207" t="s">
         <v>464</v>
       </c>
       <c r="E207" t="s">
-        <v>250</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -7066,7 +7042,7 @@
         <v>466</v>
       </c>
       <c r="E208" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -7083,24 +7059,24 @@
         <v>468</v>
       </c>
       <c r="E209" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B210" t="s">
         <v>469</v>
       </c>
       <c r="C210" t="s">
-        <v>57</v>
+        <v>470</v>
       </c>
       <c r="D210" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E210" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -7108,16 +7084,16 @@
         <v>46058</v>
       </c>
       <c r="B211" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C211" t="s">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D211" t="s">
         <v>473</v>
       </c>
       <c r="E211" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -7134,7 +7110,7 @@
         <v>475</v>
       </c>
       <c r="E212" t="s">
-        <v>160</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -7168,7 +7144,7 @@
         <v>479</v>
       </c>
       <c r="E214" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -7185,7 +7161,7 @@
         <v>481</v>
       </c>
       <c r="E215" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -7202,7 +7178,7 @@
         <v>483</v>
       </c>
       <c r="E216" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -7219,7 +7195,7 @@
         <v>485</v>
       </c>
       <c r="E217" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -7236,7 +7212,7 @@
         <v>487</v>
       </c>
       <c r="E218" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -7253,7 +7229,7 @@
         <v>489</v>
       </c>
       <c r="E219" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -7264,13 +7240,13 @@
         <v>490</v>
       </c>
       <c r="C220" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D220" t="s">
         <v>491</v>
       </c>
       <c r="E220" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -7287,7 +7263,7 @@
         <v>493</v>
       </c>
       <c r="E221" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -7304,7 +7280,7 @@
         <v>495</v>
       </c>
       <c r="E222" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -7321,7 +7297,7 @@
         <v>497</v>
       </c>
       <c r="E223" t="s">
-        <v>15</v>
+        <v>498</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -7329,16 +7305,16 @@
         <v>46058</v>
       </c>
       <c r="B224" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C224" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D224" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E224" t="s">
-        <v>500</v>
+        <v>204</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -7355,7 +7331,7 @@
         <v>502</v>
       </c>
       <c r="E225" t="s">
-        <v>204</v>
+        <v>503</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -7363,16 +7339,16 @@
         <v>46058</v>
       </c>
       <c r="B226" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C226" t="s">
         <v>52</v>
       </c>
       <c r="D226" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E226" t="s">
-        <v>505</v>
+        <v>21</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -7383,13 +7359,13 @@
         <v>506</v>
       </c>
       <c r="C227" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D227" t="s">
         <v>507</v>
       </c>
       <c r="E227" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -7440,7 +7416,7 @@
         <v>513</v>
       </c>
       <c r="E230" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -7457,7 +7433,7 @@
         <v>515</v>
       </c>
       <c r="E231" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -7474,7 +7450,7 @@
         <v>517</v>
       </c>
       <c r="E232" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -7491,7 +7467,7 @@
         <v>519</v>
       </c>
       <c r="E233" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -7559,7 +7535,7 @@
         <v>527</v>
       </c>
       <c r="E237" t="s">
-        <v>215</v>
+        <v>410</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -7576,7 +7552,7 @@
         <v>529</v>
       </c>
       <c r="E238" t="s">
-        <v>412</v>
+        <v>21</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -7593,7 +7569,7 @@
         <v>531</v>
       </c>
       <c r="E239" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -7627,7 +7603,7 @@
         <v>535</v>
       </c>
       <c r="E241" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -7644,7 +7620,7 @@
         <v>537</v>
       </c>
       <c r="E242" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -7695,7 +7671,7 @@
         <v>543</v>
       </c>
       <c r="E245" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -7729,7 +7705,7 @@
         <v>547</v>
       </c>
       <c r="E247" t="s">
-        <v>90</v>
+        <v>548</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -7737,16 +7713,16 @@
         <v>46058</v>
       </c>
       <c r="B248" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C248" t="s">
         <v>57</v>
       </c>
       <c r="D248" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E248" t="s">
-        <v>550</v>
+        <v>90</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -7780,7 +7756,7 @@
         <v>554</v>
       </c>
       <c r="E250" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -7797,7 +7773,7 @@
         <v>556</v>
       </c>
       <c r="E251" t="s">
-        <v>99</v>
+        <v>557</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -7805,16 +7781,16 @@
         <v>46058</v>
       </c>
       <c r="B252" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C252" t="s">
         <v>57</v>
       </c>
       <c r="D252" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E252" t="s">
-        <v>559</v>
+        <v>174</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -7865,7 +7841,7 @@
         <v>565</v>
       </c>
       <c r="E255" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -7882,7 +7858,7 @@
         <v>567</v>
       </c>
       <c r="E256" t="s">
-        <v>177</v>
+        <v>568</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -7890,16 +7866,16 @@
         <v>46058</v>
       </c>
       <c r="B257" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C257" t="s">
         <v>57</v>
       </c>
       <c r="D257" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E257" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -7907,16 +7883,16 @@
         <v>46058</v>
       </c>
       <c r="B258" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C258" t="s">
         <v>57</v>
       </c>
       <c r="D258" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E258" t="s">
-        <v>573</v>
+        <v>38</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -7984,7 +7960,7 @@
         <v>581</v>
       </c>
       <c r="E262" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -8001,7 +7977,7 @@
         <v>583</v>
       </c>
       <c r="E263" t="s">
-        <v>135</v>
+        <v>388</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -8018,7 +7994,7 @@
         <v>585</v>
       </c>
       <c r="E264" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -8035,7 +8011,7 @@
         <v>587</v>
       </c>
       <c r="E265" t="s">
-        <v>390</v>
+        <v>588</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -8043,16 +8019,16 @@
         <v>46058</v>
       </c>
       <c r="B266" t="s">
+        <v>589</v>
+      </c>
+      <c r="C266" t="s">
+        <v>57</v>
+      </c>
+      <c r="D266" t="s">
+        <v>590</v>
+      </c>
+      <c r="E266" t="s">
         <v>588</v>
-      </c>
-      <c r="C266" t="s">
-        <v>57</v>
-      </c>
-      <c r="D266" t="s">
-        <v>589</v>
-      </c>
-      <c r="E266" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -8069,7 +8045,7 @@
         <v>592</v>
       </c>
       <c r="E267" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -8086,7 +8062,7 @@
         <v>594</v>
       </c>
       <c r="E268" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -8103,7 +8079,7 @@
         <v>596</v>
       </c>
       <c r="E269" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -8120,7 +8096,7 @@
         <v>598</v>
       </c>
       <c r="E270" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -8137,7 +8113,7 @@
         <v>600</v>
       </c>
       <c r="E271" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -8154,7 +8130,7 @@
         <v>602</v>
       </c>
       <c r="E272" t="s">
-        <v>590</v>
+        <v>116</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -8171,24 +8147,24 @@
         <v>604</v>
       </c>
       <c r="E273" t="s">
-        <v>116</v>
+        <v>605</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B274" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C274" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="D274" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E274" t="s">
-        <v>607</v>
+        <v>31</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -8199,13 +8175,13 @@
         <v>608</v>
       </c>
       <c r="C275" t="s">
-        <v>164</v>
+        <v>470</v>
       </c>
       <c r="D275" t="s">
         <v>609</v>
       </c>
       <c r="E275" t="s">
-        <v>31</v>
+        <v>588</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -8216,13 +8192,13 @@
         <v>610</v>
       </c>
       <c r="C276" t="s">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D276" t="s">
         <v>611</v>
       </c>
       <c r="E276" t="s">
-        <v>590</v>
+        <v>160</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -8256,7 +8232,7 @@
         <v>615</v>
       </c>
       <c r="E278" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -8273,7 +8249,7 @@
         <v>617</v>
       </c>
       <c r="E279" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -8290,7 +8266,7 @@
         <v>619</v>
       </c>
       <c r="E280" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -8307,7 +8283,7 @@
         <v>621</v>
       </c>
       <c r="E281" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -8338,10 +8314,10 @@
         <v>6</v>
       </c>
       <c r="D283" t="s">
-        <v>625</v>
+        <v>229</v>
       </c>
       <c r="E283" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -8349,16 +8325,16 @@
         <v>46059</v>
       </c>
       <c r="B284" t="s">
+        <v>625</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="s">
         <v>626</v>
       </c>
-      <c r="C284" t="s">
-        <v>6</v>
-      </c>
-      <c r="D284" t="s">
-        <v>229</v>
-      </c>
       <c r="E284" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -8392,7 +8368,7 @@
         <v>630</v>
       </c>
       <c r="E286" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -8409,7 +8385,7 @@
         <v>632</v>
       </c>
       <c r="E287" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -8426,7 +8402,7 @@
         <v>634</v>
       </c>
       <c r="E288" t="s">
-        <v>177</v>
+        <v>568</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -8443,7 +8419,7 @@
         <v>636</v>
       </c>
       <c r="E289" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -8460,7 +8436,7 @@
         <v>638</v>
       </c>
       <c r="E290" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -8477,7 +8453,7 @@
         <v>640</v>
       </c>
       <c r="E291" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -8494,7 +8470,7 @@
         <v>642</v>
       </c>
       <c r="E292" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -8511,7 +8487,7 @@
         <v>644</v>
       </c>
       <c r="E293" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -8528,7 +8504,7 @@
         <v>646</v>
       </c>
       <c r="E294" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -8545,7 +8521,7 @@
         <v>648</v>
       </c>
       <c r="E295" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -8556,13 +8532,13 @@
         <v>649</v>
       </c>
       <c r="C296" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D296" t="s">
         <v>650</v>
       </c>
       <c r="E296" t="s">
-        <v>590</v>
+        <v>160</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -8579,7 +8555,7 @@
         <v>652</v>
       </c>
       <c r="E297" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -8587,16 +8563,16 @@
         <v>46059</v>
       </c>
       <c r="B298" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C298" t="s">
-        <v>49</v>
+        <v>274</v>
       </c>
       <c r="D298" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E298" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -8604,16 +8580,16 @@
         <v>46059</v>
       </c>
       <c r="B299" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C299" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D299" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E299" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -8621,16 +8597,16 @@
         <v>46059</v>
       </c>
       <c r="B300" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C300" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D300" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E300" t="s">
-        <v>659</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -8641,13 +8617,13 @@
         <v>660</v>
       </c>
       <c r="C301" t="s">
-        <v>276</v>
+        <v>52</v>
       </c>
       <c r="D301" t="s">
         <v>661</v>
       </c>
       <c r="E301" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -8664,7 +8640,7 @@
         <v>663</v>
       </c>
       <c r="E302" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -8681,7 +8657,7 @@
         <v>665</v>
       </c>
       <c r="E303" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -8698,7 +8674,7 @@
         <v>667</v>
       </c>
       <c r="E304" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -8715,7 +8691,7 @@
         <v>669</v>
       </c>
       <c r="E305" t="s">
-        <v>31</v>
+        <v>588</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -8732,7 +8708,7 @@
         <v>671</v>
       </c>
       <c r="E306" t="s">
-        <v>250</v>
+        <v>588</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -8743,13 +8719,13 @@
         <v>672</v>
       </c>
       <c r="C307" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D307" t="s">
         <v>673</v>
       </c>
       <c r="E307" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -8760,13 +8736,13 @@
         <v>674</v>
       </c>
       <c r="C308" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D308" t="s">
         <v>675</v>
       </c>
       <c r="E308" t="s">
-        <v>590</v>
+        <v>59</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -8777,13 +8753,13 @@
         <v>676</v>
       </c>
       <c r="C309" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D309" t="s">
         <v>677</v>
       </c>
       <c r="E309" t="s">
-        <v>590</v>
+        <v>59</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -8800,7 +8776,7 @@
         <v>679</v>
       </c>
       <c r="E310" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -8817,7 +8793,7 @@
         <v>681</v>
       </c>
       <c r="E311" t="s">
-        <v>59</v>
+        <v>204</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -8834,7 +8810,7 @@
         <v>683</v>
       </c>
       <c r="E312" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -8851,7 +8827,7 @@
         <v>685</v>
       </c>
       <c r="E313" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
@@ -8868,7 +8844,7 @@
         <v>687</v>
       </c>
       <c r="E314" t="s">
-        <v>204</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -8885,7 +8861,7 @@
         <v>689</v>
       </c>
       <c r="E315" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -8902,7 +8878,7 @@
         <v>691</v>
       </c>
       <c r="E316" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -8936,7 +8912,7 @@
         <v>695</v>
       </c>
       <c r="E318" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -8953,7 +8929,7 @@
         <v>697</v>
       </c>
       <c r="E319" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
@@ -8970,7 +8946,7 @@
         <v>699</v>
       </c>
       <c r="E320" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -8987,7 +8963,7 @@
         <v>701</v>
       </c>
       <c r="E321" t="s">
-        <v>215</v>
+        <v>69</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -9004,7 +8980,7 @@
         <v>703</v>
       </c>
       <c r="E322" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -9021,7 +8997,7 @@
         <v>705</v>
       </c>
       <c r="E323" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -9038,7 +9014,7 @@
         <v>707</v>
       </c>
       <c r="E324" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -9072,7 +9048,7 @@
         <v>711</v>
       </c>
       <c r="E326" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -9089,7 +9065,7 @@
         <v>713</v>
       </c>
       <c r="E327" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -9106,7 +9082,7 @@
         <v>715</v>
       </c>
       <c r="E328" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -9123,7 +9099,7 @@
         <v>717</v>
       </c>
       <c r="E329" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -9140,7 +9116,7 @@
         <v>719</v>
       </c>
       <c r="E330" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -9157,7 +9133,7 @@
         <v>721</v>
       </c>
       <c r="E331" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -9182,13 +9158,13 @@
         <v>46059</v>
       </c>
       <c r="B333" t="s">
-        <v>724</v>
+        <v>629</v>
       </c>
       <c r="C333" t="s">
         <v>57</v>
       </c>
       <c r="D333" t="s">
-        <v>725</v>
+        <v>630</v>
       </c>
       <c r="E333" t="s">
         <v>90</v>
@@ -9199,16 +9175,16 @@
         <v>46059</v>
       </c>
       <c r="B334" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C334" t="s">
         <v>57</v>
       </c>
       <c r="D334" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E334" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -9216,16 +9192,16 @@
         <v>46059</v>
       </c>
       <c r="B335" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C335" t="s">
         <v>57</v>
       </c>
       <c r="D335" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E335" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -9233,16 +9209,16 @@
         <v>46059</v>
       </c>
       <c r="B336" t="s">
-        <v>631</v>
+        <v>728</v>
       </c>
       <c r="C336" t="s">
         <v>57</v>
       </c>
       <c r="D336" t="s">
-        <v>632</v>
+        <v>729</v>
       </c>
       <c r="E336" t="s">
-        <v>90</v>
+        <v>571</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -9259,7 +9235,7 @@
         <v>731</v>
       </c>
       <c r="E337" t="s">
-        <v>250</v>
+        <v>571</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -9276,7 +9252,7 @@
         <v>733</v>
       </c>
       <c r="E338" t="s">
-        <v>174</v>
+        <v>734</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -9284,16 +9260,16 @@
         <v>46059</v>
       </c>
       <c r="B339" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C339" t="s">
         <v>57</v>
       </c>
       <c r="D339" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E339" t="s">
-        <v>573</v>
+        <v>38</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -9301,16 +9277,16 @@
         <v>46059</v>
       </c>
       <c r="B340" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C340" t="s">
         <v>57</v>
       </c>
       <c r="D340" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E340" t="s">
-        <v>573</v>
+        <v>135</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -9318,16 +9294,16 @@
         <v>46059</v>
       </c>
       <c r="B341" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C341" t="s">
         <v>57</v>
       </c>
       <c r="D341" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E341" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
@@ -9335,16 +9311,16 @@
         <v>46059</v>
       </c>
       <c r="B342" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C342" t="s">
         <v>57</v>
       </c>
       <c r="D342" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E342" t="s">
-        <v>38</v>
+        <v>588</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -9352,16 +9328,16 @@
         <v>46059</v>
       </c>
       <c r="B343" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C343" t="s">
         <v>57</v>
       </c>
       <c r="D343" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E343" t="s">
-        <v>135</v>
+        <v>588</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -9369,16 +9345,16 @@
         <v>46059</v>
       </c>
       <c r="B344" t="s">
-        <v>745</v>
+        <v>643</v>
       </c>
       <c r="C344" t="s">
         <v>57</v>
       </c>
       <c r="D344" t="s">
-        <v>746</v>
+        <v>644</v>
       </c>
       <c r="E344" t="s">
-        <v>747</v>
+        <v>588</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -9386,16 +9362,16 @@
         <v>46059</v>
       </c>
       <c r="B345" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C345" t="s">
         <v>57</v>
       </c>
       <c r="D345" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E345" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -9403,16 +9379,16 @@
         <v>46059</v>
       </c>
       <c r="B346" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C346" t="s">
         <v>57</v>
       </c>
       <c r="D346" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E346" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -9420,16 +9396,16 @@
         <v>46059</v>
       </c>
       <c r="B347" t="s">
-        <v>645</v>
+        <v>750</v>
       </c>
       <c r="C347" t="s">
         <v>57</v>
       </c>
       <c r="D347" t="s">
-        <v>646</v>
+        <v>751</v>
       </c>
       <c r="E347" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
@@ -9446,7 +9422,7 @@
         <v>753</v>
       </c>
       <c r="E348" t="s">
-        <v>590</v>
+        <v>116</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
@@ -9463,7 +9439,7 @@
         <v>755</v>
       </c>
       <c r="E349" t="s">
-        <v>590</v>
+        <v>116</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
@@ -9480,58 +9456,58 @@
         <v>757</v>
       </c>
       <c r="E350" t="s">
-        <v>590</v>
+        <v>116</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B351" t="s">
         <v>758</v>
       </c>
       <c r="C351" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D351" t="s">
         <v>759</v>
       </c>
       <c r="E351" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B352" t="s">
         <v>760</v>
       </c>
       <c r="C352" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D352" t="s">
         <v>761</v>
       </c>
       <c r="E352" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B353" t="s">
         <v>762</v>
       </c>
       <c r="C353" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D353" t="s">
         <v>763</v>
       </c>
       <c r="E353" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -9548,7 +9524,7 @@
         <v>765</v>
       </c>
       <c r="E354" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -9565,7 +9541,7 @@
         <v>767</v>
       </c>
       <c r="E355" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -9582,7 +9558,7 @@
         <v>769</v>
       </c>
       <c r="E356" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -9599,7 +9575,7 @@
         <v>771</v>
       </c>
       <c r="E357" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -9616,7 +9592,7 @@
         <v>773</v>
       </c>
       <c r="E358" t="s">
-        <v>28</v>
+        <v>588</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -9633,7 +9609,7 @@
         <v>775</v>
       </c>
       <c r="E359" t="s">
-        <v>90</v>
+        <v>588</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
@@ -9650,7 +9626,7 @@
         <v>777</v>
       </c>
       <c r="E360" t="s">
-        <v>90</v>
+        <v>653</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
@@ -9661,13 +9637,13 @@
         <v>778</v>
       </c>
       <c r="C361" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D361" t="s">
         <v>779</v>
       </c>
       <c r="E361" t="s">
-        <v>590</v>
+        <v>31</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -9678,13 +9654,13 @@
         <v>780</v>
       </c>
       <c r="C362" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D362" t="s">
         <v>781</v>
       </c>
       <c r="E362" t="s">
-        <v>590</v>
+        <v>215</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -9695,13 +9671,13 @@
         <v>782</v>
       </c>
       <c r="C363" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D363" t="s">
         <v>783</v>
       </c>
       <c r="E363" t="s">
-        <v>659</v>
+        <v>784</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -9709,16 +9685,16 @@
         <v>46062</v>
       </c>
       <c r="B364" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C364" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D364" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E364" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -9726,16 +9702,16 @@
         <v>46062</v>
       </c>
       <c r="B365" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C365" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D365" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E365" t="s">
-        <v>31</v>
+        <v>307</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
@@ -9743,16 +9719,16 @@
         <v>46062</v>
       </c>
       <c r="B366" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C366" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D366" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E366" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -9760,16 +9736,16 @@
         <v>46062</v>
       </c>
       <c r="B367" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C367" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D367" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E367" t="s">
-        <v>215</v>
+        <v>59</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
@@ -9777,16 +9753,16 @@
         <v>46062</v>
       </c>
       <c r="B368" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C368" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D368" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E368" t="s">
-        <v>794</v>
+        <v>204</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
@@ -9797,13 +9773,13 @@
         <v>795</v>
       </c>
       <c r="C369" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D369" t="s">
         <v>796</v>
       </c>
       <c r="E369" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
@@ -9814,13 +9790,13 @@
         <v>797</v>
       </c>
       <c r="C370" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D370" t="s">
         <v>798</v>
       </c>
       <c r="E370" t="s">
-        <v>309</v>
+        <v>8</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -9837,7 +9813,7 @@
         <v>800</v>
       </c>
       <c r="E371" t="s">
-        <v>160</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -9854,7 +9830,7 @@
         <v>802</v>
       </c>
       <c r="E372" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -9871,7 +9847,7 @@
         <v>804</v>
       </c>
       <c r="E373" t="s">
-        <v>204</v>
+        <v>15</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -9888,7 +9864,7 @@
         <v>806</v>
       </c>
       <c r="E374" t="s">
-        <v>62</v>
+        <v>503</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
@@ -9905,7 +9881,7 @@
         <v>808</v>
       </c>
       <c r="E375" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
@@ -9922,7 +9898,7 @@
         <v>810</v>
       </c>
       <c r="E376" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
@@ -9939,7 +9915,7 @@
         <v>812</v>
       </c>
       <c r="E377" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
@@ -9956,7 +9932,7 @@
         <v>814</v>
       </c>
       <c r="E378" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
@@ -9973,7 +9949,7 @@
         <v>816</v>
       </c>
       <c r="E379" t="s">
-        <v>505</v>
+        <v>31</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
@@ -9990,7 +9966,7 @@
         <v>818</v>
       </c>
       <c r="E380" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
@@ -10007,7 +9983,7 @@
         <v>820</v>
       </c>
       <c r="E381" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
@@ -10024,7 +10000,7 @@
         <v>822</v>
       </c>
       <c r="E382" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -10041,7 +10017,7 @@
         <v>824</v>
       </c>
       <c r="E383" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
@@ -10058,7 +10034,7 @@
         <v>826</v>
       </c>
       <c r="E384" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
@@ -10075,7 +10051,7 @@
         <v>828</v>
       </c>
       <c r="E385" t="s">
-        <v>90</v>
+        <v>568</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
@@ -10092,7 +10068,7 @@
         <v>830</v>
       </c>
       <c r="E386" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
@@ -10109,7 +10085,7 @@
         <v>832</v>
       </c>
       <c r="E387" t="s">
-        <v>90</v>
+        <v>588</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
@@ -10126,7 +10102,7 @@
         <v>834</v>
       </c>
       <c r="E388" t="s">
-        <v>99</v>
+        <v>588</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
@@ -10143,7 +10119,7 @@
         <v>836</v>
       </c>
       <c r="E389" t="s">
-        <v>177</v>
+        <v>588</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
@@ -10160,7 +10136,7 @@
         <v>838</v>
       </c>
       <c r="E390" t="s">
-        <v>570</v>
+        <v>116</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
@@ -10177,7 +10153,7 @@
         <v>840</v>
       </c>
       <c r="E391" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
@@ -10194,7 +10170,7 @@
         <v>842</v>
       </c>
       <c r="E392" t="s">
-        <v>590</v>
+        <v>116</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
@@ -10211,7 +10187,7 @@
         <v>844</v>
       </c>
       <c r="E393" t="s">
-        <v>590</v>
+        <v>116</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
@@ -10228,7 +10204,7 @@
         <v>846</v>
       </c>
       <c r="E394" t="s">
-        <v>590</v>
+        <v>653</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
@@ -10239,13 +10215,13 @@
         <v>847</v>
       </c>
       <c r="C395" t="s">
-        <v>57</v>
+        <v>848</v>
       </c>
       <c r="D395" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E395" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
@@ -10253,16 +10229,16 @@
         <v>46062</v>
       </c>
       <c r="B396" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C396" t="s">
-        <v>57</v>
+        <v>848</v>
       </c>
       <c r="D396" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E396" t="s">
-        <v>116</v>
+        <v>360</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
@@ -10270,16 +10246,16 @@
         <v>46062</v>
       </c>
       <c r="B397" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C397" t="s">
-        <v>57</v>
+        <v>848</v>
       </c>
       <c r="D397" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E397" t="s">
-        <v>116</v>
+        <v>568</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
@@ -10287,16 +10263,16 @@
         <v>46062</v>
       </c>
       <c r="B398" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C398" t="s">
-        <v>57</v>
+        <v>848</v>
       </c>
       <c r="D398" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E398" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
@@ -10304,16 +10280,16 @@
         <v>46062</v>
       </c>
       <c r="B399" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C399" t="s">
-        <v>57</v>
+        <v>848</v>
       </c>
       <c r="D399" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E399" t="s">
-        <v>659</v>
+        <v>135</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
@@ -10321,16 +10297,16 @@
         <v>46062</v>
       </c>
       <c r="B400" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C400" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D400" t="s">
         <v>859</v>
       </c>
       <c r="E400" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
@@ -10341,13 +10317,13 @@
         <v>860</v>
       </c>
       <c r="C401" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D401" t="s">
         <v>861</v>
       </c>
       <c r="E401" t="s">
-        <v>362</v>
+        <v>653</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
@@ -10358,13 +10334,13 @@
         <v>862</v>
       </c>
       <c r="C402" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D402" t="s">
         <v>863</v>
       </c>
       <c r="E402" t="s">
-        <v>570</v>
+        <v>864</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
@@ -10372,16 +10348,16 @@
         <v>46062</v>
       </c>
       <c r="B403" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C403" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D403" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E403" t="s">
-        <v>21</v>
+        <v>867</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
@@ -10389,16 +10365,16 @@
         <v>46062</v>
       </c>
       <c r="B404" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C404" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D404" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="E404" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
@@ -10406,16 +10382,16 @@
         <v>46062</v>
       </c>
       <c r="B405" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C405" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D405" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="E405" t="s">
-        <v>38</v>
+        <v>568</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
@@ -10423,16 +10399,16 @@
         <v>46062</v>
       </c>
       <c r="B406" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C406" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D406" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E406" t="s">
-        <v>659</v>
+        <v>38</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
@@ -10440,16 +10416,16 @@
         <v>46062</v>
       </c>
       <c r="B407" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C407" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D407" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E407" t="s">
-        <v>874</v>
+        <v>135</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
@@ -10457,104 +10433,20 @@
         <v>46062</v>
       </c>
       <c r="B408" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C408" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D408" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E408" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A409" s="1">
-        <v>46062</v>
-      </c>
-      <c r="B409" t="s">
-        <v>878</v>
-      </c>
-      <c r="C409" t="s">
-        <v>858</v>
-      </c>
-      <c r="D409" t="s">
-        <v>879</v>
-      </c>
-      <c r="E409" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A410" s="1">
-        <v>46062</v>
-      </c>
-      <c r="B410" t="s">
-        <v>880</v>
-      </c>
-      <c r="C410" t="s">
-        <v>858</v>
-      </c>
-      <c r="D410" t="s">
-        <v>881</v>
-      </c>
-      <c r="E410" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A411" s="1">
-        <v>46062</v>
-      </c>
-      <c r="B411" t="s">
-        <v>882</v>
-      </c>
-      <c r="C411" t="s">
-        <v>858</v>
-      </c>
-      <c r="D411" t="s">
-        <v>883</v>
-      </c>
-      <c r="E411" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A412" s="1">
-        <v>46062</v>
-      </c>
-      <c r="B412" t="s">
-        <v>884</v>
-      </c>
-      <c r="C412" t="s">
-        <v>858</v>
-      </c>
-      <c r="D412" t="s">
-        <v>885</v>
-      </c>
-      <c r="E412" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A413" s="1">
-        <v>46062</v>
-      </c>
-      <c r="B413" t="s">
-        <v>886</v>
-      </c>
-      <c r="C413" t="s">
-        <v>858</v>
-      </c>
-      <c r="D413" t="s">
-        <v>887</v>
-      </c>
-      <c r="E413" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E408" xr:uid="{37301FED-97FC-4247-80A8-6228C2D5F348}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/noticias_dap.xlsx
+++ b/noticias_dap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\DAP\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C726CEF-5F41-4384-8415-25FD6CE00FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9D3C08-7467-4E98-B9F6-70456BABEF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{98F02C5B-C5DC-466B-B66A-90E52589A962}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="noticias_dap" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_dap!$A$1:$E$408</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_dap!$A$1:$E$403</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="866">
   <si>
     <t>fecha</t>
   </si>
@@ -844,27 +844,9 @@
     <t>https://news.google.com/rss/articles/CBMiggJBVV95cUxPQzdpaFZXRFpieXAwVVdFbnY1YUE2cW55TzlCaTctWHdpcHJzSFR2T25UbEU4MEpsSklRR3BzaVNwdndBWWxDa29NbVg5cDdqUS1CY0RSLU9nOUtmT2FyZnBHbFFjcHBnRnRPTng2M2JaZEpqN0toRVpwaEY2S0hSdTdwZDlEbDZxTnAzajltYmlqWE1TZ0R5U1BrcnlnOEhMaGF3TlpjTldhaG9SYXAtZXdEVjdDQVFMN1VZaTY0Y1JpZEN3NWQwMXBoS29Qc0Q4NHp0NUtNX2FpZEJ3OFlTcXVhcVducXE5NGw2dmJWcEUtMnRHSkJxcnRlaEpPbE84TEHSAZwCQVVfeXFMTlFzVHZyRkQwZzBZdnVpUFVndEhfaE12aGJMZWU0TmNfekhDMmVDM0FEMTZDczN0SGVudmI2Q1I5VEhRWUFpenRsWm9OU29Fa1FLZXJhZVBlMVlWYWJacVY0R2pXOU5NYXI0aTVfbE5SOGp4anhiVGtTWXR4M2s2UTVZWkRjUVpPb2pUZ3Z4bzZESDN5Y0pwT1FFenp0REdPSHFHcHJROXc3c21PWkZBTi1qbXJnYXNSRWNqOVpDajNESzBxUVBWVWJsVHRzMWktMENsTGQ4WXo5LWJpakpTem9GOWhWTWswNFR1S1FXWmx4R0FLMmVaOWJ6cmhvRXdESmtQMXIxR2U0WS0tS1IzS1VTcGRETnpvODI0TlM?oc=5</t>
   </si>
   <si>
-    <t>Galerías de arte cierran sus puertas hasta el 7 de febrero para protestar sobre un IVA reducido</t>
-  </si>
-  <si>
     <t>iva</t>
   </si>
   <si>
-    <t>https://news.google.com/rss/articles/CBMi4gFBVV95cUxOb2o3Ty1YTVM2ajk0bk1oQ1o4Vll5Q25zUWV4aWJQZTQ3b25sWU4yMlI0Y3U4RGRnQTF6SjI4UlNDQ0hobmNtS0t5dk5pdlVGazlabng3MXhBSnFGRUREaHJSUWUwaHpMYm0wN1Q2dHIzclRTcVpuNFkzUU4xUE5tZFpKR3FjUHhYa0NwRjF3TzZfWDJ5aUJONWREaU9rSVV6Nk42aDlpNUppbnNtWjZoYzFKT050WFhCN0hzYlJBNGFnQ0VBUTJJQUxkNTY5djVKanNHZVJ0VXVsZWtuTHotMC130gH8AUFVX3lxTE5LRHBBVlBxNng4SWw4U1dUYUduSFZaUnZ4LXdadFY4YjVkQUw1SzJxbU1NQm54dUVRVzc2eW9Rb1RFdXA4U0I2UTVsWnNNcDhESzgwQ2Z5bjlIak5PWVRidmQ0MkRwcGNjRV9tWkJhVkhkUjc4RUZtaTVnV0hEMU01Y2kyc0o0NWU2QkZEOExCVnZULXE5d0JDcUtMci0wOTFkUmNud0k4UlNXcW1HRmt6SE9YYXR3cU1UR21TMmRpaTRacEFxSXI4NzVVZmREQ04tZTZtdUVvZW5ST0gzeWEybUhWTjgxcEJIdEdMZENpRlNsbVJNNjZUdjJBVg?oc=5</t>
-  </si>
-  <si>
-    <t>El Prado reivindica como obras de arte las fotografías que cuentan su memoria</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxPV0ZpOGFYaEthU0Y2UEVINVJiZHk5Nkt2TjVmd0RTZElNRC1vSUN2X2lEaWQtVHgya1NOV3R5dlpjMDk4czVNM2ZnSF90SHR0enVzX1VldDg2cHBIYW9mTG0ydVk4ZjdZQXpJYkhRX052a29LUXlxVEhTNmc2Z0xvb2pmM3B5alpZcktzMzdxaG8zMXZkajI0Unp6aDU3Z1V3bHZSSFlaVDRQUGNvckFrcUt4ay1jZlF1UU0xRtIB0AFBVV95cUxQanpvY3lMQnZ5VktPMFVmTWdTWE9yMU5IV21wLWphYnFfTlRnQkFpZEJfb04tNjh3eG1zaXphN29IMTZvb2xIR3laNWtGYkg0LVZacnB5ak0xWUF2QVJmNmFZT2dOaERxcEVhemQzd3JEYjVFOVM1YU94Y1F1cUJEWmwtSXFMRXdQUXFRVzZMTVNWeGROVzNRTk1HOGRlMWhQM0ZoVEtSS3RydVJrWVNfOXR1RS1XYWRXVjRfNl9waFJQamxHSEVFWXNUS3FXMDhO?oc=5</t>
-  </si>
-  <si>
-    <t>La batalla del arte contra el IVA: “No trabajamos en igualdad de condiciones”</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxOVERjbzBaNzhBMllfakxuVTFlenZWSGY0VjVKQ3hhYmdSTHBFX0ZHMTJ4MDVHMXoyRFRJZUdPaGh2WWl0MzhQOU5VWVNkdlZCS3puOVgwR1o0eWpwTUdlOWxXZmwtMVotRkNidzhOR3dHeUpwRXpqdkk0bW93Ui1hdWZnb2RhV2lGcmthTHZDaVFSSDBNeXpRNF9BQmZURzRuQnNVTlRCR2paMlpzc1k3TElpSjZPZUJt0gHMAUFVX3lxTFB3MnpyeFV6ZW90bndHdzMycElIbGh4aHA0WF8wZDdWVVpINWtCODFDQWlta2RpWkpoY1hRYjRDbVpHQmw3Mm03M0J6NXNjay1yVnNmWkt1UzlKZG5ZQVpuSnNUdXBXcnFsaHpLUUtoRlFNTGpoQ2hJbnFfMDVBbWl3RW5ubGlXSXRTdWZXWlkxS2lmSWNUT3JvOG9jV3A4eGJYeXRFM2JVUmQ4cFZaVnNxVUsybFh4aUV5NnpObzhOZU0zd2dBMUxGbXdQcg?oc=5</t>
-  </si>
-  <si>
     <t>Aseguradoras analizan absorber parte del IVA en caso de siniestros</t>
   </si>
   <si>
@@ -1432,15 +1414,6 @@
     <t>https://news.google.com/rss/articles/CBMiiAJBVV95cUxQbkVMUGI4c0xPbXlCNmU1YWtrNllCSW1pbTZfeHlxVjF1b2RySHhtNEk1bG4tTi1FUHZSQ3ZfbExzR050SFdDVHV5WGg2eXJidDR4Q0NiQnlqOHJOZHJWVlZMb3FXQTVpMEJlOWI4bXlmZXA1bGM3ZExLNnp6dThOb3FYa09kakdWWDZiYUhwUXVEa0I0aWU3SFhJbjQ1d0pJX3RkajhraU9xMldub0lfamFOS0h1NmRSZWIxX3FJVHIxMk5tcTVLMmdRcDNRX29RNWlYZU1VamY5d3lCbFk5SjB2aWVkQXJ0NnZxeXRSRVFvN1pxd1hmX3pxcVVNekczYy16TWxoOWjSAaMCQVVfeXFMUDhHVXdCRHRCa3dhVHB3algzcFhoQ0tKRVdfcFZhRGd3U0QzQlIweVl0LVJlUVMzLUY1YkFFa09BN3hBVk1CaEpva0JodUZBSkxGVVA1ZXl5eWxELWJMYXNwMEhUeGlTWmxVcXQ4WENuNk9yUlY4Z2MwZXV5SHBVV3dFM1NBZFhnb2FaQVhfdGVVcEE5dlJTVkd1bzBWNTBENkxvby1lbUNQR3M5UzVaVDVGTUVaODUtQnB6OVp5YUs1T1RYaFpOYVlpVEwzWkpYSXFiZkk1elpQTDlwQklaMDAtRGY4OWJ6ajVhaW02VWZvcmVpaW4xQnp3U1ctOWNBdmp0eTI2YV9UZmlHeDI5RVc2bEV4M3daTmwtTURldUVHby1R?oc=5</t>
   </si>
   <si>
-    <t>Vinculan a proceso al ex director de Adquisiciones del Ayuntamiento de Tala por comprar cemento más caro</t>
-  </si>
-  <si>
-    <t>cemento</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMi6wFBVV95cUxNUjhsd0hsTlNXQzFQaVJ5WkRNelZGM3RSU1NoV2NTaEQwUHRmU0JpOVhyb0J1eWp1eWROMnBXa0RMbUloYnZLTmNuM0RYSmhyYmNMcGpXd1o1ZG94TkZtWDdiVTVORGFHaHpRYkM5dXE5aWNiUzJ4OHdCdE05V3IxdG5rR3hnTFFhMWR6MUNJTEp3YktGd2pzbkwzYktUOGl5cW5yYlVpRDUwYXZNRmh2RHBOYjZTRE9Sd0Juc0lRLTd3Uk1rRkJQRVBoS3g0cVBvZmlSR1FtRktqTDhyYW5KZWVnN1pkLURmNGl3?oc=5</t>
-  </si>
-  <si>
     <t>Alphabet supera expectativas y aumentará su gasto en IA</t>
   </si>
   <si>
@@ -1849,12 +1822,6 @@
     <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxNUEpZVGJvNko4ZnQxQUtMZTRRUE5tZ1V5TzFIbzRCS1QtamxqNS1HRzVMRHQyQjI3aUlVbkN5MFU1cHViTDNEV1Zka1JwRWNRSUR3WkwwUTVBSkFlTWo2WWJBRHZtVmx1TE1XR2J3ejRjMWMzSE5zVHloZkpiTVBidnExWVY3SU9QR3BKSTNSbUdFZDFGaEZ4ejRlTFJiTUwwZTFPcjUtWFZQMXYxWmMxYVlaS2XSAc8BQVVfeXFMUFhPRloxWlE4Y29BV0JIeERlSEFtZ25oc1YwZGxfQjhmNkJEVUhiQUxDTVJIUGc1UnlYNjNnTjNOUzF2WW5uRzBzU3duZm52Wk1jd1J6MHhpV2FlOXZUczNmTDNDcmxnY3d2aE1xLXZWZTM0TWVqVDBodlZzNTVMR1VYSVlPVEFTNDJXX0ZaUUJrRUVHTnFZNkswdzdEUjRvQm9PTWJvU3AzLUtnSUhFRWJaUHNEQ2FRLVVhVEE4SGtYMk83dmFEN3ZEUU52UWZF?oc=5</t>
   </si>
   <si>
-    <t>El polémico gesto de Alfredo Adame en entrevista con Adrián Marcelo: “Traje mi cemento para inhalar”</t>
-  </si>
-  <si>
-    <t>https://news.google.com/rss/articles/CBMioAFBVV95cUxOeWg2WlhMYmNIb3hSQkNIalB3UnJTYlpLckNfWnJiRnZVMWpJNHJyNE4wRUROMWNpRnRGWE4wRnFxUHdSb05Ya3YyRjZpeW9TYlF0bUExUVZ1WEdCa3hTbEs3WWMyV1hNQzQwbGRKZGpMSk1JWG5XVHRxRGhVbmpIMFRpeDRDNG55TEZfbFhZdkFXd3l6UzUxelRxVGdtWExn0gGgAUFVX3lxTE0wbU8yc0VhNGkyWl85QVppUmpxOXZDaHB1blZBOTkyNDU1QW1lWURha0NTbnRsREtVRE9vajRzclBXUk13MXVRdWU1bXctVFM3QXZyZktsZklrSGw4NXJKUzhOMHNvT1doYnN2U1FHMTJsZVNodUFCNWtsRzZ2NmxpTThuV1RlODNKLUlQS1F6LW83Z0xtSUxfSERFUEtVbGo?oc=5</t>
-  </si>
-  <si>
     <t>Pemex adjudica a Slim contrato mixto en campo Macavil con reservas de gas y condensado</t>
   </si>
   <si>
@@ -2567,9 +2534,6 @@
   </si>
   <si>
     <t>"Nadie entiende ni una palabra de lo que dice este tipo": las críticas de Trump al show de Bad Bunny en el SuperBowl</t>
-  </si>
-  <si>
-    <t>agenda_nacional</t>
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE1rYkdPUW83VW1HZGhXLWhTUDk5dy1ORUF0VUdfMjlsdFVkdGFIeFlWeFdfQ3QzYl9Kb05EV3NNQkNCV2NkcHV5QVZBck1ILUFjZENPLTFpTld4bzjSAWBBVV95cUxPUkU1dXppcVlaN2FjcmdfeTloYS10N1BfV3hMRjJnYkN2ZnhONk4tcXRKZm95Y1dPUFN4YlpsY3hsZWJBQ2tRS1FxYXc2R1lXcXdkOThBLThTQWhkTzcxdG0?oc=5</t>
@@ -3498,10 +3462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37301FED-97FC-4247-80A8-6228C2D5F348}">
-  <dimension ref="A1:E408"/>
+  <dimension ref="A1:E403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A117" activeCellId="4" sqref="A366:XFD366 A364:XFD364 A300:XFD300 A299:XFD299 A117:XFD117"/>
+      <selection activeCell="C390" sqref="C390:C403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5486,16 +5450,16 @@
         <v>46055</v>
       </c>
       <c r="B117" t="s">
+        <v>274</v>
+      </c>
+      <c r="C117" t="s">
         <v>273</v>
-      </c>
-      <c r="C117" t="s">
-        <v>274</v>
       </c>
       <c r="D117" t="s">
         <v>275</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -5506,13 +5470,13 @@
         <v>276</v>
       </c>
       <c r="C118" t="s">
-        <v>274</v>
+        <v>52</v>
       </c>
       <c r="D118" t="s">
         <v>277</v>
       </c>
       <c r="E118" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -5523,13 +5487,13 @@
         <v>278</v>
       </c>
       <c r="C119" t="s">
-        <v>274</v>
+        <v>52</v>
       </c>
       <c r="D119" t="s">
         <v>279</v>
       </c>
       <c r="E119" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -5540,13 +5504,13 @@
         <v>280</v>
       </c>
       <c r="C120" t="s">
-        <v>274</v>
+        <v>52</v>
       </c>
       <c r="D120" t="s">
         <v>281</v>
       </c>
       <c r="E120" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -5563,7 +5527,7 @@
         <v>283</v>
       </c>
       <c r="E121" t="s">
-        <v>15</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -5571,16 +5535,16 @@
         <v>46055</v>
       </c>
       <c r="B122" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C122" t="s">
         <v>52</v>
       </c>
       <c r="D122" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E122" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -5588,16 +5552,16 @@
         <v>46055</v>
       </c>
       <c r="B123" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C123" t="s">
         <v>52</v>
       </c>
       <c r="D123" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E123" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -5605,16 +5569,16 @@
         <v>46055</v>
       </c>
       <c r="B124" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C124" t="s">
         <v>52</v>
       </c>
       <c r="D124" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E124" t="s">
-        <v>290</v>
+        <v>31</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -5631,7 +5595,7 @@
         <v>292</v>
       </c>
       <c r="E125" t="s">
-        <v>72</v>
+        <v>250</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -5648,7 +5612,7 @@
         <v>294</v>
       </c>
       <c r="E126" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -5665,7 +5629,7 @@
         <v>296</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -5682,7 +5646,7 @@
         <v>298</v>
       </c>
       <c r="E128" t="s">
-        <v>250</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -5699,7 +5663,7 @@
         <v>300</v>
       </c>
       <c r="E129" t="s">
-        <v>177</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -5707,16 +5671,16 @@
         <v>46055</v>
       </c>
       <c r="B130" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C130" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D130" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E130" t="s">
-        <v>43</v>
+        <v>304</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -5724,16 +5688,16 @@
         <v>46055</v>
       </c>
       <c r="B131" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C131" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D131" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -5741,16 +5705,16 @@
         <v>46055</v>
       </c>
       <c r="B132" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C132" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D132" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E132" t="s">
-        <v>307</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -5758,16 +5722,16 @@
         <v>46055</v>
       </c>
       <c r="B133" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C133" t="s">
         <v>57</v>
       </c>
       <c r="D133" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E133" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -5784,7 +5748,7 @@
         <v>312</v>
       </c>
       <c r="E134" t="s">
-        <v>15</v>
+        <v>313</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -5792,16 +5756,16 @@
         <v>46055</v>
       </c>
       <c r="B135" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C135" t="s">
         <v>57</v>
       </c>
       <c r="D135" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E135" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -5809,16 +5773,16 @@
         <v>46055</v>
       </c>
       <c r="B136" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C136" t="s">
         <v>57</v>
       </c>
       <c r="D136" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E136" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -5826,16 +5790,16 @@
         <v>46055</v>
       </c>
       <c r="B137" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C137" t="s">
         <v>57</v>
       </c>
       <c r="D137" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E137" t="s">
-        <v>319</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -5852,7 +5816,7 @@
         <v>321</v>
       </c>
       <c r="E138" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -5869,7 +5833,7 @@
         <v>323</v>
       </c>
       <c r="E139" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -5886,7 +5850,7 @@
         <v>325</v>
       </c>
       <c r="E140" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -5903,7 +5867,7 @@
         <v>327</v>
       </c>
       <c r="E141" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -5920,7 +5884,7 @@
         <v>329</v>
       </c>
       <c r="E142" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -5937,7 +5901,7 @@
         <v>331</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -5954,7 +5918,7 @@
         <v>333</v>
       </c>
       <c r="E144" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -5971,7 +5935,7 @@
         <v>335</v>
       </c>
       <c r="E145" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -5988,7 +5952,7 @@
         <v>337</v>
       </c>
       <c r="E146" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -6005,7 +5969,7 @@
         <v>339</v>
       </c>
       <c r="E147" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -6022,7 +5986,7 @@
         <v>341</v>
       </c>
       <c r="E148" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -6039,7 +6003,7 @@
         <v>343</v>
       </c>
       <c r="E149" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -6056,7 +6020,7 @@
         <v>345</v>
       </c>
       <c r="E150" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -6090,7 +6054,7 @@
         <v>349</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -6107,7 +6071,7 @@
         <v>351</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -6118,13 +6082,13 @@
         <v>352</v>
       </c>
       <c r="C154" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="D154" t="s">
         <v>353</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
+        <v>354</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -6132,16 +6096,16 @@
         <v>46055</v>
       </c>
       <c r="B155" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C155" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="D155" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E155" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -6149,16 +6113,16 @@
         <v>46055</v>
       </c>
       <c r="B156" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C156" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="D156" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E156" t="s">
-        <v>116</v>
+        <v>359</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -6166,16 +6130,16 @@
         <v>46055</v>
       </c>
       <c r="B157" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C157" t="s">
         <v>122</v>
       </c>
       <c r="D157" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E157" t="s">
-        <v>360</v>
+        <v>31</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -6183,16 +6147,16 @@
         <v>46055</v>
       </c>
       <c r="B158" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C158" t="s">
         <v>122</v>
       </c>
       <c r="D158" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E158" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -6200,16 +6164,16 @@
         <v>46055</v>
       </c>
       <c r="B159" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C159" t="s">
         <v>122</v>
       </c>
       <c r="D159" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E159" t="s">
-        <v>365</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -6226,58 +6190,58 @@
         <v>367</v>
       </c>
       <c r="E160" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B161" t="s">
         <v>368</v>
       </c>
       <c r="C161" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="D161" t="s">
         <v>369</v>
       </c>
       <c r="E161" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B162" t="s">
         <v>370</v>
       </c>
       <c r="C162" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="D162" t="s">
         <v>371</v>
       </c>
       <c r="E162" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>46055</v>
+        <v>46056</v>
       </c>
       <c r="B163" t="s">
         <v>372</v>
       </c>
       <c r="C163" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="D163" t="s">
         <v>373</v>
       </c>
       <c r="E163" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -6294,7 +6258,7 @@
         <v>375</v>
       </c>
       <c r="E164" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -6311,7 +6275,7 @@
         <v>377</v>
       </c>
       <c r="E165" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -6328,7 +6292,7 @@
         <v>379</v>
       </c>
       <c r="E166" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -6345,7 +6309,7 @@
         <v>381</v>
       </c>
       <c r="E167" t="s">
-        <v>72</v>
+        <v>382</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -6353,16 +6317,16 @@
         <v>46056</v>
       </c>
       <c r="B168" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E168" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -6370,16 +6334,16 @@
         <v>46056</v>
       </c>
       <c r="B169" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
       </c>
       <c r="D169" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E169" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -6387,16 +6351,16 @@
         <v>46056</v>
       </c>
       <c r="B170" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D170" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E170" t="s">
-        <v>388</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -6407,13 +6371,13 @@
         <v>389</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D171" t="s">
         <v>390</v>
       </c>
       <c r="E171" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -6424,13 +6388,13 @@
         <v>391</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D172" t="s">
         <v>392</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -6441,13 +6405,13 @@
         <v>393</v>
       </c>
       <c r="C173" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D173" t="s">
         <v>394</v>
       </c>
       <c r="E173" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -6458,7 +6422,7 @@
         <v>395</v>
       </c>
       <c r="C174" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D174" t="s">
         <v>396</v>
@@ -6481,7 +6445,7 @@
         <v>398</v>
       </c>
       <c r="E175" t="s">
-        <v>72</v>
+        <v>399</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -6489,16 +6453,16 @@
         <v>46056</v>
       </c>
       <c r="B176" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C176" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D176" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E176" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -6506,16 +6470,16 @@
         <v>46056</v>
       </c>
       <c r="B177" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C177" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D177" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E177" t="s">
-        <v>90</v>
+        <v>404</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -6523,16 +6487,16 @@
         <v>46056</v>
       </c>
       <c r="B178" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C178" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D178" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E178" t="s">
-        <v>405</v>
+        <v>21</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -6540,16 +6504,16 @@
         <v>46056</v>
       </c>
       <c r="B179" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C179" t="s">
         <v>57</v>
       </c>
       <c r="D179" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E179" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -6557,16 +6521,16 @@
         <v>46056</v>
       </c>
       <c r="B180" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C180" t="s">
         <v>57</v>
       </c>
       <c r="D180" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E180" t="s">
-        <v>410</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -6583,7 +6547,7 @@
         <v>412</v>
       </c>
       <c r="E181" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -6600,7 +6564,7 @@
         <v>414</v>
       </c>
       <c r="E182" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -6617,7 +6581,7 @@
         <v>416</v>
       </c>
       <c r="E183" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -6634,7 +6598,7 @@
         <v>418</v>
       </c>
       <c r="E184" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -6702,7 +6666,7 @@
         <v>426</v>
       </c>
       <c r="E188" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -6719,7 +6683,7 @@
         <v>428</v>
       </c>
       <c r="E189" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -6736,7 +6700,7 @@
         <v>430</v>
       </c>
       <c r="E190" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -6753,7 +6717,7 @@
         <v>432</v>
       </c>
       <c r="E191" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -6770,7 +6734,7 @@
         <v>434</v>
       </c>
       <c r="E192" t="s">
-        <v>174</v>
+        <v>43</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -6781,13 +6745,13 @@
         <v>435</v>
       </c>
       <c r="C193" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="D193" t="s">
         <v>436</v>
       </c>
       <c r="E193" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -6798,13 +6762,13 @@
         <v>437</v>
       </c>
       <c r="C194" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="D194" t="s">
         <v>438</v>
       </c>
       <c r="E194" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -6815,13 +6779,13 @@
         <v>439</v>
       </c>
       <c r="C195" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="D195" t="s">
         <v>440</v>
       </c>
       <c r="E195" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -6838,7 +6802,7 @@
         <v>442</v>
       </c>
       <c r="E196" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -6855,7 +6819,7 @@
         <v>444</v>
       </c>
       <c r="E197" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -6872,7 +6836,7 @@
         <v>446</v>
       </c>
       <c r="E198" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -6889,7 +6853,7 @@
         <v>448</v>
       </c>
       <c r="E199" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -6906,58 +6870,58 @@
         <v>450</v>
       </c>
       <c r="E200" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B201" t="s">
         <v>451</v>
       </c>
       <c r="C201" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="D201" t="s">
         <v>452</v>
       </c>
       <c r="E201" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B202" t="s">
         <v>453</v>
       </c>
       <c r="C202" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="D202" t="s">
         <v>454</v>
       </c>
       <c r="E202" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>46056</v>
+        <v>46057</v>
       </c>
       <c r="B203" t="s">
         <v>455</v>
       </c>
       <c r="C203" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="D203" t="s">
         <v>456</v>
       </c>
       <c r="E203" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -6968,13 +6932,13 @@
         <v>457</v>
       </c>
       <c r="C204" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D204" t="s">
         <v>458</v>
       </c>
       <c r="E204" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -6985,13 +6949,13 @@
         <v>459</v>
       </c>
       <c r="C205" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D205" t="s">
         <v>460</v>
       </c>
       <c r="E205" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -7002,41 +6966,41 @@
         <v>461</v>
       </c>
       <c r="C206" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D206" t="s">
         <v>462</v>
       </c>
       <c r="E206" t="s">
-        <v>250</v>
+        <v>31</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B207" t="s">
         <v>463</v>
       </c>
       <c r="C207" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D207" t="s">
         <v>464</v>
       </c>
       <c r="E207" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B208" t="s">
         <v>465</v>
       </c>
       <c r="C208" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D208" t="s">
         <v>466</v>
@@ -7047,19 +7011,19 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>46057</v>
+        <v>46058</v>
       </c>
       <c r="B209" t="s">
         <v>467</v>
       </c>
       <c r="C209" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D209" t="s">
         <v>468</v>
       </c>
       <c r="E209" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -7070,13 +7034,13 @@
         <v>469</v>
       </c>
       <c r="C210" t="s">
+        <v>6</v>
+      </c>
+      <c r="D210" t="s">
         <v>470</v>
       </c>
-      <c r="D210" t="s">
-        <v>471</v>
-      </c>
       <c r="E210" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -7084,16 +7048,16 @@
         <v>46058</v>
       </c>
       <c r="B211" t="s">
+        <v>471</v>
+      </c>
+      <c r="C211" t="s">
+        <v>6</v>
+      </c>
+      <c r="D211" t="s">
         <v>472</v>
       </c>
-      <c r="C211" t="s">
-        <v>6</v>
-      </c>
-      <c r="D211" t="s">
-        <v>473</v>
-      </c>
       <c r="E211" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -7101,16 +7065,16 @@
         <v>46058</v>
       </c>
       <c r="B212" t="s">
+        <v>473</v>
+      </c>
+      <c r="C212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D212" t="s">
         <v>474</v>
       </c>
-      <c r="C212" t="s">
-        <v>6</v>
-      </c>
-      <c r="D212" t="s">
-        <v>475</v>
-      </c>
       <c r="E212" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -7118,16 +7082,16 @@
         <v>46058</v>
       </c>
       <c r="B213" t="s">
+        <v>475</v>
+      </c>
+      <c r="C213" t="s">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
         <v>476</v>
       </c>
-      <c r="C213" t="s">
-        <v>6</v>
-      </c>
-      <c r="D213" t="s">
-        <v>477</v>
-      </c>
       <c r="E213" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -7135,16 +7099,16 @@
         <v>46058</v>
       </c>
       <c r="B214" t="s">
+        <v>477</v>
+      </c>
+      <c r="C214" t="s">
+        <v>6</v>
+      </c>
+      <c r="D214" t="s">
         <v>478</v>
       </c>
-      <c r="C214" t="s">
-        <v>6</v>
-      </c>
-      <c r="D214" t="s">
-        <v>479</v>
-      </c>
       <c r="E214" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -7152,16 +7116,16 @@
         <v>46058</v>
       </c>
       <c r="B215" t="s">
+        <v>479</v>
+      </c>
+      <c r="C215" t="s">
+        <v>6</v>
+      </c>
+      <c r="D215" t="s">
         <v>480</v>
       </c>
-      <c r="C215" t="s">
-        <v>6</v>
-      </c>
-      <c r="D215" t="s">
-        <v>481</v>
-      </c>
       <c r="E215" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -7169,16 +7133,16 @@
         <v>46058</v>
       </c>
       <c r="B216" t="s">
+        <v>481</v>
+      </c>
+      <c r="C216" t="s">
+        <v>49</v>
+      </c>
+      <c r="D216" t="s">
         <v>482</v>
       </c>
-      <c r="C216" t="s">
-        <v>6</v>
-      </c>
-      <c r="D216" t="s">
-        <v>483</v>
-      </c>
       <c r="E216" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -7186,16 +7150,16 @@
         <v>46058</v>
       </c>
       <c r="B217" t="s">
+        <v>483</v>
+      </c>
+      <c r="C217" t="s">
+        <v>49</v>
+      </c>
+      <c r="D217" t="s">
         <v>484</v>
       </c>
-      <c r="C217" t="s">
-        <v>6</v>
-      </c>
-      <c r="D217" t="s">
-        <v>485</v>
-      </c>
       <c r="E217" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -7203,16 +7167,16 @@
         <v>46058</v>
       </c>
       <c r="B218" t="s">
+        <v>485</v>
+      </c>
+      <c r="C218" t="s">
+        <v>49</v>
+      </c>
+      <c r="D218" t="s">
         <v>486</v>
       </c>
-      <c r="C218" t="s">
-        <v>6</v>
-      </c>
-      <c r="D218" t="s">
-        <v>487</v>
-      </c>
       <c r="E218" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -7220,16 +7184,16 @@
         <v>46058</v>
       </c>
       <c r="B219" t="s">
+        <v>487</v>
+      </c>
+      <c r="C219" t="s">
+        <v>49</v>
+      </c>
+      <c r="D219" t="s">
         <v>488</v>
       </c>
-      <c r="C219" t="s">
-        <v>6</v>
-      </c>
-      <c r="D219" t="s">
+      <c r="E219" t="s">
         <v>489</v>
-      </c>
-      <c r="E219" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -7240,7 +7204,7 @@
         <v>490</v>
       </c>
       <c r="C220" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D220" t="s">
         <v>491</v>
@@ -7257,13 +7221,13 @@
         <v>492</v>
       </c>
       <c r="C221" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D221" t="s">
         <v>493</v>
       </c>
       <c r="E221" t="s">
-        <v>62</v>
+        <v>494</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -7271,16 +7235,16 @@
         <v>46058</v>
       </c>
       <c r="B222" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C222" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D222" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E222" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -7288,16 +7252,16 @@
         <v>46058</v>
       </c>
       <c r="B223" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C223" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D223" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E223" t="s">
-        <v>498</v>
+        <v>59</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -7308,13 +7272,13 @@
         <v>499</v>
       </c>
       <c r="C224" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D224" t="s">
         <v>500</v>
       </c>
       <c r="E224" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -7325,13 +7289,13 @@
         <v>501</v>
       </c>
       <c r="C225" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D225" t="s">
         <v>502</v>
       </c>
       <c r="E225" t="s">
-        <v>503</v>
+        <v>59</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -7339,16 +7303,16 @@
         <v>46058</v>
       </c>
       <c r="B226" t="s">
+        <v>503</v>
+      </c>
+      <c r="C226" t="s">
+        <v>57</v>
+      </c>
+      <c r="D226" t="s">
         <v>504</v>
       </c>
-      <c r="C226" t="s">
-        <v>52</v>
-      </c>
-      <c r="D226" t="s">
-        <v>505</v>
-      </c>
       <c r="E226" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -7356,16 +7320,16 @@
         <v>46058</v>
       </c>
       <c r="B227" t="s">
+        <v>505</v>
+      </c>
+      <c r="C227" t="s">
+        <v>57</v>
+      </c>
+      <c r="D227" t="s">
         <v>506</v>
       </c>
-      <c r="C227" t="s">
-        <v>57</v>
-      </c>
-      <c r="D227" t="s">
-        <v>507</v>
-      </c>
       <c r="E227" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -7373,16 +7337,16 @@
         <v>46058</v>
       </c>
       <c r="B228" t="s">
+        <v>507</v>
+      </c>
+      <c r="C228" t="s">
+        <v>57</v>
+      </c>
+      <c r="D228" t="s">
         <v>508</v>
       </c>
-      <c r="C228" t="s">
-        <v>57</v>
-      </c>
-      <c r="D228" t="s">
-        <v>509</v>
-      </c>
       <c r="E228" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -7390,16 +7354,16 @@
         <v>46058</v>
       </c>
       <c r="B229" t="s">
+        <v>509</v>
+      </c>
+      <c r="C229" t="s">
+        <v>57</v>
+      </c>
+      <c r="D229" t="s">
         <v>510</v>
       </c>
-      <c r="C229" t="s">
-        <v>57</v>
-      </c>
-      <c r="D229" t="s">
-        <v>511</v>
-      </c>
       <c r="E229" t="s">
-        <v>59</v>
+        <v>215</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -7407,16 +7371,16 @@
         <v>46058</v>
       </c>
       <c r="B230" t="s">
+        <v>511</v>
+      </c>
+      <c r="C230" t="s">
+        <v>57</v>
+      </c>
+      <c r="D230" t="s">
         <v>512</v>
       </c>
-      <c r="C230" t="s">
-        <v>57</v>
-      </c>
-      <c r="D230" t="s">
-        <v>513</v>
-      </c>
       <c r="E230" t="s">
-        <v>62</v>
+        <v>215</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -7424,16 +7388,16 @@
         <v>46058</v>
       </c>
       <c r="B231" t="s">
+        <v>513</v>
+      </c>
+      <c r="C231" t="s">
+        <v>57</v>
+      </c>
+      <c r="D231" t="s">
         <v>514</v>
       </c>
-      <c r="C231" t="s">
-        <v>57</v>
-      </c>
-      <c r="D231" t="s">
-        <v>515</v>
-      </c>
       <c r="E231" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -7441,16 +7405,16 @@
         <v>46058</v>
       </c>
       <c r="B232" t="s">
+        <v>515</v>
+      </c>
+      <c r="C232" t="s">
+        <v>57</v>
+      </c>
+      <c r="D232" t="s">
         <v>516</v>
       </c>
-      <c r="C232" t="s">
-        <v>57</v>
-      </c>
-      <c r="D232" t="s">
-        <v>517</v>
-      </c>
       <c r="E232" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -7458,16 +7422,16 @@
         <v>46058</v>
       </c>
       <c r="B233" t="s">
+        <v>517</v>
+      </c>
+      <c r="C233" t="s">
+        <v>57</v>
+      </c>
+      <c r="D233" t="s">
         <v>518</v>
       </c>
-      <c r="C233" t="s">
-        <v>57</v>
-      </c>
-      <c r="D233" t="s">
-        <v>519</v>
-      </c>
       <c r="E233" t="s">
-        <v>215</v>
+        <v>404</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -7475,16 +7439,16 @@
         <v>46058</v>
       </c>
       <c r="B234" t="s">
+        <v>519</v>
+      </c>
+      <c r="C234" t="s">
+        <v>57</v>
+      </c>
+      <c r="D234" t="s">
         <v>520</v>
       </c>
-      <c r="C234" t="s">
-        <v>57</v>
-      </c>
-      <c r="D234" t="s">
-        <v>521</v>
-      </c>
       <c r="E234" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -7492,16 +7456,16 @@
         <v>46058</v>
       </c>
       <c r="B235" t="s">
+        <v>521</v>
+      </c>
+      <c r="C235" t="s">
+        <v>57</v>
+      </c>
+      <c r="D235" t="s">
         <v>522</v>
       </c>
-      <c r="C235" t="s">
-        <v>57</v>
-      </c>
-      <c r="D235" t="s">
-        <v>523</v>
-      </c>
       <c r="E235" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -7509,16 +7473,16 @@
         <v>46058</v>
       </c>
       <c r="B236" t="s">
+        <v>523</v>
+      </c>
+      <c r="C236" t="s">
+        <v>57</v>
+      </c>
+      <c r="D236" t="s">
         <v>524</v>
       </c>
-      <c r="C236" t="s">
-        <v>57</v>
-      </c>
-      <c r="D236" t="s">
-        <v>525</v>
-      </c>
       <c r="E236" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -7526,16 +7490,16 @@
         <v>46058</v>
       </c>
       <c r="B237" t="s">
+        <v>525</v>
+      </c>
+      <c r="C237" t="s">
+        <v>57</v>
+      </c>
+      <c r="D237" t="s">
         <v>526</v>
       </c>
-      <c r="C237" t="s">
-        <v>57</v>
-      </c>
-      <c r="D237" t="s">
-        <v>527</v>
-      </c>
       <c r="E237" t="s">
-        <v>410</v>
+        <v>75</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -7543,16 +7507,16 @@
         <v>46058</v>
       </c>
       <c r="B238" t="s">
+        <v>527</v>
+      </c>
+      <c r="C238" t="s">
+        <v>57</v>
+      </c>
+      <c r="D238" t="s">
         <v>528</v>
       </c>
-      <c r="C238" t="s">
-        <v>57</v>
-      </c>
-      <c r="D238" t="s">
-        <v>529</v>
-      </c>
       <c r="E238" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -7560,16 +7524,16 @@
         <v>46058</v>
       </c>
       <c r="B239" t="s">
+        <v>529</v>
+      </c>
+      <c r="C239" t="s">
+        <v>57</v>
+      </c>
+      <c r="D239" t="s">
         <v>530</v>
       </c>
-      <c r="C239" t="s">
-        <v>57</v>
-      </c>
-      <c r="D239" t="s">
-        <v>531</v>
-      </c>
       <c r="E239" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -7577,16 +7541,16 @@
         <v>46058</v>
       </c>
       <c r="B240" t="s">
+        <v>531</v>
+      </c>
+      <c r="C240" t="s">
+        <v>57</v>
+      </c>
+      <c r="D240" t="s">
         <v>532</v>
       </c>
-      <c r="C240" t="s">
-        <v>57</v>
-      </c>
-      <c r="D240" t="s">
-        <v>533</v>
-      </c>
       <c r="E240" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -7594,16 +7558,16 @@
         <v>46058</v>
       </c>
       <c r="B241" t="s">
+        <v>533</v>
+      </c>
+      <c r="C241" t="s">
+        <v>57</v>
+      </c>
+      <c r="D241" t="s">
         <v>534</v>
       </c>
-      <c r="C241" t="s">
-        <v>57</v>
-      </c>
-      <c r="D241" t="s">
-        <v>535</v>
-      </c>
       <c r="E241" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -7611,16 +7575,16 @@
         <v>46058</v>
       </c>
       <c r="B242" t="s">
+        <v>535</v>
+      </c>
+      <c r="C242" t="s">
+        <v>57</v>
+      </c>
+      <c r="D242" t="s">
         <v>536</v>
       </c>
-      <c r="C242" t="s">
-        <v>57</v>
-      </c>
-      <c r="D242" t="s">
-        <v>537</v>
-      </c>
       <c r="E242" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -7628,16 +7592,16 @@
         <v>46058</v>
       </c>
       <c r="B243" t="s">
+        <v>537</v>
+      </c>
+      <c r="C243" t="s">
+        <v>57</v>
+      </c>
+      <c r="D243" t="s">
         <v>538</v>
       </c>
-      <c r="C243" t="s">
-        <v>57</v>
-      </c>
-      <c r="D243" t="s">
+      <c r="E243" t="s">
         <v>539</v>
-      </c>
-      <c r="E243" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -7654,7 +7618,7 @@
         <v>541</v>
       </c>
       <c r="E244" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -7688,7 +7652,7 @@
         <v>545</v>
       </c>
       <c r="E246" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -7722,7 +7686,7 @@
         <v>550</v>
       </c>
       <c r="E248" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -7739,7 +7703,7 @@
         <v>552</v>
       </c>
       <c r="E249" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -7756,7 +7720,7 @@
         <v>554</v>
       </c>
       <c r="E250" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -7773,7 +7737,7 @@
         <v>556</v>
       </c>
       <c r="E251" t="s">
-        <v>557</v>
+        <v>177</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -7781,16 +7745,16 @@
         <v>46058</v>
       </c>
       <c r="B252" t="s">
+        <v>557</v>
+      </c>
+      <c r="C252" t="s">
+        <v>57</v>
+      </c>
+      <c r="D252" t="s">
         <v>558</v>
       </c>
-      <c r="C252" t="s">
-        <v>57</v>
-      </c>
-      <c r="D252" t="s">
+      <c r="E252" t="s">
         <v>559</v>
-      </c>
-      <c r="E252" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -7807,7 +7771,7 @@
         <v>561</v>
       </c>
       <c r="E253" t="s">
-        <v>174</v>
+        <v>562</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -7815,16 +7779,16 @@
         <v>46058</v>
       </c>
       <c r="B254" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C254" t="s">
         <v>57</v>
       </c>
       <c r="D254" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E254" t="s">
-        <v>174</v>
+        <v>38</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -7832,16 +7796,16 @@
         <v>46058</v>
       </c>
       <c r="B255" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C255" t="s">
         <v>57</v>
       </c>
       <c r="D255" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E255" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -7849,16 +7813,16 @@
         <v>46058</v>
       </c>
       <c r="B256" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C256" t="s">
         <v>57</v>
       </c>
       <c r="D256" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E256" t="s">
-        <v>568</v>
+        <v>38</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -7875,7 +7839,7 @@
         <v>570</v>
       </c>
       <c r="E257" t="s">
-        <v>571</v>
+        <v>38</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -7883,16 +7847,16 @@
         <v>46058</v>
       </c>
       <c r="B258" t="s">
+        <v>571</v>
+      </c>
+      <c r="C258" t="s">
+        <v>57</v>
+      </c>
+      <c r="D258" t="s">
         <v>572</v>
       </c>
-      <c r="C258" t="s">
-        <v>57</v>
-      </c>
-      <c r="D258" t="s">
-        <v>573</v>
-      </c>
       <c r="E258" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -7900,16 +7864,16 @@
         <v>46058</v>
       </c>
       <c r="B259" t="s">
+        <v>573</v>
+      </c>
+      <c r="C259" t="s">
+        <v>57</v>
+      </c>
+      <c r="D259" t="s">
         <v>574</v>
       </c>
-      <c r="C259" t="s">
-        <v>57</v>
-      </c>
-      <c r="D259" t="s">
-        <v>575</v>
-      </c>
       <c r="E259" t="s">
-        <v>38</v>
+        <v>382</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -7917,16 +7881,16 @@
         <v>46058</v>
       </c>
       <c r="B260" t="s">
+        <v>575</v>
+      </c>
+      <c r="C260" t="s">
+        <v>57</v>
+      </c>
+      <c r="D260" t="s">
         <v>576</v>
       </c>
-      <c r="C260" t="s">
-        <v>57</v>
-      </c>
-      <c r="D260" t="s">
-        <v>577</v>
-      </c>
       <c r="E260" t="s">
-        <v>38</v>
+        <v>382</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -7934,16 +7898,16 @@
         <v>46058</v>
       </c>
       <c r="B261" t="s">
+        <v>577</v>
+      </c>
+      <c r="C261" t="s">
+        <v>57</v>
+      </c>
+      <c r="D261" t="s">
         <v>578</v>
       </c>
-      <c r="C261" t="s">
-        <v>57</v>
-      </c>
-      <c r="D261" t="s">
+      <c r="E261" t="s">
         <v>579</v>
-      </c>
-      <c r="E261" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -7960,7 +7924,7 @@
         <v>581</v>
       </c>
       <c r="E262" t="s">
-        <v>135</v>
+        <v>579</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -7977,7 +7941,7 @@
         <v>583</v>
       </c>
       <c r="E263" t="s">
-        <v>388</v>
+        <v>579</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -7994,7 +7958,7 @@
         <v>585</v>
       </c>
       <c r="E264" t="s">
-        <v>388</v>
+        <v>579</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -8011,7 +7975,7 @@
         <v>587</v>
       </c>
       <c r="E265" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -8019,16 +7983,16 @@
         <v>46058</v>
       </c>
       <c r="B266" t="s">
+        <v>588</v>
+      </c>
+      <c r="C266" t="s">
+        <v>57</v>
+      </c>
+      <c r="D266" t="s">
         <v>589</v>
       </c>
-      <c r="C266" t="s">
-        <v>57</v>
-      </c>
-      <c r="D266" t="s">
-        <v>590</v>
-      </c>
       <c r="E266" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -8036,16 +8000,16 @@
         <v>46058</v>
       </c>
       <c r="B267" t="s">
+        <v>590</v>
+      </c>
+      <c r="C267" t="s">
+        <v>57</v>
+      </c>
+      <c r="D267" t="s">
         <v>591</v>
       </c>
-      <c r="C267" t="s">
-        <v>57</v>
-      </c>
-      <c r="D267" t="s">
-        <v>592</v>
-      </c>
       <c r="E267" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -8053,16 +8017,16 @@
         <v>46058</v>
       </c>
       <c r="B268" t="s">
+        <v>592</v>
+      </c>
+      <c r="C268" t="s">
+        <v>57</v>
+      </c>
+      <c r="D268" t="s">
         <v>593</v>
       </c>
-      <c r="C268" t="s">
-        <v>57</v>
-      </c>
-      <c r="D268" t="s">
-        <v>594</v>
-      </c>
       <c r="E268" t="s">
-        <v>588</v>
+        <v>116</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -8070,84 +8034,84 @@
         <v>46058</v>
       </c>
       <c r="B269" t="s">
+        <v>594</v>
+      </c>
+      <c r="C269" t="s">
+        <v>57</v>
+      </c>
+      <c r="D269" t="s">
         <v>595</v>
       </c>
-      <c r="C269" t="s">
-        <v>57</v>
-      </c>
-      <c r="D269" t="s">
+      <c r="E269" t="s">
         <v>596</v>
-      </c>
-      <c r="E269" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B270" t="s">
         <v>597</v>
       </c>
       <c r="C270" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
       <c r="D270" t="s">
         <v>598</v>
       </c>
       <c r="E270" t="s">
-        <v>588</v>
+        <v>31</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B271" t="s">
         <v>599</v>
       </c>
       <c r="C271" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D271" t="s">
         <v>600</v>
       </c>
       <c r="E271" t="s">
-        <v>588</v>
+        <v>160</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B272" t="s">
         <v>601</v>
       </c>
       <c r="C272" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D272" t="s">
         <v>602</v>
       </c>
       <c r="E272" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <v>46058</v>
+        <v>46059</v>
       </c>
       <c r="B273" t="s">
         <v>603</v>
       </c>
       <c r="C273" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D273" t="s">
         <v>604</v>
       </c>
       <c r="E273" t="s">
-        <v>605</v>
+        <v>204</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -8155,16 +8119,16 @@
         <v>46059</v>
       </c>
       <c r="B274" t="s">
+        <v>605</v>
+      </c>
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" t="s">
         <v>606</v>
       </c>
-      <c r="C274" t="s">
-        <v>164</v>
-      </c>
-      <c r="D274" t="s">
-        <v>607</v>
-      </c>
       <c r="E274" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -8172,16 +8136,16 @@
         <v>46059</v>
       </c>
       <c r="B275" t="s">
+        <v>607</v>
+      </c>
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" t="s">
         <v>608</v>
       </c>
-      <c r="C275" t="s">
-        <v>470</v>
-      </c>
-      <c r="D275" t="s">
-        <v>609</v>
-      </c>
       <c r="E275" t="s">
-        <v>588</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -8189,16 +8153,16 @@
         <v>46059</v>
       </c>
       <c r="B276" t="s">
+        <v>609</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" t="s">
         <v>610</v>
       </c>
-      <c r="C276" t="s">
-        <v>6</v>
-      </c>
-      <c r="D276" t="s">
-        <v>611</v>
-      </c>
       <c r="E276" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -8206,16 +8170,16 @@
         <v>46059</v>
       </c>
       <c r="B277" t="s">
+        <v>611</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
         <v>612</v>
       </c>
-      <c r="C277" t="s">
-        <v>6</v>
-      </c>
-      <c r="D277" t="s">
-        <v>613</v>
-      </c>
       <c r="E277" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -8223,16 +8187,16 @@
         <v>46059</v>
       </c>
       <c r="B278" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C278" t="s">
         <v>6</v>
       </c>
       <c r="D278" t="s">
-        <v>615</v>
+        <v>229</v>
       </c>
       <c r="E278" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -8240,16 +8204,16 @@
         <v>46059</v>
       </c>
       <c r="B279" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
       </c>
       <c r="D279" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E279" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -8257,16 +8221,16 @@
         <v>46059</v>
       </c>
       <c r="B280" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
       </c>
       <c r="D280" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E280" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -8274,16 +8238,16 @@
         <v>46059</v>
       </c>
       <c r="B281" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
       </c>
       <c r="D281" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E281" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -8291,16 +8255,16 @@
         <v>46059</v>
       </c>
       <c r="B282" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C282" t="s">
         <v>6</v>
       </c>
       <c r="D282" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E282" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -8308,16 +8272,16 @@
         <v>46059</v>
       </c>
       <c r="B283" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C283" t="s">
         <v>6</v>
       </c>
       <c r="D283" t="s">
-        <v>229</v>
+        <v>623</v>
       </c>
       <c r="E283" t="s">
-        <v>21</v>
+        <v>559</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -8325,16 +8289,16 @@
         <v>46059</v>
       </c>
       <c r="B284" t="s">
+        <v>624</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="s">
         <v>625</v>
       </c>
-      <c r="C284" t="s">
-        <v>6</v>
-      </c>
-      <c r="D284" t="s">
-        <v>626</v>
-      </c>
       <c r="E284" t="s">
-        <v>72</v>
+        <v>559</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -8342,16 +8306,16 @@
         <v>46059</v>
       </c>
       <c r="B285" t="s">
+        <v>626</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" t="s">
         <v>627</v>
       </c>
-      <c r="C285" t="s">
-        <v>6</v>
-      </c>
-      <c r="D285" t="s">
-        <v>628</v>
-      </c>
       <c r="E285" t="s">
-        <v>72</v>
+        <v>559</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -8359,16 +8323,16 @@
         <v>46059</v>
       </c>
       <c r="B286" t="s">
+        <v>628</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="s">
         <v>629</v>
       </c>
-      <c r="C286" t="s">
-        <v>6</v>
-      </c>
-      <c r="D286" t="s">
-        <v>630</v>
-      </c>
       <c r="E286" t="s">
-        <v>90</v>
+        <v>562</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -8376,16 +8340,16 @@
         <v>46059</v>
       </c>
       <c r="B287" t="s">
+        <v>630</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" t="s">
         <v>631</v>
       </c>
-      <c r="C287" t="s">
-        <v>6</v>
-      </c>
-      <c r="D287" t="s">
-        <v>632</v>
-      </c>
       <c r="E287" t="s">
-        <v>177</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -8393,16 +8357,16 @@
         <v>46059</v>
       </c>
       <c r="B288" t="s">
+        <v>632</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s">
         <v>633</v>
       </c>
-      <c r="C288" t="s">
-        <v>6</v>
-      </c>
-      <c r="D288" t="s">
-        <v>634</v>
-      </c>
       <c r="E288" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -8410,16 +8374,16 @@
         <v>46059</v>
       </c>
       <c r="B289" t="s">
+        <v>634</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="s">
         <v>635</v>
       </c>
-      <c r="C289" t="s">
-        <v>6</v>
-      </c>
-      <c r="D289" t="s">
-        <v>636</v>
-      </c>
       <c r="E289" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -8427,16 +8391,16 @@
         <v>46059</v>
       </c>
       <c r="B290" t="s">
+        <v>636</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="s">
         <v>637</v>
       </c>
-      <c r="C290" t="s">
-        <v>6</v>
-      </c>
-      <c r="D290" t="s">
-        <v>638</v>
-      </c>
       <c r="E290" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -8444,16 +8408,16 @@
         <v>46059</v>
       </c>
       <c r="B291" t="s">
+        <v>638</v>
+      </c>
+      <c r="C291" t="s">
+        <v>49</v>
+      </c>
+      <c r="D291" t="s">
         <v>639</v>
       </c>
-      <c r="C291" t="s">
-        <v>6</v>
-      </c>
-      <c r="D291" t="s">
-        <v>640</v>
-      </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>160</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -8461,16 +8425,16 @@
         <v>46059</v>
       </c>
       <c r="B292" t="s">
+        <v>640</v>
+      </c>
+      <c r="C292" t="s">
+        <v>49</v>
+      </c>
+      <c r="D292" t="s">
         <v>641</v>
       </c>
-      <c r="C292" t="s">
-        <v>6</v>
-      </c>
-      <c r="D292" t="s">
-        <v>642</v>
-      </c>
       <c r="E292" t="s">
-        <v>588</v>
+        <v>215</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -8481,13 +8445,13 @@
         <v>643</v>
       </c>
       <c r="C293" t="s">
-        <v>6</v>
+        <v>273</v>
       </c>
       <c r="D293" t="s">
         <v>644</v>
       </c>
       <c r="E293" t="s">
-        <v>588</v>
+        <v>31</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -8498,13 +8462,13 @@
         <v>645</v>
       </c>
       <c r="C294" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D294" t="s">
         <v>646</v>
       </c>
       <c r="E294" t="s">
-        <v>588</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -8515,13 +8479,13 @@
         <v>647</v>
       </c>
       <c r="C295" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D295" t="s">
         <v>648</v>
       </c>
       <c r="E295" t="s">
-        <v>588</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -8532,13 +8496,13 @@
         <v>649</v>
       </c>
       <c r="C296" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D296" t="s">
         <v>650</v>
       </c>
       <c r="E296" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -8549,13 +8513,13 @@
         <v>651</v>
       </c>
       <c r="C297" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D297" t="s">
         <v>652</v>
       </c>
       <c r="E297" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -8563,16 +8527,16 @@
         <v>46059</v>
       </c>
       <c r="B298" t="s">
+        <v>653</v>
+      </c>
+      <c r="C298" t="s">
+        <v>52</v>
+      </c>
+      <c r="D298" t="s">
         <v>654</v>
       </c>
-      <c r="C298" t="s">
-        <v>274</v>
-      </c>
-      <c r="D298" t="s">
-        <v>655</v>
-      </c>
       <c r="E298" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -8580,16 +8544,16 @@
         <v>46059</v>
       </c>
       <c r="B299" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C299" t="s">
         <v>52</v>
       </c>
       <c r="D299" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E299" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -8597,16 +8561,16 @@
         <v>46059</v>
       </c>
       <c r="B300" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C300" t="s">
         <v>52</v>
       </c>
       <c r="D300" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E300" t="s">
-        <v>15</v>
+        <v>579</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -8614,16 +8578,16 @@
         <v>46059</v>
       </c>
       <c r="B301" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C301" t="s">
         <v>52</v>
       </c>
       <c r="D301" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E301" t="s">
-        <v>72</v>
+        <v>579</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -8631,16 +8595,16 @@
         <v>46059</v>
       </c>
       <c r="B302" t="s">
+        <v>661</v>
+      </c>
+      <c r="C302" t="s">
+        <v>57</v>
+      </c>
+      <c r="D302" t="s">
         <v>662</v>
       </c>
-      <c r="C302" t="s">
-        <v>52</v>
-      </c>
-      <c r="D302" t="s">
-        <v>663</v>
-      </c>
       <c r="E302" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -8648,16 +8612,16 @@
         <v>46059</v>
       </c>
       <c r="B303" t="s">
+        <v>663</v>
+      </c>
+      <c r="C303" t="s">
+        <v>57</v>
+      </c>
+      <c r="D303" t="s">
         <v>664</v>
       </c>
-      <c r="C303" t="s">
-        <v>52</v>
-      </c>
-      <c r="D303" t="s">
-        <v>665</v>
-      </c>
       <c r="E303" t="s">
-        <v>250</v>
+        <v>59</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -8665,16 +8629,16 @@
         <v>46059</v>
       </c>
       <c r="B304" t="s">
+        <v>665</v>
+      </c>
+      <c r="C304" t="s">
+        <v>57</v>
+      </c>
+      <c r="D304" t="s">
         <v>666</v>
       </c>
-      <c r="C304" t="s">
-        <v>52</v>
-      </c>
-      <c r="D304" t="s">
-        <v>667</v>
-      </c>
       <c r="E304" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -8682,16 +8646,16 @@
         <v>46059</v>
       </c>
       <c r="B305" t="s">
+        <v>667</v>
+      </c>
+      <c r="C305" t="s">
+        <v>57</v>
+      </c>
+      <c r="D305" t="s">
         <v>668</v>
       </c>
-      <c r="C305" t="s">
-        <v>52</v>
-      </c>
-      <c r="D305" t="s">
-        <v>669</v>
-      </c>
       <c r="E305" t="s">
-        <v>588</v>
+        <v>204</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -8699,16 +8663,16 @@
         <v>46059</v>
       </c>
       <c r="B306" t="s">
+        <v>669</v>
+      </c>
+      <c r="C306" t="s">
+        <v>57</v>
+      </c>
+      <c r="D306" t="s">
         <v>670</v>
       </c>
-      <c r="C306" t="s">
-        <v>52</v>
-      </c>
-      <c r="D306" t="s">
-        <v>671</v>
-      </c>
       <c r="E306" t="s">
-        <v>588</v>
+        <v>204</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -8716,16 +8680,16 @@
         <v>46059</v>
       </c>
       <c r="B307" t="s">
+        <v>671</v>
+      </c>
+      <c r="C307" t="s">
+        <v>57</v>
+      </c>
+      <c r="D307" t="s">
         <v>672</v>
       </c>
-      <c r="C307" t="s">
-        <v>57</v>
-      </c>
-      <c r="D307" t="s">
-        <v>673</v>
-      </c>
       <c r="E307" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -8733,16 +8697,16 @@
         <v>46059</v>
       </c>
       <c r="B308" t="s">
+        <v>673</v>
+      </c>
+      <c r="C308" t="s">
+        <v>57</v>
+      </c>
+      <c r="D308" t="s">
         <v>674</v>
       </c>
-      <c r="C308" t="s">
-        <v>57</v>
-      </c>
-      <c r="D308" t="s">
-        <v>675</v>
-      </c>
       <c r="E308" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -8750,16 +8714,16 @@
         <v>46059</v>
       </c>
       <c r="B309" t="s">
+        <v>675</v>
+      </c>
+      <c r="C309" t="s">
+        <v>57</v>
+      </c>
+      <c r="D309" t="s">
         <v>676</v>
       </c>
-      <c r="C309" t="s">
-        <v>57</v>
-      </c>
-      <c r="D309" t="s">
-        <v>677</v>
-      </c>
       <c r="E309" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -8767,16 +8731,16 @@
         <v>46059</v>
       </c>
       <c r="B310" t="s">
+        <v>677</v>
+      </c>
+      <c r="C310" t="s">
+        <v>57</v>
+      </c>
+      <c r="D310" t="s">
         <v>678</v>
       </c>
-      <c r="C310" t="s">
-        <v>57</v>
-      </c>
-      <c r="D310" t="s">
-        <v>679</v>
-      </c>
       <c r="E310" t="s">
-        <v>204</v>
+        <v>15</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -8784,16 +8748,16 @@
         <v>46059</v>
       </c>
       <c r="B311" t="s">
+        <v>679</v>
+      </c>
+      <c r="C311" t="s">
+        <v>57</v>
+      </c>
+      <c r="D311" t="s">
         <v>680</v>
       </c>
-      <c r="C311" t="s">
-        <v>57</v>
-      </c>
-      <c r="D311" t="s">
-        <v>681</v>
-      </c>
       <c r="E311" t="s">
-        <v>204</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -8801,16 +8765,16 @@
         <v>46059</v>
       </c>
       <c r="B312" t="s">
+        <v>681</v>
+      </c>
+      <c r="C312" t="s">
+        <v>57</v>
+      </c>
+      <c r="D312" t="s">
         <v>682</v>
       </c>
-      <c r="C312" t="s">
-        <v>57</v>
-      </c>
-      <c r="D312" t="s">
-        <v>683</v>
-      </c>
       <c r="E312" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -8818,16 +8782,16 @@
         <v>46059</v>
       </c>
       <c r="B313" t="s">
+        <v>683</v>
+      </c>
+      <c r="C313" t="s">
+        <v>57</v>
+      </c>
+      <c r="D313" t="s">
         <v>684</v>
       </c>
-      <c r="C313" t="s">
-        <v>57</v>
-      </c>
-      <c r="D313" t="s">
-        <v>685</v>
-      </c>
       <c r="E313" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
@@ -8835,16 +8799,16 @@
         <v>46059</v>
       </c>
       <c r="B314" t="s">
+        <v>685</v>
+      </c>
+      <c r="C314" t="s">
+        <v>57</v>
+      </c>
+      <c r="D314" t="s">
         <v>686</v>
       </c>
-      <c r="C314" t="s">
-        <v>57</v>
-      </c>
-      <c r="D314" t="s">
-        <v>687</v>
-      </c>
       <c r="E314" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -8852,16 +8816,16 @@
         <v>46059</v>
       </c>
       <c r="B315" t="s">
+        <v>687</v>
+      </c>
+      <c r="C315" t="s">
+        <v>57</v>
+      </c>
+      <c r="D315" t="s">
         <v>688</v>
       </c>
-      <c r="C315" t="s">
-        <v>57</v>
-      </c>
-      <c r="D315" t="s">
-        <v>689</v>
-      </c>
       <c r="E315" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -8869,16 +8833,16 @@
         <v>46059</v>
       </c>
       <c r="B316" t="s">
+        <v>689</v>
+      </c>
+      <c r="C316" t="s">
+        <v>57</v>
+      </c>
+      <c r="D316" t="s">
         <v>690</v>
       </c>
-      <c r="C316" t="s">
-        <v>57</v>
-      </c>
-      <c r="D316" t="s">
-        <v>691</v>
-      </c>
       <c r="E316" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -8886,16 +8850,16 @@
         <v>46059</v>
       </c>
       <c r="B317" t="s">
+        <v>691</v>
+      </c>
+      <c r="C317" t="s">
+        <v>57</v>
+      </c>
+      <c r="D317" t="s">
         <v>692</v>
       </c>
-      <c r="C317" t="s">
-        <v>57</v>
-      </c>
-      <c r="D317" t="s">
-        <v>693</v>
-      </c>
       <c r="E317" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -8903,16 +8867,16 @@
         <v>46059</v>
       </c>
       <c r="B318" t="s">
+        <v>693</v>
+      </c>
+      <c r="C318" t="s">
+        <v>57</v>
+      </c>
+      <c r="D318" t="s">
         <v>694</v>
       </c>
-      <c r="C318" t="s">
-        <v>57</v>
-      </c>
-      <c r="D318" t="s">
-        <v>695</v>
-      </c>
       <c r="E318" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -8920,16 +8884,16 @@
         <v>46059</v>
       </c>
       <c r="B319" t="s">
+        <v>695</v>
+      </c>
+      <c r="C319" t="s">
+        <v>57</v>
+      </c>
+      <c r="D319" t="s">
         <v>696</v>
       </c>
-      <c r="C319" t="s">
-        <v>57</v>
-      </c>
-      <c r="D319" t="s">
-        <v>697</v>
-      </c>
       <c r="E319" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
@@ -8937,16 +8901,16 @@
         <v>46059</v>
       </c>
       <c r="B320" t="s">
+        <v>697</v>
+      </c>
+      <c r="C320" t="s">
+        <v>57</v>
+      </c>
+      <c r="D320" t="s">
         <v>698</v>
       </c>
-      <c r="C320" t="s">
-        <v>57</v>
-      </c>
-      <c r="D320" t="s">
-        <v>699</v>
-      </c>
       <c r="E320" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -8954,16 +8918,16 @@
         <v>46059</v>
       </c>
       <c r="B321" t="s">
+        <v>699</v>
+      </c>
+      <c r="C321" t="s">
+        <v>57</v>
+      </c>
+      <c r="D321" t="s">
         <v>700</v>
       </c>
-      <c r="C321" t="s">
-        <v>57</v>
-      </c>
-      <c r="D321" t="s">
-        <v>701</v>
-      </c>
       <c r="E321" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -8971,16 +8935,16 @@
         <v>46059</v>
       </c>
       <c r="B322" t="s">
+        <v>701</v>
+      </c>
+      <c r="C322" t="s">
+        <v>57</v>
+      </c>
+      <c r="D322" t="s">
         <v>702</v>
       </c>
-      <c r="C322" t="s">
-        <v>57</v>
-      </c>
-      <c r="D322" t="s">
-        <v>703</v>
-      </c>
       <c r="E322" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -8988,16 +8952,16 @@
         <v>46059</v>
       </c>
       <c r="B323" t="s">
+        <v>703</v>
+      </c>
+      <c r="C323" t="s">
+        <v>57</v>
+      </c>
+      <c r="D323" t="s">
         <v>704</v>
       </c>
-      <c r="C323" t="s">
-        <v>57</v>
-      </c>
-      <c r="D323" t="s">
-        <v>705</v>
-      </c>
       <c r="E323" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -9005,16 +8969,16 @@
         <v>46059</v>
       </c>
       <c r="B324" t="s">
+        <v>705</v>
+      </c>
+      <c r="C324" t="s">
+        <v>57</v>
+      </c>
+      <c r="D324" t="s">
         <v>706</v>
       </c>
-      <c r="C324" t="s">
-        <v>57</v>
-      </c>
-      <c r="D324" t="s">
-        <v>707</v>
-      </c>
       <c r="E324" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -9022,16 +8986,16 @@
         <v>46059</v>
       </c>
       <c r="B325" t="s">
+        <v>707</v>
+      </c>
+      <c r="C325" t="s">
+        <v>57</v>
+      </c>
+      <c r="D325" t="s">
         <v>708</v>
       </c>
-      <c r="C325" t="s">
-        <v>57</v>
-      </c>
-      <c r="D325" t="s">
-        <v>709</v>
-      </c>
       <c r="E325" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -9039,16 +9003,16 @@
         <v>46059</v>
       </c>
       <c r="B326" t="s">
+        <v>709</v>
+      </c>
+      <c r="C326" t="s">
+        <v>57</v>
+      </c>
+      <c r="D326" t="s">
         <v>710</v>
       </c>
-      <c r="C326" t="s">
-        <v>57</v>
-      </c>
-      <c r="D326" t="s">
-        <v>711</v>
-      </c>
       <c r="E326" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -9056,16 +9020,16 @@
         <v>46059</v>
       </c>
       <c r="B327" t="s">
+        <v>711</v>
+      </c>
+      <c r="C327" t="s">
+        <v>57</v>
+      </c>
+      <c r="D327" t="s">
         <v>712</v>
       </c>
-      <c r="C327" t="s">
-        <v>57</v>
-      </c>
-      <c r="D327" t="s">
-        <v>713</v>
-      </c>
       <c r="E327" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -9073,16 +9037,16 @@
         <v>46059</v>
       </c>
       <c r="B328" t="s">
-        <v>714</v>
+        <v>618</v>
       </c>
       <c r="C328" t="s">
         <v>57</v>
       </c>
       <c r="D328" t="s">
-        <v>715</v>
+        <v>619</v>
       </c>
       <c r="E328" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -9090,16 +9054,16 @@
         <v>46059</v>
       </c>
       <c r="B329" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C329" t="s">
         <v>57</v>
       </c>
       <c r="D329" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E329" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -9107,16 +9071,16 @@
         <v>46059</v>
       </c>
       <c r="B330" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C330" t="s">
         <v>57</v>
       </c>
       <c r="D330" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E330" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -9124,16 +9088,16 @@
         <v>46059</v>
       </c>
       <c r="B331" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C331" t="s">
         <v>57</v>
       </c>
       <c r="D331" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E331" t="s">
-        <v>90</v>
+        <v>562</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -9141,16 +9105,16 @@
         <v>46059</v>
       </c>
       <c r="B332" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C332" t="s">
         <v>57</v>
       </c>
       <c r="D332" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E332" t="s">
-        <v>90</v>
+        <v>562</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -9158,16 +9122,16 @@
         <v>46059</v>
       </c>
       <c r="B333" t="s">
-        <v>629</v>
+        <v>721</v>
       </c>
       <c r="C333" t="s">
         <v>57</v>
       </c>
       <c r="D333" t="s">
-        <v>630</v>
+        <v>722</v>
       </c>
       <c r="E333" t="s">
-        <v>90</v>
+        <v>723</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -9184,7 +9148,7 @@
         <v>725</v>
       </c>
       <c r="E334" t="s">
-        <v>250</v>
+        <v>38</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -9201,7 +9165,7 @@
         <v>727</v>
       </c>
       <c r="E335" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -9218,7 +9182,7 @@
         <v>729</v>
       </c>
       <c r="E336" t="s">
-        <v>571</v>
+        <v>730</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -9226,16 +9190,16 @@
         <v>46059</v>
       </c>
       <c r="B337" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C337" t="s">
         <v>57</v>
       </c>
       <c r="D337" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E337" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -9243,16 +9207,16 @@
         <v>46059</v>
       </c>
       <c r="B338" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C338" t="s">
         <v>57</v>
       </c>
       <c r="D338" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E338" t="s">
-        <v>734</v>
+        <v>579</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -9260,16 +9224,16 @@
         <v>46059</v>
       </c>
       <c r="B339" t="s">
-        <v>735</v>
+        <v>632</v>
       </c>
       <c r="C339" t="s">
         <v>57</v>
       </c>
       <c r="D339" t="s">
-        <v>736</v>
+        <v>633</v>
       </c>
       <c r="E339" t="s">
-        <v>38</v>
+        <v>579</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -9277,16 +9241,16 @@
         <v>46059</v>
       </c>
       <c r="B340" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C340" t="s">
         <v>57</v>
       </c>
       <c r="D340" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E340" t="s">
-        <v>135</v>
+        <v>579</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -9294,16 +9258,16 @@
         <v>46059</v>
       </c>
       <c r="B341" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C341" t="s">
         <v>57</v>
       </c>
       <c r="D341" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E341" t="s">
-        <v>741</v>
+        <v>579</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
@@ -9311,16 +9275,16 @@
         <v>46059</v>
       </c>
       <c r="B342" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C342" t="s">
         <v>57</v>
       </c>
       <c r="D342" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E342" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -9328,16 +9292,16 @@
         <v>46059</v>
       </c>
       <c r="B343" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C343" t="s">
         <v>57</v>
       </c>
       <c r="D343" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E343" t="s">
-        <v>588</v>
+        <v>116</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -9345,16 +9309,16 @@
         <v>46059</v>
       </c>
       <c r="B344" t="s">
-        <v>643</v>
+        <v>743</v>
       </c>
       <c r="C344" t="s">
         <v>57</v>
       </c>
       <c r="D344" t="s">
-        <v>644</v>
+        <v>744</v>
       </c>
       <c r="E344" t="s">
-        <v>588</v>
+        <v>116</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -9362,101 +9326,101 @@
         <v>46059</v>
       </c>
       <c r="B345" t="s">
+        <v>745</v>
+      </c>
+      <c r="C345" t="s">
+        <v>57</v>
+      </c>
+      <c r="D345" t="s">
         <v>746</v>
       </c>
-      <c r="C345" t="s">
-        <v>57</v>
-      </c>
-      <c r="D345" t="s">
-        <v>747</v>
-      </c>
       <c r="E345" t="s">
-        <v>588</v>
+        <v>116</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B346" t="s">
+        <v>747</v>
+      </c>
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" t="s">
         <v>748</v>
       </c>
-      <c r="C346" t="s">
-        <v>57</v>
-      </c>
-      <c r="D346" t="s">
-        <v>749</v>
-      </c>
       <c r="E346" t="s">
-        <v>588</v>
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B347" t="s">
+        <v>749</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" t="s">
         <v>750</v>
       </c>
-      <c r="C347" t="s">
-        <v>57</v>
-      </c>
-      <c r="D347" t="s">
-        <v>751</v>
-      </c>
       <c r="E347" t="s">
-        <v>588</v>
+        <v>8</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B348" t="s">
+        <v>751</v>
+      </c>
+      <c r="C348" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348" t="s">
         <v>752</v>
       </c>
-      <c r="C348" t="s">
-        <v>57</v>
-      </c>
-      <c r="D348" t="s">
-        <v>753</v>
-      </c>
       <c r="E348" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B349" t="s">
+        <v>753</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" t="s">
         <v>754</v>
       </c>
-      <c r="C349" t="s">
-        <v>57</v>
-      </c>
-      <c r="D349" t="s">
-        <v>755</v>
-      </c>
       <c r="E349" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B350" t="s">
+        <v>755</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" t="s">
         <v>756</v>
       </c>
-      <c r="C350" t="s">
-        <v>57</v>
-      </c>
-      <c r="D350" t="s">
-        <v>757</v>
-      </c>
       <c r="E350" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -9464,16 +9428,16 @@
         <v>46062</v>
       </c>
       <c r="B351" t="s">
+        <v>757</v>
+      </c>
+      <c r="C351" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" t="s">
         <v>758</v>
       </c>
-      <c r="C351" t="s">
-        <v>6</v>
-      </c>
-      <c r="D351" t="s">
-        <v>759</v>
-      </c>
       <c r="E351" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -9481,16 +9445,16 @@
         <v>46062</v>
       </c>
       <c r="B352" t="s">
+        <v>759</v>
+      </c>
+      <c r="C352" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352" t="s">
         <v>760</v>
       </c>
-      <c r="C352" t="s">
-        <v>6</v>
-      </c>
-      <c r="D352" t="s">
-        <v>761</v>
-      </c>
       <c r="E352" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -9498,16 +9462,16 @@
         <v>46062</v>
       </c>
       <c r="B353" t="s">
+        <v>761</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" t="s">
         <v>762</v>
       </c>
-      <c r="C353" t="s">
-        <v>6</v>
-      </c>
-      <c r="D353" t="s">
-        <v>763</v>
-      </c>
       <c r="E353" t="s">
-        <v>21</v>
+        <v>579</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -9515,16 +9479,16 @@
         <v>46062</v>
       </c>
       <c r="B354" t="s">
+        <v>763</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" t="s">
         <v>764</v>
       </c>
-      <c r="C354" t="s">
-        <v>6</v>
-      </c>
-      <c r="D354" t="s">
-        <v>765</v>
-      </c>
       <c r="E354" t="s">
-        <v>28</v>
+        <v>579</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -9532,16 +9496,16 @@
         <v>46062</v>
       </c>
       <c r="B355" t="s">
+        <v>765</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" t="s">
         <v>766</v>
       </c>
-      <c r="C355" t="s">
-        <v>6</v>
-      </c>
-      <c r="D355" t="s">
-        <v>767</v>
-      </c>
       <c r="E355" t="s">
-        <v>28</v>
+        <v>642</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -9549,16 +9513,16 @@
         <v>46062</v>
       </c>
       <c r="B356" t="s">
+        <v>767</v>
+      </c>
+      <c r="C356" t="s">
+        <v>49</v>
+      </c>
+      <c r="D356" t="s">
         <v>768</v>
       </c>
-      <c r="C356" t="s">
-        <v>6</v>
-      </c>
-      <c r="D356" t="s">
-        <v>769</v>
-      </c>
       <c r="E356" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -9566,16 +9530,16 @@
         <v>46062</v>
       </c>
       <c r="B357" t="s">
+        <v>769</v>
+      </c>
+      <c r="C357" t="s">
+        <v>52</v>
+      </c>
+      <c r="D357" t="s">
         <v>770</v>
       </c>
-      <c r="C357" t="s">
-        <v>6</v>
-      </c>
-      <c r="D357" t="s">
-        <v>771</v>
-      </c>
       <c r="E357" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -9583,16 +9547,16 @@
         <v>46062</v>
       </c>
       <c r="B358" t="s">
+        <v>771</v>
+      </c>
+      <c r="C358" t="s">
+        <v>52</v>
+      </c>
+      <c r="D358" t="s">
         <v>772</v>
       </c>
-      <c r="C358" t="s">
-        <v>6</v>
-      </c>
-      <c r="D358" t="s">
+      <c r="E358" t="s">
         <v>773</v>
-      </c>
-      <c r="E358" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -9603,13 +9567,13 @@
         <v>774</v>
       </c>
       <c r="C359" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D359" t="s">
         <v>775</v>
       </c>
       <c r="E359" t="s">
-        <v>588</v>
+        <v>116</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
@@ -9620,13 +9584,13 @@
         <v>776</v>
       </c>
       <c r="C360" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D360" t="s">
         <v>777</v>
       </c>
       <c r="E360" t="s">
-        <v>653</v>
+        <v>301</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
@@ -9637,13 +9601,13 @@
         <v>778</v>
       </c>
       <c r="C361" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D361" t="s">
         <v>779</v>
       </c>
       <c r="E361" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -9654,13 +9618,13 @@
         <v>780</v>
       </c>
       <c r="C362" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D362" t="s">
         <v>781</v>
       </c>
       <c r="E362" t="s">
-        <v>215</v>
+        <v>59</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -9671,13 +9635,13 @@
         <v>782</v>
       </c>
       <c r="C363" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D363" t="s">
         <v>783</v>
       </c>
       <c r="E363" t="s">
-        <v>784</v>
+        <v>204</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -9685,16 +9649,16 @@
         <v>46062</v>
       </c>
       <c r="B364" t="s">
+        <v>784</v>
+      </c>
+      <c r="C364" t="s">
+        <v>57</v>
+      </c>
+      <c r="D364" t="s">
         <v>785</v>
       </c>
-      <c r="C364" t="s">
-        <v>52</v>
-      </c>
-      <c r="D364" t="s">
-        <v>786</v>
-      </c>
       <c r="E364" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -9702,16 +9666,16 @@
         <v>46062</v>
       </c>
       <c r="B365" t="s">
+        <v>786</v>
+      </c>
+      <c r="C365" t="s">
+        <v>57</v>
+      </c>
+      <c r="D365" t="s">
         <v>787</v>
       </c>
-      <c r="C365" t="s">
-        <v>52</v>
-      </c>
-      <c r="D365" t="s">
-        <v>788</v>
-      </c>
       <c r="E365" t="s">
-        <v>307</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
@@ -9719,16 +9683,16 @@
         <v>46062</v>
       </c>
       <c r="B366" t="s">
+        <v>788</v>
+      </c>
+      <c r="C366" t="s">
+        <v>57</v>
+      </c>
+      <c r="D366" t="s">
         <v>789</v>
       </c>
-      <c r="C366" t="s">
-        <v>57</v>
-      </c>
-      <c r="D366" t="s">
-        <v>790</v>
-      </c>
       <c r="E366" t="s">
-        <v>160</v>
+        <v>8</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -9736,16 +9700,16 @@
         <v>46062</v>
       </c>
       <c r="B367" t="s">
+        <v>790</v>
+      </c>
+      <c r="C367" t="s">
+        <v>57</v>
+      </c>
+      <c r="D367" t="s">
         <v>791</v>
       </c>
-      <c r="C367" t="s">
-        <v>57</v>
-      </c>
-      <c r="D367" t="s">
-        <v>792</v>
-      </c>
       <c r="E367" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
@@ -9753,16 +9717,16 @@
         <v>46062</v>
       </c>
       <c r="B368" t="s">
+        <v>792</v>
+      </c>
+      <c r="C368" t="s">
+        <v>57</v>
+      </c>
+      <c r="D368" t="s">
         <v>793</v>
       </c>
-      <c r="C368" t="s">
-        <v>57</v>
-      </c>
-      <c r="D368" t="s">
-        <v>794</v>
-      </c>
       <c r="E368" t="s">
-        <v>204</v>
+        <v>15</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
@@ -9770,16 +9734,16 @@
         <v>46062</v>
       </c>
       <c r="B369" t="s">
+        <v>794</v>
+      </c>
+      <c r="C369" t="s">
+        <v>57</v>
+      </c>
+      <c r="D369" t="s">
         <v>795</v>
       </c>
-      <c r="C369" t="s">
-        <v>57</v>
-      </c>
-      <c r="D369" t="s">
-        <v>796</v>
-      </c>
       <c r="E369" t="s">
-        <v>62</v>
+        <v>494</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
@@ -9787,16 +9751,16 @@
         <v>46062</v>
       </c>
       <c r="B370" t="s">
+        <v>796</v>
+      </c>
+      <c r="C370" t="s">
+        <v>57</v>
+      </c>
+      <c r="D370" t="s">
         <v>797</v>
       </c>
-      <c r="C370" t="s">
-        <v>57</v>
-      </c>
-      <c r="D370" t="s">
-        <v>798</v>
-      </c>
       <c r="E370" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -9804,16 +9768,16 @@
         <v>46062</v>
       </c>
       <c r="B371" t="s">
+        <v>798</v>
+      </c>
+      <c r="C371" t="s">
+        <v>57</v>
+      </c>
+      <c r="D371" t="s">
         <v>799</v>
       </c>
-      <c r="C371" t="s">
-        <v>57</v>
-      </c>
-      <c r="D371" t="s">
-        <v>800</v>
-      </c>
       <c r="E371" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -9821,16 +9785,16 @@
         <v>46062</v>
       </c>
       <c r="B372" t="s">
+        <v>800</v>
+      </c>
+      <c r="C372" t="s">
+        <v>57</v>
+      </c>
+      <c r="D372" t="s">
         <v>801</v>
       </c>
-      <c r="C372" t="s">
-        <v>57</v>
-      </c>
-      <c r="D372" t="s">
-        <v>802</v>
-      </c>
       <c r="E372" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -9838,16 +9802,16 @@
         <v>46062</v>
       </c>
       <c r="B373" t="s">
+        <v>802</v>
+      </c>
+      <c r="C373" t="s">
+        <v>57</v>
+      </c>
+      <c r="D373" t="s">
         <v>803</v>
       </c>
-      <c r="C373" t="s">
-        <v>57</v>
-      </c>
-      <c r="D373" t="s">
-        <v>804</v>
-      </c>
       <c r="E373" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -9855,16 +9819,16 @@
         <v>46062</v>
       </c>
       <c r="B374" t="s">
+        <v>804</v>
+      </c>
+      <c r="C374" t="s">
+        <v>57</v>
+      </c>
+      <c r="D374" t="s">
         <v>805</v>
       </c>
-      <c r="C374" t="s">
-        <v>57</v>
-      </c>
-      <c r="D374" t="s">
-        <v>806</v>
-      </c>
       <c r="E374" t="s">
-        <v>503</v>
+        <v>31</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
@@ -9872,16 +9836,16 @@
         <v>46062</v>
       </c>
       <c r="B375" t="s">
+        <v>806</v>
+      </c>
+      <c r="C375" t="s">
+        <v>57</v>
+      </c>
+      <c r="D375" t="s">
         <v>807</v>
       </c>
-      <c r="C375" t="s">
-        <v>57</v>
-      </c>
-      <c r="D375" t="s">
-        <v>808</v>
-      </c>
       <c r="E375" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
@@ -9889,16 +9853,16 @@
         <v>46062</v>
       </c>
       <c r="B376" t="s">
+        <v>808</v>
+      </c>
+      <c r="C376" t="s">
+        <v>57</v>
+      </c>
+      <c r="D376" t="s">
         <v>809</v>
       </c>
-      <c r="C376" t="s">
-        <v>57</v>
-      </c>
-      <c r="D376" t="s">
-        <v>810</v>
-      </c>
       <c r="E376" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
@@ -9906,16 +9870,16 @@
         <v>46062</v>
       </c>
       <c r="B377" t="s">
+        <v>810</v>
+      </c>
+      <c r="C377" t="s">
+        <v>57</v>
+      </c>
+      <c r="D377" t="s">
         <v>811</v>
       </c>
-      <c r="C377" t="s">
-        <v>57</v>
-      </c>
-      <c r="D377" t="s">
-        <v>812</v>
-      </c>
       <c r="E377" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
@@ -9923,16 +9887,16 @@
         <v>46062</v>
       </c>
       <c r="B378" t="s">
+        <v>812</v>
+      </c>
+      <c r="C378" t="s">
+        <v>57</v>
+      </c>
+      <c r="D378" t="s">
         <v>813</v>
       </c>
-      <c r="C378" t="s">
-        <v>57</v>
-      </c>
-      <c r="D378" t="s">
-        <v>814</v>
-      </c>
       <c r="E378" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
@@ -9940,16 +9904,16 @@
         <v>46062</v>
       </c>
       <c r="B379" t="s">
+        <v>814</v>
+      </c>
+      <c r="C379" t="s">
+        <v>57</v>
+      </c>
+      <c r="D379" t="s">
         <v>815</v>
       </c>
-      <c r="C379" t="s">
-        <v>57</v>
-      </c>
-      <c r="D379" t="s">
-        <v>816</v>
-      </c>
       <c r="E379" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
@@ -9957,16 +9921,16 @@
         <v>46062</v>
       </c>
       <c r="B380" t="s">
+        <v>816</v>
+      </c>
+      <c r="C380" t="s">
+        <v>57</v>
+      </c>
+      <c r="D380" t="s">
         <v>817</v>
       </c>
-      <c r="C380" t="s">
-        <v>57</v>
-      </c>
-      <c r="D380" t="s">
-        <v>818</v>
-      </c>
       <c r="E380" t="s">
-        <v>90</v>
+        <v>559</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
@@ -9974,16 +9938,16 @@
         <v>46062</v>
       </c>
       <c r="B381" t="s">
+        <v>818</v>
+      </c>
+      <c r="C381" t="s">
+        <v>57</v>
+      </c>
+      <c r="D381" t="s">
         <v>819</v>
       </c>
-      <c r="C381" t="s">
-        <v>57</v>
-      </c>
-      <c r="D381" t="s">
-        <v>820</v>
-      </c>
       <c r="E381" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
@@ -9991,16 +9955,16 @@
         <v>46062</v>
       </c>
       <c r="B382" t="s">
+        <v>820</v>
+      </c>
+      <c r="C382" t="s">
+        <v>57</v>
+      </c>
+      <c r="D382" t="s">
         <v>821</v>
       </c>
-      <c r="C382" t="s">
-        <v>57</v>
-      </c>
-      <c r="D382" t="s">
-        <v>822</v>
-      </c>
       <c r="E382" t="s">
-        <v>90</v>
+        <v>579</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -10008,16 +9972,16 @@
         <v>46062</v>
       </c>
       <c r="B383" t="s">
+        <v>822</v>
+      </c>
+      <c r="C383" t="s">
+        <v>57</v>
+      </c>
+      <c r="D383" t="s">
         <v>823</v>
       </c>
-      <c r="C383" t="s">
-        <v>57</v>
-      </c>
-      <c r="D383" t="s">
-        <v>824</v>
-      </c>
       <c r="E383" t="s">
-        <v>99</v>
+        <v>579</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
@@ -10025,16 +9989,16 @@
         <v>46062</v>
       </c>
       <c r="B384" t="s">
+        <v>824</v>
+      </c>
+      <c r="C384" t="s">
+        <v>57</v>
+      </c>
+      <c r="D384" t="s">
         <v>825</v>
       </c>
-      <c r="C384" t="s">
-        <v>57</v>
-      </c>
-      <c r="D384" t="s">
-        <v>826</v>
-      </c>
       <c r="E384" t="s">
-        <v>177</v>
+        <v>579</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
@@ -10042,16 +10006,16 @@
         <v>46062</v>
       </c>
       <c r="B385" t="s">
+        <v>826</v>
+      </c>
+      <c r="C385" t="s">
+        <v>57</v>
+      </c>
+      <c r="D385" t="s">
         <v>827</v>
       </c>
-      <c r="C385" t="s">
-        <v>57</v>
-      </c>
-      <c r="D385" t="s">
-        <v>828</v>
-      </c>
       <c r="E385" t="s">
-        <v>568</v>
+        <v>116</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
@@ -10059,16 +10023,16 @@
         <v>46062</v>
       </c>
       <c r="B386" t="s">
+        <v>828</v>
+      </c>
+      <c r="C386" t="s">
+        <v>57</v>
+      </c>
+      <c r="D386" t="s">
         <v>829</v>
       </c>
-      <c r="C386" t="s">
-        <v>57</v>
-      </c>
-      <c r="D386" t="s">
-        <v>830</v>
-      </c>
       <c r="E386" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
@@ -10076,16 +10040,16 @@
         <v>46062</v>
       </c>
       <c r="B387" t="s">
+        <v>830</v>
+      </c>
+      <c r="C387" t="s">
+        <v>57</v>
+      </c>
+      <c r="D387" t="s">
         <v>831</v>
       </c>
-      <c r="C387" t="s">
-        <v>57</v>
-      </c>
-      <c r="D387" t="s">
-        <v>832</v>
-      </c>
       <c r="E387" t="s">
-        <v>588</v>
+        <v>116</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
@@ -10093,16 +10057,16 @@
         <v>46062</v>
       </c>
       <c r="B388" t="s">
+        <v>832</v>
+      </c>
+      <c r="C388" t="s">
+        <v>57</v>
+      </c>
+      <c r="D388" t="s">
         <v>833</v>
       </c>
-      <c r="C388" t="s">
-        <v>57</v>
-      </c>
-      <c r="D388" t="s">
-        <v>834</v>
-      </c>
       <c r="E388" t="s">
-        <v>588</v>
+        <v>116</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
@@ -10110,16 +10074,16 @@
         <v>46062</v>
       </c>
       <c r="B389" t="s">
+        <v>834</v>
+      </c>
+      <c r="C389" t="s">
+        <v>57</v>
+      </c>
+      <c r="D389" t="s">
         <v>835</v>
       </c>
-      <c r="C389" t="s">
-        <v>57</v>
-      </c>
-      <c r="D389" t="s">
-        <v>836</v>
-      </c>
       <c r="E389" t="s">
-        <v>588</v>
+        <v>642</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
@@ -10127,16 +10091,16 @@
         <v>46062</v>
       </c>
       <c r="B390" t="s">
+        <v>836</v>
+      </c>
+      <c r="C390" t="s">
+        <v>122</v>
+      </c>
+      <c r="D390" t="s">
         <v>837</v>
       </c>
-      <c r="C390" t="s">
-        <v>57</v>
-      </c>
-      <c r="D390" t="s">
-        <v>838</v>
-      </c>
       <c r="E390" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
@@ -10144,16 +10108,16 @@
         <v>46062</v>
       </c>
       <c r="B391" t="s">
+        <v>838</v>
+      </c>
+      <c r="C391" t="s">
+        <v>122</v>
+      </c>
+      <c r="D391" t="s">
         <v>839</v>
       </c>
-      <c r="C391" t="s">
-        <v>57</v>
-      </c>
-      <c r="D391" t="s">
-        <v>840</v>
-      </c>
       <c r="E391" t="s">
-        <v>116</v>
+        <v>354</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
@@ -10161,16 +10125,16 @@
         <v>46062</v>
       </c>
       <c r="B392" t="s">
+        <v>840</v>
+      </c>
+      <c r="C392" t="s">
+        <v>122</v>
+      </c>
+      <c r="D392" t="s">
         <v>841</v>
       </c>
-      <c r="C392" t="s">
-        <v>57</v>
-      </c>
-      <c r="D392" t="s">
-        <v>842</v>
-      </c>
       <c r="E392" t="s">
-        <v>116</v>
+        <v>559</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
@@ -10178,16 +10142,16 @@
         <v>46062</v>
       </c>
       <c r="B393" t="s">
+        <v>842</v>
+      </c>
+      <c r="C393" t="s">
+        <v>122</v>
+      </c>
+      <c r="D393" t="s">
         <v>843</v>
       </c>
-      <c r="C393" t="s">
-        <v>57</v>
-      </c>
-      <c r="D393" t="s">
-        <v>844</v>
-      </c>
       <c r="E393" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
@@ -10195,16 +10159,16 @@
         <v>46062</v>
       </c>
       <c r="B394" t="s">
+        <v>844</v>
+      </c>
+      <c r="C394" t="s">
+        <v>122</v>
+      </c>
+      <c r="D394" t="s">
         <v>845</v>
       </c>
-      <c r="C394" t="s">
-        <v>57</v>
-      </c>
-      <c r="D394" t="s">
-        <v>846</v>
-      </c>
       <c r="E394" t="s">
-        <v>653</v>
+        <v>135</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
@@ -10212,16 +10176,16 @@
         <v>46062</v>
       </c>
       <c r="B395" t="s">
+        <v>846</v>
+      </c>
+      <c r="C395" t="s">
+        <v>122</v>
+      </c>
+      <c r="D395" t="s">
         <v>847</v>
       </c>
-      <c r="C395" t="s">
-        <v>848</v>
-      </c>
-      <c r="D395" t="s">
-        <v>849</v>
-      </c>
       <c r="E395" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
@@ -10229,16 +10193,16 @@
         <v>46062</v>
       </c>
       <c r="B396" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C396" t="s">
-        <v>848</v>
+        <v>122</v>
       </c>
       <c r="D396" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E396" t="s">
-        <v>360</v>
+        <v>642</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
@@ -10246,16 +10210,16 @@
         <v>46062</v>
       </c>
       <c r="B397" t="s">
+        <v>850</v>
+      </c>
+      <c r="C397" t="s">
+        <v>122</v>
+      </c>
+      <c r="D397" t="s">
+        <v>851</v>
+      </c>
+      <c r="E397" t="s">
         <v>852</v>
-      </c>
-      <c r="C397" t="s">
-        <v>848</v>
-      </c>
-      <c r="D397" t="s">
-        <v>853</v>
-      </c>
-      <c r="E397" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
@@ -10263,16 +10227,16 @@
         <v>46062</v>
       </c>
       <c r="B398" t="s">
+        <v>853</v>
+      </c>
+      <c r="C398" t="s">
+        <v>122</v>
+      </c>
+      <c r="D398" t="s">
         <v>854</v>
       </c>
-      <c r="C398" t="s">
-        <v>848</v>
-      </c>
-      <c r="D398" t="s">
+      <c r="E398" t="s">
         <v>855</v>
-      </c>
-      <c r="E398" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
@@ -10283,13 +10247,13 @@
         <v>856</v>
       </c>
       <c r="C399" t="s">
-        <v>848</v>
+        <v>122</v>
       </c>
       <c r="D399" t="s">
         <v>857</v>
       </c>
       <c r="E399" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
@@ -10300,13 +10264,13 @@
         <v>858</v>
       </c>
       <c r="C400" t="s">
-        <v>848</v>
+        <v>122</v>
       </c>
       <c r="D400" t="s">
         <v>859</v>
       </c>
       <c r="E400" t="s">
-        <v>38</v>
+        <v>559</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
@@ -10317,13 +10281,13 @@
         <v>860</v>
       </c>
       <c r="C401" t="s">
-        <v>848</v>
+        <v>122</v>
       </c>
       <c r="D401" t="s">
         <v>861</v>
       </c>
       <c r="E401" t="s">
-        <v>653</v>
+        <v>38</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
@@ -10334,13 +10298,13 @@
         <v>862</v>
       </c>
       <c r="C402" t="s">
-        <v>848</v>
+        <v>122</v>
       </c>
       <c r="D402" t="s">
         <v>863</v>
       </c>
       <c r="E402" t="s">
-        <v>864</v>
+        <v>135</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
@@ -10348,105 +10312,20 @@
         <v>46062</v>
       </c>
       <c r="B403" t="s">
+        <v>864</v>
+      </c>
+      <c r="C403" t="s">
+        <v>122</v>
+      </c>
+      <c r="D403" t="s">
         <v>865</v>
       </c>
-      <c r="C403" t="s">
-        <v>848</v>
-      </c>
-      <c r="D403" t="s">
-        <v>866</v>
-      </c>
       <c r="E403" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A404" s="1">
-        <v>46062</v>
-      </c>
-      <c r="B404" t="s">
-        <v>868</v>
-      </c>
-      <c r="C404" t="s">
-        <v>848</v>
-      </c>
-      <c r="D404" t="s">
-        <v>869</v>
-      </c>
-      <c r="E404" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A405" s="1">
-        <v>46062</v>
-      </c>
-      <c r="B405" t="s">
-        <v>870</v>
-      </c>
-      <c r="C405" t="s">
-        <v>848</v>
-      </c>
-      <c r="D405" t="s">
-        <v>871</v>
-      </c>
-      <c r="E405" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A406" s="1">
-        <v>46062</v>
-      </c>
-      <c r="B406" t="s">
-        <v>872</v>
-      </c>
-      <c r="C406" t="s">
-        <v>848</v>
-      </c>
-      <c r="D406" t="s">
-        <v>873</v>
-      </c>
-      <c r="E406" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A407" s="1">
-        <v>46062</v>
-      </c>
-      <c r="B407" t="s">
-        <v>874</v>
-      </c>
-      <c r="C407" t="s">
-        <v>848</v>
-      </c>
-      <c r="D407" t="s">
-        <v>875</v>
-      </c>
-      <c r="E407" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A408" s="1">
-        <v>46062</v>
-      </c>
-      <c r="B408" t="s">
-        <v>876</v>
-      </c>
-      <c r="C408" t="s">
-        <v>848</v>
-      </c>
-      <c r="D408" t="s">
-        <v>877</v>
-      </c>
-      <c r="E408" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E408" xr:uid="{37301FED-97FC-4247-80A8-6228C2D5F348}"/>
+  <autoFilter ref="A1:E403" xr:uid="{37301FED-97FC-4247-80A8-6228C2D5F348}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>